--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
   <si>
     <t>ID Code</t>
   </si>
@@ -88,33 +88,6 @@
     <t>Mack</t>
   </si>
   <si>
-    <t>Sprint 2 (08-02 t/m 14-02)</t>
-  </si>
-  <si>
-    <t>Sprint 1 (01-02 t/m 07-02)</t>
-  </si>
-  <si>
-    <t>Sprint 3 (15-02 t/m 21-02)</t>
-  </si>
-  <si>
-    <t>Sprint 4 (22-02 t/m 28-02)</t>
-  </si>
-  <si>
-    <t>Sprint 5 (29-02 t/m 06-03)</t>
-  </si>
-  <si>
-    <t>Sprint 6 (07-03 t/m 13-03)</t>
-  </si>
-  <si>
-    <t>Sprint 7 (14-03 t/m 20-03)</t>
-  </si>
-  <si>
-    <t>Sprint 8 (21-03 t/m 27-03)</t>
-  </si>
-  <si>
-    <t>Sprint 9 (28-03 t/m 03-04)</t>
-  </si>
-  <si>
     <t>A. Weapon</t>
   </si>
   <si>
@@ -154,9 +127,6 @@
     <t>| DesertEagle | BoeiwKnife | BalisticKnife |</t>
   </si>
   <si>
-    <t>Weapon_DesertEasgle_1 (17)</t>
-  </si>
-  <si>
     <t>Totaal</t>
   </si>
   <si>
@@ -164,6 +134,33 @@
   </si>
   <si>
     <t>Totaal Development</t>
+  </si>
+  <si>
+    <t>Sprint 1 (29-02 t/m 13-03)</t>
+  </si>
+  <si>
+    <t>Sprint 2 (14-03 t/m 27-03)</t>
+  </si>
+  <si>
+    <t>Sprint 3 (28-03 t/m 10-04)</t>
+  </si>
+  <si>
+    <t>Sprint 4 (11-04 t/m 24-04)</t>
+  </si>
+  <si>
+    <t>Sprint 5 (25-04 t/m 08-05)</t>
+  </si>
+  <si>
+    <t>Sprint 6 (09-05 t/m 22-05)</t>
+  </si>
+  <si>
+    <t>Sprint 7 (23-05 t/m 05-06)</t>
+  </si>
+  <si>
+    <t>Sprint 8 (06-06 t/m 19-06)</t>
+  </si>
+  <si>
+    <t>Sprint 9 (20-06 t/m 03-07)</t>
   </si>
 </sst>
 </file>
@@ -461,7 +458,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,9 +629,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -952,7 +946,7 @@
   <dimension ref="A1:T576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,45 +989,45 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
@@ -1045,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J2" s="17"/>
       <c r="K2" s="47" t="s">
@@ -1084,13 +1078,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D3" s="34">
         <v>5</v>
@@ -1102,16 +1096,14 @@
         <v>9</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H3" s="59" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I3" s="54"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="60" t="s">
-        <v>45</v>
-      </c>
+      <c r="K3"/>
       <c r="L3" s="20"/>
       <c r="M3" s="21"/>
       <c r="N3" s="20"/>
@@ -1123,13 +1115,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D4" s="34">
         <v>2</v>
@@ -1141,10 +1133,10 @@
         <v>6</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="17"/>
@@ -1160,13 +1152,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
@@ -1178,10 +1170,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I5" s="54"/>
       <c r="J5" s="17"/>
@@ -1197,13 +1189,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D6" s="34">
         <v>2</v>
@@ -1215,10 +1207,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I6" s="54"/>
       <c r="J6" s="17"/>
@@ -1234,13 +1226,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D7" s="34">
         <v>1</v>
@@ -1252,10 +1244,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="17"/>
@@ -1271,13 +1263,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D8" s="34">
         <v>3</v>
@@ -1289,10 +1281,10 @@
         <v>11</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I8" s="54"/>
       <c r="J8" s="17"/>
@@ -1328,13 +1320,13 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D10" s="34">
         <v>1</v>
@@ -1361,13 +1353,13 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D11" s="34">
         <v>2</v>
@@ -1391,13 +1383,13 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D12" s="34">
         <v>1</v>
@@ -1421,13 +1413,13 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -1451,13 +1443,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D14" s="34">
         <v>2</v>
@@ -1481,13 +1473,13 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D15" s="34">
         <v>1</v>
@@ -1511,13 +1503,13 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D16" s="34">
         <v>2</v>
@@ -1559,18 +1551,18 @@
       <c r="R17" s="20"/>
       <c r="S17" s="28"/>
       <c r="T17" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D18" s="34">
         <v>1</v>
@@ -1584,9 +1576,7 @@
       <c r="J18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="36">
-        <v>8</v>
-      </c>
+      <c r="K18" s="36"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
@@ -1597,18 +1587,18 @@
       <c r="S18" s="38"/>
       <c r="T18" s="1">
         <f>K18+L18+M18+N18+O18+P18+Q18+R18+S18</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D19" s="34">
         <v>2</v>
@@ -1638,13 +1628,13 @@
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D20" s="34">
         <v>1</v>
@@ -1674,13 +1664,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
@@ -1693,22 +1683,22 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="S21" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="T21" s="1">
         <f>SUM(T18:T20)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D22" s="34">
         <v>2</v>
@@ -1723,13 +1713,13 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D23" s="34">
         <v>1</v>
@@ -1771,13 +1761,13 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D24" s="34">
         <v>2</v>
@@ -1905,7 +1895,7 @@
       <c r="R30" s="20"/>
       <c r="S30" s="25"/>
       <c r="T30" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -1967,7 +1957,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="S33" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="T33" s="1">
         <f>SUM(T31:T32)</f>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>ID Code</t>
   </si>
@@ -166,16 +166,22 @@
     <t>|</t>
   </si>
   <si>
-    <t>Weapon_HandPistol_1</t>
-  </si>
-  <si>
     <t>Weapon_Shotgun_2</t>
   </si>
   <si>
-    <t>Weapon_Knife_3</t>
+    <t>Weapon_Revolver_1</t>
   </si>
   <si>
-    <t>Weapon_Harpoon_4</t>
+    <t>Weapon_CeremicBlade_3</t>
+  </si>
+  <si>
+    <t>Weapon_AssaultRifle_4</t>
+  </si>
+  <si>
+    <t>Weapon_HarpoonGun_5</t>
+  </si>
+  <si>
+    <t>Weapon_Grenades_6</t>
   </si>
 </sst>
 </file>
@@ -640,10 +646,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -666,9 +672,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -706,7 +712,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -778,7 +784,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -954,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1348,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
@@ -1389,7 +1395,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -1520,8 +1526,12 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1572,8 +1582,12 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="107">
   <si>
     <t>ID Code</t>
   </si>
@@ -182,6 +182,162 @@
   </si>
   <si>
     <t>Weapon_Grenades_6</t>
+  </si>
+  <si>
+    <t>Items_PackManager</t>
+  </si>
+  <si>
+    <t>Items_AbstractPack</t>
+  </si>
+  <si>
+    <t>Items_StimPack</t>
+  </si>
+  <si>
+    <t>Items_MedicalPack</t>
+  </si>
+  <si>
+    <t>Items_AmmoPack</t>
+  </si>
+  <si>
+    <t>Items_GrenadePack</t>
+  </si>
+  <si>
+    <t>Items_KeyCards</t>
+  </si>
+  <si>
+    <t>Items_LootManager</t>
+  </si>
+  <si>
+    <t>Items_InfoManager</t>
+  </si>
+  <si>
+    <t>Enemy_AbstractEnemy</t>
+  </si>
+  <si>
+    <t>Enemy_AIEnemy</t>
+  </si>
+  <si>
+    <t>Enemy_Turret</t>
+  </si>
+  <si>
+    <t>Enemy_Roomba</t>
+  </si>
+  <si>
+    <t>Enemy_MechanicalArms</t>
+  </si>
+  <si>
+    <t>Enemy_LiveStockEnemy</t>
+  </si>
+  <si>
+    <t>Enemy_Dogs</t>
+  </si>
+  <si>
+    <t>Enemy_Cows</t>
+  </si>
+  <si>
+    <t>Enemy_Chickens</t>
+  </si>
+  <si>
+    <t>Enemy_Oyster</t>
+  </si>
+  <si>
+    <t>Enemy_Plants</t>
+  </si>
+  <si>
+    <t>Player_Movement</t>
+  </si>
+  <si>
+    <t>Player_CameraControl</t>
+  </si>
+  <si>
+    <t>Player_Health</t>
+  </si>
+  <si>
+    <t>Game_SoundManager</t>
+  </si>
+  <si>
+    <t>Game_HUDManager</t>
+  </si>
+  <si>
+    <t>Game_AIShipManager</t>
+  </si>
+  <si>
+    <t>Game_GameManager</t>
+  </si>
+  <si>
+    <t>Game_SurvivorManager</t>
+  </si>
+  <si>
+    <t>Puzzle_CodeBreaker</t>
+  </si>
+  <si>
+    <t>Environment_ExplodingBarrel</t>
+  </si>
+  <si>
+    <t>Environment_Lights</t>
+  </si>
+  <si>
+    <t>Weapons_WeaponManager</t>
+  </si>
+  <si>
+    <t>Weapons_AbstractWeapons</t>
+  </si>
+  <si>
+    <t>Weapons_MeleeWeapon</t>
+  </si>
+  <si>
+    <t>Weapons_Shotgun</t>
+  </si>
+  <si>
+    <t>Weapons_Pistol</t>
+  </si>
+  <si>
+    <t>Weapons_HarpoonGun</t>
+  </si>
+  <si>
+    <t>Weapons_FlareGun</t>
+  </si>
+  <si>
+    <t>Weapons_AssaultRifle</t>
+  </si>
+  <si>
+    <t>Weapons_AbstractGrenades</t>
+  </si>
+  <si>
+    <t>Weapons_FragGrenades</t>
+  </si>
+  <si>
+    <t>Weapons_StunGrenades</t>
+  </si>
+  <si>
+    <t>Weapons_SmokeGrenades</t>
+  </si>
+  <si>
+    <t>Weapons_AbstractMines</t>
+  </si>
+  <si>
+    <t>H. Script</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>| AbstractEnemy | AIEnemy | Turret | Roomba | MechanicalArms | LiveStockEnemy | Dogs | Cows | Chickens | Oyster | Plants</t>
+  </si>
+  <si>
+    <t>| PackManager | AbstractPack | StimPack | MedicalPack | AmmoPack | GrenadePack | KeyCards | LootManager | InfoManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| Movement | CameraControl | Health | SoundManager | HUDManager | AIShipManager | GameManager | SurvivorManager </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| CodeBreaker | ExplodingBarrel | Lights | WeaponManager | AbstractWeapons | MeleeWeapon | Shotgun | Pistol | HarpoonGun </t>
+  </si>
+  <si>
+    <t>| FlareGun | AssaultRifle | AbstractGrenades | FragGrenades | StunGrenades | SmokeGrenades | AbstractMines</t>
   </si>
 </sst>
 </file>
@@ -646,10 +802,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -672,9 +828,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -712,7 +868,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -784,7 +940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -960,13 +1116,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="27" bestFit="1" customWidth="1"/>
@@ -974,7 +1130,7 @@
     <col min="6" max="6" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="121" style="3" customWidth="1"/>
     <col min="10" max="10" width="13" style="3" customWidth="1"/>
     <col min="11" max="11" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="19" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -1332,9 +1488,15 @@
       <c r="F9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>103</v>
+      </c>
       <c r="J9" s="11"/>
       <c r="K9" s="31"/>
       <c r="L9" s="24"/>
@@ -1360,8 +1522,12 @@
         <v>12</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>102</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="31"/>
       <c r="L10" s="24"/>
@@ -1380,8 +1546,12 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>104</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="31"/>
       <c r="L11" s="24"/>
@@ -1404,8 +1574,12 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>105</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="31"/>
       <c r="L12" s="24"/>
@@ -1421,8 +1595,12 @@
       <c r="A13" s="5"/>
       <c r="B13" s="35"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>106</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="31"/>
       <c r="L13" s="24"/>
@@ -1627,22 +1805,42 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="A22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="8">
+        <v>8</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="5"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="A23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="8">
+        <v>8</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="5"/>
       <c r="I23" s="11"/>
@@ -1676,11 +1874,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="A24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="8">
+        <v>6</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="5"/>
       <c r="I24" s="11"/>
@@ -1695,11 +1903,21 @@
       <c r="S24" s="47"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="8">
+        <v>7</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="5"/>
       <c r="I25" s="11"/>
@@ -1714,11 +1932,21 @@
       <c r="S25" s="47"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="A26" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="8">
+        <v>8</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="5"/>
       <c r="I26" s="11"/>
@@ -1734,11 +1962,21 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="8">
+        <v>7</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="21"/>
       <c r="L27" s="22"/>
@@ -1751,11 +1989,21 @@
       <c r="S27" s="25"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="A28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="8">
+        <v>7</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
@@ -1768,11 +2016,21 @@
       <c r="S28" s="36"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="8">
+        <v>7</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="21"/>
       <c r="L29" s="22"/>
@@ -1785,11 +2043,21 @@
       <c r="S29" s="25"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="21"/>
       <c r="L30" s="24"/>
@@ -1828,11 +2096,21 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="A32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="8">
+        <v>8</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="11"/>
@@ -1854,11 +2132,21 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="8">
+        <v>7</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="11"/>
@@ -1871,21 +2159,41 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="A34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="8">
+        <v>6</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="8">
+        <v>6</v>
+      </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="11"/>
@@ -1901,11 +2209,21 @@
       <c r="S35" s="11"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="8">
+        <v>6</v>
+      </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="11"/>
@@ -1921,11 +2239,21 @@
       <c r="S36" s="7"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="8">
+        <v>7</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="11"/>
@@ -1941,43 +2269,93 @@
       <c r="S37" s="7"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="8">
+        <v>6</v>
+      </c>
       <c r="J38" s="11"/>
       <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="8">
+        <v>6</v>
+      </c>
       <c r="J39" s="11"/>
       <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="A42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
@@ -1987,25 +2365,55 @@
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="A44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="A45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="A46" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -2015,39 +2423,89 @@
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="A49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="A50" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="A51" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="A52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
@@ -2057,11 +2515,21 @@
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="A54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
@@ -2071,18 +2539,38 @@
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="A56" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="A57" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
@@ -2092,95 +2580,225 @@
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="A59" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="A61" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="A62" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="A63" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="A64" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="A66" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="A67" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
+      <c r="A68" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="A69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="A70" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="A71" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -325,19 +325,19 @@
     <t>???</t>
   </si>
   <si>
-    <t>| AbstractEnemy | AIEnemy | Turret | Roomba | MechanicalArms | LiveStockEnemy | Dogs | Cows | Chickens | Oyster | Plants</t>
-  </si>
-  <si>
-    <t>| PackManager | AbstractPack | StimPack | MedicalPack | AmmoPack | GrenadePack | KeyCards | LootManager | InfoManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">| Movement | CameraControl | Health | SoundManager | HUDManager | AIShipManager | GameManager | SurvivorManager </t>
-  </si>
-  <si>
-    <t xml:space="preserve">| CodeBreaker | ExplodingBarrel | Lights | WeaponManager | AbstractWeapons | MeleeWeapon | Shotgun | Pistol | HarpoonGun </t>
-  </si>
-  <si>
-    <t>| FlareGun | AssaultRifle | AbstractGrenades | FragGrenades | StunGrenades | SmokeGrenades | AbstractMines</t>
+    <t>| PackManager | AbstractPack | StimPack | MedicalPack | AmmoPack | GrenadePack | KeyCards | LootManager | InfoManager |</t>
+  </si>
+  <si>
+    <t>| AbstractEnemy | AIEnemy | Turret | Roomba | MechanicalArms | LiveStockEnemy | Dogs | Cows | Chickens | Oyster | Plants |</t>
+  </si>
+  <si>
+    <t>| Movement | CameraControl | Health | SoundManager | HUDManager | AIShipManager | GameManager | SurvivorManager |</t>
+  </si>
+  <si>
+    <t>| CodeBreaker | ExplodingBarrel | Lights | WeaponManager | AbstractWeapons | MeleeWeapon | Shotgun | Pistol | HarpoonGun |</t>
+  </si>
+  <si>
+    <t>| FlareGun | AssaultRifle | AbstractGrenades | FragGrenades | StunGrenades | SmokeGrenades | AbstractMines |</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -796,7 +796,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1116,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1212,7 @@
       <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="58" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="10" t="s">
@@ -1270,10 +1269,10 @@
       <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J3" s="11"/>
@@ -1309,10 +1308,10 @@
       <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J4" s="11"/>
@@ -1348,10 +1347,10 @@
       <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="11"/>
@@ -1387,10 +1386,10 @@
       <c r="G6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="11"/>
@@ -1426,10 +1425,10 @@
       <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="11"/>
@@ -1465,10 +1464,10 @@
       <c r="G8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J8" s="11"/>
@@ -1491,11 +1490,11 @@
       <c r="G9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="58" t="s">
-        <v>103</v>
+      <c r="I9" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="31"/>
@@ -1522,11 +1521,11 @@
         <v>12</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="58" t="s">
-        <v>102</v>
+      <c r="I10" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="31"/>
@@ -1546,10 +1545,10 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="10" t="s">
         <v>104</v>
       </c>
       <c r="J11" s="11"/>
@@ -1574,10 +1573,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="10" t="s">
         <v>105</v>
       </c>
       <c r="J12" s="11"/>
@@ -1595,10 +1594,10 @@
       <c r="A13" s="5"/>
       <c r="B13" s="35"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="10" t="s">
         <v>106</v>
       </c>
       <c r="J13" s="11"/>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$604</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$610</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="114">
   <si>
     <t>ID Code</t>
   </si>
@@ -325,19 +325,40 @@
     <t>???</t>
   </si>
   <si>
-    <t>| PackManager | AbstractPack | StimPack | MedicalPack | AmmoPack | GrenadePack | KeyCards | LootManager | InfoManager |</t>
-  </si>
-  <si>
-    <t>| AbstractEnemy | AIEnemy | Turret | Roomba | MechanicalArms | LiveStockEnemy | Dogs | Cows | Chickens | Oyster | Plants |</t>
-  </si>
-  <si>
-    <t>| Movement | CameraControl | Health | SoundManager | HUDManager | AIShipManager | GameManager | SurvivorManager |</t>
-  </si>
-  <si>
-    <t>| CodeBreaker | ExplodingBarrel | Lights | WeaponManager | AbstractWeapons | MeleeWeapon | Shotgun | Pistol | HarpoonGun |</t>
-  </si>
-  <si>
-    <t>| FlareGun | AssaultRifle | AbstractGrenades | FragGrenades | StunGrenades | SmokeGrenades | AbstractMines |</t>
+    <t>| AbstractEnemy | AIEnemy | Turret | Roomba | MechanicalArms | LiveStockEnemy | Dogs | Cows | Chickens | Oyster | Plants</t>
+  </si>
+  <si>
+    <t>| PackManager | AbstractPack | StimPack | MedicalPack | AmmoPack | GrenadePack | KeyCards | LootManager | InfoManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| Movement | CameraControl | Health | SoundManager | HUDManager | AIShipManager | GameManager | SurvivorManager </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| CodeBreaker | ExplodingBarrel | Lights | WeaponManager | AbstractWeapons | MeleeWeapon | Shotgun | Pistol | HarpoonGun </t>
+  </si>
+  <si>
+    <t>Environment_AbstractBarrel</t>
+  </si>
+  <si>
+    <t>Environment_NitrogenBarrel</t>
+  </si>
+  <si>
+    <t>Environment_SmokeBarrel</t>
+  </si>
+  <si>
+    <t>| FlareGun | AssaultRifle | AbstractGrenades | FragGrenades | StunGrenades | SmokeGrenades | AbstractMines | AbstractBarrel</t>
+  </si>
+  <si>
+    <t>Game_GameDatabase</t>
+  </si>
+  <si>
+    <t>Game_SaveLoadWriter</t>
+  </si>
+  <si>
+    <t>Game_GameLoadSave</t>
+  </si>
+  <si>
+    <t>| NitrogenBarrel | SmokeBarrel | GameDatabase | SaveLoadWriter | GameLoadSave</t>
   </si>
 </sst>
 </file>
@@ -633,7 +654,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -796,6 +817,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1113,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T576"/>
+  <dimension ref="A1:T582"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1234,7 @@
       <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="59" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="10" t="s">
@@ -1269,10 +1291,10 @@
       <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="58" t="s">
         <v>48</v>
       </c>
       <c r="J3" s="11"/>
@@ -1308,10 +1330,10 @@
       <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="58" t="s">
         <v>48</v>
       </c>
       <c r="J4" s="11"/>
@@ -1347,10 +1369,10 @@
       <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="58" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="11"/>
@@ -1386,10 +1408,10 @@
       <c r="G6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="58" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="11"/>
@@ -1425,10 +1447,10 @@
       <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="58" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="11"/>
@@ -1464,10 +1486,10 @@
       <c r="G8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="58" t="s">
         <v>48</v>
       </c>
       <c r="J8" s="11"/>
@@ -1490,11 +1512,11 @@
       <c r="G9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>102</v>
+      <c r="I9" s="58" t="s">
+        <v>103</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="31"/>
@@ -1521,11 +1543,11 @@
         <v>12</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>103</v>
+      <c r="I10" s="58" t="s">
+        <v>102</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="31"/>
@@ -1545,10 +1567,10 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="58" t="s">
         <v>104</v>
       </c>
       <c r="J11" s="11"/>
@@ -1573,10 +1595,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="58" t="s">
         <v>105</v>
       </c>
       <c r="J12" s="11"/>
@@ -1594,11 +1616,11 @@
       <c r="A13" s="5"/>
       <c r="B13" s="35"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>106</v>
+      <c r="I13" s="58" t="s">
+        <v>109</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="31"/>
@@ -1622,8 +1644,12 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>113</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="31"/>
       <c r="L14" s="24"/>
@@ -2507,15 +2533,25 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="A53" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B54" s="33" t="s">
         <v>11</v>
@@ -2527,36 +2563,36 @@
         <v>101</v>
       </c>
       <c r="E54" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="A55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="8">
-        <v>6</v>
-      </c>
+      <c r="A56" s="5"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B57" s="33" t="s">
         <v>11</v>
@@ -2568,7 +2604,7 @@
         <v>101</v>
       </c>
       <c r="E57" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2580,7 +2616,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B59" s="33" t="s">
         <v>11</v>
@@ -2592,12 +2628,12 @@
         <v>101</v>
       </c>
       <c r="E59" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>87</v>
+      <c r="A60" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="B60" s="33" t="s">
         <v>11</v>
@@ -2609,12 +2645,12 @@
         <v>101</v>
       </c>
       <c r="E60" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>11</v>
@@ -2626,12 +2662,12 @@
         <v>101</v>
       </c>
       <c r="E61" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>89</v>
+      <c r="A62" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="B62" s="33" t="s">
         <v>11</v>
@@ -2643,12 +2679,12 @@
         <v>101</v>
       </c>
       <c r="E62" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B63" s="33" t="s">
         <v>11</v>
@@ -2660,29 +2696,19 @@
         <v>101</v>
       </c>
       <c r="E63" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="8">
-        <v>7</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B65" s="33" t="s">
         <v>11</v>
@@ -2694,12 +2720,12 @@
         <v>101</v>
       </c>
       <c r="E65" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="35" t="s">
-        <v>93</v>
+      <c r="A66" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B66" s="33" t="s">
         <v>11</v>
@@ -2711,12 +2737,12 @@
         <v>101</v>
       </c>
       <c r="E66" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>94</v>
+      <c r="A67" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="B67" s="33" t="s">
         <v>11</v>
@@ -2728,12 +2754,12 @@
         <v>101</v>
       </c>
       <c r="E67" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B68" s="33" t="s">
         <v>11</v>
@@ -2745,12 +2771,12 @@
         <v>101</v>
       </c>
       <c r="E68" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B69" s="33" t="s">
         <v>11</v>
@@ -2767,7 +2793,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B70" s="33" t="s">
         <v>11</v>
@@ -2784,7 +2810,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B71" s="33" t="s">
         <v>11</v>
@@ -2796,60 +2822,120 @@
         <v>101</v>
       </c>
       <c r="E71" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-    </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
+      <c r="A78" s="5"/>
       <c r="B78" s="35"/>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="35"/>
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
@@ -2877,14 +2963,14 @@
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
+      <c r="A83" s="5"/>
       <c r="B83" s="35"/>
       <c r="C83" s="7"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="35"/>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
@@ -2912,14 +2998,14 @@
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
+      <c r="A88" s="5"/>
       <c r="B88" s="35"/>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="35"/>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
@@ -2947,14 +3033,14 @@
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
+      <c r="A93" s="5"/>
       <c r="B93" s="35"/>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
+      <c r="A94" s="35"/>
       <c r="B94" s="35"/>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
@@ -2982,14 +3068,14 @@
       <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="35"/>
+      <c r="A98" s="5"/>
       <c r="B98" s="35"/>
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="35"/>
       <c r="C99" s="7"/>
       <c r="D99" s="8"/>
@@ -3017,14 +3103,14 @@
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
+      <c r="A103" s="5"/>
       <c r="B103" s="35"/>
       <c r="C103" s="7"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="35"/>
       <c r="C104" s="7"/>
       <c r="D104" s="8"/>
@@ -3052,14 +3138,14 @@
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
+      <c r="A108" s="5"/>
       <c r="B108" s="35"/>
       <c r="C108" s="7"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
+      <c r="A109" s="35"/>
       <c r="B109" s="35"/>
       <c r="C109" s="7"/>
       <c r="D109" s="8"/>
@@ -3087,14 +3173,14 @@
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
+      <c r="A113" s="5"/>
       <c r="B113" s="35"/>
       <c r="C113" s="7"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="35"/>
       <c r="C114" s="7"/>
       <c r="D114" s="8"/>
@@ -3122,14 +3208,14 @@
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="35"/>
+      <c r="A118" s="5"/>
       <c r="B118" s="35"/>
       <c r="C118" s="7"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
+      <c r="A119" s="35"/>
       <c r="B119" s="35"/>
       <c r="C119" s="7"/>
       <c r="D119" s="8"/>
@@ -3157,14 +3243,14 @@
       <c r="E122" s="8"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="57"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
+      <c r="A124" s="35"/>
       <c r="B124" s="35"/>
       <c r="C124" s="7"/>
       <c r="D124" s="8"/>
@@ -3192,16 +3278,16 @@
       <c r="E127" s="8"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
+      <c r="A128" s="5"/>
       <c r="B128" s="35"/>
       <c r="C128" s="7"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="7"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="57"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
@@ -3227,20 +3313,18 @@
       <c r="E132" s="8"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
+      <c r="A133" s="5"/>
       <c r="B133" s="35"/>
       <c r="C133" s="7"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
-      <c r="F133" s="57"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
+      <c r="A134" s="35"/>
       <c r="B134" s="35"/>
       <c r="C134" s="7"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
-      <c r="F134" s="57"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
@@ -3248,7 +3332,6 @@
       <c r="C135" s="7"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
-      <c r="F135" s="57"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
@@ -3256,7 +3339,6 @@
       <c r="C136" s="7"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
-      <c r="F136" s="57"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
@@ -3264,18 +3346,16 @@
       <c r="C137" s="7"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
-      <c r="F137" s="57"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="35"/>
+      <c r="A138" s="5"/>
       <c r="B138" s="35"/>
       <c r="C138" s="7"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
-      <c r="F138" s="57"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
+      <c r="A139" s="35"/>
       <c r="B139" s="35"/>
       <c r="C139" s="7"/>
       <c r="D139" s="8"/>
@@ -3315,7 +3395,7 @@
       <c r="F143" s="57"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
+      <c r="A144" s="35"/>
       <c r="B144" s="35"/>
       <c r="C144" s="7"/>
       <c r="D144" s="8"/>
@@ -3331,7 +3411,7 @@
       <c r="F145" s="57"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="35"/>
+      <c r="A146" s="5"/>
       <c r="B146" s="35"/>
       <c r="C146" s="7"/>
       <c r="D146" s="8"/>
@@ -3379,7 +3459,7 @@
       <c r="F151" s="57"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
+      <c r="A152" s="35"/>
       <c r="B152" s="35"/>
       <c r="C152" s="7"/>
       <c r="D152" s="8"/>
@@ -3403,7 +3483,7 @@
       <c r="F154" s="57"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="35"/>
+      <c r="A155" s="5"/>
       <c r="B155" s="35"/>
       <c r="C155" s="7"/>
       <c r="D155" s="8"/>
@@ -3416,6 +3496,7 @@
       <c r="C156" s="7"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
+      <c r="F156" s="57"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
@@ -3423,6 +3504,7 @@
       <c r="C157" s="7"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
+      <c r="F157" s="57"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
@@ -3430,6 +3512,7 @@
       <c r="C158" s="7"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
+      <c r="F158" s="57"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
@@ -3437,6 +3520,7 @@
       <c r="C159" s="7"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
+      <c r="F159" s="57"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
@@ -3444,113 +3528,115 @@
       <c r="C160" s="7"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="5"/>
+      <c r="F160" s="57"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="35"/>
       <c r="B161" s="35"/>
       <c r="C161" s="7"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="57"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="35"/>
       <c r="C162" s="7"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="35"/>
       <c r="C163" s="7"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="35"/>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
       <c r="B164" s="35"/>
       <c r="C164" s="7"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="35"/>
       <c r="C165" s="7"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="35"/>
       <c r="C166" s="7"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="35"/>
       <c r="C167" s="7"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="35"/>
       <c r="C168" s="7"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="35"/>
       <c r="C169" s="7"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="5"/>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="35"/>
       <c r="B170" s="35"/>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="35"/>
       <c r="C171" s="7"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="35"/>
       <c r="C172" s="7"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="35"/>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
       <c r="B173" s="35"/>
       <c r="C173" s="7"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="35"/>
       <c r="C174" s="7"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="35"/>
       <c r="C175" s="7"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="35"/>
       <c r="C176" s="7"/>
@@ -3572,7 +3658,7 @@
       <c r="E178" s="8"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
+      <c r="A179" s="35"/>
       <c r="B179" s="35"/>
       <c r="C179" s="7"/>
       <c r="D179" s="8"/>
@@ -3593,7 +3679,7 @@
       <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="35"/>
+      <c r="A182" s="5"/>
       <c r="B182" s="35"/>
       <c r="C182" s="7"/>
       <c r="D182" s="8"/>
@@ -3635,7 +3721,7 @@
       <c r="E187" s="8"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
+      <c r="A188" s="35"/>
       <c r="B188" s="35"/>
       <c r="C188" s="7"/>
       <c r="D188" s="8"/>
@@ -3656,7 +3742,7 @@
       <c r="E190" s="8"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="35"/>
+      <c r="A191" s="5"/>
       <c r="B191" s="35"/>
       <c r="C191" s="7"/>
       <c r="D191" s="8"/>
@@ -3698,7 +3784,7 @@
       <c r="E196" s="8"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="5"/>
+      <c r="A197" s="35"/>
       <c r="B197" s="35"/>
       <c r="C197" s="7"/>
       <c r="D197" s="8"/>
@@ -3719,7 +3805,7 @@
       <c r="E199" s="8"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="35"/>
+      <c r="A200" s="5"/>
       <c r="B200" s="35"/>
       <c r="C200" s="7"/>
       <c r="D200" s="8"/>
@@ -3754,14 +3840,14 @@
       <c r="E204" s="8"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="35"/>
+      <c r="A205" s="5"/>
       <c r="B205" s="35"/>
       <c r="C205" s="7"/>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="5"/>
+      <c r="A206" s="35"/>
       <c r="B206" s="35"/>
       <c r="C206" s="7"/>
       <c r="D206" s="8"/>
@@ -3789,14 +3875,14 @@
       <c r="E209" s="8"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="35"/>
+      <c r="A210" s="5"/>
       <c r="B210" s="35"/>
       <c r="C210" s="7"/>
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="5"/>
+      <c r="A211" s="35"/>
       <c r="B211" s="35"/>
       <c r="C211" s="7"/>
       <c r="D211" s="8"/>
@@ -3824,14 +3910,14 @@
       <c r="E214" s="8"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="35"/>
+      <c r="A215" s="5"/>
       <c r="B215" s="35"/>
       <c r="C215" s="7"/>
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
+      <c r="A216" s="35"/>
       <c r="B216" s="35"/>
       <c r="C216" s="7"/>
       <c r="D216" s="8"/>
@@ -3859,14 +3945,14 @@
       <c r="E219" s="8"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="35"/>
+      <c r="A220" s="5"/>
       <c r="B220" s="35"/>
       <c r="C220" s="7"/>
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="5"/>
+      <c r="A221" s="35"/>
       <c r="B221" s="35"/>
       <c r="C221" s="7"/>
       <c r="D221" s="8"/>
@@ -3894,14 +3980,14 @@
       <c r="E224" s="8"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="35"/>
+      <c r="A225" s="5"/>
       <c r="B225" s="35"/>
       <c r="C225" s="7"/>
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="5"/>
+      <c r="A226" s="35"/>
       <c r="B226" s="35"/>
       <c r="C226" s="7"/>
       <c r="D226" s="8"/>
@@ -3929,14 +4015,14 @@
       <c r="E229" s="8"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="35"/>
+      <c r="A230" s="5"/>
       <c r="B230" s="35"/>
       <c r="C230" s="7"/>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="5"/>
+      <c r="A231" s="35"/>
       <c r="B231" s="35"/>
       <c r="C231" s="7"/>
       <c r="D231" s="8"/>
@@ -3964,14 +4050,14 @@
       <c r="E234" s="8"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="35"/>
+      <c r="A235" s="5"/>
       <c r="B235" s="35"/>
       <c r="C235" s="7"/>
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="5"/>
+      <c r="A236" s="35"/>
       <c r="B236" s="35"/>
       <c r="C236" s="7"/>
       <c r="D236" s="8"/>
@@ -3999,14 +4085,14 @@
       <c r="E239" s="8"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="35"/>
+      <c r="A240" s="5"/>
       <c r="B240" s="35"/>
       <c r="C240" s="7"/>
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="5"/>
+      <c r="A241" s="35"/>
       <c r="B241" s="35"/>
       <c r="C241" s="7"/>
       <c r="D241" s="8"/>
@@ -4076,14 +4162,14 @@
       <c r="E250" s="8"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="35"/>
+      <c r="A251" s="5"/>
       <c r="B251" s="35"/>
       <c r="C251" s="7"/>
       <c r="D251" s="8"/>
       <c r="E251" s="8"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="5"/>
+      <c r="A252" s="35"/>
       <c r="B252" s="35"/>
       <c r="C252" s="7"/>
       <c r="D252" s="8"/>
@@ -4111,14 +4197,14 @@
       <c r="E255" s="8"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="35"/>
+      <c r="A256" s="5"/>
       <c r="B256" s="35"/>
       <c r="C256" s="7"/>
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="5"/>
+      <c r="A257" s="35"/>
       <c r="B257" s="35"/>
       <c r="C257" s="7"/>
       <c r="D257" s="8"/>
@@ -4146,14 +4232,14 @@
       <c r="E260" s="8"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="35"/>
+      <c r="A261" s="5"/>
       <c r="B261" s="35"/>
       <c r="C261" s="7"/>
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="5"/>
+      <c r="A262" s="35"/>
       <c r="B262" s="35"/>
       <c r="C262" s="7"/>
       <c r="D262" s="8"/>
@@ -4181,14 +4267,14 @@
       <c r="E265" s="8"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="35"/>
+      <c r="A266" s="5"/>
       <c r="B266" s="35"/>
       <c r="C266" s="7"/>
       <c r="D266" s="8"/>
       <c r="E266" s="8"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="5"/>
+      <c r="A267" s="35"/>
       <c r="B267" s="35"/>
       <c r="C267" s="7"/>
       <c r="D267" s="8"/>
@@ -4216,14 +4302,14 @@
       <c r="E270" s="8"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="35"/>
+      <c r="A271" s="5"/>
       <c r="B271" s="35"/>
       <c r="C271" s="7"/>
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="5"/>
+      <c r="A272" s="35"/>
       <c r="B272" s="35"/>
       <c r="C272" s="7"/>
       <c r="D272" s="8"/>
@@ -4251,14 +4337,14 @@
       <c r="E275" s="8"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="8"/>
+      <c r="A276" s="5"/>
+      <c r="B276" s="35"/>
+      <c r="C276" s="7"/>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="5"/>
+      <c r="A277" s="35"/>
       <c r="B277" s="35"/>
       <c r="C277" s="7"/>
       <c r="D277" s="8"/>
@@ -4293,9 +4379,9 @@
       <c r="E281" s="8"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="5"/>
-      <c r="B282" s="35"/>
-      <c r="C282" s="7"/>
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="8"/>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
     </row>
@@ -4314,7 +4400,7 @@
       <c r="E284" s="8"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="35"/>
+      <c r="A285" s="5"/>
       <c r="B285" s="35"/>
       <c r="C285" s="7"/>
       <c r="D285" s="8"/>
@@ -4356,7 +4442,7 @@
       <c r="E290" s="8"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="5"/>
+      <c r="A291" s="35"/>
       <c r="B291" s="35"/>
       <c r="C291" s="7"/>
       <c r="D291" s="8"/>
@@ -4377,7 +4463,7 @@
       <c r="E293" s="8"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="35"/>
+      <c r="A294" s="5"/>
       <c r="B294" s="35"/>
       <c r="C294" s="7"/>
       <c r="D294" s="8"/>
@@ -4419,7 +4505,7 @@
       <c r="E299" s="8"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="5"/>
+      <c r="A300" s="35"/>
       <c r="B300" s="35"/>
       <c r="C300" s="7"/>
       <c r="D300" s="8"/>
@@ -4440,7 +4526,7 @@
       <c r="E302" s="8"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="35"/>
+      <c r="A303" s="5"/>
       <c r="B303" s="35"/>
       <c r="C303" s="7"/>
       <c r="D303" s="8"/>
@@ -4482,7 +4568,7 @@
       <c r="E308" s="8"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="5"/>
+      <c r="A309" s="35"/>
       <c r="B309" s="35"/>
       <c r="C309" s="7"/>
       <c r="D309" s="8"/>
@@ -4503,7 +4589,7 @@
       <c r="E311" s="8"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="35"/>
+      <c r="A312" s="5"/>
       <c r="B312" s="35"/>
       <c r="C312" s="7"/>
       <c r="D312" s="8"/>
@@ -4545,7 +4631,7 @@
       <c r="E317" s="8"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="5"/>
+      <c r="A318" s="35"/>
       <c r="B318" s="35"/>
       <c r="C318" s="7"/>
       <c r="D318" s="8"/>
@@ -4566,7 +4652,7 @@
       <c r="E320" s="8"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="35"/>
+      <c r="A321" s="5"/>
       <c r="B321" s="35"/>
       <c r="C321" s="7"/>
       <c r="D321" s="8"/>
@@ -4601,14 +4687,14 @@
       <c r="E325" s="8"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="35"/>
+      <c r="A326" s="5"/>
       <c r="B326" s="35"/>
       <c r="C326" s="7"/>
       <c r="D326" s="8"/>
       <c r="E326" s="8"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="5"/>
+      <c r="A327" s="35"/>
       <c r="B327" s="35"/>
       <c r="C327" s="7"/>
       <c r="D327" s="8"/>
@@ -4636,14 +4722,14 @@
       <c r="E330" s="8"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="35"/>
+      <c r="A331" s="5"/>
       <c r="B331" s="35"/>
       <c r="C331" s="7"/>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="5"/>
+      <c r="A332" s="35"/>
       <c r="B332" s="35"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
@@ -4671,14 +4757,14 @@
       <c r="E335" s="8"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="35"/>
+      <c r="A336" s="5"/>
       <c r="B336" s="35"/>
       <c r="C336" s="7"/>
       <c r="D336" s="8"/>
       <c r="E336" s="8"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="5"/>
+      <c r="A337" s="35"/>
       <c r="B337" s="35"/>
       <c r="C337" s="7"/>
       <c r="D337" s="8"/>
@@ -4706,14 +4792,14 @@
       <c r="E340" s="8"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="35"/>
+      <c r="A341" s="5"/>
       <c r="B341" s="35"/>
       <c r="C341" s="7"/>
       <c r="D341" s="8"/>
       <c r="E341" s="8"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="5"/>
+      <c r="A342" s="35"/>
       <c r="B342" s="35"/>
       <c r="C342" s="7"/>
       <c r="D342" s="8"/>
@@ -4741,14 +4827,14 @@
       <c r="E345" s="8"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="35"/>
+      <c r="A346" s="5"/>
       <c r="B346" s="35"/>
       <c r="C346" s="7"/>
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="5"/>
+      <c r="A347" s="35"/>
       <c r="B347" s="35"/>
       <c r="C347" s="7"/>
       <c r="D347" s="8"/>
@@ -4776,14 +4862,14 @@
       <c r="E350" s="8"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="35"/>
+      <c r="A351" s="5"/>
       <c r="B351" s="35"/>
       <c r="C351" s="7"/>
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="5"/>
+      <c r="A352" s="35"/>
       <c r="B352" s="35"/>
       <c r="C352" s="7"/>
       <c r="D352" s="8"/>
@@ -4811,14 +4897,14 @@
       <c r="E355" s="8"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="35"/>
+      <c r="A356" s="5"/>
       <c r="B356" s="35"/>
       <c r="C356" s="7"/>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="5"/>
+      <c r="A357" s="35"/>
       <c r="B357" s="35"/>
       <c r="C357" s="7"/>
       <c r="D357" s="8"/>
@@ -4846,14 +4932,14 @@
       <c r="E360" s="8"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="35"/>
+      <c r="A361" s="5"/>
       <c r="B361" s="35"/>
       <c r="C361" s="7"/>
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="5"/>
+      <c r="A362" s="35"/>
       <c r="B362" s="35"/>
       <c r="C362" s="7"/>
       <c r="D362" s="8"/>
@@ -4881,14 +4967,14 @@
       <c r="E365" s="8"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="35"/>
+      <c r="A366" s="5"/>
       <c r="B366" s="35"/>
       <c r="C366" s="7"/>
       <c r="D366" s="8"/>
       <c r="E366" s="8"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="5"/>
+      <c r="A367" s="35"/>
       <c r="B367" s="35"/>
       <c r="C367" s="7"/>
       <c r="D367" s="8"/>
@@ -4958,14 +5044,14 @@
       <c r="E376" s="8"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="35"/>
+      <c r="A377" s="5"/>
       <c r="B377" s="35"/>
       <c r="C377" s="7"/>
       <c r="D377" s="8"/>
       <c r="E377" s="8"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="5"/>
+      <c r="A378" s="35"/>
       <c r="B378" s="35"/>
       <c r="C378" s="7"/>
       <c r="D378" s="8"/>
@@ -5042,9 +5128,9 @@
       <c r="E388" s="8"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="8"/>
-      <c r="B389" s="8"/>
-      <c r="C389" s="8"/>
+      <c r="A389" s="35"/>
+      <c r="B389" s="35"/>
+      <c r="C389" s="7"/>
       <c r="D389" s="8"/>
       <c r="E389" s="8"/>
     </row>
@@ -5077,16 +5163,16 @@
       <c r="E393" s="8"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="35"/>
+      <c r="A394" s="5"/>
       <c r="B394" s="35"/>
       <c r="C394" s="7"/>
       <c r="D394" s="8"/>
       <c r="E394" s="8"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="5"/>
-      <c r="B395" s="35"/>
-      <c r="C395" s="7"/>
+      <c r="A395" s="8"/>
+      <c r="B395" s="8"/>
+      <c r="C395" s="8"/>
       <c r="D395" s="8"/>
       <c r="E395" s="8"/>
     </row>
@@ -5112,14 +5198,14 @@
       <c r="E398" s="8"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="35"/>
+      <c r="A399" s="5"/>
       <c r="B399" s="35"/>
       <c r="C399" s="7"/>
       <c r="D399" s="8"/>
       <c r="E399" s="8"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="5"/>
+      <c r="A400" s="35"/>
       <c r="B400" s="35"/>
       <c r="C400" s="7"/>
       <c r="D400" s="8"/>
@@ -5147,14 +5233,14 @@
       <c r="E403" s="8"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="35"/>
+      <c r="A404" s="5"/>
       <c r="B404" s="35"/>
       <c r="C404" s="7"/>
       <c r="D404" s="8"/>
       <c r="E404" s="8"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="5"/>
+      <c r="A405" s="35"/>
       <c r="B405" s="35"/>
       <c r="C405" s="7"/>
       <c r="D405" s="8"/>
@@ -5182,14 +5268,14 @@
       <c r="E408" s="8"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="35"/>
+      <c r="A409" s="5"/>
       <c r="B409" s="35"/>
       <c r="C409" s="7"/>
       <c r="D409" s="8"/>
       <c r="E409" s="8"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="5"/>
+      <c r="A410" s="35"/>
       <c r="B410" s="35"/>
       <c r="C410" s="7"/>
       <c r="D410" s="8"/>
@@ -5217,14 +5303,14 @@
       <c r="E413" s="8"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="35"/>
+      <c r="A414" s="5"/>
       <c r="B414" s="35"/>
       <c r="C414" s="7"/>
       <c r="D414" s="8"/>
       <c r="E414" s="8"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="5"/>
+      <c r="A415" s="35"/>
       <c r="B415" s="35"/>
       <c r="C415" s="7"/>
       <c r="D415" s="8"/>
@@ -5238,7 +5324,7 @@
       <c r="E416" s="8"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="35"/>
+      <c r="A417" s="5"/>
       <c r="B417" s="35"/>
       <c r="C417" s="7"/>
       <c r="D417" s="8"/>
@@ -5525,21 +5611,21 @@
       <c r="E457" s="8"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="35"/>
+      <c r="A458" s="5"/>
       <c r="B458" s="35"/>
       <c r="C458" s="7"/>
       <c r="D458" s="8"/>
       <c r="E458" s="8"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="5"/>
+      <c r="A459" s="35"/>
       <c r="B459" s="35"/>
       <c r="C459" s="7"/>
       <c r="D459" s="8"/>
       <c r="E459" s="8"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="35"/>
+      <c r="A460" s="5"/>
       <c r="B460" s="35"/>
       <c r="C460" s="7"/>
       <c r="D460" s="8"/>
@@ -5567,21 +5653,21 @@
       <c r="E463" s="8"/>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="5"/>
+      <c r="A464" s="35"/>
       <c r="B464" s="35"/>
       <c r="C464" s="7"/>
       <c r="D464" s="8"/>
       <c r="E464" s="8"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="35"/>
+      <c r="A465" s="5"/>
       <c r="B465" s="35"/>
       <c r="C465" s="7"/>
       <c r="D465" s="8"/>
       <c r="E465" s="8"/>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="5"/>
+      <c r="A466" s="35"/>
       <c r="B466" s="35"/>
       <c r="C466" s="7"/>
       <c r="D466" s="8"/>
@@ -5595,7 +5681,7 @@
       <c r="E467" s="8"/>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="5"/>
+      <c r="A468" s="35"/>
       <c r="B468" s="35"/>
       <c r="C468" s="7"/>
       <c r="D468" s="8"/>
@@ -5616,7 +5702,7 @@
       <c r="E470" s="8"/>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="5"/>
+      <c r="A471" s="35"/>
       <c r="B471" s="35"/>
       <c r="C471" s="7"/>
       <c r="D471" s="8"/>
@@ -5644,7 +5730,7 @@
       <c r="E474" s="8"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="35"/>
+      <c r="A475" s="5"/>
       <c r="B475" s="35"/>
       <c r="C475" s="7"/>
       <c r="D475" s="8"/>
@@ -5686,18 +5772,18 @@
       <c r="E480" s="8"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A481" s="5"/>
+      <c r="A481" s="35"/>
       <c r="B481" s="35"/>
       <c r="C481" s="7"/>
       <c r="D481" s="8"/>
       <c r="E481" s="8"/>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A482" s="8"/>
-      <c r="B482" s="8"/>
-      <c r="C482" s="57"/>
-      <c r="D482" s="7"/>
-      <c r="E482" s="7"/>
+      <c r="A482" s="5"/>
+      <c r="B482" s="35"/>
+      <c r="C482" s="7"/>
+      <c r="D482" s="8"/>
+      <c r="E482" s="8"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="5"/>
@@ -5705,8 +5791,6 @@
       <c r="C483" s="7"/>
       <c r="D483" s="8"/>
       <c r="E483" s="8"/>
-      <c r="F483" s="3"/>
-      <c r="G483" s="3"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="5"/>
@@ -5714,8 +5798,6 @@
       <c r="C484" s="7"/>
       <c r="D484" s="8"/>
       <c r="E484" s="8"/>
-      <c r="F484" s="3"/>
-      <c r="G484" s="3"/>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="5"/>
@@ -5723,8 +5805,6 @@
       <c r="C485" s="7"/>
       <c r="D485" s="8"/>
       <c r="E485" s="8"/>
-      <c r="F485" s="3"/>
-      <c r="G485" s="3"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="5"/>
@@ -5732,8 +5812,6 @@
       <c r="C486" s="7"/>
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
-      <c r="F486" s="3"/>
-      <c r="G486" s="3"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="5"/>
@@ -5741,17 +5819,13 @@
       <c r="C487" s="7"/>
       <c r="D487" s="8"/>
       <c r="E487" s="8"/>
-      <c r="F487" s="3"/>
-      <c r="G487" s="3"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A488" s="5"/>
-      <c r="B488" s="35"/>
-      <c r="C488" s="7"/>
-      <c r="D488" s="8"/>
-      <c r="E488" s="8"/>
-      <c r="F488" s="3"/>
-      <c r="G488" s="3"/>
+      <c r="A488" s="8"/>
+      <c r="B488" s="8"/>
+      <c r="C488" s="57"/>
+      <c r="D488" s="7"/>
+      <c r="E488" s="7"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="5"/>
@@ -5778,14 +5852,16 @@
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
       <c r="F491" s="3"/>
+      <c r="G491" s="3"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A492" s="35"/>
+      <c r="A492" s="5"/>
       <c r="B492" s="35"/>
       <c r="C492" s="7"/>
       <c r="D492" s="8"/>
       <c r="E492" s="8"/>
       <c r="F492" s="3"/>
+      <c r="G492" s="3"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="5"/>
@@ -5794,6 +5870,7 @@
       <c r="D493" s="8"/>
       <c r="E493" s="8"/>
       <c r="F493" s="3"/>
+      <c r="G493" s="3"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="5"/>
@@ -5802,6 +5879,7 @@
       <c r="D494" s="8"/>
       <c r="E494" s="8"/>
       <c r="F494" s="3"/>
+      <c r="G494" s="3"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="5"/>
@@ -5810,6 +5888,7 @@
       <c r="D495" s="8"/>
       <c r="E495" s="8"/>
       <c r="F495" s="3"/>
+      <c r="G495" s="3"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="5"/>
@@ -5817,113 +5896,120 @@
       <c r="C496" s="7"/>
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F496" s="3"/>
+      <c r="G496" s="3"/>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="5"/>
       <c r="B497" s="35"/>
       <c r="C497" s="7"/>
       <c r="D497" s="8"/>
       <c r="E497" s="8"/>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="5"/>
+      <c r="F497" s="3"/>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="35"/>
       <c r="B498" s="35"/>
       <c r="C498" s="7"/>
       <c r="D498" s="8"/>
       <c r="E498" s="8"/>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F498" s="3"/>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="5"/>
       <c r="B499" s="35"/>
       <c r="C499" s="7"/>
       <c r="D499" s="8"/>
       <c r="E499" s="8"/>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F499" s="3"/>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="5"/>
       <c r="B500" s="35"/>
       <c r="C500" s="7"/>
       <c r="D500" s="8"/>
       <c r="E500" s="8"/>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F500" s="3"/>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="5"/>
       <c r="B501" s="35"/>
       <c r="C501" s="7"/>
       <c r="D501" s="8"/>
       <c r="E501" s="8"/>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="35"/>
+      <c r="F501" s="3"/>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="5"/>
       <c r="B502" s="35"/>
       <c r="C502" s="7"/>
       <c r="D502" s="8"/>
       <c r="E502" s="8"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="5"/>
       <c r="B503" s="35"/>
       <c r="C503" s="7"/>
       <c r="D503" s="8"/>
       <c r="E503" s="8"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="5"/>
       <c r="B504" s="35"/>
       <c r="C504" s="7"/>
       <c r="D504" s="8"/>
       <c r="E504" s="8"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="5"/>
       <c r="B505" s="35"/>
       <c r="C505" s="7"/>
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="5"/>
       <c r="B506" s="35"/>
       <c r="C506" s="7"/>
       <c r="D506" s="8"/>
       <c r="E506" s="8"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="5"/>
       <c r="B507" s="35"/>
       <c r="C507" s="7"/>
       <c r="D507" s="8"/>
       <c r="E507" s="8"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" s="5"/>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="35"/>
       <c r="B508" s="35"/>
       <c r="C508" s="7"/>
       <c r="D508" s="8"/>
       <c r="E508" s="8"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="5"/>
       <c r="B509" s="35"/>
       <c r="C509" s="7"/>
       <c r="D509" s="8"/>
       <c r="E509" s="8"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="5"/>
       <c r="B510" s="35"/>
       <c r="C510" s="7"/>
       <c r="D510" s="8"/>
       <c r="E510" s="8"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="5"/>
       <c r="B511" s="35"/>
       <c r="C511" s="7"/>
       <c r="D511" s="8"/>
       <c r="E511" s="8"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="5"/>
       <c r="B512" s="35"/>
       <c r="C512" s="7"/>
@@ -5959,7 +6045,7 @@
       <c r="E516" s="8"/>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="35"/>
+      <c r="A517" s="5"/>
       <c r="B517" s="35"/>
       <c r="C517" s="7"/>
       <c r="D517" s="8"/>
@@ -6001,24 +6087,66 @@
       <c r="E522" s="8"/>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" s="5"/>
+      <c r="A523" s="35"/>
       <c r="B523" s="35"/>
       <c r="C523" s="7"/>
       <c r="D523" s="8"/>
       <c r="E523" s="8"/>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" s="35"/>
+      <c r="A524" s="5"/>
       <c r="B524" s="35"/>
       <c r="C524" s="7"/>
       <c r="D524" s="8"/>
       <c r="E524" s="8"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="5"/>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" s="5"/>
+      <c r="B525" s="35"/>
+      <c r="C525" s="7"/>
+      <c r="D525" s="8"/>
+      <c r="E525" s="8"/>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" s="5"/>
+      <c r="B526" s="35"/>
+      <c r="C526" s="7"/>
+      <c r="D526" s="8"/>
+      <c r="E526" s="8"/>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" s="5"/>
+      <c r="B527" s="35"/>
+      <c r="C527" s="7"/>
+      <c r="D527" s="8"/>
+      <c r="E527" s="8"/>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" s="5"/>
+      <c r="B528" s="35"/>
+      <c r="C528" s="7"/>
+      <c r="D528" s="8"/>
+      <c r="E528" s="8"/>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" s="5"/>
+      <c r="B529" s="35"/>
+      <c r="C529" s="7"/>
+      <c r="D529" s="8"/>
+      <c r="E529" s="8"/>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" s="35"/>
+      <c r="B530" s="35"/>
+      <c r="C530" s="7"/>
+      <c r="D530" s="8"/>
+      <c r="E530" s="8"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E604"/>
+  <autoFilter ref="A1:E610"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$610</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$655</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="137">
   <si>
     <t>ID Code</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Sprint 9 (20-06 t/m 03-07)</t>
   </si>
   <si>
-    <t xml:space="preserve">| DesertEagle | </t>
-  </si>
-  <si>
     <t>F. Level</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>Weapon_AssaultRifle_4</t>
   </si>
   <si>
-    <t>Weapon_HarpoonGun_5</t>
-  </si>
-  <si>
     <t>Weapon_Grenades_6</t>
   </si>
   <si>
@@ -359,6 +353,81 @@
   </si>
   <si>
     <t>| NitrogenBarrel | SmokeBarrel | GameDatabase | SaveLoadWriter | GameLoadSave</t>
+  </si>
+  <si>
+    <t>Weapon_PulseRifle_5</t>
+  </si>
+  <si>
+    <t>Weapon_Mines_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| Revolver | Shotgun | CeramicBlade | AssaultRifle | PulseRifle | Grenades | Mines </t>
+  </si>
+  <si>
+    <t>Character_BionicLeftArm_1</t>
+  </si>
+  <si>
+    <t>Character_RightArm_2</t>
+  </si>
+  <si>
+    <t>Enemy_MutatedDog_1</t>
+  </si>
+  <si>
+    <t>Enemy_MutatedChicken_2</t>
+  </si>
+  <si>
+    <t>Enemy_Roomba_4</t>
+  </si>
+  <si>
+    <t>Enemy_Turret_3</t>
+  </si>
+  <si>
+    <t>Enemy_Camera_5</t>
+  </si>
+  <si>
+    <t>Enemy_Xenomorph_6</t>
+  </si>
+  <si>
+    <t>Enemy_Plant_7</t>
+  </si>
+  <si>
+    <t>| BionicLeftArm | RightArm</t>
+  </si>
+  <si>
+    <t>| MutatedDog | MutatedChicken | Turret | Roomba| Camera | Xenomorph | Plant</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Boxes_1</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Corpses_2</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_GarbageBins_3</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_PropogandaPosters_4</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_CryoPods_5</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_OperatingTable_6</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Plants_7</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_PlantBoxes_8</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_ChickenNests_9</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_OverGrowth_10</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_BrokenGlass_11</t>
   </si>
 </sst>
 </file>
@@ -823,10 +892,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -849,9 +918,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -889,7 +958,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -961,7 +1030,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1135,15 +1204,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T582"/>
+  <dimension ref="A1:T627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="27" bestFit="1" customWidth="1"/>
@@ -1238,7 +1307,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="12" t="s">
@@ -1295,7 +1364,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="16"/>
@@ -1334,7 +1403,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="21"/>
@@ -1373,7 +1442,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="21"/>
@@ -1412,7 +1481,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="21"/>
@@ -1448,10 +1517,10 @@
         <v>28</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="31"/>
@@ -1487,10 +1556,10 @@
         <v>29</v>
       </c>
       <c r="H8" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="58" t="s">
         <v>47</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>48</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="31"/>
@@ -1510,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="31"/>
@@ -1531,7 +1600,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
@@ -1544,10 +1613,10 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="31"/>
@@ -1561,17 +1630,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="G11" s="9"/>
       <c r="H11" s="59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="31"/>
@@ -1586,7 +1659,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -1596,10 +1669,10 @@
       <c r="E12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="31"/>
@@ -1613,14 +1686,18 @@
       <c r="S12" s="34"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="31"/>
@@ -1635,7 +1712,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>5</v>
@@ -1645,10 +1722,10 @@
       <c r="E14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="31"/>
@@ -1662,8 +1739,12 @@
       <c r="S14" s="36"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1706,8 +1787,12 @@
       <c r="S16" s="36"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1730,7 +1815,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -1759,8 +1844,6 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="35"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1786,7 +1869,7 @@
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
@@ -1815,797 +1898,317 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="35"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="S21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T21" s="3">
-        <f>SUM(T18:T20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="8">
-        <v>8</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="8">
-        <v>8</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>17</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="8">
-        <v>6</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="11"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="47"/>
+        <v>118</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="8">
-        <v>7</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="11"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="47"/>
+        <v>120</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="8">
-        <v>8</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="25"/>
+        <v>119</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="8">
-        <v>7</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="8">
-        <v>7</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="36"/>
+        <v>122</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="8">
-        <v>7</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="25"/>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="8">
-        <v>4</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="35" t="s">
+        <v>126</v>
+      </c>
       <c r="B31" s="35"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="J31" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="3">
-        <f>K31+L31+M31+N31+O31+P31+Q31+R31+S31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="8">
-        <v>8</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="37">
-        <f>K32+L32+M32+N32+O32+P32+Q32+R32+S32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="8">
-        <v>7</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="11"/>
-      <c r="S33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T33" s="3">
-        <f>SUM(T31:T32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="8">
-        <v>6</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="8">
-        <v>6</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="11"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="8">
-        <v>6</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="8">
-        <v>7</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="8">
-        <v>6</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="8">
-        <v>6</v>
-      </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="35"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="35"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="8">
-        <v>7</v>
-      </c>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="8">
-        <v>8</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="8">
-        <v>9</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="8">
-        <v>10</v>
-      </c>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="8">
-        <v>7</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="8">
-        <v>4</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="8">
-        <v>4</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="8">
-        <v>4</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="35"/>
       <c r="C56" s="7"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="8">
-        <v>5</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
@@ -2615,89 +2218,39 @@
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="8">
-        <v>6</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="8">
-        <v>5</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="8">
-        <v>5</v>
-      </c>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="8">
-        <v>5</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="8">
-        <v>4</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
@@ -2706,387 +2259,781 @@
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
-        <v>88</v>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="35"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="S66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T66" s="3">
+        <f>SUM(T18:T20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B67" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E67" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G67" s="9"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+    </row>
+    <row r="68" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B68" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E68" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G68" s="9"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S68" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B69" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E69" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="11"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="47"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B70" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E70" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>92</v>
+      <c r="G70" s="9"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="11"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="46"/>
+      <c r="Q70" s="46"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="47"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="B71" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E71" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="35" t="s">
-        <v>93</v>
+        <v>8</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="25"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B72" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E72" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J72" s="11"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="25"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B73" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E73" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J73" s="11"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="36"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B74" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E74" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J74" s="11"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="25"/>
+    </row>
+    <row r="75" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B75" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E75" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="J75" s="11"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="J76" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" s="42"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="52"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="53"/>
+      <c r="T76" s="3">
+        <f>K76+L76+M76+N76+O76+P76+Q76+R76+S76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B77" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E77" s="8">
+        <v>8</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" s="37"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="55"/>
+      <c r="T77" s="37">
+        <f>K77+L77+M77+N77+O77+P77+Q77+R77+S77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="8">
+        <v>7</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="11"/>
+      <c r="S78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T78" s="3">
+        <f>SUM(T76:T77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="8">
+        <v>6</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="11"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" s="8">
+        <v>6</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" s="8">
+        <v>7</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="8">
+        <v>6</v>
+      </c>
+      <c r="J83" s="11"/>
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="8">
+        <v>6</v>
+      </c>
+      <c r="J84" s="11"/>
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="35"/>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="35"/>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E94" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
+      <c r="A97" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
+      <c r="A98" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
+      <c r="A99" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
+      <c r="A100" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
@@ -3096,11 +3043,21 @@
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
+      <c r="A102" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E102" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
@@ -3110,137 +3067,317 @@
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
-      <c r="B104" s="35"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
+      <c r="A104" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
+      <c r="A105" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
+      <c r="A106" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
+      <c r="A107" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
+      <c r="A108" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E108" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
+      <c r="A109" s="5"/>
       <c r="B109" s="35"/>
       <c r="C109" s="7"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
+      <c r="A110" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E110" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
+      <c r="A111" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E111" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
+      <c r="A112" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E112" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
+      <c r="A113" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E113" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
+      <c r="A114" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E114" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="B115" s="35"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
+      <c r="A115" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E115" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" s="35"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
+      <c r="A116" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E116" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
+      <c r="A117" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E117" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
+      <c r="A118" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E118" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="35"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
+      <c r="A119" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E119" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
+      <c r="A120" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E120" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
+      <c r="A121" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E121" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
+      <c r="A122" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E122" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
@@ -3284,583 +3421,583 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="57"/>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="35"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="35"/>
       <c r="C130" s="7"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="35"/>
       <c r="C131" s="7"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="35"/>
       <c r="C132" s="7"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="35"/>
       <c r="C133" s="7"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
       <c r="B134" s="35"/>
       <c r="C134" s="7"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="35"/>
       <c r="C135" s="7"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="35"/>
       <c r="C136" s="7"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="35"/>
       <c r="C137" s="7"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="35"/>
       <c r="C138" s="7"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
       <c r="B139" s="35"/>
       <c r="C139" s="7"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
-      <c r="F139" s="57"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="35"/>
       <c r="C140" s="7"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
-      <c r="F140" s="57"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="35"/>
       <c r="C141" s="7"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
-      <c r="F141" s="57"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="35"/>
       <c r="C142" s="7"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
-      <c r="F142" s="57"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="35"/>
       <c r="C143" s="7"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
-      <c r="F143" s="57"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
       <c r="B144" s="35"/>
       <c r="C144" s="7"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
-      <c r="F144" s="57"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="35"/>
       <c r="C145" s="7"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
-      <c r="F145" s="57"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="35"/>
       <c r="C146" s="7"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
-      <c r="F146" s="57"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="35"/>
       <c r="C147" s="7"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
-      <c r="F147" s="57"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="35"/>
       <c r="C148" s="7"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
-      <c r="F148" s="57"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="35"/>
       <c r="B149" s="35"/>
       <c r="C149" s="7"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
-      <c r="F149" s="57"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="35"/>
       <c r="C150" s="7"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
-      <c r="F150" s="57"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="35"/>
       <c r="C151" s="7"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
-      <c r="F151" s="57"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="35"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
       <c r="B152" s="35"/>
       <c r="C152" s="7"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
-      <c r="F152" s="57"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="35"/>
       <c r="C153" s="7"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
-      <c r="F153" s="57"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="35"/>
       <c r="B154" s="35"/>
       <c r="C154" s="7"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
-      <c r="F154" s="57"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="35"/>
       <c r="C155" s="7"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
-      <c r="F155" s="57"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="35"/>
       <c r="C156" s="7"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
-      <c r="F156" s="57"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="35"/>
       <c r="C157" s="7"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="57"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="35"/>
       <c r="C158" s="7"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
-      <c r="F158" s="57"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="35"/>
       <c r="B159" s="35"/>
       <c r="C159" s="7"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
-      <c r="F159" s="57"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="35"/>
       <c r="C160" s="7"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
-      <c r="F160" s="57"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="35"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
       <c r="B161" s="35"/>
       <c r="C161" s="7"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
-      <c r="F161" s="57"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="35"/>
       <c r="C162" s="7"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="35"/>
       <c r="C163" s="7"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="35"/>
       <c r="B164" s="35"/>
       <c r="C164" s="7"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="35"/>
       <c r="C165" s="7"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="35"/>
       <c r="C166" s="7"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="35"/>
       <c r="C167" s="7"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="35"/>
       <c r="C168" s="7"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="5"/>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="35"/>
       <c r="B169" s="35"/>
       <c r="C169" s="7"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="35"/>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="5"/>
       <c r="B170" s="35"/>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="35"/>
       <c r="C171" s="7"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="35"/>
       <c r="C172" s="7"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="35"/>
       <c r="C173" s="7"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
-      <c r="B174" s="35"/>
-      <c r="C174" s="7"/>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="57"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="35"/>
       <c r="C175" s="7"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="35"/>
       <c r="C176" s="7"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="35"/>
       <c r="C177" s="7"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="35"/>
       <c r="C178" s="7"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="35"/>
       <c r="B179" s="35"/>
       <c r="C179" s="7"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="35"/>
       <c r="C180" s="7"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="35"/>
       <c r="C181" s="7"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="35"/>
       <c r="C182" s="7"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="35"/>
       <c r="C183" s="7"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="5"/>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="35"/>
       <c r="B184" s="35"/>
       <c r="C184" s="7"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="57"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="35"/>
       <c r="C185" s="7"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="57"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="35"/>
       <c r="C186" s="7"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="57"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="35"/>
       <c r="C187" s="7"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="35"/>
+      <c r="F187" s="57"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="5"/>
       <c r="B188" s="35"/>
       <c r="C188" s="7"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="5"/>
+      <c r="F188" s="57"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="35"/>
       <c r="B189" s="35"/>
       <c r="C189" s="7"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="57"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="35"/>
       <c r="C190" s="7"/>
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="57"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="35"/>
       <c r="C191" s="7"/>
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="57"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="35"/>
       <c r="C192" s="7"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="57"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="35"/>
       <c r="C193" s="7"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="57"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="35"/>
       <c r="C194" s="7"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="57"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="35"/>
       <c r="C195" s="7"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="57"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="35"/>
       <c r="C196" s="7"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="57"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="35"/>
       <c r="B197" s="35"/>
       <c r="C197" s="7"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="57"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
       <c r="B198" s="35"/>
       <c r="C198" s="7"/>
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="57"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="35"/>
       <c r="C199" s="7"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="57"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
       <c r="B200" s="35"/>
       <c r="C200" s="7"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="57"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
       <c r="B201" s="35"/>
       <c r="C201" s="7"/>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="57"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
       <c r="B202" s="35"/>
       <c r="C202" s="7"/>
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="57"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
       <c r="B203" s="35"/>
       <c r="C203" s="7"/>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="57"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
       <c r="B204" s="35"/>
       <c r="C204" s="7"/>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="57"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
       <c r="B205" s="35"/>
       <c r="C205" s="7"/>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="57"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="35"/>
       <c r="B206" s="35"/>
       <c r="C206" s="7"/>
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="57"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
       <c r="B207" s="35"/>
       <c r="C207" s="7"/>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
       <c r="B208" s="35"/>
       <c r="C208" s="7"/>
@@ -3882,7 +4019,7 @@
       <c r="E210" s="8"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="35"/>
+      <c r="A211" s="5"/>
       <c r="B211" s="35"/>
       <c r="C211" s="7"/>
       <c r="D211" s="8"/>
@@ -3910,14 +4047,14 @@
       <c r="E214" s="8"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="5"/>
+      <c r="A215" s="35"/>
       <c r="B215" s="35"/>
       <c r="C215" s="7"/>
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="35"/>
+      <c r="A216" s="5"/>
       <c r="B216" s="35"/>
       <c r="C216" s="7"/>
       <c r="D216" s="8"/>
@@ -3952,7 +4089,7 @@
       <c r="E220" s="8"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="35"/>
+      <c r="A221" s="5"/>
       <c r="B221" s="35"/>
       <c r="C221" s="7"/>
       <c r="D221" s="8"/>
@@ -3973,7 +4110,7 @@
       <c r="E223" s="8"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="5"/>
+      <c r="A224" s="35"/>
       <c r="B224" s="35"/>
       <c r="C224" s="7"/>
       <c r="D224" s="8"/>
@@ -3987,7 +4124,7 @@
       <c r="E225" s="8"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="35"/>
+      <c r="A226" s="5"/>
       <c r="B226" s="35"/>
       <c r="C226" s="7"/>
       <c r="D226" s="8"/>
@@ -4022,7 +4159,7 @@
       <c r="E230" s="8"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="35"/>
+      <c r="A231" s="5"/>
       <c r="B231" s="35"/>
       <c r="C231" s="7"/>
       <c r="D231" s="8"/>
@@ -4036,7 +4173,7 @@
       <c r="E232" s="8"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="5"/>
+      <c r="A233" s="35"/>
       <c r="B233" s="35"/>
       <c r="C233" s="7"/>
       <c r="D233" s="8"/>
@@ -4057,7 +4194,7 @@
       <c r="E235" s="8"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="35"/>
+      <c r="A236" s="5"/>
       <c r="B236" s="35"/>
       <c r="C236" s="7"/>
       <c r="D236" s="8"/>
@@ -4092,14 +4229,14 @@
       <c r="E240" s="8"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="35"/>
+      <c r="A241" s="5"/>
       <c r="B241" s="35"/>
       <c r="C241" s="7"/>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="5"/>
+      <c r="A242" s="35"/>
       <c r="B242" s="35"/>
       <c r="C242" s="7"/>
       <c r="D242" s="8"/>
@@ -4127,7 +4264,7 @@
       <c r="E245" s="8"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="35"/>
+      <c r="A246" s="5"/>
       <c r="B246" s="35"/>
       <c r="C246" s="7"/>
       <c r="D246" s="8"/>
@@ -4162,14 +4299,14 @@
       <c r="E250" s="8"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="5"/>
+      <c r="A251" s="35"/>
       <c r="B251" s="35"/>
       <c r="C251" s="7"/>
       <c r="D251" s="8"/>
       <c r="E251" s="8"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="35"/>
+      <c r="A252" s="5"/>
       <c r="B252" s="35"/>
       <c r="C252" s="7"/>
       <c r="D252" s="8"/>
@@ -4197,14 +4334,14 @@
       <c r="E255" s="8"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="5"/>
+      <c r="A256" s="35"/>
       <c r="B256" s="35"/>
       <c r="C256" s="7"/>
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="35"/>
+      <c r="A257" s="5"/>
       <c r="B257" s="35"/>
       <c r="C257" s="7"/>
       <c r="D257" s="8"/>
@@ -4232,14 +4369,14 @@
       <c r="E260" s="8"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="5"/>
+      <c r="A261" s="35"/>
       <c r="B261" s="35"/>
       <c r="C261" s="7"/>
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="35"/>
+      <c r="A262" s="5"/>
       <c r="B262" s="35"/>
       <c r="C262" s="7"/>
       <c r="D262" s="8"/>
@@ -4267,14 +4404,14 @@
       <c r="E265" s="8"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="5"/>
+      <c r="A266" s="35"/>
       <c r="B266" s="35"/>
       <c r="C266" s="7"/>
       <c r="D266" s="8"/>
       <c r="E266" s="8"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="35"/>
+      <c r="A267" s="5"/>
       <c r="B267" s="35"/>
       <c r="C267" s="7"/>
       <c r="D267" s="8"/>
@@ -4302,14 +4439,14 @@
       <c r="E270" s="8"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="5"/>
+      <c r="A271" s="35"/>
       <c r="B271" s="35"/>
       <c r="C271" s="7"/>
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="35"/>
+      <c r="A272" s="5"/>
       <c r="B272" s="35"/>
       <c r="C272" s="7"/>
       <c r="D272" s="8"/>
@@ -4337,14 +4474,14 @@
       <c r="E275" s="8"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="5"/>
+      <c r="A276" s="35"/>
       <c r="B276" s="35"/>
       <c r="C276" s="7"/>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="35"/>
+      <c r="A277" s="5"/>
       <c r="B277" s="35"/>
       <c r="C277" s="7"/>
       <c r="D277" s="8"/>
@@ -4372,16 +4509,16 @@
       <c r="E280" s="8"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="5"/>
+      <c r="A281" s="35"/>
       <c r="B281" s="35"/>
       <c r="C281" s="7"/>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
-      <c r="C282" s="8"/>
+      <c r="A282" s="5"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="7"/>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
     </row>
@@ -4407,7 +4544,7 @@
       <c r="E285" s="8"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="5"/>
+      <c r="A286" s="35"/>
       <c r="B286" s="35"/>
       <c r="C286" s="7"/>
       <c r="D286" s="8"/>
@@ -4484,7 +4621,7 @@
       <c r="E296" s="8"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="5"/>
+      <c r="A297" s="35"/>
       <c r="B297" s="35"/>
       <c r="C297" s="7"/>
       <c r="D297" s="8"/>
@@ -4505,7 +4642,7 @@
       <c r="E299" s="8"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="35"/>
+      <c r="A300" s="5"/>
       <c r="B300" s="35"/>
       <c r="C300" s="7"/>
       <c r="D300" s="8"/>
@@ -4519,7 +4656,7 @@
       <c r="E301" s="8"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="5"/>
+      <c r="A302" s="35"/>
       <c r="B302" s="35"/>
       <c r="C302" s="7"/>
       <c r="D302" s="8"/>
@@ -4554,7 +4691,7 @@
       <c r="E306" s="8"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="5"/>
+      <c r="A307" s="35"/>
       <c r="B307" s="35"/>
       <c r="C307" s="7"/>
       <c r="D307" s="8"/>
@@ -4568,7 +4705,7 @@
       <c r="E308" s="8"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="35"/>
+      <c r="A309" s="5"/>
       <c r="B309" s="35"/>
       <c r="C309" s="7"/>
       <c r="D309" s="8"/>
@@ -4589,7 +4726,7 @@
       <c r="E311" s="8"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="5"/>
+      <c r="A312" s="35"/>
       <c r="B312" s="35"/>
       <c r="C312" s="7"/>
       <c r="D312" s="8"/>
@@ -4624,14 +4761,14 @@
       <c r="E316" s="8"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="5"/>
+      <c r="A317" s="35"/>
       <c r="B317" s="35"/>
       <c r="C317" s="7"/>
       <c r="D317" s="8"/>
       <c r="E317" s="8"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="35"/>
+      <c r="A318" s="5"/>
       <c r="B318" s="35"/>
       <c r="C318" s="7"/>
       <c r="D318" s="8"/>
@@ -4659,7 +4796,7 @@
       <c r="E321" s="8"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="5"/>
+      <c r="A322" s="35"/>
       <c r="B322" s="35"/>
       <c r="C322" s="7"/>
       <c r="D322" s="8"/>
@@ -4694,9 +4831,9 @@
       <c r="E326" s="8"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="35"/>
-      <c r="B327" s="35"/>
-      <c r="C327" s="7"/>
+      <c r="A327" s="8"/>
+      <c r="B327" s="8"/>
+      <c r="C327" s="8"/>
       <c r="D327" s="8"/>
       <c r="E327" s="8"/>
     </row>
@@ -4729,7 +4866,7 @@
       <c r="E331" s="8"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="35"/>
+      <c r="A332" s="5"/>
       <c r="B332" s="35"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
@@ -4757,14 +4894,14 @@
       <c r="E335" s="8"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="5"/>
+      <c r="A336" s="35"/>
       <c r="B336" s="35"/>
       <c r="C336" s="7"/>
       <c r="D336" s="8"/>
       <c r="E336" s="8"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="35"/>
+      <c r="A337" s="5"/>
       <c r="B337" s="35"/>
       <c r="C337" s="7"/>
       <c r="D337" s="8"/>
@@ -4799,7 +4936,7 @@
       <c r="E341" s="8"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="35"/>
+      <c r="A342" s="5"/>
       <c r="B342" s="35"/>
       <c r="C342" s="7"/>
       <c r="D342" s="8"/>
@@ -4820,7 +4957,7 @@
       <c r="E344" s="8"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="5"/>
+      <c r="A345" s="35"/>
       <c r="B345" s="35"/>
       <c r="C345" s="7"/>
       <c r="D345" s="8"/>
@@ -4834,7 +4971,7 @@
       <c r="E346" s="8"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="35"/>
+      <c r="A347" s="5"/>
       <c r="B347" s="35"/>
       <c r="C347" s="7"/>
       <c r="D347" s="8"/>
@@ -4869,7 +5006,7 @@
       <c r="E351" s="8"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="35"/>
+      <c r="A352" s="5"/>
       <c r="B352" s="35"/>
       <c r="C352" s="7"/>
       <c r="D352" s="8"/>
@@ -4883,7 +5020,7 @@
       <c r="E353" s="8"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="5"/>
+      <c r="A354" s="35"/>
       <c r="B354" s="35"/>
       <c r="C354" s="7"/>
       <c r="D354" s="8"/>
@@ -4904,7 +5041,7 @@
       <c r="E356" s="8"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="35"/>
+      <c r="A357" s="5"/>
       <c r="B357" s="35"/>
       <c r="C357" s="7"/>
       <c r="D357" s="8"/>
@@ -4939,14 +5076,14 @@
       <c r="E361" s="8"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="35"/>
+      <c r="A362" s="5"/>
       <c r="B362" s="35"/>
       <c r="C362" s="7"/>
       <c r="D362" s="8"/>
       <c r="E362" s="8"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="5"/>
+      <c r="A363" s="35"/>
       <c r="B363" s="35"/>
       <c r="C363" s="7"/>
       <c r="D363" s="8"/>
@@ -4974,7 +5111,7 @@
       <c r="E366" s="8"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="35"/>
+      <c r="A367" s="5"/>
       <c r="B367" s="35"/>
       <c r="C367" s="7"/>
       <c r="D367" s="8"/>
@@ -5044,14 +5181,14 @@
       <c r="E376" s="8"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="5"/>
+      <c r="A377" s="35"/>
       <c r="B377" s="35"/>
       <c r="C377" s="7"/>
       <c r="D377" s="8"/>
       <c r="E377" s="8"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="35"/>
+      <c r="A378" s="5"/>
       <c r="B378" s="35"/>
       <c r="C378" s="7"/>
       <c r="D378" s="8"/>
@@ -5079,14 +5216,14 @@
       <c r="E381" s="8"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="5"/>
+      <c r="A382" s="35"/>
       <c r="B382" s="35"/>
       <c r="C382" s="7"/>
       <c r="D382" s="8"/>
       <c r="E382" s="8"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="35"/>
+      <c r="A383" s="5"/>
       <c r="B383" s="35"/>
       <c r="C383" s="7"/>
       <c r="D383" s="8"/>
@@ -5114,7 +5251,7 @@
       <c r="E386" s="8"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="5"/>
+      <c r="A387" s="35"/>
       <c r="B387" s="35"/>
       <c r="C387" s="7"/>
       <c r="D387" s="8"/>
@@ -5128,7 +5265,7 @@
       <c r="E388" s="8"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="35"/>
+      <c r="A389" s="5"/>
       <c r="B389" s="35"/>
       <c r="C389" s="7"/>
       <c r="D389" s="8"/>
@@ -5149,7 +5286,7 @@
       <c r="E391" s="8"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="5"/>
+      <c r="A392" s="35"/>
       <c r="B392" s="35"/>
       <c r="C392" s="7"/>
       <c r="D392" s="8"/>
@@ -5170,9 +5307,9 @@
       <c r="E394" s="8"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="8"/>
-      <c r="B395" s="8"/>
-      <c r="C395" s="8"/>
+      <c r="A395" s="5"/>
+      <c r="B395" s="35"/>
+      <c r="C395" s="7"/>
       <c r="D395" s="8"/>
       <c r="E395" s="8"/>
     </row>
@@ -5184,7 +5321,7 @@
       <c r="E396" s="8"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="5"/>
+      <c r="A397" s="35"/>
       <c r="B397" s="35"/>
       <c r="C397" s="7"/>
       <c r="D397" s="8"/>
@@ -5205,7 +5342,7 @@
       <c r="E399" s="8"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="35"/>
+      <c r="A400" s="5"/>
       <c r="B400" s="35"/>
       <c r="C400" s="7"/>
       <c r="D400" s="8"/>
@@ -5219,7 +5356,7 @@
       <c r="E401" s="8"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="5"/>
+      <c r="A402" s="35"/>
       <c r="B402" s="35"/>
       <c r="C402" s="7"/>
       <c r="D402" s="8"/>
@@ -5240,7 +5377,7 @@
       <c r="E404" s="8"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="35"/>
+      <c r="A405" s="5"/>
       <c r="B405" s="35"/>
       <c r="C405" s="7"/>
       <c r="D405" s="8"/>
@@ -5254,7 +5391,7 @@
       <c r="E406" s="8"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="5"/>
+      <c r="A407" s="35"/>
       <c r="B407" s="35"/>
       <c r="C407" s="7"/>
       <c r="D407" s="8"/>
@@ -5275,7 +5412,7 @@
       <c r="E409" s="8"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="35"/>
+      <c r="A410" s="5"/>
       <c r="B410" s="35"/>
       <c r="C410" s="7"/>
       <c r="D410" s="8"/>
@@ -5289,7 +5426,7 @@
       <c r="E411" s="8"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="5"/>
+      <c r="A412" s="35"/>
       <c r="B412" s="35"/>
       <c r="C412" s="7"/>
       <c r="D412" s="8"/>
@@ -5310,7 +5447,7 @@
       <c r="E414" s="8"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="35"/>
+      <c r="A415" s="5"/>
       <c r="B415" s="35"/>
       <c r="C415" s="7"/>
       <c r="D415" s="8"/>
@@ -5324,7 +5461,7 @@
       <c r="E416" s="8"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="5"/>
+      <c r="A417" s="35"/>
       <c r="B417" s="35"/>
       <c r="C417" s="7"/>
       <c r="D417" s="8"/>
@@ -5345,7 +5482,7 @@
       <c r="E419" s="8"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="35"/>
+      <c r="A420" s="5"/>
       <c r="B420" s="35"/>
       <c r="C420" s="7"/>
       <c r="D420" s="8"/>
@@ -5387,7 +5524,7 @@
       <c r="E425" s="8"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="35"/>
+      <c r="A426" s="5"/>
       <c r="B426" s="35"/>
       <c r="C426" s="7"/>
       <c r="D426" s="8"/>
@@ -5401,14 +5538,14 @@
       <c r="E427" s="8"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="5"/>
+      <c r="A428" s="35"/>
       <c r="B428" s="35"/>
       <c r="C428" s="7"/>
       <c r="D428" s="8"/>
       <c r="E428" s="8"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="35"/>
+      <c r="A429" s="5"/>
       <c r="B429" s="35"/>
       <c r="C429" s="7"/>
       <c r="D429" s="8"/>
@@ -5429,7 +5566,7 @@
       <c r="E431" s="8"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="35"/>
+      <c r="A432" s="5"/>
       <c r="B432" s="35"/>
       <c r="C432" s="7"/>
       <c r="D432" s="8"/>
@@ -5443,14 +5580,14 @@
       <c r="E433" s="8"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="5"/>
+      <c r="A434" s="35"/>
       <c r="B434" s="35"/>
       <c r="C434" s="7"/>
       <c r="D434" s="8"/>
       <c r="E434" s="8"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="35"/>
+      <c r="A435" s="5"/>
       <c r="B435" s="35"/>
       <c r="C435" s="7"/>
       <c r="D435" s="8"/>
@@ -5471,7 +5608,7 @@
       <c r="E437" s="8"/>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="35"/>
+      <c r="A438" s="5"/>
       <c r="B438" s="35"/>
       <c r="C438" s="7"/>
       <c r="D438" s="8"/>
@@ -5485,14 +5622,14 @@
       <c r="E439" s="8"/>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="5"/>
-      <c r="B440" s="35"/>
-      <c r="C440" s="7"/>
+      <c r="A440" s="8"/>
+      <c r="B440" s="8"/>
+      <c r="C440" s="8"/>
       <c r="D440" s="8"/>
       <c r="E440" s="8"/>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="35"/>
+      <c r="A441" s="5"/>
       <c r="B441" s="35"/>
       <c r="C441" s="7"/>
       <c r="D441" s="8"/>
@@ -5513,14 +5650,14 @@
       <c r="E443" s="8"/>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="35"/>
+      <c r="A444" s="5"/>
       <c r="B444" s="35"/>
       <c r="C444" s="7"/>
       <c r="D444" s="8"/>
       <c r="E444" s="8"/>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="5"/>
+      <c r="A445" s="35"/>
       <c r="B445" s="35"/>
       <c r="C445" s="7"/>
       <c r="D445" s="8"/>
@@ -5534,7 +5671,7 @@
       <c r="E446" s="8"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="35"/>
+      <c r="A447" s="5"/>
       <c r="B447" s="35"/>
       <c r="C447" s="7"/>
       <c r="D447" s="8"/>
@@ -5576,7 +5713,7 @@
       <c r="E452" s="8"/>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="35"/>
+      <c r="A453" s="5"/>
       <c r="B453" s="35"/>
       <c r="C453" s="7"/>
       <c r="D453" s="8"/>
@@ -5590,14 +5727,14 @@
       <c r="E454" s="8"/>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="5"/>
+      <c r="A455" s="35"/>
       <c r="B455" s="35"/>
       <c r="C455" s="7"/>
       <c r="D455" s="8"/>
       <c r="E455" s="8"/>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="35"/>
+      <c r="A456" s="5"/>
       <c r="B456" s="35"/>
       <c r="C456" s="7"/>
       <c r="D456" s="8"/>
@@ -5618,14 +5755,14 @@
       <c r="E458" s="8"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="35"/>
+      <c r="A459" s="5"/>
       <c r="B459" s="35"/>
       <c r="C459" s="7"/>
       <c r="D459" s="8"/>
       <c r="E459" s="8"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="5"/>
+      <c r="A460" s="35"/>
       <c r="B460" s="35"/>
       <c r="C460" s="7"/>
       <c r="D460" s="8"/>
@@ -5639,7 +5776,7 @@
       <c r="E461" s="8"/>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="35"/>
+      <c r="A462" s="5"/>
       <c r="B462" s="35"/>
       <c r="C462" s="7"/>
       <c r="D462" s="8"/>
@@ -5653,21 +5790,21 @@
       <c r="E463" s="8"/>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="35"/>
+      <c r="A464" s="5"/>
       <c r="B464" s="35"/>
       <c r="C464" s="7"/>
       <c r="D464" s="8"/>
       <c r="E464" s="8"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="5"/>
+      <c r="A465" s="35"/>
       <c r="B465" s="35"/>
       <c r="C465" s="7"/>
       <c r="D465" s="8"/>
       <c r="E465" s="8"/>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="35"/>
+      <c r="A466" s="5"/>
       <c r="B466" s="35"/>
       <c r="C466" s="7"/>
       <c r="D466" s="8"/>
@@ -5723,7 +5860,7 @@
       <c r="E473" s="8"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="5"/>
+      <c r="A474" s="35"/>
       <c r="B474" s="35"/>
       <c r="C474" s="7"/>
       <c r="D474" s="8"/>
@@ -5744,7 +5881,7 @@
       <c r="E476" s="8"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="5"/>
+      <c r="A477" s="35"/>
       <c r="B477" s="35"/>
       <c r="C477" s="7"/>
       <c r="D477" s="8"/>
@@ -5765,251 +5902,230 @@
       <c r="E479" s="8"/>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="5"/>
+      <c r="A480" s="35"/>
       <c r="B480" s="35"/>
       <c r="C480" s="7"/>
       <c r="D480" s="8"/>
       <c r="E480" s="8"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A481" s="35"/>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="5"/>
       <c r="B481" s="35"/>
       <c r="C481" s="7"/>
       <c r="D481" s="8"/>
       <c r="E481" s="8"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="5"/>
       <c r="B482" s="35"/>
       <c r="C482" s="7"/>
       <c r="D482" s="8"/>
       <c r="E482" s="8"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A483" s="5"/>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="35"/>
       <c r="B483" s="35"/>
       <c r="C483" s="7"/>
       <c r="D483" s="8"/>
       <c r="E483" s="8"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="5"/>
       <c r="B484" s="35"/>
       <c r="C484" s="7"/>
       <c r="D484" s="8"/>
       <c r="E484" s="8"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="5"/>
       <c r="B485" s="35"/>
       <c r="C485" s="7"/>
       <c r="D485" s="8"/>
       <c r="E485" s="8"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A486" s="5"/>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="35"/>
       <c r="B486" s="35"/>
       <c r="C486" s="7"/>
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="5"/>
       <c r="B487" s="35"/>
       <c r="C487" s="7"/>
       <c r="D487" s="8"/>
       <c r="E487" s="8"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A488" s="8"/>
-      <c r="B488" s="8"/>
-      <c r="C488" s="57"/>
-      <c r="D488" s="7"/>
-      <c r="E488" s="7"/>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A489" s="5"/>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="5"/>
+      <c r="B488" s="35"/>
+      <c r="C488" s="7"/>
+      <c r="D488" s="8"/>
+      <c r="E488" s="8"/>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="35"/>
       <c r="B489" s="35"/>
       <c r="C489" s="7"/>
       <c r="D489" s="8"/>
       <c r="E489" s="8"/>
-      <c r="F489" s="3"/>
-      <c r="G489" s="3"/>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="5"/>
       <c r="B490" s="35"/>
       <c r="C490" s="7"/>
       <c r="D490" s="8"/>
       <c r="E490" s="8"/>
-      <c r="F490" s="3"/>
-      <c r="G490" s="3"/>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="5"/>
       <c r="B491" s="35"/>
       <c r="C491" s="7"/>
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
-      <c r="F491" s="3"/>
-      <c r="G491" s="3"/>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A492" s="5"/>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="35"/>
       <c r="B492" s="35"/>
       <c r="C492" s="7"/>
       <c r="D492" s="8"/>
       <c r="E492" s="8"/>
-      <c r="F492" s="3"/>
-      <c r="G492" s="3"/>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="5"/>
       <c r="B493" s="35"/>
       <c r="C493" s="7"/>
       <c r="D493" s="8"/>
       <c r="E493" s="8"/>
-      <c r="F493" s="3"/>
-      <c r="G493" s="3"/>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="5"/>
       <c r="B494" s="35"/>
       <c r="C494" s="7"/>
       <c r="D494" s="8"/>
       <c r="E494" s="8"/>
-      <c r="F494" s="3"/>
-      <c r="G494" s="3"/>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A495" s="5"/>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="35"/>
       <c r="B495" s="35"/>
       <c r="C495" s="7"/>
       <c r="D495" s="8"/>
       <c r="E495" s="8"/>
-      <c r="F495" s="3"/>
-      <c r="G495" s="3"/>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="5"/>
       <c r="B496" s="35"/>
       <c r="C496" s="7"/>
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
-      <c r="F496" s="3"/>
-      <c r="G496" s="3"/>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="5"/>
       <c r="B497" s="35"/>
       <c r="C497" s="7"/>
       <c r="D497" s="8"/>
       <c r="E497" s="8"/>
-      <c r="F497" s="3"/>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="35"/>
       <c r="B498" s="35"/>
       <c r="C498" s="7"/>
       <c r="D498" s="8"/>
       <c r="E498" s="8"/>
-      <c r="F498" s="3"/>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="5"/>
       <c r="B499" s="35"/>
       <c r="C499" s="7"/>
       <c r="D499" s="8"/>
       <c r="E499" s="8"/>
-      <c r="F499" s="3"/>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="5"/>
       <c r="B500" s="35"/>
       <c r="C500" s="7"/>
       <c r="D500" s="8"/>
       <c r="E500" s="8"/>
-      <c r="F500" s="3"/>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501" s="5"/>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="35"/>
       <c r="B501" s="35"/>
       <c r="C501" s="7"/>
       <c r="D501" s="8"/>
       <c r="E501" s="8"/>
-      <c r="F501" s="3"/>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="5"/>
       <c r="B502" s="35"/>
       <c r="C502" s="7"/>
       <c r="D502" s="8"/>
       <c r="E502" s="8"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="5"/>
       <c r="B503" s="35"/>
       <c r="C503" s="7"/>
       <c r="D503" s="8"/>
       <c r="E503" s="8"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504" s="5"/>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="35"/>
       <c r="B504" s="35"/>
       <c r="C504" s="7"/>
       <c r="D504" s="8"/>
       <c r="E504" s="8"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="5"/>
       <c r="B505" s="35"/>
       <c r="C505" s="7"/>
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="5"/>
       <c r="B506" s="35"/>
       <c r="C506" s="7"/>
       <c r="D506" s="8"/>
       <c r="E506" s="8"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A507" s="5"/>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="35"/>
       <c r="B507" s="35"/>
       <c r="C507" s="7"/>
       <c r="D507" s="8"/>
       <c r="E507" s="8"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A508" s="35"/>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="5"/>
       <c r="B508" s="35"/>
       <c r="C508" s="7"/>
       <c r="D508" s="8"/>
       <c r="E508" s="8"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A509" s="5"/>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" s="35"/>
       <c r="B509" s="35"/>
       <c r="C509" s="7"/>
       <c r="D509" s="8"/>
       <c r="E509" s="8"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="5"/>
       <c r="B510" s="35"/>
       <c r="C510" s="7"/>
       <c r="D510" s="8"/>
       <c r="E510" s="8"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A511" s="5"/>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="35"/>
       <c r="B511" s="35"/>
       <c r="C511" s="7"/>
       <c r="D511" s="8"/>
       <c r="E511" s="8"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="5"/>
       <c r="B512" s="35"/>
       <c r="C512" s="7"/>
@@ -6017,7 +6133,7 @@
       <c r="E512" s="8"/>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="5"/>
+      <c r="A513" s="35"/>
       <c r="B513" s="35"/>
       <c r="C513" s="7"/>
       <c r="D513" s="8"/>
@@ -6038,7 +6154,7 @@
       <c r="E515" s="8"/>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" s="5"/>
+      <c r="A516" s="35"/>
       <c r="B516" s="35"/>
       <c r="C516" s="7"/>
       <c r="D516" s="8"/>
@@ -6087,7 +6203,7 @@
       <c r="E522" s="8"/>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" s="35"/>
+      <c r="A523" s="5"/>
       <c r="B523" s="35"/>
       <c r="C523" s="7"/>
       <c r="D523" s="8"/>
@@ -6108,7 +6224,7 @@
       <c r="E525" s="8"/>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="5"/>
+      <c r="A526" s="35"/>
       <c r="B526" s="35"/>
       <c r="C526" s="7"/>
       <c r="D526" s="8"/>
@@ -6128,25 +6244,361 @@
       <c r="D528" s="8"/>
       <c r="E528" s="8"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="5"/>
       <c r="B529" s="35"/>
       <c r="C529" s="7"/>
       <c r="D529" s="8"/>
       <c r="E529" s="8"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A530" s="35"/>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A530" s="5"/>
       <c r="B530" s="35"/>
       <c r="C530" s="7"/>
       <c r="D530" s="8"/>
       <c r="E530" s="8"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="5"/>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A531" s="5"/>
+      <c r="B531" s="35"/>
+      <c r="C531" s="7"/>
+      <c r="D531" s="8"/>
+      <c r="E531" s="8"/>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A532" s="5"/>
+      <c r="B532" s="35"/>
+      <c r="C532" s="7"/>
+      <c r="D532" s="8"/>
+      <c r="E532" s="8"/>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A533" s="8"/>
+      <c r="B533" s="8"/>
+      <c r="C533" s="57"/>
+      <c r="D533" s="7"/>
+      <c r="E533" s="7"/>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A534" s="5"/>
+      <c r="B534" s="35"/>
+      <c r="C534" s="7"/>
+      <c r="D534" s="8"/>
+      <c r="E534" s="8"/>
+      <c r="F534" s="3"/>
+      <c r="G534" s="3"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A535" s="5"/>
+      <c r="B535" s="35"/>
+      <c r="C535" s="7"/>
+      <c r="D535" s="8"/>
+      <c r="E535" s="8"/>
+      <c r="F535" s="3"/>
+      <c r="G535" s="3"/>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536" s="5"/>
+      <c r="B536" s="35"/>
+      <c r="C536" s="7"/>
+      <c r="D536" s="8"/>
+      <c r="E536" s="8"/>
+      <c r="F536" s="3"/>
+      <c r="G536" s="3"/>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537" s="5"/>
+      <c r="B537" s="35"/>
+      <c r="C537" s="7"/>
+      <c r="D537" s="8"/>
+      <c r="E537" s="8"/>
+      <c r="F537" s="3"/>
+      <c r="G537" s="3"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" s="5"/>
+      <c r="B538" s="35"/>
+      <c r="C538" s="7"/>
+      <c r="D538" s="8"/>
+      <c r="E538" s="8"/>
+      <c r="F538" s="3"/>
+      <c r="G538" s="3"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" s="5"/>
+      <c r="B539" s="35"/>
+      <c r="C539" s="7"/>
+      <c r="D539" s="8"/>
+      <c r="E539" s="8"/>
+      <c r="F539" s="3"/>
+      <c r="G539" s="3"/>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" s="5"/>
+      <c r="B540" s="35"/>
+      <c r="C540" s="7"/>
+      <c r="D540" s="8"/>
+      <c r="E540" s="8"/>
+      <c r="F540" s="3"/>
+      <c r="G540" s="3"/>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" s="5"/>
+      <c r="B541" s="35"/>
+      <c r="C541" s="7"/>
+      <c r="D541" s="8"/>
+      <c r="E541" s="8"/>
+      <c r="F541" s="3"/>
+      <c r="G541" s="3"/>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A542" s="5"/>
+      <c r="B542" s="35"/>
+      <c r="C542" s="7"/>
+      <c r="D542" s="8"/>
+      <c r="E542" s="8"/>
+      <c r="F542" s="3"/>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A543" s="35"/>
+      <c r="B543" s="35"/>
+      <c r="C543" s="7"/>
+      <c r="D543" s="8"/>
+      <c r="E543" s="8"/>
+      <c r="F543" s="3"/>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A544" s="5"/>
+      <c r="B544" s="35"/>
+      <c r="C544" s="7"/>
+      <c r="D544" s="8"/>
+      <c r="E544" s="8"/>
+      <c r="F544" s="3"/>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" s="5"/>
+      <c r="B545" s="35"/>
+      <c r="C545" s="7"/>
+      <c r="D545" s="8"/>
+      <c r="E545" s="8"/>
+      <c r="F545" s="3"/>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" s="5"/>
+      <c r="B546" s="35"/>
+      <c r="C546" s="7"/>
+      <c r="D546" s="8"/>
+      <c r="E546" s="8"/>
+      <c r="F546" s="3"/>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" s="5"/>
+      <c r="B547" s="35"/>
+      <c r="C547" s="7"/>
+      <c r="D547" s="8"/>
+      <c r="E547" s="8"/>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" s="5"/>
+      <c r="B548" s="35"/>
+      <c r="C548" s="7"/>
+      <c r="D548" s="8"/>
+      <c r="E548" s="8"/>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" s="5"/>
+      <c r="B549" s="35"/>
+      <c r="C549" s="7"/>
+      <c r="D549" s="8"/>
+      <c r="E549" s="8"/>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" s="5"/>
+      <c r="B550" s="35"/>
+      <c r="C550" s="7"/>
+      <c r="D550" s="8"/>
+      <c r="E550" s="8"/>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551" s="5"/>
+      <c r="B551" s="35"/>
+      <c r="C551" s="7"/>
+      <c r="D551" s="8"/>
+      <c r="E551" s="8"/>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552" s="5"/>
+      <c r="B552" s="35"/>
+      <c r="C552" s="7"/>
+      <c r="D552" s="8"/>
+      <c r="E552" s="8"/>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553" s="35"/>
+      <c r="B553" s="35"/>
+      <c r="C553" s="7"/>
+      <c r="D553" s="8"/>
+      <c r="E553" s="8"/>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" s="5"/>
+      <c r="B554" s="35"/>
+      <c r="C554" s="7"/>
+      <c r="D554" s="8"/>
+      <c r="E554" s="8"/>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" s="5"/>
+      <c r="B555" s="35"/>
+      <c r="C555" s="7"/>
+      <c r="D555" s="8"/>
+      <c r="E555" s="8"/>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556" s="5"/>
+      <c r="B556" s="35"/>
+      <c r="C556" s="7"/>
+      <c r="D556" s="8"/>
+      <c r="E556" s="8"/>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557" s="5"/>
+      <c r="B557" s="35"/>
+      <c r="C557" s="7"/>
+      <c r="D557" s="8"/>
+      <c r="E557" s="8"/>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558" s="5"/>
+      <c r="B558" s="35"/>
+      <c r="C558" s="7"/>
+      <c r="D558" s="8"/>
+      <c r="E558" s="8"/>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559" s="5"/>
+      <c r="B559" s="35"/>
+      <c r="C559" s="7"/>
+      <c r="D559" s="8"/>
+      <c r="E559" s="8"/>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560" s="5"/>
+      <c r="B560" s="35"/>
+      <c r="C560" s="7"/>
+      <c r="D560" s="8"/>
+      <c r="E560" s="8"/>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" s="5"/>
+      <c r="B561" s="35"/>
+      <c r="C561" s="7"/>
+      <c r="D561" s="8"/>
+      <c r="E561" s="8"/>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" s="5"/>
+      <c r="B562" s="35"/>
+      <c r="C562" s="7"/>
+      <c r="D562" s="8"/>
+      <c r="E562" s="8"/>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" s="5"/>
+      <c r="B563" s="35"/>
+      <c r="C563" s="7"/>
+      <c r="D563" s="8"/>
+      <c r="E563" s="8"/>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" s="5"/>
+      <c r="B564" s="35"/>
+      <c r="C564" s="7"/>
+      <c r="D564" s="8"/>
+      <c r="E564" s="8"/>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" s="5"/>
+      <c r="B565" s="35"/>
+      <c r="C565" s="7"/>
+      <c r="D565" s="8"/>
+      <c r="E565" s="8"/>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" s="5"/>
+      <c r="B566" s="35"/>
+      <c r="C566" s="7"/>
+      <c r="D566" s="8"/>
+      <c r="E566" s="8"/>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567" s="5"/>
+      <c r="B567" s="35"/>
+      <c r="C567" s="7"/>
+      <c r="D567" s="8"/>
+      <c r="E567" s="8"/>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568" s="35"/>
+      <c r="B568" s="35"/>
+      <c r="C568" s="7"/>
+      <c r="D568" s="8"/>
+      <c r="E568" s="8"/>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" s="5"/>
+      <c r="B569" s="35"/>
+      <c r="C569" s="7"/>
+      <c r="D569" s="8"/>
+      <c r="E569" s="8"/>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" s="5"/>
+      <c r="B570" s="35"/>
+      <c r="C570" s="7"/>
+      <c r="D570" s="8"/>
+      <c r="E570" s="8"/>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" s="5"/>
+      <c r="B571" s="35"/>
+      <c r="C571" s="7"/>
+      <c r="D571" s="8"/>
+      <c r="E571" s="8"/>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" s="5"/>
+      <c r="B572" s="35"/>
+      <c r="C572" s="7"/>
+      <c r="D572" s="8"/>
+      <c r="E572" s="8"/>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" s="5"/>
+      <c r="B573" s="35"/>
+      <c r="C573" s="7"/>
+      <c r="D573" s="8"/>
+      <c r="E573" s="8"/>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" s="5"/>
+      <c r="B574" s="35"/>
+      <c r="C574" s="7"/>
+      <c r="D574" s="8"/>
+      <c r="E574" s="8"/>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" s="35"/>
+      <c r="B575" s="35"/>
+      <c r="C575" s="7"/>
+      <c r="D575" s="8"/>
+      <c r="E575" s="8"/>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E610"/>
+  <autoFilter ref="A1:E655"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$655</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$749</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="174">
   <si>
     <t>ID Code</t>
   </si>
@@ -428,6 +428,117 @@
   </si>
   <si>
     <t>StaticEnviroment_BrokenGlass_11</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_DogHouse_12</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_ToolBox_13</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Welder_14</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Grinder_15</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Hammer_16</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_SconicScrewdriver_17</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Generator_18</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_FusionCore_19</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Teleporter_20</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Computer_21</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_AssemblyLine_22</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Fighter_23</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Drone_24</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_MinningShip_25</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_SpaceSuits_26</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_BrokenTurrets_27</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Desks_28</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Chairs_29</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_FloodLights_30</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Tires_31</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Warheads_32</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_WarheadTrolley_33</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_MoonBuggy_34</t>
+  </si>
+  <si>
+    <t>Enemy_AIMainFrame_8</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_Servers_35</t>
+  </si>
+  <si>
+    <t>StaticEnviroment_SecurityGates_36</t>
+  </si>
+  <si>
+    <t>Dynamic Envioment_MedPack_1</t>
+  </si>
+  <si>
+    <t>Dynamic Envioment_StimPack_2</t>
+  </si>
+  <si>
+    <t>Dynamic Envioment_KeyCards_3</t>
+  </si>
+  <si>
+    <t>Dynamic Envioment_LorePDA_4</t>
+  </si>
+  <si>
+    <t>Dynamic Envioment_Barrels_5</t>
+  </si>
+  <si>
+    <t>Dynamic Envioment_FireExtinguisher_6</t>
+  </si>
+  <si>
+    <t>Dynamic Envioment_Doors_7</t>
+  </si>
+  <si>
+    <t>Dynamic Envioment_Boxes_8</t>
+  </si>
+  <si>
+    <t>Dynamic Envioment_WeaponLockers_9</t>
+  </si>
+  <si>
+    <t>Building_</t>
+  </si>
+  <si>
+    <t>HUD_</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T627"/>
+  <dimension ref="A1:T721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,22 +1741,15 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>102</v>
-      </c>
+      <c r="H11" s="59"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="11"/>
       <c r="K11" s="31"/>
       <c r="L11" s="24"/>
@@ -1659,7 +1763,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -1672,39 +1776,34 @@
         <v>97</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="31"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
-      <c r="S12" s="34"/>
+      <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>107</v>
-      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="58"/>
       <c r="J13" s="11"/>
       <c r="K13" s="31"/>
       <c r="L13" s="24"/>
       <c r="M13" s="22"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
@@ -1725,97 +1824,84 @@
         <v>97</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="31"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="24"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
-      <c r="S14" s="36"/>
+      <c r="S14" s="34"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="58"/>
       <c r="J15" s="11"/>
       <c r="K15" s="31"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="24"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
-      <c r="S15" s="36"/>
+      <c r="S15" s="34"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>107</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="31"/>
       <c r="L16" s="24"/>
       <c r="M16" s="22"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
-      <c r="S16" s="36"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="25"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -1824,52 +1910,46 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="3">
-        <f>K18+L18+M18+N18+O18+P18+Q18+R18+S18</f>
-        <v>0</v>
-      </c>
+      <c r="H18" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="45" t="s">
-        <v>18</v>
-      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="31"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="3">
-        <f>K19+L19+M19+N19+O19+P19+Q19+R19+S19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="24"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="36"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
@@ -1880,55 +1960,84 @@
       <c r="G20" s="9"/>
       <c r="H20" s="5"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="37">
-        <f>K20+L20+M20+N20+O20+P20+Q20+R20+S20</f>
-        <v>0</v>
-      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="36"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="36"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="36"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G23" s="9"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="36"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>5</v>
@@ -1936,21 +2045,46 @@
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="36"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>119</v>
+      <c r="A26" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
@@ -1958,32 +2092,74 @@
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="3">
+        <f>K26+L26+M26+N26+O26+P26+Q26+R26+S26</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="47"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G28" s="9"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="31"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="3">
+        <f>K28+L28+M28+N28+O28+P28+Q28+R28+S28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>5</v>
@@ -1991,165 +2167,212 @@
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="37"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="37">
+        <f>K29+L29+M29+N29+O29+P29+Q29+R29+S29</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="35"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="35"/>
+        <v>116</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="35"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="35"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="35"/>
+        <v>117</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="35"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="35"/>
+      <c r="A36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="35"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="35"/>
+        <v>120</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="35"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="35"/>
+      <c r="A40" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="35"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="35"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="35"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="35"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="35"/>
+      <c r="A48" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="35"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2162,1222 +2385,652 @@
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
+      <c r="A51" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="35"/>
+      <c r="A53" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="35"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="35"/>
+      <c r="A55" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="35"/>
+      <c r="A57" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="35"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="35"/>
+      <c r="A59" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="35"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
+      <c r="A61" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="35"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="35"/>
+      <c r="A63" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="35"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="35"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="35"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="S66" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T66" s="3">
-        <f>SUM(T18:T20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" s="8">
-        <v>8</v>
-      </c>
-      <c r="G67" s="9"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-    </row>
-    <row r="68" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" s="8">
-        <v>8</v>
-      </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L68" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M68" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N68" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O68" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P68" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q68" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="R68" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="S68" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E69" s="8">
-        <v>6</v>
-      </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="11"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="46"/>
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="46"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="47"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E70" s="8">
-        <v>7</v>
-      </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="11"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="47"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E71" s="8">
-        <v>8</v>
-      </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="25"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="8">
-        <v>7</v>
-      </c>
-      <c r="J72" s="11"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="25"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="35"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" s="8">
-        <v>7</v>
-      </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="36"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" s="8">
-        <v>7</v>
-      </c>
-      <c r="J74" s="11"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="25"/>
-    </row>
-    <row r="75" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="8">
-        <v>4</v>
-      </c>
-      <c r="J75" s="11"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="25"/>
-      <c r="T75" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="35"/>
+        <v>138</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="J76" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" s="42"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="53"/>
-      <c r="T76" s="3">
-        <f>K76+L76+M76+N76+O76+P76+Q76+R76+S76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" s="8">
-        <v>8</v>
-      </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" s="37"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="39"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="55"/>
-      <c r="T77" s="37">
-        <f>K77+L77+M77+N77+O77+P77+Q77+R77+S77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E78" s="8">
-        <v>7</v>
-      </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="11"/>
-      <c r="S78" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T78" s="3">
-        <f>SUM(T76:T77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E79" s="8">
-        <v>6</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" s="8">
-        <v>6</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="11"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E81" s="8">
-        <v>6</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B82" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E82" s="8">
-        <v>7</v>
-      </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="35"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" s="8">
-        <v>6</v>
-      </c>
-      <c r="J83" s="11"/>
-      <c r="K83" s="7"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B84" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E84" s="8">
-        <v>6</v>
-      </c>
-      <c r="J84" s="11"/>
-      <c r="K84" s="7"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B86" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E86" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E87" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="35"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E89" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E90" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E91" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="35"/>
+        <v>146</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="35"/>
+      <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E93" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B94" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E94" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E96" s="8">
-        <v>10</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E97" s="8">
-        <v>7</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B98" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E98" s="8">
-        <v>4</v>
-      </c>
+      <c r="A98" s="5"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B99" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99" s="8">
-        <v>4</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100" s="8">
-        <v>4</v>
-      </c>
+      <c r="A100" s="5"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="35"/>
+      <c r="A101" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C101" s="7"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E102" s="8">
+      <c r="A102" s="5"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="35"/>
       <c r="C103" s="7"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="8">
-        <v>6</v>
-      </c>
+      <c r="A104" s="5"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B105" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E105" s="8">
+      <c r="A105" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E106" s="8">
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E107" s="8">
+      <c r="C107" s="7"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E108" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="35"/>
       <c r="C109" s="7"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B110" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E110" s="8">
-        <v>10</v>
-      </c>
+      <c r="A110" s="5"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E111" s="8">
-        <v>10</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E112" s="8">
-        <v>9</v>
-      </c>
+      <c r="A112" s="5"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B113" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E113" s="8">
-        <v>7</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E114" s="8">
-        <v>7</v>
-      </c>
+      <c r="A114" s="35"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E115" s="8">
-        <v>7</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B116" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E116" s="8">
-        <v>9</v>
-      </c>
+      <c r="A116" s="5"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E117" s="8">
-        <v>9</v>
-      </c>
+      <c r="A117" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E118" s="8">
-        <v>8</v>
-      </c>
+      <c r="A118" s="5"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E119" s="8">
-        <v>8</v>
-      </c>
+      <c r="A119" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E120" s="8">
-        <v>7</v>
-      </c>
+      <c r="A120" s="5"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E121" s="8">
-        <v>7</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B122" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E122" s="8">
-        <v>6</v>
-      </c>
+      <c r="A122" s="5"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
@@ -3387,8 +3040,12 @@
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="35"/>
-      <c r="B124" s="35"/>
+      <c r="A124" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C124" s="7"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -3401,8 +3058,12 @@
       <c r="E125" s="8"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126" s="35"/>
+      <c r="A126" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C126" s="7"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -3415,8 +3076,12 @@
       <c r="E127" s="8"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="35"/>
+      <c r="A128" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C128" s="7"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -3429,8 +3094,12 @@
       <c r="E129" s="8"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="35"/>
+      <c r="A130" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C130" s="7"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -3443,8 +3112,12 @@
       <c r="E131" s="8"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="35"/>
+      <c r="A132" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C132" s="7"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -3457,8 +3130,12 @@
       <c r="E133" s="8"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
-      <c r="B134" s="35"/>
+      <c r="A134" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C134" s="7"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -3471,8 +3148,12 @@
       <c r="E135" s="8"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="35"/>
+      <c r="A136" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C136" s="7"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -3485,28 +3166,36 @@
       <c r="E137" s="8"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="35"/>
+      <c r="A138" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C138" s="7"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
+      <c r="A139" s="5"/>
       <c r="B139" s="35"/>
       <c r="C139" s="7"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="35"/>
+      <c r="A140" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C140" s="7"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
+      <c r="A141" s="35"/>
       <c r="B141" s="35"/>
       <c r="C141" s="7"/>
       <c r="D141" s="8"/>
@@ -3520,545 +3209,1244 @@
       <c r="E142" s="8"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="B143" s="35"/>
+      <c r="A143" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C143" s="7"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="35"/>
+      <c r="A144" s="5"/>
       <c r="B144" s="35"/>
       <c r="C144" s="7"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="35"/>
       <c r="C145" s="7"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="B146" s="35"/>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C146" s="7"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="35"/>
       <c r="C147" s="7"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="35"/>
       <c r="C148" s="7"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="35"/>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
       <c r="B149" s="35"/>
       <c r="C149" s="7"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="35"/>
       <c r="C150" s="7"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="35"/>
       <c r="B151" s="35"/>
       <c r="C151" s="7"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="35"/>
       <c r="C152" s="7"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="35"/>
       <c r="C153" s="7"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="35"/>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
       <c r="B154" s="35"/>
       <c r="C154" s="7"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="35"/>
       <c r="C155" s="7"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="35"/>
       <c r="B156" s="35"/>
       <c r="C156" s="7"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="35"/>
       <c r="C157" s="7"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="35"/>
       <c r="C158" s="7"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="35"/>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
       <c r="B159" s="35"/>
       <c r="C159" s="7"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="35"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="5"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="5"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
-      <c r="B163" s="35"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="35"/>
-      <c r="B164" s="35"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
-      <c r="B165" s="35"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="5"/>
-      <c r="B166" s="35"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="5"/>
-      <c r="B167" s="35"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="5"/>
-      <c r="B168" s="35"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="35"/>
-      <c r="B169" s="35"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="5"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+      <c r="S160" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T160" s="3">
+        <f>SUM(T26:T29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B161" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E161" s="8">
+        <v>8</v>
+      </c>
+      <c r="G161" s="9"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+    </row>
+    <row r="162" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E162" s="8">
+        <v>8</v>
+      </c>
+      <c r="G162" s="9"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L162" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M162" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N162" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O162" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P162" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q162" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R162" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S162" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E163" s="8">
+        <v>6</v>
+      </c>
+      <c r="G163" s="9"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="11"/>
+      <c r="K163" s="31"/>
+      <c r="L163" s="46"/>
+      <c r="M163" s="46"/>
+      <c r="N163" s="46"/>
+      <c r="O163" s="46"/>
+      <c r="P163" s="46"/>
+      <c r="Q163" s="46"/>
+      <c r="R163" s="46"/>
+      <c r="S163" s="47"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E164" s="8">
+        <v>7</v>
+      </c>
+      <c r="G164" s="9"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="11"/>
+      <c r="K164" s="31"/>
+      <c r="L164" s="46"/>
+      <c r="M164" s="46"/>
+      <c r="N164" s="46"/>
+      <c r="O164" s="46"/>
+      <c r="P164" s="46"/>
+      <c r="Q164" s="46"/>
+      <c r="R164" s="46"/>
+      <c r="S164" s="47"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E165" s="8">
+        <v>8</v>
+      </c>
+      <c r="G165" s="9"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="21"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="22"/>
+      <c r="N165" s="22"/>
+      <c r="O165" s="22"/>
+      <c r="P165" s="22"/>
+      <c r="Q165" s="24"/>
+      <c r="R165" s="24"/>
+      <c r="S165" s="25"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E166" s="8">
+        <v>7</v>
+      </c>
+      <c r="J166" s="11"/>
+      <c r="K166" s="21"/>
+      <c r="L166" s="22"/>
+      <c r="M166" s="22"/>
+      <c r="N166" s="22"/>
+      <c r="O166" s="22"/>
+      <c r="P166" s="22"/>
+      <c r="Q166" s="22"/>
+      <c r="R166" s="22"/>
+      <c r="S166" s="25"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E167" s="8">
+        <v>7</v>
+      </c>
+      <c r="J167" s="11"/>
+      <c r="K167" s="21"/>
+      <c r="L167" s="22"/>
+      <c r="M167" s="22"/>
+      <c r="N167" s="22"/>
+      <c r="O167" s="22"/>
+      <c r="P167" s="22"/>
+      <c r="Q167" s="22"/>
+      <c r="R167" s="22"/>
+      <c r="S167" s="36"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B168" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E168" s="8">
+        <v>7</v>
+      </c>
+      <c r="J168" s="11"/>
+      <c r="K168" s="21"/>
+      <c r="L168" s="22"/>
+      <c r="M168" s="22"/>
+      <c r="N168" s="22"/>
+      <c r="O168" s="22"/>
+      <c r="P168" s="22"/>
+      <c r="Q168" s="22"/>
+      <c r="R168" s="22"/>
+      <c r="S168" s="25"/>
+    </row>
+    <row r="169" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B169" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E169" s="8">
+        <v>4</v>
+      </c>
+      <c r="J169" s="11"/>
+      <c r="K169" s="21"/>
+      <c r="L169" s="24"/>
+      <c r="M169" s="24"/>
+      <c r="N169" s="22"/>
+      <c r="O169" s="22"/>
+      <c r="P169" s="22"/>
+      <c r="Q169" s="22"/>
+      <c r="R169" s="22"/>
+      <c r="S169" s="25"/>
+      <c r="T169" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" s="35"/>
       <c r="B170" s="35"/>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="5"/>
-      <c r="B171" s="35"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="5"/>
-      <c r="B172" s="35"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="5"/>
-      <c r="B173" s="35"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="57"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="5"/>
-      <c r="B175" s="35"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="5"/>
-      <c r="B176" s="35"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="5"/>
-      <c r="B177" s="35"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="5"/>
-      <c r="B178" s="35"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="35"/>
-      <c r="B179" s="35"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
-      <c r="B180" s="35"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
-      <c r="B181" s="35"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J170" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K170" s="42"/>
+      <c r="L170" s="52"/>
+      <c r="M170" s="52"/>
+      <c r="N170" s="52"/>
+      <c r="O170" s="17"/>
+      <c r="P170" s="17"/>
+      <c r="Q170" s="52"/>
+      <c r="R170" s="17"/>
+      <c r="S170" s="53"/>
+      <c r="T170" s="3">
+        <f>K170+L170+M170+N170+O170+P170+Q170+R170+S170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B171" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E171" s="8">
+        <v>8</v>
+      </c>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K171" s="37"/>
+      <c r="L171" s="38"/>
+      <c r="M171" s="38"/>
+      <c r="N171" s="38"/>
+      <c r="O171" s="39"/>
+      <c r="P171" s="38"/>
+      <c r="Q171" s="38"/>
+      <c r="R171" s="38"/>
+      <c r="S171" s="55"/>
+      <c r="T171" s="37">
+        <f>K171+L171+M171+N171+O171+P171+Q171+R171+S171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B172" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E172" s="8">
+        <v>7</v>
+      </c>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="11"/>
+      <c r="S172" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T172" s="3">
+        <f>SUM(T170:T171)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B173" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E173" s="8">
+        <v>6</v>
+      </c>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="11"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B174" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E174" s="8">
+        <v>6</v>
+      </c>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="56"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="11"/>
+      <c r="P174" s="7"/>
+      <c r="Q174" s="7"/>
+      <c r="R174" s="7"/>
+      <c r="S174" s="11"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A175" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B175" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E175" s="8">
+        <v>6</v>
+      </c>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="7"/>
+      <c r="P175" s="7"/>
+      <c r="Q175" s="7"/>
+      <c r="R175" s="7"/>
+      <c r="S175" s="7"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B176" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E176" s="8">
+        <v>7</v>
+      </c>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="56"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="7"/>
+      <c r="Q176" s="7"/>
+      <c r="R176" s="7"/>
+      <c r="S176" s="7"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B177" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E177" s="8">
+        <v>6</v>
+      </c>
+      <c r="J177" s="11"/>
+      <c r="K177" s="7"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B178" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E178" s="8">
+        <v>6</v>
+      </c>
+      <c r="J178" s="11"/>
+      <c r="K178" s="7"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B179" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E179" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B180" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E180" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B181" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E181" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="35"/>
       <c r="C182" s="7"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="5"/>
-      <c r="B183" s="35"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="35"/>
-      <c r="B184" s="35"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="57"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="5"/>
-      <c r="B185" s="35"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="57"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B183" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E183" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B184" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E184" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B185" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E185" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="35"/>
       <c r="C186" s="7"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
-      <c r="F186" s="57"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
-      <c r="B187" s="35"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="57"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
-      <c r="B188" s="35"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="57"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="35"/>
-      <c r="B189" s="35"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="57"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="5"/>
-      <c r="B190" s="35"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="57"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="5"/>
-      <c r="B191" s="35"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="57"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
-      <c r="B192" s="35"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="57"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
-      <c r="B193" s="35"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="57"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="5"/>
-      <c r="B194" s="35"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="57"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B187" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E187" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B188" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E188" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B189" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E189" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B190" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E190" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B191" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E191" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B192" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E192" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B193" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E193" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B194" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E194" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="35"/>
       <c r="C195" s="7"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
-      <c r="F195" s="57"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
-      <c r="B196" s="35"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="57"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="35"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B196" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E196" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="5"/>
       <c r="B197" s="35"/>
       <c r="C197" s="7"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
-      <c r="F197" s="57"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="5"/>
-      <c r="B198" s="35"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="57"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="5"/>
-      <c r="B199" s="35"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="57"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="5"/>
-      <c r="B200" s="35"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="57"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="5"/>
-      <c r="B201" s="35"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="57"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="5"/>
-      <c r="B202" s="35"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="57"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B198" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E198" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B199" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E199" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B200" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E200" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B201" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E201" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B202" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E202" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
       <c r="B203" s="35"/>
       <c r="C203" s="7"/>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
-      <c r="F203" s="57"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="5"/>
-      <c r="B204" s="35"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="57"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="5"/>
-      <c r="B205" s="35"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="57"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="35"/>
-      <c r="B206" s="35"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="57"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="5"/>
-      <c r="B207" s="35"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="5"/>
-      <c r="B208" s="35"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B204" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E204" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B205" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E205" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B206" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E206" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B207" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E207" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B208" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E208" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="5"/>
-      <c r="B209" s="35"/>
-      <c r="C209" s="7"/>
-      <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
+      <c r="A209" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B209" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E209" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="5"/>
-      <c r="B210" s="35"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
+      <c r="A210" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B210" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E210" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="5"/>
-      <c r="B211" s="35"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
+      <c r="A211" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B211" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E211" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="5"/>
-      <c r="B212" s="35"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="8"/>
-      <c r="E212" s="8"/>
+      <c r="A212" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B212" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E212" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="5"/>
-      <c r="B213" s="35"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
+      <c r="A213" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B213" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E213" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
-      <c r="B214" s="35"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
+      <c r="A214" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B214" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E214" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="35"/>
-      <c r="B215" s="35"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
+      <c r="A215" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B215" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E215" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
-      <c r="B216" s="35"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
+      <c r="A216" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B216" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E216" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
@@ -4068,7 +4456,7 @@
       <c r="E217" s="8"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
+      <c r="A218" s="35"/>
       <c r="B218" s="35"/>
       <c r="C218" s="7"/>
       <c r="D218" s="8"/>
@@ -4103,14 +4491,14 @@
       <c r="E222" s="8"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="5"/>
+      <c r="A223" s="35"/>
       <c r="B223" s="35"/>
       <c r="C223" s="7"/>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="35"/>
+      <c r="A224" s="5"/>
       <c r="B224" s="35"/>
       <c r="C224" s="7"/>
       <c r="D224" s="8"/>
@@ -4138,7 +4526,7 @@
       <c r="E227" s="8"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="5"/>
+      <c r="A228" s="35"/>
       <c r="B228" s="35"/>
       <c r="C228" s="7"/>
       <c r="D228" s="8"/>
@@ -4208,7 +4596,7 @@
       <c r="E237" s="8"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="5"/>
+      <c r="A238" s="35"/>
       <c r="B238" s="35"/>
       <c r="C238" s="7"/>
       <c r="D238" s="8"/>
@@ -4236,14 +4624,14 @@
       <c r="E241" s="8"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="35"/>
+      <c r="A242" s="5"/>
       <c r="B242" s="35"/>
       <c r="C242" s="7"/>
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="5"/>
+      <c r="A243" s="35"/>
       <c r="B243" s="35"/>
       <c r="C243" s="7"/>
       <c r="D243" s="8"/>
@@ -4278,7 +4666,7 @@
       <c r="E247" s="8"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="5"/>
+      <c r="A248" s="35"/>
       <c r="B248" s="35"/>
       <c r="C248" s="7"/>
       <c r="D248" s="8"/>
@@ -4299,7 +4687,7 @@
       <c r="E250" s="8"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="35"/>
+      <c r="A251" s="5"/>
       <c r="B251" s="35"/>
       <c r="C251" s="7"/>
       <c r="D251" s="8"/>
@@ -4313,7 +4701,7 @@
       <c r="E252" s="8"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="5"/>
+      <c r="A253" s="35"/>
       <c r="B253" s="35"/>
       <c r="C253" s="7"/>
       <c r="D253" s="8"/>
@@ -4334,7 +4722,7 @@
       <c r="E255" s="8"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="35"/>
+      <c r="A256" s="5"/>
       <c r="B256" s="35"/>
       <c r="C256" s="7"/>
       <c r="D256" s="8"/>
@@ -4348,7 +4736,7 @@
       <c r="E257" s="8"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="5"/>
+      <c r="A258" s="35"/>
       <c r="B258" s="35"/>
       <c r="C258" s="7"/>
       <c r="D258" s="8"/>
@@ -4369,7 +4757,7 @@
       <c r="E260" s="8"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="35"/>
+      <c r="A261" s="5"/>
       <c r="B261" s="35"/>
       <c r="C261" s="7"/>
       <c r="D261" s="8"/>
@@ -4383,7 +4771,7 @@
       <c r="E262" s="8"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="5"/>
+      <c r="A263" s="35"/>
       <c r="B263" s="35"/>
       <c r="C263" s="7"/>
       <c r="D263" s="8"/>
@@ -4404,7 +4792,7 @@
       <c r="E265" s="8"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="35"/>
+      <c r="A266" s="5"/>
       <c r="B266" s="35"/>
       <c r="C266" s="7"/>
       <c r="D266" s="8"/>
@@ -4418,9 +4806,9 @@
       <c r="E267" s="8"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="5"/>
-      <c r="B268" s="35"/>
-      <c r="C268" s="7"/>
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="57"/>
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
     </row>
@@ -4439,7 +4827,7 @@
       <c r="E270" s="8"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="35"/>
+      <c r="A271" s="5"/>
       <c r="B271" s="35"/>
       <c r="C271" s="7"/>
       <c r="D271" s="8"/>
@@ -4452,224 +4840,247 @@
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="5"/>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="35"/>
       <c r="B273" s="35"/>
       <c r="C273" s="7"/>
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
       <c r="B274" s="35"/>
       <c r="C274" s="7"/>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
       <c r="B275" s="35"/>
       <c r="C275" s="7"/>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="35"/>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="5"/>
       <c r="B276" s="35"/>
       <c r="C276" s="7"/>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
       <c r="B277" s="35"/>
       <c r="C277" s="7"/>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="5"/>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="35"/>
       <c r="B278" s="35"/>
       <c r="C278" s="7"/>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="57"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
       <c r="B279" s="35"/>
       <c r="C279" s="7"/>
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279" s="57"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
       <c r="B280" s="35"/>
       <c r="C280" s="7"/>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="35"/>
+      <c r="F280" s="57"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="5"/>
       <c r="B281" s="35"/>
       <c r="C281" s="7"/>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281" s="57"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
       <c r="B282" s="35"/>
       <c r="C282" s="7"/>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="5"/>
+      <c r="F282" s="57"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="35"/>
       <c r="B283" s="35"/>
       <c r="C283" s="7"/>
       <c r="D283" s="8"/>
       <c r="E283" s="8"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283" s="57"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
       <c r="B284" s="35"/>
       <c r="C284" s="7"/>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284" s="57"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
       <c r="B285" s="35"/>
       <c r="C285" s="7"/>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="35"/>
+      <c r="F285" s="57"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="5"/>
       <c r="B286" s="35"/>
       <c r="C286" s="7"/>
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286" s="57"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
       <c r="B287" s="35"/>
       <c r="C287" s="7"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287" s="57"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="35"/>
       <c r="C288" s="7"/>
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288" s="57"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
       <c r="B289" s="35"/>
       <c r="C289" s="7"/>
       <c r="D289" s="8"/>
       <c r="E289" s="8"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289" s="57"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
       <c r="B290" s="35"/>
       <c r="C290" s="7"/>
       <c r="D290" s="8"/>
       <c r="E290" s="8"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="57"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="35"/>
       <c r="B291" s="35"/>
       <c r="C291" s="7"/>
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="57"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
       <c r="B292" s="35"/>
       <c r="C292" s="7"/>
       <c r="D292" s="8"/>
       <c r="E292" s="8"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="57"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
       <c r="B293" s="35"/>
       <c r="C293" s="7"/>
       <c r="D293" s="8"/>
       <c r="E293" s="8"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="57"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="35"/>
       <c r="C294" s="7"/>
       <c r="D294" s="8"/>
       <c r="E294" s="8"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="57"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
       <c r="B295" s="35"/>
       <c r="C295" s="7"/>
       <c r="D295" s="8"/>
       <c r="E295" s="8"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="57"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="35"/>
       <c r="C296" s="7"/>
       <c r="D296" s="8"/>
       <c r="E296" s="8"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="35"/>
+      <c r="F296" s="57"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="5"/>
       <c r="B297" s="35"/>
       <c r="C297" s="7"/>
       <c r="D297" s="8"/>
       <c r="E297" s="8"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="57"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
       <c r="B298" s="35"/>
       <c r="C298" s="7"/>
       <c r="D298" s="8"/>
       <c r="E298" s="8"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298" s="57"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
       <c r="B299" s="35"/>
       <c r="C299" s="7"/>
       <c r="D299" s="8"/>
       <c r="E299" s="8"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="5"/>
+      <c r="F299" s="57"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="35"/>
       <c r="B300" s="35"/>
       <c r="C300" s="7"/>
       <c r="D300" s="8"/>
       <c r="E300" s="8"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="57"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="5"/>
       <c r="B301" s="35"/>
       <c r="C301" s="7"/>
       <c r="D301" s="8"/>
       <c r="E301" s="8"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="35"/>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="5"/>
       <c r="B302" s="35"/>
       <c r="C302" s="7"/>
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
       <c r="B303" s="35"/>
       <c r="C303" s="7"/>
       <c r="D303" s="8"/>
       <c r="E303" s="8"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
       <c r="B304" s="35"/>
       <c r="C304" s="7"/>
@@ -4691,7 +5102,7 @@
       <c r="E306" s="8"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="35"/>
+      <c r="A307" s="5"/>
       <c r="B307" s="35"/>
       <c r="C307" s="7"/>
       <c r="D307" s="8"/>
@@ -4705,7 +5116,7 @@
       <c r="E308" s="8"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="5"/>
+      <c r="A309" s="35"/>
       <c r="B309" s="35"/>
       <c r="C309" s="7"/>
       <c r="D309" s="8"/>
@@ -4726,7 +5137,7 @@
       <c r="E311" s="8"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="35"/>
+      <c r="A312" s="5"/>
       <c r="B312" s="35"/>
       <c r="C312" s="7"/>
       <c r="D312" s="8"/>
@@ -4761,14 +5172,14 @@
       <c r="E316" s="8"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="35"/>
+      <c r="A317" s="5"/>
       <c r="B317" s="35"/>
       <c r="C317" s="7"/>
       <c r="D317" s="8"/>
       <c r="E317" s="8"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="5"/>
+      <c r="A318" s="35"/>
       <c r="B318" s="35"/>
       <c r="C318" s="7"/>
       <c r="D318" s="8"/>
@@ -4796,7 +5207,7 @@
       <c r="E321" s="8"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="35"/>
+      <c r="A322" s="5"/>
       <c r="B322" s="35"/>
       <c r="C322" s="7"/>
       <c r="D322" s="8"/>
@@ -4831,9 +5242,9 @@
       <c r="E326" s="8"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="8"/>
-      <c r="B327" s="8"/>
-      <c r="C327" s="8"/>
+      <c r="A327" s="35"/>
+      <c r="B327" s="35"/>
+      <c r="C327" s="7"/>
       <c r="D327" s="8"/>
       <c r="E327" s="8"/>
     </row>
@@ -4992,7 +5403,7 @@
       <c r="E349" s="8"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="5"/>
+      <c r="A350" s="35"/>
       <c r="B350" s="35"/>
       <c r="C350" s="7"/>
       <c r="D350" s="8"/>
@@ -5020,14 +5431,14 @@
       <c r="E353" s="8"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="35"/>
+      <c r="A354" s="5"/>
       <c r="B354" s="35"/>
       <c r="C354" s="7"/>
       <c r="D354" s="8"/>
       <c r="E354" s="8"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="5"/>
+      <c r="A355" s="35"/>
       <c r="B355" s="35"/>
       <c r="C355" s="7"/>
       <c r="D355" s="8"/>
@@ -5062,7 +5473,7 @@
       <c r="E359" s="8"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="5"/>
+      <c r="A360" s="35"/>
       <c r="B360" s="35"/>
       <c r="C360" s="7"/>
       <c r="D360" s="8"/>
@@ -5083,7 +5494,7 @@
       <c r="E362" s="8"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="35"/>
+      <c r="A363" s="5"/>
       <c r="B363" s="35"/>
       <c r="C363" s="7"/>
       <c r="D363" s="8"/>
@@ -5097,7 +5508,7 @@
       <c r="E364" s="8"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="5"/>
+      <c r="A365" s="35"/>
       <c r="B365" s="35"/>
       <c r="C365" s="7"/>
       <c r="D365" s="8"/>
@@ -5132,7 +5543,7 @@
       <c r="E369" s="8"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="5"/>
+      <c r="A370" s="35"/>
       <c r="B370" s="35"/>
       <c r="C370" s="7"/>
       <c r="D370" s="8"/>
@@ -5146,7 +5557,7 @@
       <c r="E371" s="8"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="35"/>
+      <c r="A372" s="5"/>
       <c r="B372" s="35"/>
       <c r="C372" s="7"/>
       <c r="D372" s="8"/>
@@ -5167,7 +5578,7 @@
       <c r="E374" s="8"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="5"/>
+      <c r="A375" s="35"/>
       <c r="B375" s="35"/>
       <c r="C375" s="7"/>
       <c r="D375" s="8"/>
@@ -5181,7 +5592,7 @@
       <c r="E376" s="8"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="35"/>
+      <c r="A377" s="5"/>
       <c r="B377" s="35"/>
       <c r="C377" s="7"/>
       <c r="D377" s="8"/>
@@ -5202,7 +5613,7 @@
       <c r="E379" s="8"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="5"/>
+      <c r="A380" s="35"/>
       <c r="B380" s="35"/>
       <c r="C380" s="7"/>
       <c r="D380" s="8"/>
@@ -5216,7 +5627,7 @@
       <c r="E381" s="8"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="35"/>
+      <c r="A382" s="5"/>
       <c r="B382" s="35"/>
       <c r="C382" s="7"/>
       <c r="D382" s="8"/>
@@ -5237,7 +5648,7 @@
       <c r="E384" s="8"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="5"/>
+      <c r="A385" s="35"/>
       <c r="B385" s="35"/>
       <c r="C385" s="7"/>
       <c r="D385" s="8"/>
@@ -5251,7 +5662,7 @@
       <c r="E386" s="8"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="35"/>
+      <c r="A387" s="5"/>
       <c r="B387" s="35"/>
       <c r="C387" s="7"/>
       <c r="D387" s="8"/>
@@ -5279,14 +5690,14 @@
       <c r="E390" s="8"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="5"/>
+      <c r="A391" s="35"/>
       <c r="B391" s="35"/>
       <c r="C391" s="7"/>
       <c r="D391" s="8"/>
       <c r="E391" s="8"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="35"/>
+      <c r="A392" s="5"/>
       <c r="B392" s="35"/>
       <c r="C392" s="7"/>
       <c r="D392" s="8"/>
@@ -5314,14 +5725,14 @@
       <c r="E395" s="8"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="5"/>
+      <c r="A396" s="35"/>
       <c r="B396" s="35"/>
       <c r="C396" s="7"/>
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="35"/>
+      <c r="A397" s="5"/>
       <c r="B397" s="35"/>
       <c r="C397" s="7"/>
       <c r="D397" s="8"/>
@@ -5349,14 +5760,14 @@
       <c r="E400" s="8"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="5"/>
+      <c r="A401" s="35"/>
       <c r="B401" s="35"/>
       <c r="C401" s="7"/>
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="35"/>
+      <c r="A402" s="5"/>
       <c r="B402" s="35"/>
       <c r="C402" s="7"/>
       <c r="D402" s="8"/>
@@ -5384,14 +5795,14 @@
       <c r="E405" s="8"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="5"/>
+      <c r="A406" s="35"/>
       <c r="B406" s="35"/>
       <c r="C406" s="7"/>
       <c r="D406" s="8"/>
       <c r="E406" s="8"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="35"/>
+      <c r="A407" s="5"/>
       <c r="B407" s="35"/>
       <c r="C407" s="7"/>
       <c r="D407" s="8"/>
@@ -5419,14 +5830,14 @@
       <c r="E410" s="8"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="5"/>
+      <c r="A411" s="35"/>
       <c r="B411" s="35"/>
       <c r="C411" s="7"/>
       <c r="D411" s="8"/>
       <c r="E411" s="8"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="35"/>
+      <c r="A412" s="5"/>
       <c r="B412" s="35"/>
       <c r="C412" s="7"/>
       <c r="D412" s="8"/>
@@ -5454,14 +5865,14 @@
       <c r="E415" s="8"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="5"/>
+      <c r="A416" s="35"/>
       <c r="B416" s="35"/>
       <c r="C416" s="7"/>
       <c r="D416" s="8"/>
       <c r="E416" s="8"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="35"/>
+      <c r="A417" s="5"/>
       <c r="B417" s="35"/>
       <c r="C417" s="7"/>
       <c r="D417" s="8"/>
@@ -5489,9 +5900,9 @@
       <c r="E420" s="8"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="5"/>
-      <c r="B421" s="35"/>
-      <c r="C421" s="7"/>
+      <c r="A421" s="8"/>
+      <c r="B421" s="8"/>
+      <c r="C421" s="8"/>
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
     </row>
@@ -5503,7 +5914,7 @@
       <c r="E422" s="8"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="35"/>
+      <c r="A423" s="5"/>
       <c r="B423" s="35"/>
       <c r="C423" s="7"/>
       <c r="D423" s="8"/>
@@ -5538,7 +5949,7 @@
       <c r="E427" s="8"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="35"/>
+      <c r="A428" s="5"/>
       <c r="B428" s="35"/>
       <c r="C428" s="7"/>
       <c r="D428" s="8"/>
@@ -5552,7 +5963,7 @@
       <c r="E429" s="8"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="5"/>
+      <c r="A430" s="35"/>
       <c r="B430" s="35"/>
       <c r="C430" s="7"/>
       <c r="D430" s="8"/>
@@ -5580,7 +5991,7 @@
       <c r="E433" s="8"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="35"/>
+      <c r="A434" s="5"/>
       <c r="B434" s="35"/>
       <c r="C434" s="7"/>
       <c r="D434" s="8"/>
@@ -5615,16 +6026,16 @@
       <c r="E438" s="8"/>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="5"/>
+      <c r="A439" s="35"/>
       <c r="B439" s="35"/>
       <c r="C439" s="7"/>
       <c r="D439" s="8"/>
       <c r="E439" s="8"/>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="8"/>
-      <c r="B440" s="8"/>
-      <c r="C440" s="8"/>
+      <c r="A440" s="5"/>
+      <c r="B440" s="35"/>
+      <c r="C440" s="7"/>
       <c r="D440" s="8"/>
       <c r="E440" s="8"/>
     </row>
@@ -5657,7 +6068,7 @@
       <c r="E444" s="8"/>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="35"/>
+      <c r="A445" s="5"/>
       <c r="B445" s="35"/>
       <c r="C445" s="7"/>
       <c r="D445" s="8"/>
@@ -5678,7 +6089,7 @@
       <c r="E447" s="8"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="5"/>
+      <c r="A448" s="35"/>
       <c r="B448" s="35"/>
       <c r="C448" s="7"/>
       <c r="D448" s="8"/>
@@ -5692,7 +6103,7 @@
       <c r="E449" s="8"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="35"/>
+      <c r="A450" s="5"/>
       <c r="B450" s="35"/>
       <c r="C450" s="7"/>
       <c r="D450" s="8"/>
@@ -5727,7 +6138,7 @@
       <c r="E454" s="8"/>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="35"/>
+      <c r="A455" s="5"/>
       <c r="B455" s="35"/>
       <c r="C455" s="7"/>
       <c r="D455" s="8"/>
@@ -5741,7 +6152,7 @@
       <c r="E456" s="8"/>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="5"/>
+      <c r="A457" s="35"/>
       <c r="B457" s="35"/>
       <c r="C457" s="7"/>
       <c r="D457" s="8"/>
@@ -5762,7 +6173,7 @@
       <c r="E459" s="8"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="35"/>
+      <c r="A460" s="5"/>
       <c r="B460" s="35"/>
       <c r="C460" s="7"/>
       <c r="D460" s="8"/>
@@ -5797,14 +6208,14 @@
       <c r="E464" s="8"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="35"/>
+      <c r="A465" s="5"/>
       <c r="B465" s="35"/>
       <c r="C465" s="7"/>
       <c r="D465" s="8"/>
       <c r="E465" s="8"/>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="5"/>
+      <c r="A466" s="35"/>
       <c r="B466" s="35"/>
       <c r="C466" s="7"/>
       <c r="D466" s="8"/>
@@ -5818,7 +6229,7 @@
       <c r="E467" s="8"/>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="35"/>
+      <c r="A468" s="5"/>
       <c r="B468" s="35"/>
       <c r="C468" s="7"/>
       <c r="D468" s="8"/>
@@ -5860,7 +6271,7 @@
       <c r="E473" s="8"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="35"/>
+      <c r="A474" s="5"/>
       <c r="B474" s="35"/>
       <c r="C474" s="7"/>
       <c r="D474" s="8"/>
@@ -5874,14 +6285,14 @@
       <c r="E475" s="8"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="5"/>
+      <c r="A476" s="35"/>
       <c r="B476" s="35"/>
       <c r="C476" s="7"/>
       <c r="D476" s="8"/>
       <c r="E476" s="8"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="35"/>
+      <c r="A477" s="5"/>
       <c r="B477" s="35"/>
       <c r="C477" s="7"/>
       <c r="D477" s="8"/>
@@ -5902,14 +6313,14 @@
       <c r="E479" s="8"/>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="35"/>
+      <c r="A480" s="5"/>
       <c r="B480" s="35"/>
       <c r="C480" s="7"/>
       <c r="D480" s="8"/>
       <c r="E480" s="8"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="5"/>
+      <c r="A481" s="35"/>
       <c r="B481" s="35"/>
       <c r="C481" s="7"/>
       <c r="D481" s="8"/>
@@ -5923,7 +6334,7 @@
       <c r="E482" s="8"/>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="35"/>
+      <c r="A483" s="5"/>
       <c r="B483" s="35"/>
       <c r="C483" s="7"/>
       <c r="D483" s="8"/>
@@ -5965,7 +6376,7 @@
       <c r="E488" s="8"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="35"/>
+      <c r="A489" s="5"/>
       <c r="B489" s="35"/>
       <c r="C489" s="7"/>
       <c r="D489" s="8"/>
@@ -5979,14 +6390,14 @@
       <c r="E490" s="8"/>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="5"/>
+      <c r="A491" s="35"/>
       <c r="B491" s="35"/>
       <c r="C491" s="7"/>
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="35"/>
+      <c r="A492" s="5"/>
       <c r="B492" s="35"/>
       <c r="C492" s="7"/>
       <c r="D492" s="8"/>
@@ -6007,14 +6418,14 @@
       <c r="E494" s="8"/>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="35"/>
+      <c r="A495" s="5"/>
       <c r="B495" s="35"/>
       <c r="C495" s="7"/>
       <c r="D495" s="8"/>
       <c r="E495" s="8"/>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="5"/>
+      <c r="A496" s="35"/>
       <c r="B496" s="35"/>
       <c r="C496" s="7"/>
       <c r="D496" s="8"/>
@@ -6028,7 +6439,7 @@
       <c r="E497" s="8"/>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="35"/>
+      <c r="A498" s="5"/>
       <c r="B498" s="35"/>
       <c r="C498" s="7"/>
       <c r="D498" s="8"/>
@@ -6070,7 +6481,7 @@
       <c r="E503" s="8"/>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="35"/>
+      <c r="A504" s="5"/>
       <c r="B504" s="35"/>
       <c r="C504" s="7"/>
       <c r="D504" s="8"/>
@@ -6084,14 +6495,14 @@
       <c r="E505" s="8"/>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="5"/>
+      <c r="A506" s="35"/>
       <c r="B506" s="35"/>
       <c r="C506" s="7"/>
       <c r="D506" s="8"/>
       <c r="E506" s="8"/>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="35"/>
+      <c r="A507" s="5"/>
       <c r="B507" s="35"/>
       <c r="C507" s="7"/>
       <c r="D507" s="8"/>
@@ -6105,7 +6516,7 @@
       <c r="E508" s="8"/>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" s="35"/>
+      <c r="A509" s="5"/>
       <c r="B509" s="35"/>
       <c r="C509" s="7"/>
       <c r="D509" s="8"/>
@@ -6133,7 +6544,7 @@
       <c r="E512" s="8"/>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="35"/>
+      <c r="A513" s="5"/>
       <c r="B513" s="35"/>
       <c r="C513" s="7"/>
       <c r="D513" s="8"/>
@@ -6154,14 +6565,14 @@
       <c r="E515" s="8"/>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" s="35"/>
+      <c r="A516" s="5"/>
       <c r="B516" s="35"/>
       <c r="C516" s="7"/>
       <c r="D516" s="8"/>
       <c r="E516" s="8"/>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="5"/>
+      <c r="A517" s="35"/>
       <c r="B517" s="35"/>
       <c r="C517" s="7"/>
       <c r="D517" s="8"/>
@@ -6196,7 +6607,7 @@
       <c r="E521" s="8"/>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="5"/>
+      <c r="A522" s="35"/>
       <c r="B522" s="35"/>
       <c r="C522" s="7"/>
       <c r="D522" s="8"/>
@@ -6224,7 +6635,7 @@
       <c r="E525" s="8"/>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="35"/>
+      <c r="A526" s="5"/>
       <c r="B526" s="35"/>
       <c r="C526" s="7"/>
       <c r="D526" s="8"/>
@@ -6238,251 +6649,230 @@
       <c r="E527" s="8"/>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" s="5"/>
+      <c r="A528" s="35"/>
       <c r="B528" s="35"/>
       <c r="C528" s="7"/>
       <c r="D528" s="8"/>
       <c r="E528" s="8"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="5"/>
       <c r="B529" s="35"/>
       <c r="C529" s="7"/>
       <c r="D529" s="8"/>
       <c r="E529" s="8"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="5"/>
       <c r="B530" s="35"/>
       <c r="C530" s="7"/>
       <c r="D530" s="8"/>
       <c r="E530" s="8"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="5"/>
       <c r="B531" s="35"/>
       <c r="C531" s="7"/>
       <c r="D531" s="8"/>
       <c r="E531" s="8"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="5"/>
       <c r="B532" s="35"/>
       <c r="C532" s="7"/>
       <c r="D532" s="8"/>
       <c r="E532" s="8"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A533" s="8"/>
-      <c r="B533" s="8"/>
-      <c r="C533" s="57"/>
-      <c r="D533" s="7"/>
-      <c r="E533" s="7"/>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A534" s="5"/>
-      <c r="B534" s="35"/>
-      <c r="C534" s="7"/>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="5"/>
+      <c r="B533" s="35"/>
+      <c r="C533" s="7"/>
+      <c r="D533" s="8"/>
+      <c r="E533" s="8"/>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="8"/>
+      <c r="B534" s="8"/>
+      <c r="C534" s="8"/>
       <c r="D534" s="8"/>
       <c r="E534" s="8"/>
-      <c r="F534" s="3"/>
-      <c r="G534" s="3"/>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="5"/>
       <c r="B535" s="35"/>
       <c r="C535" s="7"/>
       <c r="D535" s="8"/>
       <c r="E535" s="8"/>
-      <c r="F535" s="3"/>
-      <c r="G535" s="3"/>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="5"/>
       <c r="B536" s="35"/>
       <c r="C536" s="7"/>
       <c r="D536" s="8"/>
       <c r="E536" s="8"/>
-      <c r="F536" s="3"/>
-      <c r="G536" s="3"/>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="5"/>
       <c r="B537" s="35"/>
       <c r="C537" s="7"/>
       <c r="D537" s="8"/>
       <c r="E537" s="8"/>
-      <c r="F537" s="3"/>
-      <c r="G537" s="3"/>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="5"/>
       <c r="B538" s="35"/>
       <c r="C538" s="7"/>
       <c r="D538" s="8"/>
       <c r="E538" s="8"/>
-      <c r="F538" s="3"/>
-      <c r="G538" s="3"/>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="5"/>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="35"/>
       <c r="B539" s="35"/>
       <c r="C539" s="7"/>
       <c r="D539" s="8"/>
       <c r="E539" s="8"/>
-      <c r="F539" s="3"/>
-      <c r="G539" s="3"/>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="5"/>
       <c r="B540" s="35"/>
       <c r="C540" s="7"/>
       <c r="D540" s="8"/>
       <c r="E540" s="8"/>
-      <c r="F540" s="3"/>
-      <c r="G540" s="3"/>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="5"/>
       <c r="B541" s="35"/>
       <c r="C541" s="7"/>
       <c r="D541" s="8"/>
       <c r="E541" s="8"/>
-      <c r="F541" s="3"/>
-      <c r="G541" s="3"/>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="5"/>
       <c r="B542" s="35"/>
       <c r="C542" s="7"/>
       <c r="D542" s="8"/>
       <c r="E542" s="8"/>
-      <c r="F542" s="3"/>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A543" s="35"/>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" s="5"/>
       <c r="B543" s="35"/>
       <c r="C543" s="7"/>
       <c r="D543" s="8"/>
       <c r="E543" s="8"/>
-      <c r="F543" s="3"/>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A544" s="5"/>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" s="35"/>
       <c r="B544" s="35"/>
       <c r="C544" s="7"/>
       <c r="D544" s="8"/>
       <c r="E544" s="8"/>
-      <c r="F544" s="3"/>
-    </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="5"/>
       <c r="B545" s="35"/>
       <c r="C545" s="7"/>
       <c r="D545" s="8"/>
       <c r="E545" s="8"/>
-      <c r="F545" s="3"/>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="5"/>
       <c r="B546" s="35"/>
       <c r="C546" s="7"/>
       <c r="D546" s="8"/>
       <c r="E546" s="8"/>
-      <c r="F546" s="3"/>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="5"/>
       <c r="B547" s="35"/>
       <c r="C547" s="7"/>
       <c r="D547" s="8"/>
       <c r="E547" s="8"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="5"/>
       <c r="B548" s="35"/>
       <c r="C548" s="7"/>
       <c r="D548" s="8"/>
       <c r="E548" s="8"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A549" s="5"/>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" s="35"/>
       <c r="B549" s="35"/>
       <c r="C549" s="7"/>
       <c r="D549" s="8"/>
       <c r="E549" s="8"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="5"/>
       <c r="B550" s="35"/>
       <c r="C550" s="7"/>
       <c r="D550" s="8"/>
       <c r="E550" s="8"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="5"/>
       <c r="B551" s="35"/>
       <c r="C551" s="7"/>
       <c r="D551" s="8"/>
       <c r="E551" s="8"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="5"/>
       <c r="B552" s="35"/>
       <c r="C552" s="7"/>
       <c r="D552" s="8"/>
       <c r="E552" s="8"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A553" s="35"/>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" s="5"/>
       <c r="B553" s="35"/>
       <c r="C553" s="7"/>
       <c r="D553" s="8"/>
       <c r="E553" s="8"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A554" s="5"/>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" s="35"/>
       <c r="B554" s="35"/>
       <c r="C554" s="7"/>
       <c r="D554" s="8"/>
       <c r="E554" s="8"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="5"/>
       <c r="B555" s="35"/>
       <c r="C555" s="7"/>
       <c r="D555" s="8"/>
       <c r="E555" s="8"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="5"/>
       <c r="B556" s="35"/>
       <c r="C556" s="7"/>
       <c r="D556" s="8"/>
       <c r="E556" s="8"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="5"/>
       <c r="B557" s="35"/>
       <c r="C557" s="7"/>
       <c r="D557" s="8"/>
       <c r="E557" s="8"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="5"/>
       <c r="B558" s="35"/>
       <c r="C558" s="7"/>
       <c r="D558" s="8"/>
       <c r="E558" s="8"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A559" s="5"/>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" s="35"/>
       <c r="B559" s="35"/>
       <c r="C559" s="7"/>
       <c r="D559" s="8"/>
       <c r="E559" s="8"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="5"/>
       <c r="B560" s="35"/>
       <c r="C560" s="7"/>
@@ -6497,7 +6887,7 @@
       <c r="E561" s="8"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A562" s="5"/>
+      <c r="A562" s="35"/>
       <c r="B562" s="35"/>
       <c r="C562" s="7"/>
       <c r="D562" s="8"/>
@@ -6518,7 +6908,7 @@
       <c r="E564" s="8"/>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A565" s="5"/>
+      <c r="A565" s="35"/>
       <c r="B565" s="35"/>
       <c r="C565" s="7"/>
       <c r="D565" s="8"/>
@@ -6560,7 +6950,7 @@
       <c r="E570" s="8"/>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A571" s="5"/>
+      <c r="A571" s="35"/>
       <c r="B571" s="35"/>
       <c r="C571" s="7"/>
       <c r="D571" s="8"/>
@@ -6581,24 +6971,703 @@
       <c r="E573" s="8"/>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" s="5"/>
+      <c r="A574" s="35"/>
       <c r="B574" s="35"/>
       <c r="C574" s="7"/>
       <c r="D574" s="8"/>
       <c r="E574" s="8"/>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A575" s="35"/>
+      <c r="A575" s="5"/>
       <c r="B575" s="35"/>
       <c r="C575" s="7"/>
       <c r="D575" s="8"/>
       <c r="E575" s="8"/>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="5"/>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A576" s="5"/>
+      <c r="B576" s="35"/>
+      <c r="C576" s="7"/>
+      <c r="D576" s="8"/>
+      <c r="E576" s="8"/>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A577" s="35"/>
+      <c r="B577" s="35"/>
+      <c r="C577" s="7"/>
+      <c r="D577" s="8"/>
+      <c r="E577" s="8"/>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" s="5"/>
+      <c r="B578" s="35"/>
+      <c r="C578" s="7"/>
+      <c r="D578" s="8"/>
+      <c r="E578" s="8"/>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579" s="5"/>
+      <c r="B579" s="35"/>
+      <c r="C579" s="7"/>
+      <c r="D579" s="8"/>
+      <c r="E579" s="8"/>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580" s="35"/>
+      <c r="B580" s="35"/>
+      <c r="C580" s="7"/>
+      <c r="D580" s="8"/>
+      <c r="E580" s="8"/>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" s="5"/>
+      <c r="B581" s="35"/>
+      <c r="C581" s="7"/>
+      <c r="D581" s="8"/>
+      <c r="E581" s="8"/>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" s="5"/>
+      <c r="B582" s="35"/>
+      <c r="C582" s="7"/>
+      <c r="D582" s="8"/>
+      <c r="E582" s="8"/>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" s="35"/>
+      <c r="B583" s="35"/>
+      <c r="C583" s="7"/>
+      <c r="D583" s="8"/>
+      <c r="E583" s="8"/>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" s="5"/>
+      <c r="B584" s="35"/>
+      <c r="C584" s="7"/>
+      <c r="D584" s="8"/>
+      <c r="E584" s="8"/>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" s="5"/>
+      <c r="B585" s="35"/>
+      <c r="C585" s="7"/>
+      <c r="D585" s="8"/>
+      <c r="E585" s="8"/>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" s="35"/>
+      <c r="B586" s="35"/>
+      <c r="C586" s="7"/>
+      <c r="D586" s="8"/>
+      <c r="E586" s="8"/>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" s="5"/>
+      <c r="B587" s="35"/>
+      <c r="C587" s="7"/>
+      <c r="D587" s="8"/>
+      <c r="E587" s="8"/>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" s="5"/>
+      <c r="B588" s="35"/>
+      <c r="C588" s="7"/>
+      <c r="D588" s="8"/>
+      <c r="E588" s="8"/>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589" s="35"/>
+      <c r="B589" s="35"/>
+      <c r="C589" s="7"/>
+      <c r="D589" s="8"/>
+      <c r="E589" s="8"/>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" s="5"/>
+      <c r="B590" s="35"/>
+      <c r="C590" s="7"/>
+      <c r="D590" s="8"/>
+      <c r="E590" s="8"/>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591" s="5"/>
+      <c r="B591" s="35"/>
+      <c r="C591" s="7"/>
+      <c r="D591" s="8"/>
+      <c r="E591" s="8"/>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A592" s="35"/>
+      <c r="B592" s="35"/>
+      <c r="C592" s="7"/>
+      <c r="D592" s="8"/>
+      <c r="E592" s="8"/>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" s="5"/>
+      <c r="B593" s="35"/>
+      <c r="C593" s="7"/>
+      <c r="D593" s="8"/>
+      <c r="E593" s="8"/>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" s="5"/>
+      <c r="B594" s="35"/>
+      <c r="C594" s="7"/>
+      <c r="D594" s="8"/>
+      <c r="E594" s="8"/>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" s="35"/>
+      <c r="B595" s="35"/>
+      <c r="C595" s="7"/>
+      <c r="D595" s="8"/>
+      <c r="E595" s="8"/>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" s="5"/>
+      <c r="B596" s="35"/>
+      <c r="C596" s="7"/>
+      <c r="D596" s="8"/>
+      <c r="E596" s="8"/>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" s="5"/>
+      <c r="B597" s="35"/>
+      <c r="C597" s="7"/>
+      <c r="D597" s="8"/>
+      <c r="E597" s="8"/>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" s="35"/>
+      <c r="B598" s="35"/>
+      <c r="C598" s="7"/>
+      <c r="D598" s="8"/>
+      <c r="E598" s="8"/>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" s="5"/>
+      <c r="B599" s="35"/>
+      <c r="C599" s="7"/>
+      <c r="D599" s="8"/>
+      <c r="E599" s="8"/>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600" s="5"/>
+      <c r="B600" s="35"/>
+      <c r="C600" s="7"/>
+      <c r="D600" s="8"/>
+      <c r="E600" s="8"/>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A601" s="35"/>
+      <c r="B601" s="35"/>
+      <c r="C601" s="7"/>
+      <c r="D601" s="8"/>
+      <c r="E601" s="8"/>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602" s="5"/>
+      <c r="B602" s="35"/>
+      <c r="C602" s="7"/>
+      <c r="D602" s="8"/>
+      <c r="E602" s="8"/>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603" s="35"/>
+      <c r="B603" s="35"/>
+      <c r="C603" s="7"/>
+      <c r="D603" s="8"/>
+      <c r="E603" s="8"/>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A604" s="5"/>
+      <c r="B604" s="35"/>
+      <c r="C604" s="7"/>
+      <c r="D604" s="8"/>
+      <c r="E604" s="8"/>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605" s="35"/>
+      <c r="B605" s="35"/>
+      <c r="C605" s="7"/>
+      <c r="D605" s="8"/>
+      <c r="E605" s="8"/>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606" s="5"/>
+      <c r="B606" s="35"/>
+      <c r="C606" s="7"/>
+      <c r="D606" s="8"/>
+      <c r="E606" s="8"/>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607" s="35"/>
+      <c r="B607" s="35"/>
+      <c r="C607" s="7"/>
+      <c r="D607" s="8"/>
+      <c r="E607" s="8"/>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" s="5"/>
+      <c r="B608" s="35"/>
+      <c r="C608" s="7"/>
+      <c r="D608" s="8"/>
+      <c r="E608" s="8"/>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" s="5"/>
+      <c r="B609" s="35"/>
+      <c r="C609" s="7"/>
+      <c r="D609" s="8"/>
+      <c r="E609" s="8"/>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610" s="35"/>
+      <c r="B610" s="35"/>
+      <c r="C610" s="7"/>
+      <c r="D610" s="8"/>
+      <c r="E610" s="8"/>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" s="5"/>
+      <c r="B611" s="35"/>
+      <c r="C611" s="7"/>
+      <c r="D611" s="8"/>
+      <c r="E611" s="8"/>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612" s="5"/>
+      <c r="B612" s="35"/>
+      <c r="C612" s="7"/>
+      <c r="D612" s="8"/>
+      <c r="E612" s="8"/>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" s="5"/>
+      <c r="B613" s="35"/>
+      <c r="C613" s="7"/>
+      <c r="D613" s="8"/>
+      <c r="E613" s="8"/>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" s="5"/>
+      <c r="B614" s="35"/>
+      <c r="C614" s="7"/>
+      <c r="D614" s="8"/>
+      <c r="E614" s="8"/>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615" s="5"/>
+      <c r="B615" s="35"/>
+      <c r="C615" s="7"/>
+      <c r="D615" s="8"/>
+      <c r="E615" s="8"/>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616" s="5"/>
+      <c r="B616" s="35"/>
+      <c r="C616" s="7"/>
+      <c r="D616" s="8"/>
+      <c r="E616" s="8"/>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" s="5"/>
+      <c r="B617" s="35"/>
+      <c r="C617" s="7"/>
+      <c r="D617" s="8"/>
+      <c r="E617" s="8"/>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" s="5"/>
+      <c r="B618" s="35"/>
+      <c r="C618" s="7"/>
+      <c r="D618" s="8"/>
+      <c r="E618" s="8"/>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619" s="5"/>
+      <c r="B619" s="35"/>
+      <c r="C619" s="7"/>
+      <c r="D619" s="8"/>
+      <c r="E619" s="8"/>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620" s="35"/>
+      <c r="B620" s="35"/>
+      <c r="C620" s="7"/>
+      <c r="D620" s="8"/>
+      <c r="E620" s="8"/>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621" s="5"/>
+      <c r="B621" s="35"/>
+      <c r="C621" s="7"/>
+      <c r="D621" s="8"/>
+      <c r="E621" s="8"/>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622" s="5"/>
+      <c r="B622" s="35"/>
+      <c r="C622" s="7"/>
+      <c r="D622" s="8"/>
+      <c r="E622" s="8"/>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" s="5"/>
+      <c r="B623" s="35"/>
+      <c r="C623" s="7"/>
+      <c r="D623" s="8"/>
+      <c r="E623" s="8"/>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624" s="5"/>
+      <c r="B624" s="35"/>
+      <c r="C624" s="7"/>
+      <c r="D624" s="8"/>
+      <c r="E624" s="8"/>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A625" s="5"/>
+      <c r="B625" s="35"/>
+      <c r="C625" s="7"/>
+      <c r="D625" s="8"/>
+      <c r="E625" s="8"/>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A626" s="5"/>
+      <c r="B626" s="35"/>
+      <c r="C626" s="7"/>
+      <c r="D626" s="8"/>
+      <c r="E626" s="8"/>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A627" s="8"/>
+      <c r="B627" s="8"/>
+      <c r="C627" s="57"/>
+      <c r="D627" s="7"/>
+      <c r="E627" s="7"/>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A628" s="5"/>
+      <c r="B628" s="35"/>
+      <c r="C628" s="7"/>
+      <c r="D628" s="8"/>
+      <c r="E628" s="8"/>
+      <c r="F628" s="3"/>
+      <c r="G628" s="3"/>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A629" s="5"/>
+      <c r="B629" s="35"/>
+      <c r="C629" s="7"/>
+      <c r="D629" s="8"/>
+      <c r="E629" s="8"/>
+      <c r="F629" s="3"/>
+      <c r="G629" s="3"/>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A630" s="5"/>
+      <c r="B630" s="35"/>
+      <c r="C630" s="7"/>
+      <c r="D630" s="8"/>
+      <c r="E630" s="8"/>
+      <c r="F630" s="3"/>
+      <c r="G630" s="3"/>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A631" s="5"/>
+      <c r="B631" s="35"/>
+      <c r="C631" s="7"/>
+      <c r="D631" s="8"/>
+      <c r="E631" s="8"/>
+      <c r="F631" s="3"/>
+      <c r="G631" s="3"/>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A632" s="5"/>
+      <c r="B632" s="35"/>
+      <c r="C632" s="7"/>
+      <c r="D632" s="8"/>
+      <c r="E632" s="8"/>
+      <c r="F632" s="3"/>
+      <c r="G632" s="3"/>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A633" s="5"/>
+      <c r="B633" s="35"/>
+      <c r="C633" s="7"/>
+      <c r="D633" s="8"/>
+      <c r="E633" s="8"/>
+      <c r="F633" s="3"/>
+      <c r="G633" s="3"/>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A634" s="5"/>
+      <c r="B634" s="35"/>
+      <c r="C634" s="7"/>
+      <c r="D634" s="8"/>
+      <c r="E634" s="8"/>
+      <c r="F634" s="3"/>
+      <c r="G634" s="3"/>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A635" s="5"/>
+      <c r="B635" s="35"/>
+      <c r="C635" s="7"/>
+      <c r="D635" s="8"/>
+      <c r="E635" s="8"/>
+      <c r="F635" s="3"/>
+      <c r="G635" s="3"/>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A636" s="5"/>
+      <c r="B636" s="35"/>
+      <c r="C636" s="7"/>
+      <c r="D636" s="8"/>
+      <c r="E636" s="8"/>
+      <c r="F636" s="3"/>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A637" s="35"/>
+      <c r="B637" s="35"/>
+      <c r="C637" s="7"/>
+      <c r="D637" s="8"/>
+      <c r="E637" s="8"/>
+      <c r="F637" s="3"/>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A638" s="5"/>
+      <c r="B638" s="35"/>
+      <c r="C638" s="7"/>
+      <c r="D638" s="8"/>
+      <c r="E638" s="8"/>
+      <c r="F638" s="3"/>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A639" s="5"/>
+      <c r="B639" s="35"/>
+      <c r="C639" s="7"/>
+      <c r="D639" s="8"/>
+      <c r="E639" s="8"/>
+      <c r="F639" s="3"/>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A640" s="5"/>
+      <c r="B640" s="35"/>
+      <c r="C640" s="7"/>
+      <c r="D640" s="8"/>
+      <c r="E640" s="8"/>
+      <c r="F640" s="3"/>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641" s="5"/>
+      <c r="B641" s="35"/>
+      <c r="C641" s="7"/>
+      <c r="D641" s="8"/>
+      <c r="E641" s="8"/>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" s="5"/>
+      <c r="B642" s="35"/>
+      <c r="C642" s="7"/>
+      <c r="D642" s="8"/>
+      <c r="E642" s="8"/>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" s="5"/>
+      <c r="B643" s="35"/>
+      <c r="C643" s="7"/>
+      <c r="D643" s="8"/>
+      <c r="E643" s="8"/>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" s="5"/>
+      <c r="B644" s="35"/>
+      <c r="C644" s="7"/>
+      <c r="D644" s="8"/>
+      <c r="E644" s="8"/>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645" s="5"/>
+      <c r="B645" s="35"/>
+      <c r="C645" s="7"/>
+      <c r="D645" s="8"/>
+      <c r="E645" s="8"/>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" s="5"/>
+      <c r="B646" s="35"/>
+      <c r="C646" s="7"/>
+      <c r="D646" s="8"/>
+      <c r="E646" s="8"/>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" s="35"/>
+      <c r="B647" s="35"/>
+      <c r="C647" s="7"/>
+      <c r="D647" s="8"/>
+      <c r="E647" s="8"/>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" s="5"/>
+      <c r="B648" s="35"/>
+      <c r="C648" s="7"/>
+      <c r="D648" s="8"/>
+      <c r="E648" s="8"/>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649" s="5"/>
+      <c r="B649" s="35"/>
+      <c r="C649" s="7"/>
+      <c r="D649" s="8"/>
+      <c r="E649" s="8"/>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" s="5"/>
+      <c r="B650" s="35"/>
+      <c r="C650" s="7"/>
+      <c r="D650" s="8"/>
+      <c r="E650" s="8"/>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651" s="5"/>
+      <c r="B651" s="35"/>
+      <c r="C651" s="7"/>
+      <c r="D651" s="8"/>
+      <c r="E651" s="8"/>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652" s="5"/>
+      <c r="B652" s="35"/>
+      <c r="C652" s="7"/>
+      <c r="D652" s="8"/>
+      <c r="E652" s="8"/>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" s="5"/>
+      <c r="B653" s="35"/>
+      <c r="C653" s="7"/>
+      <c r="D653" s="8"/>
+      <c r="E653" s="8"/>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654" s="5"/>
+      <c r="B654" s="35"/>
+      <c r="C654" s="7"/>
+      <c r="D654" s="8"/>
+      <c r="E654" s="8"/>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655" s="5"/>
+      <c r="B655" s="35"/>
+      <c r="C655" s="7"/>
+      <c r="D655" s="8"/>
+      <c r="E655" s="8"/>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" s="5"/>
+      <c r="B656" s="35"/>
+      <c r="C656" s="7"/>
+      <c r="D656" s="8"/>
+      <c r="E656" s="8"/>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" s="5"/>
+      <c r="B657" s="35"/>
+      <c r="C657" s="7"/>
+      <c r="D657" s="8"/>
+      <c r="E657" s="8"/>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" s="5"/>
+      <c r="B658" s="35"/>
+      <c r="C658" s="7"/>
+      <c r="D658" s="8"/>
+      <c r="E658" s="8"/>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659" s="5"/>
+      <c r="B659" s="35"/>
+      <c r="C659" s="7"/>
+      <c r="D659" s="8"/>
+      <c r="E659" s="8"/>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660" s="5"/>
+      <c r="B660" s="35"/>
+      <c r="C660" s="7"/>
+      <c r="D660" s="8"/>
+      <c r="E660" s="8"/>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661" s="5"/>
+      <c r="B661" s="35"/>
+      <c r="C661" s="7"/>
+      <c r="D661" s="8"/>
+      <c r="E661" s="8"/>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662" s="35"/>
+      <c r="B662" s="35"/>
+      <c r="C662" s="7"/>
+      <c r="D662" s="8"/>
+      <c r="E662" s="8"/>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663" s="5"/>
+      <c r="B663" s="35"/>
+      <c r="C663" s="7"/>
+      <c r="D663" s="8"/>
+      <c r="E663" s="8"/>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A664" s="5"/>
+      <c r="B664" s="35"/>
+      <c r="C664" s="7"/>
+      <c r="D664" s="8"/>
+      <c r="E664" s="8"/>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665" s="5"/>
+      <c r="B665" s="35"/>
+      <c r="C665" s="7"/>
+      <c r="D665" s="8"/>
+      <c r="E665" s="8"/>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666" s="5"/>
+      <c r="B666" s="35"/>
+      <c r="C666" s="7"/>
+      <c r="D666" s="8"/>
+      <c r="E666" s="8"/>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A667" s="5"/>
+      <c r="B667" s="35"/>
+      <c r="C667" s="7"/>
+      <c r="D667" s="8"/>
+      <c r="E667" s="8"/>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668" s="5"/>
+      <c r="B668" s="35"/>
+      <c r="C668" s="7"/>
+      <c r="D668" s="8"/>
+      <c r="E668" s="8"/>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669" s="35"/>
+      <c r="B669" s="35"/>
+      <c r="C669" s="7"/>
+      <c r="D669" s="8"/>
+      <c r="E669" s="8"/>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E655"/>
+  <autoFilter ref="A1:E749"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="175">
   <si>
     <t>ID Code</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Sprint 9 (20-06 t/m 03-07)</t>
   </si>
   <si>
-    <t>F. Level</t>
-  </si>
-  <si>
     <t>G. HUD Elementen</t>
   </si>
   <si>
@@ -319,9 +316,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>| AbstractEnemy | AIEnemy | Turret | Roomba | MechanicalArms | LiveStockEnemy | Dogs | Cows | Chickens | Oyster | Plants</t>
-  </si>
-  <si>
     <t>| PackManager | AbstractPack | StimPack | MedicalPack | AmmoPack | GrenadePack | KeyCards | LootManager | InfoManager</t>
   </si>
   <si>
@@ -394,9 +388,6 @@
     <t>| BionicLeftArm | RightArm</t>
   </si>
   <si>
-    <t>| MutatedDog | MutatedChicken | Turret | Roomba| Camera | Xenomorph | Plant</t>
-  </si>
-  <si>
     <t>StaticEnviroment_Boxes_1</t>
   </si>
   <si>
@@ -539,6 +530,18 @@
   </si>
   <si>
     <t>HUD_</t>
+  </si>
+  <si>
+    <t>| MutatedDog | MutatedChicken | Turret | Roomba| Camera | Xenomorph | Plant | AIMainFrame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| AbstractEnemy | AIEnemy | Turret | Roomba | MechanicalArms | LiveStockEnemy | Dogs | Cows | Chickens | Oyster | </t>
+  </si>
+  <si>
+    <t>| Boxes | Corpses | GarbageBin | PropogandePosters | CryoPods | OperatingTable | Plants | OverGrowth | BrokenGlass | DogHouse | ToolBox | Welder | Grinder | Hammer | SconicScrewDriver |  Generator | FusionCore | TelePorter | Computer | AssemblyLine | Fighter | Drone | MinningShip | SpaceSuit | BrokenTurrets | Desks | Chairs | FloodLights| Tires | Warhead | WarheadTrolley | MoonBuggy | Servers | SecurityGates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| MedPack | StimPack | KeyCards | LorePDA | Barrel | FireExtinguisher | Doors | Boxes | WeaponLockers </t>
   </si>
 </sst>
 </file>
@@ -1317,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T721"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1334,7 @@
     <col min="6" max="6" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="121" style="3" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="3" customWidth="1"/>
     <col min="11" max="11" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="19" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -1418,7 +1421,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="12" t="s">
@@ -1475,7 +1478,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="16"/>
@@ -1514,7 +1517,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="21"/>
@@ -1553,7 +1556,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="21"/>
@@ -1592,7 +1595,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="21"/>
@@ -1628,10 +1631,10 @@
         <v>28</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="31"/>
@@ -1667,10 +1670,10 @@
         <v>29</v>
       </c>
       <c r="H8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="58" t="s">
         <v>46</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>47</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="31"/>
@@ -1690,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="31"/>
@@ -1711,7 +1714,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
@@ -1724,10 +1727,10 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="31"/>
@@ -1763,7 +1766,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -1773,10 +1776,10 @@
       <c r="E12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="31"/>
@@ -1811,7 +1814,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>5</v>
@@ -1821,10 +1824,10 @@
       <c r="E14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="31"/>
@@ -1859,17 +1862,17 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="31"/>
@@ -1901,7 +1904,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -1911,10 +1914,10 @@
       <c r="E18" s="8"/>
       <c r="G18" s="9"/>
       <c r="H18" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" s="58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="31"/>
@@ -1949,7 +1952,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
@@ -2037,7 +2040,7 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>5</v>
@@ -2084,7 +2087,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
@@ -2159,7 +2162,7 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>5</v>
@@ -2210,7 +2213,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>5</v>
@@ -2235,7 +2238,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>5</v>
@@ -2253,7 +2256,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>5</v>
@@ -2271,7 +2274,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>5</v>
@@ -2289,7 +2292,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>5</v>
@@ -2307,7 +2310,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>5</v>
@@ -2325,7 +2328,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>5</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>5</v>
@@ -2361,7 +2364,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>5</v>
@@ -2386,7 +2389,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>5</v>
@@ -2404,7 +2407,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>5</v>
@@ -2422,7 +2425,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>5</v>
@@ -2440,7 +2443,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>5</v>
@@ -2458,7 +2461,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>5</v>
@@ -2476,7 +2479,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>5</v>
@@ -2494,7 +2497,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>5</v>
@@ -2512,7 +2515,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>5</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>5</v>
@@ -2548,7 +2551,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>5</v>
@@ -2566,7 +2569,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>5</v>
@@ -2584,7 +2587,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>5</v>
@@ -2602,7 +2605,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>5</v>
@@ -2620,7 +2623,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>5</v>
@@ -2638,7 +2641,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>5</v>
@@ -2656,7 +2659,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>5</v>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>5</v>
@@ -2692,7 +2695,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>5</v>
@@ -2710,7 +2713,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>5</v>
@@ -2728,7 +2731,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>5</v>
@@ -2746,7 +2749,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>5</v>
@@ -2764,7 +2767,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>5</v>
@@ -2782,7 +2785,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>5</v>
@@ -2800,7 +2803,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>5</v>
@@ -2818,7 +2821,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>5</v>
@@ -2836,7 +2839,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>5</v>
@@ -2854,7 +2857,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>5</v>
@@ -2872,7 +2875,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>5</v>
@@ -2890,7 +2893,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>5</v>
@@ -2908,7 +2911,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>5</v>
@@ -2926,7 +2929,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>5</v>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>5</v>
@@ -2962,7 +2965,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>5</v>
@@ -2980,7 +2983,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>5</v>
@@ -2998,7 +3001,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>5</v>
@@ -3016,7 +3019,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>5</v>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>5</v>
@@ -3059,7 +3062,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>5</v>
@@ -3077,7 +3080,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>5</v>
@@ -3095,7 +3098,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>5</v>
@@ -3113,7 +3116,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>5</v>
@@ -3131,7 +3134,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>5</v>
@@ -3149,7 +3152,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>5</v>
@@ -3167,7 +3170,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>5</v>
@@ -3185,7 +3188,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>5</v>
@@ -3210,7 +3213,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>5</v>
@@ -3235,7 +3238,7 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>5</v>
@@ -3352,16 +3355,16 @@
     </row>
     <row r="161" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B161" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C161" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E161" s="8">
         <v>8</v>
@@ -3373,16 +3376,16 @@
     </row>
     <row r="162" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B162" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C162" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D162" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E162" s="8">
         <v>8</v>
@@ -3421,16 +3424,16 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B163" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C163" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D163" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E163" s="8">
         <v>6</v>
@@ -3450,16 +3453,16 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B164" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C164" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D164" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E164" s="8">
         <v>7</v>
@@ -3479,16 +3482,16 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B165" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D165" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E165" s="8">
         <v>8</v>
@@ -3509,16 +3512,16 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B166" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C166" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D166" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E166" s="8">
         <v>7</v>
@@ -3536,16 +3539,16 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B167" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C167" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D167" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E167" s="8">
         <v>7</v>
@@ -3563,16 +3566,16 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B168" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C168" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D168" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E168" s="8">
         <v>7</v>
@@ -3590,16 +3593,16 @@
     </row>
     <row r="169" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B169" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C169" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D169" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E169" s="8">
         <v>4</v>
@@ -3643,16 +3646,16 @@
     </row>
     <row r="171" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B171" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C171" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D171" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E171" s="8">
         <v>8</v>
@@ -3679,16 +3682,16 @@
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B172" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C172" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D172" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E172" s="8">
         <v>7</v>
@@ -3706,16 +3709,16 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B173" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C173" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D173" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E173" s="8">
         <v>6</v>
@@ -3726,16 +3729,16 @@
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B174" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C174" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D174" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E174" s="8">
         <v>6</v>
@@ -3756,16 +3759,16 @@
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B175" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C175" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D175" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E175" s="8">
         <v>6</v>
@@ -3786,16 +3789,16 @@
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B176" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C176" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D176" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E176" s="8">
         <v>7</v>
@@ -3816,16 +3819,16 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B177" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C177" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D177" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E177" s="8">
         <v>6</v>
@@ -3835,16 +3838,16 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B178" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C178" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D178" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E178" s="8">
         <v>6</v>
@@ -3854,16 +3857,16 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B179" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C179" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D179" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E179" s="8">
         <v>6</v>
@@ -3871,16 +3874,16 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B180" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C180" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D180" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E180" s="8">
         <v>4</v>
@@ -3888,16 +3891,16 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B181" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C181" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D181" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E181" s="8">
         <v>4</v>
@@ -3912,16 +3915,16 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B183" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C183" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D183" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E183" s="8">
         <v>10</v>
@@ -3929,16 +3932,16 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B184" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C184" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D184" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E184" s="8">
         <v>10</v>
@@ -3946,16 +3949,16 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B185" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C185" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D185" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E185" s="8">
         <v>9</v>
@@ -3970,16 +3973,16 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B187" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C187" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D187" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E187" s="8">
         <v>7</v>
@@ -3987,16 +3990,16 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B188" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C188" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D188" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E188" s="8">
         <v>8</v>
@@ -4004,16 +4007,16 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B189" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C189" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D189" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E189" s="8">
         <v>9</v>
@@ -4021,16 +4024,16 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B190" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C190" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D190" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E190" s="8">
         <v>10</v>
@@ -4038,16 +4041,16 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B191" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C191" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D191" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E191" s="8">
         <v>7</v>
@@ -4055,16 +4058,16 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B192" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C192" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D192" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E192" s="8">
         <v>4</v>
@@ -4072,16 +4075,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B193" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C193" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D193" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E193" s="8">
         <v>4</v>
@@ -4089,16 +4092,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B194" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C194" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D194" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E194" s="8">
         <v>4</v>
@@ -4113,16 +4116,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B196" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C196" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D196" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E196" s="8">
         <v>5</v>
@@ -4137,16 +4140,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B198" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C198" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D198" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E198" s="8">
         <v>6</v>
@@ -4154,16 +4157,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B199" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C199" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D199" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E199" s="8">
         <v>5</v>
@@ -4171,16 +4174,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B200" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C200" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D200" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E200" s="8">
         <v>5</v>
@@ -4188,16 +4191,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B201" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C201" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D201" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E201" s="8">
         <v>5</v>
@@ -4205,16 +4208,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B202" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C202" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D202" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E202" s="8">
         <v>4</v>
@@ -4229,16 +4232,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B204" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C204" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D204" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E204" s="8">
         <v>10</v>
@@ -4246,16 +4249,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B205" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C205" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D205" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E205" s="8">
         <v>10</v>
@@ -4263,16 +4266,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B206" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C206" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D206" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E206" s="8">
         <v>9</v>
@@ -4280,16 +4283,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B207" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C207" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D207" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E207" s="8">
         <v>7</v>
@@ -4297,16 +4300,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B208" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C208" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D208" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E208" s="8">
         <v>7</v>
@@ -4314,16 +4317,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B209" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C209" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D209" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E209" s="8">
         <v>7</v>
@@ -4331,16 +4334,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B210" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C210" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D210" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E210" s="8">
         <v>9</v>
@@ -4348,16 +4351,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B211" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C211" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D211" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E211" s="8">
         <v>9</v>
@@ -4365,16 +4368,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B212" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C212" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D212" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E212" s="8">
         <v>8</v>
@@ -4382,16 +4385,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B213" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C213" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D213" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E213" s="8">
         <v>8</v>
@@ -4399,16 +4402,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B214" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C214" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D214" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E214" s="8">
         <v>7</v>
@@ -4416,16 +4419,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B215" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C215" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D215" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E215" s="8">
         <v>7</v>
@@ -4433,16 +4436,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B216" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C216" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D216" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E216" s="8">
         <v>6</v>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$749</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$797</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="202">
   <si>
     <t>ID Code</t>
   </si>
@@ -529,9 +529,6 @@
     <t>Building_</t>
   </si>
   <si>
-    <t>HUD_</t>
-  </si>
-  <si>
     <t>| MutatedDog | MutatedChicken | Turret | Roomba| Camera | Xenomorph | Plant | AIMainFrame</t>
   </si>
   <si>
@@ -542,6 +539,90 @@
   </si>
   <si>
     <t xml:space="preserve">| MedPack | StimPack | KeyCards | LorePDA | Barrel | FireExtinguisher | Doors | Boxes | WeaponLockers </t>
+  </si>
+  <si>
+    <t>HUD_BloodSpatters_1</t>
+  </si>
+  <si>
+    <t>HUD_HitIndicatorEnemy_2</t>
+  </si>
+  <si>
+    <t>HUD_HitIndicatorPlayer_3</t>
+  </si>
+  <si>
+    <t>HUD_RevolverIcon_4</t>
+  </si>
+  <si>
+    <t>HUD_ShotgunIcon_5</t>
+  </si>
+  <si>
+    <t>HUD_CeremicBladeIcon_6</t>
+  </si>
+  <si>
+    <t>HUD_AssaultRifleIcon_7</t>
+  </si>
+  <si>
+    <t>HUD_PulseRifleIcon_8</t>
+  </si>
+  <si>
+    <t>HUD_MinesIcon_10</t>
+  </si>
+  <si>
+    <t>HUD_GrenadesIcon_9</t>
+  </si>
+  <si>
+    <t>HUD_RevolverAmmoIcon_11</t>
+  </si>
+  <si>
+    <t>HUD_ShotGunAmmoIcon_12</t>
+  </si>
+  <si>
+    <t>HUD_AssaultRifleAmmoIcon_13</t>
+  </si>
+  <si>
+    <t>HUD_PulseRifleAmmoIcon_14</t>
+  </si>
+  <si>
+    <t>HUD_MedPackIcon_15</t>
+  </si>
+  <si>
+    <t>HUD_StimPackIcon_16</t>
+  </si>
+  <si>
+    <t>HUD_KeyCardsIcon_17</t>
+  </si>
+  <si>
+    <t>HUD_LorePDAIcon_18</t>
+  </si>
+  <si>
+    <t>HUD_StanceIcon_19</t>
+  </si>
+  <si>
+    <t>HUD_Radar_20</t>
+  </si>
+  <si>
+    <t>HUD_InfoIndicator_21</t>
+  </si>
+  <si>
+    <t>HUD_GameOverScreen_22</t>
+  </si>
+  <si>
+    <t>HUD_BasicButton_23</t>
+  </si>
+  <si>
+    <t>HUD_LoadingScreen_24</t>
+  </si>
+  <si>
+    <t>HUD_StartScreen_25</t>
+  </si>
+  <si>
+    <t>HUD_MenuBackGround_26</t>
+  </si>
+  <si>
+    <t>HUD_HolographicDisplay_27</t>
+  </si>
+  <si>
+    <t>HUD_Lootingscreen_28</t>
   </si>
 </sst>
 </file>
@@ -837,7 +918,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -946,9 +1027,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1318,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T721"/>
+  <dimension ref="A1:T769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1495,7 @@
       <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="58" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="10" t="s">
@@ -1474,10 +1552,10 @@
       <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="57" t="s">
         <v>122</v>
       </c>
       <c r="J3" s="11"/>
@@ -1513,11 +1591,11 @@
       <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="58" t="s">
-        <v>171</v>
+      <c r="I4" s="57" t="s">
+        <v>170</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="21"/>
@@ -1552,11 +1630,11 @@
       <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="58" t="s">
-        <v>173</v>
+      <c r="I5" s="57" t="s">
+        <v>172</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="21"/>
@@ -1591,11 +1669,11 @@
       <c r="G6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="58" t="s">
-        <v>174</v>
+      <c r="I6" s="57" t="s">
+        <v>173</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="21"/>
@@ -1630,10 +1708,10 @@
       <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="57" t="s">
         <v>46</v>
       </c>
       <c r="J7" s="11"/>
@@ -1669,10 +1747,10 @@
       <c r="G8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="57" t="s">
         <v>46</v>
       </c>
       <c r="J8" s="11"/>
@@ -1695,10 +1773,10 @@
       <c r="G9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="57" t="s">
         <v>99</v>
       </c>
       <c r="J9" s="11"/>
@@ -1726,11 +1804,11 @@
         <v>12</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="58" t="s">
-        <v>172</v>
+      <c r="I10" s="57" t="s">
+        <v>171</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="31"/>
@@ -1751,8 +1829,8 @@
       <c r="E11" s="8"/>
       <c r="F11" s="32"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="57"/>
       <c r="J11" s="11"/>
       <c r="K11" s="31"/>
       <c r="L11" s="24"/>
@@ -1775,10 +1853,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="57" t="s">
         <v>100</v>
       </c>
       <c r="J12" s="11"/>
@@ -1799,8 +1877,8 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="57"/>
       <c r="J13" s="11"/>
       <c r="K13" s="31"/>
       <c r="L13" s="24"/>
@@ -1823,10 +1901,10 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="57" t="s">
         <v>101</v>
       </c>
       <c r="J14" s="11"/>
@@ -1847,8 +1925,8 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="57"/>
       <c r="J15" s="11"/>
       <c r="K15" s="31"/>
       <c r="L15" s="24"/>
@@ -1868,10 +1946,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="57" t="s">
         <v>105</v>
       </c>
       <c r="J16" s="11"/>
@@ -1889,8 +1967,8 @@
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="11"/>
       <c r="K17" s="31"/>
       <c r="L17" s="24"/>
@@ -1904,7 +1982,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -1913,10 +1991,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="58" t="s">
+      <c r="I18" s="57" t="s">
         <v>109</v>
       </c>
       <c r="J18" s="11"/>
@@ -1937,8 +2015,8 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="11"/>
       <c r="K19" s="31"/>
       <c r="L19" s="24"/>
@@ -1952,7 +2030,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
@@ -1996,7 +2074,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
@@ -2018,7 +2096,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="36"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2038,207 +2116,178 @@
       <c r="R23" s="22"/>
       <c r="S23" s="36"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>5</v>
-      </c>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="G24" s="9"/>
       <c r="H24" s="5"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
+      <c r="J24" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="3">
+        <f>K24+L24+M24+N24+O24+P24+Q24+R24+S24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="G25" s="9"/>
       <c r="H25" s="5"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="J25" s="44"/>
       <c r="K25" s="31"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="36"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="46"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="G26" s="9"/>
       <c r="H26" s="5"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="44"/>
+      <c r="J26" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="46"/>
       <c r="T26" s="3">
         <f>K26+L26+M26+N26+O26+P26+Q26+R26+S26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
+    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="G27" s="9"/>
       <c r="H27" s="5"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="47"/>
+      <c r="J27" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="37"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="37">
+        <f>K27+L27+M27+N27+O27+P27+Q27+R27+S27</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="3">
-        <f>K28+L28+M28+N28+O28+P28+Q28+R28+S28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="37">
-        <f>K29+L29+M29+N29+O29+P29+Q29+R29+S29</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>5</v>
@@ -2255,8 +2304,8 @@
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>116</v>
+      <c r="A36" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>5</v>
@@ -2266,7 +2315,7 @@
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
@@ -2274,7 +2323,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>5</v>
@@ -2291,8 +2340,8 @@
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>117</v>
+      <c r="A40" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>5</v>
@@ -2302,7 +2351,7 @@
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
@@ -2310,7 +2359,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>5</v>
@@ -2328,7 +2377,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>5</v>
@@ -2345,51 +2394,51 @@
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A48" s="35"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="35"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
-        <v>123</v>
+      <c r="A51" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>5</v>
@@ -2399,7 +2448,7 @@
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
@@ -2407,7 +2456,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>5</v>
@@ -2425,7 +2474,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>5</v>
@@ -2442,8 +2491,8 @@
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>126</v>
+      <c r="A57" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>5</v>
@@ -2453,7 +2502,7 @@
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
@@ -2461,7 +2510,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>5</v>
@@ -2478,8 +2527,8 @@
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="35" t="s">
-        <v>128</v>
+      <c r="A61" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>5</v>
@@ -2489,7 +2538,7 @@
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
@@ -2497,7 +2546,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>5</v>
@@ -2515,7 +2564,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>5</v>
@@ -2532,8 +2581,8 @@
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>131</v>
+      <c r="A67" s="35" t="s">
+        <v>133</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>5</v>
@@ -2543,7 +2592,7 @@
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
@@ -2551,7 +2600,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>5</v>
@@ -2568,8 +2617,8 @@
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="35" t="s">
-        <v>133</v>
+      <c r="A71" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>5</v>
@@ -2579,7 +2628,7 @@
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
+      <c r="A72" s="5"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
@@ -2587,7 +2636,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>5</v>
@@ -2605,7 +2654,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>5</v>
@@ -2622,8 +2671,8 @@
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>136</v>
+      <c r="A77" s="35" t="s">
+        <v>138</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>5</v>
@@ -2633,7 +2682,7 @@
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
@@ -2641,7 +2690,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>5</v>
@@ -2658,8 +2707,8 @@
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="35" t="s">
-        <v>138</v>
+      <c r="A81" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>5</v>
@@ -2669,7 +2718,7 @@
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
+      <c r="A82" s="5"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="8"/>
@@ -2677,7 +2726,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>5</v>
@@ -2695,7 +2744,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>5</v>
@@ -2712,8 +2761,8 @@
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>141</v>
+      <c r="A87" s="35" t="s">
+        <v>143</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>5</v>
@@ -2723,7 +2772,7 @@
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
+      <c r="A88" s="35"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
@@ -2731,7 +2780,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>5</v>
@@ -2748,8 +2797,8 @@
       <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="35" t="s">
-        <v>143</v>
+      <c r="A91" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>5</v>
@@ -2759,7 +2808,7 @@
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
+      <c r="A92" s="5"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
@@ -2767,7 +2816,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>5</v>
@@ -2785,7 +2834,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>5</v>
@@ -2802,8 +2851,8 @@
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>146</v>
+      <c r="A97" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>5</v>
@@ -2814,14 +2863,14 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
-      <c r="B98" s="7"/>
+      <c r="B98" s="35"/>
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>5</v>
@@ -2832,14 +2881,14 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
-      <c r="B100" s="7"/>
+      <c r="B100" s="35"/>
       <c r="C100" s="7"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="35" t="s">
-        <v>148</v>
+      <c r="A101" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>5</v>
@@ -2849,7 +2898,7 @@
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
+      <c r="A102" s="35"/>
       <c r="B102" s="35"/>
       <c r="C102" s="7"/>
       <c r="D102" s="8"/>
@@ -2857,7 +2906,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>5</v>
@@ -2874,8 +2923,8 @@
       <c r="E104" s="8"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>150</v>
+      <c r="A105" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>5</v>
@@ -2885,7 +2934,7 @@
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
+      <c r="A106" s="5"/>
       <c r="B106" s="35"/>
       <c r="C106" s="7"/>
       <c r="D106" s="8"/>
@@ -2893,7 +2942,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>5</v>
@@ -2910,8 +2959,8 @@
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="35" t="s">
-        <v>152</v>
+      <c r="A109" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>5</v>
@@ -2921,7 +2970,7 @@
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="35"/>
       <c r="C110" s="7"/>
       <c r="D110" s="8"/>
@@ -2929,7 +2978,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>5</v>
@@ -2947,7 +2996,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>5</v>
@@ -2957,15 +3006,15 @@
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
+      <c r="A114" s="5"/>
       <c r="B114" s="35"/>
       <c r="C114" s="7"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>155</v>
+      <c r="A115" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>5</v>
@@ -2983,7 +3032,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>5</v>
@@ -3000,37 +3049,37 @@
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A119" s="5"/>
+      <c r="B119" s="35"/>
       <c r="C119" s="7"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="35"/>
+      <c r="A120" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C120" s="7"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A121" s="5"/>
+      <c r="B121" s="35"/>
       <c r="C121" s="7"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="35"/>
+      <c r="A122" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C122" s="7"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -3043,8 +3092,8 @@
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="35" t="s">
-        <v>160</v>
+      <c r="A124" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>5</v>
@@ -3054,7 +3103,7 @@
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
+      <c r="A125" s="35"/>
       <c r="B125" s="35"/>
       <c r="C125" s="7"/>
       <c r="D125" s="8"/>
@@ -3062,7 +3111,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>5</v>
@@ -3080,7 +3129,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>5</v>
@@ -3090,15 +3139,15 @@
       <c r="E128" s="8"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="35"/>
+      <c r="A129" s="5"/>
       <c r="B129" s="35"/>
       <c r="C129" s="7"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>163</v>
+      <c r="A130" s="35" t="s">
+        <v>165</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>5</v>
@@ -3116,7 +3165,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>5</v>
@@ -3133,8 +3182,8 @@
       <c r="E133" s="8"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="35" t="s">
-        <v>165</v>
+      <c r="A134" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>5</v>
@@ -3152,7 +3201,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>5</v>
@@ -3162,83 +3211,83 @@
       <c r="E136" s="8"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
+      <c r="A137" s="35"/>
       <c r="B137" s="35"/>
       <c r="C137" s="7"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A138" s="5"/>
+      <c r="B138" s="35"/>
       <c r="C138" s="7"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="35"/>
+      <c r="A139" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C139" s="7"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A140" s="5"/>
+      <c r="B140" s="35"/>
       <c r="C140" s="7"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="35"/>
+      <c r="A141" s="5"/>
       <c r="B141" s="35"/>
       <c r="C141" s="7"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="B142" s="35"/>
+      <c r="A142" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C142" s="7"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A143" s="5"/>
+      <c r="B143" s="35"/>
       <c r="C143" s="7"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-      <c r="B144" s="35"/>
+      <c r="A144" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C144" s="7"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="35"/>
       <c r="C145" s="7"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A146" s="35" t="s">
-        <v>170</v>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>5</v>
@@ -3247,1043 +3296,526 @@
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="35"/>
       <c r="B147" s="35"/>
       <c r="C147" s="7"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-      <c r="B148" s="35"/>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C148" s="7"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="35"/>
       <c r="C149" s="7"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="B150" s="35"/>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C150" s="7"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A151" s="35"/>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
       <c r="B151" s="35"/>
       <c r="C151" s="7"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="B152" s="35"/>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C152" s="7"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="35"/>
       <c r="C153" s="7"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
-      <c r="B154" s="35"/>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C154" s="7"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="35"/>
       <c r="C155" s="7"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
-      <c r="B156" s="35"/>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C156" s="7"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="35"/>
       <c r="C157" s="7"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="B158" s="35"/>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C158" s="7"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="35"/>
       <c r="B159" s="35"/>
       <c r="C159" s="7"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
-      <c r="B160" s="35"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="11"/>
-      <c r="J160" s="11"/>
-      <c r="S160" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T160" s="3">
-        <f>SUM(T26:T29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B161" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E161" s="8">
-        <v>8</v>
-      </c>
-      <c r="G161" s="9"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="11"/>
-      <c r="J161" s="11"/>
-    </row>
-    <row r="162" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B162" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E162" s="8">
-        <v>8</v>
-      </c>
-      <c r="G162" s="9"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="11"/>
-      <c r="J162" s="11"/>
-      <c r="K162" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L162" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M162" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N162" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O162" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P162" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q162" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="R162" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="S162" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B163" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E163" s="8">
-        <v>6</v>
-      </c>
-      <c r="G163" s="9"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="11"/>
-      <c r="K163" s="31"/>
-      <c r="L163" s="46"/>
-      <c r="M163" s="46"/>
-      <c r="N163" s="46"/>
-      <c r="O163" s="46"/>
-      <c r="P163" s="46"/>
-      <c r="Q163" s="46"/>
-      <c r="R163" s="46"/>
-      <c r="S163" s="47"/>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="7"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B164" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E164" s="8">
-        <v>7</v>
-      </c>
-      <c r="G164" s="9"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="11"/>
-      <c r="K164" s="31"/>
-      <c r="L164" s="46"/>
-      <c r="M164" s="46"/>
-      <c r="N164" s="46"/>
-      <c r="O164" s="46"/>
-      <c r="P164" s="46"/>
-      <c r="Q164" s="46"/>
-      <c r="R164" s="46"/>
-      <c r="S164" s="47"/>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B165" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E165" s="8">
-        <v>8</v>
-      </c>
-      <c r="G165" s="9"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="21"/>
-      <c r="L165" s="22"/>
-      <c r="M165" s="22"/>
-      <c r="N165" s="22"/>
-      <c r="O165" s="22"/>
-      <c r="P165" s="22"/>
-      <c r="Q165" s="24"/>
-      <c r="R165" s="24"/>
-      <c r="S165" s="25"/>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B166" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E166" s="8">
-        <v>7</v>
-      </c>
-      <c r="J166" s="11"/>
-      <c r="K166" s="21"/>
-      <c r="L166" s="22"/>
-      <c r="M166" s="22"/>
-      <c r="N166" s="22"/>
-      <c r="O166" s="22"/>
-      <c r="P166" s="22"/>
-      <c r="Q166" s="22"/>
-      <c r="R166" s="22"/>
-      <c r="S166" s="25"/>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B167" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E167" s="8">
-        <v>7</v>
-      </c>
-      <c r="J167" s="11"/>
-      <c r="K167" s="21"/>
-      <c r="L167" s="22"/>
-      <c r="M167" s="22"/>
-      <c r="N167" s="22"/>
-      <c r="O167" s="22"/>
-      <c r="P167" s="22"/>
-      <c r="Q167" s="22"/>
-      <c r="R167" s="22"/>
-      <c r="S167" s="36"/>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="7"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="5"/>
+      <c r="B167" s="35"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B168" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E168" s="8">
-        <v>7</v>
-      </c>
-      <c r="J168" s="11"/>
-      <c r="K168" s="21"/>
-      <c r="L168" s="22"/>
-      <c r="M168" s="22"/>
-      <c r="N168" s="22"/>
-      <c r="O168" s="22"/>
-      <c r="P168" s="22"/>
-      <c r="Q168" s="22"/>
-      <c r="R168" s="22"/>
-      <c r="S168" s="25"/>
-    </row>
-    <row r="169" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B169" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E169" s="8">
-        <v>4</v>
-      </c>
-      <c r="J169" s="11"/>
-      <c r="K169" s="21"/>
-      <c r="L169" s="24"/>
-      <c r="M169" s="24"/>
-      <c r="N169" s="22"/>
-      <c r="O169" s="22"/>
-      <c r="P169" s="22"/>
-      <c r="Q169" s="22"/>
-      <c r="R169" s="22"/>
-      <c r="S169" s="25"/>
-      <c r="T169" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A170" s="35"/>
-      <c r="B170" s="35"/>
+        <v>187</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
-      <c r="J170" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="K170" s="42"/>
-      <c r="L170" s="52"/>
-      <c r="M170" s="52"/>
-      <c r="N170" s="52"/>
-      <c r="O170" s="17"/>
-      <c r="P170" s="17"/>
-      <c r="Q170" s="52"/>
-      <c r="R170" s="17"/>
-      <c r="S170" s="53"/>
-      <c r="T170" s="3">
-        <f>K170+L170+M170+N170+O170+P170+Q170+R170+S170</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B171" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E171" s="8">
-        <v>8</v>
-      </c>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="11"/>
-      <c r="J171" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="K171" s="37"/>
-      <c r="L171" s="38"/>
-      <c r="M171" s="38"/>
-      <c r="N171" s="38"/>
-      <c r="O171" s="39"/>
-      <c r="P171" s="38"/>
-      <c r="Q171" s="38"/>
-      <c r="R171" s="38"/>
-      <c r="S171" s="55"/>
-      <c r="T171" s="37">
-        <f>K171+L171+M171+N171+O171+P171+Q171+R171+S171</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B172" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E172" s="8">
-        <v>7</v>
-      </c>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="11"/>
-      <c r="S172" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T172" s="3">
-        <f>SUM(T170:T171)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B173" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E173" s="8">
-        <v>6</v>
-      </c>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="11"/>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+      <c r="B171" s="35"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="7"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B174" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E174" s="8">
-        <v>6</v>
-      </c>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="11"/>
-      <c r="J174" s="11"/>
-      <c r="K174" s="56"/>
-      <c r="L174" s="7"/>
-      <c r="M174" s="7"/>
-      <c r="N174" s="7"/>
-      <c r="O174" s="11"/>
-      <c r="P174" s="7"/>
-      <c r="Q174" s="7"/>
-      <c r="R174" s="7"/>
-      <c r="S174" s="11"/>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A175" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B175" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E175" s="8">
-        <v>6</v>
-      </c>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="11"/>
-      <c r="J175" s="11"/>
-      <c r="K175" s="7"/>
-      <c r="L175" s="7"/>
-      <c r="M175" s="7"/>
-      <c r="N175" s="7"/>
-      <c r="O175" s="7"/>
-      <c r="P175" s="7"/>
-      <c r="Q175" s="7"/>
-      <c r="R175" s="7"/>
-      <c r="S175" s="7"/>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="B175" s="35"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B176" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E176" s="8">
-        <v>7</v>
-      </c>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="11"/>
-      <c r="J176" s="11"/>
-      <c r="K176" s="56"/>
-      <c r="L176" s="7"/>
-      <c r="M176" s="7"/>
-      <c r="N176" s="7"/>
-      <c r="O176" s="7"/>
-      <c r="P176" s="7"/>
-      <c r="Q176" s="7"/>
-      <c r="R176" s="7"/>
-      <c r="S176" s="7"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B177" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E177" s="8">
-        <v>6</v>
-      </c>
-      <c r="J177" s="11"/>
-      <c r="K177" s="7"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="35"/>
+      <c r="B177" s="35"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B178" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E178" s="8">
-        <v>6</v>
-      </c>
-      <c r="J178" s="11"/>
-      <c r="K178" s="7"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B179" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E179" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B180" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E180" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B181" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E181" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
-      <c r="B182" s="35"/>
+        <v>192</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="5"/>
+      <c r="B179" s="35"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C182" s="7"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B183" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E183" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B184" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E184" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B185" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E185" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
-      <c r="B186" s="35"/>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
+      <c r="B183" s="35"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="5"/>
+      <c r="B185" s="35"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C186" s="7"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B187" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E187" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="5"/>
+      <c r="B187" s="35"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B188" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E188" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B189" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E189" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B190" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E190" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B191" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E191" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="7"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="35"/>
+      <c r="B189" s="35"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="5"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B192" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E192" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B193" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E193" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B194" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E194" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="7"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8"/>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A193" s="5"/>
+      <c r="B193" s="35"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="7"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="35"/>
       <c r="C195" s="7"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B196" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E196" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="7"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
       <c r="B197" s="35"/>
       <c r="C197" s="7"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B198" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E198" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B199" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E199" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B200" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E200" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B201" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E201" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B202" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E202" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198" s="5"/>
+      <c r="B198" s="35"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199" s="35"/>
+      <c r="B199" s="35"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="8"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200" s="5"/>
+      <c r="B200" s="35"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="8"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="B201" s="35"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202" s="5"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
       <c r="B203" s="35"/>
       <c r="C203" s="7"/>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B204" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E204" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B205" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E205" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B206" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E206" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204" s="35"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="8"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="B205" s="35"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="8"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A206" s="5"/>
+      <c r="B206" s="35"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B207" s="33" t="s">
         <v>11</v>
@@ -4295,12 +3827,12 @@
         <v>98</v>
       </c>
       <c r="E207" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B208" s="33" t="s">
         <v>11</v>
@@ -4312,12 +3844,23 @@
         <v>98</v>
       </c>
       <c r="E208" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G208" s="9"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="11"/>
+      <c r="J208" s="11"/>
+      <c r="S208" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T208" s="3">
+        <f>SUM(T24:T27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B209" s="33" t="s">
         <v>11</v>
@@ -4329,12 +3872,16 @@
         <v>98</v>
       </c>
       <c r="E209" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G209" s="9"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+    </row>
+    <row r="210" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B210" s="33" t="s">
         <v>11</v>
@@ -4346,12 +3893,43 @@
         <v>98</v>
       </c>
       <c r="E210" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G210" s="9"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L210" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M210" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N210" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O210" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P210" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q210" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R210" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S210" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="35" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B211" s="33" t="s">
         <v>11</v>
@@ -4363,12 +3941,24 @@
         <v>98</v>
       </c>
       <c r="E211" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G211" s="9"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="11"/>
+      <c r="K211" s="31"/>
+      <c r="L211" s="45"/>
+      <c r="M211" s="45"/>
+      <c r="N211" s="45"/>
+      <c r="O211" s="45"/>
+      <c r="P211" s="45"/>
+      <c r="Q211" s="45"/>
+      <c r="R211" s="45"/>
+      <c r="S211" s="46"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B212" s="33" t="s">
         <v>11</v>
@@ -4380,12 +3970,24 @@
         <v>98</v>
       </c>
       <c r="E212" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G212" s="9"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="11"/>
+      <c r="K212" s="31"/>
+      <c r="L212" s="45"/>
+      <c r="M212" s="45"/>
+      <c r="N212" s="45"/>
+      <c r="O212" s="45"/>
+      <c r="P212" s="45"/>
+      <c r="Q212" s="45"/>
+      <c r="R212" s="45"/>
+      <c r="S212" s="46"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B213" s="33" t="s">
         <v>11</v>
@@ -4397,12 +3999,25 @@
         <v>98</v>
       </c>
       <c r="E213" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G213" s="9"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="21"/>
+      <c r="L213" s="22"/>
+      <c r="M213" s="22"/>
+      <c r="N213" s="22"/>
+      <c r="O213" s="22"/>
+      <c r="P213" s="22"/>
+      <c r="Q213" s="24"/>
+      <c r="R213" s="24"/>
+      <c r="S213" s="25"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B214" s="33" t="s">
         <v>11</v>
@@ -4416,10 +4031,20 @@
       <c r="E214" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J214" s="11"/>
+      <c r="K214" s="21"/>
+      <c r="L214" s="22"/>
+      <c r="M214" s="22"/>
+      <c r="N214" s="22"/>
+      <c r="O214" s="22"/>
+      <c r="P214" s="22"/>
+      <c r="Q214" s="22"/>
+      <c r="R214" s="22"/>
+      <c r="S214" s="25"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B215" s="33" t="s">
         <v>11</v>
@@ -4431,193 +4056,527 @@
         <v>98</v>
       </c>
       <c r="E215" s="8">
+        <v>4</v>
+      </c>
+      <c r="J215" s="11"/>
+      <c r="K215" s="21"/>
+      <c r="L215" s="22"/>
+      <c r="M215" s="22"/>
+      <c r="N215" s="22"/>
+      <c r="O215" s="22"/>
+      <c r="P215" s="22"/>
+      <c r="Q215" s="22"/>
+      <c r="R215" s="22"/>
+      <c r="S215" s="36"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A216" s="35"/>
+      <c r="B216" s="35"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="21"/>
+      <c r="L216" s="22"/>
+      <c r="M216" s="22"/>
+      <c r="N216" s="22"/>
+      <c r="O216" s="22"/>
+      <c r="P216" s="22"/>
+      <c r="Q216" s="22"/>
+      <c r="R216" s="22"/>
+      <c r="S216" s="25"/>
+    </row>
+    <row r="217" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B217" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E217" s="8">
+        <v>8</v>
+      </c>
+      <c r="J217" s="11"/>
+      <c r="K217" s="21"/>
+      <c r="L217" s="24"/>
+      <c r="M217" s="24"/>
+      <c r="N217" s="22"/>
+      <c r="O217" s="22"/>
+      <c r="P217" s="22"/>
+      <c r="Q217" s="22"/>
+      <c r="R217" s="22"/>
+      <c r="S217" s="25"/>
+      <c r="T217" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B218" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E218" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B216" s="33" t="s">
+      <c r="J218" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K218" s="41"/>
+      <c r="L218" s="51"/>
+      <c r="M218" s="51"/>
+      <c r="N218" s="51"/>
+      <c r="O218" s="17"/>
+      <c r="P218" s="17"/>
+      <c r="Q218" s="51"/>
+      <c r="R218" s="17"/>
+      <c r="S218" s="52"/>
+      <c r="T218" s="3">
+        <f>K218+L218+M218+N218+O218+P218+Q218+R218+S218</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B219" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C219" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D216" s="8" t="s">
+      <c r="D219" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E216" s="8">
+      <c r="E219" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
-      <c r="B217" s="35"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="35"/>
-      <c r="B218" s="35"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
-      <c r="B219" s="35"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="5"/>
-      <c r="B220" s="35"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="5"/>
-      <c r="B221" s="35"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="5"/>
-      <c r="B222" s="35"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="35"/>
-      <c r="B223" s="35"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="5"/>
-      <c r="B224" s="35"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="5"/>
-      <c r="B225" s="35"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="5"/>
-      <c r="B226" s="35"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="5"/>
-      <c r="B227" s="35"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="35"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="11"/>
+      <c r="J219" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K219" s="37"/>
+      <c r="L219" s="38"/>
+      <c r="M219" s="38"/>
+      <c r="N219" s="38"/>
+      <c r="O219" s="39"/>
+      <c r="P219" s="38"/>
+      <c r="Q219" s="38"/>
+      <c r="R219" s="38"/>
+      <c r="S219" s="54"/>
+      <c r="T219" s="37">
+        <f>K219+L219+M219+N219+O219+P219+Q219+R219+S219</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B220" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E220" s="8">
+        <v>6</v>
+      </c>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="11"/>
+      <c r="S220" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T220" s="3">
+        <f>SUM(T218:T219)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A221" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B221" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E221" s="8">
+        <v>6</v>
+      </c>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="11"/>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B222" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E222" s="8">
+        <v>7</v>
+      </c>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="55"/>
+      <c r="L222" s="7"/>
+      <c r="M222" s="7"/>
+      <c r="N222" s="7"/>
+      <c r="O222" s="11"/>
+      <c r="P222" s="7"/>
+      <c r="Q222" s="7"/>
+      <c r="R222" s="7"/>
+      <c r="S222" s="11"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B223" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E223" s="8">
+        <v>6</v>
+      </c>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="11"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="7"/>
+      <c r="L223" s="7"/>
+      <c r="M223" s="7"/>
+      <c r="N223" s="7"/>
+      <c r="O223" s="7"/>
+      <c r="P223" s="7"/>
+      <c r="Q223" s="7"/>
+      <c r="R223" s="7"/>
+      <c r="S223" s="7"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B224" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E224" s="8">
+        <v>6</v>
+      </c>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="11"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="55"/>
+      <c r="L224" s="7"/>
+      <c r="M224" s="7"/>
+      <c r="N224" s="7"/>
+      <c r="O224" s="7"/>
+      <c r="P224" s="7"/>
+      <c r="Q224" s="7"/>
+      <c r="R224" s="7"/>
+      <c r="S224" s="7"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B225" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E225" s="8">
+        <v>6</v>
+      </c>
+      <c r="J225" s="11"/>
+      <c r="K225" s="7"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B226" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E226" s="8">
+        <v>4</v>
+      </c>
+      <c r="J226" s="11"/>
+      <c r="K226" s="7"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B227" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E227" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="5"/>
       <c r="B228" s="35"/>
       <c r="C228" s="7"/>
       <c r="D228" s="8"/>
       <c r="E228" s="8"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="5"/>
-      <c r="B229" s="35"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="5"/>
-      <c r="B230" s="35"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="5"/>
-      <c r="B231" s="35"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B229" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E229" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B230" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E230" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B231" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E231" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
       <c r="B232" s="35"/>
       <c r="C232" s="7"/>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="35"/>
-      <c r="B233" s="35"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="5"/>
-      <c r="B234" s="35"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="5"/>
-      <c r="B235" s="35"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="5"/>
-      <c r="B236" s="35"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="5"/>
-      <c r="B237" s="35"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="35"/>
-      <c r="B238" s="35"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="5"/>
-      <c r="B239" s="35"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="5"/>
-      <c r="B240" s="35"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B233" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E233" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B234" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E234" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B235" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E235" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B236" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E236" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B237" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E237" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B238" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E238" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B239" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E239" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B240" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E240" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
@@ -4627,53 +4586,113 @@
       <c r="E241" s="8"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="5"/>
-      <c r="B242" s="35"/>
-      <c r="C242" s="7"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
+      <c r="A242" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B242" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E242" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="35"/>
+      <c r="A243" s="5"/>
       <c r="B243" s="35"/>
       <c r="C243" s="7"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="5"/>
-      <c r="B244" s="35"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
+      <c r="A244" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B244" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E244" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="5"/>
-      <c r="B245" s="35"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
+      <c r="A245" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B245" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E245" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="5"/>
-      <c r="B246" s="35"/>
-      <c r="C246" s="7"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
+      <c r="A246" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B246" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E246" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="5"/>
-      <c r="B247" s="35"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
+      <c r="A247" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B247" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E247" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="35"/>
-      <c r="B248" s="35"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
+      <c r="A248" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B248" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E248" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
@@ -4683,109 +4702,239 @@
       <c r="E249" s="8"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="5"/>
-      <c r="B250" s="35"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
+      <c r="A250" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B250" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E250" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="5"/>
-      <c r="B251" s="35"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
+      <c r="A251" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B251" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E251" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="5"/>
-      <c r="B252" s="35"/>
-      <c r="C252" s="7"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
+      <c r="A252" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B252" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E252" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="35"/>
-      <c r="B253" s="35"/>
-      <c r="C253" s="7"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
+      <c r="A253" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B253" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E253" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="5"/>
-      <c r="B254" s="35"/>
-      <c r="C254" s="7"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
+      <c r="A254" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B254" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E254" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="5"/>
-      <c r="B255" s="35"/>
-      <c r="C255" s="7"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
+      <c r="A255" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B255" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E255" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="5"/>
-      <c r="B256" s="35"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
+      <c r="A256" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B256" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E256" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="5"/>
-      <c r="B257" s="35"/>
-      <c r="C257" s="7"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
+      <c r="A257" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B257" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E257" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="35"/>
-      <c r="B258" s="35"/>
-      <c r="C258" s="7"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
+      <c r="A258" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B258" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E258" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="5"/>
-      <c r="B259" s="35"/>
-      <c r="C259" s="7"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
+      <c r="A259" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B259" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E259" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="5"/>
-      <c r="B260" s="35"/>
-      <c r="C260" s="7"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
+      <c r="A260" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B260" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D260" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E260" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="5"/>
-      <c r="B261" s="35"/>
-      <c r="C261" s="7"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
+      <c r="A261" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B261" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E261" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="5"/>
-      <c r="B262" s="35"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
+      <c r="A262" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B262" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E262" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="35"/>
-      <c r="B263" s="35"/>
-      <c r="C263" s="7"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="5"/>
-      <c r="B264" s="35"/>
-      <c r="C264" s="7"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
@@ -4795,7 +4944,7 @@
       <c r="E265" s="8"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="5"/>
+      <c r="A266" s="35"/>
       <c r="B266" s="35"/>
       <c r="C266" s="7"/>
       <c r="D266" s="8"/>
@@ -4809,9 +4958,9 @@
       <c r="E267" s="8"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="8"/>
-      <c r="B268" s="8"/>
-      <c r="C268" s="57"/>
+      <c r="A268" s="5"/>
+      <c r="B268" s="35"/>
+      <c r="C268" s="7"/>
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
     </row>
@@ -4830,7 +4979,7 @@
       <c r="E270" s="8"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="5"/>
+      <c r="A271" s="35"/>
       <c r="B271" s="35"/>
       <c r="C271" s="7"/>
       <c r="D271" s="8"/>
@@ -4843,247 +4992,224 @@
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="35"/>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="5"/>
       <c r="B273" s="35"/>
       <c r="C273" s="7"/>
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
       <c r="B274" s="35"/>
       <c r="C274" s="7"/>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
       <c r="B275" s="35"/>
       <c r="C275" s="7"/>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="5"/>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="35"/>
       <c r="B276" s="35"/>
       <c r="C276" s="7"/>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
       <c r="B277" s="35"/>
       <c r="C277" s="7"/>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="35"/>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="5"/>
       <c r="B278" s="35"/>
       <c r="C278" s="7"/>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
-      <c r="F278" s="57"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
       <c r="B279" s="35"/>
       <c r="C279" s="7"/>
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
-      <c r="F279" s="57"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
       <c r="B280" s="35"/>
       <c r="C280" s="7"/>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
-      <c r="F280" s="57"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="5"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="35"/>
       <c r="B281" s="35"/>
       <c r="C281" s="7"/>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
-      <c r="F281" s="57"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
       <c r="B282" s="35"/>
       <c r="C282" s="7"/>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
-      <c r="F282" s="57"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="35"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="5"/>
       <c r="B283" s="35"/>
       <c r="C283" s="7"/>
       <c r="D283" s="8"/>
       <c r="E283" s="8"/>
-      <c r="F283" s="57"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
       <c r="B284" s="35"/>
       <c r="C284" s="7"/>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
-      <c r="F284" s="57"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
       <c r="B285" s="35"/>
       <c r="C285" s="7"/>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
-      <c r="F285" s="57"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="5"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="35"/>
       <c r="B286" s="35"/>
       <c r="C286" s="7"/>
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
-      <c r="F286" s="57"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
       <c r="B287" s="35"/>
       <c r="C287" s="7"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
-      <c r="F287" s="57"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="35"/>
       <c r="C288" s="7"/>
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
-      <c r="F288" s="57"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
       <c r="B289" s="35"/>
       <c r="C289" s="7"/>
       <c r="D289" s="8"/>
       <c r="E289" s="8"/>
-      <c r="F289" s="57"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
       <c r="B290" s="35"/>
       <c r="C290" s="7"/>
       <c r="D290" s="8"/>
       <c r="E290" s="8"/>
-      <c r="F290" s="57"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="35"/>
       <c r="B291" s="35"/>
       <c r="C291" s="7"/>
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
-      <c r="F291" s="57"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
       <c r="B292" s="35"/>
       <c r="C292" s="7"/>
       <c r="D292" s="8"/>
       <c r="E292" s="8"/>
-      <c r="F292" s="57"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
       <c r="B293" s="35"/>
       <c r="C293" s="7"/>
       <c r="D293" s="8"/>
       <c r="E293" s="8"/>
-      <c r="F293" s="57"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="35"/>
       <c r="C294" s="7"/>
       <c r="D294" s="8"/>
       <c r="E294" s="8"/>
-      <c r="F294" s="57"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
       <c r="B295" s="35"/>
       <c r="C295" s="7"/>
       <c r="D295" s="8"/>
       <c r="E295" s="8"/>
-      <c r="F295" s="57"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="5"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="35"/>
       <c r="B296" s="35"/>
       <c r="C296" s="7"/>
       <c r="D296" s="8"/>
       <c r="E296" s="8"/>
-      <c r="F296" s="57"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="5"/>
       <c r="B297" s="35"/>
       <c r="C297" s="7"/>
       <c r="D297" s="8"/>
       <c r="E297" s="8"/>
-      <c r="F297" s="57"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
       <c r="B298" s="35"/>
       <c r="C298" s="7"/>
       <c r="D298" s="8"/>
       <c r="E298" s="8"/>
-      <c r="F298" s="57"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
       <c r="B299" s="35"/>
       <c r="C299" s="7"/>
       <c r="D299" s="8"/>
       <c r="E299" s="8"/>
-      <c r="F299" s="57"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="35"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="5"/>
       <c r="B300" s="35"/>
       <c r="C300" s="7"/>
       <c r="D300" s="8"/>
       <c r="E300" s="8"/>
-      <c r="F300" s="57"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="5"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="35"/>
       <c r="B301" s="35"/>
       <c r="C301" s="7"/>
       <c r="D301" s="8"/>
       <c r="E301" s="8"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="5"/>
       <c r="B302" s="35"/>
       <c r="C302" s="7"/>
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
       <c r="B303" s="35"/>
       <c r="C303" s="7"/>
       <c r="D303" s="8"/>
       <c r="E303" s="8"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
       <c r="B304" s="35"/>
       <c r="C304" s="7"/>
@@ -5098,7 +5224,7 @@
       <c r="E305" s="8"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="5"/>
+      <c r="A306" s="35"/>
       <c r="B306" s="35"/>
       <c r="C306" s="7"/>
       <c r="D306" s="8"/>
@@ -5119,7 +5245,7 @@
       <c r="E308" s="8"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="35"/>
+      <c r="A309" s="5"/>
       <c r="B309" s="35"/>
       <c r="C309" s="7"/>
       <c r="D309" s="8"/>
@@ -5133,7 +5259,7 @@
       <c r="E310" s="8"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="5"/>
+      <c r="A311" s="35"/>
       <c r="B311" s="35"/>
       <c r="C311" s="7"/>
       <c r="D311" s="8"/>
@@ -5168,9 +5294,9 @@
       <c r="E315" s="8"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="5"/>
-      <c r="B316" s="35"/>
-      <c r="C316" s="7"/>
+      <c r="A316" s="8"/>
+      <c r="B316" s="8"/>
+      <c r="C316" s="56"/>
       <c r="D316" s="8"/>
       <c r="E316" s="8"/>
     </row>
@@ -5182,7 +5308,7 @@
       <c r="E317" s="8"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="35"/>
+      <c r="A318" s="5"/>
       <c r="B318" s="35"/>
       <c r="C318" s="7"/>
       <c r="D318" s="8"/>
@@ -5202,224 +5328,247 @@
       <c r="D320" s="8"/>
       <c r="E320" s="8"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="5"/>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="35"/>
       <c r="B321" s="35"/>
       <c r="C321" s="7"/>
       <c r="D321" s="8"/>
       <c r="E321" s="8"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="5"/>
       <c r="B322" s="35"/>
       <c r="C322" s="7"/>
       <c r="D322" s="8"/>
       <c r="E322" s="8"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="5"/>
       <c r="B323" s="35"/>
       <c r="C323" s="7"/>
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="5"/>
       <c r="B324" s="35"/>
       <c r="C324" s="7"/>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="5"/>
       <c r="B325" s="35"/>
       <c r="C325" s="7"/>
       <c r="D325" s="8"/>
       <c r="E325" s="8"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="5"/>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="35"/>
       <c r="B326" s="35"/>
       <c r="C326" s="7"/>
       <c r="D326" s="8"/>
       <c r="E326" s="8"/>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="35"/>
+      <c r="F326" s="56"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="5"/>
       <c r="B327" s="35"/>
       <c r="C327" s="7"/>
       <c r="D327" s="8"/>
       <c r="E327" s="8"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327" s="56"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="5"/>
       <c r="B328" s="35"/>
       <c r="C328" s="7"/>
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328" s="56"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="5"/>
       <c r="B329" s="35"/>
       <c r="C329" s="7"/>
       <c r="D329" s="8"/>
       <c r="E329" s="8"/>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329" s="56"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="5"/>
       <c r="B330" s="35"/>
       <c r="C330" s="7"/>
       <c r="D330" s="8"/>
       <c r="E330" s="8"/>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="5"/>
+      <c r="F330" s="56"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="35"/>
       <c r="B331" s="35"/>
       <c r="C331" s="7"/>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331" s="56"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="5"/>
       <c r="B332" s="35"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332" s="56"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="5"/>
       <c r="B333" s="35"/>
       <c r="C333" s="7"/>
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333" s="56"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="5"/>
       <c r="B334" s="35"/>
       <c r="C334" s="7"/>
       <c r="D334" s="8"/>
       <c r="E334" s="8"/>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="56"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="5"/>
       <c r="B335" s="35"/>
       <c r="C335" s="7"/>
       <c r="D335" s="8"/>
       <c r="E335" s="8"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="35"/>
+      <c r="F335" s="56"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="5"/>
       <c r="B336" s="35"/>
       <c r="C336" s="7"/>
       <c r="D336" s="8"/>
       <c r="E336" s="8"/>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336" s="56"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="5"/>
       <c r="B337" s="35"/>
       <c r="C337" s="7"/>
       <c r="D337" s="8"/>
       <c r="E337" s="8"/>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337" s="56"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="5"/>
       <c r="B338" s="35"/>
       <c r="C338" s="7"/>
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="5"/>
+      <c r="F338" s="56"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="35"/>
       <c r="B339" s="35"/>
       <c r="C339" s="7"/>
       <c r="D339" s="8"/>
       <c r="E339" s="8"/>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339" s="56"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
       <c r="B340" s="35"/>
       <c r="C340" s="7"/>
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340" s="56"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
       <c r="B341" s="35"/>
       <c r="C341" s="7"/>
       <c r="D341" s="8"/>
       <c r="E341" s="8"/>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341" s="56"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="35"/>
       <c r="C342" s="7"/>
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342" s="56"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="35"/>
       <c r="C343" s="7"/>
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343" s="56"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="5"/>
       <c r="B344" s="35"/>
       <c r="C344" s="7"/>
       <c r="D344" s="8"/>
       <c r="E344" s="8"/>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="35"/>
+      <c r="F344" s="56"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="5"/>
       <c r="B345" s="35"/>
       <c r="C345" s="7"/>
       <c r="D345" s="8"/>
       <c r="E345" s="8"/>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345" s="56"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="5"/>
       <c r="B346" s="35"/>
       <c r="C346" s="7"/>
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346" s="56"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="5"/>
       <c r="B347" s="35"/>
       <c r="C347" s="7"/>
       <c r="D347" s="8"/>
       <c r="E347" s="8"/>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="5"/>
+      <c r="F347" s="56"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="35"/>
       <c r="B348" s="35"/>
       <c r="C348" s="7"/>
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348" s="56"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="5"/>
       <c r="B349" s="35"/>
       <c r="C349" s="7"/>
       <c r="D349" s="8"/>
       <c r="E349" s="8"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="35"/>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="5"/>
       <c r="B350" s="35"/>
       <c r="C350" s="7"/>
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="5"/>
       <c r="B351" s="35"/>
       <c r="C351" s="7"/>
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="5"/>
       <c r="B352" s="35"/>
       <c r="C352" s="7"/>
@@ -5441,7 +5590,7 @@
       <c r="E354" s="8"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="35"/>
+      <c r="A355" s="5"/>
       <c r="B355" s="35"/>
       <c r="C355" s="7"/>
       <c r="D355" s="8"/>
@@ -5455,7 +5604,7 @@
       <c r="E356" s="8"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="5"/>
+      <c r="A357" s="35"/>
       <c r="B357" s="35"/>
       <c r="C357" s="7"/>
       <c r="D357" s="8"/>
@@ -5476,7 +5625,7 @@
       <c r="E359" s="8"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="35"/>
+      <c r="A360" s="5"/>
       <c r="B360" s="35"/>
       <c r="C360" s="7"/>
       <c r="D360" s="8"/>
@@ -5511,14 +5660,14 @@
       <c r="E364" s="8"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="35"/>
+      <c r="A365" s="5"/>
       <c r="B365" s="35"/>
       <c r="C365" s="7"/>
       <c r="D365" s="8"/>
       <c r="E365" s="8"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="5"/>
+      <c r="A366" s="35"/>
       <c r="B366" s="35"/>
       <c r="C366" s="7"/>
       <c r="D366" s="8"/>
@@ -5546,7 +5695,7 @@
       <c r="E369" s="8"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="35"/>
+      <c r="A370" s="5"/>
       <c r="B370" s="35"/>
       <c r="C370" s="7"/>
       <c r="D370" s="8"/>
@@ -5616,7 +5765,7 @@
       <c r="E379" s="8"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="35"/>
+      <c r="A380" s="5"/>
       <c r="B380" s="35"/>
       <c r="C380" s="7"/>
       <c r="D380" s="8"/>
@@ -5644,14 +5793,14 @@
       <c r="E383" s="8"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="5"/>
+      <c r="A384" s="35"/>
       <c r="B384" s="35"/>
       <c r="C384" s="7"/>
       <c r="D384" s="8"/>
       <c r="E384" s="8"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="35"/>
+      <c r="A385" s="5"/>
       <c r="B385" s="35"/>
       <c r="C385" s="7"/>
       <c r="D385" s="8"/>
@@ -5693,7 +5842,7 @@
       <c r="E390" s="8"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="35"/>
+      <c r="A391" s="5"/>
       <c r="B391" s="35"/>
       <c r="C391" s="7"/>
       <c r="D391" s="8"/>
@@ -5707,7 +5856,7 @@
       <c r="E392" s="8"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="5"/>
+      <c r="A393" s="35"/>
       <c r="B393" s="35"/>
       <c r="C393" s="7"/>
       <c r="D393" s="8"/>
@@ -5728,7 +5877,7 @@
       <c r="E395" s="8"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="35"/>
+      <c r="A396" s="5"/>
       <c r="B396" s="35"/>
       <c r="C396" s="7"/>
       <c r="D396" s="8"/>
@@ -5742,7 +5891,7 @@
       <c r="E397" s="8"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="5"/>
+      <c r="A398" s="35"/>
       <c r="B398" s="35"/>
       <c r="C398" s="7"/>
       <c r="D398" s="8"/>
@@ -5763,7 +5912,7 @@
       <c r="E400" s="8"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="35"/>
+      <c r="A401" s="5"/>
       <c r="B401" s="35"/>
       <c r="C401" s="7"/>
       <c r="D401" s="8"/>
@@ -5777,7 +5926,7 @@
       <c r="E402" s="8"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="5"/>
+      <c r="A403" s="35"/>
       <c r="B403" s="35"/>
       <c r="C403" s="7"/>
       <c r="D403" s="8"/>
@@ -5798,7 +5947,7 @@
       <c r="E405" s="8"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="35"/>
+      <c r="A406" s="5"/>
       <c r="B406" s="35"/>
       <c r="C406" s="7"/>
       <c r="D406" s="8"/>
@@ -5812,7 +5961,7 @@
       <c r="E407" s="8"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="5"/>
+      <c r="A408" s="35"/>
       <c r="B408" s="35"/>
       <c r="C408" s="7"/>
       <c r="D408" s="8"/>
@@ -5833,7 +5982,7 @@
       <c r="E410" s="8"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="35"/>
+      <c r="A411" s="5"/>
       <c r="B411" s="35"/>
       <c r="C411" s="7"/>
       <c r="D411" s="8"/>
@@ -5847,7 +5996,7 @@
       <c r="E412" s="8"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="5"/>
+      <c r="A413" s="35"/>
       <c r="B413" s="35"/>
       <c r="C413" s="7"/>
       <c r="D413" s="8"/>
@@ -5868,7 +6017,7 @@
       <c r="E415" s="8"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="35"/>
+      <c r="A416" s="5"/>
       <c r="B416" s="35"/>
       <c r="C416" s="7"/>
       <c r="D416" s="8"/>
@@ -5882,7 +6031,7 @@
       <c r="E417" s="8"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="5"/>
+      <c r="A418" s="35"/>
       <c r="B418" s="35"/>
       <c r="C418" s="7"/>
       <c r="D418" s="8"/>
@@ -5903,9 +6052,9 @@
       <c r="E420" s="8"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="8"/>
-      <c r="B421" s="8"/>
-      <c r="C421" s="8"/>
+      <c r="A421" s="5"/>
+      <c r="B421" s="35"/>
+      <c r="C421" s="7"/>
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
     </row>
@@ -5917,7 +6066,7 @@
       <c r="E422" s="8"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="5"/>
+      <c r="A423" s="35"/>
       <c r="B423" s="35"/>
       <c r="C423" s="7"/>
       <c r="D423" s="8"/>
@@ -5952,7 +6101,7 @@
       <c r="E427" s="8"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="5"/>
+      <c r="A428" s="35"/>
       <c r="B428" s="35"/>
       <c r="C428" s="7"/>
       <c r="D428" s="8"/>
@@ -5966,7 +6115,7 @@
       <c r="E429" s="8"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="35"/>
+      <c r="A430" s="5"/>
       <c r="B430" s="35"/>
       <c r="C430" s="7"/>
       <c r="D430" s="8"/>
@@ -5987,7 +6136,7 @@
       <c r="E432" s="8"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="5"/>
+      <c r="A433" s="35"/>
       <c r="B433" s="35"/>
       <c r="C433" s="7"/>
       <c r="D433" s="8"/>
@@ -6064,7 +6213,7 @@
       <c r="E443" s="8"/>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="5"/>
+      <c r="A444" s="35"/>
       <c r="B444" s="35"/>
       <c r="C444" s="7"/>
       <c r="D444" s="8"/>
@@ -6092,14 +6241,14 @@
       <c r="E447" s="8"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="35"/>
+      <c r="A448" s="5"/>
       <c r="B448" s="35"/>
       <c r="C448" s="7"/>
       <c r="D448" s="8"/>
       <c r="E448" s="8"/>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="5"/>
+      <c r="A449" s="35"/>
       <c r="B449" s="35"/>
       <c r="C449" s="7"/>
       <c r="D449" s="8"/>
@@ -6134,7 +6283,7 @@
       <c r="E453" s="8"/>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="5"/>
+      <c r="A454" s="35"/>
       <c r="B454" s="35"/>
       <c r="C454" s="7"/>
       <c r="D454" s="8"/>
@@ -6155,7 +6304,7 @@
       <c r="E456" s="8"/>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="35"/>
+      <c r="A457" s="5"/>
       <c r="B457" s="35"/>
       <c r="C457" s="7"/>
       <c r="D457" s="8"/>
@@ -6169,7 +6318,7 @@
       <c r="E458" s="8"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="5"/>
+      <c r="A459" s="35"/>
       <c r="B459" s="35"/>
       <c r="C459" s="7"/>
       <c r="D459" s="8"/>
@@ -6204,7 +6353,7 @@
       <c r="E463" s="8"/>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="5"/>
+      <c r="A464" s="35"/>
       <c r="B464" s="35"/>
       <c r="C464" s="7"/>
       <c r="D464" s="8"/>
@@ -6218,7 +6367,7 @@
       <c r="E465" s="8"/>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="35"/>
+      <c r="A466" s="5"/>
       <c r="B466" s="35"/>
       <c r="C466" s="7"/>
       <c r="D466" s="8"/>
@@ -6239,9 +6388,9 @@
       <c r="E468" s="8"/>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="5"/>
-      <c r="B469" s="35"/>
-      <c r="C469" s="7"/>
+      <c r="A469" s="8"/>
+      <c r="B469" s="8"/>
+      <c r="C469" s="8"/>
       <c r="D469" s="8"/>
       <c r="E469" s="8"/>
     </row>
@@ -6253,7 +6402,7 @@
       <c r="E470" s="8"/>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="35"/>
+      <c r="A471" s="5"/>
       <c r="B471" s="35"/>
       <c r="C471" s="7"/>
       <c r="D471" s="8"/>
@@ -6288,7 +6437,7 @@
       <c r="E475" s="8"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="35"/>
+      <c r="A476" s="5"/>
       <c r="B476" s="35"/>
       <c r="C476" s="7"/>
       <c r="D476" s="8"/>
@@ -6302,7 +6451,7 @@
       <c r="E477" s="8"/>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="5"/>
+      <c r="A478" s="35"/>
       <c r="B478" s="35"/>
       <c r="C478" s="7"/>
       <c r="D478" s="8"/>
@@ -6323,7 +6472,7 @@
       <c r="E480" s="8"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="35"/>
+      <c r="A481" s="5"/>
       <c r="B481" s="35"/>
       <c r="C481" s="7"/>
       <c r="D481" s="8"/>
@@ -6358,14 +6507,14 @@
       <c r="E485" s="8"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="35"/>
+      <c r="A486" s="5"/>
       <c r="B486" s="35"/>
       <c r="C486" s="7"/>
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="5"/>
+      <c r="A487" s="35"/>
       <c r="B487" s="35"/>
       <c r="C487" s="7"/>
       <c r="D487" s="8"/>
@@ -6393,7 +6542,7 @@
       <c r="E490" s="8"/>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="35"/>
+      <c r="A491" s="5"/>
       <c r="B491" s="35"/>
       <c r="C491" s="7"/>
       <c r="D491" s="8"/>
@@ -6463,7 +6612,7 @@
       <c r="E500" s="8"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="35"/>
+      <c r="A501" s="5"/>
       <c r="B501" s="35"/>
       <c r="C501" s="7"/>
       <c r="D501" s="8"/>
@@ -6491,14 +6640,14 @@
       <c r="E504" s="8"/>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="5"/>
+      <c r="A505" s="35"/>
       <c r="B505" s="35"/>
       <c r="C505" s="7"/>
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="35"/>
+      <c r="A506" s="5"/>
       <c r="B506" s="35"/>
       <c r="C506" s="7"/>
       <c r="D506" s="8"/>
@@ -6533,7 +6682,7 @@
       <c r="E510" s="8"/>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" s="35"/>
+      <c r="A511" s="5"/>
       <c r="B511" s="35"/>
       <c r="C511" s="7"/>
       <c r="D511" s="8"/>
@@ -6554,7 +6703,7 @@
       <c r="E513" s="8"/>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" s="5"/>
+      <c r="A514" s="35"/>
       <c r="B514" s="35"/>
       <c r="C514" s="7"/>
       <c r="D514" s="8"/>
@@ -6575,7 +6724,7 @@
       <c r="E516" s="8"/>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="35"/>
+      <c r="A517" s="5"/>
       <c r="B517" s="35"/>
       <c r="C517" s="7"/>
       <c r="D517" s="8"/>
@@ -6589,7 +6738,7 @@
       <c r="E518" s="8"/>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" s="5"/>
+      <c r="A519" s="35"/>
       <c r="B519" s="35"/>
       <c r="C519" s="7"/>
       <c r="D519" s="8"/>
@@ -6610,7 +6759,7 @@
       <c r="E521" s="8"/>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="35"/>
+      <c r="A522" s="5"/>
       <c r="B522" s="35"/>
       <c r="C522" s="7"/>
       <c r="D522" s="8"/>
@@ -6624,7 +6773,7 @@
       <c r="E523" s="8"/>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" s="5"/>
+      <c r="A524" s="35"/>
       <c r="B524" s="35"/>
       <c r="C524" s="7"/>
       <c r="D524" s="8"/>
@@ -6652,14 +6801,14 @@
       <c r="E527" s="8"/>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" s="35"/>
+      <c r="A528" s="5"/>
       <c r="B528" s="35"/>
       <c r="C528" s="7"/>
       <c r="D528" s="8"/>
       <c r="E528" s="8"/>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A529" s="5"/>
+      <c r="A529" s="35"/>
       <c r="B529" s="35"/>
       <c r="C529" s="7"/>
       <c r="D529" s="8"/>
@@ -6694,9 +6843,9 @@
       <c r="E533" s="8"/>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" s="8"/>
-      <c r="B534" s="8"/>
-      <c r="C534" s="8"/>
+      <c r="A534" s="35"/>
+      <c r="B534" s="35"/>
+      <c r="C534" s="7"/>
       <c r="D534" s="8"/>
       <c r="E534" s="8"/>
     </row>
@@ -6890,7 +7039,7 @@
       <c r="E561" s="8"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A562" s="35"/>
+      <c r="A562" s="5"/>
       <c r="B562" s="35"/>
       <c r="C562" s="7"/>
       <c r="D562" s="8"/>
@@ -6932,7 +7081,7 @@
       <c r="E567" s="8"/>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A568" s="35"/>
+      <c r="A568" s="5"/>
       <c r="B568" s="35"/>
       <c r="C568" s="7"/>
       <c r="D568" s="8"/>
@@ -6946,14 +7095,14 @@
       <c r="E569" s="8"/>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A570" s="5"/>
+      <c r="A570" s="35"/>
       <c r="B570" s="35"/>
       <c r="C570" s="7"/>
       <c r="D570" s="8"/>
       <c r="E570" s="8"/>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A571" s="35"/>
+      <c r="A571" s="5"/>
       <c r="B571" s="35"/>
       <c r="C571" s="7"/>
       <c r="D571" s="8"/>
@@ -6974,7 +7123,7 @@
       <c r="E573" s="8"/>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" s="35"/>
+      <c r="A574" s="5"/>
       <c r="B574" s="35"/>
       <c r="C574" s="7"/>
       <c r="D574" s="8"/>
@@ -6988,14 +7137,14 @@
       <c r="E575" s="8"/>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A576" s="5"/>
+      <c r="A576" s="35"/>
       <c r="B576" s="35"/>
       <c r="C576" s="7"/>
       <c r="D576" s="8"/>
       <c r="E576" s="8"/>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A577" s="35"/>
+      <c r="A577" s="5"/>
       <c r="B577" s="35"/>
       <c r="C577" s="7"/>
       <c r="D577" s="8"/>
@@ -7016,7 +7165,7 @@
       <c r="E579" s="8"/>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A580" s="35"/>
+      <c r="A580" s="5"/>
       <c r="B580" s="35"/>
       <c r="C580" s="7"/>
       <c r="D580" s="8"/>
@@ -7030,14 +7179,14 @@
       <c r="E581" s="8"/>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A582" s="5"/>
-      <c r="B582" s="35"/>
-      <c r="C582" s="7"/>
+      <c r="A582" s="8"/>
+      <c r="B582" s="8"/>
+      <c r="C582" s="8"/>
       <c r="D582" s="8"/>
       <c r="E582" s="8"/>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583" s="35"/>
+      <c r="A583" s="5"/>
       <c r="B583" s="35"/>
       <c r="C583" s="7"/>
       <c r="D583" s="8"/>
@@ -7058,14 +7207,14 @@
       <c r="E585" s="8"/>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A586" s="35"/>
+      <c r="A586" s="5"/>
       <c r="B586" s="35"/>
       <c r="C586" s="7"/>
       <c r="D586" s="8"/>
       <c r="E586" s="8"/>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A587" s="5"/>
+      <c r="A587" s="35"/>
       <c r="B587" s="35"/>
       <c r="C587" s="7"/>
       <c r="D587" s="8"/>
@@ -7079,7 +7228,7 @@
       <c r="E588" s="8"/>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A589" s="35"/>
+      <c r="A589" s="5"/>
       <c r="B589" s="35"/>
       <c r="C589" s="7"/>
       <c r="D589" s="8"/>
@@ -7121,7 +7270,7 @@
       <c r="E594" s="8"/>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" s="35"/>
+      <c r="A595" s="5"/>
       <c r="B595" s="35"/>
       <c r="C595" s="7"/>
       <c r="D595" s="8"/>
@@ -7135,14 +7284,14 @@
       <c r="E596" s="8"/>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" s="5"/>
+      <c r="A597" s="35"/>
       <c r="B597" s="35"/>
       <c r="C597" s="7"/>
       <c r="D597" s="8"/>
       <c r="E597" s="8"/>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" s="35"/>
+      <c r="A598" s="5"/>
       <c r="B598" s="35"/>
       <c r="C598" s="7"/>
       <c r="D598" s="8"/>
@@ -7163,21 +7312,21 @@
       <c r="E600" s="8"/>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A601" s="35"/>
+      <c r="A601" s="5"/>
       <c r="B601" s="35"/>
       <c r="C601" s="7"/>
       <c r="D601" s="8"/>
       <c r="E601" s="8"/>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A602" s="5"/>
+      <c r="A602" s="35"/>
       <c r="B602" s="35"/>
       <c r="C602" s="7"/>
       <c r="D602" s="8"/>
       <c r="E602" s="8"/>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603" s="35"/>
+      <c r="A603" s="5"/>
       <c r="B603" s="35"/>
       <c r="C603" s="7"/>
       <c r="D603" s="8"/>
@@ -7191,7 +7340,7 @@
       <c r="E604" s="8"/>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" s="35"/>
+      <c r="A605" s="5"/>
       <c r="B605" s="35"/>
       <c r="C605" s="7"/>
       <c r="D605" s="8"/>
@@ -7247,7 +7396,7 @@
       <c r="E612" s="8"/>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613" s="5"/>
+      <c r="A613" s="35"/>
       <c r="B613" s="35"/>
       <c r="C613" s="7"/>
       <c r="D613" s="8"/>
@@ -7268,7 +7417,7 @@
       <c r="E615" s="8"/>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A616" s="5"/>
+      <c r="A616" s="35"/>
       <c r="B616" s="35"/>
       <c r="C616" s="7"/>
       <c r="D616" s="8"/>
@@ -7289,14 +7438,14 @@
       <c r="E618" s="8"/>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A619" s="5"/>
+      <c r="A619" s="35"/>
       <c r="B619" s="35"/>
       <c r="C619" s="7"/>
       <c r="D619" s="8"/>
       <c r="E619" s="8"/>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A620" s="35"/>
+      <c r="A620" s="5"/>
       <c r="B620" s="35"/>
       <c r="C620" s="7"/>
       <c r="D620" s="8"/>
@@ -7310,7 +7459,7 @@
       <c r="E621" s="8"/>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A622" s="5"/>
+      <c r="A622" s="35"/>
       <c r="B622" s="35"/>
       <c r="C622" s="7"/>
       <c r="D622" s="8"/>
@@ -7330,138 +7479,117 @@
       <c r="D624" s="8"/>
       <c r="E624" s="8"/>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A625" s="5"/>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625" s="35"/>
       <c r="B625" s="35"/>
       <c r="C625" s="7"/>
       <c r="D625" s="8"/>
       <c r="E625" s="8"/>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="5"/>
       <c r="B626" s="35"/>
       <c r="C626" s="7"/>
       <c r="D626" s="8"/>
       <c r="E626" s="8"/>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A627" s="8"/>
-      <c r="B627" s="8"/>
-      <c r="C627" s="57"/>
-      <c r="D627" s="7"/>
-      <c r="E627" s="7"/>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A628" s="5"/>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627" s="5"/>
+      <c r="B627" s="35"/>
+      <c r="C627" s="7"/>
+      <c r="D627" s="8"/>
+      <c r="E627" s="8"/>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A628" s="35"/>
       <c r="B628" s="35"/>
       <c r="C628" s="7"/>
       <c r="D628" s="8"/>
       <c r="E628" s="8"/>
-      <c r="F628" s="3"/>
-      <c r="G628" s="3"/>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="5"/>
       <c r="B629" s="35"/>
       <c r="C629" s="7"/>
       <c r="D629" s="8"/>
       <c r="E629" s="8"/>
-      <c r="F629" s="3"/>
-      <c r="G629" s="3"/>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="5"/>
       <c r="B630" s="35"/>
       <c r="C630" s="7"/>
       <c r="D630" s="8"/>
       <c r="E630" s="8"/>
-      <c r="F630" s="3"/>
-      <c r="G630" s="3"/>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A631" s="5"/>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A631" s="35"/>
       <c r="B631" s="35"/>
       <c r="C631" s="7"/>
       <c r="D631" s="8"/>
       <c r="E631" s="8"/>
-      <c r="F631" s="3"/>
-      <c r="G631" s="3"/>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="5"/>
       <c r="B632" s="35"/>
       <c r="C632" s="7"/>
       <c r="D632" s="8"/>
       <c r="E632" s="8"/>
-      <c r="F632" s="3"/>
-      <c r="G632" s="3"/>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="5"/>
       <c r="B633" s="35"/>
       <c r="C633" s="7"/>
       <c r="D633" s="8"/>
       <c r="E633" s="8"/>
-      <c r="F633" s="3"/>
-      <c r="G633" s="3"/>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A634" s="5"/>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634" s="35"/>
       <c r="B634" s="35"/>
       <c r="C634" s="7"/>
       <c r="D634" s="8"/>
       <c r="E634" s="8"/>
-      <c r="F634" s="3"/>
-      <c r="G634" s="3"/>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="5"/>
       <c r="B635" s="35"/>
       <c r="C635" s="7"/>
       <c r="D635" s="8"/>
       <c r="E635" s="8"/>
-      <c r="F635" s="3"/>
-      <c r="G635" s="3"/>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="5"/>
       <c r="B636" s="35"/>
       <c r="C636" s="7"/>
       <c r="D636" s="8"/>
       <c r="E636" s="8"/>
-      <c r="F636" s="3"/>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="35"/>
       <c r="B637" s="35"/>
       <c r="C637" s="7"/>
       <c r="D637" s="8"/>
       <c r="E637" s="8"/>
-      <c r="F637" s="3"/>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="5"/>
       <c r="B638" s="35"/>
       <c r="C638" s="7"/>
       <c r="D638" s="8"/>
       <c r="E638" s="8"/>
-      <c r="F638" s="3"/>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="5"/>
       <c r="B639" s="35"/>
       <c r="C639" s="7"/>
       <c r="D639" s="8"/>
       <c r="E639" s="8"/>
-      <c r="F639" s="3"/>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A640" s="5"/>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640" s="35"/>
       <c r="B640" s="35"/>
       <c r="C640" s="7"/>
       <c r="D640" s="8"/>
       <c r="E640" s="8"/>
-      <c r="F640" s="3"/>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="5"/>
@@ -7478,7 +7606,7 @@
       <c r="E642" s="8"/>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A643" s="5"/>
+      <c r="A643" s="35"/>
       <c r="B643" s="35"/>
       <c r="C643" s="7"/>
       <c r="D643" s="8"/>
@@ -7499,14 +7627,14 @@
       <c r="E645" s="8"/>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A646" s="5"/>
+      <c r="A646" s="35"/>
       <c r="B646" s="35"/>
       <c r="C646" s="7"/>
       <c r="D646" s="8"/>
       <c r="E646" s="8"/>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A647" s="35"/>
+      <c r="A647" s="5"/>
       <c r="B647" s="35"/>
       <c r="C647" s="7"/>
       <c r="D647" s="8"/>
@@ -7520,7 +7648,7 @@
       <c r="E648" s="8"/>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A649" s="5"/>
+      <c r="A649" s="35"/>
       <c r="B649" s="35"/>
       <c r="C649" s="7"/>
       <c r="D649" s="8"/>
@@ -7534,7 +7662,7 @@
       <c r="E650" s="8"/>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A651" s="5"/>
+      <c r="A651" s="35"/>
       <c r="B651" s="35"/>
       <c r="C651" s="7"/>
       <c r="D651" s="8"/>
@@ -7548,7 +7676,7 @@
       <c r="E652" s="8"/>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A653" s="5"/>
+      <c r="A653" s="35"/>
       <c r="B653" s="35"/>
       <c r="C653" s="7"/>
       <c r="D653" s="8"/>
@@ -7562,7 +7690,7 @@
       <c r="E654" s="8"/>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A655" s="5"/>
+      <c r="A655" s="35"/>
       <c r="B655" s="35"/>
       <c r="C655" s="7"/>
       <c r="D655" s="8"/>
@@ -7583,7 +7711,7 @@
       <c r="E657" s="8"/>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A658" s="5"/>
+      <c r="A658" s="35"/>
       <c r="B658" s="35"/>
       <c r="C658" s="7"/>
       <c r="D658" s="8"/>
@@ -7611,7 +7739,7 @@
       <c r="E661" s="8"/>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A662" s="35"/>
+      <c r="A662" s="5"/>
       <c r="B662" s="35"/>
       <c r="C662" s="7"/>
       <c r="D662" s="8"/>
@@ -7653,24 +7781,381 @@
       <c r="E667" s="8"/>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A668" s="5"/>
+      <c r="A668" s="35"/>
       <c r="B668" s="35"/>
       <c r="C668" s="7"/>
       <c r="D668" s="8"/>
       <c r="E668" s="8"/>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A669" s="35"/>
+      <c r="A669" s="5"/>
       <c r="B669" s="35"/>
       <c r="C669" s="7"/>
       <c r="D669" s="8"/>
       <c r="E669" s="8"/>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="5"/>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670" s="5"/>
+      <c r="B670" s="35"/>
+      <c r="C670" s="7"/>
+      <c r="D670" s="8"/>
+      <c r="E670" s="8"/>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671" s="5"/>
+      <c r="B671" s="35"/>
+      <c r="C671" s="7"/>
+      <c r="D671" s="8"/>
+      <c r="E671" s="8"/>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A672" s="5"/>
+      <c r="B672" s="35"/>
+      <c r="C672" s="7"/>
+      <c r="D672" s="8"/>
+      <c r="E672" s="8"/>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A673" s="5"/>
+      <c r="B673" s="35"/>
+      <c r="C673" s="7"/>
+      <c r="D673" s="8"/>
+      <c r="E673" s="8"/>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A674" s="5"/>
+      <c r="B674" s="35"/>
+      <c r="C674" s="7"/>
+      <c r="D674" s="8"/>
+      <c r="E674" s="8"/>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A675" s="8"/>
+      <c r="B675" s="8"/>
+      <c r="C675" s="56"/>
+      <c r="D675" s="7"/>
+      <c r="E675" s="7"/>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A676" s="5"/>
+      <c r="B676" s="35"/>
+      <c r="C676" s="7"/>
+      <c r="D676" s="8"/>
+      <c r="E676" s="8"/>
+      <c r="F676" s="3"/>
+      <c r="G676" s="3"/>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A677" s="5"/>
+      <c r="B677" s="35"/>
+      <c r="C677" s="7"/>
+      <c r="D677" s="8"/>
+      <c r="E677" s="8"/>
+      <c r="F677" s="3"/>
+      <c r="G677" s="3"/>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A678" s="5"/>
+      <c r="B678" s="35"/>
+      <c r="C678" s="7"/>
+      <c r="D678" s="8"/>
+      <c r="E678" s="8"/>
+      <c r="F678" s="3"/>
+      <c r="G678" s="3"/>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A679" s="5"/>
+      <c r="B679" s="35"/>
+      <c r="C679" s="7"/>
+      <c r="D679" s="8"/>
+      <c r="E679" s="8"/>
+      <c r="F679" s="3"/>
+      <c r="G679" s="3"/>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A680" s="5"/>
+      <c r="B680" s="35"/>
+      <c r="C680" s="7"/>
+      <c r="D680" s="8"/>
+      <c r="E680" s="8"/>
+      <c r="F680" s="3"/>
+      <c r="G680" s="3"/>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A681" s="5"/>
+      <c r="B681" s="35"/>
+      <c r="C681" s="7"/>
+      <c r="D681" s="8"/>
+      <c r="E681" s="8"/>
+      <c r="F681" s="3"/>
+      <c r="G681" s="3"/>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A682" s="5"/>
+      <c r="B682" s="35"/>
+      <c r="C682" s="7"/>
+      <c r="D682" s="8"/>
+      <c r="E682" s="8"/>
+      <c r="F682" s="3"/>
+      <c r="G682" s="3"/>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A683" s="5"/>
+      <c r="B683" s="35"/>
+      <c r="C683" s="7"/>
+      <c r="D683" s="8"/>
+      <c r="E683" s="8"/>
+      <c r="F683" s="3"/>
+      <c r="G683" s="3"/>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A684" s="5"/>
+      <c r="B684" s="35"/>
+      <c r="C684" s="7"/>
+      <c r="D684" s="8"/>
+      <c r="E684" s="8"/>
+      <c r="F684" s="3"/>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A685" s="35"/>
+      <c r="B685" s="35"/>
+      <c r="C685" s="7"/>
+      <c r="D685" s="8"/>
+      <c r="E685" s="8"/>
+      <c r="F685" s="3"/>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A686" s="5"/>
+      <c r="B686" s="35"/>
+      <c r="C686" s="7"/>
+      <c r="D686" s="8"/>
+      <c r="E686" s="8"/>
+      <c r="F686" s="3"/>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A687" s="5"/>
+      <c r="B687" s="35"/>
+      <c r="C687" s="7"/>
+      <c r="D687" s="8"/>
+      <c r="E687" s="8"/>
+      <c r="F687" s="3"/>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A688" s="5"/>
+      <c r="B688" s="35"/>
+      <c r="C688" s="7"/>
+      <c r="D688" s="8"/>
+      <c r="E688" s="8"/>
+      <c r="F688" s="3"/>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689" s="5"/>
+      <c r="B689" s="35"/>
+      <c r="C689" s="7"/>
+      <c r="D689" s="8"/>
+      <c r="E689" s="8"/>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690" s="5"/>
+      <c r="B690" s="35"/>
+      <c r="C690" s="7"/>
+      <c r="D690" s="8"/>
+      <c r="E690" s="8"/>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691" s="5"/>
+      <c r="B691" s="35"/>
+      <c r="C691" s="7"/>
+      <c r="D691" s="8"/>
+      <c r="E691" s="8"/>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692" s="5"/>
+      <c r="B692" s="35"/>
+      <c r="C692" s="7"/>
+      <c r="D692" s="8"/>
+      <c r="E692" s="8"/>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693" s="5"/>
+      <c r="B693" s="35"/>
+      <c r="C693" s="7"/>
+      <c r="D693" s="8"/>
+      <c r="E693" s="8"/>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694" s="5"/>
+      <c r="B694" s="35"/>
+      <c r="C694" s="7"/>
+      <c r="D694" s="8"/>
+      <c r="E694" s="8"/>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695" s="35"/>
+      <c r="B695" s="35"/>
+      <c r="C695" s="7"/>
+      <c r="D695" s="8"/>
+      <c r="E695" s="8"/>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696" s="5"/>
+      <c r="B696" s="35"/>
+      <c r="C696" s="7"/>
+      <c r="D696" s="8"/>
+      <c r="E696" s="8"/>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697" s="5"/>
+      <c r="B697" s="35"/>
+      <c r="C697" s="7"/>
+      <c r="D697" s="8"/>
+      <c r="E697" s="8"/>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" s="5"/>
+      <c r="B698" s="35"/>
+      <c r="C698" s="7"/>
+      <c r="D698" s="8"/>
+      <c r="E698" s="8"/>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699" s="5"/>
+      <c r="B699" s="35"/>
+      <c r="C699" s="7"/>
+      <c r="D699" s="8"/>
+      <c r="E699" s="8"/>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700" s="5"/>
+      <c r="B700" s="35"/>
+      <c r="C700" s="7"/>
+      <c r="D700" s="8"/>
+      <c r="E700" s="8"/>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701" s="5"/>
+      <c r="B701" s="35"/>
+      <c r="C701" s="7"/>
+      <c r="D701" s="8"/>
+      <c r="E701" s="8"/>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702" s="5"/>
+      <c r="B702" s="35"/>
+      <c r="C702" s="7"/>
+      <c r="D702" s="8"/>
+      <c r="E702" s="8"/>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703" s="5"/>
+      <c r="B703" s="35"/>
+      <c r="C703" s="7"/>
+      <c r="D703" s="8"/>
+      <c r="E703" s="8"/>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704" s="5"/>
+      <c r="B704" s="35"/>
+      <c r="C704" s="7"/>
+      <c r="D704" s="8"/>
+      <c r="E704" s="8"/>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705" s="5"/>
+      <c r="B705" s="35"/>
+      <c r="C705" s="7"/>
+      <c r="D705" s="8"/>
+      <c r="E705" s="8"/>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706" s="5"/>
+      <c r="B706" s="35"/>
+      <c r="C706" s="7"/>
+      <c r="D706" s="8"/>
+      <c r="E706" s="8"/>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707" s="5"/>
+      <c r="B707" s="35"/>
+      <c r="C707" s="7"/>
+      <c r="D707" s="8"/>
+      <c r="E707" s="8"/>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708" s="5"/>
+      <c r="B708" s="35"/>
+      <c r="C708" s="7"/>
+      <c r="D708" s="8"/>
+      <c r="E708" s="8"/>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709" s="5"/>
+      <c r="B709" s="35"/>
+      <c r="C709" s="7"/>
+      <c r="D709" s="8"/>
+      <c r="E709" s="8"/>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710" s="35"/>
+      <c r="B710" s="35"/>
+      <c r="C710" s="7"/>
+      <c r="D710" s="8"/>
+      <c r="E710" s="8"/>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711" s="5"/>
+      <c r="B711" s="35"/>
+      <c r="C711" s="7"/>
+      <c r="D711" s="8"/>
+      <c r="E711" s="8"/>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712" s="5"/>
+      <c r="B712" s="35"/>
+      <c r="C712" s="7"/>
+      <c r="D712" s="8"/>
+      <c r="E712" s="8"/>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713" s="5"/>
+      <c r="B713" s="35"/>
+      <c r="C713" s="7"/>
+      <c r="D713" s="8"/>
+      <c r="E713" s="8"/>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714" s="5"/>
+      <c r="B714" s="35"/>
+      <c r="C714" s="7"/>
+      <c r="D714" s="8"/>
+      <c r="E714" s="8"/>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715" s="5"/>
+      <c r="B715" s="35"/>
+      <c r="C715" s="7"/>
+      <c r="D715" s="8"/>
+      <c r="E715" s="8"/>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716" s="5"/>
+      <c r="B716" s="35"/>
+      <c r="C716" s="7"/>
+      <c r="D716" s="8"/>
+      <c r="E716" s="8"/>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717" s="35"/>
+      <c r="B717" s="35"/>
+      <c r="C717" s="7"/>
+      <c r="D717" s="8"/>
+      <c r="E717" s="8"/>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E749"/>
+  <autoFilter ref="A1:E797"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -310,15 +310,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>| PackManager | AbstractPack | StimPack | MedicalPack | AmmoPack | GrenadePack | KeyCards | LootManager | InfoManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">| Movement | CameraControl | Health | SoundManager | HUDManager | AIShipManager | GameManager | SurvivorManager </t>
-  </si>
-  <si>
-    <t xml:space="preserve">| CodeBreaker | ExplodingBarrel | Lights | WeaponManager | AbstractWeapons | MeleeWeapon | Shotgun | Pistol | HarpoonGun </t>
-  </si>
-  <si>
     <t>Environment_AbstractBarrel</t>
   </si>
   <si>
@@ -328,9 +319,6 @@
     <t>Environment_SmokeBarrel</t>
   </si>
   <si>
-    <t>| FlareGun | AssaultRifle | AbstractGrenades | FragGrenades | StunGrenades | SmokeGrenades | AbstractMines | AbstractBarrel</t>
-  </si>
-  <si>
     <t>Game_GameDatabase</t>
   </si>
   <si>
@@ -340,9 +328,6 @@
     <t>Game_GameLoadSave</t>
   </si>
   <si>
-    <t>| NitrogenBarrel | SmokeBarrel | GameDatabase | SaveLoadWriter | GameLoadSave</t>
-  </si>
-  <si>
     <t>Weapon_PulseRifle_5</t>
   </si>
   <si>
@@ -704,13 +689,28 @@
   </si>
   <si>
     <t>Enemy_AIMainFrame_9</t>
+  </si>
+  <si>
+    <t>| NitrogenBarrel | SmokeBarrel | GameDatabase | SaveLoadWriter | GameLoadSave |</t>
+  </si>
+  <si>
+    <t>| FlareGun | AssaultRifle | AbstractGrenades | FragGrenades | StunGrenades | SmokeGrenades | AbstractMines | AbstractBarrel |</t>
+  </si>
+  <si>
+    <t>| CodeBreaker | ExplodingBarrel | Lights | WeaponManager | AbstractWeapons | MeleeWeapon | Shotgun | Pistol | HarpoonGun |</t>
+  </si>
+  <si>
+    <t>| Movement | CameraControl | Health | SoundManager | HUDManager | AIShipManager | GameManager | SurvivorManager |</t>
+  </si>
+  <si>
+    <t>| PackManager | AbstractPack | StimPack | MedicalPack | AmmoPack | GrenadePack | KeyCards | LootManager | InfoManager |</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +748,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1005,7 +1012,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1172,12 +1179,22 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1200,9 +1217,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1240,7 +1257,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1312,7 +1329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1488,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1582,7 @@
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -1589,7 +1606,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="12" t="s">
@@ -1622,7 +1639,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>9</v>
@@ -1646,7 +1663,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="57" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="16"/>
@@ -1661,7 +1678,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>6</v>
@@ -1685,7 +1702,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="21"/>
@@ -1700,7 +1717,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>10</v>
@@ -1724,7 +1741,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="21"/>
@@ -1739,7 +1756,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>15</v>
@@ -1763,7 +1780,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="21"/>
@@ -1778,7 +1795,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>8</v>
@@ -1802,7 +1819,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="31"/>
@@ -1817,7 +1834,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>12</v>
@@ -1841,7 +1858,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="31"/>
@@ -1868,7 +1885,7 @@
         <v>94</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="31"/>
@@ -1905,7 +1922,7 @@
         <v>94</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="31"/>
@@ -1936,8 +1953,12 @@
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>227</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="31"/>
       <c r="L11" s="24"/>
@@ -1970,7 +1991,7 @@
         <v>94</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="31"/>
@@ -2000,8 +2021,12 @@
         <v>10</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="57"/>
+      <c r="H13" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>225</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="31"/>
       <c r="L13" s="24"/>
@@ -2034,7 +2059,7 @@
         <v>94</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="31"/>
@@ -2064,8 +2089,8 @@
         <v>10</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="57"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
       <c r="J15" s="11"/>
       <c r="K15" s="31"/>
       <c r="L15" s="24"/>
@@ -2094,12 +2119,8 @@
         <v>10</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="57" t="s">
-        <v>103</v>
-      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="11"/>
       <c r="K16" s="31"/>
       <c r="L16" s="24"/>
@@ -2116,8 +2137,8 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="57"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="11"/>
       <c r="K17" s="31"/>
       <c r="L17" s="24"/>
@@ -2146,12 +2167,8 @@
         <v>10</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>107</v>
-      </c>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="11"/>
       <c r="K18" s="31"/>
       <c r="L18" s="24"/>
@@ -2180,8 +2197,8 @@
         <v>10</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="57"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="11"/>
       <c r="K19" s="31"/>
       <c r="L19" s="24"/>
@@ -2675,7 +2692,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>5</v>
@@ -2692,7 +2709,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>9</v>
@@ -2709,7 +2726,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>6</v>
@@ -2726,7 +2743,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>10</v>
@@ -2743,7 +2760,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>15</v>
@@ -2760,7 +2777,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>8</v>
@@ -2777,7 +2794,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>12</v>
@@ -2927,7 +2944,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>5</v>
@@ -2944,7 +2961,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>9</v>
@@ -2961,7 +2978,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>6</v>
@@ -2978,7 +2995,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B61" s="26" t="s">
         <v>10</v>
@@ -2995,7 +3012,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B62" s="28" t="s">
         <v>15</v>
@@ -3012,7 +3029,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>8</v>
@@ -3029,7 +3046,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>12</v>
@@ -3059,7 +3076,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>5</v>
@@ -3076,7 +3093,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>9</v>
@@ -3093,7 +3110,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>6</v>
@@ -3110,7 +3127,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>10</v>
@@ -3127,7 +3144,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B71" s="59" t="s">
         <v>7</v>
@@ -3144,7 +3161,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B72" s="28" t="s">
         <v>15</v>
@@ -3161,7 +3178,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>8</v>
@@ -3179,7 +3196,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B74" s="32" t="s">
         <v>12</v>
@@ -3203,7 +3220,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>5</v>
@@ -3220,7 +3237,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>9</v>
@@ -3237,7 +3254,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>6</v>
@@ -3254,7 +3271,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B79" s="26" t="s">
         <v>10</v>
@@ -3271,7 +3288,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B80" s="59" t="s">
         <v>7</v>
@@ -3288,7 +3305,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>15</v>
@@ -3305,7 +3322,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>8</v>
@@ -3322,7 +3339,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B83" s="32" t="s">
         <v>12</v>
@@ -3353,7 +3370,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>5</v>
@@ -3370,7 +3387,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>9</v>
@@ -3387,7 +3404,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B88" s="20" t="s">
         <v>6</v>
@@ -3404,7 +3421,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B89" s="26" t="s">
         <v>10</v>
@@ -3421,7 +3438,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B90" s="59" t="s">
         <v>7</v>
@@ -3438,7 +3455,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B91" s="28" t="s">
         <v>15</v>
@@ -3455,7 +3472,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>8</v>
@@ -3472,7 +3489,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B93" s="32" t="s">
         <v>12</v>
@@ -3496,7 +3513,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>5</v>
@@ -3513,7 +3530,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>9</v>
@@ -3530,7 +3547,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>6</v>
@@ -3547,7 +3564,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B98" s="26" t="s">
         <v>10</v>
@@ -3564,7 +3581,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B99" s="59" t="s">
         <v>7</v>
@@ -3581,7 +3598,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>15</v>
@@ -3598,7 +3615,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>8</v>
@@ -3615,7 +3632,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B102" s="32" t="s">
         <v>12</v>
@@ -3639,7 +3656,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>5</v>
@@ -3656,7 +3673,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>9</v>
@@ -3673,7 +3690,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>6</v>
@@ -3690,7 +3707,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B107" s="26" t="s">
         <v>10</v>
@@ -3707,7 +3724,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B108" s="28" t="s">
         <v>15</v>
@@ -3724,7 +3741,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>8</v>
@@ -3741,7 +3758,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B110" s="32" t="s">
         <v>12</v>
@@ -3765,7 +3782,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>5</v>
@@ -3782,7 +3799,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>9</v>
@@ -3799,7 +3816,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>6</v>
@@ -3816,7 +3833,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B115" s="26" t="s">
         <v>10</v>
@@ -3833,7 +3850,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B116" s="28" t="s">
         <v>15</v>
@@ -3850,7 +3867,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>8</v>
@@ -3867,7 +3884,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B118" s="32" t="s">
         <v>12</v>
@@ -3891,7 +3908,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>5</v>
@@ -3908,7 +3925,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>9</v>
@@ -3925,7 +3942,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>6</v>
@@ -3942,7 +3959,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B123" s="26" t="s">
         <v>10</v>
@@ -3959,7 +3976,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B124" s="28" t="s">
         <v>15</v>
@@ -3976,7 +3993,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>8</v>
@@ -3993,7 +4010,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B126" s="32" t="s">
         <v>12</v>
@@ -4017,7 +4034,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>5</v>
@@ -4034,7 +4051,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B129" s="15" t="s">
         <v>9</v>
@@ -4051,7 +4068,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B130" s="20" t="s">
         <v>6</v>
@@ -4068,7 +4085,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B131" s="26" t="s">
         <v>10</v>
@@ -4085,7 +4102,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B132" s="59" t="s">
         <v>7</v>
@@ -4102,7 +4119,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B133" s="28" t="s">
         <v>15</v>
@@ -4119,7 +4136,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B134" s="30" t="s">
         <v>8</v>
@@ -4136,7 +4153,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B135" s="32" t="s">
         <v>12</v>
@@ -4160,7 +4177,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>5</v>
@@ -4177,7 +4194,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>9</v>
@@ -4194,7 +4211,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B139" s="20" t="s">
         <v>6</v>
@@ -4211,7 +4228,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B140" s="26" t="s">
         <v>10</v>
@@ -4228,7 +4245,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B141" s="59" t="s">
         <v>7</v>
@@ -4245,7 +4262,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B142" s="28" t="s">
         <v>15</v>
@@ -4262,7 +4279,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B143" s="30" t="s">
         <v>8</v>
@@ -4279,7 +4296,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B144" s="32" t="s">
         <v>12</v>
@@ -4303,7 +4320,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>5</v>
@@ -4320,7 +4337,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B147" s="15" t="s">
         <v>9</v>
@@ -4337,7 +4354,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B148" s="20" t="s">
         <v>6</v>
@@ -4354,7 +4371,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B149" s="26" t="s">
         <v>10</v>
@@ -4371,7 +4388,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B150" s="59" t="s">
         <v>7</v>
@@ -4388,7 +4405,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B151" s="28" t="s">
         <v>15</v>
@@ -4405,7 +4422,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B152" s="30" t="s">
         <v>8</v>
@@ -4422,7 +4439,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B153" s="32" t="s">
         <v>12</v>
@@ -4453,7 +4470,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>5</v>
@@ -4470,7 +4487,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B157" s="15" t="s">
         <v>9</v>
@@ -4487,7 +4504,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B158" s="20" t="s">
         <v>6</v>
@@ -4504,7 +4521,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B159" s="26" t="s">
         <v>10</v>
@@ -4528,7 +4545,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>5</v>
@@ -4545,7 +4562,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B162" s="15" t="s">
         <v>9</v>
@@ -4562,7 +4579,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B163" s="20" t="s">
         <v>6</v>
@@ -4579,7 +4596,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B164" s="26" t="s">
         <v>10</v>
@@ -4603,7 +4620,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>5</v>
@@ -4620,7 +4637,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B167" s="15" t="s">
         <v>9</v>
@@ -4637,7 +4654,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B168" s="20" t="s">
         <v>6</v>
@@ -4654,7 +4671,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B169" s="26" t="s">
         <v>10</v>
@@ -4678,7 +4695,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>5</v>
@@ -4695,7 +4712,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B172" s="15" t="s">
         <v>9</v>
@@ -4712,7 +4729,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B173" s="20" t="s">
         <v>6</v>
@@ -4729,7 +4746,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B174" s="26" t="s">
         <v>10</v>
@@ -4753,7 +4770,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>5</v>
@@ -4770,7 +4787,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B177" s="15" t="s">
         <v>9</v>
@@ -4787,7 +4804,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B178" s="20" t="s">
         <v>6</v>
@@ -4804,7 +4821,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B179" s="26" t="s">
         <v>10</v>
@@ -4828,7 +4845,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>5</v>
@@ -4845,7 +4862,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B182" s="15" t="s">
         <v>9</v>
@@ -4862,7 +4879,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B183" s="20" t="s">
         <v>6</v>
@@ -4879,7 +4896,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B184" s="26" t="s">
         <v>10</v>
@@ -4903,7 +4920,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>5</v>
@@ -4920,7 +4937,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B187" s="15" t="s">
         <v>9</v>
@@ -4937,7 +4954,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B188" s="20" t="s">
         <v>6</v>
@@ -4954,7 +4971,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B189" s="26" t="s">
         <v>10</v>
@@ -4978,7 +4995,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>5</v>
@@ -4995,7 +5012,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B192" s="15" t="s">
         <v>9</v>
@@ -5012,7 +5029,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B193" s="20" t="s">
         <v>6</v>
@@ -5029,7 +5046,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B194" s="26" t="s">
         <v>10</v>
@@ -5053,7 +5070,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>5</v>
@@ -5070,7 +5087,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B197" s="15" t="s">
         <v>9</v>
@@ -5087,7 +5104,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B198" s="20" t="s">
         <v>6</v>
@@ -5104,7 +5121,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B199" s="26" t="s">
         <v>10</v>
@@ -5128,7 +5145,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>5</v>
@@ -5145,7 +5162,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B202" s="15" t="s">
         <v>9</v>
@@ -5162,7 +5179,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B203" s="20" t="s">
         <v>6</v>
@@ -5179,7 +5196,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B204" s="26" t="s">
         <v>10</v>
@@ -5203,7 +5220,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>5</v>
@@ -5220,7 +5237,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B207" s="15" t="s">
         <v>9</v>
@@ -5237,7 +5254,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B208" s="20" t="s">
         <v>6</v>
@@ -5254,7 +5271,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B209" s="26" t="s">
         <v>10</v>
@@ -5278,7 +5295,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>5</v>
@@ -5295,7 +5312,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B212" s="15" t="s">
         <v>9</v>
@@ -5312,7 +5329,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B213" s="20" t="s">
         <v>6</v>
@@ -5329,7 +5346,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B214" s="26" t="s">
         <v>10</v>
@@ -5353,7 +5370,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>5</v>
@@ -5370,7 +5387,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B217" s="15" t="s">
         <v>9</v>
@@ -5387,7 +5404,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B218" s="20" t="s">
         <v>6</v>
@@ -5404,7 +5421,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B219" s="26" t="s">
         <v>10</v>
@@ -5428,7 +5445,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>5</v>
@@ -5445,7 +5462,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B222" s="15" t="s">
         <v>9</v>
@@ -5462,7 +5479,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B223" s="20" t="s">
         <v>6</v>
@@ -5479,7 +5496,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B224" s="26" t="s">
         <v>10</v>
@@ -5503,7 +5520,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>5</v>
@@ -5520,7 +5537,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B227" s="15" t="s">
         <v>9</v>
@@ -5537,7 +5554,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B228" s="20" t="s">
         <v>6</v>
@@ -5554,7 +5571,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B229" s="26" t="s">
         <v>10</v>
@@ -5578,7 +5595,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>5</v>
@@ -5595,7 +5612,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B232" s="15" t="s">
         <v>9</v>
@@ -5612,7 +5629,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B233" s="20" t="s">
         <v>6</v>
@@ -5629,7 +5646,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B234" s="26" t="s">
         <v>10</v>
@@ -5653,7 +5670,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>5</v>
@@ -5670,7 +5687,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B237" s="15" t="s">
         <v>9</v>
@@ -5687,7 +5704,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B238" s="20" t="s">
         <v>6</v>
@@ -5704,7 +5721,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B239" s="26" t="s">
         <v>10</v>
@@ -5728,7 +5745,7 @@
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>5</v>
@@ -5745,7 +5762,7 @@
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B242" s="15" t="s">
         <v>9</v>
@@ -5762,7 +5779,7 @@
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B243" s="20" t="s">
         <v>6</v>
@@ -5779,7 +5796,7 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B244" s="26" t="s">
         <v>10</v>
@@ -5803,7 +5820,7 @@
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>5</v>
@@ -5820,7 +5837,7 @@
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B247" s="15" t="s">
         <v>9</v>
@@ -5837,7 +5854,7 @@
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B248" s="20" t="s">
         <v>6</v>
@@ -5854,7 +5871,7 @@
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B249" s="26" t="s">
         <v>10</v>
@@ -5887,7 +5904,7 @@
     </row>
     <row r="251" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>5</v>
@@ -5908,7 +5925,7 @@
     </row>
     <row r="252" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B252" s="15" t="s">
         <v>9</v>
@@ -5956,7 +5973,7 @@
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B253" s="20" t="s">
         <v>6</v>
@@ -5985,7 +6002,7 @@
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B254" s="26" t="s">
         <v>10</v>
@@ -6032,7 +6049,7 @@
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>5</v>
@@ -6059,7 +6076,7 @@
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B257" s="15" t="s">
         <v>9</v>
@@ -6086,7 +6103,7 @@
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B258" s="20" t="s">
         <v>6</v>
@@ -6113,7 +6130,7 @@
     </row>
     <row r="259" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B259" s="26" t="s">
         <v>10</v>
@@ -6164,7 +6181,7 @@
     </row>
     <row r="261" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>5</v>
@@ -6200,7 +6217,7 @@
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B262" s="15" t="s">
         <v>9</v>
@@ -6227,7 +6244,7 @@
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B263" s="20" t="s">
         <v>6</v>
@@ -6247,7 +6264,7 @@
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B264" s="26" t="s">
         <v>10</v>
@@ -6295,7 +6312,7 @@
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>5</v>
@@ -6325,7 +6342,7 @@
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B267" s="15" t="s">
         <v>9</v>
@@ -6344,7 +6361,7 @@
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B268" s="20" t="s">
         <v>6</v>
@@ -6363,7 +6380,7 @@
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B269" s="26" t="s">
         <v>10</v>
@@ -6385,7 +6402,7 @@
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>5</v>
@@ -6402,7 +6419,7 @@
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B272" s="15" t="s">
         <v>9</v>
@@ -6419,7 +6436,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B273" s="20" t="s">
         <v>6</v>
@@ -6436,7 +6453,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B274" s="26" t="s">
         <v>10</v>
@@ -6458,7 +6475,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>5</v>
@@ -6475,7 +6492,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B277" s="15" t="s">
         <v>9</v>
@@ -6492,7 +6509,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B278" s="20" t="s">
         <v>6</v>
@@ -6509,7 +6526,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B279" s="26" t="s">
         <v>10</v>
@@ -6531,7 +6548,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>5</v>
@@ -6548,7 +6565,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B282" s="15" t="s">
         <v>9</v>
@@ -6565,7 +6582,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B283" s="20" t="s">
         <v>6</v>
@@ -6582,7 +6599,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B284" s="26" t="s">
         <v>10</v>
@@ -6604,7 +6621,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>5</v>
@@ -6621,7 +6638,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B287" s="15" t="s">
         <v>9</v>
@@ -6638,7 +6655,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B288" s="20" t="s">
         <v>6</v>
@@ -6655,7 +6672,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B289" s="26" t="s">
         <v>10</v>
@@ -6677,7 +6694,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>5</v>
@@ -6694,7 +6711,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B292" s="15" t="s">
         <v>9</v>
@@ -6711,7 +6728,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B293" s="20" t="s">
         <v>6</v>
@@ -6728,7 +6745,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B294" s="26" t="s">
         <v>10</v>
@@ -6750,7 +6767,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>5</v>
@@ -6767,7 +6784,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B297" s="15" t="s">
         <v>9</v>
@@ -6784,7 +6801,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B298" s="20" t="s">
         <v>6</v>
@@ -6801,7 +6818,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B299" s="26" t="s">
         <v>10</v>
@@ -6823,7 +6840,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>5</v>
@@ -6840,7 +6857,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B302" s="15" t="s">
         <v>9</v>
@@ -6857,7 +6874,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B303" s="20" t="s">
         <v>6</v>
@@ -6874,7 +6891,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B304" s="26" t="s">
         <v>10</v>
@@ -6896,7 +6913,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>5</v>
@@ -6913,7 +6930,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B307" s="15" t="s">
         <v>9</v>
@@ -6930,7 +6947,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B308" s="20" t="s">
         <v>6</v>
@@ -6947,7 +6964,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B309" s="26" t="s">
         <v>10</v>
@@ -6969,7 +6986,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>5</v>
@@ -6986,7 +7003,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B312" s="15" t="s">
         <v>9</v>
@@ -7003,7 +7020,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B313" s="20" t="s">
         <v>6</v>
@@ -7020,7 +7037,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B314" s="26" t="s">
         <v>10</v>
@@ -7044,7 +7061,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>5</v>
@@ -7061,7 +7078,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B317" s="15" t="s">
         <v>9</v>
@@ -7078,7 +7095,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B318" s="20" t="s">
         <v>6</v>
@@ -7095,7 +7112,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B319" s="26" t="s">
         <v>10</v>
@@ -7119,7 +7136,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>5</v>
@@ -7136,7 +7153,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B322" s="15" t="s">
         <v>9</v>
@@ -7153,7 +7170,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B323" s="20" t="s">
         <v>6</v>
@@ -7170,7 +7187,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B324" s="26" t="s">
         <v>10</v>
@@ -7194,7 +7211,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>5</v>
@@ -7211,7 +7228,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B327" s="15" t="s">
         <v>9</v>
@@ -7228,7 +7245,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B328" s="20" t="s">
         <v>6</v>
@@ -7245,7 +7262,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B329" s="26" t="s">
         <v>10</v>
@@ -7269,7 +7286,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>5</v>
@@ -7286,7 +7303,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B332" s="15" t="s">
         <v>9</v>
@@ -7303,7 +7320,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B333" s="20" t="s">
         <v>6</v>
@@ -7320,7 +7337,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B334" s="26" t="s">
         <v>10</v>
@@ -7351,7 +7368,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>5</v>
@@ -7368,7 +7385,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B338" s="15" t="s">
         <v>9</v>
@@ -7385,7 +7402,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B339" s="20" t="s">
         <v>6</v>
@@ -7402,7 +7419,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B340" s="26" t="s">
         <v>10</v>
@@ -7419,7 +7436,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B341" s="28" t="s">
         <v>15</v>
@@ -7436,7 +7453,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B342" s="30" t="s">
         <v>8</v>
@@ -7453,7 +7470,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B343" s="32" t="s">
         <v>12</v>
@@ -7477,7 +7494,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B345" s="6" t="s">
         <v>5</v>
@@ -7494,7 +7511,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B346" s="15" t="s">
         <v>9</v>
@@ -7511,7 +7528,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B347" s="20" t="s">
         <v>6</v>
@@ -7528,7 +7545,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B348" s="26" t="s">
         <v>10</v>
@@ -7545,7 +7562,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B349" s="28" t="s">
         <v>15</v>
@@ -7562,7 +7579,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B350" s="30" t="s">
         <v>8</v>
@@ -7579,7 +7596,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B351" s="32" t="s">
         <v>12</v>
@@ -7603,7 +7620,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>5</v>
@@ -7620,7 +7637,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B354" s="15" t="s">
         <v>9</v>
@@ -7637,7 +7654,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B355" s="20" t="s">
         <v>6</v>
@@ -7654,7 +7671,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B356" s="26" t="s">
         <v>10</v>
@@ -7671,7 +7688,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B357" s="28" t="s">
         <v>15</v>
@@ -7688,7 +7705,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B358" s="30" t="s">
         <v>8</v>
@@ -7705,7 +7722,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B359" s="32" t="s">
         <v>12</v>
@@ -7729,7 +7746,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>5</v>
@@ -7746,7 +7763,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B362" s="15" t="s">
         <v>9</v>
@@ -7763,7 +7780,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B363" s="20" t="s">
         <v>6</v>
@@ -7780,7 +7797,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B364" s="26" t="s">
         <v>10</v>
@@ -7797,7 +7814,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B365" s="28" t="s">
         <v>15</v>
@@ -7814,7 +7831,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B366" s="30" t="s">
         <v>8</v>
@@ -7831,7 +7848,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B367" s="32" t="s">
         <v>12</v>
@@ -7856,7 +7873,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B369" s="6" t="s">
         <v>5</v>
@@ -7874,7 +7891,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B370" s="15" t="s">
         <v>9</v>
@@ -7892,7 +7909,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B371" s="20" t="s">
         <v>6</v>
@@ -7910,7 +7927,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B372" s="26" t="s">
         <v>10</v>
@@ -7928,7 +7945,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B373" s="28" t="s">
         <v>15</v>
@@ -7946,7 +7963,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B374" s="30" t="s">
         <v>8</v>
@@ -7964,7 +7981,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B375" s="32" t="s">
         <v>12</v>
@@ -7990,7 +8007,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="35" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>5</v>
@@ -8008,7 +8025,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="35" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B378" s="15" t="s">
         <v>9</v>
@@ -8026,7 +8043,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="35" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B379" s="20" t="s">
         <v>6</v>
@@ -8044,7 +8061,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="35" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B380" s="26" t="s">
         <v>10</v>
@@ -8062,7 +8079,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="35" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B381" s="28" t="s">
         <v>15</v>
@@ -8080,7 +8097,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="35" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B382" s="30" t="s">
         <v>8</v>
@@ -8098,7 +8115,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="35" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B383" s="32" t="s">
         <v>12</v>
@@ -8124,7 +8141,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B385" s="6" t="s">
         <v>5</v>
@@ -8142,7 +8159,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B386" s="15" t="s">
         <v>9</v>
@@ -8160,7 +8177,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B387" s="20" t="s">
         <v>6</v>
@@ -8178,7 +8195,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B388" s="26" t="s">
         <v>10</v>
@@ -8196,7 +8213,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B389" s="28" t="s">
         <v>15</v>
@@ -8214,7 +8231,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B390" s="30" t="s">
         <v>8</v>
@@ -8232,7 +8249,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B391" s="32" t="s">
         <v>12</v>
@@ -8256,7 +8273,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>5</v>
@@ -8273,7 +8290,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B394" s="15" t="s">
         <v>9</v>
@@ -8290,7 +8307,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B395" s="20" t="s">
         <v>6</v>
@@ -8307,7 +8324,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B396" s="26" t="s">
         <v>10</v>
@@ -8324,7 +8341,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B397" s="28" t="s">
         <v>15</v>
@@ -8341,7 +8358,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B398" s="30" t="s">
         <v>8</v>
@@ -8358,7 +8375,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B399" s="32" t="s">
         <v>12</v>
@@ -8382,7 +8399,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B401" s="6" t="s">
         <v>5</v>
@@ -8399,7 +8416,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B402" s="15" t="s">
         <v>9</v>
@@ -8416,7 +8433,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B403" s="20" t="s">
         <v>6</v>
@@ -8433,7 +8450,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B404" s="26" t="s">
         <v>10</v>
@@ -8450,7 +8467,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B405" s="28" t="s">
         <v>15</v>
@@ -8467,7 +8484,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B406" s="30" t="s">
         <v>8</v>
@@ -8484,7 +8501,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B407" s="32" t="s">
         <v>12</v>
@@ -8515,7 +8532,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B410" s="6" t="s">
         <v>5</v>
@@ -8532,7 +8549,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B411" s="15" t="s">
         <v>9</v>
@@ -8549,7 +8566,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B412" s="20" t="s">
         <v>6</v>
@@ -8566,7 +8583,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B413" s="26" t="s">
         <v>10</v>
@@ -8590,7 +8607,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="35" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B415" s="6" t="s">
         <v>5</v>
@@ -8607,7 +8624,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="35" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B416" s="15" t="s">
         <v>9</v>
@@ -8624,7 +8641,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="35" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B417" s="20" t="s">
         <v>6</v>
@@ -8641,7 +8658,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="35" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B418" s="26" t="s">
         <v>10</v>
@@ -8665,7 +8682,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B420" s="6" t="s">
         <v>5</v>
@@ -8682,7 +8699,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B421" s="15" t="s">
         <v>9</v>
@@ -8699,7 +8716,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B422" s="20" t="s">
         <v>6</v>
@@ -8716,7 +8733,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B423" s="26" t="s">
         <v>10</v>
@@ -8740,7 +8757,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B425" s="6" t="s">
         <v>5</v>
@@ -8757,7 +8774,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B426" s="15" t="s">
         <v>9</v>
@@ -8774,7 +8791,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B427" s="20" t="s">
         <v>6</v>
@@ -8791,7 +8808,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B428" s="26" t="s">
         <v>10</v>
@@ -8815,7 +8832,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B430" s="6" t="s">
         <v>5</v>
@@ -8832,7 +8849,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B431" s="15" t="s">
         <v>9</v>
@@ -8849,7 +8866,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B432" s="20" t="s">
         <v>6</v>
@@ -8866,7 +8883,7 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B433" s="26" t="s">
         <v>10</v>
@@ -8890,7 +8907,7 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B435" s="6" t="s">
         <v>5</v>
@@ -8907,7 +8924,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B436" s="15" t="s">
         <v>9</v>
@@ -8924,7 +8941,7 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B437" s="20" t="s">
         <v>6</v>
@@ -8941,7 +8958,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B438" s="26" t="s">
         <v>10</v>
@@ -8965,7 +8982,7 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="35" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B440" s="6" t="s">
         <v>5</v>
@@ -8982,7 +8999,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="35" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B441" s="15" t="s">
         <v>9</v>
@@ -8999,7 +9016,7 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="35" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B442" s="20" t="s">
         <v>6</v>
@@ -9016,7 +9033,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="35" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B443" s="26" t="s">
         <v>10</v>
@@ -9040,7 +9057,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B445" s="6" t="s">
         <v>5</v>
@@ -9057,7 +9074,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B446" s="15" t="s">
         <v>9</v>
@@ -9074,7 +9091,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B447" s="20" t="s">
         <v>6</v>
@@ -9091,7 +9108,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B448" s="26" t="s">
         <v>10</v>
@@ -9115,7 +9132,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B450" s="6" t="s">
         <v>5</v>
@@ -9132,7 +9149,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B451" s="15" t="s">
         <v>9</v>
@@ -9149,7 +9166,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B452" s="20" t="s">
         <v>6</v>
@@ -9166,7 +9183,7 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B453" s="26" t="s">
         <v>10</v>
@@ -9190,7 +9207,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B455" s="6" t="s">
         <v>5</v>
@@ -9207,7 +9224,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B456" s="15" t="s">
         <v>9</v>
@@ -9224,7 +9241,7 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B457" s="20" t="s">
         <v>6</v>
@@ -9241,7 +9258,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B458" s="26" t="s">
         <v>10</v>
@@ -9265,7 +9282,7 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B460" s="6" t="s">
         <v>5</v>
@@ -9282,7 +9299,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B461" s="15" t="s">
         <v>9</v>
@@ -9299,7 +9316,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B462" s="20" t="s">
         <v>6</v>
@@ -9316,7 +9333,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B463" s="26" t="s">
         <v>10</v>
@@ -9340,7 +9357,7 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B465" s="6" t="s">
         <v>5</v>
@@ -9357,7 +9374,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B466" s="15" t="s">
         <v>9</v>
@@ -9374,7 +9391,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B467" s="20" t="s">
         <v>6</v>
@@ -9391,7 +9408,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B468" s="26" t="s">
         <v>10</v>
@@ -9415,7 +9432,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B470" s="6" t="s">
         <v>5</v>
@@ -9432,7 +9449,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B471" s="15" t="s">
         <v>9</v>
@@ -9449,7 +9466,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B472" s="20" t="s">
         <v>6</v>
@@ -9466,7 +9483,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B473" s="26" t="s">
         <v>10</v>
@@ -9490,7 +9507,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B475" s="6" t="s">
         <v>5</v>
@@ -9507,7 +9524,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B476" s="15" t="s">
         <v>9</v>
@@ -9524,7 +9541,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B477" s="20" t="s">
         <v>6</v>
@@ -9541,7 +9558,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B478" s="26" t="s">
         <v>10</v>
@@ -9565,7 +9582,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>5</v>
@@ -9582,7 +9599,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B481" s="15" t="s">
         <v>9</v>
@@ -9599,7 +9616,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B482" s="20" t="s">
         <v>6</v>
@@ -9616,7 +9633,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B483" s="26" t="s">
         <v>10</v>
@@ -9640,7 +9657,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B485" s="6" t="s">
         <v>5</v>
@@ -9657,7 +9674,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B486" s="15" t="s">
         <v>9</v>
@@ -9674,7 +9691,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B487" s="20" t="s">
         <v>6</v>
@@ -9691,7 +9708,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B488" s="26" t="s">
         <v>10</v>
@@ -9715,7 +9732,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B490" s="6" t="s">
         <v>5</v>
@@ -9732,7 +9749,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B491" s="15" t="s">
         <v>9</v>
@@ -9749,7 +9766,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B492" s="20" t="s">
         <v>6</v>
@@ -9766,7 +9783,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B493" s="26" t="s">
         <v>10</v>
@@ -9790,7 +9807,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B495" s="6" t="s">
         <v>5</v>
@@ -9807,7 +9824,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B496" s="15" t="s">
         <v>9</v>
@@ -9824,7 +9841,7 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B497" s="20" t="s">
         <v>6</v>
@@ -9841,7 +9858,7 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B498" s="26" t="s">
         <v>10</v>
@@ -9865,7 +9882,7 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B500" s="6" t="s">
         <v>5</v>
@@ -9882,7 +9899,7 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B501" s="15" t="s">
         <v>9</v>
@@ -9899,7 +9916,7 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B502" s="20" t="s">
         <v>6</v>
@@ -9916,7 +9933,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B503" s="26" t="s">
         <v>10</v>
@@ -9940,7 +9957,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="35" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B505" s="6" t="s">
         <v>5</v>
@@ -9957,7 +9974,7 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="35" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B506" s="15" t="s">
         <v>9</v>
@@ -9974,7 +9991,7 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="35" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B507" s="20" t="s">
         <v>6</v>
@@ -9991,7 +10008,7 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="35" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B508" s="26" t="s">
         <v>10</v>
@@ -10022,7 +10039,7 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B511" s="6" t="s">
         <v>5</v>
@@ -10039,7 +10056,7 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B512" s="26" t="s">
         <v>10</v>
@@ -10063,7 +10080,7 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B514" s="6" t="s">
         <v>5</v>
@@ -10080,7 +10097,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B515" s="26" t="s">
         <v>10</v>
@@ -10104,7 +10121,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B517" s="6" t="s">
         <v>5</v>
@@ -10121,7 +10138,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B518" s="26" t="s">
         <v>10</v>
@@ -10145,7 +10162,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B520" s="6" t="s">
         <v>5</v>
@@ -10162,7 +10179,7 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B521" s="26" t="s">
         <v>10</v>
@@ -10186,7 +10203,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B523" s="6" t="s">
         <v>5</v>
@@ -10203,7 +10220,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B524" s="26" t="s">
         <v>10</v>
@@ -10227,7 +10244,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B526" s="6" t="s">
         <v>5</v>
@@ -10244,7 +10261,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B527" s="26" t="s">
         <v>10</v>
@@ -10268,7 +10285,7 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B529" s="6" t="s">
         <v>5</v>
@@ -10285,7 +10302,7 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B530" s="26" t="s">
         <v>10</v>
@@ -10309,7 +10326,7 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B532" s="6" t="s">
         <v>5</v>
@@ -10326,7 +10343,7 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B533" s="26" t="s">
         <v>10</v>
@@ -10350,7 +10367,7 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B535" s="6" t="s">
         <v>5</v>
@@ -10367,7 +10384,7 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B536" s="26" t="s">
         <v>10</v>
@@ -10391,7 +10408,7 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B538" s="6" t="s">
         <v>5</v>
@@ -10408,7 +10425,7 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B539" s="26" t="s">
         <v>10</v>
@@ -10432,7 +10449,7 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B541" s="6" t="s">
         <v>5</v>
@@ -10449,7 +10466,7 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B542" s="26" t="s">
         <v>10</v>
@@ -10473,7 +10490,7 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B544" s="6" t="s">
         <v>5</v>
@@ -10490,7 +10507,7 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B545" s="26" t="s">
         <v>10</v>
@@ -10514,7 +10531,7 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="35" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B547" s="6" t="s">
         <v>5</v>
@@ -10531,7 +10548,7 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="35" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B548" s="26" t="s">
         <v>10</v>
@@ -10555,7 +10572,7 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B550" s="6" t="s">
         <v>5</v>
@@ -10572,7 +10589,7 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B551" s="26" t="s">
         <v>10</v>
@@ -10596,7 +10613,7 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B553" s="6" t="s">
         <v>5</v>
@@ -10613,7 +10630,7 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B554" s="26" t="s">
         <v>10</v>
@@ -10637,7 +10654,7 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="35" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B556" s="6" t="s">
         <v>5</v>
@@ -10654,7 +10671,7 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="35" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B557" s="26" t="s">
         <v>10</v>
@@ -10678,7 +10695,7 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B559" s="6" t="s">
         <v>5</v>
@@ -10695,7 +10712,7 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B560" s="26" t="s">
         <v>10</v>
@@ -10719,7 +10736,7 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B562" s="6" t="s">
         <v>5</v>
@@ -10736,7 +10753,7 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B563" s="26" t="s">
         <v>10</v>
@@ -10760,7 +10777,7 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B565" s="6" t="s">
         <v>5</v>
@@ -10777,7 +10794,7 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B566" s="26" t="s">
         <v>10</v>
@@ -10801,7 +10818,7 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B568" s="6" t="s">
         <v>5</v>
@@ -10818,7 +10835,7 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B569" s="26" t="s">
         <v>10</v>
@@ -10842,7 +10859,7 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="35" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B571" s="6" t="s">
         <v>5</v>
@@ -10859,7 +10876,7 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="35" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B572" s="26" t="s">
         <v>10</v>
@@ -10883,7 +10900,7 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="35" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B574" s="6" t="s">
         <v>5</v>
@@ -10900,7 +10917,7 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="35" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B575" s="26" t="s">
         <v>10</v>
@@ -10924,7 +10941,7 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B577" s="6" t="s">
         <v>5</v>
@@ -10941,7 +10958,7 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B578" s="26" t="s">
         <v>10</v>
@@ -10965,7 +10982,7 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B580" s="6" t="s">
         <v>5</v>
@@ -10982,7 +10999,7 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B581" s="26" t="s">
         <v>10</v>
@@ -11006,7 +11023,7 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B583" s="6" t="s">
         <v>5</v>
@@ -11023,7 +11040,7 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B584" s="26" t="s">
         <v>10</v>
@@ -11047,7 +11064,7 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B586" s="6" t="s">
         <v>5</v>
@@ -11064,7 +11081,7 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B587" s="26" t="s">
         <v>10</v>
@@ -11088,7 +11105,7 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B589" s="6" t="s">
         <v>5</v>
@@ -11105,7 +11122,7 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B590" s="26" t="s">
         <v>10</v>
@@ -11129,7 +11146,7 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B592" s="6" t="s">
         <v>5</v>
@@ -11146,7 +11163,7 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B593" s="26" t="s">
         <v>10</v>
@@ -11688,7 +11705,7 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B629" s="33" t="s">
         <v>11</v>
@@ -11705,7 +11722,7 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B630" s="33" t="s">
         <v>11</v>
@@ -11722,7 +11739,7 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B631" s="33" t="s">
         <v>11</v>
@@ -11770,7 +11787,7 @@
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B635" s="33" t="s">
         <v>11</v>
@@ -11804,7 +11821,7 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B637" s="33" t="s">
         <v>11</v>
@@ -11821,7 +11838,7 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B638" s="33" t="s">
         <v>11</v>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2102,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,7 +2116,7 @@
     <col min="6" max="6" width="16.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="156.7109375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="166.5703125" style="46" customWidth="1"/>
     <col min="10" max="10" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -3187,36 +3187,15 @@
         <v>10</v>
       </c>
       <c r="G23" s="9"/>
-      <c r="J23" s="10">
-        <v>2363</v>
-      </c>
-      <c r="K23" s="35">
-        <v>263</v>
-      </c>
-      <c r="L23" s="35">
-        <v>263</v>
-      </c>
-      <c r="M23" s="35">
-        <v>261</v>
-      </c>
-      <c r="N23" s="35">
-        <v>259</v>
-      </c>
-      <c r="O23" s="35">
-        <v>256</v>
-      </c>
-      <c r="P23" s="35">
-        <v>260</v>
-      </c>
-      <c r="Q23" s="35">
-        <v>262</v>
-      </c>
-      <c r="R23" s="35">
-        <v>264</v>
-      </c>
-      <c r="S23" s="3">
-        <v>264</v>
-      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
       <c r="T23" s="73">
         <f>T20+T21+T22</f>
         <v>0</v>
@@ -3699,36 +3678,10 @@
       <c r="E36" s="8">
         <v>10</v>
       </c>
-      <c r="J36" s="10">
-        <v>2330</v>
-      </c>
-      <c r="K36" s="35">
-        <v>260</v>
-      </c>
-      <c r="L36" s="35">
-        <v>260</v>
-      </c>
-      <c r="M36" s="3">
-        <v>260</v>
-      </c>
-      <c r="N36" s="3">
-        <v>260</v>
-      </c>
-      <c r="O36" s="3">
-        <v>260</v>
-      </c>
-      <c r="P36" s="3">
-        <v>260</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>260</v>
-      </c>
-      <c r="R36" s="35">
-        <v>260</v>
-      </c>
-      <c r="S36" s="3">
-        <v>250</v>
-      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="R36" s="35"/>
       <c r="T36" s="71">
         <f>T34+T35</f>
         <v>0</v>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2102,21 +2102,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="166.5703125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="164.7109375" style="46" customWidth="1"/>
     <col min="10" max="10" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.7109375" style="3" bestFit="1" customWidth="1"/>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1559,7 +1559,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1783,6 +1783,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2103,7 +2106,7 @@
   <dimension ref="A1:U1027"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="J30" s="10"/>
-      <c r="K30" s="50" t="s">
+      <c r="K30" s="79" t="s">
         <v>242</v>
       </c>
       <c r="L30" s="52" t="s">
@@ -3551,7 +3554,7 @@
         <v>9</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="34" t="s">
+      <c r="K32" s="79" t="s">
         <v>250</v>
       </c>
       <c r="L32" s="52" t="s">
@@ -3648,7 +3651,9 @@
       <c r="J35" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="37"/>
+      <c r="K35" s="37">
+        <v>20</v>
+      </c>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
@@ -3659,7 +3664,7 @@
       <c r="S35" s="37"/>
       <c r="T35" s="72">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3684,7 +3689,7 @@
       <c r="R36" s="35"/>
       <c r="T36" s="71">
         <f>T34+T35</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U36" s="71" t="s">
         <v>374</v>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$672</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$673</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="403">
   <si>
     <t>ID Code</t>
   </si>
@@ -640,9 +640,6 @@
     <t>Enemy_AIMainFrame_9</t>
   </si>
   <si>
-    <t>| PackManager | AbstractPack | StimPack | MedicalPack | AmmoPack | GrenadePack | KeyCards | LootManager | InfoManager |</t>
-  </si>
-  <si>
     <t>| AbstractEnemy | AIEnemy | Turret | Roomba | LiveStockEnemy | Dogs | Chickens | Camera | Proxy | Plants |</t>
   </si>
   <si>
@@ -1223,6 +1220,12 @@
   </si>
   <si>
     <t>HUD_StartScreen_25 (9)</t>
+  </si>
+  <si>
+    <t>Items_UnlockWeapon</t>
+  </si>
+  <si>
+    <t>| PackManager | AbstractPack | StimPack | MedicalPack | AmmoPack | GrenadePack | KeyCards | LootManager | InfoManager |UnlockWeapon |</t>
   </si>
 </sst>
 </file>
@@ -2103,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1027"/>
+  <dimension ref="A1:U1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I1" s="46" t="s">
         <v>30</v>
@@ -2216,7 +2219,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="57" t="s">
@@ -2273,35 +2276,35 @@
         <v>23</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L3" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M3" s="74" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N3" s="78" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R3" s="51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S3" s="78" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2330,35 +2333,35 @@
         <v>24</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P4" s="50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S4" s="52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2387,35 +2390,35 @@
         <v>25</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L5" s="69" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P5" s="52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R5" s="52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S5" s="50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2444,35 +2447,35 @@
         <v>25</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L6" s="69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N6" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P6" s="50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R6" s="50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S6" s="50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2501,35 +2504,35 @@
         <v>25</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L7" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N7" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O7" s="69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R7" s="50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S7" s="50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2558,35 +2561,35 @@
         <v>26</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L8" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N8" s="58" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O8" s="69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P8" s="50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R8" s="50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S8" s="50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2603,35 +2606,35 @@
         <v>27</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L9" s="69" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N9" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O9" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P9" s="50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R9" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S9" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2658,35 +2661,35 @@
         <v>27</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L10" s="77" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N10" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P10" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R10" s="50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S10" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2711,33 +2714,33 @@
         <v>41</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="23"/>
       <c r="L11" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M11" s="68" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N11" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P11" s="50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R11" s="50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S11" s="50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2761,33 +2764,33 @@
         <v>41</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="23"/>
       <c r="L12" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M12" s="69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N12" s="56" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O12" s="69" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P12" s="52" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R12" s="50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S12" s="52" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2811,33 +2814,33 @@
         <v>41</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="23"/>
       <c r="L13" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M13" s="69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P13" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R13" s="50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S13" s="52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2858,34 +2861,34 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>207</v>
+        <v>402</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O14" s="69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P14" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R14" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S14" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2906,26 +2909,26 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="69" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P15" s="34"/>
       <c r="R15" s="50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S15" s="50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2946,21 +2949,21 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N16" s="52"/>
       <c r="P16" s="34"/>
       <c r="R16" s="50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S16" s="34"/>
     </row>
@@ -2972,10 +2975,10 @@
       <c r="E17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="23"/>
@@ -2985,7 +2988,7 @@
       <c r="P17" s="52"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S17" s="34"/>
     </row>
@@ -3007,10 +3010,10 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="23"/>
@@ -3040,10 +3043,10 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I19" s="47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="29"/>
@@ -3077,10 +3080,10 @@
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="I20" s="47" t="s">
         <v>222</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>223</v>
       </c>
       <c r="J20" s="60" t="s">
         <v>19</v>
@@ -3117,10 +3120,10 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J21" s="61" t="s">
         <v>17</v>
@@ -3204,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="71" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3281,31 +3284,31 @@
       <c r="G26" s="9"/>
       <c r="J26" s="10"/>
       <c r="K26" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L26" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M26" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N26" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O26" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P26" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R26" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S26" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T26" s="63"/>
     </row>
@@ -3328,31 +3331,31 @@
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M27" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N27" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P27" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q27" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="R27" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="R27" s="51" t="s">
-        <v>274</v>
-      </c>
       <c r="S27" s="54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T27" s="63"/>
     </row>
@@ -3375,31 +3378,31 @@
       <c r="G28" s="9"/>
       <c r="H28" s="48"/>
       <c r="K28" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L28" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N28" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O28" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P28" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q28" s="52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R28" s="50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S28" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T28" s="63"/>
     </row>
@@ -3421,31 +3424,31 @@
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L29" s="52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M29" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N29" s="56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O29" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P29" s="50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q29" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R29" s="50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S29" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T29" s="63"/>
     </row>
@@ -3467,29 +3470,29 @@
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L30" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M30" s="50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N30" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P30" s="50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q30" s="50"/>
       <c r="R30" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S30" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T30" s="63"/>
     </row>
@@ -3511,29 +3514,29 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L31" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M31" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N31" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O31" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P31" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q31" s="52"/>
       <c r="R31" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S31" s="52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T31" s="63"/>
     </row>
@@ -3555,23 +3558,23 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L32" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M32" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N32" s="52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O32" s="28"/>
       <c r="P32" s="52"/>
       <c r="Q32" s="52"/>
       <c r="R32" s="50"/>
       <c r="S32" s="52" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T32" s="63"/>
     </row>
@@ -3586,14 +3589,14 @@
       <c r="L33" s="53"/>
       <c r="M33" s="55"/>
       <c r="N33" s="53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O33" s="44"/>
       <c r="P33" s="53"/>
       <c r="Q33" s="53"/>
       <c r="R33" s="55"/>
       <c r="S33" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T33" s="63" t="s">
         <v>31</v>
@@ -3692,7 +3695,7 @@
         <v>20</v>
       </c>
       <c r="U36" s="71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -11312,7 +11315,7 @@
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B497" s="6" t="s">
         <v>5</v>
@@ -11330,7 +11333,7 @@
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B498" s="18" t="s">
         <v>10</v>
@@ -12632,34 +12635,34 @@
       <c r="H589" s="49"/>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A590" s="27"/>
-      <c r="B590" s="27"/>
-      <c r="C590" s="7"/>
-      <c r="D590" s="8"/>
-      <c r="E590" s="8"/>
+      <c r="A590" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B590" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C590" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D590" s="8">
+        <v>20</v>
+      </c>
+      <c r="E590" s="8">
+        <v>2</v>
+      </c>
       <c r="H590" s="49"/>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A591" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B591" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C591" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D591" s="8">
-        <v>30</v>
-      </c>
-      <c r="E591" s="8">
-        <v>8</v>
-      </c>
+      <c r="A591" s="27"/>
+      <c r="B591" s="27"/>
+      <c r="C591" s="7"/>
+      <c r="D591" s="8"/>
+      <c r="E591" s="8"/>
       <c r="H591" s="49"/>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B592" s="25" t="s">
         <v>11</v>
@@ -12668,16 +12671,16 @@
         <v>89</v>
       </c>
       <c r="D592" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E592" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H592" s="49"/>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B593" s="25" t="s">
         <v>11</v>
@@ -12686,16 +12689,16 @@
         <v>89</v>
       </c>
       <c r="D593" s="8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E593" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H593" s="49"/>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B594" s="25" t="s">
         <v>11</v>
@@ -12704,15 +12707,16 @@
         <v>89</v>
       </c>
       <c r="D594" s="8">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E594" s="8">
         <v>6</v>
       </c>
+      <c r="H594" s="49"/>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B595" s="25" t="s">
         <v>11</v>
@@ -12721,15 +12725,15 @@
         <v>89</v>
       </c>
       <c r="D595" s="8">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E595" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B596" s="25" t="s">
         <v>11</v>
@@ -12738,15 +12742,15 @@
         <v>89</v>
       </c>
       <c r="D596" s="8">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E596" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B597" s="25" t="s">
         <v>11</v>
@@ -12755,7 +12759,7 @@
         <v>89</v>
       </c>
       <c r="D597" s="8">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E597" s="8">
         <v>6</v>
@@ -12763,7 +12767,7 @@
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="B598" s="25" t="s">
         <v>11</v>
@@ -12772,15 +12776,15 @@
         <v>89</v>
       </c>
       <c r="D598" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E598" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A599" s="4" t="s">
-        <v>210</v>
+      <c r="A599" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="B599" s="25" t="s">
         <v>11</v>
@@ -12789,15 +12793,15 @@
         <v>89</v>
       </c>
       <c r="D599" s="8">
-        <v>80</v>
-      </c>
-      <c r="E599" s="3">
+        <v>50</v>
+      </c>
+      <c r="E599" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A600" s="5" t="s">
-        <v>63</v>
+      <c r="A600" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="B600" s="25" t="s">
         <v>11</v>
@@ -12806,39 +12810,39 @@
         <v>89</v>
       </c>
       <c r="D600" s="8">
+        <v>80</v>
+      </c>
+      <c r="E600" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A601" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B601" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C601" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D601" s="8">
         <v>60</v>
       </c>
-      <c r="E600" s="8">
+      <c r="E601" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A601" s="5"/>
-      <c r="B601" s="27"/>
-      <c r="C601" s="7"/>
-      <c r="D601" s="8"/>
-      <c r="E601" s="8"/>
-    </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A602" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B602" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C602" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D602" s="8">
-        <v>70</v>
-      </c>
-      <c r="E602" s="8">
-        <v>10</v>
-      </c>
+      <c r="A602" s="5"/>
+      <c r="B602" s="27"/>
+      <c r="C602" s="7"/>
+      <c r="D602" s="8"/>
+      <c r="E602" s="8"/>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B603" s="25" t="s">
         <v>11</v>
@@ -12847,15 +12851,15 @@
         <v>89</v>
       </c>
       <c r="D603" s="8">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E603" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A604" s="27" t="s">
-        <v>66</v>
+      <c r="A604" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B604" s="25" t="s">
         <v>11</v>
@@ -12864,15 +12868,15 @@
         <v>89</v>
       </c>
       <c r="D604" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E604" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="27" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="B605" s="25" t="s">
         <v>11</v>
@@ -12881,33 +12885,32 @@
         <v>89</v>
       </c>
       <c r="D605" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E605" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A607" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B607" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A606" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B606" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C607" s="7" t="s">
+      <c r="C606" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D607" s="8">
-        <v>30</v>
-      </c>
-      <c r="E607" s="8">
-        <v>7</v>
-      </c>
-      <c r="H607" s="49"/>
+      <c r="D606" s="8">
+        <v>10</v>
+      </c>
+      <c r="E606" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B608" s="25" t="s">
         <v>11</v>
@@ -12916,16 +12919,16 @@
         <v>89</v>
       </c>
       <c r="D608" s="8">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E608" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H608" s="49"/>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B609" s="25" t="s">
         <v>11</v>
@@ -12934,16 +12937,16 @@
         <v>89</v>
       </c>
       <c r="D609" s="8">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E609" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H609" s="49"/>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A610" s="27" t="s">
-        <v>70</v>
+      <c r="A610" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B610" s="25" t="s">
         <v>11</v>
@@ -12952,16 +12955,16 @@
         <v>89</v>
       </c>
       <c r="D610" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E610" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H610" s="49"/>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A611" s="5" t="s">
-        <v>71</v>
+      <c r="A611" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="B611" s="25" t="s">
         <v>11</v>
@@ -12970,16 +12973,16 @@
         <v>89</v>
       </c>
       <c r="D611" s="8">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E611" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H611" s="49"/>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B612" s="25" t="s">
         <v>11</v>
@@ -12988,16 +12991,16 @@
         <v>89</v>
       </c>
       <c r="D612" s="8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E612" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H612" s="49"/>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B613" s="25" t="s">
         <v>11</v>
@@ -13015,7 +13018,7 @@
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B614" s="25" t="s">
         <v>11</v>
@@ -13029,60 +13032,60 @@
       <c r="E614" s="8">
         <v>4</v>
       </c>
+      <c r="H614" s="49"/>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A615" s="5"/>
-      <c r="B615" s="27"/>
-      <c r="C615" s="7"/>
-      <c r="D615" s="8"/>
-      <c r="E615" s="8"/>
+      <c r="A615" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B615" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C615" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D615" s="8">
+        <v>40</v>
+      </c>
+      <c r="E615" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A616" s="5" t="s">
+      <c r="A616" s="5"/>
+      <c r="B616" s="27"/>
+      <c r="C616" s="7"/>
+      <c r="D616" s="8"/>
+      <c r="E616" s="8"/>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A617" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B616" s="25" t="s">
+      <c r="B617" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C616" s="7" t="s">
+      <c r="C617" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D616" s="8">
+      <c r="D617" s="8">
         <v>70</v>
       </c>
-      <c r="E616" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A617" s="5"/>
-      <c r="B617" s="27"/>
-      <c r="C617" s="7"/>
-      <c r="D617" s="8"/>
-      <c r="E617" s="8"/>
-      <c r="F617" s="43"/>
+      <c r="E617" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A618" s="5" t="s">
+      <c r="A618" s="5"/>
+      <c r="B618" s="27"/>
+      <c r="C618" s="7"/>
+      <c r="D618" s="8"/>
+      <c r="E618" s="8"/>
+      <c r="F618" s="43"/>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A619" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B618" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C618" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D618" s="8">
-        <v>30</v>
-      </c>
-      <c r="E618" s="8">
-        <v>6</v>
-      </c>
-      <c r="F618" s="43"/>
-    </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A619" s="27" t="s">
-        <v>73</v>
       </c>
       <c r="B619" s="25" t="s">
         <v>11</v>
@@ -13094,12 +13097,13 @@
         <v>30</v>
       </c>
       <c r="E619" s="8">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F619" s="43"/>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="27" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B620" s="25" t="s">
         <v>11</v>
@@ -13108,7 +13112,7 @@
         <v>89</v>
       </c>
       <c r="D620" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E620" s="8">
         <v>5</v>
@@ -13116,7 +13120,7 @@
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B621" s="25" t="s">
         <v>11</v>
@@ -13132,8 +13136,8 @@
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A622" s="5" t="s">
-        <v>74</v>
+      <c r="A622" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="B622" s="25" t="s">
         <v>11</v>
@@ -13142,39 +13146,39 @@
         <v>89</v>
       </c>
       <c r="D622" s="8">
+        <v>40</v>
+      </c>
+      <c r="E622" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A623" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B623" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C623" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D623" s="8">
         <v>20</v>
       </c>
-      <c r="E622" s="8">
+      <c r="E623" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A623" s="5"/>
-      <c r="B623" s="27"/>
-      <c r="C623" s="7"/>
-      <c r="D623" s="8"/>
-      <c r="E623" s="8"/>
-    </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A624" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B624" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C624" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D624" s="8">
-        <v>60</v>
-      </c>
-      <c r="E624" s="8">
-        <v>10</v>
-      </c>
+      <c r="A624" s="5"/>
+      <c r="B624" s="27"/>
+      <c r="C624" s="7"/>
+      <c r="D624" s="8"/>
+      <c r="E624" s="8"/>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B625" s="25" t="s">
         <v>11</v>
@@ -13183,15 +13187,15 @@
         <v>89</v>
       </c>
       <c r="D625" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E625" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" s="27" t="s">
-        <v>77</v>
+      <c r="A626" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B626" s="25" t="s">
         <v>11</v>
@@ -13200,15 +13204,15 @@
         <v>89</v>
       </c>
       <c r="D626" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E626" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" s="5" t="s">
-        <v>78</v>
+      <c r="A627" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B627" s="25" t="s">
         <v>11</v>
@@ -13217,15 +13221,15 @@
         <v>89</v>
       </c>
       <c r="D627" s="8">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E627" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B628" s="25" t="s">
         <v>11</v>
@@ -13242,7 +13246,7 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B629" s="25" t="s">
         <v>11</v>
@@ -13251,7 +13255,7 @@
         <v>89</v>
       </c>
       <c r="D629" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E629" s="8">
         <v>7</v>
@@ -13259,7 +13263,7 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B630" s="25" t="s">
         <v>11</v>
@@ -13268,15 +13272,15 @@
         <v>89</v>
       </c>
       <c r="D630" s="8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E630" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="27" t="s">
-        <v>82</v>
+      <c r="A631" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B631" s="25" t="s">
         <v>11</v>
@@ -13285,15 +13289,15 @@
         <v>89</v>
       </c>
       <c r="D631" s="8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E631" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="5" t="s">
-        <v>83</v>
+      <c r="A632" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="B632" s="25" t="s">
         <v>11</v>
@@ -13302,15 +13306,15 @@
         <v>89</v>
       </c>
       <c r="D632" s="8">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E632" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B633" s="25" t="s">
         <v>11</v>
@@ -13319,7 +13323,7 @@
         <v>89</v>
       </c>
       <c r="D633" s="8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E633" s="8">
         <v>8</v>
@@ -13327,7 +13331,7 @@
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B634" s="25" t="s">
         <v>11</v>
@@ -13336,15 +13340,15 @@
         <v>89</v>
       </c>
       <c r="D634" s="8">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E634" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B635" s="25" t="s">
         <v>11</v>
@@ -13361,7 +13365,7 @@
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B636" s="25" t="s">
         <v>11</v>
@@ -13373,21 +13377,34 @@
         <v>70</v>
       </c>
       <c r="E636" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" s="4"/>
-      <c r="B637" s="4"/>
-      <c r="C637" s="7"/>
+      <c r="A637" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B637" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C637" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D637" s="8">
-        <f>SUM(D581:D636)</f>
-        <v>2330</v>
+        <v>70</v>
+      </c>
+      <c r="E637" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="5"/>
-      <c r="B638" s="27"/>
+      <c r="A638" s="4"/>
+      <c r="B638" s="4"/>
+      <c r="C638" s="7"/>
+      <c r="D638" s="8">
+        <f>SUM(D581:D637)</f>
+        <v>2350</v>
+      </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="5"/>
@@ -13402,11 +13419,11 @@
       <c r="B641" s="27"/>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" s="27"/>
+      <c r="A642" s="5"/>
       <c r="B642" s="27"/>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="5"/>
+      <c r="A643" s="27"/>
       <c r="B643" s="27"/>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -13438,11 +13455,11 @@
       <c r="B650" s="27"/>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651" s="27"/>
+      <c r="A651" s="5"/>
       <c r="B651" s="27"/>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652" s="5"/>
+      <c r="A652" s="27"/>
       <c r="B652" s="27"/>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -13458,11 +13475,11 @@
       <c r="B655" s="27"/>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" s="27"/>
+      <c r="A656" s="5"/>
       <c r="B656" s="27"/>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="5"/>
+      <c r="A657" s="27"/>
       <c r="B657" s="27"/>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -13478,11 +13495,11 @@
       <c r="B660" s="27"/>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" s="27"/>
+      <c r="A661" s="5"/>
       <c r="B661" s="27"/>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="5"/>
+      <c r="A662" s="27"/>
       <c r="B662" s="27"/>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -13498,11 +13515,11 @@
       <c r="B665" s="27"/>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666" s="27"/>
+      <c r="A666" s="5"/>
       <c r="B666" s="27"/>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" s="5"/>
+      <c r="A667" s="27"/>
       <c r="B667" s="27"/>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -13518,11 +13535,11 @@
       <c r="B670" s="27"/>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671" s="27"/>
+      <c r="A671" s="5"/>
       <c r="B671" s="27"/>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672" s="5"/>
+      <c r="A672" s="27"/>
       <c r="B672" s="27"/>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -13538,11 +13555,11 @@
       <c r="B675" s="27"/>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" s="27"/>
+      <c r="A676" s="5"/>
       <c r="B676" s="27"/>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="5"/>
+      <c r="A677" s="27"/>
       <c r="B677" s="27"/>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -13558,11 +13575,11 @@
       <c r="B680" s="27"/>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" s="27"/>
+      <c r="A681" s="5"/>
       <c r="B681" s="27"/>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="5"/>
+      <c r="A682" s="27"/>
       <c r="B682" s="27"/>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -13578,11 +13595,11 @@
       <c r="B685" s="27"/>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686" s="27"/>
+      <c r="A686" s="5"/>
       <c r="B686" s="27"/>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="5"/>
+      <c r="A687" s="27"/>
       <c r="B687" s="27"/>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -13598,11 +13615,11 @@
       <c r="B690" s="27"/>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" s="27"/>
+      <c r="A691" s="5"/>
       <c r="B691" s="27"/>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" s="5"/>
+      <c r="A692" s="27"/>
       <c r="B692" s="27"/>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -13622,11 +13639,11 @@
       <c r="B696" s="27"/>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" s="27"/>
+      <c r="A697" s="5"/>
       <c r="B697" s="27"/>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="5"/>
+      <c r="A698" s="27"/>
       <c r="B698" s="27"/>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -13642,11 +13659,11 @@
       <c r="B701" s="27"/>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" s="27"/>
+      <c r="A702" s="5"/>
       <c r="B702" s="27"/>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="5"/>
+      <c r="A703" s="27"/>
       <c r="B703" s="27"/>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -13662,11 +13679,11 @@
       <c r="B706" s="27"/>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" s="27"/>
+      <c r="A707" s="5"/>
       <c r="B707" s="27"/>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="5"/>
+      <c r="A708" s="27"/>
       <c r="B708" s="27"/>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
@@ -13682,11 +13699,11 @@
       <c r="B711" s="27"/>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" s="27"/>
+      <c r="A712" s="5"/>
       <c r="B712" s="27"/>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" s="5"/>
+      <c r="A713" s="27"/>
       <c r="B713" s="27"/>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
@@ -13702,11 +13719,11 @@
       <c r="B716" s="27"/>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" s="27"/>
+      <c r="A717" s="5"/>
       <c r="B717" s="27"/>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" s="5"/>
+      <c r="A718" s="27"/>
       <c r="B718" s="27"/>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
@@ -13722,11 +13739,11 @@
       <c r="B721" s="27"/>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" s="27"/>
+      <c r="A722" s="5"/>
       <c r="B722" s="27"/>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" s="5"/>
+      <c r="A723" s="27"/>
       <c r="B723" s="27"/>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
@@ -13742,12 +13759,12 @@
       <c r="B726" s="27"/>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" s="8"/>
-      <c r="B727" s="8"/>
+      <c r="A727" s="5"/>
+      <c r="B727" s="27"/>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" s="5"/>
-      <c r="B728" s="27"/>
+      <c r="A728" s="8"/>
+      <c r="B728" s="8"/>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="5"/>
@@ -13778,11 +13795,11 @@
       <c r="B735" s="27"/>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" s="27"/>
+      <c r="A736" s="5"/>
       <c r="B736" s="27"/>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="5"/>
+      <c r="A737" s="27"/>
       <c r="B737" s="27"/>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
@@ -13814,11 +13831,11 @@
       <c r="B744" s="27"/>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" s="27"/>
+      <c r="A745" s="5"/>
       <c r="B745" s="27"/>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" s="5"/>
+      <c r="A746" s="27"/>
       <c r="B746" s="27"/>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
@@ -13850,11 +13867,11 @@
       <c r="B753" s="27"/>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" s="27"/>
+      <c r="A754" s="5"/>
       <c r="B754" s="27"/>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" s="5"/>
+      <c r="A755" s="27"/>
       <c r="B755" s="27"/>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
@@ -13886,11 +13903,11 @@
       <c r="B762" s="27"/>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763" s="27"/>
+      <c r="A763" s="5"/>
       <c r="B763" s="27"/>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" s="5"/>
+      <c r="A764" s="27"/>
       <c r="B764" s="27"/>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
@@ -13922,11 +13939,11 @@
       <c r="B771" s="27"/>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772" s="27"/>
+      <c r="A772" s="5"/>
       <c r="B772" s="27"/>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773" s="5"/>
+      <c r="A773" s="27"/>
       <c r="B773" s="27"/>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
@@ -13942,11 +13959,11 @@
       <c r="B776" s="27"/>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777" s="27"/>
+      <c r="A777" s="5"/>
       <c r="B777" s="27"/>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" s="5"/>
+      <c r="A778" s="27"/>
       <c r="B778" s="27"/>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
@@ -13962,11 +13979,11 @@
       <c r="B781" s="27"/>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782" s="27"/>
+      <c r="A782" s="5"/>
       <c r="B782" s="27"/>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" s="5"/>
+      <c r="A783" s="27"/>
       <c r="B783" s="27"/>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
@@ -13982,11 +13999,11 @@
       <c r="B786" s="27"/>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787" s="27"/>
+      <c r="A787" s="5"/>
       <c r="B787" s="27"/>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" s="5"/>
+      <c r="A788" s="27"/>
       <c r="B788" s="27"/>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
@@ -14002,11 +14019,11 @@
       <c r="B791" s="27"/>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A792" s="27"/>
+      <c r="A792" s="5"/>
       <c r="B792" s="27"/>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" s="5"/>
+      <c r="A793" s="27"/>
       <c r="B793" s="27"/>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
@@ -14022,11 +14039,11 @@
       <c r="B796" s="27"/>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797" s="27"/>
+      <c r="A797" s="5"/>
       <c r="B797" s="27"/>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798" s="5"/>
+      <c r="A798" s="27"/>
       <c r="B798" s="27"/>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
@@ -14042,11 +14059,11 @@
       <c r="B801" s="27"/>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802" s="27"/>
+      <c r="A802" s="5"/>
       <c r="B802" s="27"/>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" s="5"/>
+      <c r="A803" s="27"/>
       <c r="B803" s="27"/>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
@@ -14062,11 +14079,11 @@
       <c r="B806" s="27"/>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807" s="27"/>
+      <c r="A807" s="5"/>
       <c r="B807" s="27"/>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808" s="5"/>
+      <c r="A808" s="27"/>
       <c r="B808" s="27"/>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
@@ -14082,11 +14099,11 @@
       <c r="B811" s="27"/>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812" s="27"/>
+      <c r="A812" s="5"/>
       <c r="B812" s="27"/>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813" s="5"/>
+      <c r="A813" s="27"/>
       <c r="B813" s="27"/>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
@@ -14102,11 +14119,11 @@
       <c r="B816" s="27"/>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A817" s="27"/>
+      <c r="A817" s="5"/>
       <c r="B817" s="27"/>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A818" s="5"/>
+      <c r="A818" s="27"/>
       <c r="B818" s="27"/>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
@@ -14126,11 +14143,11 @@
       <c r="B822" s="27"/>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A823" s="27"/>
+      <c r="A823" s="5"/>
       <c r="B823" s="27"/>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A824" s="5"/>
+      <c r="A824" s="27"/>
       <c r="B824" s="27"/>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
@@ -14146,11 +14163,11 @@
       <c r="B827" s="27"/>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A828" s="27"/>
+      <c r="A828" s="5"/>
       <c r="B828" s="27"/>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A829" s="5"/>
+      <c r="A829" s="27"/>
       <c r="B829" s="27"/>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
@@ -14170,11 +14187,11 @@
       <c r="B833" s="27"/>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A834" s="27"/>
+      <c r="A834" s="5"/>
       <c r="B834" s="27"/>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A835" s="5"/>
+      <c r="A835" s="27"/>
       <c r="B835" s="27"/>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
@@ -14194,12 +14211,12 @@
       <c r="B839" s="27"/>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A840" s="8"/>
-      <c r="B840" s="8"/>
+      <c r="A840" s="5"/>
+      <c r="B840" s="27"/>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A841" s="5"/>
-      <c r="B841" s="27"/>
+      <c r="A841" s="8"/>
+      <c r="B841" s="8"/>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" s="5"/>
@@ -14214,11 +14231,11 @@
       <c r="B844" s="27"/>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A845" s="27"/>
+      <c r="A845" s="5"/>
       <c r="B845" s="27"/>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A846" s="5"/>
+      <c r="A846" s="27"/>
       <c r="B846" s="27"/>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
@@ -14234,11 +14251,11 @@
       <c r="B849" s="27"/>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A850" s="27"/>
+      <c r="A850" s="5"/>
       <c r="B850" s="27"/>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A851" s="5"/>
+      <c r="A851" s="27"/>
       <c r="B851" s="27"/>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
@@ -14254,11 +14271,11 @@
       <c r="B854" s="27"/>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A855" s="27"/>
+      <c r="A855" s="5"/>
       <c r="B855" s="27"/>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A856" s="5"/>
+      <c r="A856" s="27"/>
       <c r="B856" s="27"/>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
@@ -14274,11 +14291,11 @@
       <c r="B859" s="27"/>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A860" s="27"/>
+      <c r="A860" s="5"/>
       <c r="B860" s="27"/>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A861" s="5"/>
+      <c r="A861" s="27"/>
       <c r="B861" s="27"/>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
@@ -14294,11 +14311,11 @@
       <c r="B864" s="27"/>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A865" s="27"/>
+      <c r="A865" s="5"/>
       <c r="B865" s="27"/>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A866" s="5"/>
+      <c r="A866" s="27"/>
       <c r="B866" s="27"/>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
@@ -14306,11 +14323,11 @@
       <c r="B867" s="27"/>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A868" s="27"/>
+      <c r="A868" s="5"/>
       <c r="B868" s="27"/>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A869" s="5"/>
+      <c r="A869" s="27"/>
       <c r="B869" s="27"/>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
@@ -14318,11 +14335,11 @@
       <c r="B870" s="27"/>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A871" s="27"/>
+      <c r="A871" s="5"/>
       <c r="B871" s="27"/>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A872" s="5"/>
+      <c r="A872" s="27"/>
       <c r="B872" s="27"/>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
@@ -14330,11 +14347,11 @@
       <c r="B873" s="27"/>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A874" s="27"/>
+      <c r="A874" s="5"/>
       <c r="B874" s="27"/>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A875" s="5"/>
+      <c r="A875" s="27"/>
       <c r="B875" s="27"/>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
@@ -14342,11 +14359,11 @@
       <c r="B876" s="27"/>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A877" s="27"/>
+      <c r="A877" s="5"/>
       <c r="B877" s="27"/>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A878" s="5"/>
+      <c r="A878" s="27"/>
       <c r="B878" s="27"/>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
@@ -14354,11 +14371,11 @@
       <c r="B879" s="27"/>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A880" s="27"/>
+      <c r="A880" s="5"/>
       <c r="B880" s="27"/>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A881" s="5"/>
+      <c r="A881" s="27"/>
       <c r="B881" s="27"/>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
@@ -14366,11 +14383,11 @@
       <c r="B882" s="27"/>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A883" s="27"/>
+      <c r="A883" s="5"/>
       <c r="B883" s="27"/>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A884" s="5"/>
+      <c r="A884" s="27"/>
       <c r="B884" s="27"/>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
@@ -14378,11 +14395,11 @@
       <c r="B885" s="27"/>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A886" s="27"/>
+      <c r="A886" s="5"/>
       <c r="B886" s="27"/>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A887" s="5"/>
+      <c r="A887" s="27"/>
       <c r="B887" s="27"/>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
@@ -14390,11 +14407,11 @@
       <c r="B888" s="27"/>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A889" s="27"/>
+      <c r="A889" s="5"/>
       <c r="B889" s="27"/>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A890" s="5"/>
+      <c r="A890" s="27"/>
       <c r="B890" s="27"/>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
@@ -14402,11 +14419,11 @@
       <c r="B891" s="27"/>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A892" s="27"/>
+      <c r="A892" s="5"/>
       <c r="B892" s="27"/>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A893" s="5"/>
+      <c r="A893" s="27"/>
       <c r="B893" s="27"/>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
@@ -14414,11 +14431,11 @@
       <c r="B894" s="27"/>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A895" s="27"/>
+      <c r="A895" s="5"/>
       <c r="B895" s="27"/>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A896" s="5"/>
+      <c r="A896" s="27"/>
       <c r="B896" s="27"/>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
@@ -14426,11 +14443,11 @@
       <c r="B897" s="27"/>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A898" s="27"/>
+      <c r="A898" s="5"/>
       <c r="B898" s="27"/>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A899" s="5"/>
+      <c r="A899" s="27"/>
       <c r="B899" s="27"/>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
@@ -14438,11 +14455,11 @@
       <c r="B900" s="27"/>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A901" s="27"/>
+      <c r="A901" s="5"/>
       <c r="B901" s="27"/>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A902" s="5"/>
+      <c r="A902" s="27"/>
       <c r="B902" s="27"/>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
@@ -14450,11 +14467,11 @@
       <c r="B903" s="27"/>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A904" s="27"/>
+      <c r="A904" s="5"/>
       <c r="B904" s="27"/>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A905" s="5"/>
+      <c r="A905" s="27"/>
       <c r="B905" s="27"/>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
@@ -14462,35 +14479,35 @@
       <c r="B906" s="27"/>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A907" s="27"/>
+      <c r="A907" s="5"/>
       <c r="B907" s="27"/>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A908" s="5"/>
+      <c r="A908" s="27"/>
       <c r="B908" s="27"/>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A909" s="27"/>
+      <c r="A909" s="5"/>
       <c r="B909" s="27"/>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A910" s="5"/>
+      <c r="A910" s="27"/>
       <c r="B910" s="27"/>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A911" s="27"/>
+      <c r="A911" s="5"/>
       <c r="B911" s="27"/>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A912" s="5"/>
+      <c r="A912" s="27"/>
       <c r="B912" s="27"/>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A913" s="27"/>
+      <c r="A913" s="5"/>
       <c r="B913" s="27"/>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A914" s="5"/>
+      <c r="A914" s="27"/>
       <c r="B914" s="27"/>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
@@ -14498,11 +14515,11 @@
       <c r="B915" s="27"/>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A916" s="27"/>
+      <c r="A916" s="5"/>
       <c r="B916" s="27"/>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A917" s="5"/>
+      <c r="A917" s="27"/>
       <c r="B917" s="27"/>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
@@ -14538,11 +14555,11 @@
       <c r="B925" s="27"/>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A926" s="27"/>
+      <c r="A926" s="5"/>
       <c r="B926" s="27"/>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A927" s="5"/>
+      <c r="A927" s="27"/>
       <c r="B927" s="27"/>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
@@ -14566,12 +14583,12 @@
       <c r="B932" s="27"/>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A933" s="8"/>
-      <c r="B933" s="8"/>
+      <c r="A933" s="5"/>
+      <c r="B933" s="27"/>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A934" s="5"/>
-      <c r="B934" s="27"/>
+      <c r="A934" s="8"/>
+      <c r="B934" s="8"/>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" s="5"/>
@@ -14606,11 +14623,11 @@
       <c r="B942" s="27"/>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A943" s="27"/>
+      <c r="A943" s="5"/>
       <c r="B943" s="27"/>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A944" s="5"/>
+      <c r="A944" s="27"/>
       <c r="B944" s="27"/>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
@@ -14646,11 +14663,11 @@
       <c r="B952" s="27"/>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A953" s="27"/>
+      <c r="A953" s="5"/>
       <c r="B953" s="27"/>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A954" s="5"/>
+      <c r="A954" s="27"/>
       <c r="B954" s="27"/>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
@@ -14706,11 +14723,11 @@
       <c r="B967" s="27"/>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A968" s="27"/>
+      <c r="A968" s="5"/>
       <c r="B968" s="27"/>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A969" s="5"/>
+      <c r="A969" s="27"/>
       <c r="B969" s="27"/>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
@@ -14734,14 +14751,18 @@
       <c r="B974" s="27"/>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A975" s="27"/>
+      <c r="A975" s="5"/>
       <c r="B975" s="27"/>
     </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1027" s="5"/>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976" s="27"/>
+      <c r="B976" s="27"/>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1028" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E672"/>
+  <autoFilter ref="A1:E673"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="404">
   <si>
     <t>ID Code</t>
   </si>
@@ -1226,6 +1226,9 @@
   </si>
   <si>
     <t>| PackManager | AbstractPack | StimPack | MedicalPack | AmmoPack | GrenadePack | KeyCards | LootManager | InfoManager |UnlockWeapon |</t>
+  </si>
+  <si>
+    <t>Items_UnlockWeapon (20)</t>
   </si>
 </sst>
 </file>
@@ -2108,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3585,7 +3588,9 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="37"/>
+      <c r="K33" s="79" t="s">
+        <v>403</v>
+      </c>
       <c r="L33" s="53"/>
       <c r="M33" s="55"/>
       <c r="N33" s="53" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2111,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,7 +3626,9 @@
       <c r="J34" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="31"/>
+      <c r="K34" s="31">
+        <v>20</v>
+      </c>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
@@ -3637,7 +3639,7 @@
       <c r="S34" s="31"/>
       <c r="T34" s="64">
         <f>K34+L34+M34+N34+O34+P34+Q34+R34+S34</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3697,7 +3699,7 @@
       <c r="R36" s="35"/>
       <c r="T36" s="71">
         <f>T34+T35</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U36" s="71" t="s">
         <v>373</v>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="404">
   <si>
     <t>ID Code</t>
   </si>
@@ -733,9 +733,6 @@
     <t>Player_Movement (70)</t>
   </si>
   <si>
-    <t>Game_GameManager (100)</t>
-  </si>
-  <si>
     <t>Weapons_WeaponManager (60)</t>
   </si>
   <si>
@@ -1229,13 +1226,16 @@
   </si>
   <si>
     <t>Items_UnlockWeapon (20)</t>
+  </si>
+  <si>
+    <t>Game_GameManager (15)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,14 +1281,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1565,7 +1557,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1687,23 +1679,12 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1731,7 +1712,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1752,9 +1733,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1767,13 +1745,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1791,8 +1763,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2112,7 +2096,7 @@
   <dimension ref="A1:U1028"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,8 +2108,8 @@
     <col min="5" max="5" width="10.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="164.7109375" style="46" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="164.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -2162,37 +2146,37 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="O1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="59" t="s">
+      <c r="S1" s="54" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2218,38 +2202,38 @@
       <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="71" t="s">
         <v>228</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="76" t="s">
+      <c r="S2" s="68" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2275,39 +2259,39 @@
       <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="71" t="s">
         <v>229</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="L3" s="74" t="s">
-        <v>297</v>
-      </c>
-      <c r="M3" s="74" t="s">
-        <v>398</v>
-      </c>
-      <c r="N3" s="78" t="s">
-        <v>311</v>
+        <v>288</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>397</v>
+      </c>
+      <c r="N3" s="70" t="s">
+        <v>310</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="P3" s="51" t="s">
-        <v>336</v>
+        <v>327</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>335</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="R3" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="S3" s="78" t="s">
-        <v>378</v>
+        <v>348</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="S3" s="70" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2332,39 +2316,39 @@
       <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="71" t="s">
         <v>230</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="N4" s="52" t="s">
-        <v>312</v>
+        <v>301</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>311</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="P4" s="50" t="s">
-        <v>337</v>
+        <v>328</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>336</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="R4" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="S4" s="52" t="s">
-        <v>382</v>
+        <v>349</v>
+      </c>
+      <c r="R4" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2389,39 +2373,39 @@
       <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="71" t="s">
         <v>234</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="L5" s="69" t="s">
-        <v>299</v>
+        <v>290</v>
+      </c>
+      <c r="L5" s="63" t="s">
+        <v>298</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>313</v>
+        <v>302</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>312</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="P5" s="52" t="s">
-        <v>338</v>
+        <v>329</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>337</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="R5" s="52" t="s">
-        <v>367</v>
-      </c>
-      <c r="S5" s="50" t="s">
-        <v>383</v>
+        <v>350</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="S5" s="45" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2446,39 +2430,39 @@
       <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="71" t="s">
         <v>224</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="L6" s="69" t="s">
-        <v>300</v>
+        <v>295</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>299</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="N6" s="52" t="s">
-        <v>315</v>
+        <v>303</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>314</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="P6" s="50" t="s">
-        <v>339</v>
+        <v>330</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>338</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="R6" s="50" t="s">
-        <v>368</v>
-      </c>
-      <c r="S6" s="50" t="s">
-        <v>384</v>
+        <v>351</v>
+      </c>
+      <c r="R6" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2503,39 +2487,39 @@
       <c r="G7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="71" t="s">
         <v>225</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>301</v>
+        <v>292</v>
+      </c>
+      <c r="L7" s="63" t="s">
+        <v>300</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="N7" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="O7" s="69" t="s">
-        <v>322</v>
-      </c>
-      <c r="P7" s="52" t="s">
-        <v>340</v>
+        <v>304</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="O7" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>339</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="R7" s="50" t="s">
-        <v>369</v>
-      </c>
-      <c r="S7" s="50" t="s">
-        <v>385</v>
+        <v>352</v>
+      </c>
+      <c r="R7" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="S7" s="45" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2560,39 +2544,39 @@
       <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="71" t="s">
         <v>231</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="L8" s="69" t="s">
-        <v>394</v>
+        <v>293</v>
+      </c>
+      <c r="L8" s="63" t="s">
+        <v>393</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="N8" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="O8" s="69" t="s">
-        <v>323</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>356</v>
+        <v>360</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="O8" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="R8" s="50" t="s">
-        <v>370</v>
-      </c>
-      <c r="S8" s="50" t="s">
-        <v>386</v>
+        <v>353</v>
+      </c>
+      <c r="R8" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="S8" s="45" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2605,39 +2589,39 @@
       <c r="G9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="71" t="s">
         <v>226</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="L9" s="69" t="s">
-        <v>396</v>
+        <v>294</v>
+      </c>
+      <c r="L9" s="63" t="s">
+        <v>395</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="N9" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="O9" s="69" t="s">
-        <v>320</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>357</v>
+        <v>305</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="O9" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>356</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="R9" s="50" t="s">
-        <v>374</v>
-      </c>
-      <c r="S9" s="50" t="s">
-        <v>387</v>
+        <v>354</v>
+      </c>
+      <c r="R9" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="S9" s="45" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2660,39 +2644,39 @@
         <v>12</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="71" t="s">
         <v>227</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="69" t="s">
-        <v>395</v>
-      </c>
-      <c r="L10" s="77" t="s">
-        <v>397</v>
+      <c r="K10" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>396</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="N10" s="56" t="s">
-        <v>319</v>
+        <v>306</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>318</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="P10" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q10" s="69" t="s">
-        <v>362</v>
-      </c>
-      <c r="R10" s="50" t="s">
-        <v>375</v>
-      </c>
-      <c r="S10" s="50" t="s">
-        <v>388</v>
+        <v>331</v>
+      </c>
+      <c r="P10" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q10" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="R10" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="S10" s="45" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2713,37 +2697,37 @@
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="71" t="s">
         <v>232</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="23"/>
       <c r="L11" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="M11" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="N11" s="52" t="s">
-        <v>321</v>
+        <v>398</v>
+      </c>
+      <c r="M11" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="N11" s="47" t="s">
+        <v>320</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="P11" s="50" t="s">
-        <v>347</v>
+        <v>332</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>346</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="R11" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="S11" s="50" t="s">
-        <v>389</v>
+        <v>362</v>
+      </c>
+      <c r="R11" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="S11" s="45" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2763,37 +2747,37 @@
         <v>10</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>287</v>
+      <c r="I12" s="71" t="s">
+        <v>286</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="23"/>
       <c r="L12" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="M12" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="N12" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="O12" s="69" t="s">
-        <v>334</v>
-      </c>
-      <c r="P12" s="52" t="s">
-        <v>348</v>
+        <v>399</v>
+      </c>
+      <c r="M12" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="N12" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="O12" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="P12" s="47" t="s">
+        <v>347</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="R12" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="S12" s="52" t="s">
-        <v>390</v>
+        <v>363</v>
+      </c>
+      <c r="R12" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="S12" s="47" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2813,37 +2797,37 @@
         <v>10</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>288</v>
+      <c r="I13" s="71" t="s">
+        <v>287</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="23"/>
       <c r="L13" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="M13" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="N13" s="52" t="s">
-        <v>325</v>
+        <v>291</v>
+      </c>
+      <c r="M13" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="N13" s="47" t="s">
+        <v>324</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="P13" s="50" t="s">
-        <v>343</v>
+        <v>334</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>342</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="R13" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="S13" s="52" t="s">
-        <v>392</v>
+        <v>364</v>
+      </c>
+      <c r="R13" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="S13" s="47" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2863,35 +2847,35 @@
         <v>10</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="I14" s="47" t="s">
-        <v>402</v>
+      <c r="I14" s="71" t="s">
+        <v>401</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="69" t="s">
-        <v>314</v>
+      <c r="M14" s="63" t="s">
+        <v>313</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="O14" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="P14" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="O14" s="63" t="s">
         <v>345</v>
       </c>
+      <c r="P14" s="45" t="s">
+        <v>344</v>
+      </c>
       <c r="Q14" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="R14" s="50" t="s">
-        <v>393</v>
-      </c>
-      <c r="S14" s="50" t="s">
-        <v>391</v>
+        <v>365</v>
+      </c>
+      <c r="R14" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="S14" s="45" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2911,27 +2895,27 @@
         <v>10</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="71" t="s">
         <v>207</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="N15" s="50" t="s">
-        <v>324</v>
+      <c r="M15" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="N15" s="45" t="s">
+        <v>323</v>
       </c>
       <c r="P15" s="34"/>
-      <c r="R15" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="S15" s="50" t="s">
-        <v>371</v>
+      <c r="R15" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="S15" s="45" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2951,22 +2935,22 @@
         <v>10</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="71" t="s">
         <v>211</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="N16" s="52"/>
+        <v>358</v>
+      </c>
+      <c r="N16" s="47"/>
       <c r="P16" s="34"/>
-      <c r="R16" s="50" t="s">
-        <v>380</v>
+      <c r="R16" s="45" t="s">
+        <v>379</v>
       </c>
       <c r="S16" s="34"/>
     </row>
@@ -2977,21 +2961,21 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="71" t="s">
         <v>212</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="52"/>
-      <c r="P17" s="52"/>
+      <c r="N17" s="47"/>
+      <c r="P17" s="47"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="50" t="s">
-        <v>381</v>
+      <c r="R17" s="45" t="s">
+        <v>380</v>
       </c>
       <c r="S17" s="34"/>
     </row>
@@ -3012,18 +2996,18 @@
         <v>10</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="I18" s="47" t="s">
+      <c r="I18" s="71" t="s">
         <v>213</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="69"/>
+      <c r="L18" s="63"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="52"/>
-      <c r="P18" s="52"/>
+      <c r="N18" s="47"/>
+      <c r="P18" s="47"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
@@ -3045,23 +3029,23 @@
         <v>10</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="71" t="s">
         <v>214</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="29"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="53"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="48"/>
       <c r="O19" s="30"/>
-      <c r="P19" s="53"/>
+      <c r="P19" s="48"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="55"/>
+      <c r="R19" s="50"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="63" t="s">
+      <c r="T19" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3082,13 +3066,13 @@
         <v>10</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="55" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="32"/>
@@ -3100,7 +3084,7 @@
       <c r="Q20" s="33"/>
       <c r="R20" s="34"/>
       <c r="S20" s="36"/>
-      <c r="T20" s="60">
+      <c r="T20" s="55">
         <f>K20+L20+M20+N20+O20+P20+Q20+R20+S20</f>
         <v>0</v>
       </c>
@@ -3122,13 +3106,13 @@
         <v>10</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="J21" s="61" t="s">
+      <c r="J21" s="56" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="23"/>
@@ -3140,7 +3124,7 @@
       <c r="Q21" s="35"/>
       <c r="R21" s="34"/>
       <c r="S21" s="36"/>
-      <c r="T21" s="61">
+      <c r="T21" s="56">
         <f>K21+L21+M21+N21+O21+P21+Q21+R21+S21</f>
         <v>0</v>
       </c>
@@ -3162,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="57" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="29"/>
@@ -3174,7 +3158,7 @@
       <c r="Q22" s="38"/>
       <c r="R22" s="37"/>
       <c r="S22" s="39"/>
-      <c r="T22" s="61">
+      <c r="T22" s="56">
         <f>K22+L22+M22+N22+O22+P22+Q22+R22+S22</f>
         <v>0</v>
       </c>
@@ -3205,12 +3189,12 @@
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
-      <c r="T23" s="73">
+      <c r="T23" s="72">
         <f>T20+T21+T22</f>
         <v>0</v>
       </c>
-      <c r="U23" s="71" t="s">
-        <v>372</v>
+      <c r="U23" s="73" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3230,7 +3214,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="T24" s="63"/>
+      <c r="T24" s="58"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
@@ -3239,34 +3223,34 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="G25" s="9"/>
-      <c r="K25" s="59" t="s">
+      <c r="K25" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="59" t="s">
+      <c r="M25" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="59" t="s">
+      <c r="N25" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="59" t="s">
+      <c r="O25" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="P25" s="59" t="s">
+      <c r="P25" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="Q25" s="59" t="s">
+      <c r="Q25" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="R25" s="59" t="s">
+      <c r="R25" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="S25" s="59" t="s">
+      <c r="S25" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="T25" s="63"/>
+      <c r="T25" s="58"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -3286,34 +3270,34 @@
       </c>
       <c r="G26" s="9"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="57" t="s">
+      <c r="K26" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="L26" s="57" t="s">
+      <c r="L26" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="M26" s="57" t="s">
+      <c r="M26" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="N26" s="57" t="s">
+      <c r="N26" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="O26" s="57" t="s">
+      <c r="O26" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="P26" s="57" t="s">
+      <c r="P26" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="Q26" s="57" t="s">
+      <c r="Q26" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="R26" s="57" t="s">
+      <c r="R26" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="S26" s="57" t="s">
+      <c r="S26" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="T26" s="63"/>
+      <c r="T26" s="58"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3333,34 +3317,34 @@
       </c>
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="50" t="s">
+      <c r="K27" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="L27" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="M27" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="N27" s="50" t="s">
-        <v>250</v>
+      <c r="L27" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="N27" s="45" t="s">
+        <v>249</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q27" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="P27" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q27" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="R27" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="R27" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="S27" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="T27" s="63"/>
+      <c r="S27" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="T27" s="58"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -3379,35 +3363,35 @@
         <v>9</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="48"/>
-      <c r="K28" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="L28" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="M28" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="N28" s="50" t="s">
-        <v>255</v>
+      <c r="H28" s="5"/>
+      <c r="K28" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="L28" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="N28" s="45" t="s">
+        <v>254</v>
       </c>
       <c r="O28" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="P28" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q28" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="R28" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="S28" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="T28" s="63"/>
+        <v>262</v>
+      </c>
+      <c r="P28" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q28" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="R28" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="S28" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="T28" s="58"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -3426,34 +3410,34 @@
         <v>9</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="L29" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="M29" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="N29" s="56" t="s">
-        <v>256</v>
+      <c r="K29" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="N29" s="51" t="s">
+        <v>255</v>
       </c>
       <c r="O29" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="P29" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q29" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="R29" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="S29" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="T29" s="63"/>
+        <v>263</v>
+      </c>
+      <c r="P29" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q29" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="R29" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="S29" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="T29" s="58"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3472,32 +3456,34 @@
         <v>9</v>
       </c>
       <c r="J30" s="10"/>
-      <c r="K30" s="79" t="s">
-        <v>241</v>
-      </c>
-      <c r="L30" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="M30" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="N30" s="50" t="s">
-        <v>258</v>
+      <c r="K30" s="74" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="N30" s="45" t="s">
+        <v>257</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="P30" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="S30" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="T30" s="63"/>
+        <v>264</v>
+      </c>
+      <c r="P30" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q30" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="R30" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="S30" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="T30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3516,32 +3502,32 @@
         <v>9</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="L31" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="M31" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="N31" s="52" t="s">
-        <v>259</v>
+      <c r="K31" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="N31" s="47" t="s">
+        <v>258</v>
       </c>
       <c r="O31" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="P31" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="S31" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="T31" s="63"/>
+        <v>261</v>
+      </c>
+      <c r="P31" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="S31" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="T31" s="58"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3560,26 +3546,32 @@
         <v>9</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="79" t="s">
-        <v>249</v>
-      </c>
-      <c r="L32" s="52" t="s">
+      <c r="K32" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="M32" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="N32" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="T32" s="63"/>
+      <c r="L32" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="N32" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="O32" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="P32" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="S32" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="T32" s="58"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
@@ -3588,22 +3580,26 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="79" t="s">
+      <c r="K33" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="L33" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="L33" s="53"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="O33" s="44"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="T33" s="63" t="s">
+      <c r="M33" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="N33" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" s="43"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="T33" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3623,11 +3619,11 @@
       <c r="E34" s="8">
         <v>10</v>
       </c>
-      <c r="J34" s="60" t="s">
+      <c r="J34" s="55" t="s">
         <v>20</v>
       </c>
       <c r="K34" s="31">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
@@ -3637,9 +3633,9 @@
       <c r="Q34" s="31"/>
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
-      <c r="T34" s="64">
+      <c r="T34" s="59">
         <f>K34+L34+M34+N34+O34+P34+Q34+R34+S34</f>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3658,13 +3654,15 @@
       <c r="E35" s="8">
         <v>10</v>
       </c>
-      <c r="J35" s="62" t="s">
+      <c r="J35" s="57" t="s">
         <v>21</v>
       </c>
       <c r="K35" s="37">
-        <v>20</v>
-      </c>
-      <c r="L35" s="37"/>
+        <v>80</v>
+      </c>
+      <c r="L35" s="37">
+        <v>30</v>
+      </c>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
       <c r="O35" s="37"/>
@@ -3672,9 +3670,9 @@
       <c r="Q35" s="37"/>
       <c r="R35" s="37"/>
       <c r="S35" s="37"/>
-      <c r="T35" s="72">
+      <c r="T35" s="65">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3697,12 +3695,12 @@
       <c r="K36" s="35"/>
       <c r="L36" s="35"/>
       <c r="R36" s="35"/>
-      <c r="T36" s="71">
+      <c r="T36" s="73">
         <f>T34+T35</f>
-        <v>40</v>
-      </c>
-      <c r="U36" s="71" t="s">
-        <v>373</v>
+        <v>145</v>
+      </c>
+      <c r="U36" s="73" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -3869,7 +3867,7 @@
       <c r="E44" s="8">
         <v>8</v>
       </c>
-      <c r="N44" s="65"/>
+      <c r="N44" s="60"/>
       <c r="O44" s="8"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="8"/>
@@ -4446,7 +4444,7 @@
       <c r="E72" s="8">
         <v>10</v>
       </c>
-      <c r="H72" s="49"/>
+      <c r="H72" s="4"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="8"/>
       <c r="S72" s="19"/>
@@ -5584,8 +5582,8 @@
       <c r="E132" s="8">
         <v>8</v>
       </c>
-      <c r="K132" s="65"/>
-      <c r="L132" s="65"/>
+      <c r="K132" s="60"/>
+      <c r="L132" s="60"/>
       <c r="M132" s="35"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6067,7 +6065,7 @@
       <c r="E160" s="8">
         <v>4</v>
       </c>
-      <c r="R160" s="65"/>
+      <c r="R160" s="60"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
@@ -6382,7 +6380,7 @@
       <c r="E180" s="8">
         <v>7</v>
       </c>
-      <c r="F180" s="48"/>
+      <c r="F180" s="5"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
@@ -6942,7 +6940,7 @@
       <c r="E217" s="8">
         <v>5</v>
       </c>
-      <c r="I217" s="66"/>
+      <c r="I217" s="75"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
@@ -6960,7 +6958,7 @@
       <c r="E218" s="8">
         <v>5</v>
       </c>
-      <c r="I218" s="66"/>
+      <c r="I218" s="75"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
@@ -6968,7 +6966,7 @@
       <c r="C219" s="7"/>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
-      <c r="I219" s="66"/>
+      <c r="I219" s="75"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="27" t="s">
@@ -6986,7 +6984,7 @@
       <c r="E220" s="8">
         <v>5</v>
       </c>
-      <c r="I220" s="66"/>
+      <c r="I220" s="75"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="27" t="s">
@@ -7004,7 +7002,7 @@
       <c r="E221" s="8">
         <v>5</v>
       </c>
-      <c r="I221" s="66"/>
+      <c r="I221" s="75"/>
       <c r="J221" s="35"/>
       <c r="K221" s="35"/>
       <c r="L221" s="35"/>
@@ -7025,7 +7023,7 @@
       <c r="E222" s="8">
         <v>5</v>
       </c>
-      <c r="I222" s="66"/>
+      <c r="I222" s="75"/>
       <c r="J222" s="35"/>
       <c r="K222" s="35"/>
       <c r="L222" s="35"/>
@@ -7046,7 +7044,7 @@
       <c r="E223" s="8">
         <v>5</v>
       </c>
-      <c r="I223" s="66"/>
+      <c r="I223" s="75"/>
       <c r="J223" s="35"/>
       <c r="K223" s="35"/>
       <c r="L223" s="35"/>
@@ -7057,7 +7055,7 @@
       <c r="C224" s="7"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
-      <c r="I224" s="66"/>
+      <c r="I224" s="75"/>
       <c r="J224" s="35"/>
       <c r="K224" s="35"/>
       <c r="L224" s="35"/>
@@ -7078,7 +7076,7 @@
       <c r="E225" s="8">
         <v>5</v>
       </c>
-      <c r="I225" s="66"/>
+      <c r="I225" s="75"/>
       <c r="J225" s="35"/>
       <c r="K225" s="35"/>
       <c r="L225" s="35"/>
@@ -7100,7 +7098,7 @@
       <c r="E226" s="8">
         <v>5</v>
       </c>
-      <c r="I226" s="66"/>
+      <c r="I226" s="75"/>
       <c r="J226" s="35"/>
       <c r="K226" s="35"/>
       <c r="L226" s="35"/>
@@ -7122,7 +7120,7 @@
       <c r="E227" s="8">
         <v>5</v>
       </c>
-      <c r="I227" s="66"/>
+      <c r="I227" s="75"/>
       <c r="J227" s="35"/>
       <c r="K227" s="35"/>
       <c r="L227" s="35"/>
@@ -7144,7 +7142,7 @@
       <c r="E228" s="8">
         <v>5</v>
       </c>
-      <c r="I228" s="66"/>
+      <c r="I228" s="75"/>
       <c r="J228" s="35"/>
       <c r="K228" s="35"/>
       <c r="L228" s="35"/>
@@ -7156,8 +7154,8 @@
       <c r="C229" s="7"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
-      <c r="I229" s="66"/>
-      <c r="J229" s="65"/>
+      <c r="I229" s="75"/>
+      <c r="J229" s="60"/>
       <c r="K229" s="35"/>
       <c r="L229" s="35"/>
       <c r="S229" s="35"/>
@@ -7178,7 +7176,7 @@
       <c r="E230" s="8">
         <v>6</v>
       </c>
-      <c r="I230" s="66"/>
+      <c r="I230" s="75"/>
       <c r="J230" s="35"/>
       <c r="K230" s="35"/>
       <c r="L230" s="35"/>
@@ -7200,7 +7198,7 @@
       <c r="E231" s="8">
         <v>6</v>
       </c>
-      <c r="I231" s="66"/>
+      <c r="I231" s="75"/>
       <c r="J231" s="35"/>
       <c r="K231" s="35"/>
       <c r="L231" s="35"/>
@@ -7222,7 +7220,7 @@
       <c r="E232" s="8">
         <v>6</v>
       </c>
-      <c r="I232" s="66"/>
+      <c r="I232" s="75"/>
       <c r="J232" s="15"/>
       <c r="K232" s="35"/>
       <c r="L232" s="35"/>
@@ -7244,7 +7242,7 @@
       <c r="E233" s="8">
         <v>6</v>
       </c>
-      <c r="I233" s="66"/>
+      <c r="I233" s="75"/>
       <c r="J233" s="15"/>
       <c r="K233" s="35"/>
       <c r="L233" s="35"/>
@@ -7256,7 +7254,7 @@
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
-      <c r="I234" s="66"/>
+      <c r="I234" s="75"/>
       <c r="J234" s="15"/>
       <c r="K234" s="35"/>
       <c r="L234" s="35"/>
@@ -7278,7 +7276,7 @@
       <c r="E235" s="8">
         <v>6</v>
       </c>
-      <c r="I235" s="66"/>
+      <c r="I235" s="75"/>
       <c r="J235" s="15"/>
       <c r="K235" s="35"/>
       <c r="L235" s="35"/>
@@ -7300,7 +7298,7 @@
       <c r="E236" s="8">
         <v>6</v>
       </c>
-      <c r="I236" s="66"/>
+      <c r="I236" s="75"/>
       <c r="J236" s="15"/>
       <c r="K236" s="35"/>
       <c r="L236" s="35"/>
@@ -7322,7 +7320,7 @@
       <c r="E237" s="8">
         <v>6</v>
       </c>
-      <c r="I237" s="66"/>
+      <c r="I237" s="75"/>
       <c r="J237" s="35"/>
       <c r="K237" s="35"/>
       <c r="L237" s="35"/>
@@ -7344,7 +7342,7 @@
       <c r="E238" s="8">
         <v>6</v>
       </c>
-      <c r="I238" s="66"/>
+      <c r="I238" s="75"/>
       <c r="J238" s="35"/>
       <c r="K238" s="35"/>
       <c r="L238" s="35"/>
@@ -7396,7 +7394,7 @@
       <c r="E241" s="19">
         <v>6</v>
       </c>
-      <c r="J241" s="67"/>
+      <c r="J241" s="61"/>
       <c r="K241" s="35"/>
       <c r="L241" s="35"/>
     </row>
@@ -7496,8 +7494,8 @@
         <v>6</v>
       </c>
       <c r="G247" s="9"/>
-      <c r="H247" s="48"/>
-      <c r="I247" s="48"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="27" t="s">
@@ -7516,16 +7514,16 @@
         <v>6</v>
       </c>
       <c r="G248" s="9"/>
-      <c r="H248" s="48"/>
-      <c r="I248" s="48"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="27"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
       <c r="G249" s="9"/>
-      <c r="H249" s="48"/>
-      <c r="I249" s="48"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
@@ -7544,8 +7542,8 @@
         <v>4</v>
       </c>
       <c r="G250" s="9"/>
-      <c r="H250" s="48"/>
-      <c r="I250" s="48"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
@@ -7564,8 +7562,8 @@
         <v>4</v>
       </c>
       <c r="G251" s="9"/>
-      <c r="H251" s="48"/>
-      <c r="I251" s="48"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
@@ -7584,8 +7582,8 @@
         <v>4</v>
       </c>
       <c r="G252" s="9"/>
-      <c r="H252" s="48"/>
-      <c r="I252" s="48"/>
+      <c r="H252" s="5"/>
+      <c r="I252" s="5"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
@@ -7677,16 +7675,16 @@
         <v>4</v>
       </c>
       <c r="G258" s="5"/>
-      <c r="H258" s="48"/>
-      <c r="I258" s="48"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="5"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
       <c r="G259" s="5"/>
-      <c r="H259" s="48"/>
-      <c r="I259" s="48"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
@@ -7705,8 +7703,8 @@
         <v>4</v>
       </c>
       <c r="G260" s="5"/>
-      <c r="H260" s="48"/>
-      <c r="I260" s="48"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
@@ -7725,8 +7723,8 @@
         <v>4</v>
       </c>
       <c r="G261" s="5"/>
-      <c r="H261" s="48"/>
-      <c r="I261" s="48"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
@@ -7745,8 +7743,8 @@
         <v>4</v>
       </c>
       <c r="G262" s="5"/>
-      <c r="H262" s="48"/>
-      <c r="I262" s="48"/>
+      <c r="H262" s="5"/>
+      <c r="I262" s="5"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
@@ -7765,8 +7763,8 @@
         <v>4</v>
       </c>
       <c r="G263" s="5"/>
-      <c r="H263" s="48"/>
-      <c r="I263" s="48"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
@@ -8300,7 +8298,7 @@
       <c r="E300" s="8">
         <v>6</v>
       </c>
-      <c r="F300" s="48"/>
+      <c r="F300" s="5"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
@@ -8318,7 +8316,7 @@
       <c r="E301" s="8">
         <v>6</v>
       </c>
-      <c r="F301" s="48"/>
+      <c r="F301" s="5"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
@@ -9308,7 +9306,7 @@
       <c r="E365" s="8">
         <v>6</v>
       </c>
-      <c r="F365" s="48"/>
+      <c r="F365" s="5"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="27" t="s">
@@ -10959,7 +10957,7 @@
       <c r="E472" s="8">
         <v>4</v>
       </c>
-      <c r="F472" s="48"/>
+      <c r="F472" s="5"/>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
@@ -10977,7 +10975,7 @@
       <c r="E473" s="8">
         <v>4</v>
       </c>
-      <c r="F473" s="48"/>
+      <c r="F473" s="5"/>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
@@ -11336,7 +11334,7 @@
       <c r="E497" s="8">
         <v>10</v>
       </c>
-      <c r="F497" s="48"/>
+      <c r="F497" s="5"/>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="27" t="s">
@@ -12117,7 +12115,7 @@
       <c r="E554" s="8">
         <v>9</v>
       </c>
-      <c r="F554" s="48"/>
+      <c r="F554" s="5"/>
       <c r="G554" s="41"/>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
@@ -12136,7 +12134,7 @@
       <c r="E555" s="8">
         <v>9</v>
       </c>
-      <c r="F555" s="48"/>
+      <c r="F555" s="5"/>
       <c r="G555" s="41"/>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
@@ -12145,7 +12143,7 @@
       <c r="C556" s="7"/>
       <c r="D556" s="8"/>
       <c r="E556" s="8"/>
-      <c r="F556" s="48"/>
+      <c r="F556" s="5"/>
       <c r="G556" s="41"/>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
@@ -12477,7 +12475,7 @@
         <f>SUM(D2:D579)</f>
         <v>2363</v>
       </c>
-      <c r="E580" s="45"/>
+      <c r="E580" s="44"/>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
@@ -12495,7 +12493,7 @@
       <c r="E581" s="8">
         <v>8</v>
       </c>
-      <c r="H581" s="49"/>
+      <c r="H581" s="4"/>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
@@ -12513,7 +12511,7 @@
       <c r="E582" s="8">
         <v>8</v>
       </c>
-      <c r="H582" s="49"/>
+      <c r="H582" s="4"/>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
@@ -12531,7 +12529,7 @@
       <c r="E583" s="8">
         <v>6</v>
       </c>
-      <c r="H583" s="49"/>
+      <c r="H583" s="4"/>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
@@ -12549,7 +12547,7 @@
       <c r="E584" s="8">
         <v>7</v>
       </c>
-      <c r="H584" s="49"/>
+      <c r="H584" s="4"/>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="27" t="s">
@@ -12567,7 +12565,7 @@
       <c r="E585" s="8">
         <v>8</v>
       </c>
-      <c r="H585" s="49"/>
+      <c r="H585" s="4"/>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
@@ -12585,7 +12583,7 @@
       <c r="E586" s="8">
         <v>7</v>
       </c>
-      <c r="H586" s="49"/>
+      <c r="H586" s="4"/>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
@@ -12603,7 +12601,7 @@
       <c r="E587" s="8">
         <v>7</v>
       </c>
-      <c r="H587" s="49"/>
+      <c r="H587" s="4"/>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
@@ -12621,7 +12619,7 @@
       <c r="E588" s="8">
         <v>7</v>
       </c>
-      <c r="H588" s="49"/>
+      <c r="H588" s="4"/>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
@@ -12639,11 +12637,11 @@
       <c r="E589" s="8">
         <v>4</v>
       </c>
-      <c r="H589" s="49"/>
+      <c r="H589" s="4"/>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B590" s="25" t="s">
         <v>11</v>
@@ -12657,7 +12655,7 @@
       <c r="E590" s="8">
         <v>2</v>
       </c>
-      <c r="H590" s="49"/>
+      <c r="H590" s="4"/>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="27"/>
@@ -12665,7 +12663,7 @@
       <c r="C591" s="7"/>
       <c r="D591" s="8"/>
       <c r="E591" s="8"/>
-      <c r="H591" s="49"/>
+      <c r="H591" s="4"/>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
@@ -12683,7 +12681,7 @@
       <c r="E592" s="8">
         <v>8</v>
       </c>
-      <c r="H592" s="49"/>
+      <c r="H592" s="4"/>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
@@ -12701,7 +12699,7 @@
       <c r="E593" s="8">
         <v>7</v>
       </c>
-      <c r="H593" s="49"/>
+      <c r="H593" s="4"/>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
@@ -12719,7 +12717,7 @@
       <c r="E594" s="8">
         <v>6</v>
       </c>
-      <c r="H594" s="49"/>
+      <c r="H594" s="4"/>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
@@ -12931,7 +12929,7 @@
       <c r="E608" s="8">
         <v>7</v>
       </c>
-      <c r="H608" s="49"/>
+      <c r="H608" s="4"/>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
@@ -12949,7 +12947,7 @@
       <c r="E609" s="8">
         <v>8</v>
       </c>
-      <c r="H609" s="49"/>
+      <c r="H609" s="4"/>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
@@ -12967,7 +12965,7 @@
       <c r="E610" s="8">
         <v>9</v>
       </c>
-      <c r="H610" s="49"/>
+      <c r="H610" s="4"/>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="27" t="s">
@@ -12985,7 +12983,7 @@
       <c r="E611" s="8">
         <v>10</v>
       </c>
-      <c r="H611" s="49"/>
+      <c r="H611" s="4"/>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
@@ -13003,7 +13001,7 @@
       <c r="E612" s="8">
         <v>7</v>
       </c>
-      <c r="H612" s="49"/>
+      <c r="H612" s="4"/>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
@@ -13021,7 +13019,7 @@
       <c r="E613" s="8">
         <v>4</v>
       </c>
-      <c r="H613" s="49"/>
+      <c r="H613" s="4"/>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
@@ -13039,7 +13037,7 @@
       <c r="E614" s="8">
         <v>4</v>
       </c>
-      <c r="H614" s="49"/>
+      <c r="H614" s="4"/>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
@@ -13088,7 +13086,7 @@
       <c r="C618" s="7"/>
       <c r="D618" s="8"/>
       <c r="E618" s="8"/>
-      <c r="F618" s="43"/>
+      <c r="F618" s="9"/>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
@@ -13106,7 +13104,7 @@
       <c r="E619" s="8">
         <v>6</v>
       </c>
-      <c r="F619" s="43"/>
+      <c r="F619" s="9"/>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="27" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="405">
   <si>
     <t>ID Code</t>
   </si>
@@ -1229,6 +1229,9 @@
   </si>
   <si>
     <t>Game_GameManager (15)</t>
+  </si>
+  <si>
+    <t>Player_Interaction (70)</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1560,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1588,9 +1591,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1601,9 +1601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1630,14 +1627,8 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1678,9 +1669,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1777,6 +1765,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2095,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,8 +2113,8 @@
     <col min="1" max="1" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2152,31 +2161,31 @@
       <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="49" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2202,38 +2211,38 @@
       <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="66" t="s">
         <v>228</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="68" t="s">
+      <c r="S2" s="63" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2259,38 +2268,38 @@
       <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="66" t="s">
         <v>229</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="61" t="s">
         <v>397</v>
       </c>
-      <c r="N3" s="70" t="s">
+      <c r="N3" s="65" t="s">
         <v>310</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="41" t="s">
         <v>335</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="R3" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="S3" s="70" t="s">
+      <c r="S3" s="65" t="s">
         <v>377</v>
       </c>
     </row>
@@ -2298,7 +2307,7 @@
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2310,44 +2319,44 @@
       <c r="E4" s="8">
         <v>10</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="66" t="s">
         <v>230</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="40" t="s">
         <v>336</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="R4" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="S4" s="42" t="s">
         <v>381</v>
       </c>
     </row>
@@ -2355,7 +2364,7 @@
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2367,44 +2376,44 @@
       <c r="E5" s="8">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="66" t="s">
         <v>234</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="42" t="s">
         <v>337</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="S5" s="45" t="s">
+      <c r="S5" s="40" t="s">
         <v>382</v>
       </c>
     </row>
@@ -2412,7 +2421,7 @@
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2424,44 +2433,44 @@
       <c r="E6" s="8">
         <v>10</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="66" t="s">
         <v>224</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="L6" s="63" t="s">
+      <c r="L6" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="P6" s="40" t="s">
         <v>338</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="S6" s="45" t="s">
+      <c r="S6" s="40" t="s">
         <v>383</v>
       </c>
     </row>
@@ -2469,7 +2478,7 @@
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2481,44 +2490,44 @@
       <c r="E7" s="8">
         <v>10</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="66" t="s">
         <v>225</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="L7" s="63" t="s">
+      <c r="L7" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="O7" s="63" t="s">
+      <c r="O7" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="42" t="s">
         <v>339</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="S7" s="45" t="s">
+      <c r="S7" s="40" t="s">
         <v>384</v>
       </c>
     </row>
@@ -2526,56 +2535,56 @@
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <v>5</v>
       </c>
       <c r="E8" s="8">
         <v>10</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="66" t="s">
         <v>231</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="L8" s="63" t="s">
+      <c r="L8" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="O8" s="63" t="s">
+      <c r="O8" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="40" t="s">
         <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="R8" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="40" t="s">
         <v>385</v>
       </c>
     </row>
@@ -2583,44 +2592,44 @@
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="66" t="s">
         <v>226</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="L9" s="58" t="s">
         <v>395</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="O9" s="63" t="s">
+      <c r="O9" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="40" t="s">
         <v>356</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="R9" s="40" t="s">
         <v>373</v>
       </c>
-      <c r="S9" s="45" t="s">
+      <c r="S9" s="40" t="s">
         <v>386</v>
       </c>
     </row>
@@ -2640,42 +2649,42 @@
       <c r="E10" s="8">
         <v>10</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="66" t="s">
         <v>227</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="N10" s="51" t="s">
+      <c r="N10" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="P10" s="45" t="s">
+      <c r="P10" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="Q10" s="63" t="s">
+      <c r="Q10" s="58" t="s">
         <v>361</v>
       </c>
-      <c r="R10" s="45" t="s">
+      <c r="R10" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="S10" s="45" t="s">
+      <c r="S10" s="40" t="s">
         <v>387</v>
       </c>
     </row>
@@ -2695,38 +2704,38 @@
       <c r="E11" s="8">
         <v>10</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="66" t="s">
         <v>232</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="14" t="s">
+      <c r="K11" s="21"/>
+      <c r="L11" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="M11" s="62" t="s">
+      <c r="M11" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="N11" s="47" t="s">
+      <c r="N11" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="P11" s="45" t="s">
+      <c r="P11" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="R11" s="45" t="s">
+      <c r="R11" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="S11" s="45" t="s">
+      <c r="S11" s="40" t="s">
         <v>388</v>
       </c>
     </row>
@@ -2734,7 +2743,7 @@
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2747,36 +2756,36 @@
         <v>10</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="66" t="s">
         <v>286</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="14" t="s">
+      <c r="K12" s="21"/>
+      <c r="L12" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="M12" s="63" t="s">
+      <c r="M12" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="N12" s="51" t="s">
+      <c r="N12" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="O12" s="63" t="s">
+      <c r="O12" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="P12" s="47" t="s">
+      <c r="P12" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="Q12" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="R12" s="45" t="s">
+      <c r="R12" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="S12" s="47" t="s">
+      <c r="S12" s="42" t="s">
         <v>389</v>
       </c>
     </row>
@@ -2784,7 +2793,7 @@
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2797,36 +2806,36 @@
         <v>10</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="66" t="s">
         <v>287</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="14" t="s">
+      <c r="K13" s="21"/>
+      <c r="L13" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="M13" s="63" t="s">
+      <c r="M13" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="N13" s="47" t="s">
+      <c r="N13" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="P13" s="45" t="s">
+      <c r="P13" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="Q13" s="14" t="s">
+      <c r="Q13" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="R13" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="S13" s="47" t="s">
+      <c r="S13" s="42" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2834,7 +2843,7 @@
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2847,34 +2856,34 @@
         <v>10</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="I14" s="71" t="s">
+      <c r="I14" s="66" t="s">
         <v>401</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="63" t="s">
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="O14" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="P14" s="45" t="s">
+      <c r="P14" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="Q14" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="R14" s="45" t="s">
+      <c r="R14" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="S14" s="45" t="s">
+      <c r="S14" s="40" t="s">
         <v>390</v>
       </c>
     </row>
@@ -2882,7 +2891,7 @@
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2895,26 +2904,26 @@
         <v>10</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="66" t="s">
         <v>207</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="63" t="s">
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="N15" s="45" t="s">
+      <c r="N15" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="P15" s="34"/>
-      <c r="R15" s="45" t="s">
+      <c r="P15" s="30"/>
+      <c r="R15" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="S15" s="45" t="s">
+      <c r="S15" s="40" t="s">
         <v>370</v>
       </c>
     </row>
@@ -2922,37 +2931,37 @@
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>5</v>
       </c>
       <c r="E16" s="8">
         <v>10</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="71" t="s">
+      <c r="H16" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="I16" s="71" t="s">
+      <c r="I16" s="66" t="s">
         <v>211</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="14" t="s">
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="N16" s="47"/>
-      <c r="P16" s="34"/>
-      <c r="R16" s="45" t="s">
+      <c r="N16" s="42"/>
+      <c r="P16" s="30"/>
+      <c r="R16" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="S16" s="34"/>
+      <c r="S16" s="30"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -2961,23 +2970,23 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="66" t="s">
         <v>212</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="45" t="s">
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="S17" s="34"/>
+      <c r="S17" s="30"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -2996,21 +3005,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="66" t="s">
         <v>213</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -3029,23 +3038,23 @@
         <v>10</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="66" t="s">
         <v>214</v>
       </c>
       <c r="J19" s="10"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="58" t="s">
+      <c r="K19" s="25"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3053,7 +3062,7 @@
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -3066,25 +3075,25 @@
         <v>10</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="J20" s="55" t="s">
+      <c r="J20" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="55">
+      <c r="K20" s="28"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="50">
         <f>K20+L20+M20+N20+O20+P20+Q20+R20+S20</f>
         <v>0</v>
       </c>
@@ -3093,7 +3102,7 @@
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3106,25 +3115,25 @@
         <v>10</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="71" t="s">
+      <c r="H21" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="J21" s="56" t="s">
+      <c r="J21" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="56">
+      <c r="K21" s="21"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="51">
         <f>K21+L21+M21+N21+O21+P21+Q21+R21+S21</f>
         <v>0</v>
       </c>
@@ -3133,7 +3142,7 @@
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -3146,19 +3155,19 @@
         <v>10</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="56">
+      <c r="K22" s="25"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="51">
         <f>K22+L22+M22+N22+O22+P22+Q22+R22+S22</f>
         <v>0</v>
       </c>
@@ -3167,7 +3176,7 @@
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -3181,19 +3190,19 @@
       </c>
       <c r="G23" s="9"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="T23" s="72">
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="T23" s="67">
         <f>T20+T21+T22</f>
         <v>0</v>
       </c>
-      <c r="U23" s="73" t="s">
+      <c r="U23" s="68" t="s">
         <v>371</v>
       </c>
     </row>
@@ -3201,20 +3210,20 @@
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="17">
         <v>5</v>
       </c>
       <c r="E24" s="8">
         <v>10</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="T24" s="58"/>
+      <c r="T24" s="53"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
@@ -3223,34 +3232,34 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="G25" s="9"/>
-      <c r="K25" s="54" t="s">
+      <c r="K25" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="54" t="s">
+      <c r="L25" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="54" t="s">
+      <c r="M25" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="54" t="s">
+      <c r="N25" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="54" t="s">
+      <c r="O25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="P25" s="54" t="s">
+      <c r="P25" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="Q25" s="54" t="s">
+      <c r="Q25" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R25" s="54" t="s">
+      <c r="R25" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="S25" s="54" t="s">
+      <c r="S25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="T25" s="58"/>
+      <c r="T25" s="53"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -3270,34 +3279,34 @@
       </c>
       <c r="G26" s="9"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="52" t="s">
+      <c r="K26" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="L26" s="52" t="s">
+      <c r="L26" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="M26" s="52" t="s">
+      <c r="M26" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="N26" s="52" t="s">
+      <c r="N26" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="O26" s="52" t="s">
+      <c r="O26" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="P26" s="52" t="s">
+      <c r="P26" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="Q26" s="52" t="s">
+      <c r="Q26" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="R26" s="52" t="s">
+      <c r="R26" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="S26" s="52" t="s">
+      <c r="S26" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="T26" s="58"/>
+      <c r="T26" s="53"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3317,40 +3326,40 @@
       </c>
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="45" t="s">
+      <c r="K27" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="L27" s="74" t="s">
+      <c r="L27" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="M27" s="53" t="s">
+      <c r="M27" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="N27" s="45" t="s">
+      <c r="N27" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="O27" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="P27" s="46" t="s">
+      <c r="P27" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="Q27" s="49" t="s">
+      <c r="Q27" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="R27" s="46" t="s">
+      <c r="R27" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="S27" s="49" t="s">
+      <c r="S27" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="T27" s="58"/>
+      <c r="T27" s="53"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -3364,40 +3373,40 @@
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
-      <c r="K28" s="74" t="s">
+      <c r="K28" s="69" t="s">
         <v>403</v>
       </c>
-      <c r="L28" s="45" t="s">
+      <c r="L28" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="M28" s="45" t="s">
+      <c r="M28" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="N28" s="45" t="s">
+      <c r="N28" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="O28" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="75" t="s">
         <v>267</v>
       </c>
-      <c r="Q28" s="47" t="s">
+      <c r="Q28" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="R28" s="45" t="s">
+      <c r="R28" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="S28" s="45" t="s">
+      <c r="S28" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="T28" s="58"/>
+      <c r="T28" s="53"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3410,40 +3419,40 @@
         <v>9</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="45" t="s">
+      <c r="K29" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="L29" s="47" t="s">
+      <c r="L29" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="M29" s="45" t="s">
+      <c r="M29" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="N29" s="51" t="s">
+      <c r="N29" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="O29" s="26" t="s">
+      <c r="O29" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="P29" s="45" t="s">
+      <c r="P29" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="Q29" s="51" t="s">
+      <c r="Q29" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="R29" s="45" t="s">
+      <c r="R29" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="S29" s="45" t="s">
+      <c r="S29" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="T29" s="58"/>
+      <c r="T29" s="53"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -3456,40 +3465,40 @@
         <v>9</v>
       </c>
       <c r="J30" s="10"/>
-      <c r="K30" s="74" t="s">
+      <c r="K30" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="L30" s="47" t="s">
+      <c r="L30" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="M30" s="45" t="s">
+      <c r="M30" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="N30" s="45" t="s">
+      <c r="N30" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="O30" s="17" t="s">
+      <c r="O30" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="P30" s="45" t="s">
+      <c r="P30" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="Q30" s="45" t="s">
+      <c r="Q30" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="R30" s="45" t="s">
+      <c r="R30" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="S30" s="45" t="s">
+      <c r="S30" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="T30" s="58"/>
+      <c r="T30" s="53"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -3502,108 +3511,108 @@
         <v>9</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="47" t="s">
+      <c r="K31" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="L31" s="47" t="s">
+      <c r="L31" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="M31" s="45" t="s">
+      <c r="M31" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="N31" s="47" t="s">
+      <c r="N31" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="O31" s="28" t="s">
+      <c r="O31" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="P31" s="47" t="s">
+      <c r="P31" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="45" t="s">
+      <c r="Q31" s="42"/>
+      <c r="R31" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="S31" s="47" t="s">
+      <c r="S31" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="T31" s="58"/>
+      <c r="T31" s="53"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="17">
         <v>5</v>
       </c>
       <c r="E32" s="8">
         <v>9</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="74" t="s">
+      <c r="K32" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="L32" s="47" t="s">
+      <c r="L32" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="M32" s="45" t="s">
+      <c r="M32" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="N32" s="47" t="s">
+      <c r="N32" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="O32" s="28" t="s">
+      <c r="O32" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="P32" s="47" t="s">
+      <c r="P32" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="45" t="s">
+      <c r="Q32" s="42"/>
+      <c r="R32" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="S32" s="47" t="s">
+      <c r="S32" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="T32" s="58"/>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T32" s="53"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="74" t="s">
+      <c r="K33" s="69" t="s">
         <v>402</v>
       </c>
-      <c r="L33" s="48" t="s">
+      <c r="L33" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="M33" s="50" t="s">
+      <c r="M33" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="N33" s="48" t="s">
+      <c r="N33" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="O33" s="43"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="48" t="s">
+      <c r="O33" s="42"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="T33" s="58" t="s">
+      <c r="T33" s="53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>96</v>
       </c>
@@ -3619,24 +3628,19 @@
       <c r="E34" s="8">
         <v>10</v>
       </c>
-      <c r="J34" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="31">
-        <v>35</v>
-      </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="59">
-        <f>K34+L34+M34+N34+O34+P34+Q34+R34+S34</f>
-        <v>35</v>
-      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="77" t="s">
+        <v>404</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="53"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -3654,32 +3658,30 @@
       <c r="E35" s="8">
         <v>10</v>
       </c>
-      <c r="J35" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="37">
-        <v>80</v>
-      </c>
-      <c r="L35" s="37">
-        <v>30</v>
-      </c>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="65">
+      <c r="J35" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="30">
+        <v>90</v>
+      </c>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="54">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -3691,23 +3693,35 @@
       <c r="E36" s="8">
         <v>10</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="T36" s="73">
-        <f>T34+T35</f>
-        <v>145</v>
-      </c>
-      <c r="U36" s="73" t="s">
+      <c r="J36" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="33">
+        <v>110</v>
+      </c>
+      <c r="L36" s="33">
+        <v>30</v>
+      </c>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="60">
+        <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
+        <v>140</v>
+      </c>
+      <c r="U36" s="68" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -3719,16 +3733,20 @@
       <c r="E37" s="8">
         <v>10</v>
       </c>
-      <c r="O37" s="8"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="8"/>
-      <c r="T37" s="4"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="T37" s="68">
+        <f>T35+T36</f>
+        <v>230</v>
+      </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -3742,16 +3760,14 @@
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
+      <c r="Q38" s="8"/>
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -3764,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="O39" s="8"/>
-      <c r="P39" s="7"/>
+      <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
@@ -3774,21 +3790,22 @@
       <c r="A40" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="17">
         <v>5</v>
       </c>
       <c r="E40" s="8">
         <v>10</v>
       </c>
       <c r="O40" s="8"/>
-      <c r="P40" s="10"/>
+      <c r="P40" s="7"/>
       <c r="Q40" s="10"/>
+      <c r="R40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="4"/>
     </row>
@@ -3799,9 +3816,8 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="7"/>
+      <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
-      <c r="R41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="4"/>
     </row>
@@ -3822,10 +3838,10 @@
         <v>8</v>
       </c>
       <c r="O42" s="8"/>
-      <c r="P42" s="10"/>
+      <c r="P42" s="7"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="8"/>
-      <c r="S42" s="19"/>
+      <c r="S42" s="8"/>
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -3844,18 +3860,18 @@
       <c r="E43" s="8">
         <v>8</v>
       </c>
-      <c r="N43" s="35"/>
       <c r="O43" s="8"/>
+      <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="8"/>
-      <c r="S43" s="19"/>
+      <c r="S43" s="17"/>
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -3867,18 +3883,18 @@
       <c r="E44" s="8">
         <v>8</v>
       </c>
-      <c r="N44" s="60"/>
+      <c r="N44" s="31"/>
       <c r="O44" s="8"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="8"/>
-      <c r="S44" s="19"/>
+      <c r="S44" s="17"/>
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -3890,18 +3906,18 @@
       <c r="E45" s="8">
         <v>8</v>
       </c>
-      <c r="N45" s="35"/>
+      <c r="N45" s="55"/>
       <c r="O45" s="8"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="8"/>
-      <c r="S45" s="19"/>
+      <c r="S45" s="17"/>
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -3913,18 +3929,18 @@
       <c r="E46" s="8">
         <v>8</v>
       </c>
-      <c r="N46" s="35"/>
+      <c r="N46" s="31"/>
       <c r="O46" s="8"/>
-      <c r="Q46" s="7"/>
+      <c r="Q46" s="10"/>
       <c r="R46" s="8"/>
-      <c r="S46" s="19"/>
+      <c r="S46" s="17"/>
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -3936,24 +3952,24 @@
       <c r="E47" s="8">
         <v>8</v>
       </c>
-      <c r="N47" s="16"/>
+      <c r="N47" s="31"/>
       <c r="O47" s="8"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="8"/>
-      <c r="S47" s="19"/>
+      <c r="S47" s="17"/>
       <c r="T47" s="4"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="17">
         <v>4</v>
       </c>
       <c r="E48" s="8">
@@ -3963,7 +3979,7 @@
       <c r="O48" s="8"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="8"/>
-      <c r="S48" s="19"/>
+      <c r="S48" s="17"/>
       <c r="T48" s="4"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -3972,10 +3988,11 @@
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="N49" s="15"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="8"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="8"/>
-      <c r="S49" s="19"/>
+      <c r="S49" s="17"/>
       <c r="T49" s="4"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -3994,10 +4011,10 @@
       <c r="E50" s="8">
         <v>7</v>
       </c>
-      <c r="N50" s="15"/>
-      <c r="Q50" s="10"/>
+      <c r="N50" s="14"/>
+      <c r="Q50" s="7"/>
       <c r="R50" s="8"/>
-      <c r="S50" s="19"/>
+      <c r="S50" s="17"/>
       <c r="T50" s="4"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -4016,17 +4033,17 @@
       <c r="E51" s="8">
         <v>7</v>
       </c>
-      <c r="N51" s="15"/>
+      <c r="N51" s="14"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="8"/>
-      <c r="S51" s="19"/>
+      <c r="S51" s="17"/>
       <c r="T51" s="4"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -4038,17 +4055,17 @@
       <c r="E52" s="8">
         <v>7</v>
       </c>
-      <c r="N52" s="15"/>
+      <c r="N52" s="14"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="8"/>
-      <c r="S52" s="19"/>
+      <c r="S52" s="17"/>
       <c r="T52" s="4"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -4060,17 +4077,17 @@
       <c r="E53" s="8">
         <v>7</v>
       </c>
-      <c r="N53" s="16"/>
+      <c r="N53" s="14"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="8"/>
-      <c r="S53" s="19"/>
+      <c r="S53" s="17"/>
       <c r="T53" s="4"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -4082,17 +4099,17 @@
       <c r="E54" s="8">
         <v>7</v>
       </c>
-      <c r="N54" s="35"/>
+      <c r="N54" s="15"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="8"/>
-      <c r="S54" s="19"/>
+      <c r="S54" s="17"/>
       <c r="T54" s="4"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -4104,32 +4121,32 @@
       <c r="E55" s="8">
         <v>7</v>
       </c>
-      <c r="N55" s="35"/>
+      <c r="N55" s="31"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="8"/>
-      <c r="S55" s="19"/>
+      <c r="S55" s="17"/>
       <c r="T55" s="4"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="17">
         <v>4</v>
       </c>
       <c r="E56" s="8">
         <v>7</v>
       </c>
-      <c r="N56" s="16"/>
+      <c r="N56" s="31"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="8"/>
-      <c r="S56" s="19"/>
+      <c r="S56" s="17"/>
       <c r="T56" s="4"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4137,10 +4154,10 @@
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="N57" s="16"/>
+      <c r="N57" s="15"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="8"/>
-      <c r="S57" s="19"/>
+      <c r="S57" s="17"/>
       <c r="T57" s="4"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -4159,10 +4176,10 @@
       <c r="E58" s="8">
         <v>10</v>
       </c>
-      <c r="N58" s="7"/>
+      <c r="N58" s="15"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="8"/>
-      <c r="S58" s="19"/>
+      <c r="S58" s="17"/>
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -4181,16 +4198,17 @@
       <c r="E59" s="8">
         <v>10</v>
       </c>
+      <c r="N59" s="7"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="8"/>
-      <c r="S59" s="19"/>
+      <c r="S59" s="17"/>
       <c r="T59" s="4"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -4204,14 +4222,14 @@
       </c>
       <c r="Q60" s="10"/>
       <c r="R60" s="8"/>
-      <c r="S60" s="19"/>
+      <c r="S60" s="17"/>
       <c r="T60" s="4"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -4225,14 +4243,14 @@
       </c>
       <c r="Q61" s="10"/>
       <c r="R61" s="8"/>
-      <c r="S61" s="19"/>
+      <c r="S61" s="17"/>
       <c r="T61" s="4"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -4244,16 +4262,16 @@
       <c r="E62" s="8">
         <v>10</v>
       </c>
-      <c r="Q62" s="7"/>
+      <c r="Q62" s="10"/>
       <c r="R62" s="8"/>
-      <c r="S62" s="19"/>
+      <c r="S62" s="17"/>
       <c r="T62" s="4"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -4267,14 +4285,14 @@
       </c>
       <c r="Q63" s="7"/>
       <c r="R63" s="8"/>
-      <c r="S63" s="19"/>
+      <c r="S63" s="17"/>
       <c r="T63" s="4"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -4288,14 +4306,14 @@
       </c>
       <c r="Q64" s="7"/>
       <c r="R64" s="8"/>
-      <c r="S64" s="19"/>
+      <c r="S64" s="17"/>
       <c r="T64" s="4"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -4309,7 +4327,7 @@
       </c>
       <c r="Q65" s="7"/>
       <c r="R65" s="8"/>
-      <c r="S65" s="19"/>
+      <c r="S65" s="17"/>
       <c r="T65" s="4"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -4318,13 +4336,13 @@
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="Q66" s="10"/>
+      <c r="Q66" s="7"/>
       <c r="R66" s="8"/>
-      <c r="S66" s="19"/>
+      <c r="S66" s="17"/>
       <c r="T66" s="4"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -4341,11 +4359,11 @@
       </c>
       <c r="Q67" s="10"/>
       <c r="R67" s="8"/>
-      <c r="S67" s="19"/>
+      <c r="S67" s="17"/>
       <c r="T67" s="4"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B68" s="11" t="s">
@@ -4362,14 +4380,14 @@
       </c>
       <c r="Q68" s="10"/>
       <c r="R68" s="8"/>
-      <c r="S68" s="19"/>
+      <c r="S68" s="17"/>
       <c r="T68" s="4"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -4383,14 +4401,14 @@
       </c>
       <c r="Q69" s="10"/>
       <c r="R69" s="8"/>
-      <c r="S69" s="19"/>
+      <c r="S69" s="17"/>
       <c r="T69" s="4"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -4404,14 +4422,14 @@
       </c>
       <c r="Q70" s="10"/>
       <c r="R70" s="8"/>
-      <c r="S70" s="19"/>
+      <c r="S70" s="17"/>
       <c r="T70" s="4"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="7" t="s">
@@ -4425,14 +4443,14 @@
       </c>
       <c r="Q71" s="10"/>
       <c r="R71" s="8"/>
-      <c r="S71" s="19"/>
+      <c r="S71" s="17"/>
       <c r="T71" s="4"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -4447,14 +4465,14 @@
       <c r="H72" s="4"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="8"/>
-      <c r="S72" s="19"/>
+      <c r="S72" s="17"/>
       <c r="T72" s="4"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -4468,14 +4486,14 @@
       </c>
       <c r="Q73" s="10"/>
       <c r="R73" s="8"/>
-      <c r="S73" s="19"/>
+      <c r="S73" s="17"/>
       <c r="T73" s="4"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -4489,7 +4507,7 @@
       </c>
       <c r="Q74" s="10"/>
       <c r="R74" s="8"/>
-      <c r="S74" s="19"/>
+      <c r="S74" s="17"/>
       <c r="T74" s="4"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -4500,7 +4518,7 @@
       <c r="E75" s="8"/>
       <c r="Q75" s="10"/>
       <c r="R75" s="8"/>
-      <c r="S75" s="19"/>
+      <c r="S75" s="17"/>
       <c r="T75" s="4"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -4521,7 +4539,7 @@
       </c>
       <c r="Q76" s="10"/>
       <c r="R76" s="8"/>
-      <c r="S76" s="19"/>
+      <c r="S76" s="17"/>
       <c r="T76" s="4"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -4542,14 +4560,14 @@
       </c>
       <c r="Q77" s="10"/>
       <c r="R77" s="8"/>
-      <c r="S77" s="19"/>
+      <c r="S77" s="17"/>
       <c r="T77" s="4"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="7" t="s">
@@ -4563,14 +4581,14 @@
       </c>
       <c r="Q78" s="10"/>
       <c r="R78" s="8"/>
-      <c r="S78" s="19"/>
+      <c r="S78" s="17"/>
       <c r="T78" s="4"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="7" t="s">
@@ -4584,14 +4602,14 @@
       </c>
       <c r="Q79" s="10"/>
       <c r="R79" s="8"/>
-      <c r="S79" s="19"/>
+      <c r="S79" s="17"/>
       <c r="T79" s="4"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="7" t="s">
@@ -4605,14 +4623,14 @@
       </c>
       <c r="Q80" s="10"/>
       <c r="R80" s="8"/>
-      <c r="S80" s="19"/>
+      <c r="S80" s="17"/>
       <c r="T80" s="4"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="7" t="s">
@@ -4626,14 +4644,14 @@
       </c>
       <c r="Q81" s="10"/>
       <c r="R81" s="8"/>
-      <c r="S81" s="19"/>
+      <c r="S81" s="17"/>
       <c r="T81" s="4"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -4647,14 +4665,14 @@
       </c>
       <c r="Q82" s="10"/>
       <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
+      <c r="S82" s="17"/>
       <c r="T82" s="4"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C83" s="7" t="s">
@@ -4728,7 +4746,7 @@
       <c r="A87" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="7" t="s">
@@ -4749,7 +4767,7 @@
       <c r="A88" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -4770,7 +4788,7 @@
       <c r="A89" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -4791,7 +4809,7 @@
       <c r="A90" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -4812,7 +4830,7 @@
       <c r="A91" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -4833,7 +4851,7 @@
       <c r="A92" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -4877,7 +4895,7 @@
       <c r="E94" s="8">
         <v>7</v>
       </c>
-      <c r="Q94" s="7"/>
+      <c r="Q94" s="10"/>
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
       <c r="T94" s="4"/>
@@ -4907,7 +4925,7 @@
       <c r="A96" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="7" t="s">
@@ -4928,7 +4946,7 @@
       <c r="A97" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="7" t="s">
@@ -4949,7 +4967,7 @@
       <c r="A98" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C98" s="7" t="s">
@@ -4961,7 +4979,7 @@
       <c r="E98" s="8">
         <v>7</v>
       </c>
-      <c r="Q98" s="10"/>
+      <c r="Q98" s="7"/>
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
       <c r="T98" s="4"/>
@@ -4970,7 +4988,7 @@
       <c r="A99" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="7" t="s">
@@ -4991,7 +5009,7 @@
       <c r="A100" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -5020,7 +5038,7 @@
       <c r="T101" s="4"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" s="27" t="s">
+      <c r="A102" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -5035,13 +5053,13 @@
       <c r="E102" s="8">
         <v>6</v>
       </c>
-      <c r="Q102" s="7"/>
+      <c r="Q102" s="10"/>
       <c r="R102" s="8"/>
       <c r="S102" s="8"/>
       <c r="T102" s="4"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103" s="27" t="s">
+      <c r="A103" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
@@ -5062,10 +5080,10 @@
       <c r="T103" s="4"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="27" t="s">
+      <c r="A104" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -5083,10 +5101,10 @@
       <c r="T104" s="4"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="7" t="s">
@@ -5104,10 +5122,10 @@
       <c r="T105" s="4"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -5119,14 +5137,16 @@
       <c r="E106" s="8">
         <v>6</v>
       </c>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="8"/>
       <c r="S106" s="8"/>
       <c r="T106" s="4"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -5142,10 +5162,10 @@
       <c r="T107" s="4"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
+      <c r="A108" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B108" s="24" t="s">
+      <c r="B108" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="7" t="s">
@@ -5161,7 +5181,7 @@
       <c r="T108" s="4"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" s="27"/>
+      <c r="A109" s="24"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="8"/>
@@ -5211,7 +5231,7 @@
       <c r="A112" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -5230,7 +5250,7 @@
       <c r="A113" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="7" t="s">
@@ -5249,7 +5269,7 @@
       <c r="A114" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C114" s="7" t="s">
@@ -5268,7 +5288,7 @@
       <c r="A115" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="7" t="s">
@@ -5287,7 +5307,7 @@
       <c r="A116" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -5327,6 +5347,8 @@
       <c r="E118" s="8">
         <v>10</v>
       </c>
+      <c r="S118" s="8"/>
+      <c r="T118" s="4"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
@@ -5349,7 +5371,7 @@
       <c r="A120" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="7" t="s">
@@ -5366,7 +5388,7 @@
       <c r="A121" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="7" t="s">
@@ -5383,7 +5405,7 @@
       <c r="A122" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B122" s="42" t="s">
+      <c r="B122" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="7" t="s">
@@ -5400,7 +5422,7 @@
       <c r="A123" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C123" s="7" t="s">
@@ -5412,15 +5434,12 @@
       <c r="E123" s="8">
         <v>10</v>
       </c>
-      <c r="K123" s="35"/>
-      <c r="L123" s="35"/>
-      <c r="M123" s="35"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B124" s="22" t="s">
+      <c r="B124" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="7" t="s">
@@ -5432,15 +5451,15 @@
       <c r="E124" s="8">
         <v>10</v>
       </c>
-      <c r="K124" s="35"/>
-      <c r="L124" s="35"/>
-      <c r="M124" s="35"/>
+      <c r="K124" s="31"/>
+      <c r="L124" s="31"/>
+      <c r="M124" s="31"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="7" t="s">
@@ -5452,9 +5471,9 @@
       <c r="E125" s="8">
         <v>10</v>
       </c>
-      <c r="K125" s="35"/>
-      <c r="L125" s="35"/>
-      <c r="M125" s="35"/>
+      <c r="K125" s="31"/>
+      <c r="L125" s="31"/>
+      <c r="M125" s="31"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
@@ -5462,9 +5481,9 @@
       <c r="C126" s="7"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
-      <c r="K126" s="35"/>
-      <c r="L126" s="35"/>
-      <c r="M126" s="35"/>
+      <c r="K126" s="31"/>
+      <c r="L126" s="31"/>
+      <c r="M126" s="31"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
@@ -5482,9 +5501,9 @@
       <c r="E127" s="8">
         <v>8</v>
       </c>
-      <c r="K127" s="35"/>
-      <c r="L127" s="35"/>
-      <c r="M127" s="35"/>
+      <c r="K127" s="31"/>
+      <c r="L127" s="31"/>
+      <c r="M127" s="31"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
@@ -5502,15 +5521,15 @@
       <c r="E128" s="8">
         <v>8</v>
       </c>
-      <c r="K128" s="35"/>
-      <c r="L128" s="35"/>
-      <c r="M128" s="35"/>
+      <c r="K128" s="31"/>
+      <c r="L128" s="31"/>
+      <c r="M128" s="31"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C129" s="7" t="s">
@@ -5522,15 +5541,15 @@
       <c r="E129" s="8">
         <v>8</v>
       </c>
-      <c r="K129" s="35"/>
-      <c r="L129" s="35"/>
-      <c r="M129" s="35"/>
+      <c r="K129" s="31"/>
+      <c r="L129" s="31"/>
+      <c r="M129" s="31"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="7" t="s">
@@ -5542,15 +5561,15 @@
       <c r="E130" s="8">
         <v>8</v>
       </c>
-      <c r="K130" s="35"/>
-      <c r="L130" s="35"/>
-      <c r="M130" s="35"/>
+      <c r="K130" s="31"/>
+      <c r="L130" s="31"/>
+      <c r="M130" s="31"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B131" s="42" t="s">
+      <c r="B131" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="7" t="s">
@@ -5562,15 +5581,15 @@
       <c r="E131" s="8">
         <v>8</v>
       </c>
-      <c r="K131" s="35"/>
-      <c r="L131" s="35"/>
-      <c r="M131" s="35"/>
+      <c r="K131" s="31"/>
+      <c r="L131" s="31"/>
+      <c r="M131" s="31"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C132" s="7" t="s">
@@ -5582,15 +5601,15 @@
       <c r="E132" s="8">
         <v>8</v>
       </c>
-      <c r="K132" s="60"/>
-      <c r="L132" s="60"/>
-      <c r="M132" s="35"/>
+      <c r="K132" s="31"/>
+      <c r="L132" s="31"/>
+      <c r="M132" s="31"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B133" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="7" t="s">
@@ -5602,15 +5621,15 @@
       <c r="E133" s="8">
         <v>8</v>
       </c>
-      <c r="K133" s="35"/>
-      <c r="L133" s="35"/>
-      <c r="M133" s="35"/>
+      <c r="K133" s="55"/>
+      <c r="L133" s="55"/>
+      <c r="M133" s="31"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B134" s="24" t="s">
+      <c r="B134" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -5622,10 +5641,10 @@
       <c r="E134" s="8">
         <v>8</v>
       </c>
-      <c r="I134" s="15"/>
-      <c r="K134" s="35"/>
-      <c r="L134" s="35"/>
-      <c r="M134" s="35"/>
+      <c r="I134" s="14"/>
+      <c r="K134" s="31"/>
+      <c r="L134" s="31"/>
+      <c r="M134" s="31"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
@@ -5633,10 +5652,10 @@
       <c r="C135" s="7"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
-      <c r="I135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
-      <c r="M135" s="35"/>
+      <c r="I135" s="14"/>
+      <c r="K135" s="31"/>
+      <c r="L135" s="31"/>
+      <c r="M135" s="31"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
@@ -5654,10 +5673,10 @@
       <c r="E136" s="8">
         <v>10</v>
       </c>
-      <c r="I136" s="16"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-      <c r="M136" s="35"/>
+      <c r="I136" s="15"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="31"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
@@ -5675,15 +5694,15 @@
       <c r="E137" s="8">
         <v>10</v>
       </c>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
-      <c r="M137" s="35"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="31"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C138" s="7" t="s">
@@ -5695,15 +5714,15 @@
       <c r="E138" s="8">
         <v>10</v>
       </c>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="35"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="31"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C139" s="7" t="s">
@@ -5715,15 +5734,15 @@
       <c r="E139" s="8">
         <v>10</v>
       </c>
-      <c r="K139" s="16"/>
-      <c r="L139" s="16"/>
-      <c r="M139" s="35"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="31"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B140" s="42" t="s">
+      <c r="B140" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C140" s="7" t="s">
@@ -5735,15 +5754,15 @@
       <c r="E140" s="8">
         <v>10</v>
       </c>
-      <c r="K140" s="16"/>
-      <c r="L140" s="16"/>
-      <c r="M140" s="35"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="31"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C141" s="7" t="s">
@@ -5755,15 +5774,15 @@
       <c r="E141" s="8">
         <v>10</v>
       </c>
-      <c r="K141" s="16"/>
-      <c r="L141" s="16"/>
-      <c r="M141" s="35"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="31"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="22" t="s">
+      <c r="B142" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -5775,15 +5794,15 @@
       <c r="E142" s="8">
         <v>10</v>
       </c>
-      <c r="K142" s="35"/>
-      <c r="L142" s="35"/>
-      <c r="M142" s="35"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="31"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B143" s="24" t="s">
+      <c r="B143" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -5795,22 +5814,22 @@
       <c r="E143" s="8">
         <v>10</v>
       </c>
-      <c r="K143" s="35"/>
-      <c r="L143" s="35"/>
-      <c r="M143" s="35"/>
+      <c r="K143" s="31"/>
+      <c r="L143" s="31"/>
+      <c r="M143" s="31"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
-      <c r="B144" s="27"/>
+      <c r="B144" s="24"/>
       <c r="C144" s="7"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
-      <c r="K144" s="16"/>
-      <c r="L144" s="16"/>
-      <c r="M144" s="35"/>
+      <c r="K144" s="31"/>
+      <c r="L144" s="31"/>
+      <c r="M144" s="31"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -5825,12 +5844,12 @@
       <c r="E145" s="8">
         <v>9</v>
       </c>
-      <c r="K145" s="16"/>
-      <c r="L145" s="16"/>
-      <c r="M145" s="35"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="31"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A146" s="27" t="s">
+      <c r="A146" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -5845,15 +5864,15 @@
       <c r="E146" s="8">
         <v>9</v>
       </c>
-      <c r="K146" s="16"/>
-      <c r="L146" s="16"/>
-      <c r="M146" s="35"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="31"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A147" s="27" t="s">
+      <c r="A147" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C147" s="7" t="s">
@@ -5865,15 +5884,15 @@
       <c r="E147" s="8">
         <v>9</v>
       </c>
-      <c r="K147" s="35"/>
-      <c r="L147" s="35"/>
-      <c r="M147" s="35"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="31"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C148" s="7" t="s">
@@ -5885,9 +5904,12 @@
       <c r="E148" s="8">
         <v>9</v>
       </c>
+      <c r="K148" s="31"/>
+      <c r="L148" s="31"/>
+      <c r="M148" s="31"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="27"/>
+      <c r="A149" s="24"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="8"/>
@@ -5931,7 +5953,7 @@
       <c r="A152" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B152" s="13" t="s">
+      <c r="B152" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C152" s="7" t="s">
@@ -5948,7 +5970,7 @@
       <c r="A153" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -5967,7 +5989,6 @@
       <c r="C154" s="7"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
-      <c r="R154" s="35"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
@@ -5985,7 +6006,7 @@
       <c r="E155" s="8">
         <v>8</v>
       </c>
-      <c r="R155" s="35"/>
+      <c r="R155" s="31"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
@@ -6003,13 +6024,13 @@
       <c r="E156" s="8">
         <v>8</v>
       </c>
-      <c r="R156" s="35"/>
+      <c r="R156" s="31"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B157" s="13" t="s">
+      <c r="B157" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C157" s="7" t="s">
@@ -6021,13 +6042,13 @@
       <c r="E157" s="8">
         <v>8</v>
       </c>
-      <c r="R157" s="35"/>
+      <c r="R157" s="31"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C158" s="7" t="s">
@@ -6039,7 +6060,7 @@
       <c r="E158" s="8">
         <v>8</v>
       </c>
-      <c r="R158" s="35"/>
+      <c r="R158" s="31"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
@@ -6047,7 +6068,7 @@
       <c r="C159" s="7"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
-      <c r="R159" s="35"/>
+      <c r="R159" s="31"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
@@ -6065,7 +6086,7 @@
       <c r="E160" s="8">
         <v>4</v>
       </c>
-      <c r="R160" s="60"/>
+      <c r="R160" s="31"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
@@ -6083,13 +6104,13 @@
       <c r="E161" s="8">
         <v>4</v>
       </c>
-      <c r="R161" s="35"/>
+      <c r="R161" s="55"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C162" s="7" t="s">
@@ -6101,13 +6122,13 @@
       <c r="E162" s="8">
         <v>4</v>
       </c>
-      <c r="R162" s="35"/>
+      <c r="R162" s="31"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C163" s="7" t="s">
@@ -6119,7 +6140,7 @@
       <c r="E163" s="8">
         <v>4</v>
       </c>
-      <c r="R163" s="15"/>
+      <c r="R163" s="31"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
@@ -6127,7 +6148,7 @@
       <c r="C164" s="7"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
-      <c r="R164" s="15"/>
+      <c r="R164" s="14"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
@@ -6145,7 +6166,7 @@
       <c r="E165" s="8">
         <v>8</v>
       </c>
-      <c r="R165" s="16"/>
+      <c r="R165" s="14"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
@@ -6169,7 +6190,7 @@
       <c r="A167" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B167" s="13" t="s">
+      <c r="B167" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C167" s="7" t="s">
@@ -6181,13 +6202,13 @@
       <c r="E167" s="8">
         <v>8</v>
       </c>
-      <c r="R167" s="15"/>
+      <c r="R167" s="14"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="B168" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C168" s="7" t="s">
@@ -6199,7 +6220,7 @@
       <c r="E168" s="8">
         <v>8</v>
       </c>
-      <c r="R168" s="15"/>
+      <c r="R168" s="14"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
@@ -6207,10 +6228,10 @@
       <c r="C169" s="7"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
-      <c r="R169" s="15"/>
+      <c r="R169" s="14"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A170" s="27" t="s">
+      <c r="A170" s="24" t="s">
         <v>112</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -6225,10 +6246,10 @@
       <c r="E170" s="8">
         <v>5</v>
       </c>
-      <c r="R170" s="35"/>
+      <c r="R170" s="14"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A171" s="27" t="s">
+      <c r="A171" s="24" t="s">
         <v>112</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -6243,13 +6264,13 @@
       <c r="E171" s="8">
         <v>5</v>
       </c>
-      <c r="R171" s="35"/>
+      <c r="R171" s="31"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A172" s="27" t="s">
+      <c r="A172" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B172" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C172" s="7" t="s">
@@ -6261,13 +6282,13 @@
       <c r="E172" s="8">
         <v>5</v>
       </c>
-      <c r="R172" s="15"/>
+      <c r="R172" s="31"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A173" s="27" t="s">
+      <c r="A173" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B173" s="18" t="s">
+      <c r="B173" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C173" s="7" t="s">
@@ -6279,10 +6300,10 @@
       <c r="E173" s="8">
         <v>5</v>
       </c>
-      <c r="R173" s="7"/>
+      <c r="R173" s="14"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A174" s="27"/>
+      <c r="A174" s="24"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="8"/>
@@ -6305,6 +6326,7 @@
       <c r="E175" s="8">
         <v>7</v>
       </c>
+      <c r="R175" s="7"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
@@ -6327,7 +6349,7 @@
       <c r="A177" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B177" s="13" t="s">
+      <c r="B177" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C177" s="7" t="s">
@@ -6344,7 +6366,7 @@
       <c r="A178" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B178" s="18" t="s">
+      <c r="B178" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C178" s="7" t="s">
@@ -6403,7 +6425,7 @@
       <c r="A182" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B182" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C182" s="7" t="s">
@@ -6420,7 +6442,7 @@
       <c r="A183" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B183" s="18" t="s">
+      <c r="B183" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C183" s="7" t="s">
@@ -6478,7 +6500,7 @@
       <c r="A187" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B187" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C187" s="7" t="s">
@@ -6495,7 +6517,7 @@
       <c r="A188" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B188" s="18" t="s">
+      <c r="B188" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C188" s="7" t="s">
@@ -6553,7 +6575,7 @@
       <c r="A192" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B192" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C192" s="7" t="s">
@@ -6570,7 +6592,7 @@
       <c r="A193" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B193" s="18" t="s">
+      <c r="B193" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="7" t="s">
@@ -6591,7 +6613,7 @@
       <c r="E194" s="8"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="27" t="s">
+      <c r="A195" s="24" t="s">
         <v>117</v>
       </c>
       <c r="B195" s="6" t="s">
@@ -6608,7 +6630,7 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="27" t="s">
+      <c r="A196" s="24" t="s">
         <v>117</v>
       </c>
       <c r="B196" s="11" t="s">
@@ -6625,10 +6647,10 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="27" t="s">
+      <c r="A197" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B197" s="13" t="s">
+      <c r="B197" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C197" s="7" t="s">
@@ -6642,10 +6664,10 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="27" t="s">
+      <c r="A198" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B198" s="18" t="s">
+      <c r="B198" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C198" s="7" t="s">
@@ -6659,7 +6681,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="27"/>
+      <c r="A199" s="24"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
       <c r="D199" s="8"/>
@@ -6703,7 +6725,7 @@
       <c r="A202" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B202" s="13" t="s">
+      <c r="B202" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C202" s="7" t="s">
@@ -6720,7 +6742,7 @@
       <c r="A203" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -6778,7 +6800,7 @@
       <c r="A207" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B207" s="13" t="s">
+      <c r="B207" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C207" s="7" t="s">
@@ -6795,7 +6817,7 @@
       <c r="A208" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B208" s="18" t="s">
+      <c r="B208" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C208" s="7" t="s">
@@ -6853,7 +6875,7 @@
       <c r="A212" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B212" s="13" t="s">
+      <c r="B212" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C212" s="7" t="s">
@@ -6870,7 +6892,7 @@
       <c r="A213" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B213" s="18" t="s">
+      <c r="B213" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C213" s="7" t="s">
@@ -6928,7 +6950,7 @@
       <c r="A217" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B217" s="13" t="s">
+      <c r="B217" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C217" s="7" t="s">
@@ -6940,13 +6962,13 @@
       <c r="E217" s="8">
         <v>5</v>
       </c>
-      <c r="I217" s="75"/>
+      <c r="I217" s="70"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B218" s="18" t="s">
+      <c r="B218" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="7" t="s">
@@ -6958,7 +6980,7 @@
       <c r="E218" s="8">
         <v>5</v>
       </c>
-      <c r="I218" s="75"/>
+      <c r="I218" s="70"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
@@ -6966,10 +6988,10 @@
       <c r="C219" s="7"/>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
-      <c r="I219" s="75"/>
+      <c r="I219" s="70"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="27" t="s">
+      <c r="A220" s="24" t="s">
         <v>122</v>
       </c>
       <c r="B220" s="6" t="s">
@@ -6984,10 +7006,10 @@
       <c r="E220" s="8">
         <v>5</v>
       </c>
-      <c r="I220" s="75"/>
+      <c r="I220" s="70"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="27" t="s">
+      <c r="A221" s="24" t="s">
         <v>122</v>
       </c>
       <c r="B221" s="11" t="s">
@@ -7002,16 +7024,13 @@
       <c r="E221" s="8">
         <v>5</v>
       </c>
-      <c r="I221" s="75"/>
-      <c r="J221" s="35"/>
-      <c r="K221" s="35"/>
-      <c r="L221" s="35"/>
+      <c r="I221" s="70"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="27" t="s">
+      <c r="A222" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B222" s="13" t="s">
+      <c r="B222" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C222" s="7" t="s">
@@ -7023,16 +7042,16 @@
       <c r="E222" s="8">
         <v>5</v>
       </c>
-      <c r="I222" s="75"/>
-      <c r="J222" s="35"/>
-      <c r="K222" s="35"/>
-      <c r="L222" s="35"/>
+      <c r="I222" s="70"/>
+      <c r="J222" s="31"/>
+      <c r="K222" s="31"/>
+      <c r="L222" s="31"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="27" t="s">
+      <c r="A223" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B223" s="18" t="s">
+      <c r="B223" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C223" s="7" t="s">
@@ -7044,21 +7063,21 @@
       <c r="E223" s="8">
         <v>5</v>
       </c>
-      <c r="I223" s="75"/>
-      <c r="J223" s="35"/>
-      <c r="K223" s="35"/>
-      <c r="L223" s="35"/>
+      <c r="I223" s="70"/>
+      <c r="J223" s="31"/>
+      <c r="K223" s="31"/>
+      <c r="L223" s="31"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="27"/>
+      <c r="A224" s="24"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
-      <c r="I224" s="75"/>
-      <c r="J224" s="35"/>
-      <c r="K224" s="35"/>
-      <c r="L224" s="35"/>
+      <c r="I224" s="70"/>
+      <c r="J224" s="31"/>
+      <c r="K224" s="31"/>
+      <c r="L224" s="31"/>
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
@@ -7076,11 +7095,10 @@
       <c r="E225" s="8">
         <v>5</v>
       </c>
-      <c r="I225" s="75"/>
-      <c r="J225" s="35"/>
-      <c r="K225" s="35"/>
-      <c r="L225" s="35"/>
-      <c r="S225" s="35"/>
+      <c r="I225" s="70"/>
+      <c r="J225" s="31"/>
+      <c r="K225" s="31"/>
+      <c r="L225" s="31"/>
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
@@ -7098,17 +7116,17 @@
       <c r="E226" s="8">
         <v>5</v>
       </c>
-      <c r="I226" s="75"/>
-      <c r="J226" s="35"/>
-      <c r="K226" s="35"/>
-      <c r="L226" s="35"/>
-      <c r="S226" s="35"/>
+      <c r="I226" s="70"/>
+      <c r="J226" s="31"/>
+      <c r="K226" s="31"/>
+      <c r="L226" s="31"/>
+      <c r="S226" s="31"/>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B227" s="13" t="s">
+      <c r="B227" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C227" s="7" t="s">
@@ -7120,17 +7138,17 @@
       <c r="E227" s="8">
         <v>5</v>
       </c>
-      <c r="I227" s="75"/>
-      <c r="J227" s="35"/>
-      <c r="K227" s="35"/>
-      <c r="L227" s="35"/>
-      <c r="S227" s="35"/>
+      <c r="I227" s="70"/>
+      <c r="J227" s="31"/>
+      <c r="K227" s="31"/>
+      <c r="L227" s="31"/>
+      <c r="S227" s="31"/>
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B228" s="18" t="s">
+      <c r="B228" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -7142,11 +7160,11 @@
       <c r="E228" s="8">
         <v>5</v>
       </c>
-      <c r="I228" s="75"/>
-      <c r="J228" s="35"/>
-      <c r="K228" s="35"/>
-      <c r="L228" s="35"/>
-      <c r="S228" s="35"/>
+      <c r="I228" s="70"/>
+      <c r="J228" s="31"/>
+      <c r="K228" s="31"/>
+      <c r="L228" s="31"/>
+      <c r="S228" s="31"/>
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
@@ -7154,11 +7172,11 @@
       <c r="C229" s="7"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
-      <c r="I229" s="75"/>
-      <c r="J229" s="60"/>
-      <c r="K229" s="35"/>
-      <c r="L229" s="35"/>
-      <c r="S229" s="35"/>
+      <c r="I229" s="70"/>
+      <c r="J229" s="31"/>
+      <c r="K229" s="31"/>
+      <c r="L229" s="31"/>
+      <c r="S229" s="31"/>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
@@ -7176,11 +7194,11 @@
       <c r="E230" s="8">
         <v>6</v>
       </c>
-      <c r="I230" s="75"/>
-      <c r="J230" s="35"/>
-      <c r="K230" s="35"/>
-      <c r="L230" s="35"/>
-      <c r="S230" s="35"/>
+      <c r="I230" s="70"/>
+      <c r="J230" s="55"/>
+      <c r="K230" s="31"/>
+      <c r="L230" s="31"/>
+      <c r="S230" s="31"/>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
@@ -7198,17 +7216,17 @@
       <c r="E231" s="8">
         <v>6</v>
       </c>
-      <c r="I231" s="75"/>
-      <c r="J231" s="35"/>
-      <c r="K231" s="35"/>
-      <c r="L231" s="35"/>
-      <c r="S231" s="35"/>
+      <c r="I231" s="70"/>
+      <c r="J231" s="31"/>
+      <c r="K231" s="31"/>
+      <c r="L231" s="31"/>
+      <c r="S231" s="31"/>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B232" s="13" t="s">
+      <c r="B232" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C232" s="7" t="s">
@@ -7220,17 +7238,17 @@
       <c r="E232" s="8">
         <v>6</v>
       </c>
-      <c r="I232" s="75"/>
-      <c r="J232" s="15"/>
-      <c r="K232" s="35"/>
-      <c r="L232" s="35"/>
-      <c r="S232" s="35"/>
+      <c r="I232" s="70"/>
+      <c r="J232" s="31"/>
+      <c r="K232" s="31"/>
+      <c r="L232" s="31"/>
+      <c r="S232" s="31"/>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B233" s="18" t="s">
+      <c r="B233" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C233" s="7" t="s">
@@ -7242,11 +7260,11 @@
       <c r="E233" s="8">
         <v>6</v>
       </c>
-      <c r="I233" s="75"/>
-      <c r="J233" s="15"/>
-      <c r="K233" s="35"/>
-      <c r="L233" s="35"/>
-      <c r="S233" s="35"/>
+      <c r="I233" s="70"/>
+      <c r="J233" s="14"/>
+      <c r="K233" s="31"/>
+      <c r="L233" s="31"/>
+      <c r="S233" s="31"/>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
@@ -7254,11 +7272,11 @@
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
-      <c r="I234" s="75"/>
-      <c r="J234" s="15"/>
-      <c r="K234" s="35"/>
-      <c r="L234" s="35"/>
-      <c r="S234" s="35"/>
+      <c r="I234" s="70"/>
+      <c r="J234" s="14"/>
+      <c r="K234" s="31"/>
+      <c r="L234" s="31"/>
+      <c r="S234" s="31"/>
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
@@ -7276,11 +7294,11 @@
       <c r="E235" s="8">
         <v>6</v>
       </c>
-      <c r="I235" s="75"/>
-      <c r="J235" s="15"/>
-      <c r="K235" s="35"/>
-      <c r="L235" s="35"/>
-      <c r="S235" s="35"/>
+      <c r="I235" s="70"/>
+      <c r="J235" s="14"/>
+      <c r="K235" s="31"/>
+      <c r="L235" s="31"/>
+      <c r="S235" s="31"/>
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
@@ -7298,17 +7316,17 @@
       <c r="E236" s="8">
         <v>6</v>
       </c>
-      <c r="I236" s="75"/>
-      <c r="J236" s="15"/>
-      <c r="K236" s="35"/>
-      <c r="L236" s="35"/>
-      <c r="S236" s="35"/>
+      <c r="I236" s="70"/>
+      <c r="J236" s="14"/>
+      <c r="K236" s="31"/>
+      <c r="L236" s="31"/>
+      <c r="S236" s="31"/>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B237" s="13" t="s">
+      <c r="B237" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C237" s="7" t="s">
@@ -7320,17 +7338,17 @@
       <c r="E237" s="8">
         <v>6</v>
       </c>
-      <c r="I237" s="75"/>
-      <c r="J237" s="35"/>
-      <c r="K237" s="35"/>
-      <c r="L237" s="35"/>
-      <c r="S237" s="35"/>
+      <c r="I237" s="70"/>
+      <c r="J237" s="14"/>
+      <c r="K237" s="31"/>
+      <c r="L237" s="31"/>
+      <c r="S237" s="31"/>
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B238" s="18" t="s">
+      <c r="B238" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C238" s="7" t="s">
@@ -7342,20 +7360,20 @@
       <c r="E238" s="8">
         <v>6</v>
       </c>
-      <c r="I238" s="75"/>
-      <c r="J238" s="35"/>
-      <c r="K238" s="35"/>
-      <c r="L238" s="35"/>
-      <c r="S238" s="35"/>
+      <c r="I238" s="70"/>
+      <c r="J238" s="31"/>
+      <c r="K238" s="31"/>
+      <c r="L238" s="31"/>
+      <c r="S238" s="31"/>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
-      <c r="J239" s="35"/>
-      <c r="K239" s="35"/>
-      <c r="L239" s="35"/>
-      <c r="S239" s="35"/>
+      <c r="J239" s="31"/>
+      <c r="K239" s="31"/>
+      <c r="L239" s="31"/>
+      <c r="S239" s="31"/>
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
@@ -7370,15 +7388,15 @@
       <c r="D240" s="8">
         <v>1</v>
       </c>
-      <c r="E240" s="19">
-        <v>6</v>
-      </c>
-      <c r="J240" s="35"/>
-      <c r="K240" s="35"/>
-      <c r="L240" s="35"/>
-      <c r="S240" s="35"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E240" s="17">
+        <v>6</v>
+      </c>
+      <c r="J240" s="31"/>
+      <c r="K240" s="31"/>
+      <c r="L240" s="31"/>
+      <c r="S240" s="31"/>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>126</v>
       </c>
@@ -7391,18 +7409,19 @@
       <c r="D241" s="8">
         <v>7</v>
       </c>
-      <c r="E241" s="19">
-        <v>6</v>
-      </c>
-      <c r="J241" s="61"/>
-      <c r="K241" s="35"/>
-      <c r="L241" s="35"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E241" s="17">
+        <v>6</v>
+      </c>
+      <c r="J241" s="31"/>
+      <c r="K241" s="31"/>
+      <c r="L241" s="31"/>
+      <c r="S241" s="31"/>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B242" s="13" t="s">
+      <c r="B242" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C242" s="7" t="s">
@@ -7411,18 +7430,18 @@
       <c r="D242" s="8">
         <v>7</v>
       </c>
-      <c r="E242" s="19">
-        <v>6</v>
-      </c>
-      <c r="J242" s="16"/>
-      <c r="K242" s="35"/>
-      <c r="L242" s="35"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E242" s="17">
+        <v>6</v>
+      </c>
+      <c r="J242" s="56"/>
+      <c r="K242" s="31"/>
+      <c r="L242" s="31"/>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B243" s="18" t="s">
+      <c r="B243" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C243" s="7" t="s">
@@ -7431,19 +7450,21 @@
       <c r="D243" s="8">
         <v>7</v>
       </c>
-      <c r="E243" s="19">
-        <v>6</v>
-      </c>
-      <c r="J243" s="40"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E243" s="17">
+        <v>6</v>
+      </c>
+      <c r="J243" s="15"/>
+      <c r="K243" s="31"/>
+      <c r="L243" s="31"/>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
-      <c r="J244" s="7"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" s="27" t="s">
+      <c r="J244" s="36"/>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A245" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B245" s="6" t="s">
@@ -7455,13 +7476,13 @@
       <c r="D245" s="8">
         <v>1</v>
       </c>
-      <c r="E245" s="19">
+      <c r="E245" s="17">
         <v>6</v>
       </c>
       <c r="J245" s="7"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="27" t="s">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A246" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B246" s="11" t="s">
@@ -7473,15 +7494,16 @@
       <c r="D246" s="8">
         <v>7</v>
       </c>
-      <c r="E246" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" s="27" t="s">
+      <c r="E246" s="17">
+        <v>6</v>
+      </c>
+      <c r="J246" s="7"/>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A247" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B247" s="13" t="s">
+      <c r="B247" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C247" s="7" t="s">
@@ -7490,18 +7512,18 @@
       <c r="D247" s="8">
         <v>7</v>
       </c>
-      <c r="E247" s="19">
+      <c r="E247" s="17">
         <v>6</v>
       </c>
       <c r="G247" s="9"/>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="27" t="s">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A248" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B248" s="18" t="s">
+      <c r="B248" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C248" s="7" t="s">
@@ -7510,22 +7532,22 @@
       <c r="D248" s="8">
         <v>7</v>
       </c>
-      <c r="E248" s="19">
+      <c r="E248" s="17">
         <v>6</v>
       </c>
       <c r="G248" s="9"/>
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="27"/>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A249" s="24"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
       <c r="G249" s="9"/>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>128</v>
       </c>
@@ -7538,14 +7560,14 @@
       <c r="D250" s="8">
         <v>1</v>
       </c>
-      <c r="E250" s="19">
+      <c r="E250" s="17">
         <v>4</v>
       </c>
       <c r="G250" s="9"/>
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>128</v>
       </c>
@@ -7558,18 +7580,18 @@
       <c r="D251" s="8">
         <v>6</v>
       </c>
-      <c r="E251" s="19">
+      <c r="E251" s="17">
         <v>4</v>
       </c>
       <c r="G251" s="9"/>
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B252" s="13" t="s">
+      <c r="B252" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C252" s="7" t="s">
@@ -7578,18 +7600,18 @@
       <c r="D252" s="8">
         <v>6</v>
       </c>
-      <c r="E252" s="19">
+      <c r="E252" s="17">
         <v>4</v>
       </c>
       <c r="G252" s="9"/>
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B253" s="18" t="s">
+      <c r="B253" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C253" s="7" t="s">
@@ -7598,16 +7620,16 @@
       <c r="D253" s="8">
         <v>7</v>
       </c>
-      <c r="E253" s="19">
+      <c r="E253" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>129</v>
       </c>
@@ -7620,11 +7642,11 @@
       <c r="D255" s="8">
         <v>1</v>
       </c>
-      <c r="E255" s="19">
+      <c r="E255" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>129</v>
       </c>
@@ -7637,7 +7659,7 @@
       <c r="D256" s="8">
         <v>6</v>
       </c>
-      <c r="E256" s="19">
+      <c r="E256" s="17">
         <v>4</v>
       </c>
     </row>
@@ -7645,7 +7667,7 @@
       <c r="A257" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B257" s="13" t="s">
+      <c r="B257" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C257" s="7" t="s">
@@ -7654,7 +7676,7 @@
       <c r="D257" s="8">
         <v>6</v>
       </c>
-      <c r="E257" s="19">
+      <c r="E257" s="17">
         <v>4</v>
       </c>
     </row>
@@ -7662,7 +7684,7 @@
       <c r="A258" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B258" s="18" t="s">
+      <c r="B258" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C258" s="7" t="s">
@@ -7671,7 +7693,7 @@
       <c r="D258" s="8">
         <v>7</v>
       </c>
-      <c r="E258" s="19">
+      <c r="E258" s="17">
         <v>4</v>
       </c>
       <c r="G258" s="5"/>
@@ -7699,7 +7721,7 @@
       <c r="D260" s="8">
         <v>1</v>
       </c>
-      <c r="E260" s="19">
+      <c r="E260" s="17">
         <v>4</v>
       </c>
       <c r="G260" s="5"/>
@@ -7719,7 +7741,7 @@
       <c r="D261" s="8">
         <v>6</v>
       </c>
-      <c r="E261" s="19">
+      <c r="E261" s="17">
         <v>4</v>
       </c>
       <c r="G261" s="5"/>
@@ -7730,7 +7752,7 @@
       <c r="A262" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B262" s="13" t="s">
+      <c r="B262" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C262" s="7" t="s">
@@ -7739,7 +7761,7 @@
       <c r="D262" s="8">
         <v>6</v>
       </c>
-      <c r="E262" s="19">
+      <c r="E262" s="17">
         <v>4</v>
       </c>
       <c r="G262" s="5"/>
@@ -7750,7 +7772,7 @@
       <c r="A263" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B263" s="18" t="s">
+      <c r="B263" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C263" s="7" t="s">
@@ -7759,7 +7781,7 @@
       <c r="D263" s="8">
         <v>7</v>
       </c>
-      <c r="E263" s="19">
+      <c r="E263" s="17">
         <v>4</v>
       </c>
       <c r="G263" s="5"/>
@@ -7784,7 +7806,7 @@
       <c r="D265" s="8">
         <v>1</v>
       </c>
-      <c r="E265" s="19">
+      <c r="E265" s="17">
         <v>4</v>
       </c>
     </row>
@@ -7801,7 +7823,7 @@
       <c r="D266" s="8">
         <v>6</v>
       </c>
-      <c r="E266" s="19">
+      <c r="E266" s="17">
         <v>4</v>
       </c>
     </row>
@@ -7809,7 +7831,7 @@
       <c r="A267" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B267" s="13" t="s">
+      <c r="B267" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C267" s="7" t="s">
@@ -7818,7 +7840,7 @@
       <c r="D267" s="8">
         <v>6</v>
       </c>
-      <c r="E267" s="19">
+      <c r="E267" s="17">
         <v>4</v>
       </c>
     </row>
@@ -7826,7 +7848,7 @@
       <c r="A268" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B268" s="18" t="s">
+      <c r="B268" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C268" s="7" t="s">
@@ -7835,7 +7857,7 @@
       <c r="D268" s="8">
         <v>7</v>
       </c>
-      <c r="E268" s="19">
+      <c r="E268" s="17">
         <v>4</v>
       </c>
     </row>
@@ -7845,7 +7867,7 @@
       <c r="C269" s="7"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="27" t="s">
+      <c r="A270" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B270" s="6" t="s">
@@ -7857,12 +7879,12 @@
       <c r="D270" s="8">
         <v>1</v>
       </c>
-      <c r="E270" s="19">
+      <c r="E270" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="27" t="s">
+      <c r="A271" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B271" s="11" t="s">
@@ -7874,15 +7896,15 @@
       <c r="D271" s="8">
         <v>7</v>
       </c>
-      <c r="E271" s="19">
+      <c r="E271" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" s="27" t="s">
+      <c r="A272" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B272" s="13" t="s">
+      <c r="B272" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C272" s="7" t="s">
@@ -7891,15 +7913,15 @@
       <c r="D272" s="8">
         <v>7</v>
       </c>
-      <c r="E272" s="19">
+      <c r="E272" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="27" t="s">
+      <c r="A273" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B273" s="18" t="s">
+      <c r="B273" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C273" s="7" t="s">
@@ -7908,13 +7930,13 @@
       <c r="D273" s="8">
         <v>7</v>
       </c>
-      <c r="E273" s="19">
+      <c r="E273" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
-      <c r="B274" s="27"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="7"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -7930,7 +7952,7 @@
       <c r="D275" s="8">
         <v>1</v>
       </c>
-      <c r="E275" s="19">
+      <c r="E275" s="17">
         <v>3</v>
       </c>
     </row>
@@ -7947,7 +7969,7 @@
       <c r="D276" s="8">
         <v>6</v>
       </c>
-      <c r="E276" s="19">
+      <c r="E276" s="17">
         <v>3</v>
       </c>
     </row>
@@ -7955,7 +7977,7 @@
       <c r="A277" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B277" s="13" t="s">
+      <c r="B277" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C277" s="7" t="s">
@@ -7964,7 +7986,7 @@
       <c r="D277" s="8">
         <v>6</v>
       </c>
-      <c r="E277" s="19">
+      <c r="E277" s="17">
         <v>3</v>
       </c>
     </row>
@@ -7972,7 +7994,7 @@
       <c r="A278" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B278" s="18" t="s">
+      <c r="B278" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C278" s="7" t="s">
@@ -7981,13 +8003,13 @@
       <c r="D278" s="8">
         <v>7</v>
       </c>
-      <c r="E278" s="19">
+      <c r="E278" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
-      <c r="B279" s="27"/>
+      <c r="B279" s="24"/>
       <c r="C279" s="7"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -8003,7 +8025,7 @@
       <c r="D280" s="8">
         <v>1</v>
       </c>
-      <c r="E280" s="19">
+      <c r="E280" s="17">
         <v>4</v>
       </c>
     </row>
@@ -8020,7 +8042,7 @@
       <c r="D281" s="8">
         <v>6</v>
       </c>
-      <c r="E281" s="19">
+      <c r="E281" s="17">
         <v>4</v>
       </c>
     </row>
@@ -8028,7 +8050,7 @@
       <c r="A282" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B282" s="13" t="s">
+      <c r="B282" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C282" s="7" t="s">
@@ -8037,7 +8059,7 @@
       <c r="D282" s="8">
         <v>6</v>
       </c>
-      <c r="E282" s="19">
+      <c r="E282" s="17">
         <v>4</v>
       </c>
     </row>
@@ -8045,7 +8067,7 @@
       <c r="A283" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B283" s="18" t="s">
+      <c r="B283" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C283" s="7" t="s">
@@ -8054,13 +8076,13 @@
       <c r="D283" s="8">
         <v>7</v>
       </c>
-      <c r="E283" s="19">
+      <c r="E283" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="27"/>
-      <c r="B284" s="27"/>
+      <c r="A284" s="24"/>
+      <c r="B284" s="24"/>
       <c r="C284" s="7"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -8076,7 +8098,7 @@
       <c r="D285" s="8">
         <v>1</v>
       </c>
-      <c r="E285" s="19">
+      <c r="E285" s="17">
         <v>4</v>
       </c>
     </row>
@@ -8093,7 +8115,7 @@
       <c r="D286" s="8">
         <v>6</v>
       </c>
-      <c r="E286" s="19">
+      <c r="E286" s="17">
         <v>4</v>
       </c>
     </row>
@@ -8101,7 +8123,7 @@
       <c r="A287" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B287" s="13" t="s">
+      <c r="B287" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C287" s="7" t="s">
@@ -8110,7 +8132,7 @@
       <c r="D287" s="8">
         <v>6</v>
       </c>
-      <c r="E287" s="19">
+      <c r="E287" s="17">
         <v>4</v>
       </c>
     </row>
@@ -8118,7 +8140,7 @@
       <c r="A288" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B288" s="18" t="s">
+      <c r="B288" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C288" s="7" t="s">
@@ -8127,17 +8149,17 @@
       <c r="D288" s="8">
         <v>7</v>
       </c>
-      <c r="E288" s="19">
+      <c r="E288" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
-      <c r="B289" s="27"/>
+      <c r="B289" s="24"/>
       <c r="C289" s="7"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="27" t="s">
+      <c r="A290" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B290" s="6" t="s">
@@ -8149,12 +8171,12 @@
       <c r="D290" s="8">
         <v>1</v>
       </c>
-      <c r="E290" s="19">
+      <c r="E290" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="27" t="s">
+      <c r="A291" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B291" s="11" t="s">
@@ -8166,15 +8188,15 @@
       <c r="D291" s="8">
         <v>6</v>
       </c>
-      <c r="E291" s="19">
+      <c r="E291" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="27" t="s">
+      <c r="A292" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B292" s="13" t="s">
+      <c r="B292" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C292" s="7" t="s">
@@ -8183,15 +8205,15 @@
       <c r="D292" s="8">
         <v>6</v>
       </c>
-      <c r="E292" s="19">
+      <c r="E292" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="27" t="s">
+      <c r="A293" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B293" s="18" t="s">
+      <c r="B293" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C293" s="7" t="s">
@@ -8200,13 +8222,13 @@
       <c r="D293" s="8">
         <v>7</v>
       </c>
-      <c r="E293" s="19">
+      <c r="E293" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
-      <c r="B294" s="27"/>
+      <c r="B294" s="24"/>
       <c r="C294" s="7"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -8222,7 +8244,7 @@
       <c r="D295" s="8">
         <v>1</v>
       </c>
-      <c r="E295" s="19">
+      <c r="E295" s="17">
         <v>4</v>
       </c>
     </row>
@@ -8239,7 +8261,7 @@
       <c r="D296" s="8">
         <v>6</v>
       </c>
-      <c r="E296" s="19">
+      <c r="E296" s="17">
         <v>4</v>
       </c>
     </row>
@@ -8247,7 +8269,7 @@
       <c r="A297" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B297" s="13" t="s">
+      <c r="B297" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C297" s="7" t="s">
@@ -8256,7 +8278,7 @@
       <c r="D297" s="8">
         <v>6</v>
       </c>
-      <c r="E297" s="19">
+      <c r="E297" s="17">
         <v>4</v>
       </c>
     </row>
@@ -8264,7 +8286,7 @@
       <c r="A298" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B298" s="18" t="s">
+      <c r="B298" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C298" s="7" t="s">
@@ -8273,13 +8295,13 @@
       <c r="D298" s="8">
         <v>7</v>
       </c>
-      <c r="E298" s="19">
+      <c r="E298" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
-      <c r="B299" s="27"/>
+      <c r="B299" s="24"/>
       <c r="C299" s="7"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -8322,7 +8344,7 @@
       <c r="A302" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B302" s="13" t="s">
+      <c r="B302" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C302" s="7" t="s">
@@ -8339,7 +8361,7 @@
       <c r="A303" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B303" s="18" t="s">
+      <c r="B303" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C303" s="7" t="s">
@@ -8353,8 +8375,8 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="27"/>
-      <c r="B304" s="27"/>
+      <c r="A304" s="24"/>
+      <c r="B304" s="24"/>
       <c r="C304" s="7"/>
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
@@ -8397,7 +8419,7 @@
       <c r="A307" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B307" s="13" t="s">
+      <c r="B307" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C307" s="7" t="s">
@@ -8414,7 +8436,7 @@
       <c r="A308" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B308" s="18" t="s">
+      <c r="B308" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C308" s="7" t="s">
@@ -8429,7 +8451,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
-      <c r="B309" s="27"/>
+      <c r="B309" s="24"/>
       <c r="C309" s="7"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
@@ -8472,7 +8494,7 @@
       <c r="A312" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B312" s="13" t="s">
+      <c r="B312" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C312" s="7" t="s">
@@ -8489,7 +8511,7 @@
       <c r="A313" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B313" s="18" t="s">
+      <c r="B313" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C313" s="7" t="s">
@@ -8504,13 +8526,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="5"/>
-      <c r="B314" s="27"/>
+      <c r="B314" s="24"/>
       <c r="C314" s="7"/>
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="27" t="s">
+      <c r="A315" s="24" t="s">
         <v>142</v>
       </c>
       <c r="B315" s="6" t="s">
@@ -8527,7 +8549,7 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="27" t="s">
+      <c r="A316" s="24" t="s">
         <v>142</v>
       </c>
       <c r="B316" s="11" t="s">
@@ -8544,10 +8566,10 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="27" t="s">
+      <c r="A317" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B317" s="13" t="s">
+      <c r="B317" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C317" s="7" t="s">
@@ -8561,10 +8583,10 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="27" t="s">
+      <c r="A318" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B318" s="18" t="s">
+      <c r="B318" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C318" s="7" t="s">
@@ -8579,7 +8601,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="5"/>
-      <c r="B319" s="27"/>
+      <c r="B319" s="24"/>
       <c r="C319" s="7"/>
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
@@ -8622,7 +8644,7 @@
       <c r="A322" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B322" s="13" t="s">
+      <c r="B322" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C322" s="7" t="s">
@@ -8639,7 +8661,7 @@
       <c r="A323" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B323" s="18" t="s">
+      <c r="B323" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C323" s="7" t="s">
@@ -8654,13 +8676,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="5"/>
-      <c r="B324" s="27"/>
+      <c r="B324" s="24"/>
       <c r="C324" s="7"/>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="27" t="s">
+      <c r="A325" s="24" t="s">
         <v>144</v>
       </c>
       <c r="B325" s="6" t="s">
@@ -8677,7 +8699,7 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="27" t="s">
+      <c r="A326" s="24" t="s">
         <v>144</v>
       </c>
       <c r="B326" s="11" t="s">
@@ -8694,10 +8716,10 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="27" t="s">
+      <c r="A327" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B327" s="13" t="s">
+      <c r="B327" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C327" s="7" t="s">
@@ -8711,10 +8733,10 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="27" t="s">
+      <c r="A328" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B328" s="18" t="s">
+      <c r="B328" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C328" s="7" t="s">
@@ -8728,10 +8750,10 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="27" t="s">
+      <c r="A329" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B329" s="20" t="s">
+      <c r="B329" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C329" s="7" t="s">
@@ -8745,10 +8767,10 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="27" t="s">
+      <c r="A330" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B330" s="22" t="s">
+      <c r="B330" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C330" s="7" t="s">
@@ -8762,10 +8784,10 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="27" t="s">
+      <c r="A331" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B331" s="24" t="s">
+      <c r="B331" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C331" s="7" t="s">
@@ -8780,7 +8802,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="5"/>
-      <c r="B332" s="27"/>
+      <c r="B332" s="24"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
@@ -8823,7 +8845,7 @@
       <c r="A335" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B335" s="13" t="s">
+      <c r="B335" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C335" s="7" t="s">
@@ -8840,7 +8862,7 @@
       <c r="A336" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B336" s="18" t="s">
+      <c r="B336" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C336" s="7" t="s">
@@ -8857,7 +8879,7 @@
       <c r="A337" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B337" s="20" t="s">
+      <c r="B337" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C337" s="7" t="s">
@@ -8874,7 +8896,7 @@
       <c r="A338" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B338" s="22" t="s">
+      <c r="B338" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C338" s="7" t="s">
@@ -8891,7 +8913,7 @@
       <c r="A339" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B339" s="24" t="s">
+      <c r="B339" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C339" s="7" t="s">
@@ -8906,7 +8928,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
-      <c r="B340" s="27"/>
+      <c r="B340" s="24"/>
       <c r="C340" s="7"/>
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
@@ -8949,7 +8971,7 @@
       <c r="A343" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B343" s="13" t="s">
+      <c r="B343" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C343" s="7" t="s">
@@ -8966,7 +8988,7 @@
       <c r="A344" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B344" s="18" t="s">
+      <c r="B344" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C344" s="7" t="s">
@@ -8983,7 +9005,7 @@
       <c r="A345" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B345" s="20" t="s">
+      <c r="B345" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C345" s="7" t="s">
@@ -9000,7 +9022,7 @@
       <c r="A346" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B346" s="22" t="s">
+      <c r="B346" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C346" s="7" t="s">
@@ -9017,7 +9039,7 @@
       <c r="A347" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B347" s="24" t="s">
+      <c r="B347" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C347" s="7" t="s">
@@ -9031,8 +9053,8 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="27"/>
-      <c r="B348" s="27"/>
+      <c r="A348" s="24"/>
+      <c r="B348" s="24"/>
       <c r="C348" s="7"/>
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
@@ -9075,7 +9097,7 @@
       <c r="A351" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B351" s="13" t="s">
+      <c r="B351" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C351" s="7" t="s">
@@ -9092,7 +9114,7 @@
       <c r="A352" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B352" s="18" t="s">
+      <c r="B352" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C352" s="7" t="s">
@@ -9109,7 +9131,7 @@
       <c r="A353" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B353" s="20" t="s">
+      <c r="B353" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C353" s="7" t="s">
@@ -9126,7 +9148,7 @@
       <c r="A354" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B354" s="22" t="s">
+      <c r="B354" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C354" s="7" t="s">
@@ -9143,7 +9165,7 @@
       <c r="A355" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B355" s="24" t="s">
+      <c r="B355" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C355" s="7" t="s">
@@ -9158,7 +9180,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="5"/>
-      <c r="B356" s="27"/>
+      <c r="B356" s="24"/>
       <c r="C356" s="7"/>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
@@ -9201,7 +9223,7 @@
       <c r="A359" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B359" s="13" t="s">
+      <c r="B359" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C359" s="7" t="s">
@@ -9218,7 +9240,7 @@
       <c r="A360" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B360" s="18" t="s">
+      <c r="B360" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C360" s="7" t="s">
@@ -9235,7 +9257,7 @@
       <c r="A361" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B361" s="20" t="s">
+      <c r="B361" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C361" s="7" t="s">
@@ -9252,7 +9274,7 @@
       <c r="A362" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B362" s="22" t="s">
+      <c r="B362" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C362" s="7" t="s">
@@ -9269,7 +9291,7 @@
       <c r="A363" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B363" s="24" t="s">
+      <c r="B363" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C363" s="7" t="s">
@@ -9284,14 +9306,14 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="5"/>
-      <c r="B364" s="27"/>
+      <c r="B364" s="24"/>
       <c r="C364" s="7"/>
       <c r="D364" s="8"/>
       <c r="E364" s="8"/>
-      <c r="F364" s="41"/>
+      <c r="F364" s="37"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="27" t="s">
+      <c r="A365" s="24" t="s">
         <v>149</v>
       </c>
       <c r="B365" s="6" t="s">
@@ -9309,7 +9331,7 @@
       <c r="F365" s="5"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="27" t="s">
+      <c r="A366" s="24" t="s">
         <v>149</v>
       </c>
       <c r="B366" s="11" t="s">
@@ -9324,13 +9346,13 @@
       <c r="E366" s="8">
         <v>6</v>
       </c>
-      <c r="F366" s="41"/>
+      <c r="F366" s="37"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="27" t="s">
+      <c r="A367" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B367" s="13" t="s">
+      <c r="B367" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C367" s="7" t="s">
@@ -9342,13 +9364,13 @@
       <c r="E367" s="8">
         <v>6</v>
       </c>
-      <c r="F367" s="41"/>
+      <c r="F367" s="37"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="27" t="s">
+      <c r="A368" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B368" s="18" t="s">
+      <c r="B368" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C368" s="7" t="s">
@@ -9360,13 +9382,13 @@
       <c r="E368" s="8">
         <v>6</v>
       </c>
-      <c r="F368" s="41"/>
+      <c r="F368" s="37"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="27" t="s">
+      <c r="A369" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B369" s="20" t="s">
+      <c r="B369" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C369" s="7" t="s">
@@ -9378,13 +9400,13 @@
       <c r="E369" s="8">
         <v>6</v>
       </c>
-      <c r="F369" s="41"/>
+      <c r="F369" s="37"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="27" t="s">
+      <c r="A370" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B370" s="22" t="s">
+      <c r="B370" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C370" s="7" t="s">
@@ -9396,13 +9418,13 @@
       <c r="E370" s="8">
         <v>6</v>
       </c>
-      <c r="F370" s="41"/>
+      <c r="F370" s="37"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="27" t="s">
+      <c r="A371" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B371" s="24" t="s">
+      <c r="B371" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C371" s="7" t="s">
@@ -9414,15 +9436,15 @@
       <c r="E371" s="8">
         <v>6</v>
       </c>
-      <c r="F371" s="41"/>
+      <c r="F371" s="37"/>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="5"/>
-      <c r="B372" s="27"/>
+      <c r="B372" s="24"/>
       <c r="C372" s="7"/>
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
-      <c r="F372" s="41"/>
+      <c r="F372" s="37"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
@@ -9440,7 +9462,7 @@
       <c r="E373" s="8">
         <v>10</v>
       </c>
-      <c r="F373" s="41"/>
+      <c r="F373" s="37"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
@@ -9458,13 +9480,13 @@
       <c r="E374" s="8">
         <v>10</v>
       </c>
-      <c r="F374" s="41"/>
+      <c r="F374" s="37"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B375" s="13" t="s">
+      <c r="B375" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C375" s="7" t="s">
@@ -9476,13 +9498,13 @@
       <c r="E375" s="8">
         <v>10</v>
       </c>
-      <c r="F375" s="41"/>
+      <c r="F375" s="37"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B376" s="18" t="s">
+      <c r="B376" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C376" s="7" t="s">
@@ -9494,13 +9516,13 @@
       <c r="E376" s="8">
         <v>10</v>
       </c>
-      <c r="F376" s="41"/>
+      <c r="F376" s="37"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B377" s="20" t="s">
+      <c r="B377" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C377" s="7" t="s">
@@ -9512,13 +9534,13 @@
       <c r="E377" s="8">
         <v>10</v>
       </c>
-      <c r="F377" s="41"/>
+      <c r="F377" s="37"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B378" s="22" t="s">
+      <c r="B378" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C378" s="7" t="s">
@@ -9530,13 +9552,13 @@
       <c r="E378" s="8">
         <v>10</v>
       </c>
-      <c r="F378" s="41"/>
+      <c r="F378" s="37"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B379" s="24" t="s">
+      <c r="B379" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C379" s="7" t="s">
@@ -9548,15 +9570,15 @@
       <c r="E379" s="8">
         <v>10</v>
       </c>
-      <c r="F379" s="41"/>
+      <c r="F379" s="37"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="5"/>
-      <c r="B380" s="27"/>
+      <c r="B380" s="24"/>
       <c r="C380" s="7"/>
       <c r="D380" s="8"/>
       <c r="E380" s="8"/>
-      <c r="F380" s="41"/>
+      <c r="F380" s="37"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
@@ -9574,7 +9596,7 @@
       <c r="E381" s="8">
         <v>8</v>
       </c>
-      <c r="F381" s="41"/>
+      <c r="F381" s="37"/>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
@@ -9592,13 +9614,13 @@
       <c r="E382" s="8">
         <v>8</v>
       </c>
-      <c r="F382" s="41"/>
+      <c r="F382" s="37"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B383" s="13" t="s">
+      <c r="B383" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C383" s="7" t="s">
@@ -9610,13 +9632,13 @@
       <c r="E383" s="8">
         <v>8</v>
       </c>
-      <c r="F383" s="41"/>
+      <c r="F383" s="37"/>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B384" s="18" t="s">
+      <c r="B384" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C384" s="7" t="s">
@@ -9628,13 +9650,13 @@
       <c r="E384" s="8">
         <v>8</v>
       </c>
-      <c r="F384" s="41"/>
+      <c r="F384" s="37"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B385" s="20" t="s">
+      <c r="B385" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C385" s="7" t="s">
@@ -9646,13 +9668,13 @@
       <c r="E385" s="8">
         <v>8</v>
       </c>
-      <c r="F385" s="41"/>
+      <c r="F385" s="37"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B386" s="22" t="s">
+      <c r="B386" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C386" s="7" t="s">
@@ -9664,13 +9686,13 @@
       <c r="E386" s="8">
         <v>8</v>
       </c>
-      <c r="F386" s="41"/>
+      <c r="F386" s="37"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B387" s="24" t="s">
+      <c r="B387" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C387" s="7" t="s">
@@ -9685,7 +9707,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="5"/>
-      <c r="B388" s="27"/>
+      <c r="B388" s="24"/>
       <c r="C388" s="7"/>
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
@@ -9728,7 +9750,7 @@
       <c r="A391" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B391" s="13" t="s">
+      <c r="B391" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C391" s="7" t="s">
@@ -9745,7 +9767,7 @@
       <c r="A392" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B392" s="18" t="s">
+      <c r="B392" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C392" s="7" t="s">
@@ -9762,7 +9784,7 @@
       <c r="A393" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B393" s="20" t="s">
+      <c r="B393" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C393" s="7" t="s">
@@ -9779,7 +9801,7 @@
       <c r="A394" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B394" s="22" t="s">
+      <c r="B394" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C394" s="7" t="s">
@@ -9796,7 +9818,7 @@
       <c r="A395" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B395" s="24" t="s">
+      <c r="B395" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C395" s="7" t="s">
@@ -9811,7 +9833,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="5"/>
-      <c r="B396" s="27"/>
+      <c r="B396" s="24"/>
       <c r="C396" s="7"/>
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>
@@ -9854,7 +9876,7 @@
       <c r="A399" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B399" s="13" t="s">
+      <c r="B399" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C399" s="7" t="s">
@@ -9871,7 +9893,7 @@
       <c r="A400" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B400" s="18" t="s">
+      <c r="B400" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C400" s="7" t="s">
@@ -9886,13 +9908,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="5"/>
-      <c r="B401" s="27"/>
+      <c r="B401" s="24"/>
       <c r="C401" s="7"/>
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="27" t="s">
+      <c r="A402" s="24" t="s">
         <v>181</v>
       </c>
       <c r="B402" s="6" t="s">
@@ -9909,7 +9931,7 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="27" t="s">
+      <c r="A403" s="24" t="s">
         <v>181</v>
       </c>
       <c r="B403" s="11" t="s">
@@ -9926,10 +9948,10 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="27" t="s">
+      <c r="A404" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B404" s="13" t="s">
+      <c r="B404" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C404" s="7" t="s">
@@ -9943,10 +9965,10 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="27" t="s">
+      <c r="A405" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B405" s="18" t="s">
+      <c r="B405" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C405" s="7" t="s">
@@ -9961,7 +9983,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="5"/>
-      <c r="B406" s="27"/>
+      <c r="B406" s="24"/>
       <c r="C406" s="7"/>
       <c r="D406" s="8"/>
       <c r="E406" s="8"/>
@@ -10004,7 +10026,7 @@
       <c r="A409" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B409" s="13" t="s">
+      <c r="B409" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C409" s="7" t="s">
@@ -10021,7 +10043,7 @@
       <c r="A410" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B410" s="18" t="s">
+      <c r="B410" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C410" s="7" t="s">
@@ -10036,7 +10058,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="5"/>
-      <c r="B411" s="27"/>
+      <c r="B411" s="24"/>
       <c r="C411" s="7"/>
       <c r="D411" s="8"/>
       <c r="E411" s="8"/>
@@ -10079,7 +10101,7 @@
       <c r="A414" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B414" s="13" t="s">
+      <c r="B414" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C414" s="7" t="s">
@@ -10096,7 +10118,7 @@
       <c r="A415" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B415" s="18" t="s">
+      <c r="B415" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C415" s="7" t="s">
@@ -10110,8 +10132,8 @@
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="27"/>
-      <c r="B416" s="27"/>
+      <c r="A416" s="24"/>
+      <c r="B416" s="24"/>
       <c r="C416" s="7"/>
       <c r="D416" s="8"/>
       <c r="E416" s="8"/>
@@ -10154,7 +10176,7 @@
       <c r="A419" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B419" s="13" t="s">
+      <c r="B419" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C419" s="7" t="s">
@@ -10171,7 +10193,7 @@
       <c r="A420" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B420" s="18" t="s">
+      <c r="B420" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C420" s="7" t="s">
@@ -10186,7 +10208,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="5"/>
-      <c r="B421" s="27"/>
+      <c r="B421" s="24"/>
       <c r="C421" s="7"/>
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
@@ -10229,7 +10251,7 @@
       <c r="A424" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B424" s="13" t="s">
+      <c r="B424" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C424" s="7" t="s">
@@ -10246,7 +10268,7 @@
       <c r="A425" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B425" s="18" t="s">
+      <c r="B425" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C425" s="7" t="s">
@@ -10261,13 +10283,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="5"/>
-      <c r="B426" s="27"/>
+      <c r="B426" s="24"/>
       <c r="C426" s="7"/>
       <c r="D426" s="8"/>
       <c r="E426" s="8"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="27" t="s">
+      <c r="A427" s="24" t="s">
         <v>186</v>
       </c>
       <c r="B427" s="6" t="s">
@@ -10284,7 +10306,7 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="27" t="s">
+      <c r="A428" s="24" t="s">
         <v>186</v>
       </c>
       <c r="B428" s="11" t="s">
@@ -10301,10 +10323,10 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="27" t="s">
+      <c r="A429" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B429" s="13" t="s">
+      <c r="B429" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C429" s="7" t="s">
@@ -10318,10 +10340,10 @@
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="27" t="s">
+      <c r="A430" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B430" s="18" t="s">
+      <c r="B430" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C430" s="7" t="s">
@@ -10336,7 +10358,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="5"/>
-      <c r="B431" s="27"/>
+      <c r="B431" s="24"/>
       <c r="C431" s="7"/>
       <c r="D431" s="8"/>
       <c r="E431" s="8"/>
@@ -10379,7 +10401,7 @@
       <c r="A434" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B434" s="13" t="s">
+      <c r="B434" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C434" s="7" t="s">
@@ -10396,7 +10418,7 @@
       <c r="A435" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B435" s="18" t="s">
+      <c r="B435" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C435" s="7" t="s">
@@ -10411,7 +10433,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="5"/>
-      <c r="B436" s="27"/>
+      <c r="B436" s="24"/>
       <c r="C436" s="7"/>
       <c r="D436" s="8"/>
       <c r="E436" s="8"/>
@@ -10454,7 +10476,7 @@
       <c r="A439" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B439" s="13" t="s">
+      <c r="B439" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C439" s="7" t="s">
@@ -10471,7 +10493,7 @@
       <c r="A440" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B440" s="18" t="s">
+      <c r="B440" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C440" s="7" t="s">
@@ -10485,8 +10507,8 @@
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="27"/>
-      <c r="B441" s="27"/>
+      <c r="A441" s="24"/>
+      <c r="B441" s="24"/>
       <c r="C441" s="7"/>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
@@ -10529,7 +10551,7 @@
       <c r="A444" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B444" s="13" t="s">
+      <c r="B444" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C444" s="7" t="s">
@@ -10546,7 +10568,7 @@
       <c r="A445" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B445" s="18" t="s">
+      <c r="B445" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C445" s="7" t="s">
@@ -10561,7 +10583,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="5"/>
-      <c r="B446" s="27"/>
+      <c r="B446" s="24"/>
       <c r="C446" s="7"/>
       <c r="D446" s="8"/>
       <c r="E446" s="8"/>
@@ -10604,7 +10626,7 @@
       <c r="A449" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B449" s="13" t="s">
+      <c r="B449" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C449" s="7" t="s">
@@ -10621,7 +10643,7 @@
       <c r="A450" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B450" s="18" t="s">
+      <c r="B450" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C450" s="7" t="s">
@@ -10636,7 +10658,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="5"/>
-      <c r="B451" s="27"/>
+      <c r="B451" s="24"/>
       <c r="C451" s="7"/>
       <c r="D451" s="8"/>
       <c r="E451" s="8"/>
@@ -10679,7 +10701,7 @@
       <c r="A454" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B454" s="13" t="s">
+      <c r="B454" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C454" s="7" t="s">
@@ -10696,7 +10718,7 @@
       <c r="A455" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B455" s="18" t="s">
+      <c r="B455" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C455" s="7" t="s">
@@ -10710,8 +10732,8 @@
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="27"/>
-      <c r="B456" s="27"/>
+      <c r="A456" s="24"/>
+      <c r="B456" s="24"/>
       <c r="C456" s="7"/>
       <c r="D456" s="8"/>
       <c r="E456" s="8"/>
@@ -10754,7 +10776,7 @@
       <c r="A459" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B459" s="13" t="s">
+      <c r="B459" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C459" s="7" t="s">
@@ -10771,7 +10793,7 @@
       <c r="A460" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B460" s="18" t="s">
+      <c r="B460" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C460" s="7" t="s">
@@ -10786,7 +10808,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="5"/>
-      <c r="B461" s="27"/>
+      <c r="B461" s="24"/>
       <c r="C461" s="7"/>
       <c r="D461" s="8"/>
       <c r="E461" s="8"/>
@@ -10829,7 +10851,7 @@
       <c r="A464" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B464" s="13" t="s">
+      <c r="B464" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C464" s="7" t="s">
@@ -10846,7 +10868,7 @@
       <c r="A465" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B465" s="18" t="s">
+      <c r="B465" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C465" s="7" t="s">
@@ -10861,13 +10883,13 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="5"/>
-      <c r="B466" s="27"/>
+      <c r="B466" s="24"/>
       <c r="C466" s="7"/>
       <c r="D466" s="8"/>
       <c r="E466" s="8"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467" s="27" t="s">
+      <c r="A467" s="24" t="s">
         <v>194</v>
       </c>
       <c r="B467" s="6" t="s">
@@ -10884,7 +10906,7 @@
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="27" t="s">
+      <c r="A468" s="24" t="s">
         <v>194</v>
       </c>
       <c r="B468" s="11" t="s">
@@ -10901,10 +10923,10 @@
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="27" t="s">
+      <c r="A469" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="B469" s="13" t="s">
+      <c r="B469" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C469" s="7" t="s">
@@ -10918,10 +10940,10 @@
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="27" t="s">
+      <c r="A470" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="B470" s="18" t="s">
+      <c r="B470" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C470" s="7" t="s">
@@ -10936,7 +10958,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="5"/>
-      <c r="B471" s="27"/>
+      <c r="B471" s="24"/>
       <c r="C471" s="7"/>
       <c r="D471" s="8"/>
       <c r="E471" s="8"/>
@@ -10981,7 +11003,7 @@
       <c r="A474" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B474" s="13" t="s">
+      <c r="B474" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C474" s="7" t="s">
@@ -10998,7 +11020,7 @@
       <c r="A475" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B475" s="18" t="s">
+      <c r="B475" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C475" s="7" t="s">
@@ -11013,7 +11035,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="5"/>
-      <c r="B476" s="27"/>
+      <c r="B476" s="24"/>
       <c r="C476" s="7"/>
       <c r="D476" s="8"/>
       <c r="E476" s="8"/>
@@ -11056,7 +11078,7 @@
       <c r="A479" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B479" s="13" t="s">
+      <c r="B479" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C479" s="7" t="s">
@@ -11073,7 +11095,7 @@
       <c r="A480" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B480" s="18" t="s">
+      <c r="B480" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C480" s="7" t="s">
@@ -11087,8 +11109,8 @@
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="27"/>
-      <c r="B481" s="27"/>
+      <c r="A481" s="24"/>
+      <c r="B481" s="24"/>
       <c r="C481" s="7"/>
       <c r="D481" s="8"/>
       <c r="E481" s="8"/>
@@ -11131,7 +11153,7 @@
       <c r="A484" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B484" s="13" t="s">
+      <c r="B484" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C484" s="7" t="s">
@@ -11148,7 +11170,7 @@
       <c r="A485" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B485" s="18" t="s">
+      <c r="B485" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C485" s="7" t="s">
@@ -11163,7 +11185,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="5"/>
-      <c r="B486" s="27"/>
+      <c r="B486" s="24"/>
       <c r="C486" s="7"/>
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
@@ -11206,7 +11228,7 @@
       <c r="A489" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B489" s="13" t="s">
+      <c r="B489" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C489" s="7" t="s">
@@ -11223,7 +11245,7 @@
       <c r="A490" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B490" s="18" t="s">
+      <c r="B490" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C490" s="7" t="s">
@@ -11238,13 +11260,13 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="5"/>
-      <c r="B491" s="27"/>
+      <c r="B491" s="24"/>
       <c r="C491" s="7"/>
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="27" t="s">
+      <c r="A492" s="24" t="s">
         <v>199</v>
       </c>
       <c r="B492" s="6" t="s">
@@ -11261,7 +11283,7 @@
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="27" t="s">
+      <c r="A493" s="24" t="s">
         <v>199</v>
       </c>
       <c r="B493" s="11" t="s">
@@ -11278,10 +11300,10 @@
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="27" t="s">
+      <c r="A494" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="B494" s="13" t="s">
+      <c r="B494" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C494" s="7" t="s">
@@ -11295,10 +11317,10 @@
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="27" t="s">
+      <c r="A495" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="B495" s="18" t="s">
+      <c r="B495" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C495" s="7" t="s">
@@ -11313,13 +11335,13 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="5"/>
-      <c r="B496" s="27"/>
+      <c r="B496" s="24"/>
       <c r="C496" s="7"/>
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A497" s="27" t="s">
+      <c r="A497" s="24" t="s">
         <v>235</v>
       </c>
       <c r="B497" s="6" t="s">
@@ -11337,10 +11359,10 @@
       <c r="F497" s="5"/>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A498" s="27" t="s">
+      <c r="A498" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B498" s="18" t="s">
+      <c r="B498" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C498" s="7" t="s">
@@ -11355,7 +11377,7 @@
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="5"/>
-      <c r="B499" s="27"/>
+      <c r="B499" s="24"/>
       <c r="C499" s="7"/>
       <c r="D499" s="8"/>
       <c r="E499" s="8"/>
@@ -11381,7 +11403,7 @@
       <c r="A501" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B501" s="18" t="s">
+      <c r="B501" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C501" s="7" t="s">
@@ -11396,11 +11418,11 @@
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="5"/>
-      <c r="B502" s="27"/>
+      <c r="B502" s="24"/>
       <c r="C502" s="7"/>
       <c r="D502" s="8"/>
       <c r="E502" s="8"/>
-      <c r="I502" s="16"/>
+      <c r="I502" s="15"/>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
@@ -11423,7 +11445,7 @@
       <c r="A504" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B504" s="18" t="s">
+      <c r="B504" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C504" s="7" t="s">
@@ -11438,7 +11460,7 @@
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="5"/>
-      <c r="B505" s="27"/>
+      <c r="B505" s="24"/>
       <c r="C505" s="7"/>
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
@@ -11464,7 +11486,7 @@
       <c r="A507" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B507" s="18" t="s">
+      <c r="B507" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C507" s="7" t="s">
@@ -11479,7 +11501,7 @@
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="5"/>
-      <c r="B508" s="27"/>
+      <c r="B508" s="24"/>
       <c r="C508" s="7"/>
       <c r="D508" s="8"/>
       <c r="E508" s="8"/>
@@ -11505,7 +11527,7 @@
       <c r="A510" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B510" s="18" t="s">
+      <c r="B510" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C510" s="7" t="s">
@@ -11520,13 +11542,13 @@
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="5"/>
-      <c r="B511" s="27"/>
+      <c r="B511" s="24"/>
       <c r="C511" s="7"/>
       <c r="D511" s="8"/>
       <c r="E511" s="8"/>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A512" s="27" t="s">
+      <c r="A512" s="24" t="s">
         <v>157</v>
       </c>
       <c r="B512" s="6" t="s">
@@ -11543,10 +11565,10 @@
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="27" t="s">
+      <c r="A513" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B513" s="18" t="s">
+      <c r="B513" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C513" s="7" t="s">
@@ -11561,7 +11583,7 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="5"/>
-      <c r="B514" s="27"/>
+      <c r="B514" s="24"/>
       <c r="C514" s="7"/>
       <c r="D514" s="8"/>
       <c r="E514" s="8"/>
@@ -11587,7 +11609,7 @@
       <c r="A516" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B516" s="18" t="s">
+      <c r="B516" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C516" s="7" t="s">
@@ -11602,7 +11624,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="5"/>
-      <c r="B517" s="27"/>
+      <c r="B517" s="24"/>
       <c r="C517" s="7"/>
       <c r="D517" s="8"/>
       <c r="E517" s="8"/>
@@ -11628,7 +11650,7 @@
       <c r="A519" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B519" s="18" t="s">
+      <c r="B519" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C519" s="7" t="s">
@@ -11643,7 +11665,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="5"/>
-      <c r="B520" s="27"/>
+      <c r="B520" s="24"/>
       <c r="C520" s="7"/>
       <c r="D520" s="8"/>
       <c r="E520" s="8"/>
@@ -11669,7 +11691,7 @@
       <c r="A522" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B522" s="18" t="s">
+      <c r="B522" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C522" s="7" t="s">
@@ -11684,7 +11706,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="5"/>
-      <c r="B523" s="27"/>
+      <c r="B523" s="24"/>
       <c r="C523" s="7"/>
       <c r="D523" s="8"/>
       <c r="E523" s="8"/>
@@ -11710,7 +11732,7 @@
       <c r="A525" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B525" s="18" t="s">
+      <c r="B525" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C525" s="7" t="s">
@@ -11725,7 +11747,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="5"/>
-      <c r="B526" s="27"/>
+      <c r="B526" s="24"/>
       <c r="C526" s="7"/>
       <c r="D526" s="8"/>
       <c r="E526" s="8"/>
@@ -11751,7 +11773,7 @@
       <c r="A528" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B528" s="18" t="s">
+      <c r="B528" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C528" s="7" t="s">
@@ -11766,7 +11788,7 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="5"/>
-      <c r="B529" s="27"/>
+      <c r="B529" s="24"/>
       <c r="C529" s="7"/>
       <c r="D529" s="8"/>
       <c r="E529" s="8"/>
@@ -11792,7 +11814,7 @@
       <c r="A531" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B531" s="18" t="s">
+      <c r="B531" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C531" s="7" t="s">
@@ -11807,13 +11829,13 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="5"/>
-      <c r="B532" s="27"/>
+      <c r="B532" s="24"/>
       <c r="C532" s="7"/>
       <c r="D532" s="8"/>
       <c r="E532" s="8"/>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A533" s="27" t="s">
+      <c r="A533" s="24" t="s">
         <v>164</v>
       </c>
       <c r="B533" s="6" t="s">
@@ -11830,10 +11852,10 @@
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" s="27" t="s">
+      <c r="A534" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B534" s="18" t="s">
+      <c r="B534" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C534" s="7" t="s">
@@ -11848,7 +11870,7 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="5"/>
-      <c r="B535" s="27"/>
+      <c r="B535" s="24"/>
       <c r="C535" s="7"/>
       <c r="D535" s="8"/>
       <c r="E535" s="8"/>
@@ -11874,7 +11896,7 @@
       <c r="A537" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B537" s="18" t="s">
+      <c r="B537" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C537" s="7" t="s">
@@ -11889,7 +11911,7 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="5"/>
-      <c r="B538" s="27"/>
+      <c r="B538" s="24"/>
       <c r="C538" s="7"/>
       <c r="D538" s="8"/>
       <c r="E538" s="8"/>
@@ -11915,7 +11937,7 @@
       <c r="A540" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B540" s="18" t="s">
+      <c r="B540" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C540" s="7" t="s">
@@ -11930,13 +11952,13 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="5"/>
-      <c r="B541" s="27"/>
+      <c r="B541" s="24"/>
       <c r="C541" s="7"/>
       <c r="D541" s="8"/>
       <c r="E541" s="8"/>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" s="27" t="s">
+      <c r="A542" s="24" t="s">
         <v>167</v>
       </c>
       <c r="B542" s="6" t="s">
@@ -11953,10 +11975,10 @@
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A543" s="27" t="s">
+      <c r="A543" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B543" s="18" t="s">
+      <c r="B543" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C543" s="7" t="s">
@@ -11971,7 +11993,7 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="5"/>
-      <c r="B544" s="27"/>
+      <c r="B544" s="24"/>
       <c r="C544" s="7"/>
       <c r="D544" s="8"/>
       <c r="E544" s="8"/>
@@ -11997,7 +12019,7 @@
       <c r="A546" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B546" s="18" t="s">
+      <c r="B546" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C546" s="7" t="s">
@@ -12012,7 +12034,7 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="5"/>
-      <c r="B547" s="27"/>
+      <c r="B547" s="24"/>
       <c r="C547" s="7"/>
       <c r="D547" s="8"/>
       <c r="E547" s="8"/>
@@ -12038,7 +12060,7 @@
       <c r="A549" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B549" s="18" t="s">
+      <c r="B549" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C549" s="7" t="s">
@@ -12053,7 +12075,7 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="5"/>
-      <c r="B550" s="27"/>
+      <c r="B550" s="24"/>
       <c r="C550" s="7"/>
       <c r="D550" s="8"/>
       <c r="E550" s="8"/>
@@ -12079,7 +12101,7 @@
       <c r="A552" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B552" s="18" t="s">
+      <c r="B552" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C552" s="7" t="s">
@@ -12094,7 +12116,7 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="5"/>
-      <c r="B553" s="27"/>
+      <c r="B553" s="24"/>
       <c r="C553" s="7"/>
       <c r="D553" s="8"/>
       <c r="E553" s="8"/>
@@ -12116,13 +12138,13 @@
         <v>9</v>
       </c>
       <c r="F554" s="5"/>
-      <c r="G554" s="41"/>
+      <c r="G554" s="37"/>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B555" s="18" t="s">
+      <c r="B555" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C555" s="7" t="s">
@@ -12135,19 +12157,19 @@
         <v>9</v>
       </c>
       <c r="F555" s="5"/>
-      <c r="G555" s="41"/>
+      <c r="G555" s="37"/>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="5"/>
-      <c r="B556" s="27"/>
+      <c r="B556" s="24"/>
       <c r="C556" s="7"/>
       <c r="D556" s="8"/>
       <c r="E556" s="8"/>
       <c r="F556" s="5"/>
-      <c r="G556" s="41"/>
+      <c r="G556" s="37"/>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A557" s="27" t="s">
+      <c r="A557" s="24" t="s">
         <v>172</v>
       </c>
       <c r="B557" s="6" t="s">
@@ -12164,10 +12186,10 @@
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A558" s="27" t="s">
+      <c r="A558" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B558" s="18" t="s">
+      <c r="B558" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C558" s="7" t="s">
@@ -12182,13 +12204,13 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="5"/>
-      <c r="B559" s="27"/>
+      <c r="B559" s="24"/>
       <c r="C559" s="7"/>
       <c r="D559" s="8"/>
       <c r="E559" s="8"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A560" s="27" t="s">
+      <c r="A560" s="24" t="s">
         <v>173</v>
       </c>
       <c r="B560" s="6" t="s">
@@ -12205,10 +12227,10 @@
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A561" s="27" t="s">
+      <c r="A561" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B561" s="18" t="s">
+      <c r="B561" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C561" s="7" t="s">
@@ -12223,7 +12245,7 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="5"/>
-      <c r="B562" s="27"/>
+      <c r="B562" s="24"/>
       <c r="C562" s="7"/>
       <c r="D562" s="8"/>
       <c r="E562" s="8"/>
@@ -12249,7 +12271,7 @@
       <c r="A564" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B564" s="18" t="s">
+      <c r="B564" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C564" s="7" t="s">
@@ -12264,7 +12286,7 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="5"/>
-      <c r="B565" s="27"/>
+      <c r="B565" s="24"/>
       <c r="C565" s="7"/>
       <c r="D565" s="8"/>
       <c r="E565" s="8"/>
@@ -12290,7 +12312,7 @@
       <c r="A567" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B567" s="18" t="s">
+      <c r="B567" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C567" s="7" t="s">
@@ -12305,7 +12327,7 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="5"/>
-      <c r="B568" s="27"/>
+      <c r="B568" s="24"/>
       <c r="C568" s="7"/>
       <c r="D568" s="8"/>
       <c r="E568" s="8"/>
@@ -12331,7 +12353,7 @@
       <c r="A570" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B570" s="18" t="s">
+      <c r="B570" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C570" s="7" t="s">
@@ -12346,7 +12368,7 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="5"/>
-      <c r="B571" s="27"/>
+      <c r="B571" s="24"/>
       <c r="C571" s="7"/>
       <c r="D571" s="8"/>
       <c r="E571" s="8"/>
@@ -12372,7 +12394,7 @@
       <c r="A573" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B573" s="18" t="s">
+      <c r="B573" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C573" s="7" t="s">
@@ -12387,13 +12409,13 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="5"/>
-      <c r="B574" s="27"/>
+      <c r="B574" s="24"/>
       <c r="C574" s="7"/>
       <c r="D574" s="8"/>
       <c r="E574" s="8"/>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A575" s="27" t="s">
+      <c r="A575" s="24" t="s">
         <v>178</v>
       </c>
       <c r="B575" s="6" t="s">
@@ -12410,10 +12432,10 @@
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A576" s="27" t="s">
+      <c r="A576" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B576" s="18" t="s">
+      <c r="B576" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C576" s="7" t="s">
@@ -12428,7 +12450,7 @@
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="5"/>
-      <c r="B577" s="27"/>
+      <c r="B577" s="24"/>
       <c r="C577" s="7"/>
       <c r="D577" s="8"/>
       <c r="E577" s="8"/>
@@ -12454,7 +12476,7 @@
       <c r="A579" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B579" s="18" t="s">
+      <c r="B579" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C579" s="7" t="s">
@@ -12469,19 +12491,19 @@
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="5"/>
-      <c r="B580" s="27"/>
+      <c r="B580" s="24"/>
       <c r="C580" s="7"/>
       <c r="D580" s="8">
         <f>SUM(D2:D579)</f>
         <v>2363</v>
       </c>
-      <c r="E580" s="44"/>
+      <c r="E580" s="39"/>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B581" s="25" t="s">
+      <c r="B581" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C581" s="7" t="s">
@@ -12499,7 +12521,7 @@
       <c r="A582" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B582" s="25" t="s">
+      <c r="B582" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C582" s="7" t="s">
@@ -12517,7 +12539,7 @@
       <c r="A583" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B583" s="25" t="s">
+      <c r="B583" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C583" s="7" t="s">
@@ -12535,7 +12557,7 @@
       <c r="A584" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B584" s="25" t="s">
+      <c r="B584" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C584" s="7" t="s">
@@ -12550,10 +12572,10 @@
       <c r="H584" s="4"/>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A585" s="27" t="s">
+      <c r="A585" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B585" s="25" t="s">
+      <c r="B585" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C585" s="7" t="s">
@@ -12571,7 +12593,7 @@
       <c r="A586" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B586" s="25" t="s">
+      <c r="B586" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C586" s="7" t="s">
@@ -12589,7 +12611,7 @@
       <c r="A587" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B587" s="25" t="s">
+      <c r="B587" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C587" s="7" t="s">
@@ -12607,7 +12629,7 @@
       <c r="A588" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B588" s="25" t="s">
+      <c r="B588" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C588" s="7" t="s">
@@ -12625,7 +12647,7 @@
       <c r="A589" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B589" s="25" t="s">
+      <c r="B589" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C589" s="7" t="s">
@@ -12643,7 +12665,7 @@
       <c r="A590" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B590" s="25" t="s">
+      <c r="B590" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C590" s="7" t="s">
@@ -12658,8 +12680,8 @@
       <c r="H590" s="4"/>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A591" s="27"/>
-      <c r="B591" s="27"/>
+      <c r="A591" s="24"/>
+      <c r="B591" s="24"/>
       <c r="C591" s="7"/>
       <c r="D591" s="8"/>
       <c r="E591" s="8"/>
@@ -12669,7 +12691,7 @@
       <c r="A592" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B592" s="25" t="s">
+      <c r="B592" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C592" s="7" t="s">
@@ -12687,7 +12709,7 @@
       <c r="A593" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B593" s="25" t="s">
+      <c r="B593" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C593" s="7" t="s">
@@ -12705,7 +12727,7 @@
       <c r="A594" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B594" s="25" t="s">
+      <c r="B594" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C594" s="7" t="s">
@@ -12723,7 +12745,7 @@
       <c r="A595" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B595" s="25" t="s">
+      <c r="B595" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C595" s="7" t="s">
@@ -12740,7 +12762,7 @@
       <c r="A596" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B596" s="25" t="s">
+      <c r="B596" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C596" s="7" t="s">
@@ -12757,7 +12779,7 @@
       <c r="A597" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B597" s="25" t="s">
+      <c r="B597" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C597" s="7" t="s">
@@ -12774,7 +12796,7 @@
       <c r="A598" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B598" s="25" t="s">
+      <c r="B598" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C598" s="7" t="s">
@@ -12791,7 +12813,7 @@
       <c r="A599" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B599" s="25" t="s">
+      <c r="B599" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C599" s="7" t="s">
@@ -12808,7 +12830,7 @@
       <c r="A600" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B600" s="25" t="s">
+      <c r="B600" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C600" s="7" t="s">
@@ -12825,7 +12847,7 @@
       <c r="A601" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B601" s="25" t="s">
+      <c r="B601" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C601" s="7" t="s">
@@ -12840,7 +12862,7 @@
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="5"/>
-      <c r="B602" s="27"/>
+      <c r="B602" s="24"/>
       <c r="C602" s="7"/>
       <c r="D602" s="8"/>
       <c r="E602" s="8"/>
@@ -12849,7 +12871,7 @@
       <c r="A603" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B603" s="25" t="s">
+      <c r="B603" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C603" s="7" t="s">
@@ -12866,7 +12888,7 @@
       <c r="A604" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B604" s="25" t="s">
+      <c r="B604" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C604" s="7" t="s">
@@ -12880,10 +12902,10 @@
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A605" s="27" t="s">
+      <c r="A605" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B605" s="25" t="s">
+      <c r="B605" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C605" s="7" t="s">
@@ -12897,10 +12919,10 @@
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A606" s="27" t="s">
+      <c r="A606" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B606" s="25" t="s">
+      <c r="B606" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C606" s="7" t="s">
@@ -12917,7 +12939,7 @@
       <c r="A608" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B608" s="25" t="s">
+      <c r="B608" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C608" s="7" t="s">
@@ -12935,7 +12957,7 @@
       <c r="A609" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B609" s="25" t="s">
+      <c r="B609" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C609" s="7" t="s">
@@ -12953,7 +12975,7 @@
       <c r="A610" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B610" s="25" t="s">
+      <c r="B610" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C610" s="7" t="s">
@@ -12968,10 +12990,10 @@
       <c r="H610" s="4"/>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A611" s="27" t="s">
+      <c r="A611" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B611" s="25" t="s">
+      <c r="B611" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C611" s="7" t="s">
@@ -12989,7 +13011,7 @@
       <c r="A612" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B612" s="25" t="s">
+      <c r="B612" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C612" s="7" t="s">
@@ -13007,7 +13029,7 @@
       <c r="A613" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B613" s="25" t="s">
+      <c r="B613" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C613" s="7" t="s">
@@ -13025,7 +13047,7 @@
       <c r="A614" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B614" s="25" t="s">
+      <c r="B614" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C614" s="7" t="s">
@@ -13043,7 +13065,7 @@
       <c r="A615" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B615" s="25" t="s">
+      <c r="B615" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C615" s="7" t="s">
@@ -13058,7 +13080,7 @@
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="5"/>
-      <c r="B616" s="27"/>
+      <c r="B616" s="24"/>
       <c r="C616" s="7"/>
       <c r="D616" s="8"/>
       <c r="E616" s="8"/>
@@ -13067,7 +13089,7 @@
       <c r="A617" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B617" s="25" t="s">
+      <c r="B617" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C617" s="7" t="s">
@@ -13082,7 +13104,7 @@
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="5"/>
-      <c r="B618" s="27"/>
+      <c r="B618" s="24"/>
       <c r="C618" s="7"/>
       <c r="D618" s="8"/>
       <c r="E618" s="8"/>
@@ -13092,7 +13114,7 @@
       <c r="A619" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B619" s="25" t="s">
+      <c r="B619" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C619" s="7" t="s">
@@ -13107,10 +13129,10 @@
       <c r="F619" s="9"/>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A620" s="27" t="s">
+      <c r="A620" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B620" s="25" t="s">
+      <c r="B620" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C620" s="7" t="s">
@@ -13124,10 +13146,10 @@
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A621" s="27" t="s">
+      <c r="A621" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B621" s="25" t="s">
+      <c r="B621" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C621" s="7" t="s">
@@ -13141,10 +13163,10 @@
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A622" s="27" t="s">
+      <c r="A622" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B622" s="25" t="s">
+      <c r="B622" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C622" s="7" t="s">
@@ -13161,7 +13183,7 @@
       <c r="A623" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B623" s="25" t="s">
+      <c r="B623" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C623" s="7" t="s">
@@ -13176,7 +13198,7 @@
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="5"/>
-      <c r="B624" s="27"/>
+      <c r="B624" s="24"/>
       <c r="C624" s="7"/>
       <c r="D624" s="8"/>
       <c r="E624" s="8"/>
@@ -13185,7 +13207,7 @@
       <c r="A625" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B625" s="25" t="s">
+      <c r="B625" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C625" s="7" t="s">
@@ -13202,7 +13224,7 @@
       <c r="A626" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B626" s="25" t="s">
+      <c r="B626" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C626" s="7" t="s">
@@ -13216,10 +13238,10 @@
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" s="27" t="s">
+      <c r="A627" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B627" s="25" t="s">
+      <c r="B627" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C627" s="7" t="s">
@@ -13236,7 +13258,7 @@
       <c r="A628" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B628" s="25" t="s">
+      <c r="B628" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C628" s="7" t="s">
@@ -13253,7 +13275,7 @@
       <c r="A629" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B629" s="25" t="s">
+      <c r="B629" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C629" s="7" t="s">
@@ -13270,7 +13292,7 @@
       <c r="A630" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B630" s="25" t="s">
+      <c r="B630" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C630" s="7" t="s">
@@ -13287,7 +13309,7 @@
       <c r="A631" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B631" s="25" t="s">
+      <c r="B631" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C631" s="7" t="s">
@@ -13301,10 +13323,10 @@
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="27" t="s">
+      <c r="A632" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B632" s="25" t="s">
+      <c r="B632" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C632" s="7" t="s">
@@ -13321,7 +13343,7 @@
       <c r="A633" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B633" s="25" t="s">
+      <c r="B633" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C633" s="7" t="s">
@@ -13338,7 +13360,7 @@
       <c r="A634" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B634" s="25" t="s">
+      <c r="B634" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C634" s="7" t="s">
@@ -13355,7 +13377,7 @@
       <c r="A635" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B635" s="25" t="s">
+      <c r="B635" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C635" s="7" t="s">
@@ -13372,7 +13394,7 @@
       <c r="A636" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B636" s="25" t="s">
+      <c r="B636" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C636" s="7" t="s">
@@ -13389,7 +13411,7 @@
       <c r="A637" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B637" s="25" t="s">
+      <c r="B637" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C637" s="7" t="s">
@@ -13413,359 +13435,359 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="5"/>
-      <c r="B639" s="27"/>
+      <c r="B639" s="24"/>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="5"/>
-      <c r="B640" s="27"/>
+      <c r="B640" s="24"/>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="5"/>
-      <c r="B641" s="27"/>
+      <c r="B641" s="24"/>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="5"/>
-      <c r="B642" s="27"/>
+      <c r="B642" s="24"/>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="27"/>
-      <c r="B643" s="27"/>
+      <c r="A643" s="24"/>
+      <c r="B643" s="24"/>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="5"/>
-      <c r="B644" s="27"/>
+      <c r="B644" s="24"/>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="5"/>
-      <c r="B645" s="27"/>
+      <c r="B645" s="24"/>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="5"/>
-      <c r="B646" s="27"/>
+      <c r="B646" s="24"/>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="5"/>
-      <c r="B647" s="27"/>
+      <c r="B647" s="24"/>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="5"/>
-      <c r="B648" s="27"/>
+      <c r="B648" s="24"/>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="5"/>
-      <c r="B649" s="27"/>
+      <c r="B649" s="24"/>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="5"/>
-      <c r="B650" s="27"/>
+      <c r="B650" s="24"/>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="5"/>
-      <c r="B651" s="27"/>
+      <c r="B651" s="24"/>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652" s="27"/>
-      <c r="B652" s="27"/>
+      <c r="A652" s="24"/>
+      <c r="B652" s="24"/>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="5"/>
-      <c r="B653" s="27"/>
+      <c r="B653" s="24"/>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="5"/>
-      <c r="B654" s="27"/>
+      <c r="B654" s="24"/>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="5"/>
-      <c r="B655" s="27"/>
+      <c r="B655" s="24"/>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="5"/>
-      <c r="B656" s="27"/>
+      <c r="B656" s="24"/>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="27"/>
-      <c r="B657" s="27"/>
+      <c r="A657" s="24"/>
+      <c r="B657" s="24"/>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="5"/>
-      <c r="B658" s="27"/>
+      <c r="B658" s="24"/>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="5"/>
-      <c r="B659" s="27"/>
+      <c r="B659" s="24"/>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="5"/>
-      <c r="B660" s="27"/>
+      <c r="B660" s="24"/>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="5"/>
-      <c r="B661" s="27"/>
+      <c r="B661" s="24"/>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="27"/>
-      <c r="B662" s="27"/>
+      <c r="A662" s="24"/>
+      <c r="B662" s="24"/>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="5"/>
-      <c r="B663" s="27"/>
+      <c r="B663" s="24"/>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="5"/>
-      <c r="B664" s="27"/>
+      <c r="B664" s="24"/>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="5"/>
-      <c r="B665" s="27"/>
+      <c r="B665" s="24"/>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="5"/>
-      <c r="B666" s="27"/>
+      <c r="B666" s="24"/>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" s="27"/>
-      <c r="B667" s="27"/>
+      <c r="A667" s="24"/>
+      <c r="B667" s="24"/>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="5"/>
-      <c r="B668" s="27"/>
+      <c r="B668" s="24"/>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="5"/>
-      <c r="B669" s="27"/>
+      <c r="B669" s="24"/>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="5"/>
-      <c r="B670" s="27"/>
+      <c r="B670" s="24"/>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="5"/>
-      <c r="B671" s="27"/>
+      <c r="B671" s="24"/>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672" s="27"/>
-      <c r="B672" s="27"/>
+      <c r="A672" s="24"/>
+      <c r="B672" s="24"/>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="5"/>
-      <c r="B673" s="27"/>
+      <c r="B673" s="24"/>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="5"/>
-      <c r="B674" s="27"/>
+      <c r="B674" s="24"/>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="5"/>
-      <c r="B675" s="27"/>
+      <c r="B675" s="24"/>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="5"/>
-      <c r="B676" s="27"/>
+      <c r="B676" s="24"/>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="27"/>
-      <c r="B677" s="27"/>
+      <c r="A677" s="24"/>
+      <c r="B677" s="24"/>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="5"/>
-      <c r="B678" s="27"/>
+      <c r="B678" s="24"/>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="5"/>
-      <c r="B679" s="27"/>
+      <c r="B679" s="24"/>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="5"/>
-      <c r="B680" s="27"/>
+      <c r="B680" s="24"/>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="5"/>
-      <c r="B681" s="27"/>
+      <c r="B681" s="24"/>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="27"/>
-      <c r="B682" s="27"/>
+      <c r="A682" s="24"/>
+      <c r="B682" s="24"/>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="5"/>
-      <c r="B683" s="27"/>
+      <c r="B683" s="24"/>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="5"/>
-      <c r="B684" s="27"/>
+      <c r="B684" s="24"/>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="5"/>
-      <c r="B685" s="27"/>
+      <c r="B685" s="24"/>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="5"/>
-      <c r="B686" s="27"/>
+      <c r="B686" s="24"/>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="27"/>
-      <c r="B687" s="27"/>
+      <c r="A687" s="24"/>
+      <c r="B687" s="24"/>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="5"/>
-      <c r="B688" s="27"/>
+      <c r="B688" s="24"/>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="5"/>
-      <c r="B689" s="27"/>
+      <c r="B689" s="24"/>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="5"/>
-      <c r="B690" s="27"/>
+      <c r="B690" s="24"/>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="5"/>
-      <c r="B691" s="27"/>
+      <c r="B691" s="24"/>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" s="27"/>
-      <c r="B692" s="27"/>
+      <c r="A692" s="24"/>
+      <c r="B692" s="24"/>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="5"/>
-      <c r="B693" s="27"/>
+      <c r="B693" s="24"/>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="5"/>
-      <c r="B694" s="27"/>
+      <c r="B694" s="24"/>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="5"/>
-      <c r="B695" s="27"/>
+      <c r="B695" s="24"/>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="5"/>
-      <c r="B696" s="27"/>
+      <c r="B696" s="24"/>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="5"/>
-      <c r="B697" s="27"/>
+      <c r="B697" s="24"/>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="27"/>
-      <c r="B698" s="27"/>
+      <c r="A698" s="24"/>
+      <c r="B698" s="24"/>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="5"/>
-      <c r="B699" s="27"/>
+      <c r="B699" s="24"/>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="5"/>
-      <c r="B700" s="27"/>
+      <c r="B700" s="24"/>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="5"/>
-      <c r="B701" s="27"/>
+      <c r="B701" s="24"/>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="5"/>
-      <c r="B702" s="27"/>
+      <c r="B702" s="24"/>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="27"/>
-      <c r="B703" s="27"/>
+      <c r="A703" s="24"/>
+      <c r="B703" s="24"/>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="5"/>
-      <c r="B704" s="27"/>
+      <c r="B704" s="24"/>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="5"/>
-      <c r="B705" s="27"/>
+      <c r="B705" s="24"/>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="5"/>
-      <c r="B706" s="27"/>
+      <c r="B706" s="24"/>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="5"/>
-      <c r="B707" s="27"/>
+      <c r="B707" s="24"/>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="27"/>
-      <c r="B708" s="27"/>
+      <c r="A708" s="24"/>
+      <c r="B708" s="24"/>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="5"/>
-      <c r="B709" s="27"/>
+      <c r="B709" s="24"/>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="5"/>
-      <c r="B710" s="27"/>
+      <c r="B710" s="24"/>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="5"/>
-      <c r="B711" s="27"/>
+      <c r="B711" s="24"/>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="5"/>
-      <c r="B712" s="27"/>
+      <c r="B712" s="24"/>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" s="27"/>
-      <c r="B713" s="27"/>
+      <c r="A713" s="24"/>
+      <c r="B713" s="24"/>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="5"/>
-      <c r="B714" s="27"/>
+      <c r="B714" s="24"/>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="5"/>
-      <c r="B715" s="27"/>
+      <c r="B715" s="24"/>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="5"/>
-      <c r="B716" s="27"/>
+      <c r="B716" s="24"/>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="5"/>
-      <c r="B717" s="27"/>
+      <c r="B717" s="24"/>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" s="27"/>
-      <c r="B718" s="27"/>
+      <c r="A718" s="24"/>
+      <c r="B718" s="24"/>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="5"/>
-      <c r="B719" s="27"/>
+      <c r="B719" s="24"/>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="5"/>
-      <c r="B720" s="27"/>
+      <c r="B720" s="24"/>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="5"/>
-      <c r="B721" s="27"/>
+      <c r="B721" s="24"/>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="5"/>
-      <c r="B722" s="27"/>
+      <c r="B722" s="24"/>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" s="27"/>
-      <c r="B723" s="27"/>
+      <c r="A723" s="24"/>
+      <c r="B723" s="24"/>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="5"/>
-      <c r="B724" s="27"/>
+      <c r="B724" s="24"/>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="5"/>
-      <c r="B725" s="27"/>
+      <c r="B725" s="24"/>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="5"/>
-      <c r="B726" s="27"/>
+      <c r="B726" s="24"/>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="5"/>
-      <c r="B727" s="27"/>
+      <c r="B727" s="24"/>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="8"/>
@@ -13773,451 +13795,451 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="5"/>
-      <c r="B729" s="27"/>
+      <c r="B729" s="24"/>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="5"/>
-      <c r="B730" s="27"/>
+      <c r="B730" s="24"/>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="5"/>
-      <c r="B731" s="27"/>
+      <c r="B731" s="24"/>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="5"/>
-      <c r="B732" s="27"/>
+      <c r="B732" s="24"/>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="5"/>
-      <c r="B733" s="27"/>
+      <c r="B733" s="24"/>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="5"/>
-      <c r="B734" s="27"/>
+      <c r="B734" s="24"/>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="5"/>
-      <c r="B735" s="27"/>
+      <c r="B735" s="24"/>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="5"/>
-      <c r="B736" s="27"/>
+      <c r="B736" s="24"/>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="27"/>
-      <c r="B737" s="27"/>
+      <c r="A737" s="24"/>
+      <c r="B737" s="24"/>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="5"/>
-      <c r="B738" s="27"/>
+      <c r="B738" s="24"/>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="5"/>
-      <c r="B739" s="27"/>
+      <c r="B739" s="24"/>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="5"/>
-      <c r="B740" s="27"/>
+      <c r="B740" s="24"/>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="5"/>
-      <c r="B741" s="27"/>
+      <c r="B741" s="24"/>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="5"/>
-      <c r="B742" s="27"/>
+      <c r="B742" s="24"/>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="5"/>
-      <c r="B743" s="27"/>
+      <c r="B743" s="24"/>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="5"/>
-      <c r="B744" s="27"/>
+      <c r="B744" s="24"/>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="5"/>
-      <c r="B745" s="27"/>
+      <c r="B745" s="24"/>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" s="27"/>
-      <c r="B746" s="27"/>
+      <c r="A746" s="24"/>
+      <c r="B746" s="24"/>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="5"/>
-      <c r="B747" s="27"/>
+      <c r="B747" s="24"/>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="5"/>
-      <c r="B748" s="27"/>
+      <c r="B748" s="24"/>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="5"/>
-      <c r="B749" s="27"/>
+      <c r="B749" s="24"/>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="5"/>
-      <c r="B750" s="27"/>
+      <c r="B750" s="24"/>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="5"/>
-      <c r="B751" s="27"/>
+      <c r="B751" s="24"/>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="5"/>
-      <c r="B752" s="27"/>
+      <c r="B752" s="24"/>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="5"/>
-      <c r="B753" s="27"/>
+      <c r="B753" s="24"/>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="5"/>
-      <c r="B754" s="27"/>
+      <c r="B754" s="24"/>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" s="27"/>
-      <c r="B755" s="27"/>
+      <c r="A755" s="24"/>
+      <c r="B755" s="24"/>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="5"/>
-      <c r="B756" s="27"/>
+      <c r="B756" s="24"/>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="5"/>
-      <c r="B757" s="27"/>
+      <c r="B757" s="24"/>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="5"/>
-      <c r="B758" s="27"/>
+      <c r="B758" s="24"/>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="5"/>
-      <c r="B759" s="27"/>
+      <c r="B759" s="24"/>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="5"/>
-      <c r="B760" s="27"/>
+      <c r="B760" s="24"/>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="5"/>
-      <c r="B761" s="27"/>
+      <c r="B761" s="24"/>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="5"/>
-      <c r="B762" s="27"/>
+      <c r="B762" s="24"/>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="5"/>
-      <c r="B763" s="27"/>
+      <c r="B763" s="24"/>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" s="27"/>
-      <c r="B764" s="27"/>
+      <c r="A764" s="24"/>
+      <c r="B764" s="24"/>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="5"/>
-      <c r="B765" s="27"/>
+      <c r="B765" s="24"/>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="5"/>
-      <c r="B766" s="27"/>
+      <c r="B766" s="24"/>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="5"/>
-      <c r="B767" s="27"/>
+      <c r="B767" s="24"/>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" s="5"/>
-      <c r="B768" s="27"/>
+      <c r="B768" s="24"/>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="5"/>
-      <c r="B769" s="27"/>
+      <c r="B769" s="24"/>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="5"/>
-      <c r="B770" s="27"/>
+      <c r="B770" s="24"/>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="5"/>
-      <c r="B771" s="27"/>
+      <c r="B771" s="24"/>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="5"/>
-      <c r="B772" s="27"/>
+      <c r="B772" s="24"/>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773" s="27"/>
-      <c r="B773" s="27"/>
+      <c r="A773" s="24"/>
+      <c r="B773" s="24"/>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" s="5"/>
-      <c r="B774" s="27"/>
+      <c r="B774" s="24"/>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" s="5"/>
-      <c r="B775" s="27"/>
+      <c r="B775" s="24"/>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" s="5"/>
-      <c r="B776" s="27"/>
+      <c r="B776" s="24"/>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" s="5"/>
-      <c r="B777" s="27"/>
+      <c r="B777" s="24"/>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" s="27"/>
-      <c r="B778" s="27"/>
+      <c r="A778" s="24"/>
+      <c r="B778" s="24"/>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" s="5"/>
-      <c r="B779" s="27"/>
+      <c r="B779" s="24"/>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" s="5"/>
-      <c r="B780" s="27"/>
+      <c r="B780" s="24"/>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" s="5"/>
-      <c r="B781" s="27"/>
+      <c r="B781" s="24"/>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" s="5"/>
-      <c r="B782" s="27"/>
+      <c r="B782" s="24"/>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" s="27"/>
-      <c r="B783" s="27"/>
+      <c r="A783" s="24"/>
+      <c r="B783" s="24"/>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" s="5"/>
-      <c r="B784" s="27"/>
+      <c r="B784" s="24"/>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" s="5"/>
-      <c r="B785" s="27"/>
+      <c r="B785" s="24"/>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" s="5"/>
-      <c r="B786" s="27"/>
+      <c r="B786" s="24"/>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" s="5"/>
-      <c r="B787" s="27"/>
+      <c r="B787" s="24"/>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" s="27"/>
-      <c r="B788" s="27"/>
+      <c r="A788" s="24"/>
+      <c r="B788" s="24"/>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" s="5"/>
-      <c r="B789" s="27"/>
+      <c r="B789" s="24"/>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" s="5"/>
-      <c r="B790" s="27"/>
+      <c r="B790" s="24"/>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" s="5"/>
-      <c r="B791" s="27"/>
+      <c r="B791" s="24"/>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" s="5"/>
-      <c r="B792" s="27"/>
+      <c r="B792" s="24"/>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" s="27"/>
-      <c r="B793" s="27"/>
+      <c r="A793" s="24"/>
+      <c r="B793" s="24"/>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" s="5"/>
-      <c r="B794" s="27"/>
+      <c r="B794" s="24"/>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" s="5"/>
-      <c r="B795" s="27"/>
+      <c r="B795" s="24"/>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" s="5"/>
-      <c r="B796" s="27"/>
+      <c r="B796" s="24"/>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" s="5"/>
-      <c r="B797" s="27"/>
+      <c r="B797" s="24"/>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798" s="27"/>
-      <c r="B798" s="27"/>
+      <c r="A798" s="24"/>
+      <c r="B798" s="24"/>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" s="5"/>
-      <c r="B799" s="27"/>
+      <c r="B799" s="24"/>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" s="5"/>
-      <c r="B800" s="27"/>
+      <c r="B800" s="24"/>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" s="5"/>
-      <c r="B801" s="27"/>
+      <c r="B801" s="24"/>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" s="5"/>
-      <c r="B802" s="27"/>
+      <c r="B802" s="24"/>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" s="27"/>
-      <c r="B803" s="27"/>
+      <c r="A803" s="24"/>
+      <c r="B803" s="24"/>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" s="5"/>
-      <c r="B804" s="27"/>
+      <c r="B804" s="24"/>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" s="5"/>
-      <c r="B805" s="27"/>
+      <c r="B805" s="24"/>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" s="5"/>
-      <c r="B806" s="27"/>
+      <c r="B806" s="24"/>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" s="5"/>
-      <c r="B807" s="27"/>
+      <c r="B807" s="24"/>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808" s="27"/>
-      <c r="B808" s="27"/>
+      <c r="A808" s="24"/>
+      <c r="B808" s="24"/>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" s="5"/>
-      <c r="B809" s="27"/>
+      <c r="B809" s="24"/>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" s="5"/>
-      <c r="B810" s="27"/>
+      <c r="B810" s="24"/>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" s="5"/>
-      <c r="B811" s="27"/>
+      <c r="B811" s="24"/>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" s="5"/>
-      <c r="B812" s="27"/>
+      <c r="B812" s="24"/>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813" s="27"/>
-      <c r="B813" s="27"/>
+      <c r="A813" s="24"/>
+      <c r="B813" s="24"/>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" s="5"/>
-      <c r="B814" s="27"/>
+      <c r="B814" s="24"/>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" s="5"/>
-      <c r="B815" s="27"/>
+      <c r="B815" s="24"/>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" s="5"/>
-      <c r="B816" s="27"/>
+      <c r="B816" s="24"/>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" s="5"/>
-      <c r="B817" s="27"/>
+      <c r="B817" s="24"/>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A818" s="27"/>
-      <c r="B818" s="27"/>
+      <c r="A818" s="24"/>
+      <c r="B818" s="24"/>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" s="5"/>
-      <c r="B819" s="27"/>
+      <c r="B819" s="24"/>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" s="5"/>
-      <c r="B820" s="27"/>
+      <c r="B820" s="24"/>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" s="5"/>
-      <c r="B821" s="27"/>
+      <c r="B821" s="24"/>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" s="5"/>
-      <c r="B822" s="27"/>
+      <c r="B822" s="24"/>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" s="5"/>
-      <c r="B823" s="27"/>
+      <c r="B823" s="24"/>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A824" s="27"/>
-      <c r="B824" s="27"/>
+      <c r="A824" s="24"/>
+      <c r="B824" s="24"/>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" s="5"/>
-      <c r="B825" s="27"/>
+      <c r="B825" s="24"/>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" s="5"/>
-      <c r="B826" s="27"/>
+      <c r="B826" s="24"/>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" s="5"/>
-      <c r="B827" s="27"/>
+      <c r="B827" s="24"/>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" s="5"/>
-      <c r="B828" s="27"/>
+      <c r="B828" s="24"/>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A829" s="27"/>
-      <c r="B829" s="27"/>
+      <c r="A829" s="24"/>
+      <c r="B829" s="24"/>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" s="5"/>
-      <c r="B830" s="27"/>
+      <c r="B830" s="24"/>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" s="5"/>
-      <c r="B831" s="27"/>
+      <c r="B831" s="24"/>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" s="5"/>
-      <c r="B832" s="27"/>
+      <c r="B832" s="24"/>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" s="5"/>
-      <c r="B833" s="27"/>
+      <c r="B833" s="24"/>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" s="5"/>
-      <c r="B834" s="27"/>
+      <c r="B834" s="24"/>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A835" s="27"/>
-      <c r="B835" s="27"/>
+      <c r="A835" s="24"/>
+      <c r="B835" s="24"/>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" s="5"/>
-      <c r="B836" s="27"/>
+      <c r="B836" s="24"/>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" s="5"/>
-      <c r="B837" s="27"/>
+      <c r="B837" s="24"/>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" s="5"/>
-      <c r="B838" s="27"/>
+      <c r="B838" s="24"/>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" s="5"/>
-      <c r="B839" s="27"/>
+      <c r="B839" s="24"/>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" s="5"/>
-      <c r="B840" s="27"/>
+      <c r="B840" s="24"/>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" s="8"/>
@@ -14225,371 +14247,371 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" s="5"/>
-      <c r="B842" s="27"/>
+      <c r="B842" s="24"/>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" s="5"/>
-      <c r="B843" s="27"/>
+      <c r="B843" s="24"/>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" s="5"/>
-      <c r="B844" s="27"/>
+      <c r="B844" s="24"/>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" s="5"/>
-      <c r="B845" s="27"/>
+      <c r="B845" s="24"/>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A846" s="27"/>
-      <c r="B846" s="27"/>
+      <c r="A846" s="24"/>
+      <c r="B846" s="24"/>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" s="5"/>
-      <c r="B847" s="27"/>
+      <c r="B847" s="24"/>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" s="5"/>
-      <c r="B848" s="27"/>
+      <c r="B848" s="24"/>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" s="5"/>
-      <c r="B849" s="27"/>
+      <c r="B849" s="24"/>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" s="5"/>
-      <c r="B850" s="27"/>
+      <c r="B850" s="24"/>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A851" s="27"/>
-      <c r="B851" s="27"/>
+      <c r="A851" s="24"/>
+      <c r="B851" s="24"/>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" s="5"/>
-      <c r="B852" s="27"/>
+      <c r="B852" s="24"/>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" s="5"/>
-      <c r="B853" s="27"/>
+      <c r="B853" s="24"/>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" s="5"/>
-      <c r="B854" s="27"/>
+      <c r="B854" s="24"/>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" s="5"/>
-      <c r="B855" s="27"/>
+      <c r="B855" s="24"/>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A856" s="27"/>
-      <c r="B856" s="27"/>
+      <c r="A856" s="24"/>
+      <c r="B856" s="24"/>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" s="5"/>
-      <c r="B857" s="27"/>
+      <c r="B857" s="24"/>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" s="5"/>
-      <c r="B858" s="27"/>
+      <c r="B858" s="24"/>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" s="5"/>
-      <c r="B859" s="27"/>
+      <c r="B859" s="24"/>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" s="5"/>
-      <c r="B860" s="27"/>
+      <c r="B860" s="24"/>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A861" s="27"/>
-      <c r="B861" s="27"/>
+      <c r="A861" s="24"/>
+      <c r="B861" s="24"/>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" s="5"/>
-      <c r="B862" s="27"/>
+      <c r="B862" s="24"/>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" s="5"/>
-      <c r="B863" s="27"/>
+      <c r="B863" s="24"/>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" s="5"/>
-      <c r="B864" s="27"/>
+      <c r="B864" s="24"/>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" s="5"/>
-      <c r="B865" s="27"/>
+      <c r="B865" s="24"/>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A866" s="27"/>
-      <c r="B866" s="27"/>
+      <c r="A866" s="24"/>
+      <c r="B866" s="24"/>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" s="5"/>
-      <c r="B867" s="27"/>
+      <c r="B867" s="24"/>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" s="5"/>
-      <c r="B868" s="27"/>
+      <c r="B868" s="24"/>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A869" s="27"/>
-      <c r="B869" s="27"/>
+      <c r="A869" s="24"/>
+      <c r="B869" s="24"/>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" s="5"/>
-      <c r="B870" s="27"/>
+      <c r="B870" s="24"/>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" s="5"/>
-      <c r="B871" s="27"/>
+      <c r="B871" s="24"/>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A872" s="27"/>
-      <c r="B872" s="27"/>
+      <c r="A872" s="24"/>
+      <c r="B872" s="24"/>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" s="5"/>
-      <c r="B873" s="27"/>
+      <c r="B873" s="24"/>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" s="5"/>
-      <c r="B874" s="27"/>
+      <c r="B874" s="24"/>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A875" s="27"/>
-      <c r="B875" s="27"/>
+      <c r="A875" s="24"/>
+      <c r="B875" s="24"/>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" s="5"/>
-      <c r="B876" s="27"/>
+      <c r="B876" s="24"/>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" s="5"/>
-      <c r="B877" s="27"/>
+      <c r="B877" s="24"/>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A878" s="27"/>
-      <c r="B878" s="27"/>
+      <c r="A878" s="24"/>
+      <c r="B878" s="24"/>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" s="5"/>
-      <c r="B879" s="27"/>
+      <c r="B879" s="24"/>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" s="5"/>
-      <c r="B880" s="27"/>
+      <c r="B880" s="24"/>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A881" s="27"/>
-      <c r="B881" s="27"/>
+      <c r="A881" s="24"/>
+      <c r="B881" s="24"/>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" s="5"/>
-      <c r="B882" s="27"/>
+      <c r="B882" s="24"/>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" s="5"/>
-      <c r="B883" s="27"/>
+      <c r="B883" s="24"/>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A884" s="27"/>
-      <c r="B884" s="27"/>
+      <c r="A884" s="24"/>
+      <c r="B884" s="24"/>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" s="5"/>
-      <c r="B885" s="27"/>
+      <c r="B885" s="24"/>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" s="5"/>
-      <c r="B886" s="27"/>
+      <c r="B886" s="24"/>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A887" s="27"/>
-      <c r="B887" s="27"/>
+      <c r="A887" s="24"/>
+      <c r="B887" s="24"/>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" s="5"/>
-      <c r="B888" s="27"/>
+      <c r="B888" s="24"/>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" s="5"/>
-      <c r="B889" s="27"/>
+      <c r="B889" s="24"/>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A890" s="27"/>
-      <c r="B890" s="27"/>
+      <c r="A890" s="24"/>
+      <c r="B890" s="24"/>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" s="5"/>
-      <c r="B891" s="27"/>
+      <c r="B891" s="24"/>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" s="5"/>
-      <c r="B892" s="27"/>
+      <c r="B892" s="24"/>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A893" s="27"/>
-      <c r="B893" s="27"/>
+      <c r="A893" s="24"/>
+      <c r="B893" s="24"/>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" s="5"/>
-      <c r="B894" s="27"/>
+      <c r="B894" s="24"/>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" s="5"/>
-      <c r="B895" s="27"/>
+      <c r="B895" s="24"/>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A896" s="27"/>
-      <c r="B896" s="27"/>
+      <c r="A896" s="24"/>
+      <c r="B896" s="24"/>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" s="5"/>
-      <c r="B897" s="27"/>
+      <c r="B897" s="24"/>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" s="5"/>
-      <c r="B898" s="27"/>
+      <c r="B898" s="24"/>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A899" s="27"/>
-      <c r="B899" s="27"/>
+      <c r="A899" s="24"/>
+      <c r="B899" s="24"/>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" s="5"/>
-      <c r="B900" s="27"/>
+      <c r="B900" s="24"/>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" s="5"/>
-      <c r="B901" s="27"/>
+      <c r="B901" s="24"/>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A902" s="27"/>
-      <c r="B902" s="27"/>
+      <c r="A902" s="24"/>
+      <c r="B902" s="24"/>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A903" s="5"/>
-      <c r="B903" s="27"/>
+      <c r="B903" s="24"/>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" s="5"/>
-      <c r="B904" s="27"/>
+      <c r="B904" s="24"/>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A905" s="27"/>
-      <c r="B905" s="27"/>
+      <c r="A905" s="24"/>
+      <c r="B905" s="24"/>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" s="5"/>
-      <c r="B906" s="27"/>
+      <c r="B906" s="24"/>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" s="5"/>
-      <c r="B907" s="27"/>
+      <c r="B907" s="24"/>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A908" s="27"/>
-      <c r="B908" s="27"/>
+      <c r="A908" s="24"/>
+      <c r="B908" s="24"/>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" s="5"/>
-      <c r="B909" s="27"/>
+      <c r="B909" s="24"/>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A910" s="27"/>
-      <c r="B910" s="27"/>
+      <c r="A910" s="24"/>
+      <c r="B910" s="24"/>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" s="5"/>
-      <c r="B911" s="27"/>
+      <c r="B911" s="24"/>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A912" s="27"/>
-      <c r="B912" s="27"/>
+      <c r="A912" s="24"/>
+      <c r="B912" s="24"/>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A913" s="5"/>
-      <c r="B913" s="27"/>
+      <c r="B913" s="24"/>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A914" s="27"/>
-      <c r="B914" s="27"/>
+      <c r="A914" s="24"/>
+      <c r="B914" s="24"/>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A915" s="5"/>
-      <c r="B915" s="27"/>
+      <c r="B915" s="24"/>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A916" s="5"/>
-      <c r="B916" s="27"/>
+      <c r="B916" s="24"/>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A917" s="27"/>
-      <c r="B917" s="27"/>
+      <c r="A917" s="24"/>
+      <c r="B917" s="24"/>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" s="5"/>
-      <c r="B918" s="27"/>
+      <c r="B918" s="24"/>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" s="5"/>
-      <c r="B919" s="27"/>
+      <c r="B919" s="24"/>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" s="5"/>
-      <c r="B920" s="27"/>
+      <c r="B920" s="24"/>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" s="5"/>
-      <c r="B921" s="27"/>
+      <c r="B921" s="24"/>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" s="5"/>
-      <c r="B922" s="27"/>
+      <c r="B922" s="24"/>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" s="5"/>
-      <c r="B923" s="27"/>
+      <c r="B923" s="24"/>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" s="5"/>
-      <c r="B924" s="27"/>
+      <c r="B924" s="24"/>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" s="5"/>
-      <c r="B925" s="27"/>
+      <c r="B925" s="24"/>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" s="5"/>
-      <c r="B926" s="27"/>
+      <c r="B926" s="24"/>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A927" s="27"/>
-      <c r="B927" s="27"/>
+      <c r="A927" s="24"/>
+      <c r="B927" s="24"/>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" s="5"/>
-      <c r="B928" s="27"/>
+      <c r="B928" s="24"/>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" s="5"/>
-      <c r="B929" s="27"/>
+      <c r="B929" s="24"/>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" s="5"/>
-      <c r="B930" s="27"/>
+      <c r="B930" s="24"/>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" s="5"/>
-      <c r="B931" s="27"/>
+      <c r="B931" s="24"/>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A932" s="5"/>
-      <c r="B932" s="27"/>
+      <c r="B932" s="24"/>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A933" s="5"/>
-      <c r="B933" s="27"/>
+      <c r="B933" s="24"/>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" s="8"/>
@@ -14597,171 +14619,171 @@
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" s="5"/>
-      <c r="B935" s="27"/>
+      <c r="B935" s="24"/>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" s="5"/>
-      <c r="B936" s="27"/>
+      <c r="B936" s="24"/>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A937" s="5"/>
-      <c r="B937" s="27"/>
+      <c r="B937" s="24"/>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" s="5"/>
-      <c r="B938" s="27"/>
+      <c r="B938" s="24"/>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" s="5"/>
-      <c r="B939" s="27"/>
+      <c r="B939" s="24"/>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" s="5"/>
-      <c r="B940" s="27"/>
+      <c r="B940" s="24"/>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" s="5"/>
-      <c r="B941" s="27"/>
+      <c r="B941" s="24"/>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A942" s="5"/>
-      <c r="B942" s="27"/>
+      <c r="B942" s="24"/>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A943" s="5"/>
-      <c r="B943" s="27"/>
+      <c r="B943" s="24"/>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A944" s="27"/>
-      <c r="B944" s="27"/>
+      <c r="A944" s="24"/>
+      <c r="B944" s="24"/>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A945" s="5"/>
-      <c r="B945" s="27"/>
+      <c r="B945" s="24"/>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A946" s="5"/>
-      <c r="B946" s="27"/>
+      <c r="B946" s="24"/>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A947" s="5"/>
-      <c r="B947" s="27"/>
+      <c r="B947" s="24"/>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A948" s="5"/>
-      <c r="B948" s="27"/>
+      <c r="B948" s="24"/>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A949" s="5"/>
-      <c r="B949" s="27"/>
+      <c r="B949" s="24"/>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A950" s="5"/>
-      <c r="B950" s="27"/>
+      <c r="B950" s="24"/>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A951" s="5"/>
-      <c r="B951" s="27"/>
+      <c r="B951" s="24"/>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A952" s="5"/>
-      <c r="B952" s="27"/>
+      <c r="B952" s="24"/>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A953" s="5"/>
-      <c r="B953" s="27"/>
+      <c r="B953" s="24"/>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A954" s="27"/>
-      <c r="B954" s="27"/>
+      <c r="A954" s="24"/>
+      <c r="B954" s="24"/>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A955" s="5"/>
-      <c r="B955" s="27"/>
+      <c r="B955" s="24"/>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956" s="5"/>
-      <c r="B956" s="27"/>
+      <c r="B956" s="24"/>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A957" s="5"/>
-      <c r="B957" s="27"/>
+      <c r="B957" s="24"/>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A958" s="5"/>
-      <c r="B958" s="27"/>
+      <c r="B958" s="24"/>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A959" s="5"/>
-      <c r="B959" s="27"/>
+      <c r="B959" s="24"/>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A960" s="5"/>
-      <c r="B960" s="27"/>
+      <c r="B960" s="24"/>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A961" s="5"/>
-      <c r="B961" s="27"/>
+      <c r="B961" s="24"/>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A962" s="5"/>
-      <c r="B962" s="27"/>
+      <c r="B962" s="24"/>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A963" s="5"/>
-      <c r="B963" s="27"/>
+      <c r="B963" s="24"/>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A964" s="5"/>
-      <c r="B964" s="27"/>
+      <c r="B964" s="24"/>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A965" s="5"/>
-      <c r="B965" s="27"/>
+      <c r="B965" s="24"/>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A966" s="5"/>
-      <c r="B966" s="27"/>
+      <c r="B966" s="24"/>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A967" s="5"/>
-      <c r="B967" s="27"/>
+      <c r="B967" s="24"/>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A968" s="5"/>
-      <c r="B968" s="27"/>
+      <c r="B968" s="24"/>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A969" s="27"/>
-      <c r="B969" s="27"/>
+      <c r="A969" s="24"/>
+      <c r="B969" s="24"/>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A970" s="5"/>
-      <c r="B970" s="27"/>
+      <c r="B970" s="24"/>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A971" s="5"/>
-      <c r="B971" s="27"/>
+      <c r="B971" s="24"/>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A972" s="5"/>
-      <c r="B972" s="27"/>
+      <c r="B972" s="24"/>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A973" s="5"/>
-      <c r="B973" s="27"/>
+      <c r="B973" s="24"/>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A974" s="5"/>
-      <c r="B974" s="27"/>
+      <c r="B974" s="24"/>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A975" s="5"/>
-      <c r="B975" s="27"/>
+      <c r="B975" s="24"/>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A976" s="27"/>
-      <c r="B976" s="27"/>
+      <c r="A976" s="24"/>
+      <c r="B976" s="24"/>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" s="5"/>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2105,7 +2105,7 @@
   <dimension ref="A1:U1028"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3662,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="K35" s="30">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
@@ -3674,7 +3674,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="54">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3739,7 +3739,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="68">
         <f>T35+T36</f>
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1560,7 +1560,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1785,6 +1785,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2105,7 +2111,7 @@
   <dimension ref="A1:U1028"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,7 +3382,7 @@
       <c r="K28" s="69" t="s">
         <v>403</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="79" t="s">
         <v>242</v>
       </c>
       <c r="M28" s="40" t="s">
@@ -3558,7 +3564,7 @@
       <c r="K32" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="L32" s="78" t="s">
         <v>247</v>
       </c>
       <c r="M32" s="40" t="s">
@@ -3700,7 +3706,7 @@
         <v>110</v>
       </c>
       <c r="L36" s="33">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M36" s="33"/>
       <c r="N36" s="33"/>
@@ -3711,7 +3717,7 @@
       <c r="S36" s="33"/>
       <c r="T36" s="60">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="U36" s="68" t="s">
         <v>372</v>
@@ -3739,7 +3745,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="68">
         <f>T35+T36</f>
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1560,7 +1560,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1769,9 +1769,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1790,7 +1787,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2111,7 +2108,7 @@
   <dimension ref="A1:U1028"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,28 +3329,28 @@
       </c>
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="L27" s="76" t="s">
+      <c r="L27" s="75" t="s">
         <v>239</v>
       </c>
       <c r="M27" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="N27" s="74" t="s">
+      <c r="N27" s="73" t="s">
         <v>249</v>
       </c>
       <c r="O27" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="P27" s="74" t="s">
+      <c r="P27" s="73" t="s">
         <v>260</v>
       </c>
       <c r="Q27" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="R27" s="74" t="s">
+      <c r="R27" s="73" t="s">
         <v>272</v>
       </c>
       <c r="S27" s="44" t="s">
@@ -3382,7 +3379,7 @@
       <c r="K28" s="69" t="s">
         <v>403</v>
       </c>
-      <c r="L28" s="79" t="s">
+      <c r="L28" s="77" t="s">
         <v>242</v>
       </c>
       <c r="M28" s="40" t="s">
@@ -3394,7 +3391,7 @@
       <c r="O28" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="P28" s="75" t="s">
+      <c r="P28" s="74" t="s">
         <v>267</v>
       </c>
       <c r="Q28" s="42" t="s">
@@ -3434,7 +3431,7 @@
       <c r="M29" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="N29" s="75" t="s">
+      <c r="N29" s="74" t="s">
         <v>255</v>
       </c>
       <c r="O29" s="71" t="s">
@@ -3564,7 +3561,7 @@
       <c r="K32" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="L32" s="78" t="s">
+      <c r="L32" s="77" t="s">
         <v>247</v>
       </c>
       <c r="M32" s="40" t="s">
@@ -3635,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="77" t="s">
+      <c r="K34" s="76" t="s">
         <v>404</v>
       </c>
       <c r="L34" s="26"/>
@@ -3644,7 +3641,7 @@
       <c r="O34" s="43"/>
       <c r="P34" s="26"/>
       <c r="Q34" s="43"/>
-      <c r="R34" s="73"/>
+      <c r="R34" s="72"/>
       <c r="S34" s="43"/>
       <c r="T34" s="53"/>
     </row>
@@ -3668,7 +3665,7 @@
         <v>20</v>
       </c>
       <c r="K35" s="30">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
@@ -3680,7 +3677,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="54">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>95</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3706,7 +3703,7 @@
         <v>110</v>
       </c>
       <c r="L36" s="33">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M36" s="33"/>
       <c r="N36" s="33"/>
@@ -3717,7 +3714,7 @@
       <c r="S36" s="33"/>
       <c r="T36" s="60">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="U36" s="68" t="s">
         <v>372</v>
@@ -3745,7 +3742,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="68">
         <f>T35+T36</f>
-        <v>275</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1560,7 +1560,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1788,6 +1788,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2107,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,7 +2284,7 @@
         <v>229</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="80" t="s">
         <v>288</v>
       </c>
       <c r="L3" s="61" t="s">
@@ -2335,7 +2341,7 @@
         <v>230</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="79" t="s">
         <v>289</v>
       </c>
       <c r="L4" s="13" t="s">
@@ -2449,7 +2455,7 @@
         <v>224</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="79" t="s">
         <v>295</v>
       </c>
       <c r="L6" s="58" t="s">
@@ -2608,7 +2614,7 @@
         <v>226</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="79" t="s">
         <v>294</v>
       </c>
       <c r="L9" s="58" t="s">
@@ -3471,7 +3477,7 @@
       <c r="K30" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="77" t="s">
         <v>244</v>
       </c>
       <c r="M30" s="40" t="s">
@@ -3595,7 +3601,7 @@
       <c r="K33" s="69" t="s">
         <v>402</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="L33" s="77" t="s">
         <v>403</v>
       </c>
       <c r="M33" s="40" t="s">
@@ -3703,7 +3709,7 @@
         <v>110</v>
       </c>
       <c r="L36" s="33">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="M36" s="33"/>
       <c r="N36" s="33"/>
@@ -3714,7 +3720,7 @@
       <c r="S36" s="33"/>
       <c r="T36" s="60">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="U36" s="68" t="s">
         <v>372</v>
@@ -3742,7 +3748,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="68">
         <f>T35+T36</f>
-        <v>365</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="406">
   <si>
     <t>ID Code</t>
   </si>
@@ -1232,6 +1232,9 @@
   </si>
   <si>
     <t>Player_Interaction (70)</t>
+  </si>
+  <si>
+    <t>Game_ConversationTrigger(10)</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1563,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1794,6 +1797,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2114,7 +2120,7 @@
   <dimension ref="A1:U1028"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,7 +2404,7 @@
         <v>234</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="79" t="s">
         <v>290</v>
       </c>
       <c r="L5" s="58" t="s">
@@ -2512,7 +2518,7 @@
         <v>225</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="79" t="s">
         <v>292</v>
       </c>
       <c r="L7" s="58" t="s">
@@ -2569,7 +2575,7 @@
         <v>231</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="57" t="s">
         <v>293</v>
       </c>
       <c r="L8" s="58" t="s">
@@ -3431,7 +3437,7 @@
       <c r="K29" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="77" t="s">
         <v>243</v>
       </c>
       <c r="M29" s="40" t="s">
@@ -3641,7 +3647,9 @@
       <c r="K34" s="76" t="s">
         <v>404</v>
       </c>
-      <c r="L34" s="26"/>
+      <c r="L34" s="81" t="s">
+        <v>405</v>
+      </c>
       <c r="M34" s="45"/>
       <c r="N34" s="26"/>
       <c r="O34" s="43"/>
@@ -3673,7 +3681,9 @@
       <c r="K35" s="30">
         <v>165</v>
       </c>
-      <c r="L35" s="30"/>
+      <c r="L35" s="30">
+        <v>60</v>
+      </c>
       <c r="M35" s="30"/>
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
@@ -3683,7 +3693,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="54">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>165</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3748,7 +3758,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="68">
         <f>T35+T36</f>
-        <v>420</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -730,18 +730,12 @@
     <t>Development</t>
   </si>
   <si>
-    <t>Player_Movement (70)</t>
-  </si>
-  <si>
     <t>Weapons_WeaponManager (60)</t>
   </si>
   <si>
     <t>Weapons_AbstractWeapons (30)</t>
   </si>
   <si>
-    <t>Player_CameraControl (10)</t>
-  </si>
-  <si>
     <t>Player_Interact (10)</t>
   </si>
   <si>
@@ -1231,10 +1225,16 @@
     <t>Game_GameManager (15)</t>
   </si>
   <si>
-    <t>Player_Interaction (70)</t>
-  </si>
-  <si>
-    <t>Game_ConversationTrigger(10)</t>
+    <t>Player_Movement (80)</t>
+  </si>
+  <si>
+    <t>Player_CameraControl (20)</t>
+  </si>
+  <si>
+    <t>Game_Interaction (70)</t>
+  </si>
+  <si>
+    <t>Game_ConversationTrigger (10)</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2120,7 @@
   <dimension ref="A1:U1028"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,31 +2291,31 @@
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="80" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L3" s="61" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M3" s="61" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N3" s="65" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="R3" s="41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="S3" s="65" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2348,31 +2348,31 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="79" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S4" s="42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2405,31 +2405,31 @@
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L5" s="58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P5" s="42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="R5" s="42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="S5" s="40" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2462,31 +2462,31 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L6" s="58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2519,31 +2519,31 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="79" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L7" s="58" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N7" s="42" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O7" s="58" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P7" s="42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R7" s="40" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2576,31 +2576,31 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L8" s="58" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N8" s="48" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O8" s="58" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="R8" s="40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="S8" s="40" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2621,31 +2621,31 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="79" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L9" s="58" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N9" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="O9" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="O9" s="58" t="s">
-        <v>319</v>
-      </c>
       <c r="P9" s="40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="R9" s="40" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2676,31 +2676,31 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="L10" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="L10" s="64" t="s">
-        <v>396</v>
-      </c>
       <c r="M10" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="58" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="R10" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S10" s="40" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2730,28 +2730,28 @@
       <c r="J11" s="1"/>
       <c r="K11" s="21"/>
       <c r="L11" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M11" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N11" s="42" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="S11" s="40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2775,33 +2775,33 @@
         <v>41</v>
       </c>
       <c r="I12" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="21"/>
       <c r="L12" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M12" s="58" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O12" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P12" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="S12" s="42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2825,33 +2825,33 @@
         <v>41</v>
       </c>
       <c r="I13" s="66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="21"/>
       <c r="L13" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M13" s="58" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N13" s="42" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="R13" s="40" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S13" s="42" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2875,31 +2875,31 @@
         <v>215</v>
       </c>
       <c r="I14" s="66" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="58" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O14" s="58" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="R14" s="40" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="S14" s="40" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2929,17 +2929,17 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="58" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P15" s="30"/>
       <c r="R15" s="40" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2969,12 +2969,12 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N16" s="42"/>
       <c r="P16" s="30"/>
       <c r="R16" s="40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="S16" s="30"/>
     </row>
@@ -2999,7 +2999,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S17" s="30"/>
     </row>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="68" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3342,31 +3342,31 @@
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="78" t="s">
-        <v>237</v>
+        <v>402</v>
       </c>
       <c r="L27" s="75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M27" s="44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N27" s="73" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O27" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P27" s="73" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q27" s="44" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R27" s="73" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S27" s="44" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="T27" s="53"/>
     </row>
@@ -3389,31 +3389,31 @@
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
       <c r="K28" s="69" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L28" s="77" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O28" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P28" s="74" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q28" s="42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S28" s="40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="T28" s="53"/>
     </row>
@@ -3435,31 +3435,31 @@
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L29" s="77" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M29" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="N29" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="N29" s="74" t="s">
-        <v>255</v>
-      </c>
       <c r="O29" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S29" s="40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="T29" s="53"/>
     </row>
@@ -3481,31 +3481,31 @@
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="69" t="s">
-        <v>240</v>
+        <v>403</v>
       </c>
       <c r="L30" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O30" s="40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q30" s="40" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S30" s="40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="T30" s="53"/>
     </row>
@@ -3527,29 +3527,29 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="69" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M31" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O31" s="42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q31" s="42"/>
       <c r="R31" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="S31" s="42" t="s">
         <v>281</v>
-      </c>
-      <c r="S31" s="42" t="s">
-        <v>283</v>
       </c>
       <c r="T31" s="53"/>
     </row>
@@ -3571,29 +3571,29 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L32" s="77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M32" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O32" s="42" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Q32" s="42"/>
       <c r="R32" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S32" s="42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T32" s="53"/>
     </row>
@@ -3605,23 +3605,23 @@
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
       <c r="K33" s="69" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L33" s="77" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O33" s="42"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="42"/>
       <c r="R33" s="14"/>
       <c r="S33" s="42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="T33" s="53" t="s">
         <v>31</v>
@@ -3679,7 +3679,7 @@
         <v>20</v>
       </c>
       <c r="K35" s="30">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="L35" s="30">
         <v>60</v>
@@ -3693,7 +3693,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="54">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3733,7 +3733,7 @@
         <v>255</v>
       </c>
       <c r="U36" s="68" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3758,7 +3758,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="68">
         <f>T35+T36</f>
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -12682,7 +12682,7 @@
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B590" s="23" t="s">
         <v>11</v>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$673</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2119,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,7 +2575,7 @@
         <v>231</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="79" t="s">
         <v>291</v>
       </c>
       <c r="L8" s="58" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1563,7 +1563,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1800,6 +1800,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2119,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,7 +2681,7 @@
         <v>227</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="83" t="s">
         <v>392</v>
       </c>
       <c r="L10" s="64" t="s">
@@ -3099,7 +3105,9 @@
       <c r="J20" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="28"/>
+      <c r="K20" s="28">
+        <v>6</v>
+      </c>
       <c r="L20" s="30"/>
       <c r="M20" s="31"/>
       <c r="N20" s="30"/>
@@ -3110,7 +3118,7 @@
       <c r="S20" s="32"/>
       <c r="T20" s="50">
         <f>K20+L20+M20+N20+O20+P20+Q20+R20+S20</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -3215,7 +3223,7 @@
       <c r="R23" s="31"/>
       <c r="T23" s="67">
         <f>T20+T21+T22</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U23" s="68" t="s">
         <v>369</v>
@@ -3529,7 +3537,7 @@
       <c r="K31" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="L31" s="82" t="s">
         <v>244</v>
       </c>
       <c r="M31" s="40" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$673</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1299,7 +1299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1384,6 +1384,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1563,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1727,9 +1739,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1746,9 +1755,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1806,6 +1812,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2125,36 +2164,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="164.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="44.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="44.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="164.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="44.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="44.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="4"/>
+    <col min="21" max="21" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -2232,23 +2271,23 @@
       <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="64" t="s">
         <v>228</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="62" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="47" t="s">
@@ -2260,14 +2299,14 @@
       <c r="Q2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="63" t="s">
+      <c r="S2" s="62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -2289,23 +2328,23 @@
       <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="64" t="s">
         <v>229</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="63" t="s">
         <v>308</v>
       </c>
       <c r="O3" s="3" t="s">
@@ -2320,11 +2359,11 @@
       <c r="R3" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="S3" s="65" t="s">
+      <c r="S3" s="63" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -2346,20 +2385,20 @@
       <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="64" t="s">
         <v>230</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="86" t="s">
         <v>299</v>
       </c>
       <c r="N4" s="42" t="s">
@@ -2381,7 +2420,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2403,20 +2442,20 @@
       <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="64" t="s">
         <v>234</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="86" t="s">
         <v>300</v>
       </c>
       <c r="N5" s="42" t="s">
@@ -2425,7 +2464,7 @@
       <c r="O5" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="85" t="s">
         <v>335</v>
       </c>
       <c r="Q5" s="10" t="s">
@@ -2438,7 +2477,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -2460,23 +2499,23 @@
       <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="64" t="s">
         <v>224</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="84" t="s">
         <v>297</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="87" t="s">
         <v>312</v>
       </c>
       <c r="O6" s="15" t="s">
@@ -2495,7 +2534,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -2517,26 +2556,26 @@
       <c r="G7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="64" t="s">
         <v>225</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="57" t="s">
         <v>298</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="N7" s="87" t="s">
         <v>313</v>
       </c>
-      <c r="O7" s="58" t="s">
+      <c r="O7" s="57" t="s">
         <v>319</v>
       </c>
       <c r="P7" s="42" t="s">
@@ -2552,7 +2591,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -2574,17 +2613,17 @@
       <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="64" t="s">
         <v>231</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="88" t="s">
         <v>391</v>
       </c>
       <c r="M8" s="13" t="s">
@@ -2593,7 +2632,7 @@
       <c r="N8" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="O8" s="58" t="s">
+      <c r="O8" s="57" t="s">
         <v>320</v>
       </c>
       <c r="P8" s="40" t="s">
@@ -2605,11 +2644,11 @@
       <c r="R8" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="S8" s="40" t="s">
+      <c r="S8" s="91" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2619,17 +2658,17 @@
       <c r="G9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="64" t="s">
         <v>226</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="L9" s="88" t="s">
         <v>393</v>
       </c>
       <c r="M9" s="13" t="s">
@@ -2638,7 +2677,7 @@
       <c r="N9" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="57" t="s">
         <v>317</v>
       </c>
       <c r="P9" s="40" t="s">
@@ -2654,7 +2693,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -2674,17 +2713,17 @@
         <v>12</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="64" t="s">
         <v>227</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="81" t="s">
         <v>392</v>
       </c>
-      <c r="L10" s="64" t="s">
+      <c r="L10" s="90" t="s">
         <v>394</v>
       </c>
       <c r="M10" s="13" t="s">
@@ -2699,7 +2738,7 @@
       <c r="P10" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="Q10" s="58" t="s">
+      <c r="Q10" s="57" t="s">
         <v>359</v>
       </c>
       <c r="R10" s="40" t="s">
@@ -2709,7 +2748,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -2727,10 +2766,10 @@
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="64" t="s">
         <v>232</v>
       </c>
       <c r="J11" s="1"/>
@@ -2738,7 +2777,7 @@
       <c r="L11" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="M11" s="57" t="s">
+      <c r="M11" s="89" t="s">
         <v>305</v>
       </c>
       <c r="N11" s="42" t="s">
@@ -2750,7 +2789,7 @@
       <c r="P11" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="92" t="s">
         <v>360</v>
       </c>
       <c r="R11" s="40" t="s">
@@ -2760,7 +2799,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -2777,10 +2816,10 @@
         <v>10</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="64" t="s">
         <v>284</v>
       </c>
       <c r="J12" s="1"/>
@@ -2788,13 +2827,13 @@
       <c r="L12" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="88" t="s">
         <v>306</v>
       </c>
       <c r="N12" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="57" t="s">
         <v>331</v>
       </c>
       <c r="P12" s="42" t="s">
@@ -2810,7 +2849,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -2827,21 +2866,21 @@
         <v>10</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="66" t="s">
+      <c r="I13" s="64" t="s">
         <v>285</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="86" t="s">
         <v>289</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="87" t="s">
         <v>322</v>
       </c>
       <c r="O13" s="13" t="s">
@@ -2860,7 +2899,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -2877,22 +2916,22 @@
         <v>10</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="I14" s="66" t="s">
+      <c r="I14" s="64" t="s">
         <v>399</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="57" t="s">
         <v>311</v>
       </c>
       <c r="N14" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="57" t="s">
         <v>343</v>
       </c>
       <c r="P14" s="40" t="s">
@@ -2908,7 +2947,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -2925,30 +2964,30 @@
         <v>10</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="66" t="s">
+      <c r="H15" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="I15" s="66" t="s">
+      <c r="I15" s="64" t="s">
         <v>207</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="57" t="s">
         <v>357</v>
       </c>
       <c r="N15" s="40" t="s">
         <v>321</v>
       </c>
       <c r="P15" s="30"/>
-      <c r="R15" s="40" t="s">
+      <c r="R15" s="91" t="s">
         <v>376</v>
       </c>
       <c r="S15" s="40" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -2965,10 +3004,10 @@
         <v>10</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="64" t="s">
         <v>211</v>
       </c>
       <c r="J16" s="1"/>
@@ -2979,22 +3018,22 @@
       </c>
       <c r="N16" s="42"/>
       <c r="P16" s="30"/>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="91" t="s">
         <v>377</v>
       </c>
       <c r="S16" s="30"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="64" t="s">
         <v>212</v>
       </c>
       <c r="J17" s="1"/>
@@ -3004,12 +3043,12 @@
       <c r="N17" s="42"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="40" t="s">
+      <c r="R17" s="91" t="s">
         <v>378</v>
       </c>
       <c r="S17" s="30"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -3026,15 +3065,15 @@
         <v>10</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="66" t="s">
+      <c r="H18" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="I18" s="66" t="s">
+      <c r="I18" s="64" t="s">
         <v>213</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="58"/>
+      <c r="L18" s="57"/>
       <c r="M18" s="13"/>
       <c r="N18" s="42"/>
       <c r="P18" s="42"/>
@@ -3042,7 +3081,7 @@
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -3059,16 +3098,16 @@
         <v>10</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="64" t="s">
         <v>214</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="62"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="61"/>
       <c r="N19" s="43"/>
       <c r="O19" s="26"/>
       <c r="P19" s="43"/>
@@ -3079,7 +3118,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -3096,10 +3135,10 @@
         <v>10</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="64" t="s">
         <v>222</v>
       </c>
       <c r="J20" s="50" t="s">
@@ -3121,7 +3160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -3138,10 +3177,10 @@
         <v>10</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I21" s="66" t="s">
+      <c r="I21" s="64" t="s">
         <v>223</v>
       </c>
       <c r="J21" s="51" t="s">
@@ -3161,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -3195,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -3221,15 +3260,15 @@
       <c r="P23" s="31"/>
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
-      <c r="T23" s="67">
+      <c r="T23" s="65">
         <f>T20+T21+T22</f>
         <v>6</v>
       </c>
-      <c r="U23" s="68" t="s">
+      <c r="U23" s="66" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -3248,7 +3287,7 @@
       <c r="G24" s="9"/>
       <c r="T24" s="53"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3284,7 +3323,7 @@
       </c>
       <c r="T25" s="53"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -3331,7 +3370,7 @@
       </c>
       <c r="T26" s="53"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
@@ -3349,28 +3388,28 @@
       </c>
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="78" t="s">
+      <c r="K27" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="L27" s="75" t="s">
+      <c r="L27" s="73" t="s">
         <v>238</v>
       </c>
       <c r="M27" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="N27" s="73" t="s">
+      <c r="N27" s="71" t="s">
         <v>247</v>
       </c>
       <c r="O27" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="P27" s="73" t="s">
+      <c r="P27" s="71" t="s">
         <v>258</v>
       </c>
       <c r="Q27" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="R27" s="73" t="s">
+      <c r="R27" s="71" t="s">
         <v>270</v>
       </c>
       <c r="S27" s="44" t="s">
@@ -3378,7 +3417,7 @@
       </c>
       <c r="T27" s="53"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -3396,10 +3435,10 @@
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
-      <c r="K28" s="69" t="s">
+      <c r="K28" s="67" t="s">
         <v>401</v>
       </c>
-      <c r="L28" s="77" t="s">
+      <c r="L28" s="75" t="s">
         <v>240</v>
       </c>
       <c r="M28" s="40" t="s">
@@ -3408,10 +3447,10 @@
       <c r="N28" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="O28" s="71" t="s">
+      <c r="O28" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="P28" s="74" t="s">
+      <c r="P28" s="72" t="s">
         <v>265</v>
       </c>
       <c r="Q28" s="42" t="s">
@@ -3425,7 +3464,7 @@
       </c>
       <c r="T28" s="53"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
@@ -3442,19 +3481,19 @@
         <v>9</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="69" t="s">
+      <c r="K29" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="L29" s="77" t="s">
+      <c r="L29" s="75" t="s">
         <v>241</v>
       </c>
       <c r="M29" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="N29" s="74" t="s">
+      <c r="N29" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="O29" s="71" t="s">
+      <c r="O29" s="69" t="s">
         <v>261</v>
       </c>
       <c r="P29" s="14" t="s">
@@ -3471,7 +3510,7 @@
       </c>
       <c r="T29" s="53"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -3488,10 +3527,10 @@
         <v>9</v>
       </c>
       <c r="J30" s="10"/>
-      <c r="K30" s="69" t="s">
+      <c r="K30" s="67" t="s">
         <v>403</v>
       </c>
-      <c r="L30" s="77" t="s">
+      <c r="L30" s="75" t="s">
         <v>242</v>
       </c>
       <c r="M30" s="40" t="s">
@@ -3517,7 +3556,7 @@
       </c>
       <c r="T30" s="53"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -3534,10 +3573,10 @@
         <v>9</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="69" t="s">
+      <c r="K31" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="L31" s="82" t="s">
+      <c r="L31" s="80" t="s">
         <v>244</v>
       </c>
       <c r="M31" s="40" t="s">
@@ -3561,7 +3600,7 @@
       </c>
       <c r="T31" s="53"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
@@ -3578,10 +3617,10 @@
         <v>9</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="69" t="s">
+      <c r="K32" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="L32" s="77" t="s">
+      <c r="L32" s="75" t="s">
         <v>245</v>
       </c>
       <c r="M32" s="40" t="s">
@@ -3605,17 +3644,17 @@
       </c>
       <c r="T32" s="53"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="69" t="s">
+      <c r="K33" s="67" t="s">
         <v>400</v>
       </c>
-      <c r="L33" s="77" t="s">
+      <c r="L33" s="75" t="s">
         <v>401</v>
       </c>
       <c r="M33" s="40" t="s">
@@ -3635,7 +3674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>96</v>
       </c>
@@ -3652,10 +3691,10 @@
         <v>10</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="76" t="s">
+      <c r="K34" s="74" t="s">
         <v>404</v>
       </c>
-      <c r="L34" s="81" t="s">
+      <c r="L34" s="79" t="s">
         <v>405</v>
       </c>
       <c r="M34" s="45"/>
@@ -3663,11 +3702,11 @@
       <c r="O34" s="43"/>
       <c r="P34" s="26"/>
       <c r="Q34" s="43"/>
-      <c r="R34" s="72"/>
+      <c r="R34" s="70"/>
       <c r="S34" s="43"/>
       <c r="T34" s="53"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>96</v>
       </c>
@@ -3704,7 +3743,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>96</v>
       </c>
@@ -3736,15 +3775,15 @@
       <c r="Q36" s="33"/>
       <c r="R36" s="33"/>
       <c r="S36" s="33"/>
-      <c r="T36" s="60">
+      <c r="T36" s="59">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
         <v>255</v>
       </c>
-      <c r="U36" s="68" t="s">
+      <c r="U36" s="66" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>96</v>
       </c>
@@ -3764,12 +3803,12 @@
       <c r="K37" s="31"/>
       <c r="L37" s="31"/>
       <c r="R37" s="31"/>
-      <c r="T37" s="68">
+      <c r="T37" s="66">
         <f>T35+T36</f>
         <v>490</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>96</v>
       </c>
@@ -3790,7 +3829,7 @@
       <c r="Q38" s="8"/>
       <c r="T38" s="4"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>96</v>
       </c>
@@ -3813,7 +3852,7 @@
       <c r="S39" s="8"/>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>96</v>
       </c>
@@ -3836,7 +3875,7 @@
       <c r="S40" s="8"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -3848,7 +3887,7 @@
       <c r="S41" s="8"/>
       <c r="T41" s="4"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
@@ -3871,7 +3910,7 @@
       <c r="S42" s="8"/>
       <c r="T42" s="4"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>46</v>
       </c>
@@ -3894,7 +3933,7 @@
       <c r="S43" s="17"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
@@ -3917,7 +3956,7 @@
       <c r="S44" s="17"/>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>46</v>
       </c>
@@ -3940,7 +3979,7 @@
       <c r="S45" s="17"/>
       <c r="T45" s="4"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
@@ -3963,7 +4002,7 @@
       <c r="S46" s="17"/>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
@@ -3986,7 +4025,7 @@
       <c r="S47" s="17"/>
       <c r="T47" s="4"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
@@ -4009,7 +4048,7 @@
       <c r="S48" s="17"/>
       <c r="T48" s="4"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4022,7 +4061,7 @@
       <c r="S49" s="17"/>
       <c r="T49" s="4"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>97</v>
       </c>
@@ -4044,7 +4083,7 @@
       <c r="S50" s="17"/>
       <c r="T50" s="4"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>97</v>
       </c>
@@ -4066,7 +4105,7 @@
       <c r="S51" s="17"/>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>97</v>
       </c>
@@ -4088,7 +4127,7 @@
       <c r="S52" s="17"/>
       <c r="T52" s="4"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>97</v>
       </c>
@@ -4110,7 +4149,7 @@
       <c r="S53" s="17"/>
       <c r="T53" s="4"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>97</v>
       </c>
@@ -4132,7 +4171,7 @@
       <c r="S54" s="17"/>
       <c r="T54" s="4"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>97</v>
       </c>
@@ -4154,7 +4193,7 @@
       <c r="S55" s="17"/>
       <c r="T55" s="4"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>97</v>
       </c>
@@ -4176,7 +4215,7 @@
       <c r="S56" s="17"/>
       <c r="T56" s="4"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
@@ -4187,7 +4226,7 @@
       <c r="S57" s="17"/>
       <c r="T57" s="4"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>98</v>
       </c>
@@ -4209,7 +4248,7 @@
       <c r="S58" s="17"/>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>98</v>
       </c>
@@ -4231,7 +4270,7 @@
       <c r="S59" s="17"/>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>98</v>
       </c>
@@ -4252,7 +4291,7 @@
       <c r="S60" s="17"/>
       <c r="T60" s="4"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>98</v>
       </c>
@@ -4273,7 +4312,7 @@
       <c r="S61" s="17"/>
       <c r="T61" s="4"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>201</v>
       </c>
@@ -4294,7 +4333,7 @@
       <c r="S62" s="17"/>
       <c r="T62" s="4"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>98</v>
       </c>
@@ -4315,7 +4354,7 @@
       <c r="S63" s="17"/>
       <c r="T63" s="4"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>98</v>
       </c>
@@ -4336,7 +4375,7 @@
       <c r="S64" s="17"/>
       <c r="T64" s="4"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>98</v>
       </c>
@@ -4357,7 +4396,7 @@
       <c r="S65" s="17"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -4368,7 +4407,7 @@
       <c r="S66" s="17"/>
       <c r="T66" s="4"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>99</v>
       </c>
@@ -4389,7 +4428,7 @@
       <c r="S67" s="17"/>
       <c r="T67" s="4"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
         <v>99</v>
       </c>
@@ -4410,7 +4449,7 @@
       <c r="S68" s="17"/>
       <c r="T68" s="4"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
         <v>99</v>
       </c>
@@ -4431,7 +4470,7 @@
       <c r="S69" s="17"/>
       <c r="T69" s="4"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
         <v>99</v>
       </c>
@@ -4452,7 +4491,7 @@
       <c r="S70" s="17"/>
       <c r="T70" s="4"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
         <v>200</v>
       </c>
@@ -4473,7 +4512,7 @@
       <c r="S71" s="17"/>
       <c r="T71" s="4"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
         <v>99</v>
       </c>
@@ -4495,7 +4534,7 @@
       <c r="S72" s="17"/>
       <c r="T72" s="4"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
         <v>99</v>
       </c>
@@ -4516,7 +4555,7 @@
       <c r="S73" s="17"/>
       <c r="T73" s="4"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
         <v>99</v>
       </c>
@@ -4537,7 +4576,7 @@
       <c r="S74" s="17"/>
       <c r="T74" s="4"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -4548,7 +4587,7 @@
       <c r="S75" s="17"/>
       <c r="T75" s="4"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>100</v>
       </c>
@@ -4569,7 +4608,7 @@
       <c r="S76" s="17"/>
       <c r="T76" s="4"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>100</v>
       </c>
@@ -4590,7 +4629,7 @@
       <c r="S77" s="17"/>
       <c r="T77" s="4"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>100</v>
       </c>
@@ -4611,7 +4650,7 @@
       <c r="S78" s="17"/>
       <c r="T78" s="4"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>100</v>
       </c>
@@ -4632,7 +4671,7 @@
       <c r="S79" s="17"/>
       <c r="T79" s="4"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>202</v>
       </c>
@@ -4653,7 +4692,7 @@
       <c r="S80" s="17"/>
       <c r="T80" s="4"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>100</v>
       </c>
@@ -4674,7 +4713,7 @@
       <c r="S81" s="17"/>
       <c r="T81" s="4"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>100</v>
       </c>
@@ -4695,7 +4734,7 @@
       <c r="S82" s="17"/>
       <c r="T82" s="4"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>100</v>
       </c>
@@ -4716,7 +4755,7 @@
       <c r="S83" s="8"/>
       <c r="T83" s="4"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -4727,7 +4766,7 @@
       <c r="S84" s="8"/>
       <c r="T84" s="4"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>101</v>
       </c>
@@ -4748,7 +4787,7 @@
       <c r="S85" s="8"/>
       <c r="T85" s="4"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>101</v>
       </c>
@@ -4769,7 +4808,7 @@
       <c r="S86" s="8"/>
       <c r="T86" s="4"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>101</v>
       </c>
@@ -4790,7 +4829,7 @@
       <c r="S87" s="8"/>
       <c r="T87" s="4"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>101</v>
       </c>
@@ -4811,7 +4850,7 @@
       <c r="S88" s="8"/>
       <c r="T88" s="4"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>203</v>
       </c>
@@ -4832,7 +4871,7 @@
       <c r="S89" s="8"/>
       <c r="T89" s="4"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>101</v>
       </c>
@@ -4853,7 +4892,7 @@
       <c r="S90" s="8"/>
       <c r="T90" s="4"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>101</v>
       </c>
@@ -4874,7 +4913,7 @@
       <c r="S91" s="8"/>
       <c r="T91" s="4"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>101</v>
       </c>
@@ -4895,7 +4934,7 @@
       <c r="S92" s="8"/>
       <c r="T92" s="4"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -4906,7 +4945,7 @@
       <c r="S93" s="8"/>
       <c r="T93" s="4"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>103</v>
       </c>
@@ -4927,7 +4966,7 @@
       <c r="S94" s="8"/>
       <c r="T94" s="4"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>103</v>
       </c>
@@ -4948,7 +4987,7 @@
       <c r="S95" s="8"/>
       <c r="T95" s="4"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>103</v>
       </c>
@@ -4969,7 +5008,7 @@
       <c r="S96" s="8"/>
       <c r="T96" s="4"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>103</v>
       </c>
@@ -4990,7 +5029,7 @@
       <c r="S97" s="8"/>
       <c r="T97" s="4"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>103</v>
       </c>
@@ -5011,7 +5050,7 @@
       <c r="S98" s="8"/>
       <c r="T98" s="4"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>103</v>
       </c>
@@ -5032,7 +5071,7 @@
       <c r="S99" s="8"/>
       <c r="T99" s="4"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>103</v>
       </c>
@@ -5053,7 +5092,7 @@
       <c r="S100" s="8"/>
       <c r="T100" s="4"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -5064,7 +5103,7 @@
       <c r="S101" s="8"/>
       <c r="T101" s="4"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
         <v>102</v>
       </c>
@@ -5085,7 +5124,7 @@
       <c r="S102" s="8"/>
       <c r="T102" s="4"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
         <v>102</v>
       </c>
@@ -5106,7 +5145,7 @@
       <c r="S103" s="8"/>
       <c r="T103" s="4"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
         <v>102</v>
       </c>
@@ -5127,7 +5166,7 @@
       <c r="S104" s="8"/>
       <c r="T104" s="4"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
         <v>102</v>
       </c>
@@ -5148,7 +5187,7 @@
       <c r="S105" s="8"/>
       <c r="T105" s="4"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
         <v>102</v>
       </c>
@@ -5169,7 +5208,7 @@
       <c r="S106" s="8"/>
       <c r="T106" s="4"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
         <v>102</v>
       </c>
@@ -5188,7 +5227,7 @@
       <c r="S107" s="8"/>
       <c r="T107" s="4"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
         <v>102</v>
       </c>
@@ -5207,7 +5246,7 @@
       <c r="S108" s="8"/>
       <c r="T108" s="4"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="24"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -5216,7 +5255,7 @@
       <c r="S109" s="8"/>
       <c r="T109" s="4"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>104</v>
       </c>
@@ -5235,7 +5274,7 @@
       <c r="S110" s="8"/>
       <c r="T110" s="4"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>104</v>
       </c>
@@ -5254,7 +5293,7 @@
       <c r="S111" s="8"/>
       <c r="T111" s="4"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>104</v>
       </c>
@@ -5273,7 +5312,7 @@
       <c r="S112" s="8"/>
       <c r="T112" s="4"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>104</v>
       </c>
@@ -5292,7 +5331,7 @@
       <c r="S113" s="8"/>
       <c r="T113" s="4"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>104</v>
       </c>
@@ -5311,7 +5350,7 @@
       <c r="S114" s="8"/>
       <c r="T114" s="4"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>104</v>
       </c>
@@ -5330,7 +5369,7 @@
       <c r="S115" s="8"/>
       <c r="T115" s="4"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>104</v>
       </c>
@@ -5349,7 +5388,7 @@
       <c r="S116" s="8"/>
       <c r="T116" s="4"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -5358,7 +5397,7 @@
       <c r="S117" s="8"/>
       <c r="T117" s="4"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>105</v>
       </c>
@@ -5377,7 +5416,7 @@
       <c r="S118" s="8"/>
       <c r="T118" s="4"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>105</v>
       </c>
@@ -5394,7 +5433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>105</v>
       </c>
@@ -5411,7 +5450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>105</v>
       </c>
@@ -5428,7 +5467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>204</v>
       </c>
@@ -5445,7 +5484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>105</v>
       </c>
@@ -5462,7 +5501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>105</v>
       </c>
@@ -5482,7 +5521,7 @@
       <c r="L124" s="31"/>
       <c r="M124" s="31"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>105</v>
       </c>
@@ -5502,7 +5541,7 @@
       <c r="L125" s="31"/>
       <c r="M125" s="31"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -5512,7 +5551,7 @@
       <c r="L126" s="31"/>
       <c r="M126" s="31"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>106</v>
       </c>
@@ -5532,7 +5571,7 @@
       <c r="L127" s="31"/>
       <c r="M127" s="31"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>106</v>
       </c>
@@ -5552,7 +5591,7 @@
       <c r="L128" s="31"/>
       <c r="M128" s="31"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>106</v>
       </c>
@@ -5572,7 +5611,7 @@
       <c r="L129" s="31"/>
       <c r="M129" s="31"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>106</v>
       </c>
@@ -5592,7 +5631,7 @@
       <c r="L130" s="31"/>
       <c r="M130" s="31"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>205</v>
       </c>
@@ -5612,7 +5651,7 @@
       <c r="L131" s="31"/>
       <c r="M131" s="31"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>106</v>
       </c>
@@ -5632,7 +5671,7 @@
       <c r="L132" s="31"/>
       <c r="M132" s="31"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>106</v>
       </c>
@@ -5652,7 +5691,7 @@
       <c r="L133" s="55"/>
       <c r="M133" s="31"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>106</v>
       </c>
@@ -5673,7 +5712,7 @@
       <c r="L134" s="31"/>
       <c r="M134" s="31"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -5684,7 +5723,7 @@
       <c r="L135" s="31"/>
       <c r="M135" s="31"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>141</v>
       </c>
@@ -5705,7 +5744,7 @@
       <c r="L136" s="14"/>
       <c r="M136" s="31"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>141</v>
       </c>
@@ -5725,7 +5764,7 @@
       <c r="L137" s="14"/>
       <c r="M137" s="31"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>141</v>
       </c>
@@ -5745,7 +5784,7 @@
       <c r="L138" s="14"/>
       <c r="M138" s="31"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>141</v>
       </c>
@@ -5765,7 +5804,7 @@
       <c r="L139" s="14"/>
       <c r="M139" s="31"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>206</v>
       </c>
@@ -5785,7 +5824,7 @@
       <c r="L140" s="15"/>
       <c r="M140" s="31"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>141</v>
       </c>
@@ -5805,7 +5844,7 @@
       <c r="L141" s="15"/>
       <c r="M141" s="31"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
@@ -5825,7 +5864,7 @@
       <c r="L142" s="15"/>
       <c r="M142" s="31"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
@@ -5845,7 +5884,7 @@
       <c r="L143" s="31"/>
       <c r="M143" s="31"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="24"/>
       <c r="C144" s="7"/>
@@ -5855,7 +5894,7 @@
       <c r="L144" s="31"/>
       <c r="M144" s="31"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="24" t="s">
         <v>107</v>
       </c>
@@ -5875,7 +5914,7 @@
       <c r="L145" s="15"/>
       <c r="M145" s="31"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="24" t="s">
         <v>107</v>
       </c>
@@ -5895,7 +5934,7 @@
       <c r="L146" s="15"/>
       <c r="M146" s="31"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="24" t="s">
         <v>107</v>
       </c>
@@ -5915,7 +5954,7 @@
       <c r="L147" s="15"/>
       <c r="M147" s="31"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="24" t="s">
         <v>107</v>
       </c>
@@ -5935,14 +5974,14 @@
       <c r="L148" s="31"/>
       <c r="M148" s="31"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="24"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>108</v>
       </c>
@@ -5959,7 +5998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>108</v>
       </c>
@@ -5976,7 +6015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>108</v>
       </c>
@@ -5993,7 +6032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>108</v>
       </c>
@@ -6010,14 +6049,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>109</v>
       </c>
@@ -6035,7 +6074,7 @@
       </c>
       <c r="R155" s="31"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>109</v>
       </c>
@@ -6053,7 +6092,7 @@
       </c>
       <c r="R156" s="31"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>109</v>
       </c>
@@ -6071,7 +6110,7 @@
       </c>
       <c r="R157" s="31"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>109</v>
       </c>
@@ -6089,7 +6128,7 @@
       </c>
       <c r="R158" s="31"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -6097,7 +6136,7 @@
       <c r="E159" s="8"/>
       <c r="R159" s="31"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>110</v>
       </c>
@@ -6115,7 +6154,7 @@
       </c>
       <c r="R160" s="31"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>110</v>
       </c>
@@ -6133,7 +6172,7 @@
       </c>
       <c r="R161" s="55"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>110</v>
       </c>
@@ -6151,7 +6190,7 @@
       </c>
       <c r="R162" s="31"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>110</v>
       </c>
@@ -6169,7 +6208,7 @@
       </c>
       <c r="R163" s="31"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -6177,7 +6216,7 @@
       <c r="E164" s="8"/>
       <c r="R164" s="14"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>111</v>
       </c>
@@ -6195,7 +6234,7 @@
       </c>
       <c r="R165" s="14"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>111</v>
       </c>
@@ -6213,7 +6252,7 @@
       </c>
       <c r="R166" s="15"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>111</v>
       </c>
@@ -6231,7 +6270,7 @@
       </c>
       <c r="R167" s="14"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>111</v>
       </c>
@@ -6249,7 +6288,7 @@
       </c>
       <c r="R168" s="14"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -6257,7 +6296,7 @@
       <c r="E169" s="8"/>
       <c r="R169" s="14"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" s="24" t="s">
         <v>112</v>
       </c>
@@ -6275,7 +6314,7 @@
       </c>
       <c r="R170" s="14"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" s="24" t="s">
         <v>112</v>
       </c>
@@ -6293,7 +6332,7 @@
       </c>
       <c r="R171" s="31"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" s="24" t="s">
         <v>112</v>
       </c>
@@ -6311,7 +6350,7 @@
       </c>
       <c r="R172" s="31"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" s="24" t="s">
         <v>112</v>
       </c>
@@ -6329,7 +6368,7 @@
       </c>
       <c r="R173" s="14"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" s="24"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -6337,7 +6376,7 @@
       <c r="E174" s="8"/>
       <c r="R174" s="7"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>113</v>
       </c>
@@ -6355,7 +6394,7 @@
       </c>
       <c r="R175" s="7"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>113</v>
       </c>
@@ -6372,7 +6411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>113</v>
       </c>
@@ -6389,7 +6428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>113</v>
       </c>
@@ -6406,14 +6445,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>114</v>
       </c>
@@ -6431,7 +6470,7 @@
       </c>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>114</v>
       </c>
@@ -6448,7 +6487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>114</v>
       </c>
@@ -6465,7 +6504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>114</v>
       </c>
@@ -6482,14 +6521,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>115</v>
       </c>
@@ -6506,7 +6545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>115</v>
       </c>
@@ -6523,7 +6562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>115</v>
       </c>
@@ -6540,7 +6579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>115</v>
       </c>
@@ -6557,14 +6596,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>116</v>
       </c>
@@ -6581,7 +6620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>116</v>
       </c>
@@ -6598,7 +6637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>116</v>
       </c>
@@ -6615,7 +6654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>116</v>
       </c>
@@ -6632,14 +6671,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="24" t="s">
         <v>117</v>
       </c>
@@ -6656,7 +6695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="24" t="s">
         <v>117</v>
       </c>
@@ -6673,7 +6712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="24" t="s">
         <v>117</v>
       </c>
@@ -6690,7 +6729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="24" t="s">
         <v>117</v>
       </c>
@@ -6707,14 +6746,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="24"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>118</v>
       </c>
@@ -6731,7 +6770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>118</v>
       </c>
@@ -6748,7 +6787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>118</v>
       </c>
@@ -6765,7 +6804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>118</v>
       </c>
@@ -6782,14 +6821,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>119</v>
       </c>
@@ -6806,7 +6845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>119</v>
       </c>
@@ -6823,7 +6862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>119</v>
       </c>
@@ -6840,7 +6879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>119</v>
       </c>
@@ -6857,14 +6896,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>120</v>
       </c>
@@ -6881,7 +6920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>120</v>
       </c>
@@ -6898,7 +6937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>120</v>
       </c>
@@ -6915,7 +6954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>120</v>
       </c>
@@ -6932,14 +6971,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>121</v>
       </c>
@@ -6956,7 +6995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>121</v>
       </c>
@@ -6973,7 +7012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>121</v>
       </c>
@@ -6989,9 +7028,9 @@
       <c r="E217" s="8">
         <v>5</v>
       </c>
-      <c r="I217" s="70"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I217" s="68"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>121</v>
       </c>
@@ -7007,17 +7046,17 @@
       <c r="E218" s="8">
         <v>5</v>
       </c>
-      <c r="I218" s="70"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I218" s="68"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
-      <c r="I219" s="70"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I219" s="68"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="24" t="s">
         <v>122</v>
       </c>
@@ -7033,9 +7072,9 @@
       <c r="E220" s="8">
         <v>5</v>
       </c>
-      <c r="I220" s="70"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I220" s="68"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="24" t="s">
         <v>122</v>
       </c>
@@ -7051,9 +7090,9 @@
       <c r="E221" s="8">
         <v>5</v>
       </c>
-      <c r="I221" s="70"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I221" s="68"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="24" t="s">
         <v>122</v>
       </c>
@@ -7069,12 +7108,12 @@
       <c r="E222" s="8">
         <v>5</v>
       </c>
-      <c r="I222" s="70"/>
+      <c r="I222" s="68"/>
       <c r="J222" s="31"/>
       <c r="K222" s="31"/>
       <c r="L222" s="31"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="24" t="s">
         <v>122</v>
       </c>
@@ -7090,23 +7129,23 @@
       <c r="E223" s="8">
         <v>5</v>
       </c>
-      <c r="I223" s="70"/>
+      <c r="I223" s="68"/>
       <c r="J223" s="31"/>
       <c r="K223" s="31"/>
       <c r="L223" s="31"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="24"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
-      <c r="I224" s="70"/>
+      <c r="I224" s="68"/>
       <c r="J224" s="31"/>
       <c r="K224" s="31"/>
       <c r="L224" s="31"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>123</v>
       </c>
@@ -7122,12 +7161,12 @@
       <c r="E225" s="8">
         <v>5</v>
       </c>
-      <c r="I225" s="70"/>
+      <c r="I225" s="68"/>
       <c r="J225" s="31"/>
       <c r="K225" s="31"/>
       <c r="L225" s="31"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>123</v>
       </c>
@@ -7143,13 +7182,13 @@
       <c r="E226" s="8">
         <v>5</v>
       </c>
-      <c r="I226" s="70"/>
+      <c r="I226" s="68"/>
       <c r="J226" s="31"/>
       <c r="K226" s="31"/>
       <c r="L226" s="31"/>
       <c r="S226" s="31"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>123</v>
       </c>
@@ -7165,13 +7204,13 @@
       <c r="E227" s="8">
         <v>5</v>
       </c>
-      <c r="I227" s="70"/>
+      <c r="I227" s="68"/>
       <c r="J227" s="31"/>
       <c r="K227" s="31"/>
       <c r="L227" s="31"/>
       <c r="S227" s="31"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>123</v>
       </c>
@@ -7187,25 +7226,25 @@
       <c r="E228" s="8">
         <v>5</v>
       </c>
-      <c r="I228" s="70"/>
+      <c r="I228" s="68"/>
       <c r="J228" s="31"/>
       <c r="K228" s="31"/>
       <c r="L228" s="31"/>
       <c r="S228" s="31"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
-      <c r="I229" s="70"/>
+      <c r="I229" s="68"/>
       <c r="J229" s="31"/>
       <c r="K229" s="31"/>
       <c r="L229" s="31"/>
       <c r="S229" s="31"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>124</v>
       </c>
@@ -7221,13 +7260,13 @@
       <c r="E230" s="8">
         <v>6</v>
       </c>
-      <c r="I230" s="70"/>
+      <c r="I230" s="68"/>
       <c r="J230" s="55"/>
       <c r="K230" s="31"/>
       <c r="L230" s="31"/>
       <c r="S230" s="31"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>124</v>
       </c>
@@ -7243,13 +7282,13 @@
       <c r="E231" s="8">
         <v>6</v>
       </c>
-      <c r="I231" s="70"/>
+      <c r="I231" s="68"/>
       <c r="J231" s="31"/>
       <c r="K231" s="31"/>
       <c r="L231" s="31"/>
       <c r="S231" s="31"/>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>124</v>
       </c>
@@ -7265,13 +7304,13 @@
       <c r="E232" s="8">
         <v>6</v>
       </c>
-      <c r="I232" s="70"/>
+      <c r="I232" s="68"/>
       <c r="J232" s="31"/>
       <c r="K232" s="31"/>
       <c r="L232" s="31"/>
       <c r="S232" s="31"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>124</v>
       </c>
@@ -7287,25 +7326,25 @@
       <c r="E233" s="8">
         <v>6</v>
       </c>
-      <c r="I233" s="70"/>
+      <c r="I233" s="68"/>
       <c r="J233" s="14"/>
       <c r="K233" s="31"/>
       <c r="L233" s="31"/>
       <c r="S233" s="31"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
-      <c r="I234" s="70"/>
+      <c r="I234" s="68"/>
       <c r="J234" s="14"/>
       <c r="K234" s="31"/>
       <c r="L234" s="31"/>
       <c r="S234" s="31"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>125</v>
       </c>
@@ -7321,13 +7360,13 @@
       <c r="E235" s="8">
         <v>6</v>
       </c>
-      <c r="I235" s="70"/>
+      <c r="I235" s="68"/>
       <c r="J235" s="14"/>
       <c r="K235" s="31"/>
       <c r="L235" s="31"/>
       <c r="S235" s="31"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>125</v>
       </c>
@@ -7343,13 +7382,13 @@
       <c r="E236" s="8">
         <v>6</v>
       </c>
-      <c r="I236" s="70"/>
+      <c r="I236" s="68"/>
       <c r="J236" s="14"/>
       <c r="K236" s="31"/>
       <c r="L236" s="31"/>
       <c r="S236" s="31"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>125</v>
       </c>
@@ -7365,13 +7404,13 @@
       <c r="E237" s="8">
         <v>6</v>
       </c>
-      <c r="I237" s="70"/>
+      <c r="I237" s="68"/>
       <c r="J237" s="14"/>
       <c r="K237" s="31"/>
       <c r="L237" s="31"/>
       <c r="S237" s="31"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>125</v>
       </c>
@@ -7387,13 +7426,13 @@
       <c r="E238" s="8">
         <v>6</v>
       </c>
-      <c r="I238" s="70"/>
+      <c r="I238" s="68"/>
       <c r="J238" s="31"/>
       <c r="K238" s="31"/>
       <c r="L238" s="31"/>
       <c r="S238" s="31"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -7402,7 +7441,7 @@
       <c r="L239" s="31"/>
       <c r="S239" s="31"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>126</v>
       </c>
@@ -7423,7 +7462,7 @@
       <c r="L240" s="31"/>
       <c r="S240" s="31"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>126</v>
       </c>
@@ -7444,7 +7483,7 @@
       <c r="L241" s="31"/>
       <c r="S241" s="31"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>126</v>
       </c>
@@ -7464,7 +7503,7 @@
       <c r="K242" s="31"/>
       <c r="L242" s="31"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>126</v>
       </c>
@@ -7484,13 +7523,13 @@
       <c r="K243" s="31"/>
       <c r="L243" s="31"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
       <c r="J244" s="36"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A245" s="24" t="s">
         <v>127</v>
       </c>
@@ -7508,7 +7547,7 @@
       </c>
       <c r="J245" s="7"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A246" s="24" t="s">
         <v>127</v>
       </c>
@@ -7526,7 +7565,7 @@
       </c>
       <c r="J246" s="7"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" s="24" t="s">
         <v>127</v>
       </c>
@@ -7546,7 +7585,7 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A248" s="24" t="s">
         <v>127</v>
       </c>
@@ -7566,7 +7605,7 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A249" s="24"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -7574,7 +7613,7 @@
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>128</v>
       </c>
@@ -7594,7 +7633,7 @@
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>128</v>
       </c>
@@ -7614,7 +7653,7 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>128</v>
       </c>
@@ -7634,7 +7673,7 @@
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>128</v>
       </c>
@@ -7651,12 +7690,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>129</v>
       </c>
@@ -7673,7 +7712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>129</v>
       </c>
@@ -7690,7 +7729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>129</v>
       </c>
@@ -7707,7 +7746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>129</v>
       </c>
@@ -7727,7 +7766,7 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -7735,7 +7774,7 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>130</v>
       </c>
@@ -7755,7 +7794,7 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>130</v>
       </c>
@@ -7775,7 +7814,7 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>130</v>
       </c>
@@ -7795,7 +7834,7 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>130</v>
       </c>
@@ -7815,12 +7854,12 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>131</v>
       </c>
@@ -7837,7 +7876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>131</v>
       </c>
@@ -7854,7 +7893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>131</v>
       </c>
@@ -7871,7 +7910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>131</v>
       </c>
@@ -7888,12 +7927,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="24" t="s">
         <v>132</v>
       </c>
@@ -7910,7 +7949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="24" t="s">
         <v>132</v>
       </c>
@@ -7927,7 +7966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="24" t="s">
         <v>132</v>
       </c>
@@ -7944,7 +7983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="24" t="s">
         <v>132</v>
       </c>
@@ -7961,12 +8000,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
       <c r="B274" s="24"/>
       <c r="C274" s="7"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>133</v>
       </c>
@@ -7983,7 +8022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>133</v>
       </c>
@@ -8000,7 +8039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>133</v>
       </c>
@@ -8017,7 +8056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>133</v>
       </c>
@@ -8034,12 +8073,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
       <c r="B279" s="24"/>
       <c r="C279" s="7"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>134</v>
       </c>
@@ -8056,7 +8095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>134</v>
       </c>
@@ -8073,7 +8112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>134</v>
       </c>
@@ -8090,7 +8129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>134</v>
       </c>
@@ -8107,12 +8146,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="24"/>
       <c r="B284" s="24"/>
       <c r="C284" s="7"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>135</v>
       </c>
@@ -8129,7 +8168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>135</v>
       </c>
@@ -8146,7 +8185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>135</v>
       </c>
@@ -8163,7 +8202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>135</v>
       </c>
@@ -8180,12 +8219,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="24"/>
       <c r="C289" s="7"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="24" t="s">
         <v>136</v>
       </c>
@@ -8202,7 +8241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="24" t="s">
         <v>136</v>
       </c>
@@ -8219,7 +8258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="24" t="s">
         <v>136</v>
       </c>
@@ -8236,7 +8275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="24" t="s">
         <v>136</v>
       </c>
@@ -8253,12 +8292,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="B294" s="24"/>
       <c r="C294" s="7"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>137</v>
       </c>
@@ -8275,7 +8314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>137</v>
       </c>
@@ -8292,7 +8331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>137</v>
       </c>
@@ -8309,7 +8348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>137</v>
       </c>
@@ -8326,12 +8365,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="24"/>
       <c r="C299" s="7"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>138</v>
       </c>
@@ -8349,7 +8388,7 @@
       </c>
       <c r="F300" s="5"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>138</v>
       </c>
@@ -8367,7 +8406,7 @@
       </c>
       <c r="F301" s="5"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>138</v>
       </c>
@@ -8384,7 +8423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>138</v>
       </c>
@@ -8401,14 +8440,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="24"/>
       <c r="B304" s="24"/>
       <c r="C304" s="7"/>
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>139</v>
       </c>
@@ -8425,7 +8464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>139</v>
       </c>
@@ -8442,7 +8481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>139</v>
       </c>
@@ -8459,7 +8498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>139</v>
       </c>
@@ -8476,14 +8515,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="24"/>
       <c r="C309" s="7"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>140</v>
       </c>
@@ -8500,7 +8539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>140</v>
       </c>
@@ -8517,7 +8556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>140</v>
       </c>
@@ -8534,7 +8573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>140</v>
       </c>
@@ -8551,14 +8590,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="24"/>
       <c r="C314" s="7"/>
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="24" t="s">
         <v>142</v>
       </c>
@@ -8575,7 +8614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="24" t="s">
         <v>142</v>
       </c>
@@ -8592,7 +8631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="24" t="s">
         <v>142</v>
       </c>
@@ -8609,7 +8648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="24" t="s">
         <v>142</v>
       </c>
@@ -8626,14 +8665,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="24"/>
       <c r="C319" s="7"/>
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
         <v>143</v>
       </c>
@@ -8650,7 +8689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
         <v>143</v>
       </c>
@@ -8667,7 +8706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>143</v>
       </c>
@@ -8684,7 +8723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
         <v>143</v>
       </c>
@@ -8701,14 +8740,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
       <c r="B324" s="24"/>
       <c r="C324" s="7"/>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="24" t="s">
         <v>144</v>
       </c>
@@ -8725,7 +8764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="24" t="s">
         <v>144</v>
       </c>
@@ -8742,7 +8781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="24" t="s">
         <v>144</v>
       </c>
@@ -8759,7 +8798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="24" t="s">
         <v>144</v>
       </c>
@@ -8776,7 +8815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="24" t="s">
         <v>144</v>
       </c>
@@ -8793,7 +8832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="24" t="s">
         <v>144</v>
       </c>
@@ -8810,7 +8849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="24" t="s">
         <v>144</v>
       </c>
@@ -8827,14 +8866,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
       <c r="B332" s="24"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>145</v>
       </c>
@@ -8851,7 +8890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
         <v>145</v>
       </c>
@@ -8868,7 +8907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
         <v>145</v>
       </c>
@@ -8885,7 +8924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
         <v>145</v>
       </c>
@@ -8902,7 +8941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
         <v>145</v>
       </c>
@@ -8919,7 +8958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
         <v>145</v>
       </c>
@@ -8936,7 +8975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
         <v>145</v>
       </c>
@@ -8953,14 +8992,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
       <c r="B340" s="24"/>
       <c r="C340" s="7"/>
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
         <v>146</v>
       </c>
@@ -8977,7 +9016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
         <v>146</v>
       </c>
@@ -8994,7 +9033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
         <v>146</v>
       </c>
@@ -9011,7 +9050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
         <v>146</v>
       </c>
@@ -9028,7 +9067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
         <v>146</v>
       </c>
@@ -9045,7 +9084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
         <v>146</v>
       </c>
@@ -9062,7 +9101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
         <v>146</v>
       </c>
@@ -9079,14 +9118,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="24"/>
       <c r="B348" s="24"/>
       <c r="C348" s="7"/>
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
         <v>147</v>
       </c>
@@ -9103,7 +9142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
         <v>147</v>
       </c>
@@ -9120,7 +9159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
         <v>147</v>
       </c>
@@ -9137,7 +9176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
         <v>147</v>
       </c>
@@ -9154,7 +9193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>147</v>
       </c>
@@ -9171,7 +9210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>147</v>
       </c>
@@ -9188,7 +9227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
         <v>147</v>
       </c>
@@ -9205,14 +9244,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
       <c r="B356" s="24"/>
       <c r="C356" s="7"/>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
         <v>148</v>
       </c>
@@ -9229,7 +9268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>148</v>
       </c>
@@ -9246,7 +9285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
         <v>148</v>
       </c>
@@ -9263,7 +9302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
         <v>148</v>
       </c>
@@ -9280,7 +9319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
         <v>148</v>
       </c>
@@ -9297,7 +9336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
         <v>148</v>
       </c>
@@ -9314,7 +9353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
         <v>148</v>
       </c>
@@ -9331,7 +9370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
       <c r="B364" s="24"/>
       <c r="C364" s="7"/>
@@ -9339,7 +9378,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="37"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="24" t="s">
         <v>149</v>
       </c>
@@ -9357,7 +9396,7 @@
       </c>
       <c r="F365" s="5"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="24" t="s">
         <v>149</v>
       </c>
@@ -9375,7 +9414,7 @@
       </c>
       <c r="F366" s="37"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="24" t="s">
         <v>149</v>
       </c>
@@ -9393,7 +9432,7 @@
       </c>
       <c r="F367" s="37"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="24" t="s">
         <v>149</v>
       </c>
@@ -9411,7 +9450,7 @@
       </c>
       <c r="F368" s="37"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="24" t="s">
         <v>149</v>
       </c>
@@ -9429,7 +9468,7 @@
       </c>
       <c r="F369" s="37"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="24" t="s">
         <v>149</v>
       </c>
@@ -9447,7 +9486,7 @@
       </c>
       <c r="F370" s="37"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="24" t="s">
         <v>149</v>
       </c>
@@ -9465,7 +9504,7 @@
       </c>
       <c r="F371" s="37"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
       <c r="B372" s="24"/>
       <c r="C372" s="7"/>
@@ -9473,7 +9512,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="37"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
         <v>150</v>
       </c>
@@ -9491,7 +9530,7 @@
       </c>
       <c r="F373" s="37"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
         <v>150</v>
       </c>
@@ -9509,7 +9548,7 @@
       </c>
       <c r="F374" s="37"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>150</v>
       </c>
@@ -9527,7 +9566,7 @@
       </c>
       <c r="F375" s="37"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
         <v>150</v>
       </c>
@@ -9545,7 +9584,7 @@
       </c>
       <c r="F376" s="37"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
         <v>150</v>
       </c>
@@ -9563,7 +9602,7 @@
       </c>
       <c r="F377" s="37"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
         <v>150</v>
       </c>
@@ -9581,7 +9620,7 @@
       </c>
       <c r="F378" s="37"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
         <v>150</v>
       </c>
@@ -9599,7 +9638,7 @@
       </c>
       <c r="F379" s="37"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
       <c r="B380" s="24"/>
       <c r="C380" s="7"/>
@@ -9607,7 +9646,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="37"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
         <v>151</v>
       </c>
@@ -9625,7 +9664,7 @@
       </c>
       <c r="F381" s="37"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
         <v>151</v>
       </c>
@@ -9643,7 +9682,7 @@
       </c>
       <c r="F382" s="37"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
         <v>151</v>
       </c>
@@ -9661,7 +9700,7 @@
       </c>
       <c r="F383" s="37"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
         <v>151</v>
       </c>
@@ -9679,7 +9718,7 @@
       </c>
       <c r="F384" s="37"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="5" t="s">
         <v>151</v>
       </c>
@@ -9697,7 +9736,7 @@
       </c>
       <c r="F385" s="37"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="5" t="s">
         <v>151</v>
       </c>
@@ -9715,7 +9754,7 @@
       </c>
       <c r="F386" s="37"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="5" t="s">
         <v>151</v>
       </c>
@@ -9732,14 +9771,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="5"/>
       <c r="B388" s="24"/>
       <c r="C388" s="7"/>
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
         <v>152</v>
       </c>
@@ -9756,7 +9795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="5" t="s">
         <v>152</v>
       </c>
@@ -9773,7 +9812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
         <v>152</v>
       </c>
@@ -9790,7 +9829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
         <v>152</v>
       </c>
@@ -9807,7 +9846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
         <v>152</v>
       </c>
@@ -9824,7 +9863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
         <v>152</v>
       </c>
@@ -9841,7 +9880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
         <v>152</v>
       </c>
@@ -9858,14 +9897,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="5"/>
       <c r="B396" s="24"/>
       <c r="C396" s="7"/>
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
         <v>180</v>
       </c>
@@ -9882,7 +9921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
         <v>180</v>
       </c>
@@ -9899,7 +9938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
         <v>180</v>
       </c>
@@ -9916,7 +9955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="5" t="s">
         <v>180</v>
       </c>
@@ -9933,14 +9972,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="5"/>
       <c r="B401" s="24"/>
       <c r="C401" s="7"/>
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="24" t="s">
         <v>181</v>
       </c>
@@ -9957,7 +9996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="24" t="s">
         <v>181</v>
       </c>
@@ -9974,7 +10013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="24" t="s">
         <v>181</v>
       </c>
@@ -9991,7 +10030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="24" t="s">
         <v>181</v>
       </c>
@@ -10008,14 +10047,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="5"/>
       <c r="B406" s="24"/>
       <c r="C406" s="7"/>
       <c r="D406" s="8"/>
       <c r="E406" s="8"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
         <v>182</v>
       </c>
@@ -10032,7 +10071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
         <v>182</v>
       </c>
@@ -10049,7 +10088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="5" t="s">
         <v>182</v>
       </c>
@@ -10066,7 +10105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="5" t="s">
         <v>182</v>
       </c>
@@ -10083,14 +10122,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="5"/>
       <c r="B411" s="24"/>
       <c r="C411" s="7"/>
       <c r="D411" s="8"/>
       <c r="E411" s="8"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
         <v>183</v>
       </c>
@@ -10107,7 +10146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
         <v>183</v>
       </c>
@@ -10124,7 +10163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
         <v>183</v>
       </c>
@@ -10141,7 +10180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
         <v>183</v>
       </c>
@@ -10158,14 +10197,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="24"/>
       <c r="B416" s="24"/>
       <c r="C416" s="7"/>
       <c r="D416" s="8"/>
       <c r="E416" s="8"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="5" t="s">
         <v>184</v>
       </c>
@@ -10182,7 +10221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="5" t="s">
         <v>184</v>
       </c>
@@ -10199,7 +10238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
         <v>184</v>
       </c>
@@ -10216,7 +10255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
         <v>184</v>
       </c>
@@ -10233,14 +10272,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="5"/>
       <c r="B421" s="24"/>
       <c r="C421" s="7"/>
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="5" t="s">
         <v>185</v>
       </c>
@@ -10257,7 +10296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
         <v>185</v>
       </c>
@@ -10274,7 +10313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
         <v>185</v>
       </c>
@@ -10291,7 +10330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
         <v>185</v>
       </c>
@@ -10308,14 +10347,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="5"/>
       <c r="B426" s="24"/>
       <c r="C426" s="7"/>
       <c r="D426" s="8"/>
       <c r="E426" s="8"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="24" t="s">
         <v>186</v>
       </c>
@@ -10332,7 +10371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="24" t="s">
         <v>186</v>
       </c>
@@ -10349,7 +10388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="24" t="s">
         <v>186</v>
       </c>
@@ -10366,7 +10405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="24" t="s">
         <v>186</v>
       </c>
@@ -10383,14 +10422,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="5"/>
       <c r="B431" s="24"/>
       <c r="C431" s="7"/>
       <c r="D431" s="8"/>
       <c r="E431" s="8"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="5" t="s">
         <v>187</v>
       </c>
@@ -10407,7 +10446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="5" t="s">
         <v>187</v>
       </c>
@@ -10424,7 +10463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="5" t="s">
         <v>187</v>
       </c>
@@ -10441,7 +10480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="5" t="s">
         <v>187</v>
       </c>
@@ -10458,14 +10497,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="5"/>
       <c r="B436" s="24"/>
       <c r="C436" s="7"/>
       <c r="D436" s="8"/>
       <c r="E436" s="8"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
         <v>188</v>
       </c>
@@ -10482,7 +10521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
         <v>188</v>
       </c>
@@ -10499,7 +10538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
         <v>188</v>
       </c>
@@ -10516,7 +10555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
         <v>188</v>
       </c>
@@ -10533,14 +10572,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="24"/>
       <c r="B441" s="24"/>
       <c r="C441" s="7"/>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="5" t="s">
         <v>189</v>
       </c>
@@ -10557,7 +10596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="5" t="s">
         <v>189</v>
       </c>
@@ -10574,7 +10613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="5" t="s">
         <v>189</v>
       </c>
@@ -10591,7 +10630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="5" t="s">
         <v>189</v>
       </c>
@@ -10608,14 +10647,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="5"/>
       <c r="B446" s="24"/>
       <c r="C446" s="7"/>
       <c r="D446" s="8"/>
       <c r="E446" s="8"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="5" t="s">
         <v>190</v>
       </c>
@@ -10632,7 +10671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="5" t="s">
         <v>190</v>
       </c>
@@ -10649,7 +10688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="5" t="s">
         <v>190</v>
       </c>
@@ -10666,7 +10705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="5" t="s">
         <v>190</v>
       </c>
@@ -10683,14 +10722,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="5"/>
       <c r="B451" s="24"/>
       <c r="C451" s="7"/>
       <c r="D451" s="8"/>
       <c r="E451" s="8"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="5" t="s">
         <v>191</v>
       </c>
@@ -10707,7 +10746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
         <v>191</v>
       </c>
@@ -10724,7 +10763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="5" t="s">
         <v>191</v>
       </c>
@@ -10741,7 +10780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
         <v>191</v>
       </c>
@@ -10758,14 +10797,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="24"/>
       <c r="B456" s="24"/>
       <c r="C456" s="7"/>
       <c r="D456" s="8"/>
       <c r="E456" s="8"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="5" t="s">
         <v>192</v>
       </c>
@@ -10782,7 +10821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
         <v>192</v>
       </c>
@@ -10799,7 +10838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="5" t="s">
         <v>192</v>
       </c>
@@ -10816,7 +10855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="5" t="s">
         <v>192</v>
       </c>
@@ -10833,14 +10872,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="5"/>
       <c r="B461" s="24"/>
       <c r="C461" s="7"/>
       <c r="D461" s="8"/>
       <c r="E461" s="8"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
         <v>193</v>
       </c>
@@ -10857,7 +10896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
         <v>193</v>
       </c>
@@ -10874,7 +10913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
         <v>193</v>
       </c>
@@ -10891,7 +10930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
         <v>193</v>
       </c>
@@ -10908,14 +10947,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="5"/>
       <c r="B466" s="24"/>
       <c r="C466" s="7"/>
       <c r="D466" s="8"/>
       <c r="E466" s="8"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="24" t="s">
         <v>194</v>
       </c>
@@ -10932,7 +10971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="24" t="s">
         <v>194</v>
       </c>
@@ -10949,7 +10988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="24" t="s">
         <v>194</v>
       </c>
@@ -10966,7 +11005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="24" t="s">
         <v>194</v>
       </c>
@@ -10983,14 +11022,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="5"/>
       <c r="B471" s="24"/>
       <c r="C471" s="7"/>
       <c r="D471" s="8"/>
       <c r="E471" s="8"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
         <v>195</v>
       </c>
@@ -11008,7 +11047,7 @@
       </c>
       <c r="F472" s="5"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="5" t="s">
         <v>195</v>
       </c>
@@ -11026,7 +11065,7 @@
       </c>
       <c r="F473" s="5"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="5" t="s">
         <v>195</v>
       </c>
@@ -11043,7 +11082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="5" t="s">
         <v>195</v>
       </c>
@@ -11060,14 +11099,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="5"/>
       <c r="B476" s="24"/>
       <c r="C476" s="7"/>
       <c r="D476" s="8"/>
       <c r="E476" s="8"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="5" t="s">
         <v>196</v>
       </c>
@@ -11084,7 +11123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="5" t="s">
         <v>196</v>
       </c>
@@ -11101,7 +11140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
         <v>196</v>
       </c>
@@ -11118,7 +11157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="5" t="s">
         <v>196</v>
       </c>
@@ -11135,14 +11174,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="24"/>
       <c r="B481" s="24"/>
       <c r="C481" s="7"/>
       <c r="D481" s="8"/>
       <c r="E481" s="8"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="5" t="s">
         <v>197</v>
       </c>
@@ -11159,7 +11198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="5" t="s">
         <v>197</v>
       </c>
@@ -11176,7 +11215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="5" t="s">
         <v>197</v>
       </c>
@@ -11193,7 +11232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="5" t="s">
         <v>197</v>
       </c>
@@ -11210,14 +11249,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="5"/>
       <c r="B486" s="24"/>
       <c r="C486" s="7"/>
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="5" t="s">
         <v>198</v>
       </c>
@@ -11234,7 +11273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="5" t="s">
         <v>198</v>
       </c>
@@ -11251,7 +11290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="5" t="s">
         <v>198</v>
       </c>
@@ -11268,7 +11307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="5" t="s">
         <v>198</v>
       </c>
@@ -11285,14 +11324,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="5"/>
       <c r="B491" s="24"/>
       <c r="C491" s="7"/>
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="24" t="s">
         <v>199</v>
       </c>
@@ -11309,7 +11348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="24" t="s">
         <v>199</v>
       </c>
@@ -11326,7 +11365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="24" t="s">
         <v>199</v>
       </c>
@@ -11343,7 +11382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="24" t="s">
         <v>199</v>
       </c>
@@ -11360,14 +11399,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="5"/>
       <c r="B496" s="24"/>
       <c r="C496" s="7"/>
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" s="24" t="s">
         <v>235</v>
       </c>
@@ -11385,7 +11424,7 @@
       </c>
       <c r="F497" s="5"/>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" s="24" t="s">
         <v>235</v>
       </c>
@@ -11402,14 +11441,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" s="5"/>
       <c r="B499" s="24"/>
       <c r="C499" s="7"/>
       <c r="D499" s="8"/>
       <c r="E499" s="8"/>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" s="5" t="s">
         <v>153</v>
       </c>
@@ -11426,7 +11465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" s="5" t="s">
         <v>153</v>
       </c>
@@ -11443,7 +11482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" s="5"/>
       <c r="B502" s="24"/>
       <c r="C502" s="7"/>
@@ -11451,7 +11490,7 @@
       <c r="E502" s="8"/>
       <c r="I502" s="15"/>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" s="5" t="s">
         <v>154</v>
       </c>
@@ -11468,7 +11507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" s="5" t="s">
         <v>154</v>
       </c>
@@ -11485,14 +11524,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" s="5"/>
       <c r="B505" s="24"/>
       <c r="C505" s="7"/>
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" s="5" t="s">
         <v>155</v>
       </c>
@@ -11509,7 +11548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" s="5" t="s">
         <v>155</v>
       </c>
@@ -11526,14 +11565,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" s="5"/>
       <c r="B508" s="24"/>
       <c r="C508" s="7"/>
       <c r="D508" s="8"/>
       <c r="E508" s="8"/>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" s="5" t="s">
         <v>156</v>
       </c>
@@ -11550,7 +11589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" s="5" t="s">
         <v>156</v>
       </c>
@@ -11567,14 +11606,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" s="5"/>
       <c r="B511" s="24"/>
       <c r="C511" s="7"/>
       <c r="D511" s="8"/>
       <c r="E511" s="8"/>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" s="24" t="s">
         <v>157</v>
       </c>
@@ -11591,7 +11630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="24" t="s">
         <v>157</v>
       </c>
@@ -11608,14 +11647,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="5"/>
       <c r="B514" s="24"/>
       <c r="C514" s="7"/>
       <c r="D514" s="8"/>
       <c r="E514" s="8"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="5" t="s">
         <v>158</v>
       </c>
@@ -11632,7 +11671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="5" t="s">
         <v>158</v>
       </c>
@@ -11649,14 +11688,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="5"/>
       <c r="B517" s="24"/>
       <c r="C517" s="7"/>
       <c r="D517" s="8"/>
       <c r="E517" s="8"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="5" t="s">
         <v>159</v>
       </c>
@@ -11673,7 +11712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="5" t="s">
         <v>159</v>
       </c>
@@ -11690,14 +11729,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="5"/>
       <c r="B520" s="24"/>
       <c r="C520" s="7"/>
       <c r="D520" s="8"/>
       <c r="E520" s="8"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="5" t="s">
         <v>161</v>
       </c>
@@ -11714,7 +11753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="5" t="s">
         <v>161</v>
       </c>
@@ -11731,14 +11770,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="5"/>
       <c r="B523" s="24"/>
       <c r="C523" s="7"/>
       <c r="D523" s="8"/>
       <c r="E523" s="8"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="5" t="s">
         <v>160</v>
       </c>
@@ -11755,7 +11794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="5" t="s">
         <v>160</v>
       </c>
@@ -11772,14 +11811,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="5"/>
       <c r="B526" s="24"/>
       <c r="C526" s="7"/>
       <c r="D526" s="8"/>
       <c r="E526" s="8"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="5" t="s">
         <v>162</v>
       </c>
@@ -11796,7 +11835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="5" t="s">
         <v>162</v>
       </c>
@@ -11813,14 +11852,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="5"/>
       <c r="B529" s="24"/>
       <c r="C529" s="7"/>
       <c r="D529" s="8"/>
       <c r="E529" s="8"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="5" t="s">
         <v>163</v>
       </c>
@@ -11837,7 +11876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="5" t="s">
         <v>163</v>
       </c>
@@ -11854,14 +11893,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="5"/>
       <c r="B532" s="24"/>
       <c r="C532" s="7"/>
       <c r="D532" s="8"/>
       <c r="E532" s="8"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="24" t="s">
         <v>164</v>
       </c>
@@ -11878,7 +11917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="24" t="s">
         <v>164</v>
       </c>
@@ -11895,14 +11934,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="5"/>
       <c r="B535" s="24"/>
       <c r="C535" s="7"/>
       <c r="D535" s="8"/>
       <c r="E535" s="8"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="5" t="s">
         <v>165</v>
       </c>
@@ -11919,7 +11958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="5" t="s">
         <v>165</v>
       </c>
@@ -11936,14 +11975,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="5"/>
       <c r="B538" s="24"/>
       <c r="C538" s="7"/>
       <c r="D538" s="8"/>
       <c r="E538" s="8"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="5" t="s">
         <v>166</v>
       </c>
@@ -11960,7 +11999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="5" t="s">
         <v>166</v>
       </c>
@@ -11977,14 +12016,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="5"/>
       <c r="B541" s="24"/>
       <c r="C541" s="7"/>
       <c r="D541" s="8"/>
       <c r="E541" s="8"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="24" t="s">
         <v>167</v>
       </c>
@@ -12001,7 +12040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="24" t="s">
         <v>167</v>
       </c>
@@ -12018,14 +12057,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="5"/>
       <c r="B544" s="24"/>
       <c r="C544" s="7"/>
       <c r="D544" s="8"/>
       <c r="E544" s="8"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" s="5" t="s">
         <v>168</v>
       </c>
@@ -12042,7 +12081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" s="5" t="s">
         <v>168</v>
       </c>
@@ -12059,14 +12098,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" s="5"/>
       <c r="B547" s="24"/>
       <c r="C547" s="7"/>
       <c r="D547" s="8"/>
       <c r="E547" s="8"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" s="5" t="s">
         <v>169</v>
       </c>
@@ -12083,7 +12122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="5" t="s">
         <v>169</v>
       </c>
@@ -12100,14 +12139,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" s="5"/>
       <c r="B550" s="24"/>
       <c r="C550" s="7"/>
       <c r="D550" s="8"/>
       <c r="E550" s="8"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" s="5" t="s">
         <v>170</v>
       </c>
@@ -12124,7 +12163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" s="5" t="s">
         <v>170</v>
       </c>
@@ -12141,14 +12180,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" s="5"/>
       <c r="B553" s="24"/>
       <c r="C553" s="7"/>
       <c r="D553" s="8"/>
       <c r="E553" s="8"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" s="5" t="s">
         <v>171</v>
       </c>
@@ -12167,7 +12206,7 @@
       <c r="F554" s="5"/>
       <c r="G554" s="37"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" s="5" t="s">
         <v>171</v>
       </c>
@@ -12186,7 +12225,7 @@
       <c r="F555" s="5"/>
       <c r="G555" s="37"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" s="5"/>
       <c r="B556" s="24"/>
       <c r="C556" s="7"/>
@@ -12195,7 +12234,7 @@
       <c r="F556" s="5"/>
       <c r="G556" s="37"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" s="24" t="s">
         <v>172</v>
       </c>
@@ -12212,7 +12251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" s="24" t="s">
         <v>172</v>
       </c>
@@ -12229,14 +12268,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" s="5"/>
       <c r="B559" s="24"/>
       <c r="C559" s="7"/>
       <c r="D559" s="8"/>
       <c r="E559" s="8"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" s="24" t="s">
         <v>173</v>
       </c>
@@ -12253,7 +12292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="24" t="s">
         <v>173</v>
       </c>
@@ -12270,14 +12309,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="5"/>
       <c r="B562" s="24"/>
       <c r="C562" s="7"/>
       <c r="D562" s="8"/>
       <c r="E562" s="8"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="5" t="s">
         <v>174</v>
       </c>
@@ -12294,7 +12333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="5" t="s">
         <v>174</v>
       </c>
@@ -12311,14 +12350,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="5"/>
       <c r="B565" s="24"/>
       <c r="C565" s="7"/>
       <c r="D565" s="8"/>
       <c r="E565" s="8"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="5" t="s">
         <v>175</v>
       </c>
@@ -12335,7 +12374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="5" t="s">
         <v>175</v>
       </c>
@@ -12352,14 +12391,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="5"/>
       <c r="B568" s="24"/>
       <c r="C568" s="7"/>
       <c r="D568" s="8"/>
       <c r="E568" s="8"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="5" t="s">
         <v>176</v>
       </c>
@@ -12376,7 +12415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="5" t="s">
         <v>176</v>
       </c>
@@ -12393,14 +12432,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="5"/>
       <c r="B571" s="24"/>
       <c r="C571" s="7"/>
       <c r="D571" s="8"/>
       <c r="E571" s="8"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="5" t="s">
         <v>177</v>
       </c>
@@ -12417,7 +12456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="5" t="s">
         <v>177</v>
       </c>
@@ -12434,14 +12473,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="5"/>
       <c r="B574" s="24"/>
       <c r="C574" s="7"/>
       <c r="D574" s="8"/>
       <c r="E574" s="8"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="24" t="s">
         <v>178</v>
       </c>
@@ -12458,7 +12497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="24" t="s">
         <v>178</v>
       </c>
@@ -12475,14 +12514,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" s="5"/>
       <c r="B577" s="24"/>
       <c r="C577" s="7"/>
       <c r="D577" s="8"/>
       <c r="E577" s="8"/>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" s="5" t="s">
         <v>179</v>
       </c>
@@ -12499,7 +12538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" s="5" t="s">
         <v>179</v>
       </c>
@@ -12516,7 +12555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" s="5"/>
       <c r="B580" s="24"/>
       <c r="C580" s="7"/>
@@ -12526,7 +12565,7 @@
       </c>
       <c r="E580" s="39"/>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" s="5" t="s">
         <v>47</v>
       </c>
@@ -12544,7 +12583,7 @@
       </c>
       <c r="H581" s="4"/>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" s="5" t="s">
         <v>48</v>
       </c>
@@ -12562,7 +12601,7 @@
       </c>
       <c r="H582" s="4"/>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" s="5" t="s">
         <v>49</v>
       </c>
@@ -12580,7 +12619,7 @@
       </c>
       <c r="H583" s="4"/>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" s="5" t="s">
         <v>50</v>
       </c>
@@ -12598,7 +12637,7 @@
       </c>
       <c r="H584" s="4"/>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" s="24" t="s">
         <v>51</v>
       </c>
@@ -12616,7 +12655,7 @@
       </c>
       <c r="H585" s="4"/>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" s="5" t="s">
         <v>52</v>
       </c>
@@ -12634,7 +12673,7 @@
       </c>
       <c r="H586" s="4"/>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" s="5" t="s">
         <v>53</v>
       </c>
@@ -12652,7 +12691,7 @@
       </c>
       <c r="H587" s="4"/>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" s="5" t="s">
         <v>54</v>
       </c>
@@ -12670,7 +12709,7 @@
       </c>
       <c r="H588" s="4"/>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" s="5" t="s">
         <v>55</v>
       </c>
@@ -12688,7 +12727,7 @@
       </c>
       <c r="H589" s="4"/>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" s="5" t="s">
         <v>398</v>
       </c>
@@ -12706,7 +12745,7 @@
       </c>
       <c r="H590" s="4"/>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" s="24"/>
       <c r="B591" s="24"/>
       <c r="C591" s="7"/>
@@ -12714,7 +12753,7 @@
       <c r="E591" s="8"/>
       <c r="H591" s="4"/>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" s="5" t="s">
         <v>56</v>
       </c>
@@ -12732,7 +12771,7 @@
       </c>
       <c r="H592" s="4"/>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" s="5" t="s">
         <v>57</v>
       </c>
@@ -12750,7 +12789,7 @@
       </c>
       <c r="H593" s="4"/>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" s="5" t="s">
         <v>58</v>
       </c>
@@ -12768,7 +12807,7 @@
       </c>
       <c r="H594" s="4"/>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" s="5" t="s">
         <v>59</v>
       </c>
@@ -12785,7 +12824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" s="5" t="s">
         <v>60</v>
       </c>
@@ -12802,7 +12841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" s="5" t="s">
         <v>61</v>
       </c>
@@ -12819,7 +12858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" s="5" t="s">
         <v>62</v>
       </c>
@@ -12836,7 +12875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" s="5" t="s">
         <v>208</v>
       </c>
@@ -12853,7 +12892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" s="4" t="s">
         <v>209</v>
       </c>
@@ -12870,7 +12909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" s="5" t="s">
         <v>63</v>
       </c>
@@ -12887,14 +12926,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" s="5"/>
       <c r="B602" s="24"/>
       <c r="C602" s="7"/>
       <c r="D602" s="8"/>
       <c r="E602" s="8"/>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" s="5" t="s">
         <v>64</v>
       </c>
@@ -12911,7 +12950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" s="5" t="s">
         <v>65</v>
       </c>
@@ -12928,7 +12967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" s="24" t="s">
         <v>66</v>
       </c>
@@ -12945,7 +12984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" s="24" t="s">
         <v>210</v>
       </c>
@@ -12962,7 +13001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" s="5" t="s">
         <v>67</v>
       </c>
@@ -12980,7 +13019,7 @@
       </c>
       <c r="H608" s="4"/>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" s="5" t="s">
         <v>68</v>
       </c>
@@ -12998,7 +13037,7 @@
       </c>
       <c r="H609" s="4"/>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" s="5" t="s">
         <v>69</v>
       </c>
@@ -13016,7 +13055,7 @@
       </c>
       <c r="H610" s="4"/>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" s="24" t="s">
         <v>70</v>
       </c>
@@ -13034,7 +13073,7 @@
       </c>
       <c r="H611" s="4"/>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" s="5" t="s">
         <v>71</v>
       </c>
@@ -13052,7 +13091,7 @@
       </c>
       <c r="H612" s="4"/>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" s="5" t="s">
         <v>93</v>
       </c>
@@ -13070,7 +13109,7 @@
       </c>
       <c r="H613" s="4"/>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" s="5" t="s">
         <v>94</v>
       </c>
@@ -13088,7 +13127,7 @@
       </c>
       <c r="H614" s="4"/>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" s="5" t="s">
         <v>95</v>
       </c>
@@ -13105,14 +13144,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" s="5"/>
       <c r="B616" s="24"/>
       <c r="C616" s="7"/>
       <c r="D616" s="8"/>
       <c r="E616" s="8"/>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" s="5" t="s">
         <v>72</v>
       </c>
@@ -13129,7 +13168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" s="5"/>
       <c r="B618" s="24"/>
       <c r="C618" s="7"/>
@@ -13137,7 +13176,7 @@
       <c r="E618" s="8"/>
       <c r="F618" s="9"/>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" s="5" t="s">
         <v>90</v>
       </c>
@@ -13155,7 +13194,7 @@
       </c>
       <c r="F619" s="9"/>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" s="24" t="s">
         <v>73</v>
       </c>
@@ -13172,7 +13211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" s="24" t="s">
         <v>91</v>
       </c>
@@ -13189,7 +13228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" s="24" t="s">
         <v>92</v>
       </c>
@@ -13206,7 +13245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" s="5" t="s">
         <v>74</v>
       </c>
@@ -13223,14 +13262,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" s="5"/>
       <c r="B624" s="24"/>
       <c r="C624" s="7"/>
       <c r="D624" s="8"/>
       <c r="E624" s="8"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="5" t="s">
         <v>75</v>
       </c>
@@ -13247,7 +13286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="5" t="s">
         <v>76</v>
       </c>
@@ -13264,7 +13303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="24" t="s">
         <v>77</v>
       </c>
@@ -13281,7 +13320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="5" t="s">
         <v>78</v>
       </c>
@@ -13298,7 +13337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="5" t="s">
         <v>79</v>
       </c>
@@ -13315,7 +13354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="5" t="s">
         <v>80</v>
       </c>
@@ -13332,7 +13371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="5" t="s">
         <v>81</v>
       </c>
@@ -13349,7 +13388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="24" t="s">
         <v>82</v>
       </c>
@@ -13366,7 +13405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="5" t="s">
         <v>83</v>
       </c>
@@ -13383,7 +13422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="5" t="s">
         <v>84</v>
       </c>
@@ -13400,7 +13439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="5" t="s">
         <v>85</v>
       </c>
@@ -13417,7 +13456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="5" t="s">
         <v>86</v>
       </c>
@@ -13434,7 +13473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="5" t="s">
         <v>87</v>
       </c>
@@ -13451,7 +13490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="7"/>
@@ -13460,1359 +13499,1359 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="5"/>
       <c r="B639" s="24"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="5"/>
       <c r="B640" s="24"/>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" s="5"/>
       <c r="B641" s="24"/>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" s="5"/>
       <c r="B642" s="24"/>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" s="24"/>
       <c r="B643" s="24"/>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" s="5"/>
       <c r="B644" s="24"/>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" s="5"/>
       <c r="B645" s="24"/>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" s="5"/>
       <c r="B646" s="24"/>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" s="5"/>
       <c r="B647" s="24"/>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" s="5"/>
       <c r="B648" s="24"/>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" s="5"/>
       <c r="B649" s="24"/>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" s="5"/>
       <c r="B650" s="24"/>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" s="5"/>
       <c r="B651" s="24"/>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" s="24"/>
       <c r="B652" s="24"/>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" s="5"/>
       <c r="B653" s="24"/>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" s="5"/>
       <c r="B654" s="24"/>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" s="5"/>
       <c r="B655" s="24"/>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" s="5"/>
       <c r="B656" s="24"/>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" s="24"/>
       <c r="B657" s="24"/>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" s="5"/>
       <c r="B658" s="24"/>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" s="5"/>
       <c r="B659" s="24"/>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" s="5"/>
       <c r="B660" s="24"/>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" s="5"/>
       <c r="B661" s="24"/>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" s="24"/>
       <c r="B662" s="24"/>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" s="5"/>
       <c r="B663" s="24"/>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" s="5"/>
       <c r="B664" s="24"/>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" s="5"/>
       <c r="B665" s="24"/>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" s="5"/>
       <c r="B666" s="24"/>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" s="24"/>
       <c r="B667" s="24"/>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" s="5"/>
       <c r="B668" s="24"/>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" s="5"/>
       <c r="B669" s="24"/>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" s="5"/>
       <c r="B670" s="24"/>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" s="5"/>
       <c r="B671" s="24"/>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" s="24"/>
       <c r="B672" s="24"/>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" s="5"/>
       <c r="B673" s="24"/>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" s="5"/>
       <c r="B674" s="24"/>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" s="5"/>
       <c r="B675" s="24"/>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" s="5"/>
       <c r="B676" s="24"/>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" s="24"/>
       <c r="B677" s="24"/>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" s="5"/>
       <c r="B678" s="24"/>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" s="5"/>
       <c r="B679" s="24"/>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" s="5"/>
       <c r="B680" s="24"/>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" s="5"/>
       <c r="B681" s="24"/>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" s="24"/>
       <c r="B682" s="24"/>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" s="5"/>
       <c r="B683" s="24"/>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" s="5"/>
       <c r="B684" s="24"/>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" s="5"/>
       <c r="B685" s="24"/>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" s="5"/>
       <c r="B686" s="24"/>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" s="24"/>
       <c r="B687" s="24"/>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" s="5"/>
       <c r="B688" s="24"/>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" s="5"/>
       <c r="B689" s="24"/>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" s="5"/>
       <c r="B690" s="24"/>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" s="5"/>
       <c r="B691" s="24"/>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" s="24"/>
       <c r="B692" s="24"/>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" s="5"/>
       <c r="B693" s="24"/>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" s="5"/>
       <c r="B694" s="24"/>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" s="5"/>
       <c r="B695" s="24"/>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" s="5"/>
       <c r="B696" s="24"/>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" s="5"/>
       <c r="B697" s="24"/>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" s="24"/>
       <c r="B698" s="24"/>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" s="5"/>
       <c r="B699" s="24"/>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" s="5"/>
       <c r="B700" s="24"/>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" s="5"/>
       <c r="B701" s="24"/>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" s="5"/>
       <c r="B702" s="24"/>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" s="24"/>
       <c r="B703" s="24"/>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" s="5"/>
       <c r="B704" s="24"/>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" s="5"/>
       <c r="B705" s="24"/>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" s="5"/>
       <c r="B706" s="24"/>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" s="5"/>
       <c r="B707" s="24"/>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" s="24"/>
       <c r="B708" s="24"/>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" s="5"/>
       <c r="B709" s="24"/>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" s="5"/>
       <c r="B710" s="24"/>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" s="5"/>
       <c r="B711" s="24"/>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" s="5"/>
       <c r="B712" s="24"/>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" s="24"/>
       <c r="B713" s="24"/>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" s="5"/>
       <c r="B714" s="24"/>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" s="5"/>
       <c r="B715" s="24"/>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" s="5"/>
       <c r="B716" s="24"/>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" s="5"/>
       <c r="B717" s="24"/>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" s="24"/>
       <c r="B718" s="24"/>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" s="5"/>
       <c r="B719" s="24"/>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" s="5"/>
       <c r="B720" s="24"/>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" s="5"/>
       <c r="B721" s="24"/>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" s="5"/>
       <c r="B722" s="24"/>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" s="24"/>
       <c r="B723" s="24"/>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" s="5"/>
       <c r="B724" s="24"/>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" s="5"/>
       <c r="B725" s="24"/>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" s="5"/>
       <c r="B726" s="24"/>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" s="5"/>
       <c r="B727" s="24"/>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" s="8"/>
       <c r="B728" s="8"/>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" s="5"/>
       <c r="B729" s="24"/>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" s="5"/>
       <c r="B730" s="24"/>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" s="5"/>
       <c r="B731" s="24"/>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" s="5"/>
       <c r="B732" s="24"/>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" s="5"/>
       <c r="B733" s="24"/>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" s="5"/>
       <c r="B734" s="24"/>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" s="5"/>
       <c r="B735" s="24"/>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" s="5"/>
       <c r="B736" s="24"/>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" s="24"/>
       <c r="B737" s="24"/>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" s="5"/>
       <c r="B738" s="24"/>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" s="5"/>
       <c r="B739" s="24"/>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" s="5"/>
       <c r="B740" s="24"/>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" s="5"/>
       <c r="B741" s="24"/>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" s="5"/>
       <c r="B742" s="24"/>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" s="5"/>
       <c r="B743" s="24"/>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" s="5"/>
       <c r="B744" s="24"/>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" s="5"/>
       <c r="B745" s="24"/>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" s="24"/>
       <c r="B746" s="24"/>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" s="5"/>
       <c r="B747" s="24"/>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" s="5"/>
       <c r="B748" s="24"/>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" s="5"/>
       <c r="B749" s="24"/>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" s="5"/>
       <c r="B750" s="24"/>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" s="5"/>
       <c r="B751" s="24"/>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" s="5"/>
       <c r="B752" s="24"/>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" s="5"/>
       <c r="B753" s="24"/>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" s="5"/>
       <c r="B754" s="24"/>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" s="24"/>
       <c r="B755" s="24"/>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" s="5"/>
       <c r="B756" s="24"/>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" s="5"/>
       <c r="B757" s="24"/>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" s="5"/>
       <c r="B758" s="24"/>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" s="5"/>
       <c r="B759" s="24"/>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" s="5"/>
       <c r="B760" s="24"/>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" s="5"/>
       <c r="B761" s="24"/>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" s="5"/>
       <c r="B762" s="24"/>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" s="5"/>
       <c r="B763" s="24"/>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" s="24"/>
       <c r="B764" s="24"/>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" s="5"/>
       <c r="B765" s="24"/>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" s="5"/>
       <c r="B766" s="24"/>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" s="5"/>
       <c r="B767" s="24"/>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" s="5"/>
       <c r="B768" s="24"/>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" s="5"/>
       <c r="B769" s="24"/>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" s="5"/>
       <c r="B770" s="24"/>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" s="5"/>
       <c r="B771" s="24"/>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" s="5"/>
       <c r="B772" s="24"/>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" s="24"/>
       <c r="B773" s="24"/>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" s="5"/>
       <c r="B774" s="24"/>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775" s="5"/>
       <c r="B775" s="24"/>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" s="5"/>
       <c r="B776" s="24"/>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" s="5"/>
       <c r="B777" s="24"/>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" s="24"/>
       <c r="B778" s="24"/>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" s="5"/>
       <c r="B779" s="24"/>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" s="5"/>
       <c r="B780" s="24"/>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781" s="5"/>
       <c r="B781" s="24"/>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" s="5"/>
       <c r="B782" s="24"/>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783" s="24"/>
       <c r="B783" s="24"/>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784" s="5"/>
       <c r="B784" s="24"/>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785" s="5"/>
       <c r="B785" s="24"/>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" s="5"/>
       <c r="B786" s="24"/>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787" s="5"/>
       <c r="B787" s="24"/>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" s="24"/>
       <c r="B788" s="24"/>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" s="5"/>
       <c r="B789" s="24"/>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" s="5"/>
       <c r="B790" s="24"/>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" s="5"/>
       <c r="B791" s="24"/>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" s="5"/>
       <c r="B792" s="24"/>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" s="24"/>
       <c r="B793" s="24"/>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" s="5"/>
       <c r="B794" s="24"/>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795" s="5"/>
       <c r="B795" s="24"/>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" s="5"/>
       <c r="B796" s="24"/>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" s="5"/>
       <c r="B797" s="24"/>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" s="24"/>
       <c r="B798" s="24"/>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" s="5"/>
       <c r="B799" s="24"/>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" s="5"/>
       <c r="B800" s="24"/>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801" s="5"/>
       <c r="B801" s="24"/>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802" s="5"/>
       <c r="B802" s="24"/>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" s="24"/>
       <c r="B803" s="24"/>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" s="5"/>
       <c r="B804" s="24"/>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805" s="5"/>
       <c r="B805" s="24"/>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" s="5"/>
       <c r="B806" s="24"/>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807" s="5"/>
       <c r="B807" s="24"/>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" s="24"/>
       <c r="B808" s="24"/>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" s="5"/>
       <c r="B809" s="24"/>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" s="5"/>
       <c r="B810" s="24"/>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811" s="5"/>
       <c r="B811" s="24"/>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812" s="5"/>
       <c r="B812" s="24"/>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" s="24"/>
       <c r="B813" s="24"/>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" s="5"/>
       <c r="B814" s="24"/>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815" s="5"/>
       <c r="B815" s="24"/>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" s="5"/>
       <c r="B816" s="24"/>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" s="5"/>
       <c r="B817" s="24"/>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" s="24"/>
       <c r="B818" s="24"/>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" s="5"/>
       <c r="B819" s="24"/>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" s="5"/>
       <c r="B820" s="24"/>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821" s="5"/>
       <c r="B821" s="24"/>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" s="5"/>
       <c r="B822" s="24"/>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823" s="5"/>
       <c r="B823" s="24"/>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824" s="24"/>
       <c r="B824" s="24"/>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825" s="5"/>
       <c r="B825" s="24"/>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" s="5"/>
       <c r="B826" s="24"/>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827" s="5"/>
       <c r="B827" s="24"/>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" s="5"/>
       <c r="B828" s="24"/>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829" s="24"/>
       <c r="B829" s="24"/>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830" s="5"/>
       <c r="B830" s="24"/>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831" s="5"/>
       <c r="B831" s="24"/>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832" s="5"/>
       <c r="B832" s="24"/>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833" s="5"/>
       <c r="B833" s="24"/>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834" s="5"/>
       <c r="B834" s="24"/>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835" s="24"/>
       <c r="B835" s="24"/>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836" s="5"/>
       <c r="B836" s="24"/>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837" s="5"/>
       <c r="B837" s="24"/>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838" s="5"/>
       <c r="B838" s="24"/>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839" s="5"/>
       <c r="B839" s="24"/>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840" s="5"/>
       <c r="B840" s="24"/>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841" s="8"/>
       <c r="B841" s="8"/>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842" s="5"/>
       <c r="B842" s="24"/>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843" s="5"/>
       <c r="B843" s="24"/>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844" s="5"/>
       <c r="B844" s="24"/>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845" s="5"/>
       <c r="B845" s="24"/>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846" s="24"/>
       <c r="B846" s="24"/>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847" s="5"/>
       <c r="B847" s="24"/>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848" s="5"/>
       <c r="B848" s="24"/>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849" s="5"/>
       <c r="B849" s="24"/>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850" s="5"/>
       <c r="B850" s="24"/>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851" s="24"/>
       <c r="B851" s="24"/>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852" s="5"/>
       <c r="B852" s="24"/>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853" s="5"/>
       <c r="B853" s="24"/>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854" s="5"/>
       <c r="B854" s="24"/>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855" s="5"/>
       <c r="B855" s="24"/>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" s="24"/>
       <c r="B856" s="24"/>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857" s="5"/>
       <c r="B857" s="24"/>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" s="5"/>
       <c r="B858" s="24"/>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859" s="5"/>
       <c r="B859" s="24"/>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860" s="5"/>
       <c r="B860" s="24"/>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861" s="24"/>
       <c r="B861" s="24"/>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862" s="5"/>
       <c r="B862" s="24"/>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863" s="5"/>
       <c r="B863" s="24"/>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864" s="5"/>
       <c r="B864" s="24"/>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A865" s="5"/>
       <c r="B865" s="24"/>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866" s="24"/>
       <c r="B866" s="24"/>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867" s="5"/>
       <c r="B867" s="24"/>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868" s="5"/>
       <c r="B868" s="24"/>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869" s="24"/>
       <c r="B869" s="24"/>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870" s="5"/>
       <c r="B870" s="24"/>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A871" s="5"/>
       <c r="B871" s="24"/>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872" s="24"/>
       <c r="B872" s="24"/>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873" s="5"/>
       <c r="B873" s="24"/>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874" s="5"/>
       <c r="B874" s="24"/>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875" s="24"/>
       <c r="B875" s="24"/>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876" s="5"/>
       <c r="B876" s="24"/>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877" s="5"/>
       <c r="B877" s="24"/>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878" s="24"/>
       <c r="B878" s="24"/>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879" s="5"/>
       <c r="B879" s="24"/>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880" s="5"/>
       <c r="B880" s="24"/>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881" s="24"/>
       <c r="B881" s="24"/>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882" s="5"/>
       <c r="B882" s="24"/>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883" s="5"/>
       <c r="B883" s="24"/>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884" s="24"/>
       <c r="B884" s="24"/>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A885" s="5"/>
       <c r="B885" s="24"/>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886" s="5"/>
       <c r="B886" s="24"/>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887" s="24"/>
       <c r="B887" s="24"/>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888" s="5"/>
       <c r="B888" s="24"/>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889" s="5"/>
       <c r="B889" s="24"/>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890" s="24"/>
       <c r="B890" s="24"/>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891" s="5"/>
       <c r="B891" s="24"/>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892" s="5"/>
       <c r="B892" s="24"/>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893" s="24"/>
       <c r="B893" s="24"/>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894" s="5"/>
       <c r="B894" s="24"/>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895" s="5"/>
       <c r="B895" s="24"/>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896" s="24"/>
       <c r="B896" s="24"/>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897" s="5"/>
       <c r="B897" s="24"/>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898" s="5"/>
       <c r="B898" s="24"/>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899" s="24"/>
       <c r="B899" s="24"/>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900" s="5"/>
       <c r="B900" s="24"/>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901" s="5"/>
       <c r="B901" s="24"/>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902" s="24"/>
       <c r="B902" s="24"/>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903" s="5"/>
       <c r="B903" s="24"/>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904" s="5"/>
       <c r="B904" s="24"/>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A905" s="24"/>
       <c r="B905" s="24"/>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906" s="5"/>
       <c r="B906" s="24"/>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A907" s="5"/>
       <c r="B907" s="24"/>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908" s="24"/>
       <c r="B908" s="24"/>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A909" s="5"/>
       <c r="B909" s="24"/>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A910" s="24"/>
       <c r="B910" s="24"/>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911" s="5"/>
       <c r="B911" s="24"/>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912" s="24"/>
       <c r="B912" s="24"/>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A913" s="5"/>
       <c r="B913" s="24"/>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A914" s="24"/>
       <c r="B914" s="24"/>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A915" s="5"/>
       <c r="B915" s="24"/>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A916" s="5"/>
       <c r="B916" s="24"/>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A917" s="24"/>
       <c r="B917" s="24"/>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A918" s="5"/>
       <c r="B918" s="24"/>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919" s="5"/>
       <c r="B919" s="24"/>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A920" s="5"/>
       <c r="B920" s="24"/>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A921" s="5"/>
       <c r="B921" s="24"/>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A922" s="5"/>
       <c r="B922" s="24"/>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A923" s="5"/>
       <c r="B923" s="24"/>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A924" s="5"/>
       <c r="B924" s="24"/>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A925" s="5"/>
       <c r="B925" s="24"/>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A926" s="5"/>
       <c r="B926" s="24"/>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A927" s="24"/>
       <c r="B927" s="24"/>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A928" s="5"/>
       <c r="B928" s="24"/>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A929" s="5"/>
       <c r="B929" s="24"/>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A930" s="5"/>
       <c r="B930" s="24"/>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A931" s="5"/>
       <c r="B931" s="24"/>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A932" s="5"/>
       <c r="B932" s="24"/>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A933" s="5"/>
       <c r="B933" s="24"/>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A934" s="8"/>
       <c r="B934" s="8"/>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A935" s="5"/>
       <c r="B935" s="24"/>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936" s="5"/>
       <c r="B936" s="24"/>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A937" s="5"/>
       <c r="B937" s="24"/>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A938" s="5"/>
       <c r="B938" s="24"/>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A939" s="5"/>
       <c r="B939" s="24"/>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A940" s="5"/>
       <c r="B940" s="24"/>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A941" s="5"/>
       <c r="B941" s="24"/>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A942" s="5"/>
       <c r="B942" s="24"/>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A943" s="5"/>
       <c r="B943" s="24"/>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A944" s="24"/>
       <c r="B944" s="24"/>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A945" s="5"/>
       <c r="B945" s="24"/>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A946" s="5"/>
       <c r="B946" s="24"/>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A947" s="5"/>
       <c r="B947" s="24"/>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A948" s="5"/>
       <c r="B948" s="24"/>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A949" s="5"/>
       <c r="B949" s="24"/>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A950" s="5"/>
       <c r="B950" s="24"/>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A951" s="5"/>
       <c r="B951" s="24"/>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A952" s="5"/>
       <c r="B952" s="24"/>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A953" s="5"/>
       <c r="B953" s="24"/>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A954" s="24"/>
       <c r="B954" s="24"/>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A955" s="5"/>
       <c r="B955" s="24"/>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A956" s="5"/>
       <c r="B956" s="24"/>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A957" s="5"/>
       <c r="B957" s="24"/>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A958" s="5"/>
       <c r="B958" s="24"/>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A959" s="5"/>
       <c r="B959" s="24"/>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A960" s="5"/>
       <c r="B960" s="24"/>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A961" s="5"/>
       <c r="B961" s="24"/>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A962" s="5"/>
       <c r="B962" s="24"/>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A963" s="5"/>
       <c r="B963" s="24"/>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A964" s="5"/>
       <c r="B964" s="24"/>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A965" s="5"/>
       <c r="B965" s="24"/>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A966" s="5"/>
       <c r="B966" s="24"/>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A967" s="5"/>
       <c r="B967" s="24"/>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A968" s="5"/>
       <c r="B968" s="24"/>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A969" s="24"/>
       <c r="B969" s="24"/>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A970" s="5"/>
       <c r="B970" s="24"/>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A971" s="5"/>
       <c r="B971" s="24"/>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A972" s="5"/>
       <c r="B972" s="24"/>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A973" s="5"/>
       <c r="B973" s="24"/>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A974" s="5"/>
       <c r="B974" s="24"/>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A975" s="5"/>
       <c r="B975" s="24"/>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A976" s="24"/>
       <c r="B976" s="24"/>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1028" s="5"/>
     </row>
   </sheetData>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$673</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1575,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1814,16 +1814,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2164,36 +2155,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="164.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="44.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="44.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="164.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="44.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="44.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="4"/>
+    <col min="21" max="21" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -2306,7 +2297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -2338,7 +2329,7 @@
       <c r="K3" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="82" t="s">
         <v>294</v>
       </c>
       <c r="M3" s="60" t="s">
@@ -2363,7 +2354,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -2395,10 +2386,10 @@
       <c r="K4" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="L4" s="82" t="s">
+      <c r="L4" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="83" t="s">
         <v>299</v>
       </c>
       <c r="N4" s="42" t="s">
@@ -2420,7 +2411,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2455,7 +2446,7 @@
       <c r="L5" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="M5" s="86" t="s">
+      <c r="M5" s="83" t="s">
         <v>300</v>
       </c>
       <c r="N5" s="42" t="s">
@@ -2464,7 +2455,7 @@
       <c r="O5" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="P5" s="85" t="s">
+      <c r="P5" s="69" t="s">
         <v>335</v>
       </c>
       <c r="Q5" s="10" t="s">
@@ -2477,7 +2468,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -2509,13 +2500,13 @@
       <c r="K6" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="77" t="s">
         <v>297</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="N6" s="87" t="s">
+      <c r="N6" s="84" t="s">
         <v>312</v>
       </c>
       <c r="O6" s="15" t="s">
@@ -2534,7 +2525,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -2572,7 +2563,7 @@
       <c r="M7" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="84" t="s">
         <v>313</v>
       </c>
       <c r="O7" s="57" t="s">
@@ -2591,7 +2582,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -2623,7 +2614,7 @@
       <c r="K8" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="L8" s="88" t="s">
+      <c r="L8" s="85" t="s">
         <v>391</v>
       </c>
       <c r="M8" s="13" t="s">
@@ -2644,11 +2635,11 @@
       <c r="R8" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="S8" s="91" t="s">
+      <c r="S8" s="88" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2668,7 +2659,7 @@
       <c r="K9" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="L9" s="88" t="s">
+      <c r="L9" s="85" t="s">
         <v>393</v>
       </c>
       <c r="M9" s="13" t="s">
@@ -2693,7 +2684,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -2723,7 +2714,7 @@
       <c r="K10" s="81" t="s">
         <v>392</v>
       </c>
-      <c r="L10" s="90" t="s">
+      <c r="L10" s="87" t="s">
         <v>394</v>
       </c>
       <c r="M10" s="13" t="s">
@@ -2748,7 +2739,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -2777,7 +2768,7 @@
       <c r="L11" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="M11" s="89" t="s">
+      <c r="M11" s="86" t="s">
         <v>305</v>
       </c>
       <c r="N11" s="42" t="s">
@@ -2789,7 +2780,7 @@
       <c r="P11" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="Q11" s="92" t="s">
+      <c r="Q11" s="89" t="s">
         <v>360</v>
       </c>
       <c r="R11" s="40" t="s">
@@ -2799,7 +2790,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -2827,7 +2818,7 @@
       <c r="L12" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="M12" s="88" t="s">
+      <c r="M12" s="85" t="s">
         <v>306</v>
       </c>
       <c r="N12" s="46" t="s">
@@ -2849,7 +2840,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -2874,13 +2865,13 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="86" t="s">
+      <c r="L13" s="83" t="s">
         <v>289</v>
       </c>
       <c r="M13" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="N13" s="87" t="s">
+      <c r="N13" s="84" t="s">
         <v>322</v>
       </c>
       <c r="O13" s="13" t="s">
@@ -2899,7 +2890,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -2947,7 +2938,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -2980,14 +2971,14 @@
         <v>321</v>
       </c>
       <c r="P15" s="30"/>
-      <c r="R15" s="91" t="s">
+      <c r="R15" s="88" t="s">
         <v>376</v>
       </c>
       <c r="S15" s="40" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -3018,12 +3009,12 @@
       </c>
       <c r="N16" s="42"/>
       <c r="P16" s="30"/>
-      <c r="R16" s="91" t="s">
+      <c r="R16" s="88" t="s">
         <v>377</v>
       </c>
       <c r="S16" s="30"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3043,12 +3034,12 @@
       <c r="N17" s="42"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="91" t="s">
+      <c r="R17" s="88" t="s">
         <v>378</v>
       </c>
       <c r="S17" s="30"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -3081,7 +3072,7 @@
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -3118,7 +3109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -3160,7 +3151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -3200,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -3234,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -3268,7 +3259,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -3287,7 +3278,7 @@
       <c r="G24" s="9"/>
       <c r="T24" s="53"/>
     </row>
-    <row r="25" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3323,7 +3314,7 @@
       </c>
       <c r="T25" s="53"/>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -3370,7 +3361,7 @@
       </c>
       <c r="T26" s="53"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
@@ -3397,7 +3388,7 @@
       <c r="M27" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="N27" s="71" t="s">
+      <c r="N27" s="73" t="s">
         <v>247</v>
       </c>
       <c r="O27" s="44" t="s">
@@ -3417,7 +3408,7 @@
       </c>
       <c r="T27" s="53"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -3464,7 +3455,7 @@
       </c>
       <c r="T28" s="53"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
@@ -3510,7 +3501,7 @@
       </c>
       <c r="T29" s="53"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -3556,7 +3547,7 @@
       </c>
       <c r="T30" s="53"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -3600,7 +3591,7 @@
       </c>
       <c r="T31" s="53"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
@@ -3644,7 +3635,7 @@
       </c>
       <c r="T32" s="53"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3674,7 +3665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>96</v>
       </c>
@@ -3706,7 +3697,7 @@
       <c r="S34" s="43"/>
       <c r="T34" s="53"/>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>96</v>
       </c>
@@ -3732,7 +3723,9 @@
         <v>60</v>
       </c>
       <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="N35" s="30">
+        <v>30</v>
+      </c>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
@@ -3740,10 +3733,10 @@
       <c r="S35" s="30"/>
       <c r="T35" s="54">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>96</v>
       </c>
@@ -3783,7 +3776,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>96</v>
       </c>
@@ -3805,10 +3798,10 @@
       <c r="R37" s="31"/>
       <c r="T37" s="66">
         <f>T35+T36</f>
-        <v>490</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>96</v>
       </c>
@@ -3829,7 +3822,7 @@
       <c r="Q38" s="8"/>
       <c r="T38" s="4"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>96</v>
       </c>
@@ -3852,7 +3845,7 @@
       <c r="S39" s="8"/>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>96</v>
       </c>
@@ -3875,7 +3868,7 @@
       <c r="S40" s="8"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -3887,7 +3880,7 @@
       <c r="S41" s="8"/>
       <c r="T41" s="4"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
@@ -3910,7 +3903,7 @@
       <c r="S42" s="8"/>
       <c r="T42" s="4"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>46</v>
       </c>
@@ -3933,7 +3926,7 @@
       <c r="S43" s="17"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
@@ -3956,7 +3949,7 @@
       <c r="S44" s="17"/>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>46</v>
       </c>
@@ -3979,7 +3972,7 @@
       <c r="S45" s="17"/>
       <c r="T45" s="4"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
@@ -4002,7 +3995,7 @@
       <c r="S46" s="17"/>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
@@ -4025,7 +4018,7 @@
       <c r="S47" s="17"/>
       <c r="T47" s="4"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
@@ -4048,7 +4041,7 @@
       <c r="S48" s="17"/>
       <c r="T48" s="4"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4061,7 +4054,7 @@
       <c r="S49" s="17"/>
       <c r="T49" s="4"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>97</v>
       </c>
@@ -4083,7 +4076,7 @@
       <c r="S50" s="17"/>
       <c r="T50" s="4"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>97</v>
       </c>
@@ -4105,7 +4098,7 @@
       <c r="S51" s="17"/>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>97</v>
       </c>
@@ -4127,7 +4120,7 @@
       <c r="S52" s="17"/>
       <c r="T52" s="4"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>97</v>
       </c>
@@ -4149,7 +4142,7 @@
       <c r="S53" s="17"/>
       <c r="T53" s="4"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>97</v>
       </c>
@@ -4171,7 +4164,7 @@
       <c r="S54" s="17"/>
       <c r="T54" s="4"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>97</v>
       </c>
@@ -4193,7 +4186,7 @@
       <c r="S55" s="17"/>
       <c r="T55" s="4"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>97</v>
       </c>
@@ -4215,7 +4208,7 @@
       <c r="S56" s="17"/>
       <c r="T56" s="4"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
@@ -4226,7 +4219,7 @@
       <c r="S57" s="17"/>
       <c r="T57" s="4"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>98</v>
       </c>
@@ -4248,7 +4241,7 @@
       <c r="S58" s="17"/>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>98</v>
       </c>
@@ -4270,7 +4263,7 @@
       <c r="S59" s="17"/>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>98</v>
       </c>
@@ -4291,7 +4284,7 @@
       <c r="S60" s="17"/>
       <c r="T60" s="4"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>98</v>
       </c>
@@ -4312,7 +4305,7 @@
       <c r="S61" s="17"/>
       <c r="T61" s="4"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>201</v>
       </c>
@@ -4333,7 +4326,7 @@
       <c r="S62" s="17"/>
       <c r="T62" s="4"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>98</v>
       </c>
@@ -4354,7 +4347,7 @@
       <c r="S63" s="17"/>
       <c r="T63" s="4"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>98</v>
       </c>
@@ -4375,7 +4368,7 @@
       <c r="S64" s="17"/>
       <c r="T64" s="4"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>98</v>
       </c>
@@ -4396,7 +4389,7 @@
       <c r="S65" s="17"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -4407,7 +4400,7 @@
       <c r="S66" s="17"/>
       <c r="T66" s="4"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>99</v>
       </c>
@@ -4428,7 +4421,7 @@
       <c r="S67" s="17"/>
       <c r="T67" s="4"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>99</v>
       </c>
@@ -4449,7 +4442,7 @@
       <c r="S68" s="17"/>
       <c r="T68" s="4"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>99</v>
       </c>
@@ -4470,7 +4463,7 @@
       <c r="S69" s="17"/>
       <c r="T69" s="4"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>99</v>
       </c>
@@ -4491,7 +4484,7 @@
       <c r="S70" s="17"/>
       <c r="T70" s="4"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>200</v>
       </c>
@@ -4512,7 +4505,7 @@
       <c r="S71" s="17"/>
       <c r="T71" s="4"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>99</v>
       </c>
@@ -4534,7 +4527,7 @@
       <c r="S72" s="17"/>
       <c r="T72" s="4"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>99</v>
       </c>
@@ -4555,7 +4548,7 @@
       <c r="S73" s="17"/>
       <c r="T73" s="4"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>99</v>
       </c>
@@ -4576,7 +4569,7 @@
       <c r="S74" s="17"/>
       <c r="T74" s="4"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -4587,7 +4580,7 @@
       <c r="S75" s="17"/>
       <c r="T75" s="4"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>100</v>
       </c>
@@ -4608,7 +4601,7 @@
       <c r="S76" s="17"/>
       <c r="T76" s="4"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>100</v>
       </c>
@@ -4629,7 +4622,7 @@
       <c r="S77" s="17"/>
       <c r="T77" s="4"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>100</v>
       </c>
@@ -4650,7 +4643,7 @@
       <c r="S78" s="17"/>
       <c r="T78" s="4"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>100</v>
       </c>
@@ -4671,7 +4664,7 @@
       <c r="S79" s="17"/>
       <c r="T79" s="4"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>202</v>
       </c>
@@ -4692,7 +4685,7 @@
       <c r="S80" s="17"/>
       <c r="T80" s="4"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>100</v>
       </c>
@@ -4713,7 +4706,7 @@
       <c r="S81" s="17"/>
       <c r="T81" s="4"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>100</v>
       </c>
@@ -4734,7 +4727,7 @@
       <c r="S82" s="17"/>
       <c r="T82" s="4"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>100</v>
       </c>
@@ -4755,7 +4748,7 @@
       <c r="S83" s="8"/>
       <c r="T83" s="4"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -4766,7 +4759,7 @@
       <c r="S84" s="8"/>
       <c r="T84" s="4"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>101</v>
       </c>
@@ -4787,7 +4780,7 @@
       <c r="S85" s="8"/>
       <c r="T85" s="4"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>101</v>
       </c>
@@ -4808,7 +4801,7 @@
       <c r="S86" s="8"/>
       <c r="T86" s="4"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>101</v>
       </c>
@@ -4829,7 +4822,7 @@
       <c r="S87" s="8"/>
       <c r="T87" s="4"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>101</v>
       </c>
@@ -4850,7 +4843,7 @@
       <c r="S88" s="8"/>
       <c r="T88" s="4"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>203</v>
       </c>
@@ -4871,7 +4864,7 @@
       <c r="S89" s="8"/>
       <c r="T89" s="4"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>101</v>
       </c>
@@ -4892,7 +4885,7 @@
       <c r="S90" s="8"/>
       <c r="T90" s="4"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>101</v>
       </c>
@@ -4913,7 +4906,7 @@
       <c r="S91" s="8"/>
       <c r="T91" s="4"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>101</v>
       </c>
@@ -4934,7 +4927,7 @@
       <c r="S92" s="8"/>
       <c r="T92" s="4"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -4945,7 +4938,7 @@
       <c r="S93" s="8"/>
       <c r="T93" s="4"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>103</v>
       </c>
@@ -4966,7 +4959,7 @@
       <c r="S94" s="8"/>
       <c r="T94" s="4"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>103</v>
       </c>
@@ -4987,7 +4980,7 @@
       <c r="S95" s="8"/>
       <c r="T95" s="4"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>103</v>
       </c>
@@ -5008,7 +5001,7 @@
       <c r="S96" s="8"/>
       <c r="T96" s="4"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>103</v>
       </c>
@@ -5029,7 +5022,7 @@
       <c r="S97" s="8"/>
       <c r="T97" s="4"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>103</v>
       </c>
@@ -5050,7 +5043,7 @@
       <c r="S98" s="8"/>
       <c r="T98" s="4"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>103</v>
       </c>
@@ -5071,7 +5064,7 @@
       <c r="S99" s="8"/>
       <c r="T99" s="4"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>103</v>
       </c>
@@ -5092,7 +5085,7 @@
       <c r="S100" s="8"/>
       <c r="T100" s="4"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -5103,7 +5096,7 @@
       <c r="S101" s="8"/>
       <c r="T101" s="4"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
         <v>102</v>
       </c>
@@ -5124,7 +5117,7 @@
       <c r="S102" s="8"/>
       <c r="T102" s="4"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>102</v>
       </c>
@@ -5145,7 +5138,7 @@
       <c r="S103" s="8"/>
       <c r="T103" s="4"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>102</v>
       </c>
@@ -5166,7 +5159,7 @@
       <c r="S104" s="8"/>
       <c r="T104" s="4"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
         <v>102</v>
       </c>
@@ -5187,7 +5180,7 @@
       <c r="S105" s="8"/>
       <c r="T105" s="4"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>102</v>
       </c>
@@ -5208,7 +5201,7 @@
       <c r="S106" s="8"/>
       <c r="T106" s="4"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
         <v>102</v>
       </c>
@@ -5227,7 +5220,7 @@
       <c r="S107" s="8"/>
       <c r="T107" s="4"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
         <v>102</v>
       </c>
@@ -5246,7 +5239,7 @@
       <c r="S108" s="8"/>
       <c r="T108" s="4"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="24"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -5255,7 +5248,7 @@
       <c r="S109" s="8"/>
       <c r="T109" s="4"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>104</v>
       </c>
@@ -5274,7 +5267,7 @@
       <c r="S110" s="8"/>
       <c r="T110" s="4"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>104</v>
       </c>
@@ -5293,7 +5286,7 @@
       <c r="S111" s="8"/>
       <c r="T111" s="4"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>104</v>
       </c>
@@ -5312,7 +5305,7 @@
       <c r="S112" s="8"/>
       <c r="T112" s="4"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>104</v>
       </c>
@@ -5331,7 +5324,7 @@
       <c r="S113" s="8"/>
       <c r="T113" s="4"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>104</v>
       </c>
@@ -5350,7 +5343,7 @@
       <c r="S114" s="8"/>
       <c r="T114" s="4"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>104</v>
       </c>
@@ -5369,7 +5362,7 @@
       <c r="S115" s="8"/>
       <c r="T115" s="4"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>104</v>
       </c>
@@ -5388,7 +5381,7 @@
       <c r="S116" s="8"/>
       <c r="T116" s="4"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -5397,7 +5390,7 @@
       <c r="S117" s="8"/>
       <c r="T117" s="4"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>105</v>
       </c>
@@ -5416,7 +5409,7 @@
       <c r="S118" s="8"/>
       <c r="T118" s="4"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>105</v>
       </c>
@@ -5433,7 +5426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>105</v>
       </c>
@@ -5450,7 +5443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>105</v>
       </c>
@@ -5467,7 +5460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>204</v>
       </c>
@@ -5484,7 +5477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>105</v>
       </c>
@@ -5501,7 +5494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>105</v>
       </c>
@@ -5521,7 +5514,7 @@
       <c r="L124" s="31"/>
       <c r="M124" s="31"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>105</v>
       </c>
@@ -5541,7 +5534,7 @@
       <c r="L125" s="31"/>
       <c r="M125" s="31"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -5551,7 +5544,7 @@
       <c r="L126" s="31"/>
       <c r="M126" s="31"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>106</v>
       </c>
@@ -5571,7 +5564,7 @@
       <c r="L127" s="31"/>
       <c r="M127" s="31"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>106</v>
       </c>
@@ -5591,7 +5584,7 @@
       <c r="L128" s="31"/>
       <c r="M128" s="31"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>106</v>
       </c>
@@ -5611,7 +5604,7 @@
       <c r="L129" s="31"/>
       <c r="M129" s="31"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>106</v>
       </c>
@@ -5631,7 +5624,7 @@
       <c r="L130" s="31"/>
       <c r="M130" s="31"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>205</v>
       </c>
@@ -5651,7 +5644,7 @@
       <c r="L131" s="31"/>
       <c r="M131" s="31"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>106</v>
       </c>
@@ -5671,7 +5664,7 @@
       <c r="L132" s="31"/>
       <c r="M132" s="31"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>106</v>
       </c>
@@ -5691,7 +5684,7 @@
       <c r="L133" s="55"/>
       <c r="M133" s="31"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>106</v>
       </c>
@@ -5712,7 +5705,7 @@
       <c r="L134" s="31"/>
       <c r="M134" s="31"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -5723,7 +5716,7 @@
       <c r="L135" s="31"/>
       <c r="M135" s="31"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>141</v>
       </c>
@@ -5744,7 +5737,7 @@
       <c r="L136" s="14"/>
       <c r="M136" s="31"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>141</v>
       </c>
@@ -5764,7 +5757,7 @@
       <c r="L137" s="14"/>
       <c r="M137" s="31"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>141</v>
       </c>
@@ -5784,7 +5777,7 @@
       <c r="L138" s="14"/>
       <c r="M138" s="31"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>141</v>
       </c>
@@ -5804,7 +5797,7 @@
       <c r="L139" s="14"/>
       <c r="M139" s="31"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>206</v>
       </c>
@@ -5824,7 +5817,7 @@
       <c r="L140" s="15"/>
       <c r="M140" s="31"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>141</v>
       </c>
@@ -5844,7 +5837,7 @@
       <c r="L141" s="15"/>
       <c r="M141" s="31"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
@@ -5864,7 +5857,7 @@
       <c r="L142" s="15"/>
       <c r="M142" s="31"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
@@ -5884,7 +5877,7 @@
       <c r="L143" s="31"/>
       <c r="M143" s="31"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="24"/>
       <c r="C144" s="7"/>
@@ -5894,7 +5887,7 @@
       <c r="L144" s="31"/>
       <c r="M144" s="31"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="24" t="s">
         <v>107</v>
       </c>
@@ -5914,7 +5907,7 @@
       <c r="L145" s="15"/>
       <c r="M145" s="31"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="24" t="s">
         <v>107</v>
       </c>
@@ -5934,7 +5927,7 @@
       <c r="L146" s="15"/>
       <c r="M146" s="31"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="24" t="s">
         <v>107</v>
       </c>
@@ -5954,7 +5947,7 @@
       <c r="L147" s="15"/>
       <c r="M147" s="31"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
         <v>107</v>
       </c>
@@ -5974,14 +5967,14 @@
       <c r="L148" s="31"/>
       <c r="M148" s="31"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="24"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>108</v>
       </c>
@@ -5998,7 +5991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>108</v>
       </c>
@@ -6015,7 +6008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>108</v>
       </c>
@@ -6032,7 +6025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>108</v>
       </c>
@@ -6049,14 +6042,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>109</v>
       </c>
@@ -6074,7 +6067,7 @@
       </c>
       <c r="R155" s="31"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>109</v>
       </c>
@@ -6092,7 +6085,7 @@
       </c>
       <c r="R156" s="31"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>109</v>
       </c>
@@ -6110,7 +6103,7 @@
       </c>
       <c r="R157" s="31"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>109</v>
       </c>
@@ -6128,7 +6121,7 @@
       </c>
       <c r="R158" s="31"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -6136,7 +6129,7 @@
       <c r="E159" s="8"/>
       <c r="R159" s="31"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>110</v>
       </c>
@@ -6154,7 +6147,7 @@
       </c>
       <c r="R160" s="31"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>110</v>
       </c>
@@ -6172,7 +6165,7 @@
       </c>
       <c r="R161" s="55"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>110</v>
       </c>
@@ -6190,7 +6183,7 @@
       </c>
       <c r="R162" s="31"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>110</v>
       </c>
@@ -6208,7 +6201,7 @@
       </c>
       <c r="R163" s="31"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -6216,7 +6209,7 @@
       <c r="E164" s="8"/>
       <c r="R164" s="14"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>111</v>
       </c>
@@ -6234,7 +6227,7 @@
       </c>
       <c r="R165" s="14"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>111</v>
       </c>
@@ -6252,7 +6245,7 @@
       </c>
       <c r="R166" s="15"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>111</v>
       </c>
@@ -6270,7 +6263,7 @@
       </c>
       <c r="R167" s="14"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>111</v>
       </c>
@@ -6288,7 +6281,7 @@
       </c>
       <c r="R168" s="14"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -6296,7 +6289,7 @@
       <c r="E169" s="8"/>
       <c r="R169" s="14"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="24" t="s">
         <v>112</v>
       </c>
@@ -6314,7 +6307,7 @@
       </c>
       <c r="R170" s="14"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="24" t="s">
         <v>112</v>
       </c>
@@ -6332,7 +6325,7 @@
       </c>
       <c r="R171" s="31"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="24" t="s">
         <v>112</v>
       </c>
@@ -6350,7 +6343,7 @@
       </c>
       <c r="R172" s="31"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="24" t="s">
         <v>112</v>
       </c>
@@ -6368,7 +6361,7 @@
       </c>
       <c r="R173" s="14"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="24"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -6376,7 +6369,7 @@
       <c r="E174" s="8"/>
       <c r="R174" s="7"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>113</v>
       </c>
@@ -6394,7 +6387,7 @@
       </c>
       <c r="R175" s="7"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>113</v>
       </c>
@@ -6411,7 +6404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>113</v>
       </c>
@@ -6428,7 +6421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>113</v>
       </c>
@@ -6445,14 +6438,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>114</v>
       </c>
@@ -6470,7 +6463,7 @@
       </c>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>114</v>
       </c>
@@ -6487,7 +6480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>114</v>
       </c>
@@ -6504,7 +6497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>114</v>
       </c>
@@ -6521,14 +6514,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>115</v>
       </c>
@@ -6545,7 +6538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>115</v>
       </c>
@@ -6562,7 +6555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>115</v>
       </c>
@@ -6579,7 +6572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>115</v>
       </c>
@@ -6596,14 +6589,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>116</v>
       </c>
@@ -6620,7 +6613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>116</v>
       </c>
@@ -6637,7 +6630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>116</v>
       </c>
@@ -6654,7 +6647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>116</v>
       </c>
@@ -6671,14 +6664,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="24" t="s">
         <v>117</v>
       </c>
@@ -6695,7 +6688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="24" t="s">
         <v>117</v>
       </c>
@@ -6712,7 +6705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="24" t="s">
         <v>117</v>
       </c>
@@ -6729,7 +6722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="24" t="s">
         <v>117</v>
       </c>
@@ -6746,14 +6739,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="24"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>118</v>
       </c>
@@ -6770,7 +6763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>118</v>
       </c>
@@ -6787,7 +6780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>118</v>
       </c>
@@ -6804,7 +6797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>118</v>
       </c>
@@ -6821,14 +6814,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>119</v>
       </c>
@@ -6845,7 +6838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>119</v>
       </c>
@@ -6862,7 +6855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>119</v>
       </c>
@@ -6879,7 +6872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>119</v>
       </c>
@@ -6896,14 +6889,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>120</v>
       </c>
@@ -6920,7 +6913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>120</v>
       </c>
@@ -6937,7 +6930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>120</v>
       </c>
@@ -6954,7 +6947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>120</v>
       </c>
@@ -6971,14 +6964,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>121</v>
       </c>
@@ -6995,7 +6988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>121</v>
       </c>
@@ -7012,7 +7005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>121</v>
       </c>
@@ -7030,7 +7023,7 @@
       </c>
       <c r="I217" s="68"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>121</v>
       </c>
@@ -7048,7 +7041,7 @@
       </c>
       <c r="I218" s="68"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -7056,7 +7049,7 @@
       <c r="E219" s="8"/>
       <c r="I219" s="68"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="24" t="s">
         <v>122</v>
       </c>
@@ -7074,7 +7067,7 @@
       </c>
       <c r="I220" s="68"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="24" t="s">
         <v>122</v>
       </c>
@@ -7092,7 +7085,7 @@
       </c>
       <c r="I221" s="68"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="24" t="s">
         <v>122</v>
       </c>
@@ -7113,7 +7106,7 @@
       <c r="K222" s="31"/>
       <c r="L222" s="31"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="24" t="s">
         <v>122</v>
       </c>
@@ -7134,7 +7127,7 @@
       <c r="K223" s="31"/>
       <c r="L223" s="31"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="24"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -7145,7 +7138,7 @@
       <c r="K224" s="31"/>
       <c r="L224" s="31"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>123</v>
       </c>
@@ -7166,7 +7159,7 @@
       <c r="K225" s="31"/>
       <c r="L225" s="31"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>123</v>
       </c>
@@ -7188,7 +7181,7 @@
       <c r="L226" s="31"/>
       <c r="S226" s="31"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>123</v>
       </c>
@@ -7210,7 +7203,7 @@
       <c r="L227" s="31"/>
       <c r="S227" s="31"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>123</v>
       </c>
@@ -7232,7 +7225,7 @@
       <c r="L228" s="31"/>
       <c r="S228" s="31"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -7244,7 +7237,7 @@
       <c r="L229" s="31"/>
       <c r="S229" s="31"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>124</v>
       </c>
@@ -7266,7 +7259,7 @@
       <c r="L230" s="31"/>
       <c r="S230" s="31"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>124</v>
       </c>
@@ -7288,7 +7281,7 @@
       <c r="L231" s="31"/>
       <c r="S231" s="31"/>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>124</v>
       </c>
@@ -7310,7 +7303,7 @@
       <c r="L232" s="31"/>
       <c r="S232" s="31"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>124</v>
       </c>
@@ -7332,7 +7325,7 @@
       <c r="L233" s="31"/>
       <c r="S233" s="31"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -7344,7 +7337,7 @@
       <c r="L234" s="31"/>
       <c r="S234" s="31"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>125</v>
       </c>
@@ -7366,7 +7359,7 @@
       <c r="L235" s="31"/>
       <c r="S235" s="31"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>125</v>
       </c>
@@ -7388,7 +7381,7 @@
       <c r="L236" s="31"/>
       <c r="S236" s="31"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>125</v>
       </c>
@@ -7410,7 +7403,7 @@
       <c r="L237" s="31"/>
       <c r="S237" s="31"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>125</v>
       </c>
@@ -7432,7 +7425,7 @@
       <c r="L238" s="31"/>
       <c r="S238" s="31"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -7441,7 +7434,7 @@
       <c r="L239" s="31"/>
       <c r="S239" s="31"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>126</v>
       </c>
@@ -7462,7 +7455,7 @@
       <c r="L240" s="31"/>
       <c r="S240" s="31"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>126</v>
       </c>
@@ -7483,7 +7476,7 @@
       <c r="L241" s="31"/>
       <c r="S241" s="31"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>126</v>
       </c>
@@ -7503,7 +7496,7 @@
       <c r="K242" s="31"/>
       <c r="L242" s="31"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>126</v>
       </c>
@@ -7523,13 +7516,13 @@
       <c r="K243" s="31"/>
       <c r="L243" s="31"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
       <c r="J244" s="36"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="24" t="s">
         <v>127</v>
       </c>
@@ -7547,7 +7540,7 @@
       </c>
       <c r="J245" s="7"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="24" t="s">
         <v>127</v>
       </c>
@@ -7565,7 +7558,7 @@
       </c>
       <c r="J246" s="7"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="24" t="s">
         <v>127</v>
       </c>
@@ -7585,7 +7578,7 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="24" t="s">
         <v>127</v>
       </c>
@@ -7605,7 +7598,7 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="24"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -7613,7 +7606,7 @@
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>128</v>
       </c>
@@ -7633,7 +7626,7 @@
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>128</v>
       </c>
@@ -7653,7 +7646,7 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>128</v>
       </c>
@@ -7673,7 +7666,7 @@
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>128</v>
       </c>
@@ -7690,12 +7683,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>129</v>
       </c>
@@ -7712,7 +7705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>129</v>
       </c>
@@ -7729,7 +7722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>129</v>
       </c>
@@ -7746,7 +7739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>129</v>
       </c>
@@ -7766,7 +7759,7 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="5"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -7774,7 +7767,7 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>130</v>
       </c>
@@ -7794,7 +7787,7 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>130</v>
       </c>
@@ -7814,7 +7807,7 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>130</v>
       </c>
@@ -7834,7 +7827,7 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>130</v>
       </c>
@@ -7854,12 +7847,12 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>131</v>
       </c>
@@ -7876,7 +7869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>131</v>
       </c>
@@ -7893,7 +7886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>131</v>
       </c>
@@ -7910,7 +7903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>131</v>
       </c>
@@ -7927,12 +7920,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="24" t="s">
         <v>132</v>
       </c>
@@ -7949,7 +7942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="24" t="s">
         <v>132</v>
       </c>
@@ -7966,7 +7959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="24" t="s">
         <v>132</v>
       </c>
@@ -7983,7 +7976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="24" t="s">
         <v>132</v>
       </c>
@@ -8000,12 +7993,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
       <c r="B274" s="24"/>
       <c r="C274" s="7"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>133</v>
       </c>
@@ -8022,7 +8015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>133</v>
       </c>
@@ -8039,7 +8032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>133</v>
       </c>
@@ -8056,7 +8049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>133</v>
       </c>
@@ -8073,12 +8066,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
       <c r="B279" s="24"/>
       <c r="C279" s="7"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>134</v>
       </c>
@@ -8095,7 +8088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>134</v>
       </c>
@@ -8112,7 +8105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>134</v>
       </c>
@@ -8129,7 +8122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>134</v>
       </c>
@@ -8146,12 +8139,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="24"/>
       <c r="B284" s="24"/>
       <c r="C284" s="7"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>135</v>
       </c>
@@ -8168,7 +8161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>135</v>
       </c>
@@ -8185,7 +8178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>135</v>
       </c>
@@ -8202,7 +8195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>135</v>
       </c>
@@ -8219,12 +8212,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
       <c r="B289" s="24"/>
       <c r="C289" s="7"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="24" t="s">
         <v>136</v>
       </c>
@@ -8241,7 +8234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="24" t="s">
         <v>136</v>
       </c>
@@ -8258,7 +8251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="24" t="s">
         <v>136</v>
       </c>
@@ -8275,7 +8268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="24" t="s">
         <v>136</v>
       </c>
@@ -8292,12 +8285,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="24"/>
       <c r="C294" s="7"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>137</v>
       </c>
@@ -8314,7 +8307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>137</v>
       </c>
@@ -8331,7 +8324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>137</v>
       </c>
@@ -8348,7 +8341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>137</v>
       </c>
@@ -8365,12 +8358,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
       <c r="B299" s="24"/>
       <c r="C299" s="7"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>138</v>
       </c>
@@ -8388,7 +8381,7 @@
       </c>
       <c r="F300" s="5"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>138</v>
       </c>
@@ -8406,7 +8399,7 @@
       </c>
       <c r="F301" s="5"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>138</v>
       </c>
@@ -8423,7 +8416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>138</v>
       </c>
@@ -8440,14 +8433,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="24"/>
       <c r="B304" s="24"/>
       <c r="C304" s="7"/>
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>139</v>
       </c>
@@ -8464,7 +8457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>139</v>
       </c>
@@ -8481,7 +8474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>139</v>
       </c>
@@ -8498,7 +8491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>139</v>
       </c>
@@ -8515,14 +8508,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
       <c r="B309" s="24"/>
       <c r="C309" s="7"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>140</v>
       </c>
@@ -8539,7 +8532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>140</v>
       </c>
@@ -8556,7 +8549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>140</v>
       </c>
@@ -8573,7 +8566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>140</v>
       </c>
@@ -8590,14 +8583,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="5"/>
       <c r="B314" s="24"/>
       <c r="C314" s="7"/>
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="24" t="s">
         <v>142</v>
       </c>
@@ -8614,7 +8607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="24" t="s">
         <v>142</v>
       </c>
@@ -8631,7 +8624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="24" t="s">
         <v>142</v>
       </c>
@@ -8648,7 +8641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="24" t="s">
         <v>142</v>
       </c>
@@ -8665,14 +8658,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="5"/>
       <c r="B319" s="24"/>
       <c r="C319" s="7"/>
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>143</v>
       </c>
@@ -8689,7 +8682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>143</v>
       </c>
@@ -8706,7 +8699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>143</v>
       </c>
@@ -8723,7 +8716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>143</v>
       </c>
@@ -8740,14 +8733,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="5"/>
       <c r="B324" s="24"/>
       <c r="C324" s="7"/>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="24" t="s">
         <v>144</v>
       </c>
@@ -8764,7 +8757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="24" t="s">
         <v>144</v>
       </c>
@@ -8781,7 +8774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="24" t="s">
         <v>144</v>
       </c>
@@ -8798,7 +8791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="24" t="s">
         <v>144</v>
       </c>
@@ -8815,7 +8808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="24" t="s">
         <v>144</v>
       </c>
@@ -8832,7 +8825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="24" t="s">
         <v>144</v>
       </c>
@@ -8849,7 +8842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="24" t="s">
         <v>144</v>
       </c>
@@ -8866,14 +8859,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="5"/>
       <c r="B332" s="24"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>145</v>
       </c>
@@ -8890,7 +8883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>145</v>
       </c>
@@ -8907,7 +8900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>145</v>
       </c>
@@ -8924,7 +8917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>145</v>
       </c>
@@ -8941,7 +8934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>145</v>
       </c>
@@ -8958,7 +8951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>145</v>
       </c>
@@ -8975,7 +8968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>145</v>
       </c>
@@ -8992,14 +8985,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
       <c r="B340" s="24"/>
       <c r="C340" s="7"/>
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>146</v>
       </c>
@@ -9016,7 +9009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>146</v>
       </c>
@@ -9033,7 +9026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>146</v>
       </c>
@@ -9050,7 +9043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>146</v>
       </c>
@@ -9067,7 +9060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>146</v>
       </c>
@@ -9084,7 +9077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>146</v>
       </c>
@@ -9101,7 +9094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>146</v>
       </c>
@@ -9118,14 +9111,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="24"/>
       <c r="B348" s="24"/>
       <c r="C348" s="7"/>
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>147</v>
       </c>
@@ -9142,7 +9135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>147</v>
       </c>
@@ -9159,7 +9152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>147</v>
       </c>
@@ -9176,7 +9169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>147</v>
       </c>
@@ -9193,7 +9186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>147</v>
       </c>
@@ -9210,7 +9203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>147</v>
       </c>
@@ -9227,7 +9220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>147</v>
       </c>
@@ -9244,14 +9237,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="5"/>
       <c r="B356" s="24"/>
       <c r="C356" s="7"/>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>148</v>
       </c>
@@ -9268,7 +9261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>148</v>
       </c>
@@ -9285,7 +9278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>148</v>
       </c>
@@ -9302,7 +9295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>148</v>
       </c>
@@ -9319,7 +9312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>148</v>
       </c>
@@ -9336,7 +9329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>148</v>
       </c>
@@ -9353,7 +9346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>148</v>
       </c>
@@ -9370,7 +9363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="5"/>
       <c r="B364" s="24"/>
       <c r="C364" s="7"/>
@@ -9378,7 +9371,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="37"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="24" t="s">
         <v>149</v>
       </c>
@@ -9396,7 +9389,7 @@
       </c>
       <c r="F365" s="5"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="24" t="s">
         <v>149</v>
       </c>
@@ -9414,7 +9407,7 @@
       </c>
       <c r="F366" s="37"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="24" t="s">
         <v>149</v>
       </c>
@@ -9432,7 +9425,7 @@
       </c>
       <c r="F367" s="37"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="24" t="s">
         <v>149</v>
       </c>
@@ -9450,7 +9443,7 @@
       </c>
       <c r="F368" s="37"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="24" t="s">
         <v>149</v>
       </c>
@@ -9468,7 +9461,7 @@
       </c>
       <c r="F369" s="37"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="24" t="s">
         <v>149</v>
       </c>
@@ -9486,7 +9479,7 @@
       </c>
       <c r="F370" s="37"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="24" t="s">
         <v>149</v>
       </c>
@@ -9504,7 +9497,7 @@
       </c>
       <c r="F371" s="37"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="5"/>
       <c r="B372" s="24"/>
       <c r="C372" s="7"/>
@@ -9512,7 +9505,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="37"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>150</v>
       </c>
@@ -9530,7 +9523,7 @@
       </c>
       <c r="F373" s="37"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>150</v>
       </c>
@@ -9548,7 +9541,7 @@
       </c>
       <c r="F374" s="37"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>150</v>
       </c>
@@ -9566,7 +9559,7 @@
       </c>
       <c r="F375" s="37"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>150</v>
       </c>
@@ -9584,7 +9577,7 @@
       </c>
       <c r="F376" s="37"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>150</v>
       </c>
@@ -9602,7 +9595,7 @@
       </c>
       <c r="F377" s="37"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>150</v>
       </c>
@@ -9620,7 +9613,7 @@
       </c>
       <c r="F378" s="37"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>150</v>
       </c>
@@ -9638,7 +9631,7 @@
       </c>
       <c r="F379" s="37"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="5"/>
       <c r="B380" s="24"/>
       <c r="C380" s="7"/>
@@ -9646,7 +9639,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="37"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>151</v>
       </c>
@@ -9664,7 +9657,7 @@
       </c>
       <c r="F381" s="37"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>151</v>
       </c>
@@ -9682,7 +9675,7 @@
       </c>
       <c r="F382" s="37"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>151</v>
       </c>
@@ -9700,7 +9693,7 @@
       </c>
       <c r="F383" s="37"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>151</v>
       </c>
@@ -9718,7 +9711,7 @@
       </c>
       <c r="F384" s="37"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>151</v>
       </c>
@@ -9736,7 +9729,7 @@
       </c>
       <c r="F385" s="37"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>151</v>
       </c>
@@ -9754,7 +9747,7 @@
       </c>
       <c r="F386" s="37"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>151</v>
       </c>
@@ -9771,14 +9764,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="5"/>
       <c r="B388" s="24"/>
       <c r="C388" s="7"/>
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>152</v>
       </c>
@@ -9795,7 +9788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>152</v>
       </c>
@@ -9812,7 +9805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>152</v>
       </c>
@@ -9829,7 +9822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>152</v>
       </c>
@@ -9846,7 +9839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>152</v>
       </c>
@@ -9863,7 +9856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>152</v>
       </c>
@@ -9880,7 +9873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>152</v>
       </c>
@@ -9897,14 +9890,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="5"/>
       <c r="B396" s="24"/>
       <c r="C396" s="7"/>
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>180</v>
       </c>
@@ -9921,7 +9914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>180</v>
       </c>
@@ -9938,7 +9931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>180</v>
       </c>
@@ -9955,7 +9948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>180</v>
       </c>
@@ -9972,14 +9965,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="5"/>
       <c r="B401" s="24"/>
       <c r="C401" s="7"/>
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="24" t="s">
         <v>181</v>
       </c>
@@ -9996,7 +9989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="24" t="s">
         <v>181</v>
       </c>
@@ -10013,7 +10006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="24" t="s">
         <v>181</v>
       </c>
@@ -10030,7 +10023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="24" t="s">
         <v>181</v>
       </c>
@@ -10047,14 +10040,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="5"/>
       <c r="B406" s="24"/>
       <c r="C406" s="7"/>
       <c r="D406" s="8"/>
       <c r="E406" s="8"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>182</v>
       </c>
@@ -10071,7 +10064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>182</v>
       </c>
@@ -10088,7 +10081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>182</v>
       </c>
@@ -10105,7 +10098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>182</v>
       </c>
@@ -10122,14 +10115,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="5"/>
       <c r="B411" s="24"/>
       <c r="C411" s="7"/>
       <c r="D411" s="8"/>
       <c r="E411" s="8"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>183</v>
       </c>
@@ -10146,7 +10139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>183</v>
       </c>
@@ -10163,7 +10156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>183</v>
       </c>
@@ -10180,7 +10173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>183</v>
       </c>
@@ -10197,14 +10190,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="24"/>
       <c r="B416" s="24"/>
       <c r="C416" s="7"/>
       <c r="D416" s="8"/>
       <c r="E416" s="8"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>184</v>
       </c>
@@ -10221,7 +10214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>184</v>
       </c>
@@ -10238,7 +10231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>184</v>
       </c>
@@ -10255,7 +10248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>184</v>
       </c>
@@ -10272,14 +10265,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="5"/>
       <c r="B421" s="24"/>
       <c r="C421" s="7"/>
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>185</v>
       </c>
@@ -10296,7 +10289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>185</v>
       </c>
@@ -10313,7 +10306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>185</v>
       </c>
@@ -10330,7 +10323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>185</v>
       </c>
@@ -10347,14 +10340,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="5"/>
       <c r="B426" s="24"/>
       <c r="C426" s="7"/>
       <c r="D426" s="8"/>
       <c r="E426" s="8"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="24" t="s">
         <v>186</v>
       </c>
@@ -10371,7 +10364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="24" t="s">
         <v>186</v>
       </c>
@@ -10388,7 +10381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="24" t="s">
         <v>186</v>
       </c>
@@ -10405,7 +10398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="24" t="s">
         <v>186</v>
       </c>
@@ -10422,14 +10415,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="5"/>
       <c r="B431" s="24"/>
       <c r="C431" s="7"/>
       <c r="D431" s="8"/>
       <c r="E431" s="8"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>187</v>
       </c>
@@ -10446,7 +10439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>187</v>
       </c>
@@ -10463,7 +10456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>187</v>
       </c>
@@ -10480,7 +10473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>187</v>
       </c>
@@ -10497,14 +10490,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="5"/>
       <c r="B436" s="24"/>
       <c r="C436" s="7"/>
       <c r="D436" s="8"/>
       <c r="E436" s="8"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>188</v>
       </c>
@@ -10521,7 +10514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>188</v>
       </c>
@@ -10538,7 +10531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>188</v>
       </c>
@@ -10555,7 +10548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>188</v>
       </c>
@@ -10572,14 +10565,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="24"/>
       <c r="B441" s="24"/>
       <c r="C441" s="7"/>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>189</v>
       </c>
@@ -10596,7 +10589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>189</v>
       </c>
@@ -10613,7 +10606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>189</v>
       </c>
@@ -10630,7 +10623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>189</v>
       </c>
@@ -10647,14 +10640,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="5"/>
       <c r="B446" s="24"/>
       <c r="C446" s="7"/>
       <c r="D446" s="8"/>
       <c r="E446" s="8"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>190</v>
       </c>
@@ -10671,7 +10664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>190</v>
       </c>
@@ -10688,7 +10681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>190</v>
       </c>
@@ -10705,7 +10698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>190</v>
       </c>
@@ -10722,14 +10715,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="5"/>
       <c r="B451" s="24"/>
       <c r="C451" s="7"/>
       <c r="D451" s="8"/>
       <c r="E451" s="8"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>191</v>
       </c>
@@ -10746,7 +10739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>191</v>
       </c>
@@ -10763,7 +10756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>191</v>
       </c>
@@ -10780,7 +10773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>191</v>
       </c>
@@ -10797,14 +10790,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="24"/>
       <c r="B456" s="24"/>
       <c r="C456" s="7"/>
       <c r="D456" s="8"/>
       <c r="E456" s="8"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>192</v>
       </c>
@@ -10821,7 +10814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>192</v>
       </c>
@@ -10838,7 +10831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>192</v>
       </c>
@@ -10855,7 +10848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>192</v>
       </c>
@@ -10872,14 +10865,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="5"/>
       <c r="B461" s="24"/>
       <c r="C461" s="7"/>
       <c r="D461" s="8"/>
       <c r="E461" s="8"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>193</v>
       </c>
@@ -10896,7 +10889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
         <v>193</v>
       </c>
@@ -10913,7 +10906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>193</v>
       </c>
@@ -10930,7 +10923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>193</v>
       </c>
@@ -10947,14 +10940,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="5"/>
       <c r="B466" s="24"/>
       <c r="C466" s="7"/>
       <c r="D466" s="8"/>
       <c r="E466" s="8"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="24" t="s">
         <v>194</v>
       </c>
@@ -10971,7 +10964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="24" t="s">
         <v>194</v>
       </c>
@@ -10988,7 +10981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="24" t="s">
         <v>194</v>
       </c>
@@ -11005,7 +10998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="24" t="s">
         <v>194</v>
       </c>
@@ -11022,14 +11015,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="5"/>
       <c r="B471" s="24"/>
       <c r="C471" s="7"/>
       <c r="D471" s="8"/>
       <c r="E471" s="8"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>195</v>
       </c>
@@ -11047,7 +11040,7 @@
       </c>
       <c r="F472" s="5"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>195</v>
       </c>
@@ -11065,7 +11058,7 @@
       </c>
       <c r="F473" s="5"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
         <v>195</v>
       </c>
@@ -11082,7 +11075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>195</v>
       </c>
@@ -11099,14 +11092,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="5"/>
       <c r="B476" s="24"/>
       <c r="C476" s="7"/>
       <c r="D476" s="8"/>
       <c r="E476" s="8"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>196</v>
       </c>
@@ -11123,7 +11116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>196</v>
       </c>
@@ -11140,7 +11133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>196</v>
       </c>
@@ -11157,7 +11150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>196</v>
       </c>
@@ -11174,14 +11167,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="24"/>
       <c r="B481" s="24"/>
       <c r="C481" s="7"/>
       <c r="D481" s="8"/>
       <c r="E481" s="8"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
         <v>197</v>
       </c>
@@ -11198,7 +11191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
         <v>197</v>
       </c>
@@ -11215,7 +11208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
         <v>197</v>
       </c>
@@ -11232,7 +11225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
         <v>197</v>
       </c>
@@ -11249,14 +11242,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="5"/>
       <c r="B486" s="24"/>
       <c r="C486" s="7"/>
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>198</v>
       </c>
@@ -11273,7 +11266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
         <v>198</v>
       </c>
@@ -11290,7 +11283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
         <v>198</v>
       </c>
@@ -11307,7 +11300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>198</v>
       </c>
@@ -11324,14 +11317,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="5"/>
       <c r="B491" s="24"/>
       <c r="C491" s="7"/>
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="24" t="s">
         <v>199</v>
       </c>
@@ -11348,7 +11341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="24" t="s">
         <v>199</v>
       </c>
@@ -11365,7 +11358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="24" t="s">
         <v>199</v>
       </c>
@@ -11382,7 +11375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="24" t="s">
         <v>199</v>
       </c>
@@ -11399,14 +11392,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="5"/>
       <c r="B496" s="24"/>
       <c r="C496" s="7"/>
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="24" t="s">
         <v>235</v>
       </c>
@@ -11424,7 +11417,7 @@
       </c>
       <c r="F497" s="5"/>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="24" t="s">
         <v>235</v>
       </c>
@@ -11441,14 +11434,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="5"/>
       <c r="B499" s="24"/>
       <c r="C499" s="7"/>
       <c r="D499" s="8"/>
       <c r="E499" s="8"/>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
         <v>153</v>
       </c>
@@ -11465,7 +11458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
         <v>153</v>
       </c>
@@ -11482,7 +11475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="5"/>
       <c r="B502" s="24"/>
       <c r="C502" s="7"/>
@@ -11490,7 +11483,7 @@
       <c r="E502" s="8"/>
       <c r="I502" s="15"/>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>154</v>
       </c>
@@ -11507,7 +11500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
         <v>154</v>
       </c>
@@ -11524,14 +11517,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="5"/>
       <c r="B505" s="24"/>
       <c r="C505" s="7"/>
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>155</v>
       </c>
@@ -11548,7 +11541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
         <v>155</v>
       </c>
@@ -11565,14 +11558,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="5"/>
       <c r="B508" s="24"/>
       <c r="C508" s="7"/>
       <c r="D508" s="8"/>
       <c r="E508" s="8"/>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
         <v>156</v>
       </c>
@@ -11589,7 +11582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
         <v>156</v>
       </c>
@@ -11606,14 +11599,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="5"/>
       <c r="B511" s="24"/>
       <c r="C511" s="7"/>
       <c r="D511" s="8"/>
       <c r="E511" s="8"/>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" s="24" t="s">
         <v>157</v>
       </c>
@@ -11630,7 +11623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="24" t="s">
         <v>157</v>
       </c>
@@ -11647,14 +11640,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="5"/>
       <c r="B514" s="24"/>
       <c r="C514" s="7"/>
       <c r="D514" s="8"/>
       <c r="E514" s="8"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
         <v>158</v>
       </c>
@@ -11671,7 +11664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
         <v>158</v>
       </c>
@@ -11688,14 +11681,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="5"/>
       <c r="B517" s="24"/>
       <c r="C517" s="7"/>
       <c r="D517" s="8"/>
       <c r="E517" s="8"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
         <v>159</v>
       </c>
@@ -11712,7 +11705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>159</v>
       </c>
@@ -11729,14 +11722,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="5"/>
       <c r="B520" s="24"/>
       <c r="C520" s="7"/>
       <c r="D520" s="8"/>
       <c r="E520" s="8"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
         <v>161</v>
       </c>
@@ -11753,7 +11746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
         <v>161</v>
       </c>
@@ -11770,14 +11763,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="5"/>
       <c r="B523" s="24"/>
       <c r="C523" s="7"/>
       <c r="D523" s="8"/>
       <c r="E523" s="8"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
         <v>160</v>
       </c>
@@ -11794,7 +11787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
         <v>160</v>
       </c>
@@ -11811,14 +11804,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="5"/>
       <c r="B526" s="24"/>
       <c r="C526" s="7"/>
       <c r="D526" s="8"/>
       <c r="E526" s="8"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
         <v>162</v>
       </c>
@@ -11835,7 +11828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
         <v>162</v>
       </c>
@@ -11852,14 +11845,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="5"/>
       <c r="B529" s="24"/>
       <c r="C529" s="7"/>
       <c r="D529" s="8"/>
       <c r="E529" s="8"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
         <v>163</v>
       </c>
@@ -11876,7 +11869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
         <v>163</v>
       </c>
@@ -11893,14 +11886,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="5"/>
       <c r="B532" s="24"/>
       <c r="C532" s="7"/>
       <c r="D532" s="8"/>
       <c r="E532" s="8"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="24" t="s">
         <v>164</v>
       </c>
@@ -11917,7 +11910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="24" t="s">
         <v>164</v>
       </c>
@@ -11934,14 +11927,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="5"/>
       <c r="B535" s="24"/>
       <c r="C535" s="7"/>
       <c r="D535" s="8"/>
       <c r="E535" s="8"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
         <v>165</v>
       </c>
@@ -11958,7 +11951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>165</v>
       </c>
@@ -11975,14 +11968,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="5"/>
       <c r="B538" s="24"/>
       <c r="C538" s="7"/>
       <c r="D538" s="8"/>
       <c r="E538" s="8"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>166</v>
       </c>
@@ -11999,7 +11992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
         <v>166</v>
       </c>
@@ -12016,14 +12009,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="5"/>
       <c r="B541" s="24"/>
       <c r="C541" s="7"/>
       <c r="D541" s="8"/>
       <c r="E541" s="8"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="24" t="s">
         <v>167</v>
       </c>
@@ -12040,7 +12033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="24" t="s">
         <v>167</v>
       </c>
@@ -12057,14 +12050,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="5"/>
       <c r="B544" s="24"/>
       <c r="C544" s="7"/>
       <c r="D544" s="8"/>
       <c r="E544" s="8"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
         <v>168</v>
       </c>
@@ -12081,7 +12074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
         <v>168</v>
       </c>
@@ -12098,14 +12091,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="5"/>
       <c r="B547" s="24"/>
       <c r="C547" s="7"/>
       <c r="D547" s="8"/>
       <c r="E547" s="8"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
         <v>169</v>
       </c>
@@ -12122,7 +12115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
         <v>169</v>
       </c>
@@ -12139,14 +12132,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="5"/>
       <c r="B550" s="24"/>
       <c r="C550" s="7"/>
       <c r="D550" s="8"/>
       <c r="E550" s="8"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
         <v>170</v>
       </c>
@@ -12163,7 +12156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
         <v>170</v>
       </c>
@@ -12180,14 +12173,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="5"/>
       <c r="B553" s="24"/>
       <c r="C553" s="7"/>
       <c r="D553" s="8"/>
       <c r="E553" s="8"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
         <v>171</v>
       </c>
@@ -12206,7 +12199,7 @@
       <c r="F554" s="5"/>
       <c r="G554" s="37"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
         <v>171</v>
       </c>
@@ -12225,7 +12218,7 @@
       <c r="F555" s="5"/>
       <c r="G555" s="37"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="5"/>
       <c r="B556" s="24"/>
       <c r="C556" s="7"/>
@@ -12234,7 +12227,7 @@
       <c r="F556" s="5"/>
       <c r="G556" s="37"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="24" t="s">
         <v>172</v>
       </c>
@@ -12251,7 +12244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="24" t="s">
         <v>172</v>
       </c>
@@ -12268,14 +12261,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="5"/>
       <c r="B559" s="24"/>
       <c r="C559" s="7"/>
       <c r="D559" s="8"/>
       <c r="E559" s="8"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="24" t="s">
         <v>173</v>
       </c>
@@ -12292,7 +12285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="24" t="s">
         <v>173</v>
       </c>
@@ -12309,14 +12302,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="5"/>
       <c r="B562" s="24"/>
       <c r="C562" s="7"/>
       <c r="D562" s="8"/>
       <c r="E562" s="8"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
         <v>174</v>
       </c>
@@ -12333,7 +12326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
         <v>174</v>
       </c>
@@ -12350,14 +12343,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="5"/>
       <c r="B565" s="24"/>
       <c r="C565" s="7"/>
       <c r="D565" s="8"/>
       <c r="E565" s="8"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
         <v>175</v>
       </c>
@@ -12374,7 +12367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
         <v>175</v>
       </c>
@@ -12391,14 +12384,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="5"/>
       <c r="B568" s="24"/>
       <c r="C568" s="7"/>
       <c r="D568" s="8"/>
       <c r="E568" s="8"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
         <v>176</v>
       </c>
@@ -12415,7 +12408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
         <v>176</v>
       </c>
@@ -12432,14 +12425,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="5"/>
       <c r="B571" s="24"/>
       <c r="C571" s="7"/>
       <c r="D571" s="8"/>
       <c r="E571" s="8"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
         <v>177</v>
       </c>
@@ -12456,7 +12449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
         <v>177</v>
       </c>
@@ -12473,14 +12466,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="5"/>
       <c r="B574" s="24"/>
       <c r="C574" s="7"/>
       <c r="D574" s="8"/>
       <c r="E574" s="8"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="24" t="s">
         <v>178</v>
       </c>
@@ -12497,7 +12490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="24" t="s">
         <v>178</v>
       </c>
@@ -12514,14 +12507,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="5"/>
       <c r="B577" s="24"/>
       <c r="C577" s="7"/>
       <c r="D577" s="8"/>
       <c r="E577" s="8"/>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
         <v>179</v>
       </c>
@@ -12538,7 +12531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
         <v>179</v>
       </c>
@@ -12555,7 +12548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="5"/>
       <c r="B580" s="24"/>
       <c r="C580" s="7"/>
@@ -12565,7 +12558,7 @@
       </c>
       <c r="E580" s="39"/>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
         <v>47</v>
       </c>
@@ -12583,7 +12576,7 @@
       </c>
       <c r="H581" s="4"/>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
         <v>48</v>
       </c>
@@ -12601,7 +12594,7 @@
       </c>
       <c r="H582" s="4"/>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
         <v>49</v>
       </c>
@@ -12619,7 +12612,7 @@
       </c>
       <c r="H583" s="4"/>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
         <v>50</v>
       </c>
@@ -12637,7 +12630,7 @@
       </c>
       <c r="H584" s="4"/>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="24" t="s">
         <v>51</v>
       </c>
@@ -12655,7 +12648,7 @@
       </c>
       <c r="H585" s="4"/>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
         <v>52</v>
       </c>
@@ -12673,7 +12666,7 @@
       </c>
       <c r="H586" s="4"/>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
         <v>53</v>
       </c>
@@ -12691,7 +12684,7 @@
       </c>
       <c r="H587" s="4"/>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
         <v>54</v>
       </c>
@@ -12709,7 +12702,7 @@
       </c>
       <c r="H588" s="4"/>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
         <v>55</v>
       </c>
@@ -12727,7 +12720,7 @@
       </c>
       <c r="H589" s="4"/>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
         <v>398</v>
       </c>
@@ -12745,7 +12738,7 @@
       </c>
       <c r="H590" s="4"/>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="24"/>
       <c r="B591" s="24"/>
       <c r="C591" s="7"/>
@@ -12753,7 +12746,7 @@
       <c r="E591" s="8"/>
       <c r="H591" s="4"/>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
         <v>56</v>
       </c>
@@ -12771,7 +12764,7 @@
       </c>
       <c r="H592" s="4"/>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
         <v>57</v>
       </c>
@@ -12789,7 +12782,7 @@
       </c>
       <c r="H593" s="4"/>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
         <v>58</v>
       </c>
@@ -12807,7 +12800,7 @@
       </c>
       <c r="H594" s="4"/>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
         <v>59</v>
       </c>
@@ -12824,7 +12817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
         <v>60</v>
       </c>
@@ -12841,7 +12834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
         <v>61</v>
       </c>
@@ -12858,7 +12851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
         <v>62</v>
       </c>
@@ -12875,7 +12868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
         <v>208</v>
       </c>
@@ -12892,7 +12885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="4" t="s">
         <v>209</v>
       </c>
@@ -12909,7 +12902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
         <v>63</v>
       </c>
@@ -12926,14 +12919,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="5"/>
       <c r="B602" s="24"/>
       <c r="C602" s="7"/>
       <c r="D602" s="8"/>
       <c r="E602" s="8"/>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
         <v>64</v>
       </c>
@@ -12950,7 +12943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
         <v>65</v>
       </c>
@@ -12967,7 +12960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="24" t="s">
         <v>66</v>
       </c>
@@ -12984,7 +12977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="24" t="s">
         <v>210</v>
       </c>
@@ -13001,7 +12994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
         <v>67</v>
       </c>
@@ -13019,7 +13012,7 @@
       </c>
       <c r="H608" s="4"/>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
         <v>68</v>
       </c>
@@ -13037,7 +13030,7 @@
       </c>
       <c r="H609" s="4"/>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
         <v>69</v>
       </c>
@@ -13055,7 +13048,7 @@
       </c>
       <c r="H610" s="4"/>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="24" t="s">
         <v>70</v>
       </c>
@@ -13073,7 +13066,7 @@
       </c>
       <c r="H611" s="4"/>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
         <v>71</v>
       </c>
@@ -13091,7 +13084,7 @@
       </c>
       <c r="H612" s="4"/>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
         <v>93</v>
       </c>
@@ -13109,7 +13102,7 @@
       </c>
       <c r="H613" s="4"/>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
         <v>94</v>
       </c>
@@ -13127,7 +13120,7 @@
       </c>
       <c r="H614" s="4"/>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
         <v>95</v>
       </c>
@@ -13144,14 +13137,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="5"/>
       <c r="B616" s="24"/>
       <c r="C616" s="7"/>
       <c r="D616" s="8"/>
       <c r="E616" s="8"/>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
         <v>72</v>
       </c>
@@ -13168,7 +13161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="5"/>
       <c r="B618" s="24"/>
       <c r="C618" s="7"/>
@@ -13176,7 +13169,7 @@
       <c r="E618" s="8"/>
       <c r="F618" s="9"/>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
         <v>90</v>
       </c>
@@ -13194,7 +13187,7 @@
       </c>
       <c r="F619" s="9"/>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="24" t="s">
         <v>73</v>
       </c>
@@ -13211,7 +13204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="24" t="s">
         <v>91</v>
       </c>
@@ -13228,7 +13221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="24" t="s">
         <v>92</v>
       </c>
@@ -13245,7 +13238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
         <v>74</v>
       </c>
@@ -13262,14 +13255,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="5"/>
       <c r="B624" s="24"/>
       <c r="C624" s="7"/>
       <c r="D624" s="8"/>
       <c r="E624" s="8"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
         <v>75</v>
       </c>
@@ -13286,7 +13279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
         <v>76</v>
       </c>
@@ -13303,7 +13296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="24" t="s">
         <v>77</v>
       </c>
@@ -13320,7 +13313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
         <v>78</v>
       </c>
@@ -13337,7 +13330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
         <v>79</v>
       </c>
@@ -13354,7 +13347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
         <v>80</v>
       </c>
@@ -13371,7 +13364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
         <v>81</v>
       </c>
@@ -13388,7 +13381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="24" t="s">
         <v>82</v>
       </c>
@@ -13405,7 +13398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
         <v>83</v>
       </c>
@@ -13422,7 +13415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
         <v>84</v>
       </c>
@@ -13439,7 +13432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
         <v>85</v>
       </c>
@@ -13456,7 +13449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
         <v>86</v>
       </c>
@@ -13473,7 +13466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
         <v>87</v>
       </c>
@@ -13490,7 +13483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="7"/>
@@ -13499,1359 +13492,1359 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="5"/>
       <c r="B639" s="24"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="5"/>
       <c r="B640" s="24"/>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="5"/>
       <c r="B641" s="24"/>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="5"/>
       <c r="B642" s="24"/>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="24"/>
       <c r="B643" s="24"/>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="5"/>
       <c r="B644" s="24"/>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="5"/>
       <c r="B645" s="24"/>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="5"/>
       <c r="B646" s="24"/>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="5"/>
       <c r="B647" s="24"/>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="5"/>
       <c r="B648" s="24"/>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="5"/>
       <c r="B649" s="24"/>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="5"/>
       <c r="B650" s="24"/>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="5"/>
       <c r="B651" s="24"/>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="24"/>
       <c r="B652" s="24"/>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="5"/>
       <c r="B653" s="24"/>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="5"/>
       <c r="B654" s="24"/>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="5"/>
       <c r="B655" s="24"/>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="5"/>
       <c r="B656" s="24"/>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="24"/>
       <c r="B657" s="24"/>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="5"/>
       <c r="B658" s="24"/>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="5"/>
       <c r="B659" s="24"/>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="5"/>
       <c r="B660" s="24"/>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="5"/>
       <c r="B661" s="24"/>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="24"/>
       <c r="B662" s="24"/>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="5"/>
       <c r="B663" s="24"/>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="5"/>
       <c r="B664" s="24"/>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="5"/>
       <c r="B665" s="24"/>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="5"/>
       <c r="B666" s="24"/>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="24"/>
       <c r="B667" s="24"/>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="5"/>
       <c r="B668" s="24"/>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="5"/>
       <c r="B669" s="24"/>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="5"/>
       <c r="B670" s="24"/>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="5"/>
       <c r="B671" s="24"/>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="24"/>
       <c r="B672" s="24"/>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="5"/>
       <c r="B673" s="24"/>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="5"/>
       <c r="B674" s="24"/>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="5"/>
       <c r="B675" s="24"/>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="5"/>
       <c r="B676" s="24"/>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="24"/>
       <c r="B677" s="24"/>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="5"/>
       <c r="B678" s="24"/>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="5"/>
       <c r="B679" s="24"/>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="5"/>
       <c r="B680" s="24"/>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="5"/>
       <c r="B681" s="24"/>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="24"/>
       <c r="B682" s="24"/>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="5"/>
       <c r="B683" s="24"/>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="5"/>
       <c r="B684" s="24"/>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="5"/>
       <c r="B685" s="24"/>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="5"/>
       <c r="B686" s="24"/>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="24"/>
       <c r="B687" s="24"/>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="5"/>
       <c r="B688" s="24"/>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="5"/>
       <c r="B689" s="24"/>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="5"/>
       <c r="B690" s="24"/>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="5"/>
       <c r="B691" s="24"/>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="24"/>
       <c r="B692" s="24"/>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="5"/>
       <c r="B693" s="24"/>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="5"/>
       <c r="B694" s="24"/>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="5"/>
       <c r="B695" s="24"/>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="5"/>
       <c r="B696" s="24"/>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="5"/>
       <c r="B697" s="24"/>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="24"/>
       <c r="B698" s="24"/>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="5"/>
       <c r="B699" s="24"/>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="5"/>
       <c r="B700" s="24"/>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="5"/>
       <c r="B701" s="24"/>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="5"/>
       <c r="B702" s="24"/>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="24"/>
       <c r="B703" s="24"/>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="5"/>
       <c r="B704" s="24"/>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="5"/>
       <c r="B705" s="24"/>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="5"/>
       <c r="B706" s="24"/>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="5"/>
       <c r="B707" s="24"/>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="24"/>
       <c r="B708" s="24"/>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="5"/>
       <c r="B709" s="24"/>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="5"/>
       <c r="B710" s="24"/>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="5"/>
       <c r="B711" s="24"/>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="5"/>
       <c r="B712" s="24"/>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="24"/>
       <c r="B713" s="24"/>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="5"/>
       <c r="B714" s="24"/>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="5"/>
       <c r="B715" s="24"/>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="5"/>
       <c r="B716" s="24"/>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="5"/>
       <c r="B717" s="24"/>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="24"/>
       <c r="B718" s="24"/>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="5"/>
       <c r="B719" s="24"/>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="5"/>
       <c r="B720" s="24"/>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="5"/>
       <c r="B721" s="24"/>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="5"/>
       <c r="B722" s="24"/>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="24"/>
       <c r="B723" s="24"/>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="5"/>
       <c r="B724" s="24"/>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="5"/>
       <c r="B725" s="24"/>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="5"/>
       <c r="B726" s="24"/>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="5"/>
       <c r="B727" s="24"/>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="8"/>
       <c r="B728" s="8"/>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="5"/>
       <c r="B729" s="24"/>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="5"/>
       <c r="B730" s="24"/>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="5"/>
       <c r="B731" s="24"/>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="5"/>
       <c r="B732" s="24"/>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="5"/>
       <c r="B733" s="24"/>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="5"/>
       <c r="B734" s="24"/>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="5"/>
       <c r="B735" s="24"/>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="5"/>
       <c r="B736" s="24"/>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="24"/>
       <c r="B737" s="24"/>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="5"/>
       <c r="B738" s="24"/>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="5"/>
       <c r="B739" s="24"/>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="5"/>
       <c r="B740" s="24"/>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="5"/>
       <c r="B741" s="24"/>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="5"/>
       <c r="B742" s="24"/>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="5"/>
       <c r="B743" s="24"/>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="5"/>
       <c r="B744" s="24"/>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="5"/>
       <c r="B745" s="24"/>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="24"/>
       <c r="B746" s="24"/>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="5"/>
       <c r="B747" s="24"/>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="5"/>
       <c r="B748" s="24"/>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="5"/>
       <c r="B749" s="24"/>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="5"/>
       <c r="B750" s="24"/>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="5"/>
       <c r="B751" s="24"/>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="5"/>
       <c r="B752" s="24"/>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="5"/>
       <c r="B753" s="24"/>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="5"/>
       <c r="B754" s="24"/>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="24"/>
       <c r="B755" s="24"/>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="5"/>
       <c r="B756" s="24"/>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="5"/>
       <c r="B757" s="24"/>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="5"/>
       <c r="B758" s="24"/>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="5"/>
       <c r="B759" s="24"/>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="5"/>
       <c r="B760" s="24"/>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="5"/>
       <c r="B761" s="24"/>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="5"/>
       <c r="B762" s="24"/>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="5"/>
       <c r="B763" s="24"/>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" s="24"/>
       <c r="B764" s="24"/>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="5"/>
       <c r="B765" s="24"/>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="5"/>
       <c r="B766" s="24"/>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="5"/>
       <c r="B767" s="24"/>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" s="5"/>
       <c r="B768" s="24"/>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="5"/>
       <c r="B769" s="24"/>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="5"/>
       <c r="B770" s="24"/>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="5"/>
       <c r="B771" s="24"/>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="5"/>
       <c r="B772" s="24"/>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" s="24"/>
       <c r="B773" s="24"/>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" s="5"/>
       <c r="B774" s="24"/>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" s="5"/>
       <c r="B775" s="24"/>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" s="5"/>
       <c r="B776" s="24"/>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" s="5"/>
       <c r="B777" s="24"/>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" s="24"/>
       <c r="B778" s="24"/>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" s="5"/>
       <c r="B779" s="24"/>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" s="5"/>
       <c r="B780" s="24"/>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" s="5"/>
       <c r="B781" s="24"/>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" s="5"/>
       <c r="B782" s="24"/>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" s="24"/>
       <c r="B783" s="24"/>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" s="5"/>
       <c r="B784" s="24"/>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" s="5"/>
       <c r="B785" s="24"/>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" s="5"/>
       <c r="B786" s="24"/>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" s="5"/>
       <c r="B787" s="24"/>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" s="24"/>
       <c r="B788" s="24"/>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" s="5"/>
       <c r="B789" s="24"/>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" s="5"/>
       <c r="B790" s="24"/>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" s="5"/>
       <c r="B791" s="24"/>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" s="5"/>
       <c r="B792" s="24"/>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" s="24"/>
       <c r="B793" s="24"/>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" s="5"/>
       <c r="B794" s="24"/>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" s="5"/>
       <c r="B795" s="24"/>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" s="5"/>
       <c r="B796" s="24"/>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" s="5"/>
       <c r="B797" s="24"/>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" s="24"/>
       <c r="B798" s="24"/>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" s="5"/>
       <c r="B799" s="24"/>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" s="5"/>
       <c r="B800" s="24"/>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" s="5"/>
       <c r="B801" s="24"/>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" s="5"/>
       <c r="B802" s="24"/>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" s="24"/>
       <c r="B803" s="24"/>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" s="5"/>
       <c r="B804" s="24"/>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" s="5"/>
       <c r="B805" s="24"/>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" s="5"/>
       <c r="B806" s="24"/>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" s="5"/>
       <c r="B807" s="24"/>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" s="24"/>
       <c r="B808" s="24"/>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" s="5"/>
       <c r="B809" s="24"/>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" s="5"/>
       <c r="B810" s="24"/>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" s="5"/>
       <c r="B811" s="24"/>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" s="5"/>
       <c r="B812" s="24"/>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" s="24"/>
       <c r="B813" s="24"/>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" s="5"/>
       <c r="B814" s="24"/>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" s="5"/>
       <c r="B815" s="24"/>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" s="5"/>
       <c r="B816" s="24"/>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" s="5"/>
       <c r="B817" s="24"/>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" s="24"/>
       <c r="B818" s="24"/>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" s="5"/>
       <c r="B819" s="24"/>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" s="5"/>
       <c r="B820" s="24"/>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" s="5"/>
       <c r="B821" s="24"/>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" s="5"/>
       <c r="B822" s="24"/>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" s="5"/>
       <c r="B823" s="24"/>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" s="24"/>
       <c r="B824" s="24"/>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" s="5"/>
       <c r="B825" s="24"/>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" s="5"/>
       <c r="B826" s="24"/>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" s="5"/>
       <c r="B827" s="24"/>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" s="5"/>
       <c r="B828" s="24"/>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" s="24"/>
       <c r="B829" s="24"/>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" s="5"/>
       <c r="B830" s="24"/>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" s="5"/>
       <c r="B831" s="24"/>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" s="5"/>
       <c r="B832" s="24"/>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" s="5"/>
       <c r="B833" s="24"/>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" s="5"/>
       <c r="B834" s="24"/>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" s="24"/>
       <c r="B835" s="24"/>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" s="5"/>
       <c r="B836" s="24"/>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" s="5"/>
       <c r="B837" s="24"/>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" s="5"/>
       <c r="B838" s="24"/>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" s="5"/>
       <c r="B839" s="24"/>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" s="5"/>
       <c r="B840" s="24"/>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" s="8"/>
       <c r="B841" s="8"/>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" s="5"/>
       <c r="B842" s="24"/>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" s="5"/>
       <c r="B843" s="24"/>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" s="5"/>
       <c r="B844" s="24"/>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" s="5"/>
       <c r="B845" s="24"/>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" s="24"/>
       <c r="B846" s="24"/>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" s="5"/>
       <c r="B847" s="24"/>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" s="5"/>
       <c r="B848" s="24"/>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" s="5"/>
       <c r="B849" s="24"/>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" s="5"/>
       <c r="B850" s="24"/>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" s="24"/>
       <c r="B851" s="24"/>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" s="5"/>
       <c r="B852" s="24"/>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" s="5"/>
       <c r="B853" s="24"/>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" s="5"/>
       <c r="B854" s="24"/>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" s="5"/>
       <c r="B855" s="24"/>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" s="24"/>
       <c r="B856" s="24"/>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" s="5"/>
       <c r="B857" s="24"/>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" s="5"/>
       <c r="B858" s="24"/>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" s="5"/>
       <c r="B859" s="24"/>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" s="5"/>
       <c r="B860" s="24"/>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A861" s="24"/>
       <c r="B861" s="24"/>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" s="5"/>
       <c r="B862" s="24"/>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" s="5"/>
       <c r="B863" s="24"/>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" s="5"/>
       <c r="B864" s="24"/>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" s="5"/>
       <c r="B865" s="24"/>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" s="24"/>
       <c r="B866" s="24"/>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" s="5"/>
       <c r="B867" s="24"/>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" s="5"/>
       <c r="B868" s="24"/>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" s="24"/>
       <c r="B869" s="24"/>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" s="5"/>
       <c r="B870" s="24"/>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" s="5"/>
       <c r="B871" s="24"/>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A872" s="24"/>
       <c r="B872" s="24"/>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" s="5"/>
       <c r="B873" s="24"/>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" s="5"/>
       <c r="B874" s="24"/>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" s="24"/>
       <c r="B875" s="24"/>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" s="5"/>
       <c r="B876" s="24"/>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" s="5"/>
       <c r="B877" s="24"/>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" s="24"/>
       <c r="B878" s="24"/>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" s="5"/>
       <c r="B879" s="24"/>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" s="5"/>
       <c r="B880" s="24"/>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" s="24"/>
       <c r="B881" s="24"/>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" s="5"/>
       <c r="B882" s="24"/>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" s="5"/>
       <c r="B883" s="24"/>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" s="24"/>
       <c r="B884" s="24"/>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" s="5"/>
       <c r="B885" s="24"/>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" s="5"/>
       <c r="B886" s="24"/>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" s="24"/>
       <c r="B887" s="24"/>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" s="5"/>
       <c r="B888" s="24"/>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" s="5"/>
       <c r="B889" s="24"/>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" s="24"/>
       <c r="B890" s="24"/>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" s="5"/>
       <c r="B891" s="24"/>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" s="5"/>
       <c r="B892" s="24"/>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" s="24"/>
       <c r="B893" s="24"/>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" s="5"/>
       <c r="B894" s="24"/>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" s="5"/>
       <c r="B895" s="24"/>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" s="24"/>
       <c r="B896" s="24"/>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" s="5"/>
       <c r="B897" s="24"/>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" s="5"/>
       <c r="B898" s="24"/>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" s="24"/>
       <c r="B899" s="24"/>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" s="5"/>
       <c r="B900" s="24"/>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" s="5"/>
       <c r="B901" s="24"/>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" s="24"/>
       <c r="B902" s="24"/>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A903" s="5"/>
       <c r="B903" s="24"/>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" s="5"/>
       <c r="B904" s="24"/>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" s="24"/>
       <c r="B905" s="24"/>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" s="5"/>
       <c r="B906" s="24"/>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" s="5"/>
       <c r="B907" s="24"/>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A908" s="24"/>
       <c r="B908" s="24"/>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" s="5"/>
       <c r="B909" s="24"/>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A910" s="24"/>
       <c r="B910" s="24"/>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" s="5"/>
       <c r="B911" s="24"/>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" s="24"/>
       <c r="B912" s="24"/>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A913" s="5"/>
       <c r="B913" s="24"/>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A914" s="24"/>
       <c r="B914" s="24"/>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A915" s="5"/>
       <c r="B915" s="24"/>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A916" s="5"/>
       <c r="B916" s="24"/>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A917" s="24"/>
       <c r="B917" s="24"/>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" s="5"/>
       <c r="B918" s="24"/>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" s="5"/>
       <c r="B919" s="24"/>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" s="5"/>
       <c r="B920" s="24"/>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" s="5"/>
       <c r="B921" s="24"/>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" s="5"/>
       <c r="B922" s="24"/>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" s="5"/>
       <c r="B923" s="24"/>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" s="5"/>
       <c r="B924" s="24"/>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" s="5"/>
       <c r="B925" s="24"/>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" s="5"/>
       <c r="B926" s="24"/>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A927" s="24"/>
       <c r="B927" s="24"/>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" s="5"/>
       <c r="B928" s="24"/>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" s="5"/>
       <c r="B929" s="24"/>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" s="5"/>
       <c r="B930" s="24"/>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" s="5"/>
       <c r="B931" s="24"/>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A932" s="5"/>
       <c r="B932" s="24"/>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A933" s="5"/>
       <c r="B933" s="24"/>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" s="8"/>
       <c r="B934" s="8"/>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" s="5"/>
       <c r="B935" s="24"/>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" s="5"/>
       <c r="B936" s="24"/>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A937" s="5"/>
       <c r="B937" s="24"/>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" s="5"/>
       <c r="B938" s="24"/>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" s="5"/>
       <c r="B939" s="24"/>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" s="5"/>
       <c r="B940" s="24"/>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" s="5"/>
       <c r="B941" s="24"/>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A942" s="5"/>
       <c r="B942" s="24"/>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A943" s="5"/>
       <c r="B943" s="24"/>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A944" s="24"/>
       <c r="B944" s="24"/>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A945" s="5"/>
       <c r="B945" s="24"/>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A946" s="5"/>
       <c r="B946" s="24"/>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A947" s="5"/>
       <c r="B947" s="24"/>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A948" s="5"/>
       <c r="B948" s="24"/>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A949" s="5"/>
       <c r="B949" s="24"/>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A950" s="5"/>
       <c r="B950" s="24"/>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A951" s="5"/>
       <c r="B951" s="24"/>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A952" s="5"/>
       <c r="B952" s="24"/>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A953" s="5"/>
       <c r="B953" s="24"/>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A954" s="24"/>
       <c r="B954" s="24"/>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A955" s="5"/>
       <c r="B955" s="24"/>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956" s="5"/>
       <c r="B956" s="24"/>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A957" s="5"/>
       <c r="B957" s="24"/>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A958" s="5"/>
       <c r="B958" s="24"/>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A959" s="5"/>
       <c r="B959" s="24"/>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A960" s="5"/>
       <c r="B960" s="24"/>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A961" s="5"/>
       <c r="B961" s="24"/>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A962" s="5"/>
       <c r="B962" s="24"/>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A963" s="5"/>
       <c r="B963" s="24"/>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A964" s="5"/>
       <c r="B964" s="24"/>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A965" s="5"/>
       <c r="B965" s="24"/>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A966" s="5"/>
       <c r="B966" s="24"/>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A967" s="5"/>
       <c r="B967" s="24"/>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A968" s="5"/>
       <c r="B968" s="24"/>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A969" s="24"/>
       <c r="B969" s="24"/>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A970" s="5"/>
       <c r="B970" s="24"/>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A971" s="5"/>
       <c r="B971" s="24"/>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A972" s="5"/>
       <c r="B972" s="24"/>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A973" s="5"/>
       <c r="B973" s="24"/>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A974" s="5"/>
       <c r="B974" s="24"/>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A975" s="5"/>
       <c r="B975" s="24"/>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A976" s="24"/>
       <c r="B976" s="24"/>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" s="5"/>
     </row>
   </sheetData>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$673</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -763,15 +763,9 @@
     <t>Items_AmmoPack (30)</t>
   </si>
   <si>
-    <t>Enemy_AbstractEnemy (30)</t>
-  </si>
-  <si>
     <t>Game_HUDManager (70)</t>
   </si>
   <si>
-    <t>Weapons_AbstractGrenades (30)</t>
-  </si>
-  <si>
     <t>Weapons_FragGrenades (50)</t>
   </si>
   <si>
@@ -1235,12 +1229,18 @@
   </si>
   <si>
     <t>Game_ConversationTrigger (10)</t>
+  </si>
+  <si>
+    <t>Enemy_AbstractEnemy (10)</t>
+  </si>
+  <si>
+    <t>Weapons_AbstractGrenades (10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1575,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1838,6 +1838,24 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Controlecel" xfId="4" builtinId="23"/>
@@ -1850,9 +1868,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF99"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FF808080"/>
-      <color rgb="FF00FF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2155,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,31 +2345,31 @@
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L3" s="82" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M3" s="60" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N3" s="63" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R3" s="41" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S3" s="63" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2384,31 +2402,31 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="77" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L4" s="77" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M4" s="83" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S4" s="42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2441,31 +2459,31 @@
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L5" s="57" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M5" s="83" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P5" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="R5" s="42" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S5" s="40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2498,31 +2516,31 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="77" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L6" s="77" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N6" s="84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2555,31 +2573,31 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="77" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L7" s="57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N7" s="84" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O7" s="57" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P7" s="42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="R7" s="40" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2612,31 +2630,31 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="77" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L8" s="85" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N8" s="48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O8" s="57" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R8" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="S8" s="88" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2657,31 +2675,31 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="77" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L9" s="85" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N9" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="O9" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="O9" s="57" t="s">
-        <v>317</v>
-      </c>
       <c r="P9" s="40" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R9" s="40" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2712,31 +2730,31 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="81" t="s">
+        <v>390</v>
+      </c>
+      <c r="L10" s="87" t="s">
         <v>392</v>
       </c>
-      <c r="L10" s="87" t="s">
-        <v>394</v>
-      </c>
       <c r="M10" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="57" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="R10" s="40" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="S10" s="40" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2766,28 +2784,28 @@
       <c r="J11" s="1"/>
       <c r="K11" s="21"/>
       <c r="L11" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M11" s="86" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N11" s="42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="89" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="S11" s="40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2811,33 +2829,33 @@
         <v>41</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="21"/>
       <c r="L12" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M12" s="85" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O12" s="57" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P12" s="42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S12" s="42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2861,33 +2879,33 @@
         <v>41</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="21"/>
       <c r="L13" s="83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N13" s="84" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="R13" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S13" s="42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2911,31 +2929,31 @@
         <v>215</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="57" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O14" s="57" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="R14" s="40" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="S14" s="40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2965,17 +2983,17 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P15" s="30"/>
       <c r="R15" s="88" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3005,12 +3023,12 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N16" s="42"/>
       <c r="P16" s="30"/>
       <c r="R16" s="88" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S16" s="30"/>
     </row>
@@ -3035,7 +3053,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="88" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S17" s="30"/>
     </row>
@@ -3256,7 +3274,7 @@
         <v>6</v>
       </c>
       <c r="U23" s="66" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3380,31 +3398,31 @@
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="76" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L27" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="M27" s="44" t="s">
+      <c r="M27" s="93" t="s">
         <v>243</v>
       </c>
       <c r="N27" s="73" t="s">
         <v>247</v>
       </c>
       <c r="O27" s="44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P27" s="71" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q27" s="44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R27" s="71" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="S27" s="44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="T27" s="53"/>
     </row>
@@ -3427,31 +3445,31 @@
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
       <c r="K28" s="67" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L28" s="75" t="s">
         <v>240</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O28" s="69" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P28" s="72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q28" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S28" s="40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="T28" s="53"/>
     </row>
@@ -3478,26 +3496,26 @@
       <c r="L29" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="M29" s="40" t="s">
+      <c r="M29" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="N29" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="N29" s="72" t="s">
-        <v>253</v>
-      </c>
       <c r="O29" s="69" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S29" s="40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="T29" s="53"/>
     </row>
@@ -3519,31 +3537,31 @@
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="67" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L30" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="M30" s="40" t="s">
-        <v>250</v>
+      <c r="M30" s="95" t="s">
+        <v>405</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O30" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q30" s="40" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S30" s="40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="T30" s="53"/>
     </row>
@@ -3570,24 +3588,24 @@
       <c r="L31" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="M31" s="40" t="s">
-        <v>248</v>
+      <c r="M31" s="95" t="s">
+        <v>404</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O31" s="42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q31" s="42"/>
       <c r="R31" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="S31" s="42" t="s">
         <v>279</v>
-      </c>
-      <c r="S31" s="42" t="s">
-        <v>281</v>
       </c>
       <c r="T31" s="53"/>
     </row>
@@ -3614,24 +3632,24 @@
       <c r="L32" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="M32" s="40" t="s">
-        <v>254</v>
+      <c r="M32" s="94" t="s">
+        <v>252</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O32" s="42" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Q32" s="42"/>
       <c r="R32" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="S32" s="42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="T32" s="53"/>
     </row>
@@ -3643,23 +3661,23 @@
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
       <c r="K33" s="67" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L33" s="75" t="s">
-        <v>401</v>
-      </c>
-      <c r="M33" s="40" t="s">
-        <v>401</v>
+        <v>399</v>
+      </c>
+      <c r="M33" s="95" t="s">
+        <v>399</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O33" s="42"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="42"/>
       <c r="R33" s="14"/>
       <c r="S33" s="42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="T33" s="53" t="s">
         <v>31</v>
@@ -3683,10 +3701,10 @@
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="74" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M34" s="45"/>
       <c r="N34" s="26"/>
@@ -3761,7 +3779,9 @@
       <c r="L36" s="33">
         <v>145</v>
       </c>
-      <c r="M36" s="33"/>
+      <c r="M36" s="33">
+        <v>85</v>
+      </c>
       <c r="N36" s="33"/>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
@@ -3770,10 +3790,10 @@
       <c r="S36" s="33"/>
       <c r="T36" s="59">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="U36" s="66" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3798,7 +3818,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="66">
         <f>T35+T36</f>
-        <v>520</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -12667,19 +12687,19 @@
       <c r="H586" s="4"/>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="5" t="s">
+      <c r="A587" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B587" s="23" t="s">
+      <c r="B587" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C587" s="7" t="s">
+      <c r="C587" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D587" s="8">
+      <c r="D587" s="92">
         <v>20</v>
       </c>
-      <c r="E587" s="8">
+      <c r="E587" s="92">
         <v>7</v>
       </c>
       <c r="H587" s="4"/>
@@ -12722,7 +12742,7 @@
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B590" s="23" t="s">
         <v>11</v>
@@ -13365,19 +13385,19 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="5" t="s">
+      <c r="A631" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="B631" s="23" t="s">
+      <c r="B631" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C631" s="7" t="s">
+      <c r="C631" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D631" s="8">
+      <c r="D631" s="92">
         <v>60</v>
       </c>
-      <c r="E631" s="8">
+      <c r="E631" s="92">
         <v>9</v>
       </c>
     </row>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$673</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -730,9 +730,6 @@
     <t>Development</t>
   </si>
   <si>
-    <t>Weapons_WeaponManager (60)</t>
-  </si>
-  <si>
     <t>Weapons_AbstractWeapons (30)</t>
   </si>
   <si>
@@ -1235,12 +1232,15 @@
   </si>
   <si>
     <t>Weapons_AbstractGrenades (10)</t>
+  </si>
+  <si>
+    <t>Weapons_WeaponManager (70)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1575,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1814,9 +1814,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1851,9 +1848,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2174,7 +2168,7 @@
   <dimension ref="A1:U1028"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,31 +2339,31 @@
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="L3" s="82" t="s">
-        <v>292</v>
+        <v>283</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>291</v>
       </c>
       <c r="M3" s="60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N3" s="63" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R3" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S3" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2402,31 +2396,31 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L4" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="M4" s="83" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="M4" s="82" t="s">
+        <v>296</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S4" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2459,31 +2453,31 @@
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L5" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="M5" s="83" t="s">
-        <v>298</v>
+        <v>293</v>
+      </c>
+      <c r="M5" s="82" t="s">
+        <v>297</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P5" s="69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R5" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S5" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2516,31 +2510,31 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L6" s="77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="N6" s="84" t="s">
-        <v>310</v>
+        <v>298</v>
+      </c>
+      <c r="N6" s="83" t="s">
+        <v>309</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2573,31 +2567,31 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L7" s="57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="N7" s="84" t="s">
-        <v>311</v>
+        <v>299</v>
+      </c>
+      <c r="N7" s="83" t="s">
+        <v>310</v>
       </c>
       <c r="O7" s="57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P7" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R7" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2630,31 +2624,31 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="L8" s="85" t="s">
-        <v>389</v>
+        <v>288</v>
+      </c>
+      <c r="L8" s="84" t="s">
+        <v>388</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N8" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O8" s="57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R8" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="S8" s="88" t="s">
-        <v>381</v>
+        <v>364</v>
+      </c>
+      <c r="S8" s="87" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2675,31 +2669,31 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="L9" s="85" t="s">
-        <v>391</v>
+        <v>289</v>
+      </c>
+      <c r="L9" s="84" t="s">
+        <v>390</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N9" s="46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O9" s="57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R9" s="40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2730,31 +2724,31 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="81" t="s">
-        <v>390</v>
-      </c>
-      <c r="L10" s="87" t="s">
-        <v>392</v>
+        <v>389</v>
+      </c>
+      <c r="L10" s="86" t="s">
+        <v>391</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="57" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R10" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S10" s="40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2784,28 +2778,28 @@
       <c r="J11" s="1"/>
       <c r="K11" s="21"/>
       <c r="L11" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="M11" s="86" t="s">
-        <v>303</v>
+        <v>393</v>
+      </c>
+      <c r="M11" s="85" t="s">
+        <v>302</v>
       </c>
       <c r="N11" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q11" s="89" t="s">
-        <v>358</v>
+        <v>341</v>
+      </c>
+      <c r="Q11" s="88" t="s">
+        <v>357</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S11" s="40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2829,33 +2823,33 @@
         <v>41</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="21"/>
       <c r="L12" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="M12" s="85" t="s">
-        <v>304</v>
+        <v>394</v>
+      </c>
+      <c r="M12" s="84" t="s">
+        <v>303</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O12" s="57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P12" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S12" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2879,33 +2873,33 @@
         <v>41</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="83" t="s">
-        <v>287</v>
+      <c r="L13" s="82" t="s">
+        <v>286</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="N13" s="84" t="s">
-        <v>320</v>
+        <v>304</v>
+      </c>
+      <c r="N13" s="83" t="s">
+        <v>319</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R13" s="40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S13" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2929,31 +2923,31 @@
         <v>215</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O14" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R14" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S14" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2983,17 +2977,17 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P15" s="30"/>
-      <c r="R15" s="88" t="s">
-        <v>374</v>
+      <c r="R15" s="87" t="s">
+        <v>373</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3023,12 +3017,12 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N16" s="42"/>
       <c r="P16" s="30"/>
-      <c r="R16" s="88" t="s">
-        <v>375</v>
+      <c r="R16" s="87" t="s">
+        <v>374</v>
       </c>
       <c r="S16" s="30"/>
     </row>
@@ -3052,8 +3046,8 @@
       <c r="N17" s="42"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="88" t="s">
-        <v>376</v>
+      <c r="R17" s="87" t="s">
+        <v>375</v>
       </c>
       <c r="S17" s="30"/>
     </row>
@@ -3274,7 +3268,7 @@
         <v>6</v>
       </c>
       <c r="U23" s="66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3398,31 +3392,31 @@
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="76" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L27" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="M27" s="93" t="s">
-        <v>243</v>
+        <v>237</v>
+      </c>
+      <c r="M27" s="92" t="s">
+        <v>242</v>
       </c>
       <c r="N27" s="73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O27" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P27" s="71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q27" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="R27" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="R27" s="71" t="s">
-        <v>268</v>
-      </c>
       <c r="S27" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T27" s="53"/>
     </row>
@@ -3445,31 +3439,31 @@
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
       <c r="K28" s="67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L28" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="M28" s="40" t="s">
-        <v>248</v>
+        <v>239</v>
+      </c>
+      <c r="M28" s="69" t="s">
+        <v>247</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O28" s="69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P28" s="72" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q28" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S28" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T28" s="53"/>
     </row>
@@ -3491,31 +3485,31 @@
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="67" t="s">
-        <v>237</v>
+        <v>405</v>
       </c>
       <c r="L29" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="M29" s="95" t="s">
-        <v>249</v>
+        <v>240</v>
+      </c>
+      <c r="M29" s="67" t="s">
+        <v>248</v>
       </c>
       <c r="N29" s="72" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O29" s="69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S29" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T29" s="53"/>
     </row>
@@ -3537,31 +3531,31 @@
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L30" s="75" t="s">
-        <v>242</v>
-      </c>
-      <c r="M30" s="95" t="s">
-        <v>405</v>
+        <v>241</v>
+      </c>
+      <c r="M30" s="67" t="s">
+        <v>404</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O30" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q30" s="40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S30" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T30" s="53"/>
     </row>
@@ -3583,29 +3577,29 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L31" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="M31" s="95" t="s">
-        <v>404</v>
+        <v>243</v>
+      </c>
+      <c r="M31" s="67" t="s">
+        <v>403</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O31" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q31" s="42"/>
       <c r="R31" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S31" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T31" s="53"/>
     </row>
@@ -3627,29 +3621,29 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L32" s="75" t="s">
-        <v>245</v>
-      </c>
-      <c r="M32" s="94" t="s">
-        <v>252</v>
+        <v>244</v>
+      </c>
+      <c r="M32" s="93" t="s">
+        <v>251</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O32" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q32" s="42"/>
       <c r="R32" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S32" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T32" s="53"/>
     </row>
@@ -3661,23 +3655,23 @@
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
       <c r="K33" s="67" t="s">
+        <v>397</v>
+      </c>
+      <c r="L33" s="75" t="s">
         <v>398</v>
       </c>
-      <c r="L33" s="75" t="s">
-        <v>399</v>
-      </c>
-      <c r="M33" s="95" t="s">
-        <v>399</v>
+      <c r="M33" s="67" t="s">
+        <v>398</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O33" s="42"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="42"/>
       <c r="R33" s="14"/>
       <c r="S33" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T33" s="53" t="s">
         <v>31</v>
@@ -3701,10 +3695,10 @@
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="74" t="s">
+        <v>401</v>
+      </c>
+      <c r="L34" s="79" t="s">
         <v>402</v>
-      </c>
-      <c r="L34" s="79" t="s">
-        <v>403</v>
       </c>
       <c r="M34" s="45"/>
       <c r="N34" s="26"/>
@@ -3774,13 +3768,13 @@
         <v>21</v>
       </c>
       <c r="K36" s="33">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L36" s="33">
         <v>145</v>
       </c>
       <c r="M36" s="33">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="N36" s="33"/>
       <c r="O36" s="33"/>
@@ -3790,10 +3784,10 @@
       <c r="S36" s="33"/>
       <c r="T36" s="59">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="U36" s="66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3818,7 +3812,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="66">
         <f>T35+T36</f>
-        <v>605</v>
+        <v>635</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -12687,19 +12681,19 @@
       <c r="H586" s="4"/>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="90" t="s">
+      <c r="A587" s="89" t="s">
         <v>53</v>
       </c>
       <c r="B587" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C587" s="91" t="s">
+      <c r="C587" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D587" s="92">
+      <c r="D587" s="91">
         <v>20</v>
       </c>
-      <c r="E587" s="92">
+      <c r="E587" s="91">
         <v>7</v>
       </c>
       <c r="H587" s="4"/>
@@ -12742,7 +12736,7 @@
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B590" s="23" t="s">
         <v>11</v>
@@ -13385,19 +13379,19 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="90" t="s">
+      <c r="A631" s="89" t="s">
         <v>81</v>
       </c>
       <c r="B631" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C631" s="91" t="s">
+      <c r="C631" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D631" s="92">
+      <c r="D631" s="91">
         <v>60</v>
       </c>
-      <c r="E631" s="92">
+      <c r="E631" s="91">
         <v>9</v>
       </c>
     </row>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2167,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
@@ -3444,7 +3444,7 @@
       <c r="L28" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="M28" s="69" t="s">
+      <c r="M28" s="67" t="s">
         <v>247</v>
       </c>
       <c r="N28" s="14" t="s">
@@ -3734,7 +3734,9 @@
       <c r="L35" s="30">
         <v>60</v>
       </c>
-      <c r="M35" s="30"/>
+      <c r="M35" s="30">
+        <v>70</v>
+      </c>
       <c r="N35" s="30">
         <v>30</v>
       </c>
@@ -3745,7 +3747,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="54">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3812,7 +3814,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="66">
         <f>T35+T36</f>
-        <v>635</v>
+        <v>705</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1216,9 +1216,6 @@
     <t>Game_GameManager (15)</t>
   </si>
   <si>
-    <t>Player_Movement (80)</t>
-  </si>
-  <si>
     <t>Player_CameraControl (20)</t>
   </si>
   <si>
@@ -1235,6 +1232,9 @@
   </si>
   <si>
     <t>Weapons_WeaponManager (70)</t>
+  </si>
+  <si>
+    <t>Player_Movement (100)</t>
   </si>
 </sst>
 </file>
@@ -2167,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,7 +3392,7 @@
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="76" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L27" s="73" t="s">
         <v>237</v>
@@ -3447,7 +3447,7 @@
       <c r="M28" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="75" t="s">
         <v>249</v>
       </c>
       <c r="O28" s="69" t="s">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L29" s="75" t="s">
         <v>240</v>
@@ -3493,7 +3493,7 @@
       <c r="M29" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="N29" s="72" t="s">
+      <c r="N29" s="75" t="s">
         <v>250</v>
       </c>
       <c r="O29" s="69" t="s">
@@ -3531,13 +3531,13 @@
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L30" s="75" t="s">
         <v>241</v>
       </c>
       <c r="M30" s="67" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N30" s="14" t="s">
         <v>252</v>
@@ -3583,7 +3583,7 @@
         <v>243</v>
       </c>
       <c r="M31" s="67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N31" s="15" t="s">
         <v>253</v>
@@ -3629,7 +3629,7 @@
       <c r="M32" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="75" t="s">
         <v>254</v>
       </c>
       <c r="O32" s="42" t="s">
@@ -3663,7 +3663,7 @@
       <c r="M33" s="67" t="s">
         <v>398</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="80" t="s">
         <v>260</v>
       </c>
       <c r="O33" s="42"/>
@@ -3695,10 +3695,10 @@
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="L34" s="79" t="s">
         <v>401</v>
-      </c>
-      <c r="L34" s="79" t="s">
-        <v>402</v>
       </c>
       <c r="M34" s="45"/>
       <c r="N34" s="26"/>
@@ -3729,7 +3729,7 @@
         <v>20</v>
       </c>
       <c r="K35" s="30">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="L35" s="30">
         <v>60</v>
@@ -3747,7 +3747,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="54">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>335</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3770,7 +3770,7 @@
         <v>21</v>
       </c>
       <c r="K36" s="33">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L36" s="33">
         <v>145</v>
@@ -3778,7 +3778,9 @@
       <c r="M36" s="33">
         <v>105</v>
       </c>
-      <c r="N36" s="33"/>
+      <c r="N36" s="33">
+        <v>60</v>
+      </c>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="33"/>
@@ -3786,7 +3788,7 @@
       <c r="S36" s="33"/>
       <c r="T36" s="59">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="U36" s="66" t="s">
         <v>367</v>
@@ -3814,7 +3816,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="66">
         <f>T35+T36</f>
-        <v>705</v>
+        <v>785</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$673</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$674</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="408">
   <si>
     <t>ID Code</t>
   </si>
@@ -688,9 +688,6 @@
     <t>| WeaponManager | AbstractWeapons | MeleeWeapon | Shotgun | Pistol | HarpoonGun | FlareGun |</t>
   </si>
   <si>
-    <t xml:space="preserve">| AssaultRifle | AbstractGrenades | FragGrenades | StunGrenades | SmokeGrenades | AbstractMines </t>
-  </si>
-  <si>
     <t xml:space="preserve">| ToolBox | Welder | Grinder | Hammer | SconicScrewDriver |  Generator | FusionCore | TelePorter | Computer | AssemblyLine | </t>
   </si>
   <si>
@@ -1235,12 +1232,21 @@
   </si>
   <si>
     <t>Player_Movement (100)</t>
+  </si>
+  <si>
+    <t>Weapons_ExplosionPool</t>
+  </si>
+  <si>
+    <t>| AssaultRifle | AbstractGrenades | FragGrenades | StunGrenades | SmokeGrenades | AbstractMines | ExplosionPool</t>
+  </si>
+  <si>
+    <t>Weapons_ExplosionPool (40)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2165,10 +2171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1028"/>
+  <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>30</v>
@@ -2278,7 +2284,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="47" t="s">
@@ -2335,35 +2341,35 @@
         <v>23</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L3" s="78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M3" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N3" s="63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R3" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S3" s="63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2392,35 +2398,35 @@
         <v>24</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L4" s="77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M4" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S4" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2449,35 +2455,35 @@
         <v>25</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L5" s="57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M5" s="82" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P5" s="69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R5" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S5" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2506,35 +2512,35 @@
         <v>25</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="77" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L6" s="77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2563,35 +2569,35 @@
         <v>25</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L7" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N7" s="83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O7" s="57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P7" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R7" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2620,35 +2626,35 @@
         <v>26</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L8" s="84" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N8" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O8" s="57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R8" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S8" s="87" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2665,35 +2671,35 @@
         <v>27</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L9" s="84" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N9" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O9" s="57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R9" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2720,35 +2726,35 @@
         <v>27</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="81" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L10" s="86" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="57" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R10" s="40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S10" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2773,33 +2779,33 @@
         <v>41</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="21"/>
       <c r="L11" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M11" s="85" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N11" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="88" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S11" s="40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2823,33 +2829,33 @@
         <v>41</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="21"/>
       <c r="L12" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O12" s="57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P12" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S12" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2873,33 +2879,33 @@
         <v>41</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="21"/>
       <c r="L13" s="82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N13" s="83" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R13" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S13" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2923,31 +2929,31 @@
         <v>215</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="57" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O14" s="57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R14" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S14" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2977,17 +2983,17 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P15" s="30"/>
       <c r="R15" s="87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3017,12 +3023,12 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N16" s="42"/>
       <c r="P16" s="30"/>
       <c r="R16" s="87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S16" s="30"/>
     </row>
@@ -3047,7 +3053,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S17" s="30"/>
     </row>
@@ -3184,7 +3190,7 @@
         <v>221</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>223</v>
+        <v>406</v>
       </c>
       <c r="J21" s="51" t="s">
         <v>17</v>
@@ -3268,7 +3274,7 @@
         <v>6</v>
       </c>
       <c r="U23" s="66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3345,31 +3351,31 @@
       <c r="G26" s="9"/>
       <c r="J26" s="10"/>
       <c r="K26" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L26" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M26" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N26" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O26" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P26" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q26" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R26" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S26" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T26" s="53"/>
     </row>
@@ -3392,31 +3398,31 @@
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="76" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L27" s="73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M27" s="92" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N27" s="73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O27" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P27" s="71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q27" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="R27" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="R27" s="71" t="s">
-        <v>267</v>
-      </c>
       <c r="S27" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T27" s="53"/>
     </row>
@@ -3439,31 +3445,31 @@
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
       <c r="K28" s="67" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L28" s="75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M28" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N28" s="75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O28" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P28" s="72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q28" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S28" s="40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T28" s="53"/>
     </row>
@@ -3485,31 +3491,31 @@
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="67" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L29" s="75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M29" s="67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N29" s="75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O29" s="69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S29" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T29" s="53"/>
     </row>
@@ -3531,31 +3537,31 @@
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L30" s="75" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M30" s="67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O30" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q30" s="40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S30" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T30" s="53"/>
     </row>
@@ -3577,29 +3583,29 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L31" s="80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M31" s="67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O31" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q31" s="42"/>
       <c r="R31" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S31" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T31" s="53"/>
     </row>
@@ -3621,29 +3627,29 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L32" s="75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M32" s="93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N32" s="75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O32" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q32" s="42"/>
       <c r="R32" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S32" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T32" s="53"/>
     </row>
@@ -3655,23 +3661,23 @@
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
       <c r="K33" s="67" t="s">
+        <v>396</v>
+      </c>
+      <c r="L33" s="75" t="s">
         <v>397</v>
       </c>
-      <c r="L33" s="75" t="s">
-        <v>398</v>
-      </c>
       <c r="M33" s="67" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N33" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O33" s="42"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="42"/>
       <c r="R33" s="14"/>
       <c r="S33" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T33" s="53" t="s">
         <v>31</v>
@@ -3695,13 +3701,15 @@
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="L34" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="L34" s="79" t="s">
-        <v>401</v>
-      </c>
       <c r="M34" s="45"/>
-      <c r="N34" s="26"/>
+      <c r="N34" s="26" t="s">
+        <v>407</v>
+      </c>
       <c r="O34" s="43"/>
       <c r="P34" s="26"/>
       <c r="Q34" s="43"/>
@@ -3779,7 +3787,7 @@
         <v>105</v>
       </c>
       <c r="N36" s="33">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
@@ -3788,10 +3796,10 @@
       <c r="S36" s="33"/>
       <c r="T36" s="59">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="U36" s="66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3816,7 +3824,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="66">
         <f>T35+T36</f>
-        <v>785</v>
+        <v>815</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -11419,7 +11427,7 @@
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B497" s="6" t="s">
         <v>5</v>
@@ -11437,7 +11445,7 @@
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B498" s="16" t="s">
         <v>10</v>
@@ -12740,7 +12748,7 @@
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B590" s="23" t="s">
         <v>11</v>
@@ -13502,17 +13510,30 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="4"/>
-      <c r="B638" s="4"/>
-      <c r="C638" s="7"/>
+      <c r="A638" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B638" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C638" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D638" s="8">
-        <f>SUM(D581:D637)</f>
-        <v>2350</v>
+        <v>40</v>
+      </c>
+      <c r="E638" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" s="5"/>
-      <c r="B639" s="24"/>
+      <c r="A639" s="4"/>
+      <c r="B639" s="4"/>
+      <c r="C639" s="7"/>
+      <c r="D639" s="8">
+        <f>SUM(D581:D638)</f>
+        <v>2390</v>
+      </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="5"/>
@@ -13527,11 +13548,11 @@
       <c r="B642" s="24"/>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="24"/>
+      <c r="A643" s="5"/>
       <c r="B643" s="24"/>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644" s="5"/>
+      <c r="A644" s="24"/>
       <c r="B644" s="24"/>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -13563,11 +13584,11 @@
       <c r="B651" s="24"/>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652" s="24"/>
+      <c r="A652" s="5"/>
       <c r="B652" s="24"/>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" s="5"/>
+      <c r="A653" s="24"/>
       <c r="B653" s="24"/>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -13583,11 +13604,11 @@
       <c r="B656" s="24"/>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="24"/>
+      <c r="A657" s="5"/>
       <c r="B657" s="24"/>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="5"/>
+      <c r="A658" s="24"/>
       <c r="B658" s="24"/>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -13603,11 +13624,11 @@
       <c r="B661" s="24"/>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="24"/>
+      <c r="A662" s="5"/>
       <c r="B662" s="24"/>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" s="5"/>
+      <c r="A663" s="24"/>
       <c r="B663" s="24"/>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -13623,11 +13644,11 @@
       <c r="B666" s="24"/>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" s="24"/>
+      <c r="A667" s="5"/>
       <c r="B667" s="24"/>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" s="5"/>
+      <c r="A668" s="24"/>
       <c r="B668" s="24"/>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -13643,11 +13664,11 @@
       <c r="B671" s="24"/>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672" s="24"/>
+      <c r="A672" s="5"/>
       <c r="B672" s="24"/>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673" s="5"/>
+      <c r="A673" s="24"/>
       <c r="B673" s="24"/>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -13663,11 +13684,11 @@
       <c r="B676" s="24"/>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="24"/>
+      <c r="A677" s="5"/>
       <c r="B677" s="24"/>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" s="5"/>
+      <c r="A678" s="24"/>
       <c r="B678" s="24"/>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -13683,11 +13704,11 @@
       <c r="B681" s="24"/>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="24"/>
+      <c r="A682" s="5"/>
       <c r="B682" s="24"/>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" s="5"/>
+      <c r="A683" s="24"/>
       <c r="B683" s="24"/>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -13703,11 +13724,11 @@
       <c r="B686" s="24"/>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="24"/>
+      <c r="A687" s="5"/>
       <c r="B687" s="24"/>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" s="5"/>
+      <c r="A688" s="24"/>
       <c r="B688" s="24"/>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -13723,11 +13744,11 @@
       <c r="B691" s="24"/>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" s="24"/>
+      <c r="A692" s="5"/>
       <c r="B692" s="24"/>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" s="5"/>
+      <c r="A693" s="24"/>
       <c r="B693" s="24"/>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -13747,11 +13768,11 @@
       <c r="B697" s="24"/>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="24"/>
+      <c r="A698" s="5"/>
       <c r="B698" s="24"/>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" s="5"/>
+      <c r="A699" s="24"/>
       <c r="B699" s="24"/>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -13767,11 +13788,11 @@
       <c r="B702" s="24"/>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="24"/>
+      <c r="A703" s="5"/>
       <c r="B703" s="24"/>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" s="5"/>
+      <c r="A704" s="24"/>
       <c r="B704" s="24"/>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -13787,11 +13808,11 @@
       <c r="B707" s="24"/>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="24"/>
+      <c r="A708" s="5"/>
       <c r="B708" s="24"/>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" s="5"/>
+      <c r="A709" s="24"/>
       <c r="B709" s="24"/>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
@@ -13807,11 +13828,11 @@
       <c r="B712" s="24"/>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" s="24"/>
+      <c r="A713" s="5"/>
       <c r="B713" s="24"/>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" s="5"/>
+      <c r="A714" s="24"/>
       <c r="B714" s="24"/>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
@@ -13827,11 +13848,11 @@
       <c r="B717" s="24"/>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" s="24"/>
+      <c r="A718" s="5"/>
       <c r="B718" s="24"/>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719" s="5"/>
+      <c r="A719" s="24"/>
       <c r="B719" s="24"/>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
@@ -13847,11 +13868,11 @@
       <c r="B722" s="24"/>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" s="24"/>
+      <c r="A723" s="5"/>
       <c r="B723" s="24"/>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724" s="5"/>
+      <c r="A724" s="24"/>
       <c r="B724" s="24"/>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
@@ -13867,12 +13888,12 @@
       <c r="B727" s="24"/>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" s="8"/>
-      <c r="B728" s="8"/>
+      <c r="A728" s="5"/>
+      <c r="B728" s="24"/>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" s="5"/>
-      <c r="B729" s="24"/>
+      <c r="A729" s="8"/>
+      <c r="B729" s="8"/>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="5"/>
@@ -13903,11 +13924,11 @@
       <c r="B736" s="24"/>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="24"/>
+      <c r="A737" s="5"/>
       <c r="B737" s="24"/>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" s="5"/>
+      <c r="A738" s="24"/>
       <c r="B738" s="24"/>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
@@ -13939,11 +13960,11 @@
       <c r="B745" s="24"/>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" s="24"/>
+      <c r="A746" s="5"/>
       <c r="B746" s="24"/>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" s="5"/>
+      <c r="A747" s="24"/>
       <c r="B747" s="24"/>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
@@ -13975,11 +13996,11 @@
       <c r="B754" s="24"/>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" s="24"/>
+      <c r="A755" s="5"/>
       <c r="B755" s="24"/>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756" s="5"/>
+      <c r="A756" s="24"/>
       <c r="B756" s="24"/>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
@@ -14011,11 +14032,11 @@
       <c r="B763" s="24"/>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" s="24"/>
+      <c r="A764" s="5"/>
       <c r="B764" s="24"/>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" s="5"/>
+      <c r="A765" s="24"/>
       <c r="B765" s="24"/>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
@@ -14047,11 +14068,11 @@
       <c r="B772" s="24"/>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773" s="24"/>
+      <c r="A773" s="5"/>
       <c r="B773" s="24"/>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774" s="5"/>
+      <c r="A774" s="24"/>
       <c r="B774" s="24"/>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
@@ -14067,11 +14088,11 @@
       <c r="B777" s="24"/>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" s="24"/>
+      <c r="A778" s="5"/>
       <c r="B778" s="24"/>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779" s="5"/>
+      <c r="A779" s="24"/>
       <c r="B779" s="24"/>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
@@ -14087,11 +14108,11 @@
       <c r="B782" s="24"/>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" s="24"/>
+      <c r="A783" s="5"/>
       <c r="B783" s="24"/>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784" s="5"/>
+      <c r="A784" s="24"/>
       <c r="B784" s="24"/>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
@@ -14107,11 +14128,11 @@
       <c r="B787" s="24"/>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" s="24"/>
+      <c r="A788" s="5"/>
       <c r="B788" s="24"/>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" s="5"/>
+      <c r="A789" s="24"/>
       <c r="B789" s="24"/>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
@@ -14127,11 +14148,11 @@
       <c r="B792" s="24"/>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" s="24"/>
+      <c r="A793" s="5"/>
       <c r="B793" s="24"/>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794" s="5"/>
+      <c r="A794" s="24"/>
       <c r="B794" s="24"/>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
@@ -14147,11 +14168,11 @@
       <c r="B797" s="24"/>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798" s="24"/>
+      <c r="A798" s="5"/>
       <c r="B798" s="24"/>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799" s="5"/>
+      <c r="A799" s="24"/>
       <c r="B799" s="24"/>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -14167,11 +14188,11 @@
       <c r="B802" s="24"/>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" s="24"/>
+      <c r="A803" s="5"/>
       <c r="B803" s="24"/>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804" s="5"/>
+      <c r="A804" s="24"/>
       <c r="B804" s="24"/>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
@@ -14187,11 +14208,11 @@
       <c r="B807" s="24"/>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808" s="24"/>
+      <c r="A808" s="5"/>
       <c r="B808" s="24"/>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809" s="5"/>
+      <c r="A809" s="24"/>
       <c r="B809" s="24"/>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
@@ -14207,11 +14228,11 @@
       <c r="B812" s="24"/>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813" s="24"/>
+      <c r="A813" s="5"/>
       <c r="B813" s="24"/>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A814" s="5"/>
+      <c r="A814" s="24"/>
       <c r="B814" s="24"/>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
@@ -14227,11 +14248,11 @@
       <c r="B817" s="24"/>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A818" s="24"/>
+      <c r="A818" s="5"/>
       <c r="B818" s="24"/>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A819" s="5"/>
+      <c r="A819" s="24"/>
       <c r="B819" s="24"/>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
@@ -14251,11 +14272,11 @@
       <c r="B823" s="24"/>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A824" s="24"/>
+      <c r="A824" s="5"/>
       <c r="B824" s="24"/>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A825" s="5"/>
+      <c r="A825" s="24"/>
       <c r="B825" s="24"/>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
@@ -14271,11 +14292,11 @@
       <c r="B828" s="24"/>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A829" s="24"/>
+      <c r="A829" s="5"/>
       <c r="B829" s="24"/>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A830" s="5"/>
+      <c r="A830" s="24"/>
       <c r="B830" s="24"/>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
@@ -14295,11 +14316,11 @@
       <c r="B834" s="24"/>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A835" s="24"/>
+      <c r="A835" s="5"/>
       <c r="B835" s="24"/>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A836" s="5"/>
+      <c r="A836" s="24"/>
       <c r="B836" s="24"/>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
@@ -14319,12 +14340,12 @@
       <c r="B840" s="24"/>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A841" s="8"/>
-      <c r="B841" s="8"/>
+      <c r="A841" s="5"/>
+      <c r="B841" s="24"/>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A842" s="5"/>
-      <c r="B842" s="24"/>
+      <c r="A842" s="8"/>
+      <c r="B842" s="8"/>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" s="5"/>
@@ -14339,11 +14360,11 @@
       <c r="B845" s="24"/>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A846" s="24"/>
+      <c r="A846" s="5"/>
       <c r="B846" s="24"/>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A847" s="5"/>
+      <c r="A847" s="24"/>
       <c r="B847" s="24"/>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -14359,11 +14380,11 @@
       <c r="B850" s="24"/>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A851" s="24"/>
+      <c r="A851" s="5"/>
       <c r="B851" s="24"/>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A852" s="5"/>
+      <c r="A852" s="24"/>
       <c r="B852" s="24"/>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
@@ -14379,11 +14400,11 @@
       <c r="B855" s="24"/>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A856" s="24"/>
+      <c r="A856" s="5"/>
       <c r="B856" s="24"/>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A857" s="5"/>
+      <c r="A857" s="24"/>
       <c r="B857" s="24"/>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
@@ -14399,11 +14420,11 @@
       <c r="B860" s="24"/>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A861" s="24"/>
+      <c r="A861" s="5"/>
       <c r="B861" s="24"/>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A862" s="5"/>
+      <c r="A862" s="24"/>
       <c r="B862" s="24"/>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
@@ -14419,11 +14440,11 @@
       <c r="B865" s="24"/>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A866" s="24"/>
+      <c r="A866" s="5"/>
       <c r="B866" s="24"/>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A867" s="5"/>
+      <c r="A867" s="24"/>
       <c r="B867" s="24"/>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
@@ -14431,11 +14452,11 @@
       <c r="B868" s="24"/>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A869" s="24"/>
+      <c r="A869" s="5"/>
       <c r="B869" s="24"/>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A870" s="5"/>
+      <c r="A870" s="24"/>
       <c r="B870" s="24"/>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
@@ -14443,11 +14464,11 @@
       <c r="B871" s="24"/>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A872" s="24"/>
+      <c r="A872" s="5"/>
       <c r="B872" s="24"/>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A873" s="5"/>
+      <c r="A873" s="24"/>
       <c r="B873" s="24"/>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
@@ -14455,11 +14476,11 @@
       <c r="B874" s="24"/>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A875" s="24"/>
+      <c r="A875" s="5"/>
       <c r="B875" s="24"/>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A876" s="5"/>
+      <c r="A876" s="24"/>
       <c r="B876" s="24"/>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
@@ -14467,11 +14488,11 @@
       <c r="B877" s="24"/>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A878" s="24"/>
+      <c r="A878" s="5"/>
       <c r="B878" s="24"/>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A879" s="5"/>
+      <c r="A879" s="24"/>
       <c r="B879" s="24"/>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
@@ -14479,11 +14500,11 @@
       <c r="B880" s="24"/>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A881" s="24"/>
+      <c r="A881" s="5"/>
       <c r="B881" s="24"/>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A882" s="5"/>
+      <c r="A882" s="24"/>
       <c r="B882" s="24"/>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
@@ -14491,11 +14512,11 @@
       <c r="B883" s="24"/>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A884" s="24"/>
+      <c r="A884" s="5"/>
       <c r="B884" s="24"/>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A885" s="5"/>
+      <c r="A885" s="24"/>
       <c r="B885" s="24"/>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
@@ -14503,11 +14524,11 @@
       <c r="B886" s="24"/>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A887" s="24"/>
+      <c r="A887" s="5"/>
       <c r="B887" s="24"/>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A888" s="5"/>
+      <c r="A888" s="24"/>
       <c r="B888" s="24"/>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
@@ -14515,11 +14536,11 @@
       <c r="B889" s="24"/>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A890" s="24"/>
+      <c r="A890" s="5"/>
       <c r="B890" s="24"/>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A891" s="5"/>
+      <c r="A891" s="24"/>
       <c r="B891" s="24"/>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
@@ -14527,11 +14548,11 @@
       <c r="B892" s="24"/>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A893" s="24"/>
+      <c r="A893" s="5"/>
       <c r="B893" s="24"/>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A894" s="5"/>
+      <c r="A894" s="24"/>
       <c r="B894" s="24"/>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
@@ -14539,11 +14560,11 @@
       <c r="B895" s="24"/>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A896" s="24"/>
+      <c r="A896" s="5"/>
       <c r="B896" s="24"/>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A897" s="5"/>
+      <c r="A897" s="24"/>
       <c r="B897" s="24"/>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
@@ -14551,11 +14572,11 @@
       <c r="B898" s="24"/>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A899" s="24"/>
+      <c r="A899" s="5"/>
       <c r="B899" s="24"/>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A900" s="5"/>
+      <c r="A900" s="24"/>
       <c r="B900" s="24"/>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
@@ -14563,11 +14584,11 @@
       <c r="B901" s="24"/>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A902" s="24"/>
+      <c r="A902" s="5"/>
       <c r="B902" s="24"/>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A903" s="5"/>
+      <c r="A903" s="24"/>
       <c r="B903" s="24"/>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
@@ -14575,11 +14596,11 @@
       <c r="B904" s="24"/>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A905" s="24"/>
+      <c r="A905" s="5"/>
       <c r="B905" s="24"/>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A906" s="5"/>
+      <c r="A906" s="24"/>
       <c r="B906" s="24"/>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
@@ -14587,35 +14608,35 @@
       <c r="B907" s="24"/>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A908" s="24"/>
+      <c r="A908" s="5"/>
       <c r="B908" s="24"/>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A909" s="5"/>
+      <c r="A909" s="24"/>
       <c r="B909" s="24"/>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A910" s="24"/>
+      <c r="A910" s="5"/>
       <c r="B910" s="24"/>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A911" s="5"/>
+      <c r="A911" s="24"/>
       <c r="B911" s="24"/>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A912" s="24"/>
+      <c r="A912" s="5"/>
       <c r="B912" s="24"/>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A913" s="5"/>
+      <c r="A913" s="24"/>
       <c r="B913" s="24"/>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A914" s="24"/>
+      <c r="A914" s="5"/>
       <c r="B914" s="24"/>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A915" s="5"/>
+      <c r="A915" s="24"/>
       <c r="B915" s="24"/>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
@@ -14623,11 +14644,11 @@
       <c r="B916" s="24"/>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A917" s="24"/>
+      <c r="A917" s="5"/>
       <c r="B917" s="24"/>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A918" s="5"/>
+      <c r="A918" s="24"/>
       <c r="B918" s="24"/>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
@@ -14663,11 +14684,11 @@
       <c r="B926" s="24"/>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A927" s="24"/>
+      <c r="A927" s="5"/>
       <c r="B927" s="24"/>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A928" s="5"/>
+      <c r="A928" s="24"/>
       <c r="B928" s="24"/>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
@@ -14691,12 +14712,12 @@
       <c r="B933" s="24"/>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A934" s="8"/>
-      <c r="B934" s="8"/>
+      <c r="A934" s="5"/>
+      <c r="B934" s="24"/>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A935" s="5"/>
-      <c r="B935" s="24"/>
+      <c r="A935" s="8"/>
+      <c r="B935" s="8"/>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" s="5"/>
@@ -14731,11 +14752,11 @@
       <c r="B943" s="24"/>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A944" s="24"/>
+      <c r="A944" s="5"/>
       <c r="B944" s="24"/>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A945" s="5"/>
+      <c r="A945" s="24"/>
       <c r="B945" s="24"/>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
@@ -14771,11 +14792,11 @@
       <c r="B953" s="24"/>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A954" s="24"/>
+      <c r="A954" s="5"/>
       <c r="B954" s="24"/>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A955" s="5"/>
+      <c r="A955" s="24"/>
       <c r="B955" s="24"/>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
@@ -14831,11 +14852,11 @@
       <c r="B968" s="24"/>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A969" s="24"/>
+      <c r="A969" s="5"/>
       <c r="B969" s="24"/>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A970" s="5"/>
+      <c r="A970" s="24"/>
       <c r="B970" s="24"/>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.25">
@@ -14859,14 +14880,18 @@
       <c r="B975" s="24"/>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A976" s="24"/>
+      <c r="A976" s="5"/>
       <c r="B976" s="24"/>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1028" s="5"/>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" s="24"/>
+      <c r="B977" s="24"/>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E673"/>
+  <autoFilter ref="A1:E674"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$674</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1246,7 +1246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2174,7 +2174,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3669,7 +3669,7 @@
       <c r="M33" s="67" t="s">
         <v>397</v>
       </c>
-      <c r="N33" s="80" t="s">
+      <c r="N33" s="75" t="s">
         <v>259</v>
       </c>
       <c r="O33" s="42"/>
@@ -3707,7 +3707,7 @@
         <v>400</v>
       </c>
       <c r="M34" s="45"/>
-      <c r="N34" s="26" t="s">
+      <c r="N34" s="79" t="s">
         <v>407</v>
       </c>
       <c r="O34" s="43"/>
@@ -3787,7 +3787,7 @@
         <v>105</v>
       </c>
       <c r="N36" s="33">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
@@ -3796,7 +3796,7 @@
       <c r="S36" s="33"/>
       <c r="T36" s="59">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="U36" s="66" t="s">
         <v>366</v>
@@ -3824,7 +3824,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="66">
         <f>T35+T36</f>
-        <v>815</v>
+        <v>895</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1581,7 +1581,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1812,9 +1812,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2174,7 +2171,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,7 +2404,7 @@
       <c r="L4" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="81" t="s">
         <v>295</v>
       </c>
       <c r="N4" s="42" t="s">
@@ -2464,7 +2461,7 @@
       <c r="L5" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="M5" s="82" t="s">
+      <c r="M5" s="81" t="s">
         <v>296</v>
       </c>
       <c r="N5" s="42" t="s">
@@ -2524,7 +2521,7 @@
       <c r="M6" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N6" s="83" t="s">
+      <c r="N6" s="82" t="s">
         <v>308</v>
       </c>
       <c r="O6" s="15" t="s">
@@ -2581,7 +2578,7 @@
       <c r="M7" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="N7" s="83" t="s">
+      <c r="N7" s="82" t="s">
         <v>309</v>
       </c>
       <c r="O7" s="57" t="s">
@@ -2632,7 +2629,7 @@
       <c r="K8" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="L8" s="84" t="s">
+      <c r="L8" s="83" t="s">
         <v>387</v>
       </c>
       <c r="M8" s="13" t="s">
@@ -2653,7 +2650,7 @@
       <c r="R8" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="S8" s="87" t="s">
+      <c r="S8" s="86" t="s">
         <v>379</v>
       </c>
     </row>
@@ -2677,7 +2674,7 @@
       <c r="K9" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="L9" s="84" t="s">
+      <c r="L9" s="83" t="s">
         <v>389</v>
       </c>
       <c r="M9" s="13" t="s">
@@ -2729,10 +2726,10 @@
         <v>226</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="85" t="s">
         <v>390</v>
       </c>
       <c r="M10" s="13" t="s">
@@ -2786,7 +2783,7 @@
       <c r="L11" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="M11" s="85" t="s">
+      <c r="M11" s="84" t="s">
         <v>301</v>
       </c>
       <c r="N11" s="42" t="s">
@@ -2798,7 +2795,7 @@
       <c r="P11" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="Q11" s="88" t="s">
+      <c r="Q11" s="87" t="s">
         <v>356</v>
       </c>
       <c r="R11" s="40" t="s">
@@ -2836,7 +2833,7 @@
       <c r="L12" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="M12" s="84" t="s">
+      <c r="M12" s="83" t="s">
         <v>302</v>
       </c>
       <c r="N12" s="46" t="s">
@@ -2883,13 +2880,13 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="82" t="s">
+      <c r="L13" s="81" t="s">
         <v>285</v>
       </c>
       <c r="M13" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="N13" s="83" t="s">
+      <c r="N13" s="82" t="s">
         <v>318</v>
       </c>
       <c r="O13" s="13" t="s">
@@ -2989,7 +2986,7 @@
         <v>317</v>
       </c>
       <c r="P15" s="30"/>
-      <c r="R15" s="87" t="s">
+      <c r="R15" s="86" t="s">
         <v>372</v>
       </c>
       <c r="S15" s="40" t="s">
@@ -3027,7 +3024,7 @@
       </c>
       <c r="N16" s="42"/>
       <c r="P16" s="30"/>
-      <c r="R16" s="87" t="s">
+      <c r="R16" s="86" t="s">
         <v>373</v>
       </c>
       <c r="S16" s="30"/>
@@ -3052,7 +3049,7 @@
       <c r="N17" s="42"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="87" t="s">
+      <c r="R17" s="86" t="s">
         <v>374</v>
       </c>
       <c r="S17" s="30"/>
@@ -3403,7 +3400,7 @@
       <c r="L27" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="M27" s="92" t="s">
+      <c r="M27" s="91" t="s">
         <v>241</v>
       </c>
       <c r="N27" s="73" t="s">
@@ -3585,7 +3582,7 @@
       <c r="K31" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="L31" s="80" t="s">
+      <c r="L31" s="75" t="s">
         <v>242</v>
       </c>
       <c r="M31" s="67" t="s">
@@ -3632,7 +3629,7 @@
       <c r="L32" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="M32" s="93" t="s">
+      <c r="M32" s="92" t="s">
         <v>250</v>
       </c>
       <c r="N32" s="75" t="s">
@@ -3740,7 +3737,7 @@
         <v>205</v>
       </c>
       <c r="L35" s="30">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="M35" s="30">
         <v>70</v>
@@ -3755,7 +3752,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="54">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>365</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3824,7 +3821,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="66">
         <f>T35+T36</f>
-        <v>895</v>
+        <v>975</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -12693,19 +12690,19 @@
       <c r="H586" s="4"/>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="89" t="s">
+      <c r="A587" s="88" t="s">
         <v>53</v>
       </c>
       <c r="B587" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C587" s="90" t="s">
+      <c r="C587" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="D587" s="91">
+      <c r="D587" s="90">
         <v>20</v>
       </c>
-      <c r="E587" s="91">
+      <c r="E587" s="90">
         <v>7</v>
       </c>
       <c r="H587" s="4"/>
@@ -13391,19 +13388,19 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="89" t="s">
+      <c r="A631" s="88" t="s">
         <v>81</v>
       </c>
       <c r="B631" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C631" s="90" t="s">
+      <c r="C631" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="D631" s="91">
+      <c r="D631" s="90">
         <v>60</v>
       </c>
-      <c r="E631" s="91">
+      <c r="E631" s="90">
         <v>9</v>
       </c>
     </row>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2171,7 +2171,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,7 +3588,7 @@
       <c r="M31" s="67" t="s">
         <v>401</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="N31" s="75" t="s">
         <v>252</v>
       </c>
       <c r="O31" s="42" t="s">
@@ -3743,7 +3743,7 @@
         <v>70</v>
       </c>
       <c r="N35" s="30">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
@@ -3752,7 +3752,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="54">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>445</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3821,7 +3821,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="66">
         <f>T35+T36</f>
-        <v>975</v>
+        <v>995</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2171,7 +2171,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,7 +3542,7 @@
       <c r="M30" s="67" t="s">
         <v>402</v>
       </c>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="75" t="s">
         <v>251</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3743,7 +3743,7 @@
         <v>70</v>
       </c>
       <c r="N35" s="30">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
@@ -3752,7 +3752,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="54">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>465</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3821,7 +3821,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="66">
         <f>T35+T36</f>
-        <v>995</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="409">
   <si>
     <t>ID Code</t>
   </si>
@@ -1241,6 +1241,9 @@
   </si>
   <si>
     <t>Weapons_ExplosionPool (40)</t>
+  </si>
+  <si>
+    <t>Items_LootPackage (30)</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2174,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3703,7 +3706,9 @@
       <c r="L34" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="M34" s="45"/>
+      <c r="M34" s="74" t="s">
+        <v>408</v>
+      </c>
       <c r="N34" s="79" t="s">
         <v>407</v>
       </c>
@@ -3740,7 +3745,7 @@
         <v>140</v>
       </c>
       <c r="M35" s="30">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N35" s="30">
         <v>130</v>
@@ -3752,7 +3757,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="54">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>545</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3821,7 +3826,7 @@
       <c r="R37" s="31"/>
       <c r="T37" s="66">
         <f>T35+T36</f>
-        <v>1075</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1308,7 +1308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1393,18 +1393,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1584,7 +1572,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1721,9 +1709,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1755,9 +1740,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1808,37 +1790,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1854,6 +1809,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2173,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,31 +2191,31 @@
       <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2280,23 +2241,23 @@
       <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="62" t="s">
         <v>227</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="N2" s="60" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="47" t="s">
@@ -2308,10 +2269,10 @@
       <c r="Q2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="62" t="s">
+      <c r="S2" s="60" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2337,26 +2298,26 @@
       <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="62" t="s">
         <v>228</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="83" t="s">
         <v>282</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="N3" s="63" t="s">
+      <c r="N3" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="7" t="s">
         <v>321</v>
       </c>
       <c r="P3" s="41" t="s">
@@ -2368,7 +2329,7 @@
       <c r="R3" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="S3" s="63" t="s">
+      <c r="S3" s="61" t="s">
         <v>371</v>
       </c>
     </row>
@@ -2394,26 +2355,26 @@
       <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="62" t="s">
         <v>229</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="76" t="s">
         <v>295</v>
       </c>
       <c r="N4" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="73" t="s">
         <v>322</v>
       </c>
       <c r="P4" s="40" t="s">
@@ -2451,20 +2412,20 @@
       <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="62" t="s">
         <v>233</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="77" t="s">
+      <c r="K5" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="M5" s="81" t="s">
+      <c r="M5" s="13" t="s">
         <v>296</v>
       </c>
       <c r="N5" s="42" t="s">
@@ -2473,7 +2434,7 @@
       <c r="O5" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="65" t="s">
         <v>331</v>
       </c>
       <c r="Q5" s="10" t="s">
@@ -2508,23 +2469,23 @@
       <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="62" t="s">
         <v>223</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="L6" s="77" t="s">
+      <c r="L6" s="76" t="s">
         <v>293</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N6" s="82" t="s">
+      <c r="N6" s="42" t="s">
         <v>308</v>
       </c>
       <c r="O6" s="15" t="s">
@@ -2565,26 +2526,26 @@
       <c r="G7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="62" t="s">
         <v>224</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="L7" s="57" t="s">
+      <c r="L7" s="56" t="s">
         <v>294</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="N7" s="82" t="s">
+      <c r="N7" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="O7" s="57" t="s">
+      <c r="O7" s="56" t="s">
         <v>315</v>
       </c>
       <c r="P7" s="42" t="s">
@@ -2622,26 +2583,26 @@
       <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="62" t="s">
         <v>230</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="77" t="s">
+      <c r="K8" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="76" t="s">
         <v>387</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="N8" s="48" t="s">
+      <c r="N8" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="O8" s="57" t="s">
+      <c r="O8" s="56" t="s">
         <v>316</v>
       </c>
       <c r="P8" s="40" t="s">
@@ -2653,7 +2614,7 @@
       <c r="R8" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="S8" s="86" t="s">
+      <c r="S8" s="65" t="s">
         <v>379</v>
       </c>
     </row>
@@ -2667,17 +2628,17 @@
       <c r="G9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="62" t="s">
         <v>225</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="L9" s="83" t="s">
+      <c r="L9" s="76" t="s">
         <v>389</v>
       </c>
       <c r="M9" s="13" t="s">
@@ -2686,7 +2647,7 @@
       <c r="N9" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="O9" s="57" t="s">
+      <c r="O9" s="56" t="s">
         <v>313</v>
       </c>
       <c r="P9" s="40" t="s">
@@ -2722,17 +2683,17 @@
         <v>12</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="62" t="s">
         <v>226</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="80" t="s">
+      <c r="K10" s="76" t="s">
         <v>388</v>
       </c>
-      <c r="L10" s="85" t="s">
+      <c r="L10" s="76" t="s">
         <v>390</v>
       </c>
       <c r="M10" s="13" t="s">
@@ -2747,7 +2708,7 @@
       <c r="P10" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="Q10" s="57" t="s">
+      <c r="Q10" s="56" t="s">
         <v>355</v>
       </c>
       <c r="R10" s="40" t="s">
@@ -2775,18 +2736,18 @@
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="62" t="s">
         <v>231</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="13" t="s">
+      <c r="K11" s="56"/>
+      <c r="L11" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="M11" s="84" t="s">
+      <c r="M11" s="82" t="s">
         <v>301</v>
       </c>
       <c r="N11" s="42" t="s">
@@ -2798,7 +2759,7 @@
       <c r="P11" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="Q11" s="87" t="s">
+      <c r="Q11" s="13" t="s">
         <v>356</v>
       </c>
       <c r="R11" s="40" t="s">
@@ -2825,24 +2786,24 @@
         <v>10</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="62" t="s">
         <v>280</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="M12" s="83" t="s">
+      <c r="M12" s="76" t="s">
         <v>302</v>
       </c>
       <c r="N12" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="O12" s="57" t="s">
+      <c r="O12" s="56" t="s">
         <v>327</v>
       </c>
       <c r="P12" s="42" t="s">
@@ -2851,7 +2812,7 @@
       <c r="Q12" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R12" s="65" t="s">
         <v>337</v>
       </c>
       <c r="S12" s="42" t="s">
@@ -2875,27 +2836,27 @@
         <v>10</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="62" t="s">
         <v>281</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="81" t="s">
+      <c r="K13" s="56"/>
+      <c r="L13" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="N13" s="82" t="s">
+      <c r="N13" s="42" t="s">
         <v>318</v>
       </c>
       <c r="O13" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="P13" s="40" t="s">
+      <c r="P13" s="65" t="s">
         <v>336</v>
       </c>
       <c r="Q13" s="13" t="s">
@@ -2925,25 +2886,25 @@
         <v>10</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="62" t="s">
         <v>395</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="57" t="s">
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="O14" s="57" t="s">
+      <c r="O14" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="P14" s="40" t="s">
+      <c r="P14" s="65" t="s">
         <v>338</v>
       </c>
       <c r="Q14" s="13" t="s">
@@ -2973,23 +2934,25 @@
         <v>10</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="62" t="s">
         <v>207</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="57" t="s">
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="76" t="s">
         <v>353</v>
       </c>
       <c r="N15" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="P15" s="30"/>
-      <c r="R15" s="86" t="s">
+      <c r="O15" s="7"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="65" t="s">
         <v>372</v>
       </c>
       <c r="S15" s="40" t="s">
@@ -3013,21 +2976,23 @@
         <v>10</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="I16" s="64" t="s">
+      <c r="I16" s="62" t="s">
         <v>211</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
       <c r="M16" s="13" t="s">
         <v>352</v>
       </c>
       <c r="N16" s="42"/>
-      <c r="P16" s="30"/>
-      <c r="R16" s="86" t="s">
+      <c r="O16" s="7"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="65" t="s">
         <v>373</v>
       </c>
       <c r="S16" s="30"/>
@@ -3039,20 +3004,21 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="62" t="s">
         <v>212</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
       <c r="M17" s="13"/>
       <c r="N17" s="42"/>
+      <c r="O17" s="7"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="86" t="s">
+      <c r="R17" s="65" t="s">
         <v>374</v>
       </c>
       <c r="S17" s="30"/>
@@ -3074,20 +3040,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="64" t="s">
+      <c r="H18" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="I18" s="64" t="s">
+      <c r="I18" s="62" t="s">
         <v>213</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="57"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
       <c r="M18" s="13"/>
       <c r="N18" s="42"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="14"/>
-      <c r="R18" s="30"/>
+      <c r="R18" s="42"/>
       <c r="S18" s="30"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3107,23 +3074,23 @@
         <v>10</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="64" t="s">
+      <c r="I19" s="62" t="s">
         <v>214</v>
       </c>
       <c r="J19" s="10"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="61"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="59"/>
       <c r="N19" s="43"/>
       <c r="O19" s="26"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="45"/>
       <c r="S19" s="33"/>
-      <c r="T19" s="53" t="s">
+      <c r="T19" s="52" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3144,13 +3111,13 @@
         <v>10</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="I20" s="64" t="s">
+      <c r="I20" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="49" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="28">
@@ -3164,7 +3131,7 @@
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="50">
+      <c r="T20" s="49">
         <f>K20+L20+M20+N20+O20+P20+Q20+R20+S20</f>
         <v>6</v>
       </c>
@@ -3186,13 +3153,13 @@
         <v>10</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="64" t="s">
+      <c r="H21" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="I21" s="64" t="s">
+      <c r="I21" s="62" t="s">
         <v>406</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="50" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="21"/>
@@ -3204,7 +3171,7 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="30"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="51">
+      <c r="T21" s="50">
         <f>K21+L21+M21+N21+O21+P21+Q21+R21+S21</f>
         <v>0</v>
       </c>
@@ -3226,7 +3193,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="J22" s="52" t="s">
+      <c r="J22" s="51" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="25"/>
@@ -3238,7 +3205,7 @@
       <c r="Q22" s="34"/>
       <c r="R22" s="33"/>
       <c r="S22" s="35"/>
-      <c r="T22" s="51">
+      <c r="T22" s="50">
         <f>K22+L22+M22+N22+O22+P22+Q22+R22+S22</f>
         <v>0</v>
       </c>
@@ -3269,11 +3236,11 @@
       <c r="P23" s="31"/>
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
-      <c r="T23" s="65">
+      <c r="T23" s="63">
         <f>T20+T21+T22</f>
         <v>6</v>
       </c>
-      <c r="U23" s="66" t="s">
+      <c r="U23" s="64" t="s">
         <v>365</v>
       </c>
     </row>
@@ -3294,7 +3261,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="T24" s="53"/>
+      <c r="T24" s="52"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
@@ -3303,34 +3270,34 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="G25" s="9"/>
-      <c r="K25" s="49" t="s">
+      <c r="K25" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="49" t="s">
+      <c r="L25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="49" t="s">
+      <c r="M25" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="49" t="s">
+      <c r="N25" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="49" t="s">
+      <c r="O25" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="P25" s="49" t="s">
+      <c r="P25" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="Q25" s="49" t="s">
+      <c r="Q25" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R25" s="49" t="s">
+      <c r="R25" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="S25" s="49" t="s">
+      <c r="S25" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="T25" s="53"/>
+      <c r="T25" s="52"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -3377,7 +3344,7 @@
       <c r="S26" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="T26" s="53"/>
+      <c r="T26" s="52"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3397,34 +3364,34 @@
       </c>
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="76" t="s">
+      <c r="K27" s="74" t="s">
         <v>404</v>
       </c>
-      <c r="L27" s="73" t="s">
+      <c r="L27" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="M27" s="91" t="s">
+      <c r="M27" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="N27" s="73" t="s">
+      <c r="N27" s="71" t="s">
         <v>245</v>
       </c>
       <c r="O27" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="P27" s="71" t="s">
+      <c r="P27" s="69" t="s">
         <v>254</v>
       </c>
       <c r="Q27" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="R27" s="71" t="s">
+      <c r="R27" s="69" t="s">
         <v>266</v>
       </c>
       <c r="S27" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="T27" s="53"/>
+      <c r="T27" s="52"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -3444,22 +3411,22 @@
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="65" t="s">
         <v>397</v>
       </c>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="M28" s="67" t="s">
+      <c r="M28" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="N28" s="75" t="s">
+      <c r="N28" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="O28" s="69" t="s">
+      <c r="O28" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="P28" s="72" t="s">
+      <c r="P28" s="70" t="s">
         <v>261</v>
       </c>
       <c r="Q28" s="42" t="s">
@@ -3471,7 +3438,7 @@
       <c r="S28" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="T28" s="53"/>
+      <c r="T28" s="52"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -3490,19 +3457,19 @@
         <v>9</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="67" t="s">
+      <c r="K29" s="65" t="s">
         <v>403</v>
       </c>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="M29" s="67" t="s">
+      <c r="M29" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="N29" s="75" t="s">
+      <c r="N29" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="O29" s="69" t="s">
+      <c r="O29" s="67" t="s">
         <v>257</v>
       </c>
       <c r="P29" s="14" t="s">
@@ -3517,7 +3484,7 @@
       <c r="S29" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="T29" s="53"/>
+      <c r="T29" s="52"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3536,16 +3503,16 @@
         <v>9</v>
       </c>
       <c r="J30" s="10"/>
-      <c r="K30" s="67" t="s">
+      <c r="K30" s="65" t="s">
         <v>398</v>
       </c>
-      <c r="L30" s="75" t="s">
+      <c r="L30" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="M30" s="67" t="s">
+      <c r="M30" s="65" t="s">
         <v>402</v>
       </c>
-      <c r="N30" s="75" t="s">
+      <c r="N30" s="73" t="s">
         <v>251</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3563,7 +3530,7 @@
       <c r="S30" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="T30" s="53"/>
+      <c r="T30" s="52"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3582,16 +3549,16 @@
         <v>9</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="67" t="s">
+      <c r="K31" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="L31" s="75" t="s">
+      <c r="L31" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="M31" s="67" t="s">
+      <c r="M31" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="N31" s="75" t="s">
+      <c r="N31" s="73" t="s">
         <v>252</v>
       </c>
       <c r="O31" s="42" t="s">
@@ -3607,7 +3574,7 @@
       <c r="S31" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="T31" s="53"/>
+      <c r="T31" s="52"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3626,16 +3593,16 @@
         <v>9</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="67" t="s">
+      <c r="K32" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="75" t="s">
+      <c r="L32" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="M32" s="92" t="s">
+      <c r="M32" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="N32" s="75" t="s">
+      <c r="N32" s="73" t="s">
         <v>253</v>
       </c>
       <c r="O32" s="42" t="s">
@@ -3651,7 +3618,7 @@
       <c r="S32" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="T32" s="53"/>
+      <c r="T32" s="52"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -3660,16 +3627,16 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="67" t="s">
+      <c r="K33" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="L33" s="75" t="s">
+      <c r="L33" s="73" t="s">
         <v>397</v>
       </c>
-      <c r="M33" s="67" t="s">
+      <c r="M33" s="65" t="s">
         <v>397</v>
       </c>
-      <c r="N33" s="75" t="s">
+      <c r="N33" s="73" t="s">
         <v>259</v>
       </c>
       <c r="O33" s="42"/>
@@ -3679,7 +3646,7 @@
       <c r="S33" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="T33" s="53" t="s">
+      <c r="T33" s="52" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3700,24 +3667,24 @@
         <v>10</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="74" t="s">
+      <c r="K34" s="72" t="s">
         <v>399</v>
       </c>
-      <c r="L34" s="79" t="s">
+      <c r="L34" s="75" t="s">
         <v>400</v>
       </c>
-      <c r="M34" s="74" t="s">
+      <c r="M34" s="72" t="s">
         <v>408</v>
       </c>
-      <c r="N34" s="79" t="s">
+      <c r="N34" s="75" t="s">
         <v>407</v>
       </c>
       <c r="O34" s="43"/>
       <c r="P34" s="26"/>
       <c r="Q34" s="43"/>
-      <c r="R34" s="70"/>
+      <c r="R34" s="68"/>
       <c r="S34" s="43"/>
-      <c r="T34" s="53"/>
+      <c r="T34" s="52"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -3735,7 +3702,7 @@
       <c r="E35" s="8">
         <v>10</v>
       </c>
-      <c r="J35" s="50" t="s">
+      <c r="J35" s="49" t="s">
         <v>20</v>
       </c>
       <c r="K35" s="30">
@@ -3755,7 +3722,7 @@
       <c r="Q35" s="30"/>
       <c r="R35" s="30"/>
       <c r="S35" s="30"/>
-      <c r="T35" s="54">
+      <c r="T35" s="53">
         <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
         <v>575</v>
       </c>
@@ -3776,7 +3743,7 @@
       <c r="E36" s="8">
         <v>10</v>
       </c>
-      <c r="J36" s="52" t="s">
+      <c r="J36" s="51" t="s">
         <v>21</v>
       </c>
       <c r="K36" s="33">
@@ -3796,11 +3763,11 @@
       <c r="Q36" s="33"/>
       <c r="R36" s="33"/>
       <c r="S36" s="33"/>
-      <c r="T36" s="59">
+      <c r="T36" s="58">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
         <v>530</v>
       </c>
-      <c r="U36" s="66" t="s">
+      <c r="U36" s="64" t="s">
         <v>366</v>
       </c>
     </row>
@@ -3824,7 +3791,7 @@
       <c r="K37" s="31"/>
       <c r="L37" s="31"/>
       <c r="R37" s="31"/>
-      <c r="T37" s="66">
+      <c r="T37" s="64">
         <f>T35+T36</f>
         <v>1105</v>
       </c>
@@ -3993,7 +3960,7 @@
       <c r="E45" s="8">
         <v>8</v>
       </c>
-      <c r="N45" s="55"/>
+      <c r="N45" s="54"/>
       <c r="O45" s="8"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="8"/>
@@ -5708,8 +5675,8 @@
       <c r="E133" s="8">
         <v>8</v>
       </c>
-      <c r="K133" s="55"/>
-      <c r="L133" s="55"/>
+      <c r="K133" s="54"/>
+      <c r="L133" s="54"/>
       <c r="M133" s="31"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6191,7 +6158,7 @@
       <c r="E161" s="8">
         <v>4</v>
       </c>
-      <c r="R161" s="55"/>
+      <c r="R161" s="54"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
@@ -7049,7 +7016,7 @@
       <c r="E217" s="8">
         <v>5</v>
       </c>
-      <c r="I217" s="68"/>
+      <c r="I217" s="66"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
@@ -7067,7 +7034,7 @@
       <c r="E218" s="8">
         <v>5</v>
       </c>
-      <c r="I218" s="68"/>
+      <c r="I218" s="66"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
@@ -7075,7 +7042,7 @@
       <c r="C219" s="7"/>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
-      <c r="I219" s="68"/>
+      <c r="I219" s="66"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="24" t="s">
@@ -7093,7 +7060,7 @@
       <c r="E220" s="8">
         <v>5</v>
       </c>
-      <c r="I220" s="68"/>
+      <c r="I220" s="66"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="24" t="s">
@@ -7111,7 +7078,7 @@
       <c r="E221" s="8">
         <v>5</v>
       </c>
-      <c r="I221" s="68"/>
+      <c r="I221" s="66"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="24" t="s">
@@ -7129,7 +7096,7 @@
       <c r="E222" s="8">
         <v>5</v>
       </c>
-      <c r="I222" s="68"/>
+      <c r="I222" s="66"/>
       <c r="J222" s="31"/>
       <c r="K222" s="31"/>
       <c r="L222" s="31"/>
@@ -7150,7 +7117,7 @@
       <c r="E223" s="8">
         <v>5</v>
       </c>
-      <c r="I223" s="68"/>
+      <c r="I223" s="66"/>
       <c r="J223" s="31"/>
       <c r="K223" s="31"/>
       <c r="L223" s="31"/>
@@ -7161,7 +7128,7 @@
       <c r="C224" s="7"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
-      <c r="I224" s="68"/>
+      <c r="I224" s="66"/>
       <c r="J224" s="31"/>
       <c r="K224" s="31"/>
       <c r="L224" s="31"/>
@@ -7182,7 +7149,7 @@
       <c r="E225" s="8">
         <v>5</v>
       </c>
-      <c r="I225" s="68"/>
+      <c r="I225" s="66"/>
       <c r="J225" s="31"/>
       <c r="K225" s="31"/>
       <c r="L225" s="31"/>
@@ -7203,7 +7170,7 @@
       <c r="E226" s="8">
         <v>5</v>
       </c>
-      <c r="I226" s="68"/>
+      <c r="I226" s="66"/>
       <c r="J226" s="31"/>
       <c r="K226" s="31"/>
       <c r="L226" s="31"/>
@@ -7225,7 +7192,7 @@
       <c r="E227" s="8">
         <v>5</v>
       </c>
-      <c r="I227" s="68"/>
+      <c r="I227" s="66"/>
       <c r="J227" s="31"/>
       <c r="K227" s="31"/>
       <c r="L227" s="31"/>
@@ -7247,7 +7214,7 @@
       <c r="E228" s="8">
         <v>5</v>
       </c>
-      <c r="I228" s="68"/>
+      <c r="I228" s="66"/>
       <c r="J228" s="31"/>
       <c r="K228" s="31"/>
       <c r="L228" s="31"/>
@@ -7259,7 +7226,7 @@
       <c r="C229" s="7"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
-      <c r="I229" s="68"/>
+      <c r="I229" s="66"/>
       <c r="J229" s="31"/>
       <c r="K229" s="31"/>
       <c r="L229" s="31"/>
@@ -7281,8 +7248,8 @@
       <c r="E230" s="8">
         <v>6</v>
       </c>
-      <c r="I230" s="68"/>
-      <c r="J230" s="55"/>
+      <c r="I230" s="66"/>
+      <c r="J230" s="54"/>
       <c r="K230" s="31"/>
       <c r="L230" s="31"/>
       <c r="S230" s="31"/>
@@ -7303,7 +7270,7 @@
       <c r="E231" s="8">
         <v>6</v>
       </c>
-      <c r="I231" s="68"/>
+      <c r="I231" s="66"/>
       <c r="J231" s="31"/>
       <c r="K231" s="31"/>
       <c r="L231" s="31"/>
@@ -7325,7 +7292,7 @@
       <c r="E232" s="8">
         <v>6</v>
       </c>
-      <c r="I232" s="68"/>
+      <c r="I232" s="66"/>
       <c r="J232" s="31"/>
       <c r="K232" s="31"/>
       <c r="L232" s="31"/>
@@ -7347,7 +7314,7 @@
       <c r="E233" s="8">
         <v>6</v>
       </c>
-      <c r="I233" s="68"/>
+      <c r="I233" s="66"/>
       <c r="J233" s="14"/>
       <c r="K233" s="31"/>
       <c r="L233" s="31"/>
@@ -7359,7 +7326,7 @@
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
-      <c r="I234" s="68"/>
+      <c r="I234" s="66"/>
       <c r="J234" s="14"/>
       <c r="K234" s="31"/>
       <c r="L234" s="31"/>
@@ -7381,7 +7348,7 @@
       <c r="E235" s="8">
         <v>6</v>
       </c>
-      <c r="I235" s="68"/>
+      <c r="I235" s="66"/>
       <c r="J235" s="14"/>
       <c r="K235" s="31"/>
       <c r="L235" s="31"/>
@@ -7403,7 +7370,7 @@
       <c r="E236" s="8">
         <v>6</v>
       </c>
-      <c r="I236" s="68"/>
+      <c r="I236" s="66"/>
       <c r="J236" s="14"/>
       <c r="K236" s="31"/>
       <c r="L236" s="31"/>
@@ -7425,7 +7392,7 @@
       <c r="E237" s="8">
         <v>6</v>
       </c>
-      <c r="I237" s="68"/>
+      <c r="I237" s="66"/>
       <c r="J237" s="14"/>
       <c r="K237" s="31"/>
       <c r="L237" s="31"/>
@@ -7447,7 +7414,7 @@
       <c r="E238" s="8">
         <v>6</v>
       </c>
-      <c r="I238" s="68"/>
+      <c r="I238" s="66"/>
       <c r="J238" s="31"/>
       <c r="K238" s="31"/>
       <c r="L238" s="31"/>
@@ -7520,7 +7487,7 @@
       <c r="E242" s="17">
         <v>6</v>
       </c>
-      <c r="J242" s="56"/>
+      <c r="J242" s="55"/>
       <c r="K242" s="31"/>
       <c r="L242" s="31"/>
     </row>
@@ -12695,19 +12662,19 @@
       <c r="H586" s="4"/>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="88" t="s">
+      <c r="A587" s="77" t="s">
         <v>53</v>
       </c>
       <c r="B587" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C587" s="89" t="s">
+      <c r="C587" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D587" s="90">
+      <c r="D587" s="79">
         <v>20</v>
       </c>
-      <c r="E587" s="90">
+      <c r="E587" s="79">
         <v>7</v>
       </c>
       <c r="H587" s="4"/>
@@ -13393,19 +13360,19 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="88" t="s">
+      <c r="A631" s="77" t="s">
         <v>81</v>
       </c>
       <c r="B631" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C631" s="89" t="s">
+      <c r="C631" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D631" s="90">
+      <c r="D631" s="79">
         <v>60</v>
       </c>
-      <c r="E631" s="90">
+      <c r="E631" s="79">
         <v>9</v>
       </c>
     </row>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="410">
   <si>
     <t>ID Code</t>
   </si>
@@ -1244,6 +1244,9 @@
   </si>
   <si>
     <t>Items_LootPackage (30)</t>
+  </si>
+  <si>
+    <t>Items_LootPackage (10)</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1769,9 +1772,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1781,16 +1781,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1815,6 +1809,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2134,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,13 +2302,13 @@
         <v>228</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="80" t="s">
         <v>290</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="80" t="s">
         <v>391</v>
       </c>
       <c r="N3" s="61" t="s">
@@ -2362,19 +2359,19 @@
         <v>229</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="73" t="s">
         <v>295</v>
       </c>
       <c r="N4" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="71" t="s">
         <v>322</v>
       </c>
       <c r="P4" s="40" t="s">
@@ -2419,7 +2416,7 @@
         <v>233</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="73" t="s">
         <v>284</v>
       </c>
       <c r="L5" s="56" t="s">
@@ -2476,10 +2473,10 @@
         <v>223</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="79" t="s">
         <v>289</v>
       </c>
-      <c r="L6" s="76" t="s">
+      <c r="L6" s="73" t="s">
         <v>293</v>
       </c>
       <c r="M6" s="13" t="s">
@@ -2533,7 +2530,7 @@
         <v>224</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="76" t="s">
+      <c r="K7" s="73" t="s">
         <v>286</v>
       </c>
       <c r="L7" s="56" t="s">
@@ -2590,10 +2587,10 @@
         <v>230</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="L8" s="76" t="s">
+      <c r="L8" s="73" t="s">
         <v>387</v>
       </c>
       <c r="M8" s="13" t="s">
@@ -2635,10 +2632,10 @@
         <v>225</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="76" t="s">
+      <c r="K9" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="L9" s="76" t="s">
+      <c r="L9" s="73" t="s">
         <v>389</v>
       </c>
       <c r="M9" s="13" t="s">
@@ -2690,10 +2687,10 @@
         <v>226</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="L10" s="76" t="s">
+      <c r="L10" s="73" t="s">
         <v>390</v>
       </c>
       <c r="M10" s="13" t="s">
@@ -2744,10 +2741,10 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="76" t="s">
+      <c r="L11" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="M11" s="79" t="s">
         <v>301</v>
       </c>
       <c r="N11" s="42" t="s">
@@ -2797,7 +2794,7 @@
       <c r="L12" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="M12" s="76" t="s">
+      <c r="M12" s="73" t="s">
         <v>302</v>
       </c>
       <c r="N12" s="46" t="s">
@@ -2844,10 +2841,10 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="56"/>
-      <c r="L13" s="76" t="s">
+      <c r="L13" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="M13" s="76" t="s">
+      <c r="M13" s="73" t="s">
         <v>303</v>
       </c>
       <c r="N13" s="42" t="s">
@@ -2943,7 +2940,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
-      <c r="M15" s="76" t="s">
+      <c r="M15" s="73" t="s">
         <v>353</v>
       </c>
       <c r="N15" s="40" t="s">
@@ -3364,28 +3361,28 @@
       </c>
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="74" t="s">
+      <c r="K27" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="L27" s="71" t="s">
+      <c r="L27" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="M27" s="80" t="s">
+      <c r="M27" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="N27" s="71" t="s">
+      <c r="N27" s="70" t="s">
         <v>245</v>
       </c>
       <c r="O27" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="P27" s="69" t="s">
+      <c r="P27" s="68" t="s">
         <v>254</v>
       </c>
       <c r="Q27" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="R27" s="69" t="s">
+      <c r="R27" s="68" t="s">
         <v>266</v>
       </c>
       <c r="S27" s="44" t="s">
@@ -3414,19 +3411,19 @@
       <c r="K28" s="65" t="s">
         <v>397</v>
       </c>
-      <c r="L28" s="73" t="s">
+      <c r="L28" s="71" t="s">
         <v>238</v>
       </c>
       <c r="M28" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="N28" s="73" t="s">
+      <c r="N28" s="71" t="s">
         <v>248</v>
       </c>
       <c r="O28" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="P28" s="70" t="s">
+      <c r="P28" s="69" t="s">
         <v>261</v>
       </c>
       <c r="Q28" s="42" t="s">
@@ -3460,13 +3457,13 @@
       <c r="K29" s="65" t="s">
         <v>403</v>
       </c>
-      <c r="L29" s="73" t="s">
+      <c r="L29" s="71" t="s">
         <v>239</v>
       </c>
       <c r="M29" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="N29" s="73" t="s">
+      <c r="N29" s="71" t="s">
         <v>249</v>
       </c>
       <c r="O29" s="67" t="s">
@@ -3506,13 +3503,13 @@
       <c r="K30" s="65" t="s">
         <v>398</v>
       </c>
-      <c r="L30" s="73" t="s">
+      <c r="L30" s="71" t="s">
         <v>240</v>
       </c>
       <c r="M30" s="65" t="s">
         <v>402</v>
       </c>
-      <c r="N30" s="73" t="s">
+      <c r="N30" s="71" t="s">
         <v>251</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3552,16 +3549,16 @@
       <c r="K31" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="L31" s="73" t="s">
+      <c r="L31" s="71" t="s">
         <v>242</v>
       </c>
       <c r="M31" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="N31" s="73" t="s">
-        <v>252</v>
-      </c>
-      <c r="O31" s="42" t="s">
+      <c r="N31" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="O31" s="65" t="s">
         <v>255</v>
       </c>
       <c r="P31" s="15" t="s">
@@ -3596,14 +3593,14 @@
       <c r="K32" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="73" t="s">
+      <c r="L32" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="M32" s="81" t="s">
+      <c r="M32" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="N32" s="73" t="s">
-        <v>253</v>
+      <c r="N32" s="71" t="s">
+        <v>252</v>
       </c>
       <c r="O32" s="42" t="s">
         <v>397</v>
@@ -3630,14 +3627,14 @@
       <c r="K33" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="L33" s="73" t="s">
+      <c r="L33" s="71" t="s">
         <v>397</v>
       </c>
       <c r="M33" s="65" t="s">
         <v>397</v>
       </c>
-      <c r="N33" s="73" t="s">
-        <v>259</v>
+      <c r="N33" s="71" t="s">
+        <v>253</v>
       </c>
       <c r="O33" s="42"/>
       <c r="P33" s="15"/>
@@ -3646,11 +3643,8 @@
       <c r="S33" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="T33" s="52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>96</v>
       </c>
@@ -3667,24 +3661,23 @@
         <v>10</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="72" t="s">
+      <c r="K34" s="65" t="s">
         <v>399</v>
       </c>
-      <c r="L34" s="75" t="s">
+      <c r="L34" s="71" t="s">
         <v>400</v>
       </c>
-      <c r="M34" s="72" t="s">
+      <c r="M34" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="N34" s="75" t="s">
-        <v>407</v>
-      </c>
-      <c r="O34" s="43"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="52"/>
+      <c r="N34" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="O34" s="42"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="42"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -3702,29 +3695,19 @@
       <c r="E35" s="8">
         <v>10</v>
       </c>
-      <c r="J35" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="30">
-        <v>205</v>
-      </c>
-      <c r="L35" s="30">
-        <v>140</v>
-      </c>
-      <c r="M35" s="30">
-        <v>100</v>
-      </c>
-      <c r="N35" s="30">
-        <v>130</v>
-      </c>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="53">
-        <f>K35+L35+M35+N35+O35+P35+Q35+R35+S35</f>
-        <v>575</v>
+      <c r="K35" s="45"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="O35" s="43"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="52" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3743,32 +3726,29 @@
       <c r="E36" s="8">
         <v>10</v>
       </c>
-      <c r="J36" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="33">
-        <v>110</v>
-      </c>
-      <c r="L36" s="33">
-        <v>145</v>
-      </c>
-      <c r="M36" s="33">
-        <v>105</v>
-      </c>
-      <c r="N36" s="33">
-        <v>170</v>
-      </c>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="58">
+      <c r="J36" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="27">
+        <v>205</v>
+      </c>
+      <c r="L36" s="27">
+        <v>140</v>
+      </c>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27">
+        <v>140</v>
+      </c>
+      <c r="O36" s="27">
+        <v>20</v>
+      </c>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="53">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
-        <v>530</v>
-      </c>
-      <c r="U36" s="64" t="s">
-        <v>366</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3787,16 +3767,33 @@
       <c r="E37" s="8">
         <v>10</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="T37" s="64">
-        <f>T35+T36</f>
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J37" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="33">
+        <v>110</v>
+      </c>
+      <c r="L37" s="33">
+        <v>145</v>
+      </c>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33">
+        <v>170</v>
+      </c>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="58">
+        <f>K37+L37+M37+N37+O37+P37+Q37+R37+S37</f>
+        <v>425</v>
+      </c>
+      <c r="U37" s="64" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>96</v>
       </c>
@@ -3812,10 +3809,13 @@
       <c r="E38" s="8">
         <v>10</v>
       </c>
-      <c r="O38" s="8"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="8"/>
-      <c r="T38" s="4"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="T38" s="64">
+        <f>T36+T37</f>
+        <v>930</v>
+      </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -3835,9 +3835,7 @@
       </c>
       <c r="O39" s="8"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
+      <c r="Q39" s="8"/>
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3857,7 +3855,7 @@
         <v>10</v>
       </c>
       <c r="O40" s="8"/>
-      <c r="P40" s="7"/>
+      <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
@@ -3870,8 +3868,9 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="10"/>
+      <c r="P41" s="7"/>
       <c r="Q41" s="10"/>
+      <c r="R41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="4"/>
     </row>
@@ -3892,9 +3891,8 @@
         <v>8</v>
       </c>
       <c r="O42" s="8"/>
-      <c r="P42" s="7"/>
+      <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
-      <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="4"/>
     </row>
@@ -3915,10 +3913,10 @@
         <v>8</v>
       </c>
       <c r="O43" s="8"/>
-      <c r="P43" s="10"/>
+      <c r="P43" s="7"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="8"/>
-      <c r="S43" s="17"/>
+      <c r="S43" s="8"/>
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -3937,8 +3935,8 @@
       <c r="E44" s="8">
         <v>8</v>
       </c>
-      <c r="N44" s="31"/>
       <c r="O44" s="8"/>
+      <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="8"/>
       <c r="S44" s="17"/>
@@ -3960,7 +3958,7 @@
       <c r="E45" s="8">
         <v>8</v>
       </c>
-      <c r="N45" s="54"/>
+      <c r="N45" s="31"/>
       <c r="O45" s="8"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="8"/>
@@ -3983,7 +3981,7 @@
       <c r="E46" s="8">
         <v>8</v>
       </c>
-      <c r="N46" s="31"/>
+      <c r="N46" s="54"/>
       <c r="O46" s="8"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="8"/>
@@ -4008,7 +4006,7 @@
       </c>
       <c r="N47" s="31"/>
       <c r="O47" s="8"/>
-      <c r="Q47" s="7"/>
+      <c r="Q47" s="10"/>
       <c r="R47" s="8"/>
       <c r="S47" s="17"/>
       <c r="T47" s="4"/>
@@ -4029,7 +4027,7 @@
       <c r="E48" s="8">
         <v>8</v>
       </c>
-      <c r="N48" s="15"/>
+      <c r="N48" s="31"/>
       <c r="O48" s="8"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="8"/>
@@ -4042,7 +4040,7 @@
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="N49" s="14"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="8"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="8"/>
@@ -4066,6 +4064,7 @@
         <v>7</v>
       </c>
       <c r="N50" s="14"/>
+      <c r="O50" s="8"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="8"/>
       <c r="S50" s="17"/>
@@ -4088,7 +4087,7 @@
         <v>7</v>
       </c>
       <c r="N51" s="14"/>
-      <c r="Q51" s="10"/>
+      <c r="Q51" s="7"/>
       <c r="R51" s="8"/>
       <c r="S51" s="17"/>
       <c r="T51" s="4"/>
@@ -4153,7 +4152,7 @@
       <c r="E54" s="8">
         <v>7</v>
       </c>
-      <c r="N54" s="15"/>
+      <c r="N54" s="14"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="8"/>
       <c r="S54" s="17"/>
@@ -4175,7 +4174,7 @@
       <c r="E55" s="8">
         <v>7</v>
       </c>
-      <c r="N55" s="31"/>
+      <c r="N55" s="15"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="8"/>
       <c r="S55" s="17"/>
@@ -4208,7 +4207,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="N57" s="15"/>
+      <c r="N57" s="31"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="8"/>
       <c r="S57" s="17"/>
@@ -4252,7 +4251,7 @@
       <c r="E59" s="8">
         <v>10</v>
       </c>
-      <c r="N59" s="7"/>
+      <c r="N59" s="15"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="8"/>
       <c r="S59" s="17"/>
@@ -4274,6 +4273,7 @@
       <c r="E60" s="8">
         <v>10</v>
       </c>
+      <c r="N60" s="7"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="8"/>
       <c r="S60" s="17"/>
@@ -4337,7 +4337,7 @@
       <c r="E63" s="8">
         <v>10</v>
       </c>
-      <c r="Q63" s="7"/>
+      <c r="Q63" s="10"/>
       <c r="R63" s="8"/>
       <c r="S63" s="17"/>
       <c r="T63" s="4"/>
@@ -4411,7 +4411,7 @@
       <c r="E67" s="8">
         <v>10</v>
       </c>
-      <c r="Q67" s="10"/>
+      <c r="Q67" s="7"/>
       <c r="R67" s="8"/>
       <c r="S67" s="17"/>
       <c r="T67" s="4"/>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="Q83" s="10"/>
       <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
+      <c r="S83" s="17"/>
       <c r="T83" s="4"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -4970,7 +4970,7 @@
       <c r="E95" s="8">
         <v>7</v>
       </c>
-      <c r="Q95" s="7"/>
+      <c r="Q95" s="10"/>
       <c r="R95" s="8"/>
       <c r="S95" s="8"/>
       <c r="T95" s="4"/>
@@ -5054,7 +5054,7 @@
       <c r="E99" s="8">
         <v>7</v>
       </c>
-      <c r="Q99" s="10"/>
+      <c r="Q99" s="7"/>
       <c r="R99" s="8"/>
       <c r="S99" s="8"/>
       <c r="T99" s="4"/>
@@ -5128,7 +5128,7 @@
       <c r="E103" s="8">
         <v>6</v>
       </c>
-      <c r="Q103" s="7"/>
+      <c r="Q103" s="10"/>
       <c r="R103" s="8"/>
       <c r="S103" s="8"/>
       <c r="T103" s="4"/>
@@ -5212,6 +5212,8 @@
       <c r="E107" s="8">
         <v>6</v>
       </c>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="8"/>
       <c r="S107" s="8"/>
       <c r="T107" s="4"/>
     </row>
@@ -5420,6 +5422,7 @@
       <c r="E119" s="8">
         <v>10</v>
       </c>
+      <c r="S119" s="8"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
@@ -5505,9 +5508,6 @@
       <c r="E124" s="8">
         <v>10</v>
       </c>
-      <c r="K124" s="31"/>
-      <c r="L124" s="31"/>
-      <c r="M124" s="31"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
@@ -5675,8 +5675,8 @@
       <c r="E133" s="8">
         <v>8</v>
       </c>
-      <c r="K133" s="54"/>
-      <c r="L133" s="54"/>
+      <c r="K133" s="31"/>
+      <c r="L133" s="31"/>
       <c r="M133" s="31"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -5696,8 +5696,8 @@
         <v>8</v>
       </c>
       <c r="I134" s="14"/>
-      <c r="K134" s="31"/>
-      <c r="L134" s="31"/>
+      <c r="K134" s="54"/>
+      <c r="L134" s="54"/>
       <c r="M134" s="31"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -5728,8 +5728,8 @@
         <v>10</v>
       </c>
       <c r="I136" s="15"/>
-      <c r="K136" s="14"/>
-      <c r="L136" s="14"/>
+      <c r="K136" s="31"/>
+      <c r="L136" s="31"/>
       <c r="M136" s="31"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -5808,8 +5808,8 @@
       <c r="E140" s="8">
         <v>10</v>
       </c>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
       <c r="M140" s="31"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -5868,8 +5868,8 @@
       <c r="E143" s="8">
         <v>10</v>
       </c>
-      <c r="K143" s="31"/>
-      <c r="L143" s="31"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
       <c r="M143" s="31"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -5898,8 +5898,8 @@
       <c r="E145" s="8">
         <v>9</v>
       </c>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
+      <c r="K145" s="31"/>
+      <c r="L145" s="31"/>
       <c r="M145" s="31"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
@@ -5958,8 +5958,8 @@
       <c r="E148" s="8">
         <v>9</v>
       </c>
-      <c r="K148" s="31"/>
-      <c r="L148" s="31"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
       <c r="M148" s="31"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
@@ -5968,6 +5968,9 @@
       <c r="C149" s="7"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
+      <c r="K149" s="31"/>
+      <c r="L149" s="31"/>
+      <c r="M149" s="31"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
@@ -6060,7 +6063,6 @@
       <c r="E155" s="8">
         <v>8</v>
       </c>
-      <c r="R155" s="31"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
@@ -6158,7 +6160,7 @@
       <c r="E161" s="8">
         <v>4</v>
       </c>
-      <c r="R161" s="54"/>
+      <c r="R161" s="31"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
@@ -6176,7 +6178,7 @@
       <c r="E162" s="8">
         <v>4</v>
       </c>
-      <c r="R162" s="31"/>
+      <c r="R162" s="54"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
@@ -6202,7 +6204,7 @@
       <c r="C164" s="7"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
-      <c r="R164" s="14"/>
+      <c r="R164" s="31"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
@@ -6238,7 +6240,7 @@
       <c r="E166" s="8">
         <v>8</v>
       </c>
-      <c r="R166" s="15"/>
+      <c r="R166" s="14"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
@@ -6256,7 +6258,7 @@
       <c r="E167" s="8">
         <v>8</v>
       </c>
-      <c r="R167" s="14"/>
+      <c r="R167" s="15"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
@@ -6318,7 +6320,7 @@
       <c r="E171" s="8">
         <v>5</v>
       </c>
-      <c r="R171" s="31"/>
+      <c r="R171" s="14"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="24" t="s">
@@ -6354,7 +6356,7 @@
       <c r="E173" s="8">
         <v>5</v>
       </c>
-      <c r="R173" s="14"/>
+      <c r="R173" s="31"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="24"/>
@@ -6362,7 +6364,7 @@
       <c r="C174" s="7"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
-      <c r="R174" s="7"/>
+      <c r="R174" s="14"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
@@ -6398,6 +6400,7 @@
       <c r="E176" s="8">
         <v>7</v>
       </c>
+      <c r="R176" s="7"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
@@ -7098,8 +7101,6 @@
       </c>
       <c r="I222" s="66"/>
       <c r="J222" s="31"/>
-      <c r="K222" s="31"/>
-      <c r="L222" s="31"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="24" t="s">
@@ -7174,7 +7175,6 @@
       <c r="J226" s="31"/>
       <c r="K226" s="31"/>
       <c r="L226" s="31"/>
-      <c r="S226" s="31"/>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
@@ -7490,6 +7490,7 @@
       <c r="J242" s="55"/>
       <c r="K242" s="31"/>
       <c r="L242" s="31"/>
+      <c r="S242" s="31"/>
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
@@ -7516,6 +7517,8 @@
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
       <c r="J244" s="36"/>
+      <c r="K244" s="31"/>
+      <c r="L244" s="31"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="24" t="s">
@@ -12662,19 +12665,19 @@
       <c r="H586" s="4"/>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="77" t="s">
+      <c r="A587" s="74" t="s">
         <v>53</v>
       </c>
       <c r="B587" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C587" s="78" t="s">
+      <c r="C587" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="D587" s="79">
+      <c r="D587" s="76">
         <v>20</v>
       </c>
-      <c r="E587" s="79">
+      <c r="E587" s="76">
         <v>7</v>
       </c>
       <c r="H587" s="4"/>
@@ -13360,19 +13363,19 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="77" t="s">
+      <c r="A631" s="74" t="s">
         <v>81</v>
       </c>
       <c r="B631" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C631" s="78" t="s">
+      <c r="C631" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="D631" s="79">
+      <c r="D631" s="76">
         <v>60</v>
       </c>
-      <c r="E631" s="79">
+      <c r="E631" s="76">
         <v>9</v>
       </c>
     </row>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1225,9 +1225,6 @@
     <t>Enemy_AbstractEnemy (10)</t>
   </si>
   <si>
-    <t>Weapons_AbstractGrenades (10)</t>
-  </si>
-  <si>
     <t>Weapons_WeaponManager (70)</t>
   </si>
   <si>
@@ -1247,6 +1244,9 @@
   </si>
   <si>
     <t>Items_LootPackage (10)</t>
+  </si>
+  <si>
+    <t>Weapons_AbstractGrenades (30)</t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1768,9 +1768,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2131,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,13 +2299,13 @@
         <v>228</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="79" t="s">
         <v>391</v>
       </c>
       <c r="N3" s="61" t="s">
@@ -2359,19 +2356,19 @@
         <v>229</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="72" t="s">
         <v>295</v>
       </c>
       <c r="N4" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>322</v>
       </c>
       <c r="P4" s="40" t="s">
@@ -2416,7 +2413,7 @@
         <v>233</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="72" t="s">
         <v>284</v>
       </c>
       <c r="L5" s="56" t="s">
@@ -2473,10 +2470,10 @@
         <v>223</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="L6" s="73" t="s">
+      <c r="L6" s="72" t="s">
         <v>293</v>
       </c>
       <c r="M6" s="13" t="s">
@@ -2530,7 +2527,7 @@
         <v>224</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="73" t="s">
+      <c r="K7" s="72" t="s">
         <v>286</v>
       </c>
       <c r="L7" s="56" t="s">
@@ -2587,10 +2584,10 @@
         <v>230</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="73" t="s">
+      <c r="K8" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="L8" s="73" t="s">
+      <c r="L8" s="72" t="s">
         <v>387</v>
       </c>
       <c r="M8" s="13" t="s">
@@ -2632,10 +2629,10 @@
         <v>225</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="L9" s="73" t="s">
+      <c r="L9" s="72" t="s">
         <v>389</v>
       </c>
       <c r="M9" s="13" t="s">
@@ -2687,10 +2684,10 @@
         <v>226</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="L10" s="73" t="s">
+      <c r="L10" s="72" t="s">
         <v>390</v>
       </c>
       <c r="M10" s="13" t="s">
@@ -2741,10 +2738,10 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="M11" s="79" t="s">
+      <c r="M11" s="78" t="s">
         <v>301</v>
       </c>
       <c r="N11" s="42" t="s">
@@ -2794,7 +2791,7 @@
       <c r="L12" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="M12" s="73" t="s">
+      <c r="M12" s="72" t="s">
         <v>302</v>
       </c>
       <c r="N12" s="46" t="s">
@@ -2841,10 +2838,10 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="56"/>
-      <c r="L13" s="73" t="s">
+      <c r="L13" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="M13" s="73" t="s">
+      <c r="M13" s="72" t="s">
         <v>303</v>
       </c>
       <c r="N13" s="42" t="s">
@@ -2940,7 +2937,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
-      <c r="M15" s="73" t="s">
+      <c r="M15" s="72" t="s">
         <v>353</v>
       </c>
       <c r="N15" s="40" t="s">
@@ -3154,7 +3151,7 @@
         <v>221</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J21" s="50" t="s">
         <v>17</v>
@@ -3361,28 +3358,28 @@
       </c>
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="72" t="s">
-        <v>404</v>
-      </c>
-      <c r="L27" s="70" t="s">
+      <c r="K27" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="L27" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="M27" s="77" t="s">
+      <c r="M27" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="N27" s="70" t="s">
+      <c r="N27" s="69" t="s">
         <v>245</v>
       </c>
       <c r="O27" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="P27" s="68" t="s">
+      <c r="P27" s="67" t="s">
         <v>254</v>
       </c>
       <c r="Q27" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="R27" s="68" t="s">
+      <c r="R27" s="67" t="s">
         <v>266</v>
       </c>
       <c r="S27" s="44" t="s">
@@ -3411,19 +3408,19 @@
       <c r="K28" s="65" t="s">
         <v>397</v>
       </c>
-      <c r="L28" s="71" t="s">
+      <c r="L28" s="70" t="s">
         <v>238</v>
       </c>
       <c r="M28" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="N28" s="71" t="s">
+      <c r="N28" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="O28" s="67" t="s">
+      <c r="O28" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="P28" s="69" t="s">
+      <c r="P28" s="68" t="s">
         <v>261</v>
       </c>
       <c r="Q28" s="42" t="s">
@@ -3455,18 +3452,18 @@
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="65" t="s">
-        <v>403</v>
-      </c>
-      <c r="L29" s="71" t="s">
+        <v>402</v>
+      </c>
+      <c r="L29" s="70" t="s">
         <v>239</v>
       </c>
       <c r="M29" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="N29" s="71" t="s">
+      <c r="N29" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="O29" s="67" t="s">
+      <c r="O29" s="46" t="s">
         <v>257</v>
       </c>
       <c r="P29" s="14" t="s">
@@ -3503,13 +3500,13 @@
       <c r="K30" s="65" t="s">
         <v>398</v>
       </c>
-      <c r="L30" s="71" t="s">
+      <c r="L30" s="70" t="s">
         <v>240</v>
       </c>
       <c r="M30" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="N30" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="N30" s="70" t="s">
         <v>251</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3549,14 +3546,14 @@
       <c r="K31" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="L31" s="71" t="s">
+      <c r="L31" s="70" t="s">
         <v>242</v>
       </c>
       <c r="M31" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="N31" s="81" t="s">
-        <v>409</v>
+      <c r="N31" s="80" t="s">
+        <v>408</v>
       </c>
       <c r="O31" s="65" t="s">
         <v>255</v>
@@ -3593,13 +3590,13 @@
       <c r="K32" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="71" t="s">
+      <c r="L32" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="M32" s="78" t="s">
+      <c r="M32" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="N32" s="71" t="s">
+      <c r="N32" s="70" t="s">
         <v>252</v>
       </c>
       <c r="O32" s="42" t="s">
@@ -3627,13 +3624,13 @@
       <c r="K33" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="L33" s="71" t="s">
+      <c r="L33" s="70" t="s">
         <v>397</v>
       </c>
       <c r="M33" s="65" t="s">
         <v>397</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="70" t="s">
         <v>253</v>
       </c>
       <c r="O33" s="42"/>
@@ -3664,13 +3661,13 @@
       <c r="K34" s="65" t="s">
         <v>399</v>
       </c>
-      <c r="L34" s="71" t="s">
+      <c r="L34" s="70" t="s">
         <v>400</v>
       </c>
       <c r="M34" s="65" t="s">
-        <v>408</v>
-      </c>
-      <c r="N34" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="N34" s="70" t="s">
         <v>259</v>
       </c>
       <c r="O34" s="42"/>
@@ -3698,8 +3695,8 @@
       <c r="K35" s="45"/>
       <c r="L35" s="14"/>
       <c r="M35" s="45"/>
-      <c r="N35" s="71" t="s">
-        <v>407</v>
+      <c r="N35" s="70" t="s">
+        <v>406</v>
       </c>
       <c r="O35" s="43"/>
       <c r="P35" s="15"/>
@@ -3735,7 +3732,9 @@
       <c r="L36" s="27">
         <v>140</v>
       </c>
-      <c r="M36" s="27"/>
+      <c r="M36" s="27">
+        <v>100</v>
+      </c>
       <c r="N36" s="27">
         <v>140</v>
       </c>
@@ -3748,7 +3747,7 @@
       <c r="S36" s="27"/>
       <c r="T36" s="53">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
-        <v>505</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3776,7 +3775,9 @@
       <c r="L37" s="33">
         <v>145</v>
       </c>
-      <c r="M37" s="33"/>
+      <c r="M37" s="33">
+        <v>105</v>
+      </c>
       <c r="N37" s="33">
         <v>170</v>
       </c>
@@ -3787,7 +3788,7 @@
       <c r="S37" s="33"/>
       <c r="T37" s="58">
         <f>K37+L37+M37+N37+O37+P37+Q37+R37+S37</f>
-        <v>425</v>
+        <v>530</v>
       </c>
       <c r="U37" s="64" t="s">
         <v>366</v>
@@ -3814,7 +3815,7 @@
       <c r="R38" s="31"/>
       <c r="T38" s="64">
         <f>T36+T37</f>
-        <v>930</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -12665,19 +12666,19 @@
       <c r="H586" s="4"/>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="74" t="s">
+      <c r="A587" s="73" t="s">
         <v>53</v>
       </c>
       <c r="B587" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C587" s="75" t="s">
+      <c r="C587" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D587" s="76">
+      <c r="D587" s="75">
         <v>20</v>
       </c>
-      <c r="E587" s="76">
+      <c r="E587" s="75">
         <v>7</v>
       </c>
       <c r="H587" s="4"/>
@@ -13363,19 +13364,19 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="74" t="s">
+      <c r="A631" s="73" t="s">
         <v>81</v>
       </c>
       <c r="B631" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C631" s="75" t="s">
+      <c r="C631" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D631" s="76">
+      <c r="D631" s="75">
         <v>60</v>
       </c>
-      <c r="E631" s="76">
+      <c r="E631" s="75">
         <v>9</v>
       </c>
     </row>
@@ -13483,7 +13484,7 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B638" s="23" t="s">
         <v>11</v>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="409">
   <si>
     <t>ID Code</t>
   </si>
@@ -791,9 +791,6 @@
   </si>
   <si>
     <t>Weapons_Pistol (60)</t>
-  </si>
-  <si>
-    <t>Weapons_HarpoonGun (50)</t>
   </si>
   <si>
     <t>Weapons_StunGrenades (70)</t>
@@ -2129,7 +2126,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,31 +2297,31 @@
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L3" s="79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M3" s="79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N3" s="61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R3" s="41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S3" s="61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2357,31 +2354,31 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L4" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M4" s="72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O4" s="70" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S4" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2414,31 +2411,31 @@
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="72" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L5" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P5" s="65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R5" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S5" s="40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2471,31 +2468,31 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L6" s="72" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2528,31 +2525,31 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N7" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O7" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P7" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R7" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2585,31 +2582,31 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L8" s="72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N8" s="65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O8" s="56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R8" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2630,31 +2627,31 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L9" s="72" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N9" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O9" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R9" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S9" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2685,31 +2682,31 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L10" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R10" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S10" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2739,28 +2736,28 @@
       <c r="J11" s="1"/>
       <c r="K11" s="56"/>
       <c r="L11" s="72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M11" s="78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N11" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S11" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2784,33 +2781,33 @@
         <v>41</v>
       </c>
       <c r="I12" s="62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="56"/>
       <c r="L12" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M12" s="72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O12" s="56" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P12" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R12" s="65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S12" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2834,33 +2831,33 @@
         <v>41</v>
       </c>
       <c r="I13" s="62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="56"/>
       <c r="L13" s="72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M13" s="72" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N13" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P13" s="65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R13" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S13" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2884,31 +2881,31 @@
         <v>215</v>
       </c>
       <c r="I14" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="56"/>
       <c r="L14" s="56"/>
       <c r="M14" s="56" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N14" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O14" s="56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P14" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R14" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S14" s="40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2938,19 +2935,19 @@
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
       <c r="M15" s="72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="42"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S15" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2980,14 +2977,14 @@
       <c r="K16" s="56"/>
       <c r="L16" s="56"/>
       <c r="M16" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N16" s="42"/>
       <c r="O16" s="7"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="65" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S16" s="30"/>
     </row>
@@ -3013,7 +3010,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S17" s="30"/>
     </row>
@@ -3151,7 +3148,7 @@
         <v>221</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J21" s="50" t="s">
         <v>17</v>
@@ -3235,7 +3232,7 @@
         <v>6</v>
       </c>
       <c r="U23" s="64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3359,7 +3356,7 @@
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="71" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L27" s="69" t="s">
         <v>236</v>
@@ -3371,19 +3368,19 @@
         <v>245</v>
       </c>
       <c r="O27" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P27" s="67" t="s">
         <v>254</v>
       </c>
       <c r="Q27" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="R27" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="R27" s="67" t="s">
-        <v>266</v>
-      </c>
       <c r="S27" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T27" s="52"/>
     </row>
@@ -3406,7 +3403,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
       <c r="K28" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L28" s="70" t="s">
         <v>238</v>
@@ -3421,16 +3418,16 @@
         <v>256</v>
       </c>
       <c r="P28" s="68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q28" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S28" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T28" s="52"/>
     </row>
@@ -3452,7 +3449,7 @@
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="65" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L29" s="70" t="s">
         <v>239</v>
@@ -3467,16 +3464,16 @@
         <v>257</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S29" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T29" s="52"/>
     </row>
@@ -3498,31 +3495,31 @@
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L30" s="70" t="s">
         <v>240</v>
       </c>
       <c r="M30" s="65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N30" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="O30" s="40" t="s">
-        <v>258</v>
+      <c r="O30" s="65" t="s">
+        <v>255</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q30" s="40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S30" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T30" s="52"/>
     </row>
@@ -3550,23 +3547,23 @@
         <v>242</v>
       </c>
       <c r="M31" s="65" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N31" s="80" t="s">
-        <v>408</v>
-      </c>
-      <c r="O31" s="65" t="s">
-        <v>255</v>
+        <v>407</v>
+      </c>
+      <c r="O31" s="42" t="s">
+        <v>396</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q31" s="42"/>
       <c r="R31" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S31" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T31" s="52"/>
     </row>
@@ -3599,18 +3596,16 @@
       <c r="N32" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="O32" s="42" t="s">
-        <v>397</v>
-      </c>
+      <c r="O32" s="30"/>
       <c r="P32" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q32" s="42"/>
       <c r="R32" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S32" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T32" s="52"/>
     </row>
@@ -3622,13 +3617,13 @@
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
       <c r="K33" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="L33" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="L33" s="70" t="s">
-        <v>397</v>
-      </c>
       <c r="M33" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N33" s="70" t="s">
         <v>253</v>
@@ -3638,7 +3633,7 @@
       <c r="Q33" s="42"/>
       <c r="R33" s="14"/>
       <c r="S33" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3659,16 +3654,16 @@
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="L34" s="70" t="s">
         <v>399</v>
       </c>
-      <c r="L34" s="70" t="s">
-        <v>400</v>
-      </c>
       <c r="M34" s="65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N34" s="70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O34" s="42"/>
       <c r="P34" s="15"/>
@@ -3696,7 +3691,7 @@
       <c r="L35" s="14"/>
       <c r="M35" s="45"/>
       <c r="N35" s="70" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O35" s="43"/>
       <c r="P35" s="15"/>
@@ -3791,7 +3786,7 @@
         <v>530</v>
       </c>
       <c r="U37" s="64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12721,7 +12716,7 @@
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B590" s="23" t="s">
         <v>11</v>
@@ -13484,7 +13479,7 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B638" s="23" t="s">
         <v>11</v>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="410">
   <si>
     <t>ID Code</t>
   </si>
@@ -1244,6 +1244,9 @@
   </si>
   <si>
     <t>Weapons_AbstractGrenades (30)</t>
+  </si>
+  <si>
+    <t>Weapins_Harpoongun (50)</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1806,6 +1809,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2126,7 +2132,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,8 +3512,8 @@
       <c r="N30" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="O30" s="65" t="s">
-        <v>255</v>
+      <c r="O30" s="81" t="s">
+        <v>409</v>
       </c>
       <c r="P30" s="14" t="s">
         <v>262</v>
@@ -3552,8 +3558,8 @@
       <c r="N31" s="80" t="s">
         <v>407</v>
       </c>
-      <c r="O31" s="42" t="s">
-        <v>396</v>
+      <c r="O31" s="65" t="s">
+        <v>255</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>268</v>
@@ -3596,7 +3602,7 @@
       <c r="N32" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="O32" s="30"/>
+      <c r="O32" s="42"/>
       <c r="P32" s="15" t="s">
         <v>396</v>
       </c>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2131,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,7 +2419,7 @@
       <c r="K5" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="72" t="s">
         <v>291</v>
       </c>
       <c r="M5" s="13" t="s">
@@ -2473,7 +2473,7 @@
         <v>223</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="78" t="s">
+      <c r="K6" s="72" t="s">
         <v>288</v>
       </c>
       <c r="L6" s="72" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2132,7 +2132,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,7 +2371,7 @@
       <c r="N4" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="14" t="s">
         <v>321</v>
       </c>
       <c r="P4" s="40" t="s">
@@ -2431,7 +2431,7 @@
       <c r="O5" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="40" t="s">
         <v>330</v>
       </c>
       <c r="Q5" s="10" t="s">
@@ -2479,7 +2479,7 @@
       <c r="L6" s="72" t="s">
         <v>292</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="72" t="s">
         <v>296</v>
       </c>
       <c r="N6" s="42" t="s">
@@ -2536,7 +2536,7 @@
       <c r="L7" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="72" t="s">
         <v>297</v>
       </c>
       <c r="N7" s="42" t="s">
@@ -2596,7 +2596,7 @@
       <c r="M8" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="40" t="s">
         <v>309</v>
       </c>
       <c r="O8" s="56" t="s">
@@ -2611,7 +2611,7 @@
       <c r="R8" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="S8" s="65" t="s">
+      <c r="S8" s="40" t="s">
         <v>378</v>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       <c r="L12" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="M12" s="72" t="s">
+      <c r="M12" s="13" t="s">
         <v>301</v>
       </c>
       <c r="N12" s="46" t="s">
@@ -2809,7 +2809,7 @@
       <c r="Q12" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="R12" s="65" t="s">
+      <c r="R12" s="40" t="s">
         <v>336</v>
       </c>
       <c r="S12" s="42" t="s">
@@ -2844,7 +2844,7 @@
       <c r="L13" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="M13" s="72" t="s">
+      <c r="M13" s="13" t="s">
         <v>302</v>
       </c>
       <c r="N13" s="42" t="s">
@@ -2853,7 +2853,7 @@
       <c r="O13" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="P13" s="65" t="s">
+      <c r="P13" s="40" t="s">
         <v>335</v>
       </c>
       <c r="Q13" s="13" t="s">
@@ -2901,7 +2901,7 @@
       <c r="O14" s="56" t="s">
         <v>338</v>
       </c>
-      <c r="P14" s="65" t="s">
+      <c r="P14" s="40" t="s">
         <v>337</v>
       </c>
       <c r="Q14" s="13" t="s">
@@ -2940,7 +2940,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
-      <c r="M15" s="72" t="s">
+      <c r="M15" s="13" t="s">
         <v>352</v>
       </c>
       <c r="N15" s="40" t="s">
@@ -2949,7 +2949,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="42"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="65" t="s">
+      <c r="R15" s="40" t="s">
         <v>371</v>
       </c>
       <c r="S15" s="40" t="s">
@@ -2989,7 +2989,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="65" t="s">
+      <c r="R16" s="40" t="s">
         <v>372</v>
       </c>
       <c r="S16" s="30"/>
@@ -3015,7 +3015,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="65" t="s">
+      <c r="R17" s="40" t="s">
         <v>373</v>
       </c>
       <c r="S17" s="30"/>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1575,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1800,9 +1800,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2132,7 +2129,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,13 +2299,13 @@
         <v>228</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="L3" s="79" t="s">
+      <c r="L3" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="M3" s="79" t="s">
+      <c r="M3" s="78" t="s">
         <v>390</v>
       </c>
       <c r="N3" s="61" t="s">
@@ -2536,7 +2533,7 @@
       <c r="L7" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="13" t="s">
         <v>297</v>
       </c>
       <c r="N7" s="42" t="s">
@@ -2638,7 +2635,7 @@
       <c r="L9" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="72" t="s">
         <v>298</v>
       </c>
       <c r="N9" s="46" t="s">
@@ -2693,7 +2690,7 @@
       <c r="L10" s="72" t="s">
         <v>389</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="72" t="s">
         <v>299</v>
       </c>
       <c r="N10" s="46" t="s">
@@ -2744,7 +2741,7 @@
       <c r="L11" s="72" t="s">
         <v>391</v>
       </c>
-      <c r="M11" s="78" t="s">
+      <c r="M11" s="72" t="s">
         <v>300</v>
       </c>
       <c r="N11" s="42" t="s">
@@ -2794,7 +2791,7 @@
       <c r="L12" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="72" t="s">
         <v>301</v>
       </c>
       <c r="N12" s="46" t="s">
@@ -2844,7 +2841,7 @@
       <c r="L13" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="72" t="s">
         <v>302</v>
       </c>
       <c r="N13" s="42" t="s">
@@ -2892,7 +2889,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="56"/>
       <c r="L14" s="56"/>
-      <c r="M14" s="56" t="s">
+      <c r="M14" s="72" t="s">
         <v>306</v>
       </c>
       <c r="N14" s="42" t="s">
@@ -2940,7 +2937,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="56"/>
       <c r="L15" s="56"/>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="72" t="s">
         <v>352</v>
       </c>
       <c r="N15" s="40" t="s">
@@ -3512,7 +3509,7 @@
       <c r="N30" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="O30" s="81" t="s">
+      <c r="O30" s="80" t="s">
         <v>409</v>
       </c>
       <c r="P30" s="14" t="s">
@@ -3555,7 +3552,7 @@
       <c r="M31" s="65" t="s">
         <v>400</v>
       </c>
-      <c r="N31" s="80" t="s">
+      <c r="N31" s="79" t="s">
         <v>407</v>
       </c>
       <c r="O31" s="65" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2129,7 +2129,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,7 +2422,7 @@
       <c r="M5" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="65" t="s">
         <v>305</v>
       </c>
       <c r="O5" s="15" t="s">
@@ -2479,7 +2479,7 @@
       <c r="M6" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="65" t="s">
         <v>307</v>
       </c>
       <c r="O6" s="15" t="s">
@@ -2536,7 +2536,7 @@
       <c r="M7" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="N7" s="65" t="s">
         <v>308</v>
       </c>
       <c r="O7" s="56" t="s">
@@ -2638,7 +2638,7 @@
       <c r="M9" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="65" t="s">
         <v>310</v>
       </c>
       <c r="O9" s="56" t="s">
@@ -2693,7 +2693,7 @@
       <c r="M10" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="N10" s="46" t="s">
+      <c r="N10" s="65" t="s">
         <v>311</v>
       </c>
       <c r="O10" s="13" t="s">
@@ -2744,7 +2744,7 @@
       <c r="M11" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="65" t="s">
         <v>313</v>
       </c>
       <c r="O11" s="13" t="s">
@@ -2892,7 +2892,7 @@
       <c r="M14" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="N14" s="42" t="s">
+      <c r="N14" s="65" t="s">
         <v>319</v>
       </c>
       <c r="O14" s="56" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2129,7 +2129,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,7 +2311,7 @@
       <c r="N3" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="79" t="s">
         <v>320</v>
       </c>
       <c r="P3" s="41" t="s">
@@ -2368,7 +2368,7 @@
       <c r="N4" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="70" t="s">
         <v>321</v>
       </c>
       <c r="P4" s="40" t="s">
@@ -2641,7 +2641,7 @@
       <c r="N9" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="O9" s="56" t="s">
+      <c r="O9" s="72" t="s">
         <v>312</v>
       </c>
       <c r="P9" s="40" t="s">
@@ -2797,7 +2797,7 @@
       <c r="N12" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="O12" s="56" t="s">
+      <c r="O12" s="72" t="s">
         <v>326</v>
       </c>
       <c r="P12" s="42" t="s">
@@ -2847,7 +2847,7 @@
       <c r="N13" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="72" t="s">
         <v>327</v>
       </c>
       <c r="P13" s="40" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2128,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2314,7 @@
       <c r="O3" s="79" t="s">
         <v>320</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="71" t="s">
         <v>328</v>
       </c>
       <c r="Q3" s="10" t="s">
@@ -2428,7 +2428,7 @@
       <c r="O5" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="65" t="s">
         <v>330</v>
       </c>
       <c r="Q5" s="10" t="s">
@@ -2485,7 +2485,7 @@
       <c r="O6" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="P6" s="65" t="s">
         <v>331</v>
       </c>
       <c r="Q6" s="7" t="s">
@@ -2850,7 +2850,7 @@
       <c r="O13" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="P13" s="40" t="s">
+      <c r="P13" s="65" t="s">
         <v>335</v>
       </c>
       <c r="Q13" s="13" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1575,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1689,9 +1689,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2129,7 +2126,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,31 +2182,31 @@
       <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="47" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2235,38 +2232,38 @@
       <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="61" t="s">
         <v>227</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="60" t="s">
+      <c r="S2" s="59" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2292,38 +2289,38 @@
       <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="61" t="s">
         <v>228</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="M3" s="78" t="s">
+      <c r="M3" s="77" t="s">
         <v>390</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="O3" s="78" t="s">
         <v>320</v>
       </c>
-      <c r="P3" s="71" t="s">
+      <c r="P3" s="70" t="s">
         <v>328</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="S3" s="60" t="s">
         <v>370</v>
       </c>
     </row>
@@ -2349,26 +2346,26 @@
       <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="61" t="s">
         <v>229</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="69" t="s">
         <v>321</v>
       </c>
       <c r="P4" s="40" t="s">
@@ -2377,10 +2374,10 @@
       <c r="Q4" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="S4" s="42" t="s">
+      <c r="S4" s="41" t="s">
         <v>374</v>
       </c>
     </row>
@@ -2406,35 +2403,35 @@
       <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="61" t="s">
         <v>233</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="71" t="s">
         <v>291</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="64" t="s">
         <v>305</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="64" t="s">
         <v>330</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="41" t="s">
         <v>359</v>
       </c>
       <c r="S5" s="40" t="s">
@@ -2463,29 +2460,29 @@
       <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="61" t="s">
         <v>223</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="72" t="s">
+      <c r="K6" s="71" t="s">
         <v>288</v>
       </c>
-      <c r="L6" s="72" t="s">
+      <c r="L6" s="71" t="s">
         <v>292</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="M6" s="71" t="s">
         <v>296</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="64" t="s">
         <v>307</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="P6" s="65" t="s">
+      <c r="P6" s="64" t="s">
         <v>331</v>
       </c>
       <c r="Q6" s="7" t="s">
@@ -2520,32 +2517,32 @@
       <c r="G7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="61" t="s">
         <v>224</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="72" t="s">
+      <c r="K7" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="L7" s="55" t="s">
         <v>293</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="N7" s="64" t="s">
         <v>308</v>
       </c>
-      <c r="O7" s="56" t="s">
+      <c r="O7" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="P7" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="78" t="s">
         <v>345</v>
       </c>
       <c r="R7" s="40" t="s">
@@ -2577,17 +2574,17 @@
       <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="61" t="s">
         <v>230</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="72" t="s">
+      <c r="K8" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="L8" s="72" t="s">
+      <c r="L8" s="71" t="s">
         <v>386</v>
       </c>
       <c r="M8" s="13" t="s">
@@ -2596,13 +2593,13 @@
       <c r="N8" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="55" t="s">
         <v>315</v>
       </c>
       <c r="P8" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="78" t="s">
         <v>346</v>
       </c>
       <c r="R8" s="40" t="s">
@@ -2622,26 +2619,26 @@
       <c r="G9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="61" t="s">
         <v>225</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="M9" s="72" t="s">
+      <c r="M9" s="71" t="s">
         <v>298</v>
       </c>
-      <c r="N9" s="65" t="s">
+      <c r="N9" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="O9" s="72" t="s">
+      <c r="O9" s="71" t="s">
         <v>312</v>
       </c>
       <c r="P9" s="40" t="s">
@@ -2677,23 +2674,23 @@
         <v>12</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="61" t="s">
         <v>226</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="71" t="s">
         <v>387</v>
       </c>
-      <c r="L10" s="72" t="s">
+      <c r="L10" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="M10" s="72" t="s">
+      <c r="M10" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="N10" s="64" t="s">
         <v>311</v>
       </c>
       <c r="O10" s="13" t="s">
@@ -2702,7 +2699,7 @@
       <c r="P10" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="Q10" s="56" t="s">
+      <c r="Q10" s="55" t="s">
         <v>354</v>
       </c>
       <c r="R10" s="40" t="s">
@@ -2730,21 +2727,21 @@
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="61" t="s">
         <v>231</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="72" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="71" t="s">
         <v>391</v>
       </c>
-      <c r="M11" s="72" t="s">
+      <c r="M11" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="N11" s="65" t="s">
+      <c r="N11" s="64" t="s">
         <v>313</v>
       </c>
       <c r="O11" s="13" t="s">
@@ -2780,36 +2777,36 @@
         <v>10</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="62" t="s">
+      <c r="I12" s="61" t="s">
         <v>279</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="56"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="M12" s="72" t="s">
+      <c r="M12" s="71" t="s">
         <v>301</v>
       </c>
-      <c r="N12" s="46" t="s">
+      <c r="N12" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="O12" s="72" t="s">
+      <c r="O12" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="P12" s="42" t="s">
+      <c r="P12" s="41" t="s">
         <v>340</v>
       </c>
       <c r="Q12" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R12" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="S12" s="42" t="s">
+      <c r="S12" s="41" t="s">
         <v>382</v>
       </c>
     </row>
@@ -2830,27 +2827,27 @@
         <v>10</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="61" t="s">
         <v>280</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="72" t="s">
+      <c r="K13" s="55"/>
+      <c r="L13" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="M13" s="72" t="s">
+      <c r="M13" s="71" t="s">
         <v>302</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="O13" s="72" t="s">
+      <c r="O13" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="P13" s="65" t="s">
+      <c r="P13" s="64" t="s">
         <v>335</v>
       </c>
       <c r="Q13" s="13" t="s">
@@ -2859,7 +2856,7 @@
       <c r="R13" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="S13" s="42" t="s">
+      <c r="S13" s="41" t="s">
         <v>384</v>
       </c>
     </row>
@@ -2880,22 +2877,22 @@
         <v>10</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="61" t="s">
         <v>394</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="72" t="s">
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="71" t="s">
         <v>306</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="64" t="s">
         <v>319</v>
       </c>
-      <c r="O14" s="56" t="s">
+      <c r="O14" s="55" t="s">
         <v>338</v>
       </c>
       <c r="P14" s="40" t="s">
@@ -2928,25 +2925,25 @@
         <v>10</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="61" t="s">
         <v>207</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="72" t="s">
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="71" t="s">
         <v>352</v>
       </c>
       <c r="N15" s="40" t="s">
         <v>316</v>
       </c>
       <c r="O15" s="7"/>
-      <c r="P15" s="42"/>
+      <c r="P15" s="41"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="40" t="s">
+      <c r="R15" s="64" t="s">
         <v>371</v>
       </c>
       <c r="S15" s="40" t="s">
@@ -2970,21 +2967,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="62" t="s">
+      <c r="H16" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="61" t="s">
         <v>211</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
       <c r="M16" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="41"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="42"/>
+      <c r="P16" s="41"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="40" t="s">
         <v>372</v>
@@ -2998,21 +2995,21 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="I17" s="62" t="s">
+      <c r="I17" s="61" t="s">
         <v>212</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="42"/>
+      <c r="N17" s="41"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="42"/>
+      <c r="P17" s="41"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="40" t="s">
+      <c r="R17" s="64" t="s">
         <v>373</v>
       </c>
       <c r="S17" s="30"/>
@@ -3034,21 +3031,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="62" t="s">
+      <c r="H18" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="61" t="s">
         <v>213</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="42"/>
+      <c r="N18" s="41"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="42"/>
+      <c r="P18" s="41"/>
       <c r="Q18" s="14"/>
-      <c r="R18" s="42"/>
+      <c r="R18" s="41"/>
       <c r="S18" s="30"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3068,23 +3065,23 @@
         <v>10</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="62" t="s">
+      <c r="I19" s="61" t="s">
         <v>214</v>
       </c>
       <c r="J19" s="10"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="43"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="42"/>
       <c r="O19" s="26"/>
-      <c r="P19" s="43"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="14"/>
-      <c r="R19" s="45"/>
+      <c r="R19" s="44"/>
       <c r="S19" s="33"/>
-      <c r="T19" s="52" t="s">
+      <c r="T19" s="51" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3105,13 +3102,13 @@
         <v>10</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="I20" s="62" t="s">
+      <c r="I20" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="J20" s="48" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="28">
@@ -3125,7 +3122,7 @@
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="49">
+      <c r="T20" s="48">
         <f>K20+L20+M20+N20+O20+P20+Q20+R20+S20</f>
         <v>6</v>
       </c>
@@ -3147,13 +3144,13 @@
         <v>10</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="62" t="s">
+      <c r="H21" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="I21" s="62" t="s">
+      <c r="I21" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="21"/>
@@ -3165,7 +3162,7 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="30"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="50">
+      <c r="T21" s="49">
         <f>K21+L21+M21+N21+O21+P21+Q21+R21+S21</f>
         <v>0</v>
       </c>
@@ -3187,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="50" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="25"/>
@@ -3199,7 +3196,7 @@
       <c r="Q22" s="34"/>
       <c r="R22" s="33"/>
       <c r="S22" s="35"/>
-      <c r="T22" s="50">
+      <c r="T22" s="49">
         <f>K22+L22+M22+N22+O22+P22+Q22+R22+S22</f>
         <v>0</v>
       </c>
@@ -3230,11 +3227,11 @@
       <c r="P23" s="31"/>
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
-      <c r="T23" s="63">
+      <c r="T23" s="62">
         <f>T20+T21+T22</f>
         <v>6</v>
       </c>
-      <c r="U23" s="64" t="s">
+      <c r="U23" s="63" t="s">
         <v>364</v>
       </c>
     </row>
@@ -3255,7 +3252,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="T24" s="52"/>
+      <c r="T24" s="51"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
@@ -3264,34 +3261,34 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="G25" s="9"/>
-      <c r="K25" s="48" t="s">
+      <c r="K25" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="48" t="s">
+      <c r="L25" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="48" t="s">
+      <c r="M25" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="48" t="s">
+      <c r="N25" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="48" t="s">
+      <c r="O25" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="P25" s="48" t="s">
+      <c r="P25" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="Q25" s="48" t="s">
+      <c r="Q25" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="R25" s="48" t="s">
+      <c r="R25" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="S25" s="48" t="s">
+      <c r="S25" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="T25" s="52"/>
+      <c r="T25" s="51"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -3311,34 +3308,34 @@
       </c>
       <c r="G26" s="9"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="L26" s="47" t="s">
+      <c r="L26" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="M26" s="47" t="s">
+      <c r="M26" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="N26" s="47" t="s">
+      <c r="N26" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="O26" s="47" t="s">
+      <c r="O26" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="P26" s="47" t="s">
+      <c r="P26" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="Q26" s="47" t="s">
+      <c r="Q26" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="R26" s="47" t="s">
+      <c r="R26" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="S26" s="47" t="s">
+      <c r="S26" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="T26" s="52"/>
+      <c r="T26" s="51"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3358,34 +3355,34 @@
       </c>
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="70" t="s">
         <v>402</v>
       </c>
-      <c r="L27" s="69" t="s">
+      <c r="L27" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="M27" s="76" t="s">
+      <c r="M27" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="N27" s="69" t="s">
+      <c r="N27" s="68" t="s">
         <v>245</v>
       </c>
-      <c r="O27" s="44" t="s">
+      <c r="O27" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="P27" s="67" t="s">
+      <c r="P27" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="Q27" s="44" t="s">
+      <c r="Q27" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="R27" s="67" t="s">
+      <c r="R27" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="S27" s="44" t="s">
+      <c r="S27" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="T27" s="52"/>
+      <c r="T27" s="51"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -3405,25 +3402,25 @@
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
-      <c r="K28" s="65" t="s">
+      <c r="K28" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="L28" s="70" t="s">
+      <c r="L28" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="M28" s="65" t="s">
+      <c r="M28" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="N28" s="70" t="s">
+      <c r="N28" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="O28" s="46" t="s">
+      <c r="O28" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="P28" s="68" t="s">
+      <c r="P28" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="Q28" s="42" t="s">
+      <c r="Q28" s="41" t="s">
         <v>263</v>
       </c>
       <c r="R28" s="14" t="s">
@@ -3432,7 +3429,7 @@
       <c r="S28" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="T28" s="52"/>
+      <c r="T28" s="51"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -3451,25 +3448,25 @@
         <v>9</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="65" t="s">
+      <c r="K29" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="L29" s="70" t="s">
+      <c r="L29" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="M29" s="65" t="s">
+      <c r="M29" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="N29" s="70" t="s">
+      <c r="N29" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="O29" s="46" t="s">
+      <c r="O29" s="45" t="s">
         <v>257</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="Q29" s="46" t="s">
+      <c r="Q29" s="45" t="s">
         <v>269</v>
       </c>
       <c r="R29" s="14" t="s">
@@ -3478,7 +3475,7 @@
       <c r="S29" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="T29" s="52"/>
+      <c r="T29" s="51"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3497,19 +3494,19 @@
         <v>9</v>
       </c>
       <c r="J30" s="10"/>
-      <c r="K30" s="65" t="s">
+      <c r="K30" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="L30" s="70" t="s">
+      <c r="L30" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="M30" s="65" t="s">
+      <c r="M30" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="N30" s="70" t="s">
+      <c r="N30" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="O30" s="80" t="s">
+      <c r="O30" s="79" t="s">
         <v>409</v>
       </c>
       <c r="P30" s="14" t="s">
@@ -3524,7 +3521,7 @@
       <c r="S30" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="T30" s="52"/>
+      <c r="T30" s="51"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3543,32 +3540,32 @@
         <v>9</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="65" t="s">
+      <c r="K31" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="L31" s="70" t="s">
+      <c r="L31" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="M31" s="65" t="s">
+      <c r="M31" s="64" t="s">
         <v>400</v>
       </c>
-      <c r="N31" s="79" t="s">
+      <c r="N31" s="78" t="s">
         <v>407</v>
       </c>
-      <c r="O31" s="65" t="s">
+      <c r="O31" s="64" t="s">
         <v>255</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="Q31" s="42"/>
+      <c r="Q31" s="41"/>
       <c r="R31" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="S31" s="42" t="s">
+      <c r="S31" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="T31" s="52"/>
+      <c r="T31" s="51"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3587,30 +3584,30 @@
         <v>9</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="65" t="s">
+      <c r="K32" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="70" t="s">
+      <c r="L32" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="M32" s="77" t="s">
+      <c r="M32" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="N32" s="70" t="s">
+      <c r="N32" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="O32" s="42"/>
+      <c r="O32" s="41"/>
       <c r="P32" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="Q32" s="42"/>
+      <c r="Q32" s="41"/>
       <c r="R32" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="S32" s="42" t="s">
+      <c r="S32" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="T32" s="52"/>
+      <c r="T32" s="51"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -3619,23 +3616,23 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="65" t="s">
+      <c r="K33" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="L33" s="70" t="s">
+      <c r="L33" s="69" t="s">
         <v>396</v>
       </c>
-      <c r="M33" s="65" t="s">
+      <c r="M33" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="N33" s="70" t="s">
+      <c r="N33" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="O33" s="42"/>
+      <c r="O33" s="41"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="42"/>
+      <c r="Q33" s="41"/>
       <c r="R33" s="14"/>
-      <c r="S33" s="42" t="s">
+      <c r="S33" s="41" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3656,23 +3653,23 @@
         <v>10</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="65" t="s">
+      <c r="K34" s="64" t="s">
         <v>398</v>
       </c>
-      <c r="L34" s="70" t="s">
+      <c r="L34" s="69" t="s">
         <v>399</v>
       </c>
-      <c r="M34" s="65" t="s">
+      <c r="M34" s="64" t="s">
         <v>406</v>
       </c>
-      <c r="N34" s="70" t="s">
+      <c r="N34" s="69" t="s">
         <v>258</v>
       </c>
-      <c r="O34" s="42"/>
+      <c r="O34" s="41"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="42"/>
+      <c r="Q34" s="41"/>
       <c r="R34" s="14"/>
-      <c r="S34" s="42"/>
+      <c r="S34" s="41"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -3690,18 +3687,18 @@
       <c r="E35" s="8">
         <v>10</v>
       </c>
-      <c r="K35" s="45"/>
+      <c r="K35" s="44"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="70" t="s">
+      <c r="M35" s="44"/>
+      <c r="N35" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="O35" s="43"/>
+      <c r="O35" s="42"/>
       <c r="P35" s="15"/>
-      <c r="Q35" s="43"/>
+      <c r="Q35" s="42"/>
       <c r="R35" s="14"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="52" t="s">
+      <c r="S35" s="42"/>
+      <c r="T35" s="51" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3721,7 +3718,7 @@
       <c r="E36" s="8">
         <v>10</v>
       </c>
-      <c r="J36" s="49" t="s">
+      <c r="J36" s="48" t="s">
         <v>20</v>
       </c>
       <c r="K36" s="27">
@@ -3743,7 +3740,7 @@
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
-      <c r="T36" s="53">
+      <c r="T36" s="52">
         <f>K36+L36+M36+N36+O36+P36+Q36+R36+S36</f>
         <v>605</v>
       </c>
@@ -3764,7 +3761,7 @@
       <c r="E37" s="8">
         <v>10</v>
       </c>
-      <c r="J37" s="51" t="s">
+      <c r="J37" s="50" t="s">
         <v>21</v>
       </c>
       <c r="K37" s="33">
@@ -3784,11 +3781,11 @@
       <c r="Q37" s="33"/>
       <c r="R37" s="33"/>
       <c r="S37" s="33"/>
-      <c r="T37" s="58">
+      <c r="T37" s="57">
         <f>K37+L37+M37+N37+O37+P37+Q37+R37+S37</f>
         <v>530</v>
       </c>
-      <c r="U37" s="64" t="s">
+      <c r="U37" s="63" t="s">
         <v>365</v>
       </c>
     </row>
@@ -3811,7 +3808,7 @@
       <c r="K38" s="31"/>
       <c r="L38" s="31"/>
       <c r="R38" s="31"/>
-      <c r="T38" s="64">
+      <c r="T38" s="63">
         <f>T36+T37</f>
         <v>1135</v>
       </c>
@@ -3980,7 +3977,7 @@
       <c r="E46" s="8">
         <v>8</v>
       </c>
-      <c r="N46" s="54"/>
+      <c r="N46" s="53"/>
       <c r="O46" s="8"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="8"/>
@@ -5695,8 +5692,8 @@
         <v>8</v>
       </c>
       <c r="I134" s="14"/>
-      <c r="K134" s="54"/>
-      <c r="L134" s="54"/>
+      <c r="K134" s="53"/>
+      <c r="L134" s="53"/>
       <c r="M134" s="31"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6177,7 +6174,7 @@
       <c r="E162" s="8">
         <v>4</v>
       </c>
-      <c r="R162" s="54"/>
+      <c r="R162" s="53"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
@@ -7018,7 +7015,7 @@
       <c r="E217" s="8">
         <v>5</v>
       </c>
-      <c r="I217" s="66"/>
+      <c r="I217" s="65"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
@@ -7036,7 +7033,7 @@
       <c r="E218" s="8">
         <v>5</v>
       </c>
-      <c r="I218" s="66"/>
+      <c r="I218" s="65"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
@@ -7044,7 +7041,7 @@
       <c r="C219" s="7"/>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
-      <c r="I219" s="66"/>
+      <c r="I219" s="65"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="24" t="s">
@@ -7062,7 +7059,7 @@
       <c r="E220" s="8">
         <v>5</v>
       </c>
-      <c r="I220" s="66"/>
+      <c r="I220" s="65"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="24" t="s">
@@ -7080,7 +7077,7 @@
       <c r="E221" s="8">
         <v>5</v>
       </c>
-      <c r="I221" s="66"/>
+      <c r="I221" s="65"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="24" t="s">
@@ -7098,7 +7095,7 @@
       <c r="E222" s="8">
         <v>5</v>
       </c>
-      <c r="I222" s="66"/>
+      <c r="I222" s="65"/>
       <c r="J222" s="31"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -7117,7 +7114,7 @@
       <c r="E223" s="8">
         <v>5</v>
       </c>
-      <c r="I223" s="66"/>
+      <c r="I223" s="65"/>
       <c r="J223" s="31"/>
       <c r="K223" s="31"/>
       <c r="L223" s="31"/>
@@ -7128,7 +7125,7 @@
       <c r="C224" s="7"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
-      <c r="I224" s="66"/>
+      <c r="I224" s="65"/>
       <c r="J224" s="31"/>
       <c r="K224" s="31"/>
       <c r="L224" s="31"/>
@@ -7149,7 +7146,7 @@
       <c r="E225" s="8">
         <v>5</v>
       </c>
-      <c r="I225" s="66"/>
+      <c r="I225" s="65"/>
       <c r="J225" s="31"/>
       <c r="K225" s="31"/>
       <c r="L225" s="31"/>
@@ -7170,7 +7167,7 @@
       <c r="E226" s="8">
         <v>5</v>
       </c>
-      <c r="I226" s="66"/>
+      <c r="I226" s="65"/>
       <c r="J226" s="31"/>
       <c r="K226" s="31"/>
       <c r="L226" s="31"/>
@@ -7191,7 +7188,7 @@
       <c r="E227" s="8">
         <v>5</v>
       </c>
-      <c r="I227" s="66"/>
+      <c r="I227" s="65"/>
       <c r="J227" s="31"/>
       <c r="K227" s="31"/>
       <c r="L227" s="31"/>
@@ -7213,7 +7210,7 @@
       <c r="E228" s="8">
         <v>5</v>
       </c>
-      <c r="I228" s="66"/>
+      <c r="I228" s="65"/>
       <c r="J228" s="31"/>
       <c r="K228" s="31"/>
       <c r="L228" s="31"/>
@@ -7225,7 +7222,7 @@
       <c r="C229" s="7"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
-      <c r="I229" s="66"/>
+      <c r="I229" s="65"/>
       <c r="J229" s="31"/>
       <c r="K229" s="31"/>
       <c r="L229" s="31"/>
@@ -7247,8 +7244,8 @@
       <c r="E230" s="8">
         <v>6</v>
       </c>
-      <c r="I230" s="66"/>
-      <c r="J230" s="54"/>
+      <c r="I230" s="65"/>
+      <c r="J230" s="53"/>
       <c r="K230" s="31"/>
       <c r="L230" s="31"/>
       <c r="S230" s="31"/>
@@ -7269,7 +7266,7 @@
       <c r="E231" s="8">
         <v>6</v>
       </c>
-      <c r="I231" s="66"/>
+      <c r="I231" s="65"/>
       <c r="J231" s="31"/>
       <c r="K231" s="31"/>
       <c r="L231" s="31"/>
@@ -7291,7 +7288,7 @@
       <c r="E232" s="8">
         <v>6</v>
       </c>
-      <c r="I232" s="66"/>
+      <c r="I232" s="65"/>
       <c r="J232" s="31"/>
       <c r="K232" s="31"/>
       <c r="L232" s="31"/>
@@ -7313,7 +7310,7 @@
       <c r="E233" s="8">
         <v>6</v>
       </c>
-      <c r="I233" s="66"/>
+      <c r="I233" s="65"/>
       <c r="J233" s="14"/>
       <c r="K233" s="31"/>
       <c r="L233" s="31"/>
@@ -7325,7 +7322,7 @@
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
-      <c r="I234" s="66"/>
+      <c r="I234" s="65"/>
       <c r="J234" s="14"/>
       <c r="K234" s="31"/>
       <c r="L234" s="31"/>
@@ -7347,7 +7344,7 @@
       <c r="E235" s="8">
         <v>6</v>
       </c>
-      <c r="I235" s="66"/>
+      <c r="I235" s="65"/>
       <c r="J235" s="14"/>
       <c r="K235" s="31"/>
       <c r="L235" s="31"/>
@@ -7369,7 +7366,7 @@
       <c r="E236" s="8">
         <v>6</v>
       </c>
-      <c r="I236" s="66"/>
+      <c r="I236" s="65"/>
       <c r="J236" s="14"/>
       <c r="K236" s="31"/>
       <c r="L236" s="31"/>
@@ -7391,7 +7388,7 @@
       <c r="E237" s="8">
         <v>6</v>
       </c>
-      <c r="I237" s="66"/>
+      <c r="I237" s="65"/>
       <c r="J237" s="14"/>
       <c r="K237" s="31"/>
       <c r="L237" s="31"/>
@@ -7413,7 +7410,7 @@
       <c r="E238" s="8">
         <v>6</v>
       </c>
-      <c r="I238" s="66"/>
+      <c r="I238" s="65"/>
       <c r="J238" s="31"/>
       <c r="K238" s="31"/>
       <c r="L238" s="31"/>
@@ -7486,7 +7483,7 @@
       <c r="E242" s="17">
         <v>6</v>
       </c>
-      <c r="J242" s="55"/>
+      <c r="J242" s="54"/>
       <c r="K242" s="31"/>
       <c r="L242" s="31"/>
       <c r="S242" s="31"/>
@@ -12664,19 +12661,19 @@
       <c r="H586" s="4"/>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="73" t="s">
+      <c r="A587" s="72" t="s">
         <v>53</v>
       </c>
       <c r="B587" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C587" s="74" t="s">
+      <c r="C587" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D587" s="75">
+      <c r="D587" s="74">
         <v>20</v>
       </c>
-      <c r="E587" s="75">
+      <c r="E587" s="74">
         <v>7</v>
       </c>
       <c r="H587" s="4"/>
@@ -13362,19 +13359,19 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="73" t="s">
+      <c r="A631" s="72" t="s">
         <v>81</v>
       </c>
       <c r="B631" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C631" s="74" t="s">
+      <c r="C631" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D631" s="75">
+      <c r="D631" s="74">
         <v>60</v>
       </c>
-      <c r="E631" s="75">
+      <c r="E631" s="74">
         <v>9</v>
       </c>
     </row>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2126,7 +2126,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,7 +2596,7 @@
       <c r="O8" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="P8" s="40" t="s">
+      <c r="P8" s="64" t="s">
         <v>348</v>
       </c>
       <c r="Q8" s="78" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1575,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1806,6 +1806,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2125,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,13 +2377,13 @@
       <c r="P4" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="81" t="s">
         <v>342</v>
       </c>
       <c r="R4" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="64" t="s">
         <v>374</v>
       </c>
     </row>
@@ -2530,7 +2536,7 @@
       <c r="L7" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="71" t="s">
         <v>297</v>
       </c>
       <c r="N7" s="64" t="s">
@@ -2587,7 +2593,7 @@
       <c r="L8" s="71" t="s">
         <v>386</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="80" t="s">
         <v>353</v>
       </c>
       <c r="N8" s="40" t="s">
@@ -2699,7 +2705,7 @@
       <c r="P10" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="Q10" s="55" t="s">
+      <c r="Q10" s="71" t="s">
         <v>354</v>
       </c>
       <c r="R10" s="40" t="s">
@@ -2744,7 +2750,7 @@
       <c r="N11" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="71" t="s">
         <v>325</v>
       </c>
       <c r="P11" s="40" t="s">
@@ -2976,14 +2982,14 @@
       <c r="J16" s="1"/>
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="71" t="s">
         <v>351</v>
       </c>
       <c r="N16" s="41"/>
       <c r="O16" s="7"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="64" t="s">
         <v>372</v>
       </c>
       <c r="S16" s="30"/>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1811,7 +1811,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2131,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,7 +2377,7 @@
       <c r="P4" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="78" t="s">
         <v>342</v>
       </c>
       <c r="R4" s="64" t="s">
@@ -2422,7 +2422,7 @@
       <c r="L5" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="71" t="s">
         <v>295</v>
       </c>
       <c r="N5" s="64" t="s">
@@ -2708,7 +2708,7 @@
       <c r="Q10" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="81" t="s">
         <v>367</v>
       </c>
       <c r="S10" s="40" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1575,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1811,7 +1811,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2132,7 +2135,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,7 +2371,7 @@
       <c r="M4" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="81" t="s">
         <v>304</v>
       </c>
       <c r="O4" s="69" t="s">
@@ -2428,7 +2431,7 @@
       <c r="N5" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="82" t="s">
         <v>322</v>
       </c>
       <c r="P5" s="64" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1575,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1809,12 +1809,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2134,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,7 +2365,7 @@
       <c r="M4" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="64" t="s">
         <v>304</v>
       </c>
       <c r="O4" s="69" t="s">
@@ -2431,7 +2425,7 @@
       <c r="N5" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="O5" s="82" t="s">
+      <c r="O5" s="69" t="s">
         <v>322</v>
       </c>
       <c r="P5" s="64" t="s">
@@ -2494,7 +2488,7 @@
       <c r="P6" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="78" t="s">
         <v>344</v>
       </c>
       <c r="R6" s="40" t="s">
@@ -2605,7 +2599,7 @@
       <c r="O8" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="P8" s="40" t="s">
         <v>348</v>
       </c>
       <c r="Q8" s="78" t="s">
@@ -2711,7 +2705,7 @@
       <c r="Q10" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="R10" s="81" t="s">
+      <c r="R10" s="64" t="s">
         <v>367</v>
       </c>
       <c r="S10" s="40" t="s">
@@ -3376,7 +3370,7 @@
       <c r="N27" s="68" t="s">
         <v>245</v>
       </c>
-      <c r="O27" s="43" t="s">
+      <c r="O27" s="70" t="s">
         <v>259</v>
       </c>
       <c r="P27" s="66" t="s">
@@ -3423,7 +3417,7 @@
       <c r="N28" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="O28" s="45" t="s">
+      <c r="O28" s="64" t="s">
         <v>256</v>
       </c>
       <c r="P28" s="67" t="s">
@@ -3469,7 +3463,7 @@
       <c r="N29" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="O29" s="64" t="s">
         <v>257</v>
       </c>
       <c r="P29" s="14" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -1575,7 +1575,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1767,9 +1767,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2129,7 +2126,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,28 +2296,28 @@
         <v>228</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="76" t="s">
         <v>390</v>
       </c>
       <c r="N3" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="O3" s="78" t="s">
+      <c r="O3" s="77" t="s">
         <v>320</v>
       </c>
-      <c r="P3" s="70" t="s">
+      <c r="P3" s="69" t="s">
         <v>328</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="R3" s="70" t="s">
+      <c r="R3" s="69" t="s">
         <v>333</v>
       </c>
       <c r="S3" s="60" t="s">
@@ -2356,25 +2353,25 @@
         <v>229</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="70" t="s">
         <v>290</v>
       </c>
-      <c r="M4" s="71" t="s">
+      <c r="M4" s="70" t="s">
         <v>294</v>
       </c>
       <c r="N4" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="68" t="s">
         <v>321</v>
       </c>
       <c r="P4" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>342</v>
       </c>
       <c r="R4" s="64" t="s">
@@ -2413,19 +2410,19 @@
         <v>233</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="M5" s="71" t="s">
+      <c r="M5" s="70" t="s">
         <v>295</v>
       </c>
       <c r="N5" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="68" t="s">
         <v>322</v>
       </c>
       <c r="P5" s="64" t="s">
@@ -2470,13 +2467,13 @@
         <v>223</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="L6" s="71" t="s">
+      <c r="L6" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="M6" s="71" t="s">
+      <c r="M6" s="70" t="s">
         <v>296</v>
       </c>
       <c r="N6" s="64" t="s">
@@ -2488,7 +2485,7 @@
       <c r="P6" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="Q6" s="78" t="s">
+      <c r="Q6" s="77" t="s">
         <v>344</v>
       </c>
       <c r="R6" s="40" t="s">
@@ -2527,13 +2524,13 @@
         <v>224</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="71" t="s">
+      <c r="K7" s="70" t="s">
         <v>285</v>
       </c>
       <c r="L7" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="M7" s="71" t="s">
+      <c r="M7" s="70" t="s">
         <v>297</v>
       </c>
       <c r="N7" s="64" t="s">
@@ -2545,7 +2542,7 @@
       <c r="P7" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="Q7" s="78" t="s">
+      <c r="Q7" s="77" t="s">
         <v>345</v>
       </c>
       <c r="R7" s="40" t="s">
@@ -2584,13 +2581,13 @@
         <v>230</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="71" t="s">
+      <c r="K8" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="L8" s="71" t="s">
+      <c r="L8" s="70" t="s">
         <v>386</v>
       </c>
-      <c r="M8" s="80" t="s">
+      <c r="M8" s="79" t="s">
         <v>353</v>
       </c>
       <c r="N8" s="40" t="s">
@@ -2602,7 +2599,7 @@
       <c r="P8" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="Q8" s="78" t="s">
+      <c r="Q8" s="77" t="s">
         <v>346</v>
       </c>
       <c r="R8" s="40" t="s">
@@ -2629,19 +2626,19 @@
         <v>225</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="71" t="s">
+      <c r="K9" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="L9" s="71" t="s">
+      <c r="L9" s="70" t="s">
         <v>388</v>
       </c>
-      <c r="M9" s="71" t="s">
+      <c r="M9" s="70" t="s">
         <v>298</v>
       </c>
       <c r="N9" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="O9" s="71" t="s">
+      <c r="O9" s="70" t="s">
         <v>312</v>
       </c>
       <c r="P9" s="40" t="s">
@@ -2684,13 +2681,13 @@
         <v>226</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="70" t="s">
         <v>389</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="70" t="s">
         <v>299</v>
       </c>
       <c r="N10" s="64" t="s">
@@ -2702,7 +2699,7 @@
       <c r="P10" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="Q10" s="71" t="s">
+      <c r="Q10" s="70" t="s">
         <v>354</v>
       </c>
       <c r="R10" s="64" t="s">
@@ -2738,16 +2735,16 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="70" t="s">
         <v>391</v>
       </c>
-      <c r="M11" s="71" t="s">
+      <c r="M11" s="70" t="s">
         <v>300</v>
       </c>
       <c r="N11" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="O11" s="71" t="s">
+      <c r="O11" s="70" t="s">
         <v>325</v>
       </c>
       <c r="P11" s="40" t="s">
@@ -2791,13 +2788,13 @@
       <c r="L12" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="M12" s="71" t="s">
+      <c r="M12" s="70" t="s">
         <v>301</v>
       </c>
       <c r="N12" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="O12" s="71" t="s">
+      <c r="O12" s="70" t="s">
         <v>326</v>
       </c>
       <c r="P12" s="41" t="s">
@@ -2838,16 +2835,16 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="55"/>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="M13" s="71" t="s">
+      <c r="M13" s="70" t="s">
         <v>302</v>
       </c>
       <c r="N13" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="O13" s="71" t="s">
+      <c r="O13" s="70" t="s">
         <v>327</v>
       </c>
       <c r="P13" s="64" t="s">
@@ -2889,7 +2886,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
-      <c r="M14" s="71" t="s">
+      <c r="M14" s="70" t="s">
         <v>306</v>
       </c>
       <c r="N14" s="64" t="s">
@@ -2937,7 +2934,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
-      <c r="M15" s="71" t="s">
+      <c r="M15" s="70" t="s">
         <v>352</v>
       </c>
       <c r="N15" s="40" t="s">
@@ -2979,7 +2976,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
-      <c r="M16" s="71" t="s">
+      <c r="M16" s="70" t="s">
         <v>351</v>
       </c>
       <c r="N16" s="41"/>
@@ -3358,19 +3355,19 @@
       </c>
       <c r="G27" s="9"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="70" t="s">
+      <c r="K27" s="69" t="s">
         <v>402</v>
       </c>
-      <c r="L27" s="68" t="s">
+      <c r="L27" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="M27" s="75" t="s">
+      <c r="M27" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="N27" s="68" t="s">
+      <c r="N27" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="O27" s="70" t="s">
+      <c r="O27" s="69" t="s">
         <v>259</v>
       </c>
       <c r="P27" s="66" t="s">
@@ -3408,19 +3405,19 @@
       <c r="K28" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="L28" s="69" t="s">
+      <c r="L28" s="68" t="s">
         <v>238</v>
       </c>
       <c r="M28" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="N28" s="69" t="s">
+      <c r="N28" s="68" t="s">
         <v>248</v>
       </c>
       <c r="O28" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="P28" s="67" t="s">
+      <c r="P28" s="68" t="s">
         <v>260</v>
       </c>
       <c r="Q28" s="41" t="s">
@@ -3454,13 +3451,13 @@
       <c r="K29" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="L29" s="69" t="s">
+      <c r="L29" s="68" t="s">
         <v>239</v>
       </c>
       <c r="M29" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="N29" s="69" t="s">
+      <c r="N29" s="68" t="s">
         <v>249</v>
       </c>
       <c r="O29" s="64" t="s">
@@ -3472,7 +3469,7 @@
       <c r="Q29" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="R29" s="14" t="s">
+      <c r="R29" s="68" t="s">
         <v>267</v>
       </c>
       <c r="S29" s="40" t="s">
@@ -3500,16 +3497,16 @@
       <c r="K30" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="L30" s="69" t="s">
+      <c r="L30" s="68" t="s">
         <v>240</v>
       </c>
       <c r="M30" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="N30" s="69" t="s">
+      <c r="N30" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="O30" s="79" t="s">
+      <c r="O30" s="78" t="s">
         <v>409</v>
       </c>
       <c r="P30" s="14" t="s">
@@ -3546,13 +3543,13 @@
       <c r="K31" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="L31" s="69" t="s">
+      <c r="L31" s="68" t="s">
         <v>242</v>
       </c>
       <c r="M31" s="64" t="s">
         <v>400</v>
       </c>
-      <c r="N31" s="78" t="s">
+      <c r="N31" s="77" t="s">
         <v>407</v>
       </c>
       <c r="O31" s="64" t="s">
@@ -3590,13 +3587,13 @@
       <c r="K32" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="69" t="s">
+      <c r="L32" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="M32" s="76" t="s">
+      <c r="M32" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="N32" s="69" t="s">
+      <c r="N32" s="68" t="s">
         <v>252</v>
       </c>
       <c r="O32" s="41"/>
@@ -3622,13 +3619,13 @@
       <c r="K33" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="L33" s="69" t="s">
+      <c r="L33" s="68" t="s">
         <v>396</v>
       </c>
       <c r="M33" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="N33" s="69" t="s">
+      <c r="N33" s="68" t="s">
         <v>253</v>
       </c>
       <c r="O33" s="41"/>
@@ -3659,13 +3656,13 @@
       <c r="K34" s="64" t="s">
         <v>398</v>
       </c>
-      <c r="L34" s="69" t="s">
+      <c r="L34" s="68" t="s">
         <v>399</v>
       </c>
       <c r="M34" s="64" t="s">
         <v>406</v>
       </c>
-      <c r="N34" s="69" t="s">
+      <c r="N34" s="68" t="s">
         <v>258</v>
       </c>
       <c r="O34" s="41"/>
@@ -3693,7 +3690,7 @@
       <c r="K35" s="44"/>
       <c r="L35" s="14"/>
       <c r="M35" s="44"/>
-      <c r="N35" s="69" t="s">
+      <c r="N35" s="68" t="s">
         <v>405</v>
       </c>
       <c r="O35" s="42"/>
@@ -12664,19 +12661,19 @@
       <c r="H586" s="4"/>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="72" t="s">
+      <c r="A587" s="71" t="s">
         <v>53</v>
       </c>
       <c r="B587" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C587" s="73" t="s">
+      <c r="C587" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="D587" s="74">
+      <c r="D587" s="73">
         <v>20</v>
       </c>
-      <c r="E587" s="74">
+      <c r="E587" s="73">
         <v>7</v>
       </c>
       <c r="H587" s="4"/>
@@ -13362,19 +13359,19 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="72" t="s">
+      <c r="A631" s="71" t="s">
         <v>81</v>
       </c>
       <c r="B631" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C631" s="73" t="s">
+      <c r="C631" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="D631" s="74">
+      <c r="D631" s="73">
         <v>60</v>
       </c>
-      <c r="E631" s="74">
+      <c r="E631" s="73">
         <v>9</v>
       </c>
     </row>

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$674</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1912,6 +1912,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1947,6 +1964,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -2126,7 +2160,7 @@
   <dimension ref="A1:U1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2462,7 @@
       <c r="P5" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="77" t="s">
         <v>343</v>
       </c>
       <c r="R5" s="41" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2159,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,7 +2402,7 @@
       <c r="O4" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="64" t="s">
         <v>329</v>
       </c>
       <c r="Q4" s="77" t="s">
@@ -2561,7 +2561,7 @@
       <c r="K7" s="70" t="s">
         <v>285</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="70" t="s">
         <v>293</v>
       </c>
       <c r="M7" s="70" t="s">
@@ -2630,7 +2630,7 @@
       <c r="O8" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="P8" s="40" t="s">
+      <c r="P8" s="64" t="s">
         <v>348</v>
       </c>
       <c r="Q8" s="77" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2159,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,7 +2579,7 @@
       <c r="Q7" s="77" t="s">
         <v>345</v>
       </c>
-      <c r="R7" s="40" t="s">
+      <c r="R7" s="64" t="s">
         <v>361</v>
       </c>
       <c r="S7" s="40" t="s">
@@ -2727,7 +2727,7 @@
       <c r="N10" s="64" t="s">
         <v>311</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="70" t="s">
         <v>324</v>
       </c>
       <c r="P10" s="40" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2159,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="70" t="s">
         <v>392</v>
       </c>
       <c r="M12" s="70" t="s">

--- a/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
+++ b/Algemeen/Asset List/Asset List Game-Lab-2.1.xlsx
@@ -2159,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,19 +3146,35 @@
         <v>19</v>
       </c>
       <c r="K20" s="28">
-        <v>6</v>
-      </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="32"/>
+        <v>63</v>
+      </c>
+      <c r="L20" s="30">
+        <v>98</v>
+      </c>
+      <c r="M20" s="31">
+        <v>86</v>
+      </c>
+      <c r="N20" s="30">
+        <v>89</v>
+      </c>
+      <c r="O20" s="29">
+        <v>146</v>
+      </c>
+      <c r="P20" s="27">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>128</v>
+      </c>
+      <c r="R20" s="30">
+        <v>100</v>
+      </c>
+      <c r="S20" s="32">
+        <v>30</v>
+      </c>
       <c r="T20" s="48">
         <f>K20+L20+M20+N20+O20+P20+Q20+R20+S20</f>
-        <v>6</v>
+        <v>816</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -3187,18 +3203,36 @@
       <c r="J21" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="32"/>
+      <c r="K21" s="21">
+        <v>98</v>
+      </c>
+      <c r="L21" s="30">
+        <v>35</v>
+      </c>
+      <c r="M21" s="31">
+        <v>20</v>
+      </c>
+      <c r="N21" s="30">
+        <v>0</v>
+      </c>
+      <c r="O21" s="31">
+        <v>0</v>
+      </c>
+      <c r="P21" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="31">
+        <v>0</v>
+      </c>
+      <c r="R21" s="30">
+        <v>22</v>
+      </c>
+      <c r="S21" s="32">
+        <v>0</v>
+      </c>
       <c r="T21" s="49">
         <f>K21+L21+M21+N21+O21+P21+Q21+R21+S21</f>
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3221,18 +3255,36 @@
       <c r="J22" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="35"/>
+      <c r="K22" s="25">
+        <v>48</v>
+      </c>
+      <c r="L22" s="33">
+        <v>81</v>
+      </c>
+      <c r="M22" s="34">
+        <v>106</v>
+      </c>
+      <c r="N22" s="33">
+        <v>50</v>
+      </c>
+      <c r="O22" s="34">
+        <v>20</v>
+      </c>
+      <c r="P22" s="33">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="34">
+        <v>0</v>
+      </c>
+      <c r="R22" s="33">
+        <v>0</v>
+      </c>
+      <c r="S22" s="35">
+        <v>0</v>
+      </c>
       <c r="T22" s="49">
         <f>K22+L22+M22+N22+O22+P22+Q22+R22+S22</f>
-        <v>0</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3263,7 +3315,7 @@
       <c r="R23" s="31"/>
       <c r="T23" s="62">
         <f>T20+T21+T22</f>
-        <v>6</v>
+        <v>1346</v>
       </c>
       <c r="U23" s="63" t="s">
         <v>364</v>
@@ -3497,7 +3549,7 @@
       <c r="O29" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="P29" s="68" t="s">
         <v>261</v>
       </c>
       <c r="Q29" s="45" t="s">
@@ -3543,7 +3595,7 @@
       <c r="O30" s="78" t="s">
         <v>409</v>
       </c>
-      <c r="P30" s="14" t="s">
+      <c r="P30" s="68" t="s">
         <v>262</v>
       </c>
       <c r="Q30" s="40" t="s">
@@ -3770,7 +3822,9 @@
       <c r="O36" s="27">
         <v>20</v>
       </c>
-      <c r="P36" s="27"/>
+      <c r="P36" s="27">
+        <v>0</v>
+      </c>
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
@@ -3810,14 +3864,18 @@
       <c r="N37" s="33">
         <v>170</v>
       </c>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
+      <c r="O37" s="33">
+        <v>190</v>
+      </c>
+      <c r="P37" s="33">
+        <v>100</v>
+      </c>
       <c r="Q37" s="33"/>
       <c r="R37" s="33"/>
       <c r="S37" s="33"/>
       <c r="T3